--- a/models/data4_studium_with_sentiment.xlsx
+++ b/models/data4_studium_with_sentiment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="264">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -28,1151 +28,1405 @@
     <t>Sentiment</t>
   </si>
   <si>
-    <t>Das Studium an der EAFIT ist nicht mit Mannheim zu vergleichen. Hier gibt es keine Klausurenphase am Ende des Semesters wie wir sie aus Mannheim kennen, sondern es gibt unter dem Semester zahlreiche Präsentationen, Midterms, Quizzes, Case Studies, und andere Abgaben. Dementsprechend muss man während des Semesters die ganze Zeit mitarbeiten, aber die Schwierigkeit ist geringer als in Mannheim. Es gibt an der EAFIT keine Anwesenheitspflicht, jedoch gibt es vereinzelnd Professoren, die die Anwesenheit überprüfen und dafür zum Beispiel Extrapunkte geben. Da in den meisten Stunden Prüfungsleistungen erbracht werden müssen, ist ein allzu häufiges Fehlen nicht möglich, jedoch haben wir die Erfahrung gemacht, dass die Professoren für einzelnes Fehlen bei Veranstaltungen durchaus Verständnis haben. Außerdem kann man sich die Kurse so legen, dass man nur an einzelnen Tagen die Woche in die Uni muss. Ich zum Beispiel hatte nur am Montag, Mittwoch und Donnerstag Kurse. Aufgrund von Corona finden die Veranstaltungen außerdem alle Hybrid statt, das heißt man muss sich beim Professor melden, wenn man vor Ort anwesend sein will und kann sich sonst online über Teams dazu schalten. Hier war die Qualität der Übertragung leider oft sehr schlecht, weswegen man den Vorlesungen nicht so gut folgen konnte. Jedoch wurden fast alle Veranstaltungen, die ich besucht habe, auch aufgenommen, sodass man sie sich im Nachhinein (nochmal) anschauen konnte.</t>
-  </si>
-  <si>
-    <t>Generell ist das Studium an der Universität in Cádiz anders als in Mannheim. Die Kurse sind verschulter, finden in der Regel zweimal pro Woche statt und es gibt auch Noten für die Anwesenheit und die Mitarbeit. Das Notensystem geht von 0 bis 10, wobei man mit 5 Punkten bestanden hat. Im Vergleich zum Studium hat man mehr Leistungen während des Semesters zu erbringen, was sowohl Vor- als auch Nachteile hat. Beispielsweise musste ich während des Semesters Präsentationen halten, Texte abgeben, Beiträge in Foren schreiben und kurze Zwischentests ablegen. Das Pendant zu Ilias ist der Campus Virtual, an dem die Dozenten ihre Vorlesungsmaterialen hochladen. Allerdings habe ich die Erfahrung gemacht, dass sich die Materialien zur Vorlesung (Folien, Skript) in Mannheim deutlich besser zur Klausurvorbereitung eignen als in Spanien. In einem Fach wurde nur weiterführende Literatur hochgeladen und auf die Klausur musste man sich mithilfe seiner Mitschriften vorbereiten. Vor allem anfangs hat mir das große Schwierigkeiten bereitet, da ich mich sehr schwer getan habe den andalusischen Akzent zu verstehen. Jedoch brauch man sich diesbezüglich keine Sorgen machen, da man sich sehr schnell daran gewöhnt.</t>
-  </si>
-  <si>
-    <t>Die Kurse in Newcastle bestehen in der Regel aus einer zweistündigen Vorlesung und einem einstündigen Seminar, Anwesenheit ist Pflicht und wird auch fast immer kontrolliert. Die Kurse beginnen Anfang Oktober und enden Mitte Januar. Mitarbeit wird erwartet, das Pensum an Literatur ist aber insgesamt etwas niedriger. Im Gegensatz zu Mannheim ist das Studium in Newcastle wenig quantitativ. Vielmehr wird viel über Theorie und Philosophie gesprochen und über aktuelle Ereignisse diskutiert.
-Newcastle hat eine gut ausgestattete Bibliothek, eine richtige Mensa gibt es allerdings nicht, dafür aber mehrere Uni Cafés in denen man relativ günstig auch Mittagessen kann. 
-Die Uni hat sehr viele Societies, die meisten davon beschäftigen sich mit Sport, aber es gibt auch viele andere, z.B. eine Erasmus-Society. Man zahlt Beiträge, die allerdings relativ niedrig sind, und veranstaltet oft eigene Parties oder Ausflüge. In der Freshers Week gibt es Messen auf denen die Societies vorgestellt werden. Die Freshers Week selber ist eine große Attraktion, an der man fast alles erst mal ausprobieren kann, vorausgesetzt man kauft ein Freshers Week Wristband (70 Pfund), allerdings ist die Freshers Week eher auf die Erstis ausgerichtet, nicht die Internationals. Man muss also selbst entscheiden ob es das Wert ist. Es gibt auch eine separate Internationals Welcome Week die eine Woche vorher stattfindet und in der es hauptsächlich um das Zurechtfinden an der Uni geht. In der Internationals Welcome Week muss man auch einen English-Sprachtest von der Universität Newcastle machen, anhand des festgestellten Niveaus werden Englischkurse angeboten, diese sind aber nicht verpflichtend. Ich hatte mit der Sprache keinerlei Probleme, da auch in Mannheim die Fachliteratur auf englisch ist.</t>
-  </si>
-  <si>
-    <t>Der unglaublich grüne und gut gepflegte Campus der University of Sydney fasziniert seit dem ersten Tag und gehört zu den wahrscheinlich schönsten Uni Campussen weltweit. Man merkt, dass diese Uni nicht ganz günstig ist. Auch fachlich gehört sie zu den zu den Top Unis weltweit und macht sich in jedem Lebenslauf sehr gut. Die Kurswahl bietet unendlich viele Möglichkeiten, gerade auch hinsichtlich nicht BWL Fakultäten. Vorlesungen dauern an der USYD zwei Stunden und das Tutorium eine Stunde. Diese zwei Lehrmöglichkeiten waren die einzigen, die in meinen Kursen angeboten wurden. Jede Vorlesung wird aufgenommen und kann von Zuhause aus geschaut werden. Dies bietet enorme Flexibilität hinsichtlich Reisen. Außerdem konnte ich es mir einrichten den Montag und Freitag frei zu haben sodass ich ein viertägiges Wochenende hatte. Die Kurse sind deutlich besser gestaltet als in Mannheim und man lernt deutlich mehr, da sie Praxisnäher sind. Um Bestnoten zu bekommen, sollte man aber dann doch eher eine Uni in den USA besuchen._x005F_x000D_
-Der akademische Zyklus ist in Semester aufgeteilt und eigentlich jeder Kurs hat ein Midterm, Assignments und ein Final. Dies kann aber vorher auf der Website der Fakultät nachgeschaut werden. Durch die Struktur der Kurse wird man gezwungen auch unter dem Semester mitzulernen, was deutlich mehr Arbeitsaufwand als in Mannheim erfordert. Allerdings ist es dafür gegen Ende hin etwas entspannter. Zur Mitte des Semesters, nach den Midterms, gibt es eine einwöchige Springbreak die optimal zum Reisen genutzt werden kann. Ich habe dies für eine Neuseeland Südinsel Rundreise genutzt. Landschaftlich gesehen, neben Südafrika, eines der schönsten Länder die ich in meinem Leben zu sehen bekommen habe._x005F_x000D_
-Eine Mensa sucht man auf dem Campus der USYD allerdings vergeblich, was ein wenig schade ist. Allerdings gibt es einen kleinen Foodcourt der aber nicht besonders viel Auswahl bietet. Trotzdem werdet ihr vom Campus begeistert sein.</t>
-  </si>
-  <si>
-    <t>Noch zur Unterkunft:_x005F_x000D_
-Zur Alternative, dem BSN, kann ich nur so viel sagen: die Zimmer sind definitiv etwas moderner, heller und größer (klar, das Bad ist nicht im Zimmer). Dafür muss man sich das Bad immer mit einem weiteren Austauschstudenten teilen, genauso wie die Nebenkosten. Laut Aussage anderer Kommilitonen kostet das Wohnheim dann mit NK ca. 550- 600 Euro. Der Weg zur BI ist kürzer, ca. 5min zu Fuß. Jedoch geht es im Winter einen eisigen Hügel runter bzw. auf dem Rückweg hoch. Darüber hinaus sind Waschen und Trocknen teurer als im SiO-Wohnheim. Äußerst ungünstig ist auch, dass man immer bis zum 19. Juni mieten muss. Die meisten Studenten reisen jedoch Ende Mai ab. Bei SiO kann man 2 Monate vorher zum 15. Oder 30. kündigen und somit viel Geld sparen. Über das Diakonhjemmet kann ich nichts sagen._x005F_x000D_
-_x005F_x000D_
-Für alle Zimmer und Wohnungen, unabhängig vom Wohnheim, gilt: es gibt starke Unterschiede in der Ausstattung. Manche haben Glück und haben einen modernen Herd oder sogar eine Spülmaschine. Leider weiß man das vorher eben nicht. Bei Ankunft kann man (wenn man nicht den Selbst-Check-In wählt) das Gebäude und Stockwerk auswählen._x005F_x000D_
-_x005F_x000D_
-Ich war grundsätzlich sehr zufrieden mit meiner Wahl und würde wieder so entscheiden. Die meisten Studenten wohnen in Bjølsen oder im BSN._x005F_x000D_
-_x005F_x000D_
-_x005F_x000D_
-STUDIUM:_x005F_x000D_
-Die BI befindet sich im Stadtteil Nydalen mit guter Bus- und U-Bahnanbindung. Das Gebäude ist sehr modern, beinhaltet Vorlesungsräume, spezielle Prüfungsräume, eine große Bibliothek (z. T. mehr Zugänge zu Journals als in Mannheim), verschiedene Arbeitsräume, Druckstationen (Achtung, man muss min. 100 NOK via paypal aufladen und erhält kein Geld zurück) ein Fitnessstudio, eine Mensa und weitere Essensmöglichkeiten. Im kleinen Bäcker sind die Preise auch günstiger als im restlichen Oslo. Das Gleiche gilt für den Studentenpub._x005F_x000D_
-_x005F_x000D_
-Das Semester startete am 7. Januar mit der Einführungswoche. Hier gab es verschiedene Aktivitäten wie Pub-Abend, Uni-Führung, Schlittschuhlaufen, - Während des Semesters gibt es immer wieder verschiedene Angebote wie z. B. das monatlich BInner (kostenloses Abendessen für Studierende der BI mit vorheriger Anmeldung. Ich habe immer einen Platz bekommen. Die Qualität des Essens ist nicht überragend, dafür aber kostenlos und eine schöne Gemeinschaftsveranstaltung), oder der monatliche Sonntag in der Stadt (kostenloser Museumsbesuch mit vorheriger Anmeldung. Ich habe immer einen Platz bekommen  hier first-come-first-serve)._x005F_x000D_
-Die Vorlesungszeit ging dann bis Anfang/ Mitte Mai. Je nach Kurswahl aber auch nur bis Mitte April (dann kommen die Osterferien). Die Prüfungen sind i. d. R. von Mitte April bis Ende Juni. Meine (und die der meisten Austauschstudenten) Klausuren waren nur im Mai._x005F_x000D_
-_x005F_x000D_
-Das Kursangebot ist recht groß und die Schwierigkeit der Kurse kann stark variieren. Pro Kurs gibt es nur eine Veranstaltung pro Woche mit jeweils drei 45-minütigen Blöcken mit jeweils 15 Minuten Pause (je nach Dozent variiert die Einhaltung) zwischen den Blöcken. Im Vergleich zu Mannheim wird das Lesen von mehr Literatur erwartet. Es gibt kursabhängig unterschiedliche Prüfungsarten. Meist gibt es mindestens zwei Prüfungsarten, z. B. Klausur und mündliche Mitarbeit/ Präsentation/ Term Paper. _x005F_x000D_
-_x005F_x000D_
-Äußerst schwierig ist es, dass die Dozenten ein eigenes Notensystem nutzen. Offiziell gibt es ein Punktesystem von 0  100 mit den ECTS-Buchstaben. Jedoch musste ich mehrfach die Erfahrung machen, dass die Dozenten eigene Maßstäbe haben. So war es z. B. nicht möglich, in Prüfungsarten wie mündliche Mitarbeit oder Gruppenpräsentation, die volle Punktzahl zu erreichen. Hier wurde bei maximal 80 Punkten die Grenze gezogen. Allgemein gab es sehr wenig Transparenz in Hinsicht auf die Notenvergabe und Mitten im Semester wurde sogar eine meiner Einzelprüfungen durch eine Gruppenarbeit ersetzt. _x005F_x000D_
-_x005F_x000D_
-Allgemein sind Gruppenarbeiten, meist in Form eines Term Papers, in den meisten Kursen zu finden. Die Motivation sowohl von Norwegern, insbesondere aber von anderen Austauschstudenten, lässt hier ebenso wie in Mannheim zu wünschen übrig. Ein großes Problem ist, dass fast alle Austauschstudenten die Prüfungen nur bestehen müssen (was man an der BI bereits mit 35 Punkten schafft). Die Note ist vollkommen irrelevant, es werden lediglich die erreichten ECTS-Punkte später an den Heimatunis anerkannt. Das spiegelt sich nun mal in der Motivation wider. Für uns Mannheimer, bei denen die Noten auch strikt umgerechnet werden, eine sehr ungünstige Situation. Auch deshalb, da viele Dozenten durch ihre Notensysteme die Vergabe von A's vermeiden möchten. Das sollte man bei der Kurswahl unbedingt im Hinterkopf haben! _x005F_x000D_
-_x005F_x000D_
-Bei der Kurswahl einen Blick auf den Stundenplan zu werfen, schadet sicher auch nicht. Ich hatte anfangs nur einmal pro Woche Vorlesung, ab März zweimal und dann ab Anfang April gar nicht mehr. Dafür hatte ich im Mai nochmal eine komplette Woche von 9-18 Uhr Uni und dann nur noch 2 Wochen bis zu den Prüfungen. Ebenso konnte ich mein Termpaper erst ab ca. Mitte April schreiben, während andere Studenten alle ihre Termpaper bis April bereits geschrieben und anschließend bis Mitte Mai frei hatten._x005F_x000D_
-_x005F_x000D_
-Es werden noch Norwegisch-Sprachkurse für ca. 200 Euro angeboten. Diese finden über ca. 3 Monate zweimal pro Woche für ca. 3h statt. Da hierdurch die Reiseplanung stark eingeschränkt wird und die Qualität der Kurse  angeblich  sehr niedrig ist, habe ich keinen Gebrauch von solch einem Kurs gemacht. Ich habe vorher an der Uni Mannheim (Studium Generale) einen Norwegisch A1  Kurs belegt. Das war auch ausreichend, da eigentlich überall Englisch gesprochen wird. Dennoch freuen sich die Norweger sehr, wenn sie sehen, dass man sich bemüht Norwegisch zu sprechen!</t>
-  </si>
-  <si>
-    <t>Das Studium an der NOVA selbst unterschied sich deutlich von der gewohnten Studiumsatmosphäre und-dynamik an der Universität Mannheim. Zunächst einmal mussten die Kurse durch ein Bidding-Verfahren erboten werden, wobei ich selbst in nur 4 von 6 geplanten Kursen einen Platz bekam. Die Kurse sind demzufolge auch viel kleiner als in Mannheim, zwischen 15 und 60 Studenten saßen hier meist in der Vorlesung. Die Kurse selbst waren demzufolge definitiv mehr auf die Interaktion zwischen Professoren und Studenten ausgelegt, meist war ein geringer Prozentteil der Endnote des Kurses auch für die Mitarbeit vorgesehen. Das Niveau schwankte zudem stark von Kurs zu Kurs, wobei ein hohes Grundinteresse und eine hohe Motivation vor allem der portugiesischen Masterstudenten die Erwartungen der Professoren definitiv nicht schmälerten. 
-Das Semester selbst ist an der NOVA in 2 Untersemester aufgeteilt, in denen unterschiedliche Kurse angeboten werden. Es gibt zwar eine Reihe von Kursen, welche über 2 Untersemester laufen, als Austauschstudent an der NOVA hat man allerdings lediglich die Möglichkeit, Wahlkurse zu wählen, welche zu 95% über 1 Untersemester gehen und mit 3.5 ECTS gewichtet werden. Dies hat zur Folge, dass man vor allem für Kurse, welche nicht über ein Kurspendant in Mannheim angerechnet werden können, einen extrem hohen Arbeitsaufwand für eine geringe ECTS-Punktzahl hat. Ich selbst musste in fast jedem meiner Kurse neben einer Abschlussprüfung auch ein Paper in Einzel- oder Gruppenarbeit schreiben, sowie eine Endpräsentation vorbereiten. Diese wurden teilweise sehr streng bewertet, da im portugiesische Notensystem mit Punkten von 1-20 die Vergabe der Höchstnoten quasi nicht vorgesehen ist. Zudem war die Korrektur vieler Arbeiten teilweise sehr undurchsichtig, fragwürdig und erschien wenig objektiv. 
-Der Studienalltag an der Universität selbst ist recht entspannt, da der BSS Campus wirklich klein ist, vergleichbar mit einer Schule, sodass man sich sehr schnell einlebt. Im Hauptgebäude gibt es neben einer Bibliothek (in den Prüfungsphasen SEHR voll) und einer Study Hall für Masterstudenten (dito) auch eine kleine Mensa, welche allerdings weitaus spartanischer als deutsche Mensen aufgebaut ist. Meist gibt es 1-2 Mittagsgerichte sowie eine kleine Cafeteria, in der warme Sandwiches und wirklich guter Espresso angeboten wird. Alles in allem wirkt ein Studium an der NOVA deshalb sehr viel verschulter, als es in Mannheim der Fall ist.</t>
-  </si>
-  <si>
-    <t>Die Uni bietet viele Kursen für Austauschstudenten an. Die Kurse werden in Level 1 bis Level 4 untergeteilt. Uni Glasgow bietet viele nützliche Informationen bei Kursauswahl. Die Prüfungsarten sind Arbeitschreiben, Präsentation, Klausuren. Es gibt 2 Semester in einem Jahr. Manche Lehrveranstaltungen gibt es nur in Semester 1 oder 2. Es gibt mehrere Mensen in der Uni. Die Preise sind teurer als in Mannheim. Mit short time study visa darf man nicht arbeiten. Die Vorlesungen sind auf Englisch. Ich denke, C1 für Englisch ist ausreichend.</t>
-  </si>
-  <si>
-    <t>ESN "Erasmus Student Network" ist in Kristiansand sehr engagiert und unterstützt dich schon bei der Ankunft und organisiert Ausflüge, Partys und andere schöne Sachen während dem Semester. Die meisten Aktivitäten werden von den Buddys organisiert. Von der wöchentlichen Coffee Hour mit selbstgemachten Waffeln!!, International Pub bis hin zu gemeinsamen Trips ist alles dabei. ESN bekommt von dir die Ankunftsdaten und empfängt dich in Kristiansand. Dann bringen sie dich zu deiner Wohnung und organisieren viele Veranstaltungen zum Kennen lernen. Jeder Student wird auch einem norwegischen Buddie zugeteilt, die immer als direkter Ansprechpartner zu erreichen sind. Durch die ganzen Veranstaltungen und Partys wachsen die Austausch-Studenten zu einer ausgesprochen guten Gemeinschaft zusammen und organisiert auch ohne die Hilfe von ESN Abendaktivitäten und/oder Reisen zusammen. Das Nachtleben In Kristiansand ist sehr aktiv und es gibt einige Bars und Pubs zum Feiern. Große Discotheken findet man dort allerdings nicht.</t>
-  </si>
-  <si>
-    <t>Im allgemeinen würde ich sagen, dass das Studium an der AUT zwar etwas zeitaufweniger, aber dafür vom inhaltlichen Anspruch etwas einfacher ist als Mannheim. Meine Kurse waren alle zu 100% Assignment-basiert und im Durchschnitt musste man 3 Assignments pro Kurs abgeben. Da die Assignemnts in den verschiedenen Kursen meist zu gleichen Zeit abgegeben werden müssen, ist gutes Zeit Management gefragt. Insgesamt muss man aufgrund des Visum-Status 4 Kurse belegen und es ist nicht möglich Assignements in Kursen nicht abzugeben. Ich empfehle daher sich frühzeitig die geplanten ECTS aus dem Auslandssemester mit in die Semesterplanung zu integrieren um nicht zu wenige ECTS für das Auslandssemester offen zu haben.</t>
-  </si>
-  <si>
-    <t>Ihr werdet am Mahidol University International College für ein Trimester, also circa 3 Monate studieren. Das Unigelände ist riesig im Vergleich zu Mannheim und hat gefühlt die Fläche der Quadrate. Auf diesem kann man dementsprechend alles finden, was man im Alltag benötigt. Von euren vier Kursen werdet ihr vermutlich alle im alten und neuen Gebäude verbringen. Da Mannheim neben zwei klassischen BWL Kursen, auch zwei fachfremde Kurse erlaubt, ist es für einen möglich aus einer Vielzahl an unterschiedlichen Kursen und Fachrichtungen zu wählen. Ich würde euch dabei empfehlen, mir diese schon früh genug im Voraus anzuschauen und für die Anerkennung prüfen zu lassen. Wenn euch ein exotischer Kurs im Vorhinein schon interessiert, würde ich mir vielleicht überlegen einfach mal den zuständigen Professor anzuschreiben, wenn noch Fragen bei euch offen sein sollten (Bezüglich Inhalten, Benotung, Schwierigkeitsgrad). 
-Die Kurse an der Universität erinnern stark an den Schulunterricht. Die meisten haben weniger als 25 Studenten und befinden sich in kleinen Räumen. Das macht die persönliche Interaktion mit dem Professor um einiges leichter als in Mannheim beispielsweise. Dadurch hat man mehr Möglichkeiten aktiv mitzuarbeiten und auch mal Fragen stellen zu können, auf die intensiv eingegangen wird. Die Kurse gehen generell 1h50min und finden meistens zwei mal die Woche, entweder in den Blöcken Montag Mittwoch, Dienstag Donnerstag oder auch Mittwoch Freitag statt. Natürlich gibt es dabei auch Ausnahmen, bei denen ein Kurs nur an einem Tag, dafür aber 4 Stunden lang ging. Ich persönlich hatte Montag bis Donnerstag jeweils von 8-12 Uhr Uni. Das lag jedoch hauptsächlich daran, dass manche Kurse nicht gut kombinierbar waren und ich deswegen entweder andere Kurse oder andere Zeiten hätte wählen müssen. Generell ist es auch möglich innerhalb der ersten Woche die Kurse noch komplett zu ändern. Das funktioniert jedoch nur bis zu dem Punkt, bei dem euch noch Kurse vorliegen, die in Mannheim angerechnet werden (Kurzfristige Prüfung klappt leider nur manchmal). Außerdem solltet ihr euch meiner Meinung nach so schnell wie möglich für eure vorläufige Wahl der Kurse im Ausland entscheiden. Denn dabei funktioniert das first come first serve Prinzip. Eure Favoriten Kurse könnten deswegen schon einfach voll sein, sobald ihr euch dafür registrieren wollt. Meinen Stundenplan fand ich im Nachhinein in Ordnung, würde jedoch versuchen eure Kurse nur auf zwei Tage in der Woche zu legen. Dann habt ihr zwar auch fast den ganzen Tag Uni, dafür aber an allen anderen Tagen theoretisch frei und müsst durch die Anwesenheitspflicht nicht jeden Tag früh aufstehen.</t>
+    <t>Das Studium in Exeter war au§erordentlich schn und ich vermisse meine Zeit dort sehr. Der Unterricht findet normalerweise in kleinen Seminargruppen statt. Seminare dauern hier aber 2 Stunden. Dafr gehen die dazugehrigen Vorlesungen nur 50 Minuten. Mir hat dieses System gut gefallen, da man in den Vorlesungen Hintergrundwissen vermittelt bekommen hat und in den Seminaren sich tiefergehend mit den Themen und Texten befassen konnte. Der Streathamcampus ist sehr gro§, grn und hat viele Gemeinschaftsrume, in denen man gemtlich zusammensitzen, lernen oder auch mal einen Powernap machen kann. Auch gibt es mehrere Cafs und foodspots auf dem Campus. _x005F_x000D_
+Es gibt zudem unzhlige Initiativen, die alle mglichen Interessen abdecken. Ich bin der Out Of Doors Society beigetreten, die jedes Wochenende Wanderungen organisieren. Ich habe so viel vom Sdwesten Englands gesehen und empfehle es, der society beizutreten. Abgesehen von den Wanderungen, werden unter der Woche verschiedene Events organisiert. Das ist ein guter Weg, um neue Freunde kennenzulernen und unter Leute zu kommen.</t>
+  </si>
+  <si>
+    <t>Chulalongkorn ist ein Trumchen. Das Kursangebot ist sehr divers und das Niveau entspannt. Es werden fast alle Kurse des BBA-Programms reibungslos anerkannt. Die Vorlesungszeit geht im Wintersemester von Anfang August bis Mitte Dezember. Einige Kurse machen Midterms, viele Gruppenarbeit und Prsentationen. Der Campus ist riesig und schn. Es gibt Tennispltze, Schwimmbder und Gyms. Wer thailndisches Essen mag, wird die Mensa vergttern. Man trgt s§e Schuluniformen und lebt ein gutes Leben. Gibt einige gute Youtubevideos von einer Dnin, hier kriegt man ein ziemlich gutes Bild sowohl vom Campus, als auch von Nonsi Residence.</t>
+  </si>
+  <si>
+    <t>Das Studium an sich ist weniger anspruchsvoll im Vergleich zu dem in Mannheim. Es gibt eine sehr gro§e Kursauswahl, da man zu 50% auch Kurse von anderen Fakultten belegen durfte. Die Veranstaltungen an der CityU sind um einiges interaktiver und auch das Gesamtergebnis setzt sich meist aus verschiedenen Komponenten zusammen. Je nach Kurs gibt es Gruppenarbeiten, Prsentationen, Hausarbeiten, Mid-Term Examinations und Final Examinations. Bei vielen Kursen wird auch die Partizipation in den Veranstaltungen bewertet. Bezglich der Kursanerkennung sollte man lieber frher und zu viele Kurse von der Uni Mannheim prfen lassen. Nicht das einer der Kurse schlussendlich nicht anerkannt wird. Des Weiteren wird die Mehrheit der Kurse auf Englisch durchgefhrt, jedoch ist es hierbei ratsam sich in der ersten Woche in die Veranstaltungen zu setzten, um zu prfen, wie verstndlich die Aussprache des Dozenten ist. In den ersten zwei Wochen besteht nmlich noch die Mglichkeit Kurse zu wechseln. Die Lnge einer Veranstaltung ist meist 110min.
+Bezglich des Lebens auf dem Campus kann ich leider nicht sonderlich viel sagen, da fast alle Aktivitten aufgrund der Corona Pandemie eingestellt worden waren. Nichtsdestotrotz glaube ich, dass die CityU normalerweise eine Vielzahl au§eruniversitrer Aktivitten anbietet. Zum Lernen bin ich hufig in die Bibliothek gegangen oder habe mich in kleinere Arbeitsbereiche in den Gngen gesetzt. Die Zeit zwischen zwei Vorlesungen kann man sehr gut im Uni eigenem Garten, sowie im Festival Walk, einem gro§en Einkaufszentrum neben der Uni verbringen. Zu guter Letzt kann man noch sagen, dass die Uni drei sehr gute und gnstige Mensen hat.</t>
+  </si>
+  <si>
+    <t>Bereits im Sommer hatten wir eine Mail erhalten, in der uns der Sciences Po Start Einfhrungskurs vorgestellt wurde. Diesen kann ich empfehlen, da das offizielle Semester erst Mitte September beginnt. Dieser Kurs geht zwei Wochen lang und beinhaltet einen intensiven Sprachkurs und Methodenveranstaltungen. Hier hatte ich bereits die Mglichkeit, Kontakte mit anderen Deutschen und auslndischen Studenten zu knpfen. Man sollte hingegen nicht vergessen, sich rechtzeitig fr den Kurs per Mail anzumelden, da man sonst nicht teilnehmen kann. Nach einem Einstufungstest vor Ort wird man dem Niveau entsprechend in einen Sprachkurs eingeteilt, was ich sehr sinnvoll finde. Whrend des Semesters gibt es die Mglichkeit, solch einen Sprachkurs weiterzufhren, wobei dies nur mglich ist, wenn man eine attestation d'tudes politiques anstrebt. Ich habe mich dagegen entschieden, da man in diesem Fall in der Kurswahl eingeschrnkt wird. Au§erdem ist der Sprachkurs whrend des Semesters nur bedingt hilfreich, wenn man bereits ein hohes Sprachniveau hat und vor allem franzsischsprachige Veranstaltungen besucht. 
+Daneben hat man die Mglichkeit, bis zu zwei Kurse an der Universitt Lyon 2 zu belegen. Dies kann zum Beispiel interessant sein, wenn man Kurse fr das Nebenfach anerkennen lassen oder Sprachkurse (abgesehen von Franzsisch) whlen will. Bei der Einschreibung und der Kurswahl wird man hier leider alleine gelassen, sodass man sich selbst bei den einzelnen Sekretariaten der Fakultten erkunden muss. Ein kommentiertes und einheitliches Vorlesungsverzeichnis, wie wir es in Deutschland kennen, ist in Frankreich unblich. 
+Obwohl die Sciences Po Lyon nur um die 1800 Studenten hat, ist das Kursangebot sehr gro§ und abwechslungsreich. Eine Besonderheit sind die sogenannten diplmes d'tablissement (DE), dessen sechs Spezialisierungsmodule sich auf sechs verschiedene Weltregionen (Europe, Asien, etc.) beziehen und auch von internationalen Studenten belegt werden knnen. 
+Ansonsten gibt es Kurse im Bereich Recht, Politik, Soziologie, Geschichte, Geopolitik, Wirtschaft und manchmal auch darber hinaus (CO zu Gender Studies). Im Gegensatz zu Mannheim hat man also die Freiheit, einmal in andere Disziplinen hineinzuschnuppern. Die Veranstaltungen werden als CDM (seminarartig), CF (Einfhrungs- und Grundvorlesungen) und CO (Wahlpflichtvorlesungen, die themenspezifischer ausgerichtet sind) angeboten. Die CFs sind meist am umfangreichsten und dessen Klausuren werden erst nach Semesterende geschrieben (nach den Weihnachtsferien im Januar / Mitte Mai), wohingegen die Klausuren der COs und CDMs in der letzten Vorlesungswoche (Dezember / Ende April) stattfinden. Einige COs werden von Gastdozenten in Form von Blockseminaren angeboten, die meist auch sehr spannend sind. Bei den CDMs ist es empfehlenswert, auch die begleitende Vorlesung (CF) zu besuchen, da sich beide Veranstaltungen ergnzen. Ich habe dies hingegen nicht gemacht. 
+Die Veranstaltungen dauern meistens 2 Stunden, wobei zwischen den Blcken keine Pause vorgesehen sind, sodass in der Regel jeweils fnf Minuten verloren gehen. Einige CFs sind sogar auf 3 Stunden ausgelegt, was fr mich auch aufgrund der Stoffdichte eine gro§e Umstellung war. Dementsprechend sollte man fr die Grundlagenkurse ein entsprechendes Sprachniveau vorweisen, um konzentriert bleiben zu knnen.
+Viele COs der Spezialisierungsmodule werden auf Englisch angeboten, wobei ich mich gr§tenteils auf franzsischsprachige Kurse beschrnkt habe. Ich denke, dass ein solides B2-Franzsischniveau ausreichend ist, um den Kursen gut zu folgen.
+Der Unterrichtsstil hngt stark vom Dozenten ab, wobei die Kurse verschulter sind als in Mannheim. Das hei§t, dass in den Vorlesungen Fragen eher selten gestellt werden und in den CDMs der Frontalunterricht des Dozenten berwiegt. Die Franzosen sind sehr zugnglich und hilfsbereit, wenn es um die Mitschriften geht. Hier reicht es aus, wenn man entweder ber die Sciences Po Facebookgruppe um ãnotesÒ fragt oder persnlich auf die Franzosen zugeht. Diese Mitschriften sind sogar immer sehr vollstndig, da Franzosen wortgenau und in vollstndigen Stzen das mitschreiben, was der Dozent sagt. PowerPoint-Folien sind in einigen Veranstaltungen vorhanden, was das Mitkommen sehr erleichtert. Die Prfungsmodalitten sind ebenfalls sehr unterschiedlich, wobei man hufig mit der Prfungsart ãdissertationÒ konfrontiert wird.</t>
+  </si>
+  <si>
+    <t>Es sind sehr viele Kurse auf Englisch angeboten und hufig sehr casestudy lastig. Mir hat das gut gefallen, wobei der Aufwand in manchen Fchern sehr hoch war, insbesondere wenn Gruppenarbeit gefordert war. Es ist insgesamt eine deutlich persnlichere Stimmung, weil die Kurse kleiner sind und Professoren beispielsweise mit Vornamen angesprochen werden. Es gibt Sprachkurse, die jedoch bei mir nicht so viel gebracht haben. Es gibt einige Essmglichkeiten, allerdings keine richtige Mensa wie in Mannheim.</t>
+  </si>
+  <si>
+    <t>Die meisten Kurse, die ihr whlen knnt, sind leider ausschlie§lich fr Austauschstudenten, das hei§t, es ist ein bisschen schwer Kontakt zu einheimischen Studenten herzustellen. Lediglich die MBA-Kurse sind mit allen MBA-Studenten, was in Guangzhou v.a. auch chinesische Mitstudenten sind. Ansonsten kann es aber gut sein, dass man auf dem riesigen Campus mal von einem chinesischen Studenten angesprochen wird, der einfach neugierig ist oder sein Englisch austesten mchte. Die meisten Kurse fr Austauschstudenten finden auf dem South Campus statt. Hier werdet ihr euch vor allem aufhalten- alle Versammlungen, Events und Kurse und vor allem die meisten Wohnungen sind unmittelbar hier. Der Campus ist sehr hbsch und ein wenig tropisch gestaltet, er wurde dafr sogar prmiert. Au§erdem sprechen viele Studenten hier Englisch. Der Campus liegt im Haizhu District damit sehr zentral, er ist am Pearlriver und neben dem Wahrzeichen der Stadt, dem Canton Tower. Wer gerne mal einen ãchinesischerenÒ Unterricht erleben mchte, der kann bei der Course Selection auf den Unterrichtsort achten: denn wenige Kurse werden auch am East Campus angeboten. Das bedeutet, dass ihr zu einem anderen Campus fahren msst: dem Ort, wo die meisten chinesischen Businessstudenten wohnen und lernen. Auf diesem Campus gibt es eigentlich kaum auslndische Studenten und aufflligerweise ist auch das Englisch der Studenten an diesem Campus schlechter. Dafr ist es sehr interessant einen Kurs mit fast ausschlie§lich chinesischen Kommilitonen kennenzulernen, zumal die Professoren sehr darauf bedacht sind, einen gewissen kulturellen Austausch herbeizufhren. Eure chinesischen Mitstudenten knnen dabei manchmal ein wenig schchtern sein, aber gebt ihnen eine Chance: die meisten sind nach einiger Zeit sehr interessiert und aufgeschlossen und mchten euch gerne viel von China erzhlen. Der einzige Nachteil ber den ihr euch bewusst sein solltet, ist, dass der East Campus ziemlich weit au§erhalb liegt und ihr mit dem Schulbus ca. 25 Minuten Fahrtzeit dorthin habt (wobei wir bis zum Schluss nicht sicher sagen knnen, ob ihr mit dem Bus berhaupt offiziell mitfahren durften...). Mit der Metro dauert es ca. genauso lange, ist aber wegen den Sto§zeiten ein wenig nervenaufreibend.</t>
+  </si>
+  <si>
+    <t>Das Semester in Valencia hat fr mich ca. am 10. September angefangen, wobei die Einfhrungsveranstaltungen teilweise schon in der Woche davor stattfanden. Ich persnlich habe alle Kurse, die ich bereits in Deutschland gewhlt hatte bekommen, kann aber jedem nur empfehlen, die Kurswahl so frh wie mglich zu machen, da es doch einige gab, die zu wenig oder die falschen Kurse bekommen haben. Nach zwei Wochen gab es allerdings eine ãadd and drop sessionÒ, wo nochmal umgewhlt werden konnte. Diese verlief aber super chaotisch und ebenfalls nach dem first come first served Prinzip. _x005F_x000D_
+Das Verstndnis von Uni in Spanien grenzt sich deutlich von dem deutschen ab. Die Kurse sind in aller Regel deutlich kleiner und man hat ein viel persnlicheres Verhltnis zu seinen Professoren. Dafr wird allerdings auch mehr Wert auf Anwesenheit gelegt und es wird ein kontinuierliches Engagement fr die Kurse vorausgesetzt, was sich in andauernden Gruppenarbeiten, Klausuren, Rollenspielen, etc. widerspiegelte. Das bedeutet allerdings auch, dass weniger Gewichtung auf der Endklausuren im Januar gelegt wird. Das Niveau der Kurse und die Stoffmenge ist definitiv geringer als in Mannheim; dennoch ist es nicht super einfach gute Noten zu erzielen, da die Umrechnung etwas unvorteilhaft ist und ausgezeichnete Noten in manchen Kursen generell nicht zu oft verteilt werden. _x005F_x000D_
+Ich hatte alle meine Kurse auf Englisch, was in der Konsequenz auch bedeutete, dass die meisten meiner Kurse hauptschlich aus anderen Austauschstudenten bestanden. Das Englisch der Professoren ist generell nicht absolut lupenrein aber in aller Regel gut zu verstehen. _x005F_x000D_
+Falls der Wunsch besteht, einen Spanisch Kurs zu belegen, gibt es gute Angebote von dem Sprachenzentrum der Universitt, welches die Studenten nach einem Einstufungstest in verschiedene Kurse einteilt.</t>
+  </si>
+  <si>
+    <t>Die Kursangebot der Uni ist sehr gro§ und frhlicherweise hat man auch die Mglichkeit problemlos Kurse von anderen Fakultten als das eigene zu besuchen. Midterms sind hufig (teilweise sogar 2 Midterms), ebenso gibts bei vielen Kursen Assignments. Niveaus der Kurse sind sehr unterschiedlich und nicht immer zwingend davon abhngig in welchem Jahr die Kurse belegt werden. Dazu hilfreich ist die Website uflow wo studenten der Uni sowohl Kurse als auch individuelle Dozenten bewerten knnen. Es ist auch typisch, dass Kurse keine Tutorien oder bungen haben, wie man sie aus Mannheim kennt. Eher werden am anfang des Trimesters Office-Hours bekanntgegeben wo man mit Fragen hingehen kann. Da wird dann auch individuell auf die Fragen oder Probleme bei den Assignments eingegangen und nicht bungsbltter vorgerechnet.</t>
+  </si>
+  <si>
+    <t>Das Studiensystem in Sydney ist ganz anders als in Mannheim. Ihr werdet viele Assignments und Quizzes haben, weshalb ihr kontinuierlich etwas fr die Uni zu tun habt. Letztendlich finde ich den Aufwand insgesamt etwas hher als in Mannheim, doch ihr habt am Ende des Semesters nicht mehr so viel Stress. Ich hatte z.B. nur zwei Endklausuren, die beide jeweils 50 % gezhlt haben. Die Assignments sind teilweise sehr anspruchsvoll, doch eine sehr gute bung, gerade im Hinblick auf die Bachelorarbeit. Die Uni in Sydney ist deutlich praxisrelevanter als die Uni Mannheim. Ich hatte beispielsweise SAP Seminare in meinem Accounting Kurs. Teilweise gibt es Anwesenheitspflicht, v.a. in Tutorien._x005F_x000D_
+_x005F_x000D_
+Die Uni bietet sehr viele Kurse an, es sollte also fr jedes Interesse etwas dabei sein. Im Wirtschaftspdagogik Studium ist es schwierig, sich Kurse anrechnen zu lassen, doch ich konnte immerhin zwei Learning Agreements schlie§en. Genaueres dazu seht ihr unten._x005F_x000D_
+_x005F_x000D_
+Die Unizeiten in Sydney sind anders als in Mannheim, das Semester dauert von Ende Juli bis Mitte/Ende November. Ich hatte das Glck, dass ich nur drei Tage in der Woche Uni hatte und konnte mein langes Wochenende perfekt nutzen, um auch mal in eine andere Stadt Australiens zu fliegen. _x005F_x000D_
+_x005F_x000D_
+Der Campus ist sehr schn, es gibt keine Mensa wie bei uns, sondern mehrere kleine Cafs und Imbisse. Ansonsten gibt es ein gro§es Sportangebot an der Uni mit Pool, Fitnessstudio etc. (leider auch sehr teuer)</t>
+  </si>
+  <si>
+    <t>Ich kann sagen, dass die IULM generell gut organisiert und bersichtlich ist. Bei Fragen oder Problemen habe ich immer schnell eine Antwort bekommen. Die IULM hat einen wunderschnen Campus und die Universittsgebude sind sehr modern und beeindruckend. Leider konnte ich diese nur wenige Male von innen sehen. Whrend der roten Zone war die Universitt komplett zu und alle Vorlesungen fanden nur online ber Microsoft Teams statt. Als sich die Lage wieder besserte und die Lombardei zur orangenen Zone erklrt wurde, war es mglich die Vorlesungen auch in Prsenz zu besuchen, allerdings nur wenn man zuvor online einen Platz gebucht hatte. Jedoch wurden auch weiterhin alle Vorlesungen gestreamt und/oder aufgenommen sodass man auch weiterhin die Vorlesungen von Zuhause aus verfolgen konnte. Ich bin sehr froh, dass ich die Mglichkeit hatte auch mal eine Vorlesung in Prsenz zu besuchen, aber fr mich hatten die Onlinevorlesungen auch  Vorteile. Ich fand es sehr ungewohnt Vorlesungen, die drei Stunden am Stck gingen zu verfolgen vor allem, weil viele Professoren gar keine Vorlesungsfolien verwendet haben und man alles mitschreiben musste. Somit hat es mir sehr geholfen aufgezeichnete Vorlesungen nochmal anschauen zu knnen. Generell habe ich die Erfahrung gemacht, dass sich das System an italienischen Universitten in vielen Punkten schon sehr von unserem unterscheidet. Zum Beispiel sind die Mitschriebe aus den Vorlesungen fr das Lernen auf die Prfungen sehr wichtig und man muss zum Teil auch mehrere Bcher fr einen Kurs lesen. Jedoch wrde ich die Bcher nicht schon zu Beginn des Semesters kaufen, sondern erst abwarten, ob man diese auch wirklich braucht. Ich wrde auf jeden Fall empfehlen den WhatsApp Gruppen der jeweiligen Kurse beizutreten, da man sich dort immer austauschen und gegenseitig  mit Mitschrieben oder Zusammenfassungen helfen konnte. Auch die Prfungsformen waren fr mich sehr ungewohnt, da fast alle Prfungen mndlich und vor allem ffentlich waren. Normalerweise geht man am Tag der Prfung zur Universitt und wird dort vor allen, die auch die Prfung ablegen wollen, geprft. Aufgrund der Coronapandemie fanden aber alle mndlichen Prfungen online ber Microsoft Teams statt. Dafr wurde fr den Prfungstag ein Meeting erstellt. Manchmal wurde gleich zu Beginn gesagt wann man ungefhr dran ist mit seiner Prfung, aber manchmal musste man auch einfach warten, bis man irgendwann aufgerufen wurde. Ich wrde auf jeden Fall empfehlen gleich zu Beginn der Prfung zu sagen, dass man Erasmusstudent ist, da die Professoren das nicht immer wissen und dann sehr viel Verstndnis zeigen und darauf Rcksicht nehmen.</t>
+  </si>
+  <si>
+    <t>Es gibt nur wenig mgliche Bachelor Kurse zur Auswahl fr Austauschstudenten. Aus diesem Grund habe ich mich an der NHH als Masterstudent eingeschrieben (geht vllig problemlos), da man hier aus einem recht breiten Kursangebot whlen konnte. Das Niveau der Masterkurse ist ungefhr mit dem Bachelor Niveau der Uni Mannheim zu vergleichen. Bachelorkurse an der NHH schienen ein wenig einfacher zu sein._x005F_x000D_
+Die meisten Kurse sind bereits auf Anerkennung berprft worden. Eine genau Auflistung findet man hierzu auf der Seite des AAA._x005F_x000D_
+Das Studium in Norwegen ist wesentlich verschulter als in Mannheim. Die Kursgr§e ist meist kleiner und die Beziehung zum Professor daher oft sehr persnlich. Mit Hausaufgaben und Assignments hlt einen die Uni, anders als in Mannheim, auch whrend des Semesters durchaus auf Trab. Hier wird sehr oft in Gruppen von 2-4 Studenten zusammengearbeitet._x005F_x000D_
+ _x005F_x000D_
+Fr Interessierte bietet die NHH auch norwegisch Sprachkurse an (Beginner &amp; Fortgeschrittene) an. Dazu kann ich jedoch nicht viel sagen, da ich diese nicht besucht habe._x005F_x000D_
+Die Semester an der NHH verlaufen zeitlich recht hnlich zum Mannheimer Semester. Das HWS ging bei mir Mitte August los und man war vor Weihnachten wieder zuhause. Das FSS startet meist recht frh (erste Januar Woche).</t>
+  </si>
+  <si>
+    <t>Studieren in den USA ist definitiv sehr anders als in Deutschland. Man kann es sich hnlich wie die Schulzeit vorstellen, mit vielen Hausaufgaben unter der Woche und mehreren Klausuren und Abgaben whrend des Semesters anstatt wie in Deutschland einer gro§en Klausur am Ende. Das mag nach viel Arbeit klingen, das Niveau der einzelnen Abgaben und Klausuren ist jedoch relativ niedrig, sodass alles ohne gro§en Aufwand zu schaffen ist. Whren des Unterrichts wird sehr viel Wert auf aktive Mitarbeit gelegt, die auch einen Teil der Note am Ende des Semesters ausmacht. Das Angenehme an diesem Studiensystem ist, dass es mehrere Mglichkeiten gibt die Endnote zu ãdefinierenÒ und nicht alles von einer einzigen Prfung oder Klausur abhngig ist._x005F_x000D_
+Folgende Kurse habe ich an der UMASS Boston absolviert:_x005F_x000D_
+-	Migration and Diversity_x005F_x000D_
+-	American Identities_x005F_x000D_
+-	Behavioral Neuroscience_x005F_x000D_
+-	Gender and Film_x005F_x000D_
+Diese Kurse hren sich zunchst nicht unbedingt nach meinem Studiengang an, ich habe vorher aber mit meiner Ansprechpartnerin an der Uni Mannheim abgeklrt, dass alle 4 Kurse als quivalent angerechnet werden. Dennoch muss ich sagen, dass mich die Kurse aus akademischer Sicht nicht unbedingt weitergebracht haben, sie dienen mir vielmehr als Aufbesserung meiner Note, da ich grundstzlich gut abgeschnitten habe. Falls ihr also einen Kurs in Mannheim habt, der euch schwerfallen knnte, kann ich empfehlen ein quivalent in den USA zu finden, denn es knnte durchaus leichter sein (bei mir war das fr mein Beifach Psychologie der Fall, hier konnte ich Behavioral Neuroscience fr Neuropsychologie anrechnen lassen und ich bin mir sicher in Mannheim htte ich schlechter abgeschnitten). In all meinen Kursen hatte ich relativ viele Essays whrend des Semesters, aber keine Sorge, das hat mich nicht von Freizeitaktivitten abgehalten. Das Meiste konnte ich zwischen meinen Kursen auf dem Campus erledigen sodass ich Wochenenden und Abende frei fr Aktivitten hatte. ber das Sprachniveau braucht man sich keine Sorgen machen, ich hatte keine Probleme mit dem Studium auf Englisch und die meisten Professoren sind beeindruckt darber, dass man berhaupt eine zweite Sprache spricht. Das Campusleben an der UMass ist hauptschlich auf eure Kurse beschrnkt. Ich habe eher an wenigen Veranstaltungen teilgenommen, das Angebot besteht aber. Auf dem Campus gibt es ein kostenloses Gym und viele verschiedene Studentenclubs. Ihr habt aber defintiv weniger Campusleben als bei Universitten bei denen ihr auf dem Campus wohnt. Die klassischen amerikanischen Fratparties fallen hier also eher weg. Wenn ihr euch aber mit Leuten aus anderen Unis (in Boston gibt es 17) vernetzt, dann knnt ihr auch das erleben.</t>
+  </si>
+  <si>
+    <t>Das Studium am Department of Economics unterscheidet sich (in meinen Augen) nicht allzu sehr von dem was man aus dem Mannheimer Spezialisierungsbereich gewohnt ist. Der Term umfasst 10 Vorlesungswochen (Anfang Oktober - Mitte Dezember), also deutlich krzer als gewohnt. Es gibt eine gro§e Auswahl an interessanten Kursen, die recht frh im Internet zu sehen sind, sodass man sich ausreichend frh informieren kann. Jedoch sollte man genau darauf achten, welche Kurse man als Part-Year Student berhaupt belegen kann/darf. Standard sind vier Module mit jeweils 6 ECTS, fr welche man sich in den ersten zwei Wochen registrieren muss. Sollte man seine Kurswahl aber doch noch einmal ndern wollen, ist das Undergraduate Office immer freundlich und hilfsbereit. 
+In den meisten Fllen besteht ein Modul aus zwei Vorlesungen  einer Stunde pro Woche plus einer 14-tgliche bung, bei der Anwesenheitspflicht besteht. Inhaltlich hatte ich den Eindruck, dass der Fokus etwas mehr auf Anwendung liegt - so wird deutlich mehr gelesen und nicht allzu viel hergeleitet/bewiesen, was ich persnlich als nette Abwechslung empfand. Da in Warwick smtliche Klausuren (aus Herbst- und Frhjahrssemester) im Sommer geschrieben werden, besteht die Leistungsberprfung der Part-Year Student lediglich in der Bearbeitung der kursspezifischen Assignments, die meist am Ende des Terms oder danach fllig sind. Dazu zhlen Problem Sets, Take-Home Exams und Essays, je nach Kurs sind auch (Gruppen-)Prsentationen erforderlich. Auch das war fr mich ein netter Kontrast zu den sonst blichen Klausuren. Solange man die Arbeit nicht zu sehr vor sich herschiebt, ist der Arbeitsaufwand total angemessen und es sollte nicht zu stressig werden.</t>
+  </si>
+  <si>
+    <t>An das Studium an der University of Bath gestaltet sich anders als in Mannheim. Vorlesungen finden in deutlich kleineren Vorlesungsgruppen statt und sind mehr Diskussionsrunden auf Basis der wissenschaftlichen Artikel, die vorher gelesen werden. Es wird gro§en Wert auf die Anwendung der gelernten Themen gelegt, sodass eigentlich zu jeder Unit mindestens ein Projekt durchgefhrt werden und als Essay ausgearbeitet eingereicht werden muss. _x005F_x000D_
+Bath legt hohen Wert auf ein herzliches Klima, welches sich sowohl im nahen Verhltnis zwischen Professoren und Studenten, aber auch den vielen Ressorts und am Campus ansssigen Sportvereinen verdeutlicht. Zum Studentenleben gehrt daher auch das Engagement in der Student Union oder die Teilnahme an Sportevents. _x005F_x000D_
+Durch die Abgabe von Essays mitten im Semester sowie die gro§e Menge an Artikeln sollte der Stoff immer aufgearbeitet werden, sodass man nicht vor Deadlines hinterherhinkt. Klausuren werden gegen Ende des Semesters geschrieben. Es ist aber auch mglich nur Kurse zu belegen, die mit Essays abgeschlossen werden, sodass gar keine Klausuren geschrieben werden.</t>
+  </si>
+  <si>
+    <t>Mit der Universitt selbst hatten wir wenig zu tun Ð der Austausch erfolgt mit der cole de Gestion conomique et Management (EM) Ð Normalerweise private Uni, die ausnahmsweise zur Unistra gehrt. Sie hat ein anderes Gebude, das nicht im Campus liegt. Man darf natrlich die Anlagen von Unistra verwenden, trotzdem hat man verschiede Internet Portale und Sachbearbeiter. Anfang September hatten wir eine Woche voll mit Einfhrungs- und Kennenlernenveranstaltungen. Danach ging es los. Die Vorlesungen dauern je 3 Stunden und man darf sie selbst auswhlen aber mit vorheriger Absprache mit UniMa. Man darf auch einen Sprachkurs in Franzsisch fr 5 ECTS belegen. Die Prsenz ist obligatorisch. Man hat kaum Zeit zu arbeiten, doch das Stipendium fand ich ausreichend (Obwohl Stra§burg ziemlich teuer ist). Es gibt sowohl Continious Asessments als auch Klausuren am Ende des Semesters (kann nach Kurs unterscheiden), doch alles ist entspannt und die Zeit reicht fr alles aus, natrlich wenn man nicht jeden Abend ausgeht.Obwohl das Studium in Englisch ist, wobei sich C1 als gengend erweist, ist Franzsisch auf jeden Fall vorteilhaft. Abgesehen von der Geschichte der Region sprechen in der Stadt selbst nur ltere Leute Deutsch (in der drflichen Umgebung doch fast alle), wobei jede offizielle Kommunikation besonders im Wohnheim auf Franzsisch erfolgt. English, au§erhalb von der Uni, spricht man kaum.Es gibt ein paar Mensas, das Essen da werde ich aber nicht empfehlen. In Frankreich isst man zu Mittag zwischen 12 und 13 Uhr und danach werden die Mensas und brige Restaurants geschlossen. Fr mich hat es geklappt mit Restaurants, die Studentenrabatt anbieten und so preislich vertrglich waren (Restaurants sind in der Regel billiger als in Deutschland und es gibt recht viele Optionen).Das Semester dauert bis 18 Dezember und es gibt nur einen Termin fr die Klausuren. Die letzte Woche gilt als Klausurphase.</t>
+  </si>
+  <si>
+    <t>Das Studium war super cool. Man konnte Kurse in vielen verschiedenen Bereichen belegen, welche man in Deutschland nicht htte belegen knnen, bspw. Asylrecht &amp; Menschenrecht. Au§erdem knnt ihr, wenn ihr 4 Semester in Mannheim studiert habt, auch Mastrekurse an der UiO belegen.</t>
+  </si>
+  <si>
+    <t>Die Pompeu Fabra gilt als eine der besten Universitten Spaniens fr Betriebswirtschaftslehre und hat auch einen entsprechenden Anspruch. Sie ist sehr international ausgerichtet und hat daher sehr viele internationale Studenten. Es gibt ein gro§es Angebot an englischen Kursen, weswegen es nicht unbedingt ntig ist, dass man schon vor dem Auslandssemester Spanisch spricht._x005F_x000D_
+Man sollte sich aber bewusst sein, dass der Arbeitsaufwand und Anspruch relativ hoch ist und das Studium nicht unbedingt entspannt ist. Dazu kommt die Tatsache, dass die Pompeu Fabra in Trimester statt Semester unterteilt ist und empfiehlt nicht mehr als 20 ECTS pro Trimester zumachen. Da man als Mannheimer BWL Student auf 29 ECTS Punkte kommen muss, hei§t das, dass man fast die doppelte Menge an Kursen hat wie die meisten anderen Studenten. Dazu kommt das sehr verschulte System der Uni, mit Anwesenheitspflicht in vielen Veranstaltungen und wchentlichen Hausaufgaben in vielen Fchern._x005F_x000D_
+Die Endnote setzt sich dann zu 40-60% aus den Hausaufgaben und dem Rest durch die Klausur zusammen und wenn man die Hausaufgaben nicht macht, wird man zu den Klausuren gar nicht erst zugelassen und fllt automatisch durch._x005F_x000D_
+_x005F_x000D_
+Die Universitt hat ein sehr engagiertes ESN Team, welches am Anfang eine Welcome Week mit vielen interessanten Aktivitten organisiert und auch ber das Semester immer wieder gemeinsame Trips und Partys macht. Darber kann man Anfang sehr gut andere internationale Studenten kennenlernen.</t>
+  </si>
+  <si>
+    <t>Das Studium an der UC3M ist verschulter als in Mannheim. Die Klassen bestehen aus ca. 20 Studenten. Offiziell gibt es auch Anwesenheitspflicht, obwohl die Umsetzung von den Professoren abhngt (bei mir ist nur ein Prof manchmal die Liste durchgegangen). Au§erdem gibt es viele Quizzes, benotete Hausaufgaben, Midterms, Prsentationen, etc., sodass man auch whrend des Semesters beschftigt ist. _x005F_x000D_
+Persnlich empfand ich das Studium an der UC3M um einiges einfacher als in Mannheim. Es sollte auf jeden Fall mglich sein, gute Noten zu schreiben und gleichzeitig viel zu reisen bzw. seine Zeit in Madrid zu genie§en.</t>
+  </si>
+  <si>
+    <t>Im allgemeinen wrde ich sagen, dass das Studium an der AUT zwar etwas zeitaufweniger, aber dafr vom inhaltlichen Anspruch etwas einfacher ist als Mannheim. Meine Kurse waren alle zu 100% Assignment-basiert und im Durchschnitt musste man 3 Assignments pro Kurs abgeben. Da die Assignemnts in den verschiedenen Kursen meist zu gleichen Zeit abgegeben werden mssen, ist gutes Zeit Management gefragt. Insgesamt muss man aufgrund des Visum-Status 4 Kurse belegen und es ist nicht mglich Assignements in Kursen nicht abzugeben. Ich empfehle daher sich frhzeitig die geplanten ECTS aus dem Auslandssemester mit in die Semesterplanung zu integrieren um nicht zu wenige ECTS fr das Auslandssemester offen zu haben.</t>
+  </si>
+  <si>
+    <t>Die Sun Yat-Sen Universitt liegt auf einem wunderschnen Campus im sdlichen Zentrum von Guangzhou. Obwohl ich vorher nicht wirklich eine Vorstellung hatte wie ich mit einem Studium in China zurecht kommen wrde habe ich nie bereut mich an der SYSU beworben zu haben. _x005F_x000D_
+_x005F_x000D_
+Bei der Organisation muss man sich allerdings auf die eine oder andere Schwierigkeit einstellen. Durch die bereits erwhnten IT-Probleme und daraus resultierenden Verzgerungen war es zum Beispiel nicht mglich alle Kurse so zu whlen wie es mir in den Studienplan gepasst hat. Daher muss ich nun neben meiner Masterarbeit noch einen letzten Kurs in Mannheim belegen. Das ist zwar ein wenig rgerlich, aber glcklicherweise auch kein allzu gro§es Problem. _x005F_x000D_
+_x005F_x000D_
+Bei den gewhlten Kursen habe ich mich allerdings bewusst fr die geblockten Veranstaltungen aus dem Part-time MBA entschieden. Diese finden meist am Wochenende oder abends statt, und knnen auch mal den ganzen Tag dauern. Dafr hat man den Rest der Woche ausreichend Zeit sich in der Stadt und der Region ein wenig umzuschauen. Au§erdem dauern die Kurse oftmals nur ein paar Wochen, weshalb es auch mglich ist unter dem Semester ein paar Wochen auf Reisen zu gehen. _x005F_x000D_
+_x005F_x000D_
+Anders als in Mannheim erinnern die Kurse teilweise ein wenig mehr an Schulunterricht, da die Klassengr§e generell kleiner ist, und viel Wert auf Hausaufgaben und Prsentationen gelegt wird. Die dafr notwendige Gruppenarbeit ist allerdings eine gute Mglichkeit um die anderen Internationals und Einheimischen ein wenig besser kennen zu lernen. Das generelle Kursniveau liegt aber tendenziell unter dem aus Mannheim gewohnten, und sofern man die ãFlei§arbeitÒ erledigt, sollte es keine gr§eren Probleme geben eine gute Note zu bekommen.</t>
+  </si>
+  <si>
+    <t>Aufgrund von Corona war das Semester an der Universitt, wie wohl berall, natrlich au§ergewhnlich.
+Ich konnte ca 2 Wochen die Kurse direkt an der Uni besuchen, bevor die Veranstaltungen nicht mehr vor Ort stattfinden konnten. Hier war ich immer zufrieden mit der Organisation der Kurse, kann aber aufgrund der Krze nicht allzu viel darber sagen. Die Universitt hat es recht schnell geschafft, alle Kurse online zu verlegen. Auch die Professoren, die meine Kurse veranstalteten haben sich schnell daran gewhnt und angepasst - alle Unterlagen waren jederzeit verfgbar, die Zoom Meetings verliefen idR problemlos, auch die Klausuren konnten online durchgefhrt werden. Das Studium war also den Umstnden entsprechend angenehm gestaltet.</t>
+  </si>
+  <si>
+    <t>Das Studium an der University of Oulu ist eigentlich eher in Perioden aufgeteilt als in Semester. Das HWS in Mannheim ist in Oulu also die 1. Und 2. Periode, das FSS ist dann die 3. Und 4. Periode (die 5. Periode, die soweit ich wei§ im Sommer stattfindet sind dann mehr oder minder die Ferien, manche haben aber auch in dieser Zeit noch Kurse)_x005F_x000D_
+Studieren an der University of Oulu unterscheidet sich merklich von dem Studium an der Universitt Mannheim. Anders als in Mannheim wird deutlich weniger Wert auf Klausuren zum Abschluss eines Kurses gelegt. In den aller meisten Kursen werden unter dem Semester wchentliche Abgaben benotet aus denen sich dann manchmal auch gleich die gesamte Endnote zusammen setzt. Manchmal gibt es dann doch noch zustzlich eine Klausur, aber das war tatschlich sehr selten. Eher gab es dann eine gr§ere Abgabe am Ende der Periode. Das entzerrt die Klausurphase am Ende dann immer so stark, dass der Workload auch kleiner wirkt als in Mannheim.</t>
+  </si>
+  <si>
+    <t>Kursangebot: _x005F_x000D_
+Da ich in Mannheim einen Finance Schwerpunkt habe, entschied ich mich gegen eine MBA Spezialisierung. Als MBA Spezialisierung sind an der University of Victoria fr Austauschstudierende Entrepreneurship und Service Management mglich. Alternativ kann man Bachelorkurse belegen, allerdings nur die des vierten Bachelorjahres (400er Kurse). Fr diesen Weg habe ich mich entschieden. Im Laufe des Bewerbungsprozesses bekommt man einen Katalog zugeschickt, aus dem man Kurse whlen kann. Generell gibt es ziemlich viele Kurse zur Auswahl, die man auch ohne Probleme als International Course in Mannheim anrechnen lassen kann. Wenn man mehr als drei Kurse belegen mchte, bentigt man ein quivalent zu einem Mannheimer Kurs. Bei mir wurde nur der Entrepreneurship-Kurs (siehe unten) als quivalent anerkannt, sonstige Anfragen wurden abgelehnt. _x005F_x000D_
+Kursniveau und Prfungen:_x005F_x000D_
+Studieren an der University of Victoria ist deutlich verschulter als in Mannheim. Es gibt viele Assignments zwischendurch, Gruppenarbeiten, interaktive Vorlesungen und so weiter. Das Niveau der Kurse liegt unter dem Mannheimer Niveau. Die Inhalte sind weniger anspruchsvoll und weniger umfassend. Jedoch bedeutet dies nicht, dass man berall einfach eine 1,0 bekommt. Bei Gruppenarbeiten vergeben viele Professoren/Professorinnen kaum Bestnoten und so bekommt man schnell ohne einen Kritikpunkt 85%. Dennoch werden die exams ziemlich fair bewertet, wenn die Antworten richtig sind, gibt es die Punkte. _x005F_x000D_
+Vorlesung:_x005F_x000D_
+Es gibt eine Anwesenheitspflicht, die auch mittels Unterschriften kontrolliert wird. In den meisten Kursen machen die Anwesenheit und Mitarbeit 10% der Note aus. Manche Professoren/Professorinnen nehmen das ernster, andere lockerer. Am besten fragt man am Anfang nach oder schaut im Syllabus. Besonders in der Reading Break im November fehlen viele internationale Studierende ein bis zwei Tage, um eine gr§ere Reise zu machen. Ich habe einen Tag gefehlt und hatte damit acht Tage frei, in denen ich nach Hawaii geflogen bin.</t>
+  </si>
+  <si>
+    <t>Ich habe 3 Kurse fr je 10 Credits belegt, davon 1 Sprachkurs. Parallel habe ich noch einen Kurs in Mannheim gehrt. Das war insbesondere deshalb mglich, weil die Mathekurse beide nur aus je 2 Vorlesungen pro Woche bestanden und es keine Tutorien o.. gab. Insgesamt ist das Anforderungsniveau der von mir besuchten Kurse geringer als bei den Mannheimer Kursen. Alle Professoren und Ansprechpersonen der Universitt beherrschten ein gutes und verstndliches Englisch. _x005F_x000D_
+_x005F_x000D_
+Die Vorlesungen sind Mitte August gestartet. Vor den Vorlesungen gab es noch eine Einfhrungswoche, bei der die Teilnahme an dem Buddy-Programm absolut empfehlenswert ist. Die Prfungsphase ging von Ende November bis Weihnachten. Fr die Prfungen gibt es ein gesondertes Gebude, welches entsprechend ausgestattet ist und auch fr mgliche Online-Prfungen alles bereitstellt._x005F_x000D_
+_x005F_x000D_
+Auf dem Campus in Blindern gibt es zahlreiche Cafs und Mensen, die ein abwechslungsreiches Angebot haben. Jedoch ist zu beachten, dass sie preislich erheblich ber dem Mannheimer Niveau liegen. In den Bibliotheken kann man kostenlos drucken.</t>
+  </si>
+  <si>
+    <t>Das Studium an der SDSU unterscheidet sich sehr von dem Studium in Mannheim, in dem man unter dem Semester sehr viele Freiheiten hat, am Ende des Semesters aber eine anstrengende Klausurenphase auf einen wartet. An der SDSU musst du kontinuierlich das gesamte Semester ber Assignments und Tests schreiben, die alle in deine Endnote einflie§en. Dafr hast du am Ende keine Klausurenphase, sondern die Arbeit verteilt sich gleichm§ig das gesamte Semester ber. Natrlich gibt es Kurse in denen du jede Woche einen Test schreibst, Gruppenarbeiten machen musst und Paper schreiben musst, genauso wie es aber auch Kurse gibt in denen du nur jeden Monat einfach ein Exam schreibst. Du solltest also fr dich selbst entscheiden, welcher Typ du bist und was dir mehr liegt und dies auch bei deiner Modulwahl bercksichtigen. Die Informationen aus welchen Prfungsleistungen ein Kurs alles besteht, findest du alle im Vorhinein online auf der SDSU Seite, wo du dich auf jeden Fall informieren solltest. _x005F_x000D_
+Die Kurse selbst sind etwas ãverschulterÒ als in Mannheim. Man ist in deutlich kleineren Gruppen, es wird Mitarbeit erwartet und es besteht Anwesenheitspflicht. _x005F_x000D_
+Insgesamt hat man quantitativ einiges zu tun das Semester ber, qualitativ ist das Niveau aber geringer als wir es von Mannheim gewohnt sind. _x005F_x000D_
+Die Kurse sind au§erdem praxisorientierter und man kann viel lernen. Da man im Auslandssemester die Chance hat frei Kurse zu whlen, die einen interessieren, kann man hier sehr viel fr sich mitnehmen. Auch hierfr ist die SDSU optimal, da es wahnsinnig viel Auswahlmglichkeiten an Kursen gibt und wirklich jedes Interessensgebiet abgedeckt wird. _x005F_x000D_
+Neben den Vorlesungen hat der Campus einiges zu bieten von Sportangeboten bis hin zu vielen Restaurants und Cafs sowie einem kleinen Supermarkt. Sollte man zwischen seinen Kursen mal einen Block frei haben, kann man sich die Zeit hier sehr gut vertreiben.</t>
+  </si>
+  <si>
+    <t>Das Studium an der ULL ist komplett auf Spanisch, weshalb ich empfehle auf jeden Fall einen Spanisch-Kurs nebenbei zu belegen, wenn das Sprachniveau nicht ausreicht. Mit B2 kommt man aber super klar. Die Professoren sind auch sehr hilfsbereit und nehmen zumeist auch Rcksicht auf die Erasmus-Studenten. _x005F_x000D_
+Je nach Curso unterscheidet sich auch der Anspruch. Zwei meiner drei Kurse waren aus dem 4. Studienjahr, weshalb die Professoren auch dementsprechende Leistung erwartet haben. Alles in allem ist das Studium aber definitiv machbar.</t>
+  </si>
+  <si>
+    <t>Ich habe mich im Zuge des Online-Auslandssemesters fr die Teils-Teils Lsung entschieden. Normalerweise kann man sich fr einen Minor (15ECTS) entscheiden und dazu noch weitere kleinere Kurse (3-6ECTS) whlen. Das Angebot der Minor Kurse war sehr vielseitig und interessant. Im Gegensatz dazu war das Angebot fr die anderen Kurse - insbesondere im Rahmen der wirtschaftswissenschaftlichen Fakultt - sehr begrenzt. Viele dieser Kurse (Accounting, Marketing etc.) hat man - zumindest war so mein Eindruck - bereits im Verlauf des Studiums an der Universitt Mannheim gehrt. Darber hinaus ist es auch mglich an anderen Fakultten teilzunehmen. Dabei musste man dies allerdings mit den jeweiligen Fakultten selbst klren, Fristen einhalten und gewhrleisten knnen, dass sich diese mit anderen Kursen zeitlich nicht berschneiden. Aufgrund dessen habe ich dieses Angebot nicht wahrgenommen. _x005F_x000D_
+Ich habe das Kursniveau vergleichbar zum Mannheimer Studium wahrgenommen, wobei im Vergleich an der Erasmus Universitt viele Leistungen durch wissenschaftliche Arbeiten oder Prsentationen erbracht werden mussten. Der Ablauf unterscheidet leicht zum Studium in Mannheim, da die Kurse des Minors in den ersten 10 Wochen, mit anschlie§ender Prfung Anfang November, erfolgten. Die anderen Kurse knnen generell in der ersten Unterrichtswoche abgemeldet werden und sind mit dem Studium in Mannheim vergleichbar. Die Prfungen fr diese lagen kurz vor Weihnachten._x005F_x000D_
+Alle Kurse wurden auf Englisch angeboten. Das Sprachniveau ist vergleichbar zu Mannheim.</t>
+  </si>
+  <si>
+    <t>Die Tongji ist direkt an der Metrostation der Linie 10, also extrem leicht erreichbar und etwa 15-20 min vom Zentrum entfernt. Das BWL-Gebude ist ein modernes Hochhaus an der Hauptstra§e, ein paar Kurse hatte ich auf dem Campus gegenber. Alles easy erreichbar. Die meisten Austauschstudenten kommen aus Deutschland oder Frankreich. Kanada, USA, Norwegen und Spanien sind aber auch vertreten. Das Essen in den Mensen ist okay und extrem gnstig (1-2Û pro Mahlzeit). Es gibt aber auch einen Foodcourt direkt vor dem Campus und McDonalds und Starbucks haben im Januar erffnet. 
+An den beiden Einfhrungstagen gibt es eine Campustour, Busrundfahrt durch Shanghai mit Besuch des Urban Exhibition Centers und eine Willkommensrede. Ganz nett um erste Studenten kennenzulernen.
+Die Kurse muss man nach der ersten Vorlesungswoche festlegen, was Zeit gibt, sich mehrere Kurse anzusehen, bevor man sich endgltig festlegt. Anwesenheit ist in allen Fchern wichtig und wird berprft, in 30% der Kurse darf man offiziell fehlen.
+Wir haben uns den Lehrern in jeder ersten Vorlesung vorgestellt und ihnen die toughe Umrechnung der Uni MA erklrt. Der Inhalt ist dennoch leider in fast allen Fchern unterirdisch und die Notengebung unklar und intransparent. Lasst euch davon nicht zu sehr runterziehen und versucht geistige Prsenz zu zeigen, damit die Lehrer euch kennen. Die Noten werden Mitte/ Ende Januar im Online Portal hochgeladen. 
+Au§erdem gibt es in China das Mid-Autumn Festival Mitte September mit zwei Feiertagen sowie die Golden Week Ende September, in der man eine ganze Woche frei hat.
+An der Uni gibt es ein Buddy Programm. Beim Treffen in der ersten Woche sind die chinesischen Buddies selbst Erstsemester aus ganz China, kennen sich also leider zum Gro§teil nur kaum in SH aus und kommen direkt aus der Schule. Es wurde ein Tagesausflug in die Wasserstadt Tongli organisiert, bei dem etwa 50 Austauschstudenten und ein paar Chinesen aus der Orga dabei waren. Witziges und interessantes Event, ein Highlight war, dass auf der 3-stndigen Busfahrt Karaoke gesungen wurde. Die Deutsche Fakultt der Uni organisierte au§erdem ein Oktoberfest, bei dem ein Vortrag ber das Bierbrauen gehalten wurde, Leberks, Brezeln und Bier bereitgestellt wurden und ein Puzzlewettbewerb gemacht wurde. Weiterhin gab es ein Fest mit Spielen und Bastelaktionen zum Kennenlernen der chinesischen Kultur Ende Oktober. 
+Chinesisch: Der Einfachheit halber habe ich  Level 1 Kurs besucht, was einen Vorsprung schafft. Der Kurs war montags und mittwochs von 18.30-20.45 Uhr. Die Atmosphre war immer locker und die Lehrerin sehr s§. Anfang November musste man sich selbst in 5 Minuten vorstellen und am 11.01. wurde eine leichte Klausur geschrieben. Level 2 wre wohl sinnvoller gewesen, aber aus Noten- und Freizeit-Sicht war Level 1 eine gute Wahl.
+Academic Lectures: Der Kurs besteht aus 8 Gastvortrgen und zu einem muss man ein 3000 Word Paper bis Weihnachten schreiben. Gute bung fr die Bachelorthesis im 6. Semester. Notengebung gut.
+Money and Banking: Die Dozentin war fachlich top, ihr Englisch leider schwer verstndlich. Zwei kleine Gruppenarbeiten und eine open book Klausur Anfang Januar. Sehr intransparent, aber trotzdem gute Notengebung.
+Multicultural Communication: Jede der sieben 6er Gruppen musste in 30min Expats aus Shanghai vorstellen (Anfang bis Mite des Semesters) und am Ende sollte ein Managementplan fr ein FDI einer chinesischen Firma ausgearbeitet werden. Klingt gut, aber durch die kaum vorhandenen (!) Englischkenntnisse und starrsinnige Denkweise des Lehrers war es leider eine wchentliche Qual und ein inhaltloser Kurs, in dem ich nichts lernte und mich viel zu sehr rgerte. Schade und ernchternd. Meine Note war gut, aber wahrscheinlich hatte ich beim Wrfeln Glck.
+HR: Mit Chinesen. Zwei Gruppenarbeiten und ein 3-seitiges individual assignment gefordert. Die Lehrerin war mir sympathisch, es wurde mit vielen Cases gearbeitet und sie versuchte Diskussionen zu erffnen.</t>
+  </si>
+  <si>
+    <t>Die EAFIT ist eine private Uni mit wirtschafts- und ingenieurwissenschaftlichem Fokus und eigenem Campus im Sden von Medelln. In der Uni habe ich mich immer ziemlich abgeschottet vom sonstigen Leben in der Stadt gefhlt. Neben den Vorlesungs- und Seminarrumen gibt es hier auch eine Bibliothek, verschiedene Caf- und Essensketten und andere Angebote fr Studierende wie Lernrume, ein eigenes Fitnessstudio, Sportpltze und einen Raum, der anscheinend nur dafr gedacht ist, dort Netflix zu schauen._x005F_x000D_
+Insgesamt hatte ich das Gefhl, dass die Uni deutlich weniger divers ist als die ffentlichen Universitten, da die Menschen dort zum Gro§teil aus reicheren Familien kommen und ich auch das Gefhl hatte, dass es z.B. strkere ãDresscodesÒ gibt, als an den gro§en ffentlichen Unis in Medelln (Universidad de Antioquia und Universidad Nacional). Die Universidad de Antioquia einmal zu besuchen, lohnt sich meiner Meinung nach sehr (ihr knnt auch einfach so bzw. mit der EAFIT Studi-Karte reingehen). Ich fand den Campus super schn und angenehm, es ist super spannend diesen mit der EAFIT zu vergleichen, und es gibt sogar noch ein kostenloses Museum, in dem viel zu indigener Kultur zu finden ist, auf dem Campus. Hinter der Uni befindet sich au§erdem noch eine Kurve, in der abends immer Menschen sitzen und wo es gutes und gnstiges Streetfood gibt._x005F_x000D_
+Im Unialltag gab es gerade was die Struktur der Kurse angeht Unterschiede zum Studium in Mannheim. Zum einen mssen alle Kurse bereits zu Beginn des Semesters angemeldet werden (danach lsst sich nur noch abwhlen). Es lohnt sich also wie gesagt, vorher schon eine ungefhre Vorstellung zu haben, welche Fcher mensch dort belegen mchte. In fast allen Kursen gibt es ber das Semester verteilt Zwischenprfungen (ãParcialesÒ) und -Abgaben. Der Aufwand fr die Uni wird so im Semester hher, dafr fllt die intensive Klausurenphase am Ende des Semesters etwas weg (in meinen Kursen wurde die Abschlussprfung meist mit 30% der Note bewertet). Generell hatte ich das Gefhl, dass die Uni verschulter war als in Mannheim, es fand meinem Empfinden nach mehr direkte Kommunikation zwischen Dozierenden und Studierenden statt und ich hatte tendenziell kleinere Kurse als in Mannheim._x005F_x000D_
+Das Semester beginnt Anfang Juli, ist dadurch aber auch schon Mitte/Ende November zu Ende.</t>
+  </si>
+  <si>
+    <t>Uni:
+Vorab zu beachten ist dass die Semesterzeiten in Israel nach dem jdischen Kalender gerichtet und somit jedes Jahr verschieden sind. Um berraschungen zu vermeiden sollte man sich darber vorab informieren und sich nicht an den vor Jahres Zeiten orientieren!
+Die IDC hat einen kleinen, aber sehr schnen Campus auf einem ehemaligen Militrflugplatz. Die Gebude sind modern und die Anlagen grn und laden zum verweilen ein. Es gibt einige kleine Kioske und Cafes wo fr vernnftiges Geld Snacks zu haben sind. Erwhnenswert ist die Mensa die sehr gutes Essen zu, fr israelische Verhltnisse, sehr gnstigen Preisen anbietet (5-8Û).
+Die Organisation ist im Allgemeinen gut und die Mitarbeiter in der Regel sehr freundlich und hilfsbereit. Die Austauschkoordinatorin ist sehr nett und engagiert. Das Studienniveau an der IDC schwankt sehr stark je nach Dozent. Man kann Dozenten haben die hervorragend unterrichten und auf ihrem Fachgebiet wahre Koryphen sind, man kann aber auch an Dozenten geraten die eher unorganisiert und teils etwas berfordert wirken. Der Schwierigkeitsgrad reicht von anspruchsvoll und dauerbeschftigt, bis gelangweilt und beinahe lcherlich. Deshalb sollte man sich die drei Wochen ãProbierzeitÒ am Anfang des Semesters zunutze machen und viele Kurse ausprobieren. Ein Kurswechsel war bei mir sowohl von israelischer Seite, wie von Mannheim aus kein Problem. Besonders empfehlenswert sind alle Kurse zum Thema Terrorismus, auf diesem Gebiet ist die Uni absolut fhrend. Die Prfungen und Prsentationen laufen hnlich wie in Mannheim ab, nur die Hausarbeiten sind in der Regel weniger anspruchsvoll gestaltet (Ausnahmen bestimmen die Regel).</t>
+  </si>
+  <si>
+    <t>Ich habe die Fcher _x005F_x000D_
+COR3301 Ethics &amp; Social Responsibility _x005F_x000D_
+MKTG205 Advertising (SMU-X)_x005F_x000D_
+OBHR234 Power &amp; Politics in Organisations _x005F_x000D_
+POSC211 European Union Politics (fachfremd) _x005F_x000D_
+gewhlt. _x005F_x000D_
+Alle Kurse haben mir sehr viel Spa§ gemacht, da die Professoren alle sehr nett und motivierend waren. Man wird in viel kleineren Klassen (max. 30 Leute) unterrichtet. Es gibt keine Tutorien oder bungen, sondern nur 3-Stunden lange Vorlesungen, in denen die bungen miteingeschlossen sind. _x005F_x000D_
+Unter dem Semester muss man immer am Ball bleiben, da man sehr viele Prsentationen und Ab-gaben hat. Besonders gut hat mir gefallen, dass man aus seiner Komfortzone rauskommen muss und immer im Team mit anderen Studierenden aus der ganzen Welt zusammen arbeiten muss. _x005F_x000D_
+Die Klausurenphase ist jedoch kein Vergleich zur Klausurenphase in Mannheim, da man in jedem Fach schon mindestens 50% seiner Endnote whrend des Semesters abgearbeitet hat. Die Fcher MKTG205 und OBHR234 hatten zum Beispiel gar keine Endklausur, da man schon 100% der Note whrend des Semesters erbracht hat. _x005F_x000D_
+In jeder Unterrichtsstunde ist Anwesenheitspflicht, weswegen man sich die Zeit nicht so flexibel selber einteilen kann wie in Mannheim.</t>
+  </si>
+  <si>
+    <t>Das Studium an der NHH unterscheidet sich in gewissen Aspekten von dem Studium an der Universitt Mannheim. Generell wird deutlich mehr Wert auf Arbeit unter dem Semester gelegt. So gibt es kaum Kurse, die ohne Hausarbeiten unter dem Semester auskommen. Viele Kurse kommen sogar ganz ohne Klausur aus. 
+Wie in Mannheim finden die meisten Masterkurse in kleinen Gruppen statt. Generell sind die Dozenten jnger und deutlich nahbarer als in Mannheim. Sie stehen immer fr Fragen zur Verfgung. Es wird deutlich mehr Mitarbeit whrend der Vorlesung gefordert damit eine Diskussion stattfinden kann. Dies fhrt dazu, dass Kurse sich im Generellen weniger in den theoretischen Details verlieren, stattdessen versuchen die Dozenten das Gelernte anhand von praktischen Beispielen zu illustrieren.
+Die Universitt bietet dabei eine ideale Lernatmosphre. Durch die gro§e Anzahl an Leseslen und Gruppenrumen findet man auch whrend der Klausurenphase problemlos einen ruhigen Platz zum Arbeiten. Da sich diese Phase ber eineinhalb Monate erstreckt hat man einen geringeren Klausurstress als in Mannheim. Studenten an der NHH sind im Allgemeinen hnlich kompetitiv wie in Mannheim und durch eine relative Notenvergebung kann man davon ausgehen hnliche Noten wie in Mannheim nur mit einem hnlichen Arbeitsaufwand zu erreichen.</t>
+  </si>
+  <si>
+    <t>Die Bocconi zhlt zu den renommiertesten europischen Business-Unis. Dementsprechend breit gefchert ist auch das Angebot an BWL-Vorlesungen, aufgeteilt in die Bereiche Accounting, Decision Sciences, Economics, Finance, Law, Marketing, Management und Policy Analysis and Public Management. Das Niveau der von mir belegten Kurse war vergleichbar mit dem in Mannheim. Es bestand in fast allen Kursen Anwesenheitspflicht und Mitarbeit wurde bewertet. Zudem gab es in den meisten Kursen Gruppenprojekte, kleine Hausarbeiten und Zwischenprfungen, was die Arbeitslast am Semesterende deutlich reduziert hat. Es bestand in allen Kursen die Mglichkeit, den non-attending Modus zu whlen und so keine Anwesenheitspflicht und keine unterjhrigen Projekte und Prfungen zu haben, dafr jedoch eine Prfung von gr§erem Umfang am Semesterende, meist basierend auf Bchern zustzlich zu den Kursfolien. Grundstzlich ist zu erwarten, dass der attending Modus zu besseren Noten fhrt, was jedoch individuell von den Kursen abhngt. Durch das Learning Agreement war eine problemlose Anerkennung der Noten an der Uni Mannheim gewhrleistet.
+An der Bocconi ist das Studienjahr in Semester aufgeteilt mit Vorlesungszeiten von Anfang September bis Anfang Dezember und anschlie§enden Prfungen fr Austauschstudierende bis kurz vor Weihnachten. Die genauen Semesterzeiten und Ferien knnen auf der Website eingesehen werden. Fr die teilweise wchendlich wechselnden Vorlesungszeiten und Rume ist die Bocconi App sehr hilfreich, die den persnlichen Stundenplan in Tages-, Wochen- oder Monatsformat anzeigt. Durch die App kann man auch seine Anwesenheit registrieren, Prfungstermine einsehen und Emails empfangen.
+Die Vorlesungszeiten hngen von den jeweils belegten Kursen ab, wobei man auf berschneidungsfreiheit achten sollte, die fr Austauschstudenten nicht automatisch gewhrleistet ist, da wir aus Kursen von verschiedenen Bocconi-Programmen und Studienjahren whlen knnen. Jedoch ist der non-attending Modus immer eine Option und bei sich berschneidenden Prfungen gengt meist eine Email an die Professoren, um einen Prfungstermin zu verschieben. Ich hatte meine Kurse jeweils als Block vormittags oder nachmittags gelegt und mir Montage freigehalten. In der Unimensa habe ich folglich eher selten gegessen. Es gibt 3 Mensen auf dem Campus welche sich preislich und im angebotenen Essen unterscheiden. Die gnstigste Mensa war die im Studentenwohnheim unterhalb des Fitnessstudios. Die Pizza dort ist sehr empfehlenswert aber auch die Pasta und das restliche Essen war sehr gut. Ein Teller Pasta kostet 2Û, jedoch gibt es fr Austauschstudenten auch eine 10er Karte fr 41Û, mit der man 10 Mens mit Primo, Secondo con Contorno, Brot und einer Frucht oder einem Getrnk fr 4,10Û bekommt. Diese Option kann auf den Bocconi Studentenausweis gebucht werden und ist an allen Bocconi Mensen gltig.
+Zustzlich zur Uni habe ich 20 Stunden pro Woche ein Praktikum in der International Sales Abteilung einer Tuschierpressenfirma gemacht. Dies war zwar stressig, jedoch hat es mir sehr geholfen, mein Italienisch zu verbessern und Arbeitserfahrung zu sammeln. Generell kann ich arbeiten neben des Studiums also empfehlen, jedoch sollten die ntigen Italienischkenntnisse bereits vorhanden sein. Vor meinem Auslandssemester habe ich fr 3 Semester den Italienischkurs des Studium Generale besucht, in den zwei Wochen vor Beginn des Semesters an der Bocconi habe ich dort an dem Crash Course teilgenommen und auch whrend des Semesters noch 2 mal pro Woche den fortlaufenden Italienischkurs besucht. Diese Kurse kann ich sehr empfehlen, einmal weil sie einem die Mglichkeit geben, bereits vor Beginn des Semesters andere Studenten kennenzulernen und Kontakte zu knpfen, whrend es natrlich gleichzeitig eine sehr effektive Mglichkeit, die eigen Italienischkenntnisse zu verbessern. Vor meinem Austausch hatte ich ein Niveau A2, was ich am Ende des Semesters auf ein B2 verbessern konnte. Eine weitere Mglichkeit italienisch zu lernen ist der kostenlose OLS Onlinesprachkurs des Erasmus Programms. Am effektivsten ist es jedoch, Kontakt zu italienischen Studenten zu knpfen und mglichst viel italienisch zu sprechen, was man auch mit Hilfe des Tandem-Programms der Bocconi erreichen kann.</t>
+  </si>
+  <si>
+    <t>Ich wrde sagen, das Studium an der Sciences Po ist hnlich anspruchsvoll, wie das an der Universitt Mannheim. Das Semester beginnt ebenfalls im August und endet im Dezember. Da es fr die meisten Kurse keine richtige Klausurenphase gibt, sich die Evaluation stattdessen meistens ber das ganze Semester in Form von Abgaben, Prsentationen oder mndlichen Noten erstreckt, kann es sein, dass die Noten fr einige Kurse teilweise schon Anfang Dezember feststehen. Es kam bei einigen Freundinnen, die im Master an der Sciences Po studieren, teilweise sogar vor, dass sich Abgabefristen bis in den Januar zogen. Die Arten der Evaluation sind immer vor Kursanmeldung in der jeweiligen Kursbeschreibung einsehbar. Persnlich fand ich diese Vielfalt passend fr ein Auslandssemester, da man Privatleben und Unileben auch noch gut gegen Ende des Semesters balanciert konnte. Langfristig bevorzuge ich aber die zentrale Prfungsphase der Universitt Mannheim, die au§erdem sehr viel weniger subjektiv ist. An der Sciences Po herrscht Anwesenheitspflicht. Wer mehr als zweimal in einem Kurs fehlt, egal ob entschuldigt oder nicht, fllt durch. Die Kurse sind au§erdem oft kleiner als in Mannheim und dauern zwei Stunden pro Vorlesung. Durch ihre zentrale Lage im sechsten und siebten Arrondissement ist die Sciences Po wirklich toll gelegen. Viele kleine Cafs und Bckereien befinde sich in unmittelbarer Nhe. Die Bibliotheken der Sciences Po sind zwar klein, dafr gibt es allerdings tolle Co-Working-Spaces oder die Mglichkeit, bei gutem Wetter in den Innenhfen der Unigebude zu lernen. Ich habe auch gerne in ffentlichen Bibliotheken gelernt, insbesondere in der BNF Richelieu Site. Die Studierenden der Sciences Po haben ihre politische Meinung gerne durch Protestaktionen geu§ert. Es kam vor, dass Eingnge blockiert oder ganze Unigebude ber Nacht besetzt wurden, was zu Unterrichtsausfllen fhrte. Jeder Unterrichtsausfall wurde allerdings nachgeholt. Das Englischniveau der Professoren ist wirklich super. Auch au§erhalb der Universitt sprechen die meisten Franzosen, entgegen dem allgemeinen Klischee, gerne und gut Englisch. Die Sciences Po ist eine international angesehene Universitt, teilweise privat und teilweise ffentlich, bekannt fr Politikwissenschaften und internationale Beziehungen. Im Nachhinein wrde ich die Chance besser nutzen, mehr politikbezogene Kurse zu belegen. Bei der Kursanmeldung zgerte ich jedoch, weil die Kurse meistens sehr spezifisch sind. Ich konnte mir nur einen Finance-Kurs in Mannheim anrechnen lassen, da es ansonsten kaum quivalente BWL-Kurse gab.</t>
+  </si>
+  <si>
+    <t>Die University of Toronto genie§t in Kanada einen sehr guten Ruf und gehrt in einigen Fchergruppen (z.B. Engineering, Law, IT) zu den besten Universitten der Welt. Der altehrwrdige Campus liegt inmitten einer der gr§ten Stdte Nordamerikas und hat aufgrund seiner direkten Anbindung an Downtown, den Finanzzentrum Kanadas, seinen eigenen unvergesslichen Charme.
+Die Unterrichtmethode der UofT unterscheidet sich sehr von der Universitt Mannheim. So finden fr die Kurse nur eine wchentliche Vorlesung ohne bungen oder Tutorien statt und es sind auch unter dem Semester viele Einzel- und Gruppenarbeiten abzugeben, Mitarbeitsnoten und Mid-terms gehren ebenfalls dazu. Der Workload whrend des Semesters ist dadurch auf jeden Fall hher als im Vergleich zu Mannheim. In Bezug auf den Schwierigkeitsgrad kann man die UofT und Mannheim auf eine Ebene setzen.</t>
+  </si>
+  <si>
+    <t>Zunchst muss ich sagen, dass es die Summer School gibt, die zwei Wochen vor der Uni beginnt und eine prima Mglichkeit ist andere Leute kennenzulernen. Ich habe sie leider nicht besucht, wei§ aber, dass sie einen guten Start in das Auslandssemester bietet. 
+Der universitre Alltag beginnt Mitte August mit der Orientierungswoche, in denen sich die verschiedenen Departments vorstellen, darunter auch die Fachschaften oder der kirchliche Dienst. Sehr interessant waren auch die Tipps zum Kulturschock und der Umgang mit der Dunkelheit, versehen mit dem Hinweis das man Hilfe in Anspruch nehmen kann sobald man mit den Umstnden nicht zurechtkommt. Auch hier sind die Mglichkeiten andere Studierende kennenzulernen sehr gut, weshalb ich jedem empfehlen wrde die Veranstaltungen zu besuchen. Auch sehenswert ist die Erffnungszeremonie, die in Finnland einen hohen Stellenwert genie§t und sehr formell ist.
+Was die Kurswahl angeht, so gibt es hnlich viele Kurse wie in Mannheim. Ich konnte mich zwischen acht Kursen in Politikwissenschaft entscheiden. Interessant hierbei ist, dass man im Zuge des s.g. ãOpen-UniversityÒ Programms auch Kurse von ganz anderen Fakultten belegen kann, wenn es die Anrechnung zulsst. Auch besteht die Mglichkeit, Kurse die offiziell nicht im Semester angeboten werden, zu belegen. Dafr macht man ein ãBook-examÒ, in denen man vom Dozenten eine Klausur oder Hausarbeit zu bestimmter Literatur erhlt. So ist man ein wenig flexibler, auch wenn die Anrechnung scheinbar keine anderen Kurse hergibt. Insgesamt haben mir die Themen sehr gut gefallen, ich hatte das Gefhl das man sich intensiver mit Texten beschftigt und die Dozenten viel Wert darauf gelegt haben, das man sie im Seminar auch verstanden hat. 
+Das Niveau war hnlich wie in Mannheim, jedoch lag der Fokus weniger auf der Methodik, sondern auf dem Inhalt, was ein hheres Arbeitspensum zur Folge hatte. Pro Kurs bekommt man in der Regel 5 ECTS, falls man sich einen Kurs als Master anrechnen lassen mchte, sogar bis zu 10 Credits. Der Unterschied liegt dann darin das die Abschlussarbeit noch etwas umfangreicher ist, ansonsten jedoch der Stoff gleich ist.
+Bei den Prfungen ist man in Finnland recht flexibel. Von der klassischen Klausur bis hin zum computergesttztem ãE-examÒ ist alles dabei. Ich musste sowohl bei meinen Kursen zwei Assignments abgeben als auch ein Learning Diary schreiben, was recht erfrischend war und wchentliche Arbeit vorausgesetzt hat. Alles in allem waren die Prfungsmglichkeiten sehr vielseitig und man konnte schnell herausfinden, welche Form einem am besten lag. 
+Im Gegensatz zur Universitt Mannheim ist dort jedes Semester in zwei Perioden aufgeteilt, in denen jeweils einzeln oder zusammen die Kurse stattgefunden haben. Bei Kursen die nur eine Periode andauerten, war der Arbeitsaufwand etwas hher um die verlorene Zeit wettzumachen. Zwischen den Kursen gibt es zwar offiziell keine Pausen, tatschlich sind die ersten und letzten 15 Minuten aber als Pausen ausgelegt.
+In Tampere sind alle Universittsgebude auf dem Campus, sowie auch die vier Mensen und die Sporteinrichtungen. Die Mensen kann man uneingeschrnkt empfehlen, die beste befindet sich jedoch neben der Bibliothek. Fr kleines Geld bekommt man hier ein Hauptgericht, einen Salat, frisches Brot und ein Getrnk. Ich war nahezu jeden Tag dort zum Mittagessen, das Preis-Leistungsverhltnis war einfach zu gut! Auch das Sportprogramm ist ausgezeichnet, man bezahlt einen halbjhrlichen Beitrag und kann an jedem Kurs teilnehmen sowie das Fitnessstudio nutzen. Da alles so zentral gelegen ist, bietet sich ein kleines Workout am Ende des Unialltages regelrecht an. 
+Falls man Hilfe bentigt oder andere Fragen hat, kommt man in Finnland mit Englisch sehr weit. Nahezu jeder in der Stadt beherrscht es und man kann sehr gut damit zurechtkommen. Auf dem Land ist es teilweise schwieriger, aber falls nicht helfen andere auch gerne weiter. Zu den finnischen Sprachkursen kann ich leider nichts sagen, da bei uns das Interesse so hoch war das per Zufall entschieden wurde, wobei ich leider nicht zugelassen wurde. Einige Freunde heben mir aber mitgeteilt, dass es recht schwer sei dem Stoff zu folgen und der Lernerfolg sich nicht einstellen wollte, was aber auch am Charakter der Sprache liegt. Falls man eine andere Sprache lernen mchte, gibt es dort auch eine gro§e Auswahl, egal ob fr Neueinsteiger oder Fortgeschrittene.</t>
+  </si>
+  <si>
+    <t>Das Kursangebot war okay. Nicht so wie in Mannheim, und wie vorher schonmal erwhnt ist es als Bakuwi schwer fr diesen Fchermix die passenden Module zu finden, aber es geht. Die Kurse waren inhaltlich wesentlich einfacher als in Mannheim, jedoch zeitaufwendiger. Man musste fast jede Woche irgendwelche Hausaufgaben oder Projektarbeiten abgeben, was mir persnlich aber ganz gut gefallen hat. Generell wrde ich sagen, dass man durch diese recht verschulte Unterrichtsform weniger Arbeit am Ende des Semesters hat und dann vielleicht. maximal 1-2 Wochen in der Bib verbringen muss. Ich hatte nur einen Kurs in dem Klausuren geschrieben wurden (History of English-Speaking Countries; mid-term Anfang November und end-term im Januar) und zwei Fcher in denen ein Abschlussprojekt verlangt wurde (z.B. ein Film im Kurs Audiovisual Language). Wichtig zu erwhnen ist noch, dass der Kurs Mobility and Audiovisual Communication ein Blockseminar war, d.h. er fand nur im September statt, dafr dann aber Mo.-Do. jeden Nachmittag. Das hat sich leider erst ganz kurz vor Uni Beginn herausgestellt und ich war kurz verzweifelt weil sich das berhaupt nicht mit dem Rest meines Stundenplans vereinen lie§. Allerdings konnte ich mit den sehr entgegenkommenden Professoren ausmachen, dass ich nur zwei mal die Woche komme aber genau wie alle anderen jede Woche die Online-Aufgaben einreiche. Auch noch sehr wichtig zu wissen ist, dass es verschiedene Campusse gibt. Neben dem Campus fr Medizin und Biologie, die recht weit au§erhalb liegen, befinden sich die mei§ten (Geisteswissenschaftlichen) Fakultten in Alcal im Stadtzentrum. Des weiteren finden die Medien und Lehramt Fcher in Guadalajara statt, was ca. 20 Minuten mit der S-Bahn entfernt liegt (stlich von Alcal). Von der S-Bahn Station muss man dann nochmal entweder 20 Min. laufen oder den Bus nehmen - also ca. eine Stunde Hinweg einplanen! Eine Mensa gibt es nicht, nur zwei kleinere Cafeterias. Man kann aber berall in Alcal super gnstig Frhstcken und Mittagessen (wesentlich leckerer als in der Uni-Mensa hier) also ist das eigentlich kein Problem. Au§er diesen drei Fchern die ich mir anrechnen lassen habe, welche alle auf Englisch waren, habe ich noch zwei weitere Kurse belegt. Einen ber Kunstgeschichte auf Spanisch, was sich aber als viel zu schwer fr mein damaliges Spanischlevel herausstellte, und so etwas wie Unternehmensethik (Corporate Social Responsibility) auch auf Spanisch, leider auch recht schwer zu folgen, da der Prof auch noch einen heftigen Akzent hatte. Da hatte ich mit meinem Sprachlevel einfach keine Chance und habe mich dann doch entschieden, Unternehmensethik in Mannheim zum Zweittermin mitzuschreiben. Zu guter letzt habe ich einen Spanischkurs bei Alcalingua, der Sprachschule in Alcal, belegt. Der war echt gut, in einer kleinen Gruppe, drei Mal die Woche, bei zwei sehr netten Dozentinnen. Dieser wird einem allerdings nicht anerkannt mit Bakuwi Anglistik, man erhlt lediglich ein Sprachzertifikat.</t>
+  </si>
+  <si>
+    <t>Das Studienjahr der UW ist in Trimester eingeteilt, aber die Semesterzeiten des ãfall-termsÒ sind trotzdem mit den Semesterzeiten Mannheims (HWS) identisch. Das Herbst-Semester beginnt Anfang September und endet kurz vor Weihnachten (inkl. Prfungsphase). In der ersten Semesterwoche (noch vor Beginn der Vorlesungszeit) findet zunchst eine Einfhrung statt, hier erfhrt man alles, was man ber die Universitt und den Campus wissen muss und wird mit dem kanadischen Studiensystem (Ablauf des Semesters, Organisatorisches etc.) vertraut gemacht. Au§erdem lernt man bei diesen Veranstaltungen viele andere Austauschstudenten kennen, die Mglichkeit sollte man sich nicht entgehen lassen. Zustzlich gibt es die Option an der "First-Year Orientation" von der jeweiligen Fakultt teilzunehmen, fr die man $150 zahlen muss. Von dieser wrde ich ehrlich gesagt, gnzlich abraten, da die Orientierung keine interessanten Veranstaltungen hatte und meines Erachtens mir ein wenig zu kindisch erschien. Ich habe whrend meines Auslandssemesters insgesamt drei Veranstaltungen/Kurse besucht. Hierbei handelt es sich um die mindestens vorgeschriebene (und empfohlene) Anzahl an Kursbelegungen, die ein ãexchange studentÒ erbringen bzw. leisten muss. Ich habe zwei Vorlesungen des Studiengangs ãActuarial ScienceÒ besucht - ãIntroduction to Financial MathematicsÒ und ãIntroduction to InvestmentsÒ. Des weiteren habe ich einen Kurs im Studiengang "Combinatorics and Optimization" , nmlich ãIntroduction to Mathematical OptimizationÒ belegt. Bei allen drei Kursen war die Unterrichtssprache englisch. Dies war jedoch vom Verstndnis her berhaupt kein Problem, sodass man dem Unterricht auch gut folgen konnte. In den Vorlesungen, werden Studenten im Vergleich zu Mannheimer Vorlesungen strker einbezogen. Durch die interaktiven Vorlesungen konnte man den Inhalt leichter verstehen und das Interesse wurde auch deutlich strker geweckt. Dabei ist es interessant, dass in vielen Mathekursen 90% der Studenten Chinesen sind. Die Vorlesungen haben mir sehr viel Spa§ gemacht, es ist allerdings zu beachten, dass das Studium an der UW whrend des Semesters sehr viel zeit- und arbeitsintensiver ist als in Mannheim, sprich man muss kontinuierlich arbeiten und sich auf seine Vorlesungen und Kurse vorbereiten, da man unter dem Semester bereits einige Prfungen hat (Midterms und Quizze). Diese zhlen ebenfalls zur Endnote mit ein, sodass der Druck bei den "Final Exams" geringer ist. Der Vorteil daran ist, dass man durch das kontinuierliche Mitarbeiten bereits im Stoff dabei ist und somit weniger Aufwand fr die Abschlussprfungen notwendig ist. Ein weiterer Vorteil an diesem Studien- und Benotungssystem ist, dass die meisten Prfungen und Leistungsnachweise nur zwischen 5 - 30% der Gesamtnote ausmachen, sodass man durch kontinuierliches Studieren sich bereits einen Gro§teil der Gesamtnote sichern kann. (zwischen 40-60%). So kann man auch einen schlechten Tag bei den Abschlussprfungen erwischen und trotzdem eine gute Note am Ende haben.</t>
+  </si>
+  <si>
+    <t>Uni Ð Kursangebot, Kursniveau, Prfungsarten_x005F_x000D_
+Das Kursangebot ist fr Geisteswissenschaftler relativ breit aufgefchert. Ich habe meine Kulturmodule und einen Area Studies Kurs an der Brock absolviert und hatte gengend Auswahlmglichkeiten dafr. _x005F_x000D_
+_x005F_x000D_
+Anerkennung von Kursen_x005F_x000D_
+Ich habe whrend ich in Kanada war Rcksprache mit meinem Fachbereich gehalten und tatschlich nochmal einige Kurse gewechselt und auch abgewhlt die meinen Erwartungen nicht entsprochen haben. Das lief alles einwandfrei._x005F_x000D_
+ _x005F_x000D_
+Sprachniveau, Sprachkurse vor Ort_x005F_x000D_
+Ich habe keinen Sprachkurs gemacht da ich Englisch studiere, deshalb kann ich dazu nicht viel sagen. Das Sprachniveau von den Professoren ist berwiegend ausgezeichnet, da sie Muttersprachler sind. Ich denke ein gutes Sprachniveau im Englischen hilft sich einzubringen und mitzukommen in den Vorlesungen und Seminaren. Brock liegt in der Provinz Ontario, deshalb spielt franzsisch dort wenig bis gar keine Rolle. _x005F_x000D_
+_x005F_x000D_
+Vorlesungszeiten, Aufbau des Studienjahres (Semester, Trimester)_x005F_x000D_
+Die Vorlesungszeit ist identisch mit der von Mannheim. Mein Semester ging vom 5.9. bis zum 21.12. Kurse gingen bis zum 6.12 und danach war Prfungszeit.</t>
+  </si>
+  <si>
+    <t>Vom Konzept her unterscheidet sich die Tec sehr stark von der Uni Mannheim. Kurse finden zweimal die Woche statt, der Spanischkurs mit doppelten Credits sogar viermal die Woche, sodass ich trotz nur drei belegten Kursen jeden Tag Uni hatte. Auch mit der Anwesenheitspflicht wird sehr streng umgegangen. Wer mehr als 5 Minuten zu spt kommt, bekommt ein âFaltaÔ, Krankheit gilt nicht als Entschuldigung. Pro Semester gibt es insgesamt drei Wochen Fehlzeit.
+ Das Kursniveau ist verhltnism§ig niedrig, die Kurse allerdings sehr arbeitsaufwndig, weshalb ich auch jedem raten wrde nicht mehr als 4 Kurse zu belegen. Insgesamt werden dreimal in jedem Fach Prfungen (âParcialesÔ) geschrieben, die allerdings von Aufwand und Anspruch ebenfalls nicht mit einer Prfung an der Uni Mannheim zu vergleichen sind. Das Semester beginnt bereits im August und endet Anfang Dezember. 
+Da es sich bei der Tec um eine private Campusuniversitt handelt, ist das Campusleben mehr als zufriedenstellend. Von Kochkursen bis Kampfsport wird alles angeboten, es gibt ein kostenloses Fitnessstudio, sowie einen Swimming Pool und vieles mehr. Auch beim Essensangebot kann zwischen mehreren Optionen ausgewhlt werden.</t>
+  </si>
+  <si>
+    <t>Generell wrde ich das Studium an der irischen Uni in meinem Fall als entspannter bezeichnen. Trotz Pandemie hatte ich alle Veranstaltungen vor Ort (natrlich mit Maske tragen), was fr mich auch wieder eine Art Umgewhnung war. Von den Professoren und Tutoren wurde uns jedoch von Anfang an versichert, dass es ein langsames und achtsames Semester werden wrde und man mit allen Anliegen und Problemen zu ihnen kommen knne. Das Verhltnis zwischen Professoren und Studenten in Irland ist in der Regel deutlich freundschaftlicher als in Mannheim, wobei es blich ist seine Dozenten mit Vornamen anzusprechen und auch mal ber persnliche Dinge zu reden. In meinen Kursen war der Arbeitsaufwand glcklicherweise nicht zu hoch; neben wchentlichen readings gab es ber das Semester verteilt zwei bis drei schriftliche Abgaben in Form von Essays.</t>
+  </si>
+  <si>
+    <t>Die Universitt an sich hat ein sehr breites Kursangebot in dem fr jeden etwas dabei ist. Ursprnglich hatte ich mich fr diese Universitt entschieden, da es super Angebote fr den klinischen und forensischen Bereich gab. Jedoch habe ich im Laufe des Jahres nach der Bewerbung angefangen mich immer mehr fr den wirtschaftlichen Bereich zu interessieren, sodass ich im Endeffekt nur einen offiziellen Psychologiekurs und vier BWL Kurse belegt habe. Diese entsprachen aber teilweise dem Bereich der Arbeits Ð und Organisationspsychologie in Mannheim. Generell fande ich das Niveau hnlich wie in Mannheim, aber es war deutlich mehr Arbeit. Vor allem fr zwei meiner BWL Kurse hat sich die Note aus zum Teil 10 verschiedenen Sachen zusammengesetzt (Midterm, Final, Prsentationen, Mitarbeit und kleinere Assignments). Man sollte sich vor allem darauf einstellen bereits von Anfang des Semesters an durchgehend zu arbeiten. Vorgeschrieben ist ein Minimum von drei und ein Maximum von fnf Kursen, welches ich voll genutzt habe. Die Vorlesungszeiten beschrnken sich auf 80 anstatt 90 Minuten und generell sind die Kurse interaktiver als in Mannheim (eher mit Seminaren zu vergleichen). Schn ist es auch, dass das Herbstsemester genau deckungsgleich mit dem HWS in Mannheim ist, sodass es keine gro§e Umstellung war und man sogar noch eine Woche Anfang Oktober frei hatte. Da ich vier BWL Kurse belegt hatte, habe ich die meiste Zeit in der Odette School of Business verbracht, wo es gengend Lernmglichkeiten und ein kleines Caf gab. Die Atmosphre war oft sehr entspannt und nach einiger Zeit habe ich festgestellt, dass man dort auch immer wieder die gleichen Leute trifft, wodurch auch Freundschaften zu Kanadiern entstanden sind, mit denen ich keinen Kurs gemeinsam hatte. Generell war es schon sehr praktisch auf dem Campus zu wohnen, da Laufwege sich 5 Minuten beschrnkt haben und man sich auch immer mit Freunden zum Essen treffen konnte und es das Sozialleben sehr aufgewertet hat. Meine gesamten Kurse waren auf Englisch, was jedoch berhaupt kein Problem war, da ich sehr gut mitgekommen bin. Bei schriftlichen Abgaben gibt es auch auf dem Campus die Mglichkeit den ãWriting SupportÒ zu nutzen. Das sind ganz liebe Menschen, die Studenten in ihren Assignments untersttzen dort werden auch verschiedene Sprachkurse kostenlos angeboten, die ich jedoch nicht genutzt habe.</t>
+  </si>
+  <si>
+    <t>Zum Kursangebot kann ich in meinem Fall sagen, dass einige Kurse zwar spannend klangen, ich sie aber im HWS nicht belegen konnte. Trotzdem habe ich Kurse gefunden, die sich im Endeffekt als interessant herausgestellt haben und trotz verschiedener Jahrgangsstufen zeitlich vereinbar waren. Dementsprechend waren die Niveaus sehr unterschiedlich, whrend ich in einem Kurs aus dem dritten Jahr einige schriftliche Arbeiten abgeben musste, wurde in einem Kurs vom zweiten Jahr eine Videoprsentation und im Kurs aus dem ersten Jahr ein kleiner Erfahrungsbericht verlangt. Insgesamt war die Arbeitszeit fr den Kurs aus dem dritten Jahr am umfassendsten, allerdings war auch einiger Zeitaufwand in den anderen beiden fr die Prfungen notwendig, die in beiden Fllen Multiple Choice waren. In allen Kursen stellten sich die Endnoten aus verschiedenen Teilen zusammen, im Kurs aus dem dritten Jahr nur aus verschiedenen schriftlichen Arbeiten, whrend in den anderen beiden Kursen auch Mitarbeitsnoten vergeben wurden. In diesen beiden Kursen wurden dazu jeweils zwei Ausflge gemacht, zu denen eine kleine schriftliche Arbeit abgegeben werden musste. Das Sprachniveau war in dem Kurs des 1. Jahres relativ hoch, da die spanische Sprache mit Fachwrtern analysiert wurde und Radio- sowie TV-Sendungen Prfungsbestandteil waren. hnlich war es im Kurs aus dem 2. Jahr, da es ein Geographiekurs ist, bei dem ein Fachvokabular fr Verstndnis notwendig ist. In beiden Fllen waren die Kurse trotzdem nicht zu schwer, da man die Prfungsbestandteile von Radio und TV auch als schriftliche Arbeit zuhause erledigen konnte und man durch gelegentliches Nachschlagen dem Geographiekurs sehr gut folgen konnte. Da ich Kurse aus verschiedenen Jahren hatte, belegte ich zwei Kurse vormittags und einen Kurs abends. Die Vorlesungen fangen um 8 Uhr morgens an und gingen im meinem Fall bis 21 Uhr. 
+In den ersten Wochen in der Mittagspause der Universitt (14-16 Uhr) hatte ich au§erdem einen Sprachkurs auf Niveau B2, den ich schon vorher online gebucht hatte und der mit der ESN (Erasmus student network) Karte gnstiger ist.  Nach dem ersten Sprachkurs wird noch ein zweiter Kurs whrend des Semesters angeboten. Manche Kommilitonen waren mit ihren Lehrern nicht sehr zufrieden, aber meine Lehrerin ging sehr auf die Fragen der Schler ein und wiederholte Grammatik mit dem Ziel, sie in der mndlichen Kommunikation einzusetzen, was ich sehr hilfreich fand. Da wegen meines Studiengangs mit Sachfach VWL meine nchsten Spanischkurse einen Wirtschaftsfokus brauchen, konnte mir mein Sprachkurs nicht angerechnet werden, aber andere Studenten konnten sich je nach Studiengang 3 ECTS pro Kurs anrechnen lassen.</t>
+  </si>
+  <si>
+    <t>Von der Lehre in meinen Jurafchern bin ich eher enttuscht. Die Professoren nutzen keine PowerPoint-Prsentation, sondern lesen oder im besten Fall tragen ihr Skript vor. Ziel der franzsischen Studierenden ist es, mglichst wrtlich mitzuschreiben, um genau dies in den Prfungen wiederzugeben. Whrend der Cours Magistraux (CM) wurden zumindest in meinen belegten Fchern keine mndliche Teilnahme der Studierenden erwartet oder gefrdert. Als Nicht-Muttersprachler gestaltet sich das Mitschreiben insbesondere zu Beginn als schwierig. Sehr empfehlenswert ist es aus diesem Grund, mglichst viele franzsische Studierende anzusprechen und darauf zu hoffen, dass sie ihr Skript teilen. Nach ein paar Versuchen ist mir dies auch immer gelungen. Glcklicherweise mssen Erasmusstudenten in Jura keine schriftlichen Prfungen mit den franzsischen Studierenden ablegen. Stattdessen hat man am dem Ende der Vorlesungszeit mndliche Prfungen bei den jeweiligen Professoren. Bei anderen Erasmusstudenten, beispielsweise den Lehramtsstudenten, war dies nicht mglich. Ich habe die mndlichen Prfungen als sehr unterschiedlich schwer wahrgenommen. Teilweise wollte der Professor nur wenige, kurze Ausfhrungen zu einzelnen Themen hren, teilweise musste zu einem speziellen Thema zu Beginn der Prfung eine kurze Prsentation vorbereitet und anschlie§end vorgetragen werden. Im Anschluss wurden Fragen gestellt, deren Antwort auch Detailwissen voraussetzte. Dennoch empfand ich es im Vergleich zu Mannheimer Verhltnissen in Jura als leicht, gute Noten zu erzielen._x005F_x000D_
+Sehr empfehlenswert sind die Sprachkurse an der Universit de Lorraine. Insbesondere Spanisch hat mir sehr gut gefallen, da es nicht nur von einem Muttersprachler unterrichtet wurde, sondern es auch darber hinaus ein breites Angebot an Kleingruppenkursen auf dem Sprachcampus gab, die man ber EDOlang buchen konnte und die auch Teil der Prfungsleistung waren. Diese Kleingruppenkurse wurden von sehr motivierten und sympathischen Lehrern geleitet und wurden in vielen verschiedenen Sprachen angeboten. Es gibt auch Franzsischkurse speziell fr Erasmusstudenten, die ich aber aufgrund von Stundenplankollisionen nicht besucht habe._x005F_x000D_
+Insgesamt empfand ich die Kurswahl als ausreichend gro§ und vom Niveau her zwar nicht als inhaltlich schwer, aber zumindest anfangs in den Jurakursen durch die Sprachbarriere als Herausforderung._x005F_x000D_
+Die Vorlesungszeit begann Anfang September und endete je nach Kurs Ende November/Anfang Dezember. In meinen Sprachkursen hatte ich die selben Prfungen wie meine franzsischen Mitstudenten. Teilweise fand eine erste Prfung bereits whrend der Vorlesungszeit statt, eine zweite Prfung dann nach Ende der Vorlesungszeit im Dezember oder noch im Januar. Die mndlichen Prfungen fanden alle nach Ende der Vorlesungszeit und noch vor Weihnachten statt. Leider wurden die Termine immer erst sehr kurz vor der Prfung bekanntgegeben, was ich als gro§en Stressfaktor empfunden habe._x005F_x000D_
+In der Bibliothek gab es nur sehr vereinzelt Steckdosen, die zum gr§ten Teil nicht funktionierten. Au§erdem sind die +ffnungszeiten nur sehr kurz, Sonntags sind alle Bibliotheken beispielsweise geschlossen. Das WLAN funktioniert dagegen hervorragend._x005F_x000D_
+Direkt neben dem Juracampus befindet sich eine Mensa, in der man fr 3,30Û zu Mittag und zu Abend essen kann. Normalerweise kann man zwischen einigen Mens auswhlen. Insgesamt empfand ich das Essen als durchschnittlich gut fr eine Mensa und relativ abwechslungsreich. Aufgrund der idealen Lage in der Innenstadt ist es aber auch ein Leichtes, eine Alternative zu finden.</t>
+  </si>
+  <si>
+    <t>Studium_x005F_x000D_
+_x005F_x000D_
+Im Vergleich zur Uni Mannheim ist das Studium in Richmond etwas anders aufgebaut. Die Kurse bestehen meistens aus max. 15 Studenten und das Verhltnis zu den Professoren ist somit persnlicher. Anstatt nur einer Prfung am Ende von Semester haben die meisten Kurse mehrere Assignments oder Gruppenprojekte ber das Semester verteilt und ein Final, welches jedoch im Vergleich zu Mannheim nicht mehr als 50% der Note ausmacht. Somit kann man sich die Arbeit etwas besser ber das Semester aufteilen und hat eine deutlich entspanntere Klausurenphase. Kurse finden meistens an zwei Tagen der Woche statt (drei falls der Kurs ein Lab/bung hat). Meine vier Kurse fielen alle auf dieselben Tage wodurch ich nur Dienstags und Donnerstags Vorlesungen hatte. Dadurch waren diese Tage bei mir ab und zu etwas stressig jedoch konnte ich mir dafr die anderen Tage gut fr die Vorbereitung der Kurse einteilen und es war fr mich deutlich leichter an den Wochenenden auf Trips zu gehen, was ich nur jedem empfehlen kann. Die Vorlesungen selber wrde ich bei den Mathekursen als eine Mischung aus Vorlesung und gro§er bung beschreiben, da oft Readings als Vorbereitung vergeben werden und dieser Stoff dann wir in bungen besprochen wird. Somit sind die Vorlesungen nicht ganz so anstrengend wie in Mannheim, da nicht der ganze Stoff fr einen neu ist. Der Arbeitsaufwand die Vorlesungen vorzubereiten ist dafr etwas hher und die Assignments sind hnlich umfangreich wie bungsbltter. Das Semester in Richmond beginnt etwa Mitte August und endet Mitte Dezember. Des Weiteren gibt es im HWS zwei Kurse Fereien, fnf Tage Fall Break im Oktober und eine Woche Thanksgiving Break. _x005F_x000D_
+_x005F_x000D_
+_x005F_x000D_
+_x005F_x000D_
+Leben auf dem Campus_x005F_x000D_
+_x005F_x000D_
+Fr mich war das Leben auf dem Campus das beste am gesamten Auslandssemester. Denn dieser ist wie eine eigene Kleinstadt und man muss sich um fast nichts kmmern, weshalb man die Zeit mit seinen Freunden genie§en kann. Au§erdem besitzt die Uni ein gutes Freizeitangebot und ich kann nur jedem empfehlen Angebote wie das Gym, Pool, Squash, Tennis, etc. zu benutzen. Als International ist man dazu verpflichtet den Unlimited Meal Plan zu kaufen und kann somit fr jede Mahlzeit in der Dining Hall essen. Diese hat ein gro§es Angebot und ist deutlich umfangreicher als die Mensa in Mannheim. Des Weiteren bekommt man rund 800 Dining Dollar die man an verschiedenen Cafs, Restaurants und einer Bar auf dem Campus ausgeben kann. 800 Dollar Guthaben fr Kaffe etc. fr ein Semester erscheinen zuerst recht viel, jedoch sind bei den meisten bei uns diese noch vor Ende des Semesters ausgegangen. Organic Krush war hierbei der Ort bei dem viele das Meiste ausgeben haben, jedoch kann ich die Smoothies jedem empfehlen. Dafr bieten diese Restaurants und Cafs auch gute Jobmglichkeiten fr die Sutdenten oder es gibt die Mglichkeit als Teaching Assistant zu arbeiten.</t>
+  </si>
+  <si>
+    <t>Das Studium an sich dort ist sehr arbeitsintensiv whrend des Semesters, das Niveau jedoch nicht mit Mannheim zu vergleichen. Man wird in jedem Kurs irgendeine Art der Gruppenarbeit haben, sodass es bei Mannheimern BWLern, mit i.d.R. 6 Kursen, zu Koordinationsproblemen kommen kann. Generell, bestehen die Prfungsleistungen aus einer Endklausur (30%-60% der Endnote), physische Anwesenheit, Hausaufgaben, kleinere Tests whrend des Trimester. An einen Nebenjob solltet ihr bei der Workload, die auf euch zu kommen wird, gar nicht erst denken : _x005F_x000D_
+_x005F_x000D_
+Das englische Sprachniveau ist i.d.R. sehr schlecht an der Uni. Die meisten Professoren, die auf Englisch unterrichtet haben, konnte man sehr schlecht verstehen. Hierbei geht es nicht um einen spanischen Akzent, was verstndlich ist, sondern um falsche Grammatik sowie Satzstrukturen. Ein Mix aus Akzent sowie falscher Grammatik respektive Satzstrukturen erschweren dementsprechend das Verstndnis. Wenn ihr euch Kurse raussucht, dann versucht im Syllabus die Professoren zu googlen. Sollten die ihren Ph.D. in der USA oder anderen englischsprachigen Lndern gemacht haben, dann ist das Sprachniveau auch entsprechend gegeben._x005F_x000D_
+_x005F_x000D_
+Des Weiteren sind VWLer besser an der UPF aufgehoben, da aufgrund der GSE ein starker Fokus auf VWL gelegt wird. Wenn ihr quantitative Fcher eher als qualitative Fcher bevorzugt, ist die UPF sehr zu empfehlen. Wie bereits erwhnt ist das Studienjahr in Trimester unterteilt, sodass man Ende September die ersten Veranstaltungen besucht und man zu Weihnachten bereits alle Klausuren geschrieben hat. _x005F_x000D_
+_x005F_x000D_
+Wenn ihr euren Notenschnitt verbessern wollt, dann kann ich die UPF sowie generell Spanien nicht empfehlen. Schaut dann lieber, was es in der USA oder im asiatischen Raum fr Unis gibt, wo man die Noten eher "geschenkt" bekommt. Auch der zustzliche Workload mit i.d.R. 6 Kursen erschwert es, dass das Auslandssemester den Notenschnitt verbessert. Auch eine normalverteilte Bewertung gibt es hier nicht. _x005F_x000D_
+_x005F_x000D_
+Ein gutes Preis-Leistungs-Verhltnis an der Mensa in der Uni ist leider nicht gegeben. Fr sehr kleine Portionen zahlt man ca. 5Û. Man kann in der Mensa sein mitgebrachtes Essen aufwrmen.?</t>
+  </si>
+  <si>
+    <t>Das Kursangebot der UBM hat mich von Anfang an berzeugt. Es gibt eine gro§e Auswahl an kulturwissenschaftlichen Kursen, die sich gut fr das IKW-Modul eignen. Au§erdem gibt es die verschiedensten Fachbereiche, z.B. Film, Musik, Design, Literatur und Geschichte. Austauschstudierende knnen Kurse aus allen Fachbereichen whlen. Man muss jedoch beachten, dass 50% der gewhlten Kurse aus seinem eigenen Fachbereich (in meinem Fall UFR Langues et Civilisations) stammen mssen. Es gibt au§erdem eine Liste mit Kursen, die nicht fr Austauschstudenten whlbar sind, doch das sind nur wenige Kurse._x005F_x000D_
+_x005F_x000D_
+Ein Kurs in Frankreich setzt sich meistens aus CM (Cours magistral = Vorlesung) und TD (Travail dirig = Tutorium) zusammen. Man muss allerdings nicht beides belegen, oft reicht eines davon zur Anerkennung. Ein TD ohne CM zu belegen ist etwas schwieriger, da in den CMs die theoretischen Grundlagen besprochen werden. Kontakte geknpft habe ich aber fast ausschlie§lich in den TDs._x005F_x000D_
+_x005F_x000D_
+Das HWS beginnt im September und endet im Dezember. Man wird unter dem Semester benotet und muss nicht an den Prfungen im Januar teilnehmen._x005F_x000D_
+_x005F_x000D_
+Der Campus befand sich zum Zeitpunkt meines Aufenthalts im Umbau. Deswegen fand der Unterricht teilweise in bungalowhnlichen ãbergangsgebudenÒ stattfindet. In einem Gebudeteil wurde der Unterricht zudem manchmal durch Baulrm gestrt und es gab teilweise wchentliche Raumnderungen. Das sollte einen aber auf keinen Fall abschrecken, denn die Qualitt der Kurse hat darunter nicht gelitten. Auf dem Campus gibt es au§erdem verschiedene Mensen und kleine Shops, in denen man gnstig Mittagessen kann oder Snacks kaufen kann. _x005F_x000D_
+_x005F_x000D_
+Sprachkurse sind an der UBM nicht verpflichtend. Es werden aber freiwillige Vorbereitungskurse zwei Wochen vor Semesterbeginn angeboten. Man kann auch unter dem Semester Kurse in den verschiedensten Sprachen aus Interesse belegen. Das Sprachniveau in den regulren Kursen habe ich als passend fr Studierende mit C1 Niveau in Franzsisch empfunden. Alle meine Professoren haben sich sehr gefreut, Austauschstudierende in ihren Kursen zu haben und haben mir signalisiert, dass ich bei Fragen auf sie zukommen kann und mich melden kann, wenn ich etwas nicht verstehe.</t>
+  </si>
+  <si>
+    <t>Die San Diego State University (SDSU) bietet ein breites Kursprogramm in vielen verschiedenen Disziplinen an, aus denen man als Austauschstudent frei whlen kann. Die Semesterzeiten sind sehr hnlich wie in Mannheim. Die Auswahlmglichkeiten an Kursen fr Austauschstudenten sind wirklich kaum begrenzt und gerade fr das IKW-Modul findet man sehr viel Passendes und Spannendes. Besonders hat mir ein Kurs im Bereich Sustainability gefallen, den ich mir im IKW Modul anrechnen lassen konnte. Au§erdem habe ich einen der vielen Philosophie Kurse als IKW-Seminar belegt. Auch im Bereich Medien- und Kommunikationswissenschaft und BWL gibt es viele Kurse an der SDSU. In BWL habe ich Unternehmensethik belegen knnen. In MKW ist die Anrechnung deutlich schwieriger fr mich gewesen. Ich konnte letztlich ein Hauptseminar im Bereich Audiovisuelle Medien belegen und generell wren Seminare wohl auch im Bereich Rezeption und Wirkung mglich gewesen, allerdings erkennt die MKW Fakultt keine Vorlesungen im Ausland an, was mir zu spt mitgeteilt wurde. Zudem habe ich nach meiner Wahl von ãMedia und Journalism StudiesÒ eine Warnung der SDSU erhalten, dass es hier teilweise schwierig sein kann, als International Kurse zu belegen. Bei mir gab es aber berhaupt keine Probleme damit Ð man sollte nur darauf achten, dass man keine Kurse mit allzu spezifischen Vorleistungen (ãRequirementsÒ) whlt.
+In Amerika ist das Uni-System deutlich schulischer. Deshalb verbringt man die meiste Zeit seines Uni-Alltags damit, Hausaufgaben, Abgaben oder Referate vorzubereiten. Au§erdem sind die meisten Kurse zwei bis drei Mal pro Woche, es zhlt hufig mndliche Beteiligung oder es gibt Hausaufgaben Quizze und in den meisten Kursen schreibt man ein oder zwei Midterms plus Final. Ich wrde deshalb sagen, dass es insgesamt zeitaufwendiger, aber leichter als in Mannheim ist. Man durfte zwar nie Wrterbcher benutzen, sprachlich hatte ich jedoch gar keine Probleme und wenn dann waren die Professoren sehr hilfsbereit und generell viel interessierter am persnlichen Austausch mit Studenten.
+Der Campus der SDSU ist wegen des schulischen Charakters weitlufig und sehr schn. Es gibt viele Ecken (wie zum Beispiel den mediterranen Garten oder einen Schildkrtenteich), die man zum Entspannen oder zum Arbeiten im Freien nutzen kann. Es gibt zwar keine Mensa, aber mehrere Foodcourts und Essenmglichkeiten, fr die man aber 6-10 Dollar pro Mahlzeit einrechnen sollte.
+Die SDSU hat auch neben dem Kursprogramm vieles zu bieten, mit dem man seine Freizeit fllen kann. Gro§e Highlights sind natrlich die College Football und Basketball Spiele, bei denen man amerikanischen Uni-Spirit live erleben kann. Die Uni hat au§erdem ein gro§es Fitnessstudio, das sogar ber einen Schwimmkomplex verfgt. Au§erdem gibt es eine Vielzahl von Clubs vom Running Team bis hin zu sozialen Projekten wie ãGreen LoveÒ, die eine Lunch Series veranstalten, bei der man bei Pizza ber nachhaltigen Hausbau oder andere Umweltprobleme und Lsungen diskutiert. Auf dem Campus arbeiten ist durch das Studentenvisum zwar mglich, aber gerade bei halbjhrlichen Aufenthalten eher schwierig.</t>
+  </si>
+  <si>
+    <t>An der CBS sind pro Semester 4 Kurse  7.5 ETCS zu belegen. Kurse werden entweder ber das ganze Semester angeboten oder gehen nur ein Quartal lang (also entweder Quartal 1 von September bis zu den Ferien, oder Quartal 2 beginnend nach den Ferien bis Dezember). Bei Quartal 2 Kurse empfiehlt es sich darauf zu achten, dass man keine Prfungen hat, wenn man die Semesterferien fr ein Praktikum nutzen mchte. An der CBS gibt es keine separaten bungen und Vorlesungen sondern normalerweise 3 Stunden Vorlesungen mit integrierten bungen. Au§erdem gibt es an der CBS viele verschiedene Prfungsformen. Dominierend sind 4 Stunden sit-in Examen, home-assignments und Oral Exams. Ich selber hatte ein 4 Studen sit-in Examen, ein 7 Tage home-assignment, ein home-assignment mit darauf basierender mndlicher Prfung und eine mndliche Prfung. Generell ist zu sagen, dass die home-assignments und mndlichen Prfungen einfacher sind als die sit-ins. Jedoch hngt die Schwierigkeit der Prfung eher von der Kurswahl ab als von der Prfungsform.</t>
+  </si>
+  <si>
+    <t>Ende Juli werden die Kurse fr das Semester bekanntgegeben und die Kurswahl beginnt. Zu Beginn des Semesters wird die Vergabe der Kurse dann bekanntgeben. In der Regel bekommt man nicht alle seine gewhlten Kurse und steht teilweise noch auf der Warteliste (ich hatte drei meiner vier gewhlten Kurse bekommen). In den ersten zwei Wochen besteht jedoch noch die Mglichkeit, auf einen Kursplatz nachzurcken. Sptestens dann bekommt man auch i.d.R. noch seine brigen Kurse Ð das war jedenfalls bei fast allen VWL-Studenten der Fall. Das Erreichen der notwendigen ECTS war somit fr mich kein Problem.
+Die Kurse ãLabor Economics and Human ResourcesÒ sowie ãDevelopment and GrowthÒ knpften an die Studieninhalte aus Mannheim an und stellten eine interessante Vertiefung dar. Beide Fcher waren sehr interaktiv und an sich gut zu bewltigen. Das Fach ãMoney and BankingÒ war etwas anspruchsvoller, dort war es vor allem die Menge des Stoffes, welcher das Fach anspruchsvoll machte. Das Fach ãEconometrics for Cross Section and Panel DataÒ war sehr anspruchsvoll, hat mir persnlich aber auch viel gebracht. Die Belegung von Einfhrung in die +konometrie halte ich hier fr eine essentielle Grundlage.
+Anschlie§end sei noch gesagt, dass man mit der Vergabe der Termine fr die Midterms und Finals Glck oder Pech haben kann. Whrend ich ausreichend Abstand zwischen den Klausuren des Midterms hatte, musste ich leider drei Klausuren von jeweils drei Stunden an zwei Tagen schreiben (innerhalb von 27 Stunden 9 Stunden Klausur).</t>
+  </si>
+  <si>
+    <t>Das Studium insbesondere in den Informatik-Fchern ist zeitintensiv. Eure Note erhaltet ihr nicht nur durch eine Klausur, sondern durch wchentliche Abgaben (z.B. Programmierprojekte) sowie durch Midtermklausuren. Au§erdem gibt es keine bungen und Tutorien, sondern nur Vorlesungen. Daher wird viel Selbststudium neben den regulren Vorlesungsterminen gefordert. Ich habe 2 Informatikkurse, 2 BWL-Kurse und einen Sportkurs belegt und war whrend des Semesters gut ausgelastet.</t>
+  </si>
+  <si>
+    <t>Die Maynooth University bietet fr internationale Studenten ein vielfltiges Kursangebot. Aus diesem, extra fr internationale Studenten angelegten, Kurskatalog kann man sich Kurse mit insgesamt maximal 30 ECTS aussuchen. Bei der Kursauswahl sind einem kaum Grenzen gesetzt. So ist es zum Beispiel mglich, Kurse aus einem anderen Department zu belegen und Veranstaltungen zu besuchen, die nichts mit dem eigenen Studienfach zu tun haben. Jedoch sollte man in der Modulinformation darauf achten, in welchem Semester der Kurs stattfindet. Andernfalls kann es passieren, dass man einen Kurs in seinen Stundenplan einwhlt, der in dem zu besuchenden Semester berhaupt nicht stattfindet. Meiner Meinung nach empfiehlt es sich auch, mehrere Kurse in das Learning Agreement einzutragen, da man, aufgrund von berschneidungen im Stundenplan, nicht immer den ausgewhlten Kurs tatschlich besuchen kann. In Bezug auf das Kursniveau konnte ich keinen Unterschied zu Mannheim feststellen. Wie in Mannheim auch, variiert das Niveau je nach Kurs. Je mehr Credits ein Kurs verspricht, desto hher ist auch dessen Niveau. _x005F_x000D_
+_x005F_x000D_
+Das Studienjahr in Maynooth ist dem Studienjahr der Universitt Mannheim sehr hnlich. Lediglich die Vorlesungszeiten sind unterschiedlich, da die Vorlesungen in Maynooth statt 1,5 Stunden nur 1 Stunde andauern. Zudem sollte erwhnt werden, dass die Veranstaltungen in Maynooth geringere Teilnehmerzahlen haben, wodurch die Dozenten einen bereits nach kurzer Zeit persnlich kennen. Dies schafft eine angenehme und effektive Lernatmosphre. _x005F_x000D_
+_x005F_x000D_
+Das Studentenleben in Maynooth findet hauptschlich auf dem Campus statt. Dies liegt vor allem daran, dass die Universitt eine gro§e Auswahl an Clubs und Societies bietet, die man nach der Uni besuchen kann. Hierdurch kommt man sowohl mit einheimischen als auch internationalen Studenten in Kontakt. Zum Lernen empfiehlt sich die John Paul II Library auf dem Campus. Hier gibt es Gruppenrume, Einzelpltze und sogar eine Schreibberatung fr Studenten. Anders als in Mannheim mssen Taschen und Jacken nicht in einem Spint eingeschlossen werden, sondern knnen einfach mit hineingenommen werden. Obwohl Trinken und Essen offiziell verboten ist, habe ich nicht ein einziges Mal mitbekommen, dass jemand rger bekommen htte, weil er seine Wasserflasche mitgebracht hat. Neben ausreichend Pltzen zum Schreiben, bietet die Bibliothek auch vereinzelte Pltze, die mit PCs ausgestattet sind. Da es hiervon aber nicht besonders viele gibt, empfiehlt es sich, den eigenen Laptop mitzubringen oder vor Ort einen zu leihen. Die Station zur Laptop-Ausleihe befindet sich im Erdgeschoss der Bibliothek. Essensmglichkeiten gibt es auf dem Campus auch ausreichend. Hierzu zhlen die Mensa, die Bar der Students Union, Pugin Hall, Subway, Starbucks oder das Chill. Jedoch sollte man sich bewusst sein, dass es ziemlich kostspielig ist, jeden Tag in einem der genannten Orte zu essen. Gnstiger ist es, bei Aldi einzukaufen und sich selbst zu verpflegen. Aldi ist unweit vom Campus entfernt und ist, zusammen mit Lidl, einer der gnstigsten Supermrkte in der Umgebung. _x005F_x000D_
+_x005F_x000D_
+Grundstzlich empfiehlt es sich, ausreichende Englischkenntnisse zu besitzen. Wer sich in Bezug auf seine Englischkenntnisse unsicher ist oder der Meinung ist, dass er dem wissenschaftlichen Arbeiten in Englisch ohne Hilfe nicht gewachsen ist, kann an den kostenlosen Sprachkursen der Universitt vor Ort teilnehmen.</t>
+  </si>
+  <si>
+    <t>Das Studium an der SMU unterscheidet sich stark von dem an der Uni Mannheim. Zunchst sind die Vorlesungen wie wir sie in Mannheim kennen, an der SMU als 3-stndige Blcke gebndelt welche bungen, Tutorien und Vorlesungen vereinen. Eine Anwesenheitspflicht besteht bei allen Blcken und wird meist durch eine Unterschriftenliste berprft. Au§erdem besteht eine Unterrichtseinheit aus maximal 45 Personen, wovon 5 Pltze im Kurs fr International Students reserviert sind. Das bedeutet, sollte der Kurs voll belegt sein, ihr immer mindestens 4 andere Internationals im selben Kurs habt.
+Von der Uni Mannheim aus sind 4 Module verpflichtend zu belegen, von denen 2 fachfremd sein knnen. 
+Um eure Module whlen zu knnen gibt es an der SMU das sog. ãBoss-BiddingÒ-Verfahren welches ebenfalls ber das Uniportal ãOasisÒ abluft. Hierbei werden jedem Studenten ca. 4 Wochen vor Unibeginn 100 E-Dollar auf das Bidding ãKontoÒ bertragen und ihr werdet auf die Kurse, die ihr belegen mchtet, E-Dollar bieten mssen. (ber die genauen Deadlines werdet ihr ausreichend frh per E-Mail benachrichtigt) Dabei ist zu beachten, dass beliebtere Kurse durchschnittlich einen hheren Preis erfordern als unbeliebtere. Das gesamte System verluft nach dem Prinzip des Hchstbietenden bis alle der 45 Pltze belegt sind. Die Durchschnittspreise desselben Kurses knnen sich aber auch, je nachdem ob dieser fter angeboten wird, zwischen verschiedenen Time Slots unterscheiden. Hierbei ist es manchmal sinnvoll auf einen etwas frheren Time Slot zu bieten, da dieser meist etwas billiger ist. Das Durchschnittsgebot, Hchstgebot und niedrigste Gebot aus dem letzten Jahr knnt ihr anhand einer bersicht, die fr jeden Kurs erstellt wird, auf ãOasisÒ einsehen (Sehr zu empfehlen um ein Gefhl fr den zu bietenden Preis fr den jeweiligen Kurs zu bekommen). 
+Solltet ihr erfolgreich fr einen Kurs geboten haben, so wird die Menge, die ihr geboten habt von eurem ãKontoÒ abgezogen. Wenn ihr jedoch zu wenig geboten habt und ihr nicht in den Kurs kommt, so werden euch die gebotenen Dollar zurck gegeben und ihr msst in der nchsten Bidding Runde auf die verbleibenden Kurse und Pltze bieten. Es gibt insgesamt 4 Bidding Runden. Erfahrungsgem§ bekommt man in der ersten Runde 3 von 4 Module zugesprochen und muss dann in den verbleibenden Runden den letzten Kurs whlen. Klingt alles etwas kompliziert, aber kein Grund zur Panik: Das Verfahren wird nochmal im Detail durch mehrere E-Mails der Gastuniversitt erlutert. Unbedingt zu beachten ist jedoch, dass alle Deadlines zur Ortszeit Singapurs angegeben sind! Da kann es schon mal vorkommen dass man sich einen Wecker auf 4Uhr morgens stellen muss, um sein Gebot online abgeben zu knnen. 
+Seid ihr schlie§lich in die Kurse aufgenommen, so erwartet euch eine wirklich tolle Unterrichtsart. Es wird viel Wert auf Interaktion zwischen Professoren und Studenten, aber auch unter Studenten selbst gelegt. In den allermeisten Fllen wird die Mitarbeit zu ca. 10-20 Prozent in die Endnote eingehen. Des Weiteren sind in fast jedem Kurs Projekte und kleinere Quizzes gngig. Dies nimmt den Druck der Endklausuren, die meist nur noch zu 30-40 Prozent in die Endnote eingehen, bedeutet jedoch relativ viel Arbeit unter dem Semester. Tipp: Da die Recess-Week oft fr die Bearbeitung der gro§en Projekte genutzt wird, solltet ihr euren Gruppenmitgliedern deshalb mglichst frh Bescheid geben, wenn ihr in diesem Zeitraum reisen wollt. Meistens zeigen diese dafr gro§es Verstndnis. 
+Ansonsten wrde ich auch unbedingt erwhnen, dass eure Noten zhlen. Dies erweckt ein besseres Image von euch, welches gerade in der Gruppenarbeit dazu beitrgt, dass die Locals euch anspruchsvollere Aufgaben zutrauen. 
+Um zwischen den Blcken oder nach dem Uni-Tag etwas abzuschalten, bietet der Campus der SMU viele Mglichkeiten. Es wird ein kostenfreies Gym, sowie ein Schwimmbecken angeboten und man kann mehreren Initiativen und Sportclubs beitreten. Auf dem Campus gibt es au§erdem einen eigenen Foodcourt und mehrere Grnflchen zum entspannten Sitzen mit Freunden.</t>
+  </si>
+  <si>
+    <t>Die Xiamen Universitt zeichnet sich landesweit durch ihren schnen Campus aus, der durch Mauern und Zugangstore von der Stadt abgetrennt ist, welches fr eine ruhige und sichere Atmosphre sorgt. Der Campus in Xiamen ist vor allem wegen der Begrnung und der Gebude im traditionellen Baustil bekannt. Es gibt dort fr Studenten alles, was das Herz begehrt, Restaurants, kleine Shops, Optiker, Fotografen, Elektronikstores, Hausmeister, Fahrradreperaturstellen, aber auch eine Anzahl an Mensen (5). Die verschiedenen Mensen bieten unterschiedliche Speisen an, wobei sich die Preise sehr in Grenzen halten, circa 1,50 Û pro Mahlzeit. Die Mahlzeiten werden nach einigen Wochen aber ein wenig langweilig, da es tglich meist die gleichen Speisen gibt und wenig Variation zu sehen ist. Ich empfehle daher auch gebrauch zu machen von den vielen Restaurants und Imbissen in der Stadt, wobei viele von denen schnell zu erreichen sind. 
+Das Studienjahr besteht aus zwei Semestern wie in Mannheim. Der Arbeitsaufwand ist meiner Meinung nach etwas hher als in Mannheim, da es Midterms, Hausaufgaben, Projekte und Finals gibt. Obwohl die Benotung eher undurchsichtig ist, kann man durch mndliche Mitarbeit, Anwesenheit und der Hausaufgaben/Projekte bereits eine ziemlich gute Note erzielen. Wenn einem die Klausuren dazu noch gelingen, welche meist aber in sehr sehr kurzen Abstnden geschrieben werden (bspw. 4 Klausuren an einem Samstag und Sonntag), dann sind gute Note relativ gut zu erreichen. Ich habe die Mglichkeit daher genutzt meine Gesamtnote in Mannheim zu verbessern. Es gab fr das vergangene Semester leider nur fnf Kurse zur Auswahl, wobei eines (Literature review and Thesis writing) nicht anerkannt wird und ich ein anderes bereits belegt habe (Finanzwissenschaften und in Xiamen ãPublic FinanceÒ). Daher war es mir eigentlich unmglich auf meine gewnschten 30 ECTS zu kommen. Die Verantwortlichen gaben aber in Aussicht, dass in Zukunft eventuell mehr Kurse angeboten wrden. 
+Arbeiten neben dem Studium ist nicht mglich, falls das fr jemanden relevant sein sollte.. Die Englischkenntnisse der Professoren sind okay, manche waren aber etwas schwer verstndlich. Die einheimischen Studenten sprechen kaum von sich aus Englisch, aber verstehen es meist recht gut. Au§erhalb des Campus spricht kaum jemand Englisch. Eine Besonderheit in Xiamen ist, dass man hauptschlich mit einheimischen Studenten die Klasse teilt und so tiefere Einblicke in Land, Gesellschaft und Kultur erhlt, das war fr mich besonders bereichernd.</t>
+  </si>
+  <si>
+    <t>Das Studium an der UOW ist in jeweils zwei Semester pro Studienjahr aufgeteilt. Dabei gibt es ein Frhlings- und ein Herbstsemester (Achtung, die Jahreszeiten sind dort nicht simultan mit denn in Deutschland). Zudem wird ein freiwilliges Sommersemester angeboten, in welchem Kurse nachgeholt oder wiederholt werden knnen. Wie bereits benannt, gibt es ein sehr umfangreiches Kursangebot. Dabei muss beachtet werden, dass sich Studierende ihre Kurse aus unterschiedlichen Fachbereichen zusammensuchen knnen/mssen. _x005F_x000D_
+Die Endnoten der einzelnen Kurse setzen sich im Vergleich zu denen in Mannheim nicht nur aus einer Prfungsleistung zusammen, sondern aus einer Reihe an Leistungen, welche ber das Semester hinweg erbracht werden mssen. In jedem Kurs werden einige/mehrere Hausarbeiten, Referate sowie Zwischenprfungen und Endprfungen abgelegt. Die Anforderungen sind schwer vergleichbar mit denen in Mannheim, da die Prfungsleistungen schlie§lich auf solch unterschiedliche Weise erhoben werden. Alles in allem fand ich das Kursniveau jedoch etwas anspruchsvoller als das in Mannheim. Die Sprache war sehr gut verstndlich. Ich hatte trotz einer Reihe an vorherigen Auslandsaufenthalten Bedenken, wie ich Ð insbesondere in Prfungssituationen Ð mit der Fremdsprache klarkommen wrde. Das erwies sich dennoch als problemlos! Es ist wirklich erstaunlich wie gut man an die Sprache Ð auch im akademischen Kontext Ð adaptiert (und das obwohl ich nicht einmal vor Ort war! Also keine Panik!)</t>
+  </si>
+  <si>
+    <t>Vor Beginn des Studiums konnte man sich online fr die prferierten Kurse einschreiben, nachdem diese von der Uni Mannheim genehmigt wurden. Das war relativ unproblematisch und ich bin in alle meine Prferenzen reingekommen. Sollte man jedoch in den ersten beiden Wochen noch wechseln wollen oder sich vor Ort erst entscheiden wollen, dann meldet euch fr mehr als 30 Ects an und entscheidet euch vor Ort. Denn oft sind die einige Kurse dann schon voll.  _x005F_x000D_
+In 6 Kursen hatte ich nur eine Klausur, das ist aber sehr abhngig von euren gewhlten Kursen. Management oder Marketing hat prinzipiell keine Klausuren, Finance, Programming, Accounting etc. aber schon. _x005F_x000D_
+Statt Klausuren gibt es dann Essays und gelegentlich Hausarbeiten oder Quizze. Da msst ihr fr euch entscheiden, welche Art von Prfung fr euch passt. Ich persnlich habe die Hausarbeiten (ca. 2000 Wrter) prferiert. Aber die Gruppenarbeiten waren bei mir und jedem den ich kenne eine absolute Katastrophe. Wenn ihr diese mit weiteren Mannheimern oder bzw. Deutschen machen knnt, wrde ich das empfehlen. Da kann man einfach auf die Mitarbeit und Qualitt zhlen und muss nicht alles alleine machen, vor allem wenn man noch weitere Abgaben hat.</t>
+  </si>
+  <si>
+    <t>Das Kursangebot an der Universitt in Oslo habe ich als relativ gro§ empfunden. Die Kursbeschreibungen sind relativ ausfhrlich und bereiten damit gut auf den jeweiligen Kurs vor. Ich selbst habe einen Norwegisch Kurs (Introduction to Norwegian) gemacht, einen Kurs in Form einer Ringvorlesung ber Norwegen (Norwegian Life and Society) und einen Kurs ber die Geschichte Nord-Amerikas (American Civilization). Das Niveau habe ich als ungefhr gleich mit dem der Universitt Mannheim empfunden. Dadurch, dass in 2 meiner 3 Kurse in der Mitte des Semesters eine Abgabe gefordert wurde, bei der es darum ging, durch Bestehen zur Klausur zugelassen zu werden, war auch mal unter dem Semester mehr zu tun als ich es von Mannheim gewohnt war. Die Klausurenphase empfand ich dadurch allerdings weniger stressig als in Mannheim. Ich habe in Oslo alle meine Klausuren in den dafr vorgesehenen Gebuden an einem Computer geschrieben. Klausuren nicht von Hand schreiben zu mssen, war fr mich eine der besten Erfahrungen an der Universitt in Oslo. Die Klausuren gingen alle 3 bzw. 4 Stunden, was ich als sehr positiv empfunden habe (man kann jederzeit abgeben und auch frher gehen). In meinen Kursen waren hauptschlich Austauschstudierende, aber auch Norweger, die alle sehr freundlich waren. Generell hatte ich an der Universitt immer das Gefhl, Einheimische ansprechen zu knnen. Allerdings habe ich auch die Erfahrung gemacht, dass Norweger oft sehr freundlich, aber auch kontaktscheu sein knnen, wenn es darum geht etwas mehr als nur Freundlichkeiten aufzubauen. Durch meine 3 Kurse hatte ich nur an 3 Tagen der Woche Uni. Am anspruchsvollsten wrde ich tatschlich den Sprachkurs bezeichnen, der mit 15 ETCS einiges an Zeit in Anspruch genommen hat. Trotzdem wrde ich jedem empfehlen, einen Sprachkurs zu machen, weil es einem die Mglichkeit gibt, neue Leute kennenzulernen, aber sich auch in der Stadt besser zurecht zu finden. Au§erdem lernt man mit Deutsch als Grundlage relativ zgig und hat auch im Alltag schnell Erfolgserlebnisse. Die anderen beiden Kurse wurden auf Englisch unterrichtet und das Niveau wrde ich mit dem in Mannheim vergleichen. Was den Campus betrifft, befinden sich die Gebude fast aller Fakultten eigentlich an einem Ort (au§er der Jura-Fakultt). Der Campus ist im Sommer noch sehr grn und im Winter manchmal etwas trist. Trotzdem gibt es einige sehr nette Mglichkeiten auf dem Campus Kaffee zu trinken oder etwas zu essen. Es gibt zwar eine Mensa mit relativ gro§er Auswahl in Form eines Buffets, die Preise sind allerdings viel hher als in Mannheim.</t>
+  </si>
+  <si>
+    <t>Insgesamt waren die Kurse an UNCG whrend des Semesters arbeitsintensiver, dafr aber auch leichter als an der Universitt Mannheim. Meine Kurse dauerten 75min und fanden zwei Mal pro Woche statt. In den meisten Kursen besteht Anwesenheitspflicht und man darf nur zwei Mal fehlen. Man sollte daher direkt zu Beginn des Semesters anfangen zu planen, wann und wie lange man verreisen will. Da ich bei meiner Kurswahl darauf geachtet habe, mir den Freitag frei zu halten, konnte ich immer gut bers Wochenende verreisen. Whrend des Semesters hat man mehr zu tun als in Mannheim, da stndig Papers, Quizzes und Gruppenarbeiten anfallen. Bezglich letzterem wrde ich jedem raten bei der Kurswahl darauf zu achten, mglichst keine Kurse mit zu hohem Gruppenarbeitsanteil zu whlen, da viele meiner Austauschkommilitonen wie auch ich schlechte Erfahrungen mit Gruppenarbeiten gemacht haben. Generell ist es jedoch mit etwas Flei§ und Durchhaltevermgen auch mit Gruppenarbeiten mglich, sehr gute Noten zu schreiben. 
+In den meisten meiner Kurse waren wir zwischen 25 und 30 Studenten und es wurde viel Wert auf Mitarbeit gelegt. Die Kurse haben dadurch eher Unterrichtscharakter und es fllt einem vielleicht auch leichter, die Dozenten bei Fragen anzusprechen.  Fr die meisten Kurse muss man sich Bcher kaufen, welches man im UNCG Bookstore machen kann. Die Bcher sind jedoch sehr teuer und es lohnt sich zunchst einmal abzuwarten, ob man die Bcher wirklich braucht bzw. sie online fr niedrigere Preise zu kaufen. In drei meiner Kurse konnte ich auf die relevanten Bcher in E-Book Form durch das online portal Canvas (entspricht Illias) zugreifen.</t>
+  </si>
+  <si>
+    <t>Die Semester in Hanken ist in zwei teaching periods eingeteilt, man hat also eine Hlfte Kurse mit Prfungen und dann die nchsten Kurse (+ Prfungen). Die teaching period 1 war vom 30.08. bis zum 15.10.2021, gefolgt von einer Woche Prfungen. Period 2 war vom 25.10. bis zum 10.12.2021 und dann wieder eine Woche Prfungen, offizielles Semesterende war dementsprechend am 18.12.2021. _x005F_x000D_
+Da die Kurse zu gro§en Teilen so gro§ sind wie typische deutsche Schulklassen ist vieles individuell vom Professor abhngig. Der Kontakt zwischen Professoren und Studierenden ist im Vergleich zu Deutschland deutlich entspannter, es wird sich grundstzlich geduzt und auch sonst agieren die Professoren tendenziell eher auf Augenhhe mit den Studierenden. Das englische Sprachniveau der Lehrenden und der Studierenden ist sehr hoch, dennoch ist das gegenseitige Verstehen das Wichtigste fr alle Beteiligten. _x005F_x000D_
+Generell kann ich sagen, dass die Kurse zwar durchaus zeitaufwendig sind, aber nicht so schwierig wie an der Uni Mannheim sowie durchaus mit besseren Noten belohnt werden. Vorlesungen waren in diesem Semester durchgehend online aufgrund von Covid-19. Prfungsarten haben daher auch variiert: es gab sowohl individuelle Abgaben als auch viele Gruppenarbeiten und Online-Prfungen. _x005F_x000D_
+Recht viele Kurse werden von der Uni Mannheim nicht angerechnet, da die Kurse an der Hanken die Mannheimer Voraussetzungen nicht erfllen. Dazu gehren auch jegliche Sprachkurse (belegen kann man sie natrlich trotzdem). Belegt habe ich allerdings nur Kurse, die mir auch angerechnet werden._x005F_x000D_
+Hanken«s Unigebude erinnert an eine Schule. Im zweiten Stock sind einige Aufenthalts-/Arbeitsrume fr die Studierenden (inklusive Bildschirme und Drucker). Die Mensa im Erdgeschoss wird von den Studierenden ebenfalls gerne genutzt. Allerdings gibt es auch noch andere Mensen in der Stadt in denen auch gerne gegessen wird.</t>
+  </si>
+  <si>
+    <t>Die Lehre an der HEC ist ausgezeichnet, und ich kann die Uni nur empfehlen. Das liegt zum einen daran, dass die Kurse generell interaktiv sind und nher an der Praxis als in Mannheim. Die Dozierenden sind meist sehr motiviert, ihren Stoff gut zu vermitteln, und gestalten die Vorlesungen abwechslungsreich und spannend. In (meines Wissens) jedem Kurs finden Gruppenarbeiten statt. Manchmal werden Midterms geschrieben, es gibt auch mndliche Noten. Dabei ist zu beachten, dass die Dozenten generell wohlgesonnen sind und gute Noten vergeben, sofern man sich anstrengt. Selbst wenn man sich deutlich mehr anstrengt als die meisten anderen Studierenden, hat man noch mehr als genug Freizeit fr Reisen etc. Der Leistungsdruck ist nicht vergleichbar mit dem in Mannheim. Gleichzeitig machen die Kurse Spa§; ich bin immer gerne zu den Vorlesungen gegangen. Die Vorlesungen dauern 3 Stunden, wovon man sich jedoch nicht abschrecken lassen sollte. Es werden immer Pausen gemacht, und die Menge an Stoff bersteigt keinesfalls die einer Mannheimer Vorlesung._x005F_x000D_
+_x005F_x000D_
+Ein paar generelle Anmerkungen: Sucht euch fr die Gruppenarbeiten bereits zu Beginn zuverlssige Partner und fragt, ob bei den anderen potenziellen Gruppenmitgliedern die Noten in den GPA zhlen. Falls dies verneint wird, wrde ich eher mit einheimischen Studenten eine Gruppe bilden. Versucht bereits in der ersten Stunde die Ambitionen eurer potenziellen Gruppenmitglieder zu erforschen, da die Gruppen meist sehr zeitnah gebildet werden mssen. Ich habe darauf geachtet und hatte keine Probleme in Gruppenarbeiten. Das Sprachniveau sollte fr keinen Mannheimer ein Problem darstellen. In Montreal ist die Hauptsprache Franzsisch, auch an der Uni. Es ist jedoch berhaupt kein Problem, kein Franzsisch zu sprechen. Ich selbst spreche kein Franzsisch und hatte nie Probleme. Die Mensa ist weniger empfehlenswert; abgesehen von Espresso und Salaten kann ich sie nicht weiterempfehlen. Allerdings ist das weniger bedeutend, da man meistens vermeiden kann, in der Mensa zu essen. Im Zweifelsfall einfach das Mittagessen selbst mitbringen.</t>
+  </si>
+  <si>
+    <t>An der University College Dublin ist die Kurswahl im Gegensatz zur Soziologie in der Universitt Mannheim modularer Gestaltet. Die Studenten haben eine gr§ere Auswahl an Kursangeboten, die sich untereinander grundstzlich stark voneinander unterscheiden. Nichts desto trotz, sind die Module in drei Level unterteilt:
+1. Level: Introductory Ð Diese Module sind fr Erstsemesterstudierende geeignet und bermitteln grundstzliches Wissen und eine generelle bersicht ber das behandelte Thema.
+2. Level: Intermediate Ð Diese Module sind fr Studierende die sich bereits im zweiten Jahr ihres Studiums befinden und beanspruchen daher Basiswissen, welches in Level 1 Modulen gelernt wurde. Level 2 Module erlauben dem Studenten mehr persnliche Handlungsfreiheit, indem Studenten die Mglichkeit geboten wird, das im Modul erlernte, an die Umwelt und eigenen Beobachtungen anzuwenden.
+3. Level: Degree- Diese Module sind geeignet fr Studenten, die sich nach Regelstudienzeit im letzten drittel ihres Studiums befinden, beziehungsweise im letzten Trimester sind. Diese Module beanspruchen die erlernten Methoden aus den anderen zwei Leveln und erlauben dem Studenten eigene Studien und zum Teil eigene Theorien aufzustellen und durchzufhren. 
+Die Prfungsarten meiner Module ergaben sich aus einer, oder mehreren Abgaben von Hausaufgaben, wie zum Beispiel Zusammenfassungen, Beobachtungen, sowie einer selbst formulierten Studie. Der gr§te Teil der Note ergab sich aus einem Essay, welches am Ende des Trimesters fr jedes Modul abgelegt wurde. Ausnahmen waren das Modul SOC30420 Ð Deception: hier wurde neben einer selbst gestalteten Studie am Ende des Semesters eine Klausur geschrieben, sowie das Modul SOC30550 Ð Research Project: hier wurde eine empirische Studie nicht nur formuliert, sondern auch tatschlich erhoben und die Note ergab sich aus der eingereichten Studie, einer Peerreview und einer Prsentation. 
+Die Kurse, die ich in Irland belegt hatte waren von mir mit vorheriger Absprache der Fakultt fr Sozialwissenschaften Soziologie ausgesucht worden. Somit ist die Anerkennung der Kurse leichter, da meine Module in der UCD auf die Kurse in der Universitt Mannheim abgepasst sind. Die Vorlesungszeiten waren 45 Minuten lang. Der Gro§teil der Kurse fand mittags statt. Das Studienjahr ist in Trimester unterteilt. Somit war das Frhlings-Trimester ein Monat krzer als das FSS an der Universitt Mannheim. Der Campus war gro§flchig und die einzelnen Fakultten waren in einzelne Gebude unterteilt. Es gab keine Hauptmensa (so wie in Mannheim), sondern viele Restaurants, Esswgen, Cafs und ein Pub, welche ber das gesamte Gelnde verteilt waren. Zustzlich standen den Studierenden mehrere Fu§ball-, Basketball und Tennisfelder zur Verfgung, sowie ein Schwimmbad und drei Fitness-Studios. Zustzlich konnte man auch in das Universitts eigene Kino gehen, oder in einem der vielen Clubs teilnehmen. Ich habe das Sprachniveau C1 und empfehle mindestens B2 zu haben, um sich mit den Einheimischen austauschen zu knnen. Es gab vor Ort die Mglichkeit irischen Studenten beim Deutsch lernen zu helfen und im Gegenzug englisch Nachhilfe zubekommen. Jedoch habe ich dort selbst nicht teilgenommen.</t>
+  </si>
+  <si>
+    <t>Das Studienangebot an der University of Edinburgh ist generell sehr vielfltig, aus allen Spezialisierungsbereichen kann man Kurse finden, es lohnt sich ein Blick in das drps. Falls einige Kurse im Bewerbungsformular nicht auftauchen, lohnt es sich beim Visiting Office nachzufragen. Die Kurse in Edinburgh sind in ãfirst and second year coursesÒ und ãhonours coursesÒ aufgeteilt, wobei die ersteren sich durch eine gr§ere Prsenzstundenanzahl und die letzteren sich durch eine hhere Selbststudiendauer unterscheiden. Fr den Austausch im 5. Semester sind in BWL eher die honours courses relevant, falls man an Kursen von anderen Fachbereichen interessiert ist, ist das in den first and second year courses auch mglich, im honours Bereich muss man einen zustzlichen Sprachtest in der ersten Woche ablegen. Ebenfalls gibt es die Mglichkeit einen Sprachkurs zu belegen, allerdings muss man dazu eine bestimmte Punktzahl in einem Sprachtest ablegen, das Niveau davon ist B1-B2. Die meisten honours courses sind eher praktisch mit Gruppenarbeit, Prsentationen und Essays orientiert, was einen hheren Stundenaufwand im Semester fr die Vorbereitung dieser Projekte fordert. Generell ist aber der Aufwand im Semester absolut machbar, da die 30 ETCs in Edinburgh nur 3 Kurse ausmachen. 
+Das akademische Jahr ist in Semester aufgeteilt, von denen das HWS vom 21.9 bis zum 21.12. geht. In Edinburgh gibt es keinen klassischen Campus, die Uni ist in unterschiedlichen Gebuden, wobei der meiste Teil (Sozialwissenschaften) im George Square relativ zentral in der Stadt platziert ist, Naturwissenschaften sind etwas weiter weg im Kings Building. Es gibt auch keine Mensa sondern nur kleine Bistros, bei denen das Essensangebot bei etwa 4 Pfund pro warme Mahlzeit liegt.</t>
+  </si>
+  <si>
+    <t>Das Studium an der Keio Universitt ist eine komplett neue Erfahrung im Vergleich zu Deutschland. In Japan herrscht in den meisten Kursen Anwesenheitspflicht und es gibt sehr oft Assignments die abzugeben sind. Die meisten Kurse waren auch relativ klein, was mir persnlich sehr gut gefallen hat. Das fhrt dazu, dass man recht aktiv sein muss und zu jedem Zeitpunkt sich vorbereiten sollte. Die Kursliste ist recht gro§, jedoch sollte man aufpassen, da recht viele nicht anerkannt werden knnen. Die Kurse sind auf einem vergleichbaren Niveau wie in Mannheim, jedoch erinnert die Struktur ein bisschen an die Schule, da man durch konstruktive Beitrge im Unterricht oder Prsentationen seine Note verbessern kann. Es gibt dann zu Ende des Semester eine Klausurenphase, in der man entweder eine Klausur schreibt oder ein Final Paper abgibt. Die Kurse, die man besuchen darf, sind auf Englisch und die Dozenten knnen in der Regel recht gut sprechen. Diese Kurse werden zum Gro§teil nur von Austauschstudenten besucht. Es gibt Kurse, die sich auf die japanische Volkswirtschaft spezialisieren und ich empfehle vor allem den Kurs "Japanese Financial Markets and Institutions", wenn man sich fr diese interessiert. Die Vorlesungszeiten hneln die in Mannheim, jedoch muss man, wenn man im ersten Block eine Veranstaltung hat, die Rush-Hour mitnehmen, die fr einige sehr schockierend sein kann. 
+Wenn man im Herbstsemester dort studiert kann man das Mita-Festival erleben, eine Woche in der kein Unterricht stattfindet und viele Clubs und Initiativen der Universitt ihre Arbeit prsentieren. Viele dieser Initiativen geben auch Austausch Studenten die Mglichkeit, beizutreten und mitzumachen. Man sollte jedoch beachten, dass in Japanischen Universitten Initiativen, vor allem die sportlichen, sehr wichtig sind und es nicht ungewhnlich ist, dass man bis zu siebenmal die Woche mehrere Stunden sich damit beschftigen muss.
+Generell ist das Leben am Campus sehr schn. Mita ist sehr gut gelegen und man braucht zu vielen zentralen und bekannten Distrikten weniger als eine halbe Stunde. Es gibt am Bahnhof sehr viele gnstige Essensmglichkeiten (in Japan erhlt man beim Essen kostenlos Wasser oder Tee, also muss man meistens nur fr die Gerichte zahlen), wenn man nicht das Angebot der Universitt in Anspruch nehmen mchte. Auf dem Campus gibt es 3 Cafeterias mit einer insgesamt sehr gro§en Auswahl. Falls man einen Kaffee trinken mchte gibt es neben an 2 Cafs ausschlie§lich fr Keio Studenten, wo man den ersten Kaffee des Tages kostenlos trinken kann. Zudem gibt es auf dem Campus einen Laden, wo man zu fairen Preisen Lehrbcher oder Schreibwaren kaufen kann. Sollte man am Hiyoshi Campus Veranstaltungen haben wird man genauso gut versorgt, da dieser auch mit Cafeterias und einem Laden ausgestattet ist.
+Auf dem Mita Campus befinden sich zwei Bibliotheken. Eine davon ist eine sehr alte, die zu Zeit renoviert wird, jedoch ist diese durch einen Seiteneingang betretbar. Hier befinden sich zahlreiche Bcher aus diversen Jahrzehnten. Wer sich also fr Bcher und vor allem ltere Werke interessiert ist hier auch gut versorgt.
+Das Angebot an Japanischen Sprachkursen ist auch sehr umfangreich. Es gibt Kurse fr alle Sprachniveaus und als Austauschstudent kann man bis zu 4 Kurse kostenlos besuchen. Hier hat man die Mglichkeit, viele weitere Austauschstudierende kennenzulernen. Da man in Japan nur begrenzt mit Englisch klarkommt, empfehle ich mindesten den Grundkurs zu nehmen, damit man einfach Dinge ausdrcken kann und schon bevor man nach Japan kommt das einfache Schreibsystem zu lernen.</t>
+  </si>
+  <si>
+    <t>Das Studium an der ACU ist sehr studentenfreundlich. Die Uni hat eine super Dachterrasse im 7. Stock. In der Bibliothek findet man immer einen Platz und die Uni selbst, als auch ACU-Sports bieten mehrmals wchentlich kostenloses Essen /BBQ /Subway Sandwiches /Coffee an, um die Studenten auf den Campus zu locken. Au§erdem kann man einigen Sportteams beitreten. Diese kosten alle jedoch viel Geld und lohnen sich nur, wenn man vorhat wchentlich am Training teilzunehmen.</t>
+  </si>
+  <si>
+    <t>Die FGV ist eine elitre Privatuniversitt mit gutem Ruf. Dementsprechend finden viele Veranstaltungen statt wie Konferenzen, Vortrge, Workshops, mit hochkartigsten Gsten aus Politik und Wirtschaft Ð leider fast ausschlie§lich auf portugiesisch. Ebenso gibt es einen Dresscode, der innerhalb der Gebude strikt einzuhalten ist und auch geahndet wird. Die Uni hat eine Traumlage in erste Reihe am Strand von Botafogo, (teils) moderne Gebude und kostenlosen Kaffee ? 
+Doch nicht nur des Kaffees wegen macht das Studium an der FGV gro§en Spa§. Kleine Kurse und meist engagierte Professoren schaffen eine warme Lernatmosphre, welche von der hauseigenen FGV-Mensa durch die ntige Nahrungsgrundversorgung mit gro§zgigen Portionen zu kleinen Preisen abgerundet wird.
+PS besseren Kaffee gibt es bei Felipe und seinem IPE Coffee bike im Au§enbereich der FGV</t>
+  </si>
+  <si>
+    <t>Auch wenn das Angebot an der SMU recht umfangreich ist, knnen diese leider durch das Biet-Verfahren nur im begrenzten Umfang belegt werden. An der Universitt knnen Kurse nicht wie in Mannheim einfach belegt werden, sondern mssen in verschiedenen Bietrunden ersteigert werden, hierfr erhlt jeder Student 100 e$. Auch wenn es viele Leitfaden und Videos von der SMU gibt, um das Verfahren mglichst verstndlich zu machen war es gerade fr die internationalen Studenten eher verwirrend als hilfreich. Da viele Kurse einfach keine Verfgbarkeit haben ist auch die Kommunikation mit der Universitt Mannheim gerade bei den Learning Agreements eher schwer. Die meisten Mannheimer Studenten knnen diese erst nach den Bietrunden erstellen, wenn das Semester bereits begonnen hat und ein Wechsel der Kurse kaum noch mglich ist._x005F_x000D_
+Die Module bestehen immer aus einem 3 Stunden Blockunterricht pro Woche, mit Vorbereitung (Readings, Case Studies etc.), Nachbereitung und Hausarbeiten oder Projekten mssen aber mindesten noch einmal weitere 3 Stunden pro Modul eingerechnet werden. Gerade die IT-Kurse sind an der SMU jedoch deutlich praktischer orientiert, in ãIntroduction to AIÒ lernten wir Tensorlfow in Python zu nutzen, auch in den anderen Fchern wurde deutlich praxisorientierter unterrichtet._x005F_x000D_
+Die Semester bestehen aus zwei Blcken a 7 Wochen, in der siebten Woche wird in einigen Fchern eine Zwischenprfung geschrieben, welche auch schon in die Endnote mit eingerechnet wird. In der 8. Woche haben alle Studenten eine Woche ãReading WeekÒ, welche sehr gut fr eine lngere Reise (10 Tage) in Asien genutzt wird. Da ich nur 3 Module belegt habe und diese dienstags und donnerstags stattfanden, konnte ich auch fters ber das lange Wochenende Kurzreisen in Asien unternehmen und war so in der Gestaltung meines Auslandssemesters recht frei._x005F_x000D_
+Der Campus besteht aus fnf Hauptgebuden, welche unterirdisch miteinander und auch mit der U-Bahn verbunden sind. Das meiste Campusleben findet tatschlich unter der Uni statt, wo sich auch der Food Court (Korfu), eine Bank, ein Supermarkt, ein Uni-Arzt und viele andere Angebote und Services der Uni befinden. Die Rumlichkeiten sind alle sehr modern, super sauber und in einwandfreiem Zustand, auch in der Bibliothek sind alle Pltze gut mit Steckdosen, Licht und hnlichem ausgestattet.</t>
+  </si>
+  <si>
+    <t>Die Kursauswahl ist riesig im vergleich zur Uni Mannheim und man kann auch Fcher aus anderen Fachbereichen belegen, solange man die Voraussetzungen dafr erfllt. Ich wrde jedem empfehlen zumindest einen nichtfachlichen Kurs zu belegen und die Mglichkeit zu nutzen mehr ber ein Thema zu erfahren, was einen au§erhalb der Uni wirklich interessiert. Ich habe z.B. einen Psychologie und einen Philosophie Kurs belegt und die beiden Kurse waren auch meine Lieblingskurse an der USC. Das Niveau der Kurse ist im Allgemeinen unter den Anforderungen der Uni Mannheim, jedoch sind viele der Kurse extrem Praxis orientiert und man muss auf jeden Fall mehr Zeit und Arbeit reinstecken. Dadurch sind die Fcher jedoch auch viel abwechslungsreicher und weniger trocken. Die Kurse sind wesentlich kleiner, im Rahmen von 15-60 Studenten, und viel interaktiver gestaltet. Die Noten setzen sich aus mehreren Teilleistungen (Mitarbeit, Projekte, Prsentationen, Mid Terms, Finals) zusammen, sodass man unter dem Semester jederzeit seinen Fortschritt sehen kann und ein gutes Bild davon hat wie man generell in dem Kurs abschneidet. Manche Kurse habe sogar gar keine schriftliche Abschlussprfung, sondern eventuell nur einen Vortrag oder eine gr§ere Projektarbeit. Seine Kurszeiten kann man sich selbststndig zusammenstellen und ich wrde z.B. empfehlen entweder den Freitag oder den Montag freizuhalten, damit man z.B. mal ber ein lngeres Wochenende reisen kann. Ansonsten hat der Campus sehr viel zu bieten. Es gibt eine gro§e Bibliothek, mehrere Dining Halls in denen es All-you-can-eat Buffets fr 13$ gibt und viele Sportanlagen und Gyms.</t>
+  </si>
+  <si>
+    <t>Meine Kurse fanden alle in der Facultad de Filosofia y Letras statt. Diese liegt in der Altstadt, gegenber dem Parque Genovs direkt am Meer.  Das aktuelle Kursangebot findet man einige Wochen vor Semesterbeginn auf der Homepage. Der Kurskatalog ist fr das ganze Jahr ausgerichtet, sodass fr das Herbstsemester nur die Kurse mit den ungeraden Zahlen relevant sind (1Q, 3Q,) Ich habe mir parallel auf der Homepage die Kursangebote im Detail angeschaut. Dort werden auch die Bewertungskriterien und die Leistungen fr die Studenten aufgefhrt. Die Vorlesungen finden immer zwei Mal die Woche statt, jeweils fr eine oder zwei Stunden. Das Auftreten von Problemen und berschneidungen bei der Stundenplanzusammenstellung ist keine Seltenheit, da wir Kurse aus verschiedenen Semester belegen knnen. Bei mir hat sich der Stundenplan in der Anfangszeit stndig gendert. Dazu muss man auch immer Kontakt mit Mannheim halten, um die Anrechnung neuer/anderer Kurse zu garantieren._x005F_x000D_
+Lehrmaterialien laden die Dozenten auf der Online Plattform Campus Virtual (Ilias) hoch.  Die Uni verfgt auch ber eine Bibliothek, allerdings ist diese am Wochenende geschlossen. In der Copisteria kann man sich sehr gnstig Lehrmaterial drucken aber auch binden lassen._x005F_x000D_
+Die Vorlesungen starten ab Ende September. ber Weihnachten und Neujahr/Dreiknige sind zwei Wochen Ferien. Manche Vorlesungen enden schon Mitte Dezember, andere finden bis Ende Januar statt. Die Prfungsphase ist Ende Januar bis Mitte Februar. Die Prfungen fr ERASMUS- Studenten sind meist vorgezogen (wegen Rckflug) oder kann sie mit Absprache an einem anderen Termin schreiben._x005F_x000D_
+Die Uni verfgt auch ber eine kleine Cafeteria, die Baguettes, Sandwich, Kaffee, Salate und vieles mehr anbieten.</t>
+  </si>
+  <si>
+    <t>An sich hat die PKU ein breites Kursangebot, vor allem, dadurch, dass man auch Kurse an anderen Lehrsthlen whlen kann. Um auf die vorgegebene ECTS-Anzahl zu kommen, mussten wir jedoch sieben Kurse belegen (andere Studenten im Durchschnitt 4). Aufgrund von zahlreichen Zeitberschneidungen blieben am Ende dann leider nicht mehr viele Kurse zur Auswahl. Ich empfehle daher sich auf jedem auch die Kurse der ãOn-China-SeriesÒ (fachfremd) anzuschauen. Auch wenn man jeden Kurs nur drei Stunden die Woche (keine zustzlichen bungen oder Tutorien) hatte, war der Workload nicht ohne, da man eigentlich in jedem Fach regelm§ig Gruppenarbeiten hatte fr die man sich in der Regel mindestens einmal die Woche mit seiner Gruppe (4-7 Studenten) treffen musste. Whrend am Anfang noch Zeit war auch mal unter der Woche feiern zugehen, wurde das schnell weniger und man war unter der Woche meist gut mit Uni eingespannt. Das Niveau wrde ich als leichter als an der Uni Mannheim einschtzen, wobei ich weder Mikro noch Financekurse belegt habe, welche teilweise ein hheres Kursniveau haben sollen. Der Campus der PKU ist schn angelegt mit Seen, Park und Sportanlagen. Vom Schneider ber zwei Fitnesstudios bis zum Mobilfunkladen findet man eigentlich alles was man braucht. Das Essen in den Mensen (ich glaube es gibt ber 6) ist wirklich lecker und sehr gnstig (1-2Û fr eine gro§e Portion). Ich habe den Kurs Business Chinese I (Anfngerkurs) belegt, welcher wirklich Spa§ gemacht hat, nicht besonders schwer ist und welchen ich jedem nur ans Herz legen kann. So gut wie alle Lehrer, die Kurse fr Internationals anbieten bieten vorgezogene  Klausur/Abschlussprsentationen an, sodass man vor Weihnachten wieder nach Hause fliegen kann. Die PKU bietet zustzlich noch ein Buddy- sowie ein Host Family-Programm an, welche einem die Mglichkeit bieten mit chinesischen Studenten oder Familien in Kontakt zu kommen (Auch wenn es Host Family Programme hei§t, unternimmt man lediglich tagsber etwas mit seiner ãGastfamilieÒ und wohnt nicht bei ihr). Des Weiteren, werden in der Orientierungswoche zahlreiche Initiativen und Sportteams vorgestellt, welchen man beitreten kann.</t>
+  </si>
+  <si>
+    <t>Studium
+Das Semester begann fr unsere Kohorte recht frh gegen Ende Juli. Es ist an der FGV EBAPE in zwei Teile geteilt, in denen jeweils verschiedene Kurse belegt werden knnen. Au§erdem kann man bis zu zwei Kurse an der konomischen, juristischen oder sozialwissenschaftlichen Fakultt der FGV besuchen, die jedoch leicht unterschiedlich organisiert sind und zum Teil andere Semesterzeiten haben. Daher belegte ich letztlich nur Kurse der FGV EBAPE, die ich hier kurz beschreibe. Die ersten vier waren als Kurse des IBEA-Programms fr mich verpflichtend und standen gewhnlichen Austauschstudierenden nicht offen. Darber hinaus durfte ich mindestens vier, hchstens jedoch sechs weitere Kurse whlen. Die Auswahl englischsprachiger Kurse ist aufgrund der Gr§e der FGV EBAPE recht gering. Ich empfehle jedoch im ersten Halbsemester bereits so viele Kurse wie mglich zu belegen, um im zweiten Halbsemester bei der Planung von Reisen ein wenig freier zu sein. Im Herbst-/Wintersemester liegt der zweite Teil zudem im sdamerikanischen Sommer. Die Kurse, die ich an der EBAPE belegte, sind weiter unten beschrieben.
+Das Studium an der FGV unterscheidet sich insgesamt stark von einer ffentlichen Universitt in Deutschland, in denen in gro§en Kursen meist frontal Inhalte wiedergegeben werden. In den meist nicht mehr als 20 Studierende umfassenden Kursen an der FGV war das Verhltnis zu den Professoren deutlich persnlicher und die Lehrmethode interaktiver. Zudem wurde hufig nach Interessen gefragt, damit diese in den Kursinhalten bercksichtigt werden konnten; daher ist auch zu empfehlen, sich vorher zu den Erwartungen an den jeweiligen Kurs Gedanken zu machen und eigene Lernziele und Interessen zu formulieren.
+Mathematik- und theorielastige Grundlagenfcher werden im Curriculum der FGV in den ersten Bachelorsemestern auf Portugiesisch angeboten, wodurch fr auf englischsprachige Kurse angewiesene Austauschstudierende vor allem weitergehende Kurse mit einem Fokus auf Diskussion und Interpretation brigbleiben. Auch wenn ich manchmal die Inhalte zum sturen Auswendiglernen vermisst habe, erhielt ich durch die Wahl mglichst vieler Kurse mit einem Schwerpunkt auf Brasilien, Lateinamerika oder Schwellenlnder allgemein einen einzigartigen Einblick, den mir kein Kurs an meiner Heimatuniversitt oder auch den vorangegangenen Austauschuniversitten htte bieten knnen.
+Wie in mehreren Kursen von den Dozierenden moniert, existiert hufig kaum englischsprachige Literatur und Forschung zu Themen in den Bereichen Arbeitsmarkt, Finanzwesen, oder Nachhaltigkeit in Brasilien, Lateinamerika oder dem Globalen Sden allgemein. Sofern sich dann doch ein Paper damit beschftigt, wird es den Gegebenheiten Brasiliens kaum gerecht oder offenbart gar ein hohes Ma§ an Vorurteilen und Unverstndnis. Insbesondere in dem bereits erwhnten Amazons-Kurs zur Nachhaltigkeit wurde offensichtlich, welch geringen Stellenwert auslndische Medien und Forschung der Schaffung einer nachhaltigen wirtschaftlichen und infrastrukturellen Grundlage fr die im Regenwald lebende Bevlkerung zuwiesen. Einige Quellen sparten die rund 30 Mio. Bewohner des Amazonas ganz aus. Auch im Banking-Kurs wurde klar, dass so manch eine Theorie des sogenannten Washington Consensus die brasilianischen Erfahrungen mit Geldpolitik au§er Acht lsst. Die Mglichkeit, von brasilianischen Professoren mit Zugang zu heimischer Forschung zu lernen, hat sich daher sehr gelohnt, und es ist jedem Austauschstudierenden nahezulegen, solche, auf Brasilien und die Region fokussierte Kurse zu whlen.</t>
+  </si>
+  <si>
+    <t>Die TBS ist eine Grande cole, was in Deutschland einer Privatuni hnelt. Da es eine reine Business School ist, ist der Campus etwas kleiner, aber sehr gut ausgestattet. Direkt in der Uni gibt es einen Kiosk und einen Starbucks, bei dem man Snacks kaufen kann. Ansonsten kann man zur gro§en Cafeteria an der ffentlichen Universitt namens ãRestaurant Universitaire ArsenalÒ gehen, bei der es warmes und gnstiges Essen gibt. Insgesamt ist der Unterricht etwas anders aufgebaut. Jede Unterrichtsstunde dauert 3 Stunden, was zunchst mal viel klingt. Meistens sind jedoch Vorlesung und bung verbunden und die Inhalte werden sehr viel ausfhrlicher und langsamer besprochen. Au§erdem sind die Klassen etwas kleiner und das System verschulter. _x005F_x000D_
+Das Studium beginnt Anfang September und geht bis Mitte Dezember. Das Semester ist in zwei Perioden eingeteilt. In der ersten Periode ist die Auswahl sehr beschrnkt und es werden nur BWL Kurse angeboten. Als Austauschstudent besucht man die Kurse des 1. Semester Master, sodass die Inhalte sehr grundlegend sind und sich teilweise mit den Inhalten aus Mannheim berschneiden. Hier muss man sich entscheiden ob man alle Kurse auf Franzsisch oder auf Englisch whlt, man kann die beiden Sprachen nicht durchmischen. In der ersten Periode hatte ich fnf verschiedene Kurse belegt, einen kleinen Zusatzkurs und den Franzsischkurs, den man sich ebenfalls anrechnen kann. Diese Periode geht bis Ende Oktober und nach einer Woche vorlesungsfreier Zeit sind Anfang November die Klausuren. In den letzten 4 Wochen hat man eine gro§e Auswahl an Kursen und belegt einen ãgro§enÒ Kurs mit 7 ECTS Punkten._x005F_x000D_
+Fr die erste Periode hatte ich den Franzsisch Track gewhlt, was auf jeden Fall eine Herausforderung war. Ich hatte Franzsisch in der Schule gehabt, aber danach zwei Jahre lang nicht aktiv gesprochen oder gelernt, weshalb ich erstmal ein paar Wochen gebraucht habe um reinzukommen. Die Vorlesungsinhalte sind vom Niveau sehr viel einfacher als in Mannheim und die Inhalte werden auch sehr viel langsamer und ausfhrlicher an Beispielen behandelt, was mir sehr gut gefallen hat. Dadurch war es mir trotz Sprachhrde mglich gut im Unterricht mitzukommen und die Inhalte zu verstehen. Au§erdem hatte ich noch zwei andere deutsche Austauschstudentinnen in meinem Kurs, die mir ebenfalls helfen konnten. Insgesamt waren sowohl die Professoren als auch die anderen Studenten sehr hilfsbereit und zuvorkommend und ich konnte mich jederzeit an sie wenden, falls ich etwas nicht verstanden hatte. Ich kann es auf jeden Fall empfehlen den Franzsisch Track zu belegen, wenn man ein Niveau von B2 hat und auch gewillt ist diese Herausforderung anzunehmen. Man muss sich eventuell etwas mehr bemhen als im Englisch Track, aber es ist trotz allem gut machbar und eine super Mglichkeit Freundschaften mit den franzsischen Studenten zu schlie§en und die Sprache wirklich richtig zu lernen. In der zweiten Periode hatte ich einen Kurs auf Englisch gewhlt, sodass ich auch viele internationale Studenten kennenlernen konnte. Insgesamt hatte man whrend des Semesters etwas mehr Aufwand als im Vergleich zu Mannheim durch die Gruppenarbeiten und die Quiz, aber dafr war die Klausurenphase sehr viel entspannter.</t>
+  </si>
+  <si>
+    <t>Alle Kurse waren auf Englisch und werden zu jetzigem Stand von der Uni Mannheim anerkannt. Der wichtigste Unterschied zu den Kursen in Mannheim ist, dass die Note durch unterschiedliche Leistungen bestimmt wird, die ber das ganze Semester verteilt sind. Anders als in Mannheim geht es schon in den ersten Wochen mit viel Inhalt und benoteten Abgaben los. Au§erdem ist in den meisten Kursen entweder Anwesenheitspflicht oder die Mitarbeit bestimmt einen Teil der Note. Es werden kaum Vorlesungen aufgezeichnet. Auch gibt es in vielen Kursen Gruppenarbeiten. Die Kurse sind meistens kleiner als in Mannheim und die meisten Professoren kennen jeden einzelnen Studenten.  Generell finde ich das Niveau hnlich wie in Mannheim aber der Workload ist anders verteilt. Es ist mit normalem Aufwand mglich gute Noten zu erreichen, fr sehr gute Noten (&gt;85%) muss man aber wirklich durchgehend gut Noten abliefern und das ist mit mehr Aufwand verbunden. Eine Mensa gibt es nicht und das Essen auf dem Campus ist relativ teuer, wen man auf dem Campus lebt, kann man aber einfach immer nach Hause gehen. Es gibt berall Cafs, in die viele Studenten auch zum Lernen gehen. Auch Bibliotheken gibt es viele verschiedene, so dass eigentlich fr jeden was dabei ist. Auf dem Campus gibt es zwei Fitnessstudios und man kann kostenlos im riesigen Schwimmbad schwimmen.</t>
+  </si>
+  <si>
+    <t>Das Kursangebot an der FGV EBAPE war sehr breit gefchert und umfasste viele interessante Themen. Das Niveau der Kurse war jedoch recht unterschiedlich. Einige Kurse waren sehr anspruchsvoll, whrend andere eher oberflchlich waren. Die Prfungsarten waren ebenfalls sehr unterschiedlich und reichten von Klausuren ber Hausarbeiten bis hin zu Gruppenprojekten. Die Vorlesungszeiten waren recht lang mit 3 ? Stunden. Das Auslandssemester ist in zwei Trimester unterteilt. Auf dem Campus gab es eine Mensa, in der man gnstig essen konnte, und auch Arbeitsmglichkeiten waren vorhanden. Das englische Sprachniveau der Dozenten und Studierenden war generell sehr hoch.</t>
+  </si>
+  <si>
+    <t>Das Kursangebot an der Universidad de la Laguna ist umfangreich und gut auffindbar auf der Website. Zu jedem Kurs gibt es sogenannte Gua docentes, die Inhalte und Anforderungen genau beschreiben. Man sollte bei der Kurswahl darauf achten, dass es Kurse gibt, die nur im primer cuatrimestre angeboten werden (HWS) und andere, die nur im segundo cuatrimestre (FSS) angeboten werden. Das Kursniveau erscheint anfangs schwieriger als es letztendlich wirklich ist, da man sich an die Sprache gewhnen muss und viele Teilleistungen erbracht werden mssen. Hilfreich dabei ist, dass ein Gro§teil der Dozenten auf die Erasmus Studenten Rcksicht nimmt, Untersttzung anbietet und bei vielen Anliegen weiterhelfen kann. In den Kursen wird ein eher fortgeschrittenes Sprachniveau gefordert, da alle Kurse auf Spanisch angeboten werden und die Dozenten meist auch kein Englisch sprechen. Deshalb empfiehlt es sich einen Sprachkurs zu belegen. Diese kann man an der Uni besuchen (Jeweils fr einen Monat, zwei Mal die Woche fr je 3 Stunden). Ich habe mich fr eine private Sprachschule, names Dracma entschieden. Dort ist man pro Sitzung, maximal in Dreiergruppen. Der Unterricht ist vergleichsweise sehr persnlich und angepasst an das spezifische Leistungsniveau. _x005F_x000D_
+Ich empfehle es, in der ersten Uni Woche die verschiedenen Kurse anzuschauen und das Gesprch mit den Dozenten zu suchen. Es gibt au§erdem mehrere Mensen und Cafeterien auf dem Campus. Die Essensauswahl ist jedoch nicht sehr gro§, es wird meist auch kein vegetarisches Essen angeboten.</t>
+  </si>
+  <si>
+    <t>Das Studium an der USC ist nicht mit dem Studium in Mannheim vergleichbar. Anstatt in einem gro§en Vorlesungssaal zu sitzen, finden die meisten Kurse in einem kleinen Klassenraum statt. Die Kursgr§e von 30-40 Studierenden sowie der Unterrichtsstil erinnert eher an das deutsche Schulsystem anstatt an eine Uni-Vorlesung. Die Professoren kennen alle Studierenden beim Namen und versuchen whrend des Semesters eine Beziehung zu ihrem Kurs aufzubauen. Dazu gibt es fr die meisten Kurse Anwesenheitspflicht (Man darf meist nur 2-4 Classes verpassen, sonst wird man automatisch eine Note runtergestuft Ð Bei Exchange Students sind die meisten Professoren aber sehr lieb und erlauben einem, mal einen Tag zu fehlen, wenn man bspw. schon freitags einen Wochenendtrip starten mchte). _x005F_x000D_
+Die finale Kursnote setzt sich nicht wie in Mannheim nur aus einem Exam am Ende des Semesters zusammen, sondern aus mndlicher Mitarbeit, mehreren Assignments, Quizzes, Prsentationen und einem Midterm und dem Final Exam.  Aus diesem Grund ist das Studium unterm Semester wesentlich aufwendiger als in Mannheim, da man jede Woche Abgaben, Hausaufgaben und Quizzes hat. Dafr ist meist die Finals Week deutlich entspannter (Ich hatte bspw. nur noch zwei Exams, da ich schon davor alle Prsentationen, Essays etc. abgeben musste). Zudem ist es meistens so, dass man schon vor dem Final ausrechnen kann, wie viel Prozent man in der Klausur erreichen muss, um auf eine bestimmte Note zu kommen. Da man durch Assignments, Participation usw. schon viele Punkte holen kann, braucht man hufig im Final nur noch 60/70% um insgesamt auf ein A zu kommen. _x005F_x000D_
+Auch wenn das Studium whrend des Semesters aufwendiger ist als in Mannheim, ist der Anspruch aber wesentlich geringer. Generell hatte ich das Gefhl, dass Mannheimer Studenten in der Regel berdurchschnittlich gut sind im Vergleich zum gesamten Kurs._x005F_x000D_
+Viele Kurse bestehen zum Teil aus Gruppenprojekten. Falls ihr euch eure Gruppe aussuchen drft, wrde ich euch empfehlen mit Freunden (entweder aus Mannheim, andere Internationals oder Amerikaner, von denen ihr wisst, dass sie engagiert sind) zusammenzuarbeiten. Die ein oder andere Erfahrung hat gezeigt, dass manche Amerikaner eine sehr andere Arbeitseinstellung haben, als wir es vielleicht von Mannheimer Kommilitonen gewhnt sind.</t>
+  </si>
+  <si>
+    <t>Generell scheint die Tendenz, zumindest in meinem Fachbereich (Geisteswissenschaften), dahin zu gehen, dass es weniger Veranstaltungen pro Semester gibt als in Deutschland, diese aber umfangreicher sind. Ich hatte drei Kurse zu je 10 ECTS belegt. In jedem der Kurse waren pro Woche etwa 60-80 Seiten anspruchsvolle wissenschaftliche Literatur zu lesen. Die Vorlesungen dauern drei Stunden, es gibt allerdings zwischendrin zwei Pausen. Manchmal gibt es zwischendrin kleinere Gruppenarbeiten; generell gibt es auch Raum fr Diskussionen mit dem Professor. Frontalunterricht ist es also eigentlich nicht. Die Atmosphre war recht locker und informell, das Niveau war allerdings sehr hoch (obwohl es Bachelorveranstaltungen waren). Als Prfungsform hatte ich einmal eine Hausarbeit zu einem Thema meiner Wahl, eine Hausarbeit zu einem gegebenen Thema (fr die dann aber nur 7 Tage Zeit waren) und eine mndliche Prfung zu einer vorformulierten Frage, die man 24 Stunden vorher erhalten hat. Die Veranstaltungen, die ich gewhlt hatte, waren alle auf Englisch. Insgesamt habe ich von den Veranstaltungen sehr viel mitnehmen knnen und fhle mich zu neuen Gedankengngen angeregt. Wichtig: Wenn im Stundenplan steht, eure Veranstaltung gehe um 1 Uhr los, geht sie erst um viertel nach Eins los - in Dnemark scheint das akademische Viertel noch sehr ernst genommen zu werden =)_x005F_x000D_
+Ebenfalls anders als in Deutschland war das Mensa-System. Es gab nicht eine oder zwei gro§e Zentralmensen, sondern viele kleinere Orte, die oft eher Cafe-Charakter hatten. Es gab dort ein festes Angebot, das jeden Tag verfgbar war (Salate, Brtchen, S§igkeiten, Getrnke) und jeweils ein Tagesangebot, das meist aus einem warmen Mittagessen bestand (inkl. vegetarischer Option). Der Preis fr ein warmes Gericht liegt zwischen 4 und 5 Euro. _x005F_x000D_
+Zum Lernen ist die sogenannte Knigliche Bibliothek (schlicht die Universittsbibliothek, die aber umbenannt wurde) sehr empfehlenswert. Oft fhlt man sich dort drinnen eher an ein Designmuseum oder ein Mbelhaus erinnert als an eine Bibliothek. Es gibt auch Mglichkeiten, sich zwischendurch abzulenken, wie etwa getrennte Bereiche mit Tischtennisplatten, Boxsack und Massagesthlen. So etwas habe ich in Deutschland noch nie gesehen. Definitiv sehenswert, auch wenn ihr lieber zu Hause lernt!_x005F_x000D_
+Grundstzlich handelt es sich bei der Universitt Aarhus um eine Campus-Universitt, d.h. die Uni ist nicht ber die Stadt verteilt, sondern alle Gebude liegen direkt nebeneinander. Da die Uni mit ber 40.000 Studenten ziemlich gro§ ist, knnen die Wege aber trotzdem recht lang werden - hier lohnt sich wieder das Fahrrad! In der Mitte des Campus liegt ein gro§er Park mit See, der an wrmeren Tagen ein sehr schner Ort zum Entspannen ist.</t>
+  </si>
+  <si>
+    <t>Das Kursangebot ist sehr vielseitig und als Masterstudent kann man hier auch frei whlen welche Kurse man belegt. Teils bieten andere Fakultten wie z.B. die Engineering Fakultt auch Schnittstellenkurse an, welche durchaus sehr interessant sein knnen. Die Anerkennung der Kurse lief ziemlich problemlos und durch das ECTS in Europa knnen die Kurse auch einfach umgerechnet werden. Das Studium ist in zwei Perioden im HWS und drei Perioden im FSS aufgeteilt, wovon jede Periode etwa sieben Wochen dauert mit anschlie§ender einwchiger Prfungsphase. Je nachdem welche Kurse man whlt hat man keine Klausuren und kann diese Woche dementsprechend dann zum Reisen nutzen. Man kann problemlos zwei oder auch drei Kurse pro Periode whlen, da der Workload im Vergleich zu Mannheim geringer ausfllt und man deshalb immer noch genug Zeit fr jegliche Freizeitaktivitten hat. Das Campus in Otaniemie bietet zahlreiche Essensmglichkeiten und Restaurants welche von morgens bis sptabends mehrere Tagesgerichte fr 2,70Û anbieten, was in Anbetracht des Preisniveaus von Helsinki mehr als fair ist. Zustzlich verfgt jeder Campus noch ber ein Fitnessstudio, welches nach einer einmaligen, zentralisierten Anmeldung genutzt werden kann.</t>
+  </si>
+  <si>
+    <t>Grundstzlich hatte ich den Eindruck, dass die Mathematikkurse in Singapur deutlich einfacher waren. Das Vorlesungstempo war deutlich geringer und die Klausuren auch einfacher. Meist gibt es einen Midterm, der dann ca. 25% zhlt und ein paar Assignments (25%), die aber vom Niveau unter den bungsblttern in Mannheim waren. Letztendlich gibt es dann noch ein Final Exam (50%). In meinen Vorlesungen wurden halbwegs schwere Themen/Beweise oft nicht behandelt, dafr werden sehr viele Algorithmen/Beispiele gerechnet. _x005F_x000D_
+Die Unterrichtssprache ist Englisch, wobei sehr viele Professoren ebenfalls aus dem Ausland kommen und einen entsprechend starken Akzent haben. Mir ist es aber nur bei einem Vortrag passiert, dass ich nichts verstanden habe, weil der Vortragende einen zu starken Akzent hatte._x005F_x000D_
+Insgesamt war ich von den Vorlesungen enttuscht, da oft einfach nur Algorithmen/Formeln angewandt werden mussten und keine interessanten Inhalte behandelt wurden. Im Umkehrschluss bleibt dann natrlich mehr Zeit zu reisen und man kann mit wenig Aufwand gute Noten sammeln.</t>
+  </si>
+  <si>
+    <t>Die Semesterzeiten fr das Wintersemster in Maynooth sind von Anfang September bis Ende Januar. Die Erasmusstudenten knnen aber bereits vor Weihnachten abreisen und wenn man nur ein Semester bleibt, muss man danach auch nicht wieder zurckkehren. Der Arbeitsaufwand ist ungefhr gleich wie in Mannheim, wobei ich es deutlich entspannter fand. Denn in Maynooth gibt es bereits whrend des Semesters Abgaben die mit in die Gesamtnote zhlen. Durch diese âContinuous AssessmentsÔ ist dann der Aufwand am Ende nicht mehr so gro§ und die Prfungsphase ist nicht so stressig wie in Mannheim. Was mir auch sehr gut gefallen hat, waren die kleinen Gruppen in denen gearbeitet wurde und der direkte Bezug zu den Professors/Tutors. Meine Seminare waren nie gr§er als 20 Personen und zu den gro§en Vorlesungen gab es immer ein Tutorium. Der Campus an sich ist geteilt in einen Sd und Nordcampus. Der Sdcampus ist der ltere Teil der Uni, der an Hogwarts erinnert und der Nordcampus ist der neuere Teil, auf dem sich der Hauptteil abspielt. Generell gibt es auf dem Campus alles zu finden von Supermarkt, Fitnessstudio bis hin zu einem eigenen Pub. Besonders gefallen hat mir die Bibliothek, die super modern ausgestattet ist.</t>
+  </si>
+  <si>
+    <t>An der UF sind die Kurse deutlich kleiner und viel persnlicher. Das System ist viel verschulter und die Endnote hngt nicht nur von einer Abschlussklausur ab, sondern meistens von 3-4 Klausuren, die ber das Semester verteilt geschrieben werden. Weiterhin hat man in vielen Fchern wchentliche Abgaben. Die Dozenten sind meistens sehr nett, antworten schnell, wenn man sie was fragt und sind auch kompromissbereit, wenn man mal eine Abgabe nicht schafft. Mir hat das System sehr gefallen, da man kontinuierlich mitarbeiten musste und durch das interaktivere System mehr gelernt hat. Auch ist die Lehre deutlich anwendungsbezogener und nicht so theoretisch wie in Mannheim. _x005F_x000D_
+Das Niveau ist niedriger als in Mannheim. Man hat zwar viele Aufgaben, allerdings sind die nicht sehr zeitintensiv; man muss sich nur hinsetzen und sie erledigen. Ich musste an der UF halb so viel Zeit in die Kurse investieren wie in Mannheim. Die Noten sind dort auch deutlich besser. Whrend in Mannheim eine Standard-Note meistens bei 2,0-2,3 liegt, kriegen sehr viele dort ein A oder A- (1,0 bzw. 1,3), wenn man sich halbwegs bemht.</t>
+  </si>
+  <si>
+    <t>Die Kurswahl von Tampere ist sehr gut und lsst sich auf der Website auch gut filtern. Man sollte beachten, dass das Semester unterteilt ist und man erstmal Kurse fr die ersten 7 Wochen auswhlt. In der zweiten Hlfte vom Semester werden dann nochmal Kurse gewhlt. Das Niveau ist etwa gleich wie Mannheim, aber generell mehr aufs Selbststudium gelenkt. In den meisten Kursen die ich hatte gab es am Ende eine Abgabe, wie einen Aufsatz oder eine kurze wissentscaftliche Arbeit. Der City Center Campus wo ich meinen Unterricht hatte ist leicht mit dem Bus zu erreichen, direkt bei der gro§en Bibliothek und hat 3 Mensen wo man relativ billig als Student essen kann. Dazu kommen viele Aufenthaltsraume zum selbstndigen arbeiten aber auch Rume zum entspannen und mit Freunden abhngen. Das Englisch Niveau in Finnland ist hoch und man kann einfach mit Anderen kommunizieren ohne selbst finnisch zu sprechen. Ich wrde aber trotzdem einen Sprachkurs empfehlen, weil die Sprache wirklich interessant und einzigartig ist.</t>
+  </si>
+  <si>
+    <t>Vom Aufbau der Vorlesung ist das Studium in Oslo ziemlich vergleichbar mit dem in Mannheim. Die Professoren sind den Studenten vielleicht etwas nher, so darf man sie meist mit Vornamen ansprechen. Ich habe zwei Mathe-Kurse und einen Norwegisch-Sprachkurs besucht. Meinem Empfinden nach war dabei der Aufwand vor allem dafr, dass man 10 ECTS pro Fach bekam, deutlich geringer als in Mannheim, vor allem auch dadurch, dass es keine wchentlichen bungsbltter, sondern nur ein bzw. zwei Compulsory Assignments pro Semester gab. Mit der Anerkennung der Mathe-Fcher gab es keinerlei Probleme. Der Campus Blindern ist sowohl im Sommer als auch bei Schnee sehr schn, allerdings st§t man bei den Essensmglichkeiten preislich als deutscher Student schnell an seine Grenzen, weswegen ich mir meist selbst gekocht und in den zahlreich vorhandenen Mikrowellen aufgewrmt habe!</t>
+  </si>
+  <si>
+    <t>Das Studium an der Drexel University unterscheidet sich stark vom Studium an der Uni Mannheim. Die Klassenstrken sind sehr viel geringer, die Hintergrnde der Studenten unterschiedlicher, das System ist verschulter und bezglich des Kursangebots gibt es nahezu nichts, was es nicht gibt. Insgesamt wrde ich das Niveau als geringer als in Mannheim einstufen, jedoch ist der Arbeitsaufwand fr die Kurse unter dem Semester extrem hoch. Man hat permanent etwas zu tun, seien es Readings, Quizzes, Exams, Assignments, Paper oder Gruppenarbeiten. Dafr gestaltet sich die Klausurenphase als wesentlich entspannter, da der Arbeitsaufwand bereits von Anfang an hoch ist. Dies bekommt man an der Drexel noch deutlicher zu spren, da das Studienjahr hier in 10-wchige Quarter aufgeteilt ist. Die Vorlesungszeiten (von 8 Uhr bis 22 Uhr) und auch deren Dauer variiert von Kurs zu Kurs (2h bis 4h). Ich habe ausschlie§lich Kurse von LeBow College of Business und von der Close School of Entrepreneurship belegt, die mir alle in Mannheim angerechnet werden knnen. _x005F_x000D_
+Obwohl die Drexel mitten in der Gro§stadt Philadelphia gelegen ist, gibt es zu einem gewissen Grad ein Campusleben. Es gibt unzhlige (Sport)Clubs und Initiativen, denen man beitreten kann und auch Greek Life (Verbindungen) sind vorhanden. Besonders die Events des Campus Activity Boards kann ich empfehlen. Ein riesiges Fitnessstudio inklusive Kletterwand und Schwimmhalle steht den Studenten zur Verfgung und auch an Foodtrucks, Fast-Food Restaurants und Cafs mangelt es nicht auf dem Campus. _x005F_x000D_
+In Philadelphia sprechen alle flie§end Englisch, womit man als Mannheimer Student jedoch keinerlei Probleme haben sollte.</t>
+  </si>
+  <si>
+    <t>Das Kursangebot an der Drexel Universitt ist sehr umfangreich. An der Close School of Entrepreneurship gibt es die Mglichkeit viele Kurse, oft unterrichtet von Grndern, mit dem Fokus auf Entrepreneurship zu belegen. Drexel ist hauptschlich bekannt fr seine Engineering Programme. Man sollte sich allerdings vorher genau informieren ob man berechtigt ist mit seinem Major bestimmte Kurse zu belegen. Die LeBow School of Business befindet sich im neusten Gebude auf dem Campus und bietet ideale Studienbedingungen. 
+Allgemein hat sich fr mich das Vorurteil besttigt, dass das Niveau an amerikanischen Universitten geringer ist als in Europa. Allerdings ist der Arbeitsaufwand unter dem Semester hher als in Deutschland. Man muss stndig den berblick ber viele Deadlines behalten und inhaltlich immer mitzukommen. 
+Im Anhang befindet sich meine Kurswahl mit genauen Bemerkungen. Grundstzlich bestanden die Quizzes, Midterms und Finals aus Multiple Choice Fragen. Nur in Game Theory mussten alle Fragen im Essay Stil beantwortet werden, was zunchst gewhnungsbedrftig war. Hier gilt die Regel: ãState the obvious!Ò um volle Punktzahl zu bekommen. In MGMT451 und MGMT260 waren zwei Teamassignment der Haupteil des Kurses. Diese wurde am Ende durch eine finale Prsentation vorgestellt.</t>
+  </si>
+  <si>
+    <t>Die Universitt ist deutlich kleiner als die Uni Mannheim. Das hat den Vorteil, dass die Kurse sehr klein und interaktiv gestaltet werden knnen. Je nach Kurs liegt die Zahl an Studenten zwischen 0 und ca. 120. Zustzlich ist es ruhiger whrend der Vorlesungen und das Lernklima deutlich angenehmer. Ein gro§er Unterschied zu Mannheim ist auch die "Distanz" zwischen Studenten und Professoren. Es ist sehr viel kollegialer und Professoren werden in der Regel beim Vornamen genannt, nehmen sich persnlich Zeit, Fragen zu beantworten bzw. Theorien nochmal zu erlutern und antworten sehr schnell auf Mails. Die Vorlesungen gehen 105 Minuten, wobei 90 Minuten Vorlesung stattfindent und 15 Minuten Pause - je nach Bedarf/Konzentrationslevel - gemacht werden. Die Pausen fhren dazu, dass die Konzentration whrend der Vorlesung auf einem hohem Niveau bleibt und nicht wie in Mannheim, nach 60 Minuten sptestens, alle reden bzw. Videos bei Facebook gucken. Es gibt keine separaten bungen, sondern Gruppenarbeiten, in denen die erlernten Theorien auf konkrete Sachverhalte bzw. Unternehmen/Organisationen angewendet werden. Die Gruppen bestehen dabei in der Regel aus 3-5 Studenten. Pro Kurs mssen ber das Semester zwischen 2 und 3 Hausarbeiten vorbereitet werden. Die Hausarbeiten sind in der Regel sehr klein (ca. 1.500-2.500 Wrter) und werden mit meist mit pass/fail bewertet oder gehen zu einem Prozentsatz (20-40 Prozent) in die Gesamtnote mit ein. Die Gruppenarbeiten waren sehr angenehm und deutlich effektiver als die bungen an der Uni Mannheim, da konkrete Theorien auf Beispiele in der Praxis angwendet werden bzw. spannende Fragestellungen aus der realen Wirtschaftswelt analysiert werden. Zustzlich sind sie nicht so schwer oder umfangreich, dass sie das "studentische Leben" beeintrchtigen bzw. zu Zeitdruck oder berlastung fhren. 
+Ein weiterer sehr angenehmer Faktor ist die Ausstattung der Lernrume. Zum einen sind Lernrume (Ruherume) von der Bilblithek getrennt, so dass die Bibliothek eher ein Treffpunkt fr Gruppen ist als - wie hier - eine Ruhezone. Die Einzelarbeitspltze befinden sich in seperaten Rumen und bestehen aus kleinen Kabinen mit Licht und Steckdose, so dass es mglich ist, Ruckscke, Bcher, Essen, Trinken, etc. mit an den Arbeitsplatz zu bringen. Ein System, dass meiner Meinung nach deutlich besser ist als hier. Die NHH verfgt darber hinaus ber viele Gruppenarbeitsrume, die ber ein Portal eine Woche im Voraus gebucht werden knnen. Dadurch ist das Arbeiten in den Gruppen sehr angehm, effizient und konzentriert. Ein weitere Faktor ist, dass die Uni 24/7 betreten werden kann, da der Zugang ab einer bestimmten Uhrzeit nur noch mit dem Studentenausweis mglich ist. Dadurch knnen smtliche Lerntypen uneingeschrnkt und je nach Persnlichkeit lernen. 
+Die Klausuren am Ende des Semesters waren sehr sehr einfach und nicht mit den Klausren in Mannheim vergleichbar. Zum einen bestanden sie zu einem Teil aus grundstzlichem Wissen und zu einem anderen Teil aus tiefergehenden/detailierteren Fragen. Es gibt au§erdem verschiedene Typen von Abschlussleistungen. Normale Klausuren, die zu 100% die Endnote bilden, die Kombination aus Klausur und benoteten hausarbeiten, Hausarbeiten, die zu 100% die Endnote bilden oder die Kombination aus mehreren Hausarbeiten, die zu einem jeweilgen Teil die Endnote bilden. Darber hinaus gibt es Klausuren, die am Computer geschrieben werden. Es wird eine Fragestellung zu einer bestimmten Uhrzeit hochgeladen, welche sich die Studenten runterladen, bearbeiten (egal ob in der Uni oder Zuhause) und ihre Lsung innerhalb eines bestimmten Zeitraums wieder hochladen. 
+Zusammengefasst: Die Uni ist technisch besser ausgestattet als Mannheim, die Kurse sind kleiner, wodurch das Lernklima sehr angenehm ist, die Pausen in den Vorlesungen ermglichen konzentriertes Zuhren whrend der gesamten Vorlesung, die Gruppenarbeiten sind sehr angenehm und die Auseinandersetzung mit der Materie dadurch nah an der Realitt und nachvollziehbar, die Ausstattung der Bibliothek (Bcher kann man ber eine Plattform bestellen und am nchsten Tag abholen) ist gut, die Trennung von Bibliothek und Lernrumen ist sinnvoll gestaltet, die Gruppenarbeitsrume gut ausgestattet und unglaublich gut isoliert (es dringen kaum Gerusche rein oder raus), die Mglichkeit jederzeit in der Uni zu lernen ist hervorragend und die Lernrume bzw. Einzelarbeitspltze in ausreichender Anzahl vorhanden. Zustzlich ist die IT der NHH viel fortschrittlicher und nher an den Bedrfnissen der Studenten ausgerichtet. Es gibt eine Lernplattform (itslearning), in der smtliche Unterlagen plus Zusatzmaterialien bereitgestellt werden. Erst whlt man den jeweiligen Kurs aus und gelangt zu einer Maske, in der auf der linken Seite die Vorlesungen, Materialien etc. runtergeladen werden knnen, in der Mitte befindet sich eine Art Newsfeed (Wie bei Facebook) in dem die Professoren nderungen, Deadlines, Wichtiges etc. ankndigen. 
+Studieren also hervorragend. Es geht kaum besser.</t>
+  </si>
+  <si>
+    <t>Das Studium an der Universitt ISM fand ich besonders gut. Anders als in Mannheim, bietet die Privatuniversitt Unterricht in kleinen Gruppen an, der von sehr netten und erfahrenen Professoren gefhrt wird. Ich bin sehr zufrieden mit meinen Fchern, habe viel neues gelernt und habe Freundschaften mit einigen Professoren geschlossen. Der Unterricht ist im Allgemeinen persnlicher ausgerichtet und der Notenschnitt jedes Kurses besteht aus vielen Teilen, anstatt aus nur einer Klausur am Ende._x005F_x000D_
+Die Institution haust in einem Gebude, welches frher ein Kloster war und schmckt die Innenstadt mit seinen wei§en Wnden und gro§en Campus.</t>
+  </si>
+  <si>
+    <t>Anfangs viel es mir etwas schwer passende Kurse zu finden. Das Angebot fr Psychologie schien nur sehr klein zu sein und es standen uns nur die Kurse fr das Sommersemester zur Planung zur Verfgung. Die Website der KU auf der die Kurswahl stattgefunden hat war auch ziemlich verwirrend, ist immer wieder auf Koreanisch gesprungen und es war nicht so einfach sich einen berblick zu verschaffen. Davon sollte man sich aber nicht direkt abschrecken lassen und es fr die Bewerbung nur als erste Information nutzen. Ein paar Tage vor der wirklichen Kurswahl konnte man dann die aktuelle Kursauswahl einsehen und hat auch ein âDepartment of PsychologyÔ angezeigt bekommen das vorher nicht zu sehen war. Die Auswahl war nicht riesig, da viele Kurse Basiskurse waren, die bei uns in den ersten zwei Semestern abgedeckt werden und somit fr mich nicht in Frage kamen. Man findet aber genug Kurse fr ein Semester. 
+Inhaltlich waren meine Kurse insgesamt auf jeden Fall einfacher als in Mannheim. Ich glaube man htte mit sehr wenig Vorwissen gut folgen und gute Noten bekommen knnen. Der Aufwand unter dem Semester war sehr unterschiedlich. In einem Kurs musste man nur 70% der Zeit anwesend sein und die beiden Klausuren mitschreiben. In einem anderen gab es zustzlich zu den Klausuren eine âParticipationÔ Note, in die Anwesenheit und Teilnahme an den Diskussionen in den Sitzungen mit einflie§t. Etwas vorbereiten musste man fr diesen Kurs aber auch nie. Mein dritter Kurs war der aufwndigste whrend dem Semester, allerdings hielt sich auch das in Grenzen. Insgesamt gab es 5 âAssignmentsÔ, fr die man jeweils ein Buchkapitel lesen musste und dann eine halbe bis eine Seite Text verfassen sollte mit seinen Gedanken und Anmerkungen zum Gelesenen. Au§erdem gab es eine 20-mintige Gruppenprsentation, die zum Ende des Semesters vorbereitet werden sollte. Die Klausuren waren auch alle sehr gut zu schaffen. In jedem Kurs gab es ein Mid-Term und ein Final Exam. Die Fragen waren gr§tenteils im Multiple Choice Format (bei uns haben alle Klausuren online stattgefunden) und meistens einfach gestellt. Dazu kamen ein paar Short Answer Fragen (Antwort mit einem Wort) und wenige Exam Questions, die aber meist schon mehr oder weniger vorher bekannt waren, da sie so bereits im Kurs diskutiert wurden.
+Anfang September hatten wir die erste Vorlesungswoche, wobei die jeweils ersten Stunden nur zur Vorstellung und Einleitung dienten und noch nichts Inhaltliches besprochen wurde. Die letzten Vorlesungen hatte ich wie auch meine Klausuren in der Woche vom 13.-17. Dezember, die Klausuren htten aber auch noch in der Woche danach stattfinden knnen.
+ Es gibt mehrere Mglichkeiten auf dem Campus zu arbeiten und ich habe immer einen Platz gefunden. Allerdings war ich insgesamt eher selten an der KU zum Lernen, da ich lieber im Caf gearbeitet habe. In der KU gibt es mindestens ein Caf und einen Burger King. Mehr habe ich selber nicht ausprobiert, aber es sollte ein gro§es Angebot vorhanden sein, sodass man problemlos einen Tag auf dem Campus verbringen kann. 
+Ich war einigerma§en negativ berrascht vom Sprachniveau an der Uni. Wenn man im Alltag versucht mit Koreanern Englisch zu sprechen ist es vielen oft unangenehm und sie trauen sich nicht zu antworten. Aber selbst an der KU, die zweitbeste Uni im Land, hatte ich das Gefhl, die meisten Studenten sprechen ungern Englisch und viele tun sich wirklich schwer damit. Selbst manche Dozenten hatten ihre Probleme damit, eine ganze Vorlesung auf Englisch zu halten. Eine meiner Professorinnen hat die ganze Zeit zwischen Englisch und Koreanisch gewechselt und alles was sie auf Englisch gesagt hat noch einmal auf Koreanisch erklrt und ausgefhrt. Dass ich vom Sprachniveau berrascht war hei§t aber nicht, dass das Studieren auf Englisch nicht gut klappt. All meine Dozenten und Mitstudierenden haben sich gro§e Mhe gegeben uns Austauschstudierende (trotz Onlinelehre) zu inkludieren und alles verstndlich zu machen. Au§erdem habe ich mehrfach gehrt, dass Studierende wohl oft schriftlich sehr gut im Englischen sind aber mndlich einfach weniger gebt.
+Es gibt einige Koreanisch Kurse an der Uni, allerdings sind gerade die Anfnger Kurse sehr beliebt und es bekommen nicht alle einen Platz. Ich habe den ãKorean Speaking 1Ò Kurs belegt, der inhaltlich auch bei null startet, aber voraussetzt, dass man das koreanische Alphabet bereits beherrscht. Da ich im Vorhinein bereits einen online Sprachkurs fr die Basics gemacht habe war das kein Problem und der Kurs perfekt fr mich. Ich kann auch jedem empfehlen sich entweder mit einem Kurs oder alleine das Alphabet anzueignen und den Speaking statt dem Anfnger Kurs zu belegen, da der Speakiung Kurs zweimal die Woche stattfindet und der Anfnger Kurs viermal die Woche. Mein Koreanisch Kurs war mit kleinen Hausaufgaben fast der aufwndigste all meiner Kurse und ich war froh ihn nur zweimal die Woche zu haben.</t>
+  </si>
+  <si>
+    <t>Das Studium unterscheidet sich grundlegend von dem Studium in Deutschland. Es ist viel persnlicher auf Grund von kleinen Klassen, viel schulischer mit stndigen Assignments und Quizzes und interaktiver. _x005F_x000D_
+Meine Dozenten kamen alle aus der Wirtschaft und hatten hufig einen Bezug zum Alltag. Zu Beginn scheinen die Assignemnts erschlagend, jedoch verteilt sich der ganze Stoff Mannheims anstelle ein Exam am Ende auf das ganze Semester. Hufig wirkt es als sei es eine Beschftigungstherapie aber das System kommt euch am Ende des Tages zu Gute. Durch das kontinuierliche lernen ist der Stoff permanent prsent und man kann sich alles gute einteilen._x005F_x000D_
+Hier kann euch auch nur die SmokinNotes ans Herz legen. Im Grunde ist dies ein Drittunternehmen, welches Zusammenfassungen fr euch schreibt die das wesentliche der Klausur zusammenfassen. Durch den kontinuierlichen Aufwand habt ihr mehr Zeit fr anderes neben der Uni.</t>
+  </si>
+  <si>
+    <t>Das Studium an der Uni ist sehr unterschiedlich zu was wir in MA gewohnt sind. Es sind immer kleine Klassen von 30-40 Studenten. In manchen Kursen hat man Anwesenheitspflicht, wo man am Anfang der Kursen Unterschrieben muss, aber bei anderen ist es dem Lehrer egal. In allen meinen Fchern war es so, dass die Endklausur 70% meine Endnote gezhlt hat, und die restlichen 30% von Abgaben whrend des Semesters.  Man hat also schon whrend des Semesters bisschen mehr zu tun, und man muss z.B auch aufpassen, wenn man Flge bucht, das man dann an diesem Tag keine Prsentation hat oder so (aber wenn man frh genug dem Lehrer Bescheid sagt, kann er auch dein Prsentationstermin ndern.). Das Niveau ist aber schon deutlich geringer als in MA, sodass ihr euch auf keinen Fall Sorgen machen msst. Zudem ist der Stundenplan nicht zu voll, sodass man auch noch genug Zeit fr Aktivitten hat. _x005F_x000D_
+Die Kurse fangen meistens in der 2. Oder 3. Septemberwoche an und ende enden kurz vor Weihnachten. Die Klausuren sind aber erst im Januar, meistens so ab dem 8. Jan, sodass man dann in den Ferien Zeit hat zum Lernen.</t>
+  </si>
+  <si>
+    <t>Bei der Wahl der Kurse sollte man darauf achten, dass diese tatschlich in dem betreffenden Semester angeboten werden, d. h. im HWS ist es das cuatrimestre C1 und im FSS das cuatrimestre C2. Klickt man auf einen Kurs, kommt man ber ãGua acadmicaÒ zu der PDF Datei mit allen Informationen zu dem Seminar. 
+Alle Kurse finden mindestens zwei Mal wchentlich statt, knnen bis zu 120 min andauern und werden von ein bis zwei Dozenten betreut. Im zweiten Fall, unterrichtet ein Dozent in der ersten Hlfte des Semesters und wechselt danach mit seinem/r Kollegen/in. Ich habe mich fr den Kurs ãHablas andaluzas y espaol de AmricaÒ entschieden und mchte diesen als Landeskundeseminar anrechnen lassen. Da es sich hierbei um die Varietten des Spanischen in Andalusien und Sdamerika handelt und die Unterschiede berwiegend im Bereich der Aussprache aufzufinden sind, ist das Seminar etwas phonologie-lastig und theoretischer als man denkt, aber dennoch interessant, da man das andaluz der Einheimischen hiermit etwas besser ãentziffernÒ kann. Die Dozenten selbst sprechen kein Standard-Spanisch. Das verlangt vor allem anfangs etwas erhhtes Konzentrationsvermgen. Whrend der erste Dozent zwar etwas streng und verschult, aber dennoch verstndlich und mit Power Point unterrichtet hat, hatte der andere Dozent eine unbersichtliche und wenig effektive Unterrichtsfhrung. Er hat nicht nur sehr oft ber irrelevante Themen gesprochen, sondern lange Monologe gehalten - ohne die Untersttzung von Medien (Tafel, PP). Beides hat mich, als Nichtmuttersprachlerin, sehr frustriert, weil ich die Zeit als verschwendet wahrgenommen habe. Auch die Referate meiner spanischen Kommilitonen waren wegen der unterschiedlichen Ausdrucksweise des andaluz etwas schwer nachvollziehbar. Vergleichsweise verlangt dieses Seminar auch viel: Ein Referat, eine Buchrezension und eine Klausur. Doch alles ist machbar, wenn man die Zeit gut einteilt! Auf die Klausur konnte man sich mit den Handouts und Zusammenfassungen der Referate und den Power Point Prsentation der Dozenten trotz allem gut vorbereiten. Noch wei§ ich nicht, ob der Kurs an der Universitt anerkannt wird. Ich gehe aber davon aus.
+Der andere Kurs ãProsa de ficcin en el Siglo de OroÓ habe ich aber im Laufe des Auslandssemesters entfernen lassen. Der Dozent ist sehr freundlich, ist recht gut zu verstehen, redet aber viel und verwendet keine PPP. Er scheint beliebt und seine Klausur anscheinend recht machbar zu sein. Wegen seiner langen und nicht medienuntersttzten Monologe und der lteren und langen Werke habe ich mich gegen das Seminar entschieden. 
+Um zu erfahren, ob die Kurse angemessen sind und somit spter anerkannt werden knnen, solltest du mit dem Fachvertreter deines Studienganges sprechen. Mache frhzeitig einen Termin aus. Bringe hierzu deinen Laptop mit der Online-Kursauswahl der UHU (s. o. oder aktuelle Version) und das ausgedruckte Anrechnungsformular der Universitt Mannheim zur Eintragung und Unterzeichnung mit. Danach vereinbare ein Termin bei deinem Ansprechpartner im International Office. Dort solltest du die ntigen Formulare (Learning Agreement und Anrechnungsformular) unterzeichnen lassen und  den Scan des Learning Agreements, samt Application Form, online an deinen Koordinator an der UHU innerhalb der festgesetzten Frist schicken. 
+El Carmen ist der gr§te Campus der Universitt Huelva. Er befindet sich im Norden der Stadt und liegt somit etwa 3 km von dem Stadtzentrum entfernt. Man kann dorthin zu Fu§ gelangen in etwa 45 min oder den Bus nehmen. Das International Office ist die erste Anlaufstelle und sollte als bald nach Ankunft aufgesucht werden. Es ist in dem Gebude Edificio Administrativo aufzufinden. Dort unterzeichnet der Koordinator das Arrival Certificate (das Formular der Heimatuniversitt sollte man ausgedruckt mitbringen). Meine Kurse (Hispanistik: Literatur, Landeskunde) fanden beide in dem Gebude Jacobo del Barco im El Carmen statt. Studierende mit dem Studiengang Wirtschaft lernten allerdings auf dem Campus La Merced, der sich in der Nhe der Innenstadt befindet. Der Campus La Rabida liegt etwa 11 km vom Stadtzentrum entfernt. Die Mensa befindet sich auf dem Campus El Carmen und befindet sich gegenber dem Gebude Edificio Administrativo. Das Essen hier soll aber vergleichsweise teurer sein. Es empfiehlt sich in dem naheliegenden Einkaufscenter Holea zu frhstcken (100montaditos).  
+Die UHU hat fr jeden Studierenden einen kostenlosen Sprachkurs in den Niveaustufen A1, A2, B1, B2 und C1 angeboten. Dieser fand zwei Mal die Woche statt, dauerte jeweils etwa zwei Stunden lang an und endeten mit Prfungen im Mai (FSS). Leider hat mich die didaktische Umsetzung sehr enttuscht, da einige Unterrichtsmethoden unsinnig waren und die Lehrkraft, wenn auch sehr freundlich, nicht selten abgelenkt war.  Ich habe aus diesem Kurs nicht viel mitnehmen knnen und mich oftmals gelangweilt.</t>
   </si>
   <si>
     <t>Das Studium in Frankreich allgemein ist ein Witz. 
-Vorlesung (CM): Der Prof kommt rein, setzt sich vorne hin und liest ca 60-70 Minuten sein Skript vor, alle Leute tippen wie im Diktat Wort für Wort mit. Es gibt keine Fragen, keine Powerpoint und das Skript wird selbstverständlich nicht hochgeladen. 
-Grade am Anfang kriegt man sicherlich ein bisschen Panik weil man natürlich niemals so schnell mitkommt wie die Franzosen, ist aber nicht weiter schlimm. Du fragst in der letzten oder vorletzten Vorlesung vor der Prüfung jemanden nach seinen Aufzeichnungen (wen ist egal, es ist ja sowieso immer Wort für Wort das selbe) und lernst damit. 
+Vorlesung (CM): Der Prof kommt rein, setzt sich vorne hin und liest ca 60-70 Minuten sein Skript vor, alle Leute tippen wie im Diktat Wort fr Wort mit. Es gibt keine Fragen, keine Powerpoint und das Skript wird selbstverstndlich nicht hochgeladen. 
+Grade am Anfang kriegt man sicherlich ein bisschen Panik weil man natrlich niemals so schnell mitkommt wie die Franzosen, ist aber nicht weiter schlimm. Du fragst in der letzten oder vorletzten Vorlesung vor der Prfung jemanden nach seinen Aufzeichnungen (wen ist egal, es ist ja sowieso immer Wort fr Wort das selbe) und lernst damit. 
 Der Vorteil an dieser Art von "Vorlesung" ist, dass das Niveau gottlos niedrig ist und der Stoffumfang pro Semester eher der von 4-5 Wochen an der Uni Mannheim.
-Es gibt auch TD, das sind quasi AG's aber mit schriftlichen Hausaufgaben. Die werden von Assistenten geleitet, die allerdings auch in Anzug kommen und sich siezen lassen. Von denen wurde mir abgeraten, was ich von dem was ich von anderen gehört habe nur unterstützen kann. Wenn du Freizeit und Spaß möchtest, wähl kein TD
+Es gibt auch TD, das sind quasi AG's aber mit schriftlichen Hausaufgaben. Die werden von Assistenten geleitet, die allerdings auch in Anzug kommen und sich siezen lassen. Von denen wurde mir abgeraten, was ich von dem was ich von anderen gehrt habe nur untersttzen kann. Wenn du Freizeit und Spa§ mchtest, whl kein TD
 Der Vorteil an dieser Art von Vorlesung</t>
   </si>
   <si>
-    <t>Das Kursangebot an der FGV EBAPE war sehr breit gefächert und umfasste viele interessante Themen. Das Niveau der Kurse war jedoch recht unterschiedlich. Einige Kurse waren sehr anspruchsvoll, während andere eher oberflächlich waren. Die Prüfungsarten waren ebenfalls sehr unterschiedlich und reichten von Klausuren über Hausarbeiten bis hin zu Gruppenprojekten. Die Vorlesungszeiten waren recht lang mit 3 ½ Stunden. Das Auslandssemester ist in zwei Trimester unterteilt. Auf dem Campus gab es eine Mensa, in der man günstig essen konnte, und auch Arbeitsmöglichkeiten waren vorhanden. Das englische Sprachniveau der Dozenten und Studierenden war generell sehr hoch.</t>
-  </si>
-  <si>
-    <t>Meine Kurse waren jeweils in ein Seminar und eine Vorlesung aufgeteilt. Die Seminare fanden immer on campus statt, während die Vorlesungen online waren. Ich hatte also sechs Veranstaltungen pro Woche und war dankbar, trotz COVID, die Hälfte der Zeit an der Uni sein zu können. Die Swansea Uni ist viel praxisnaher ausgerichtet als die Uni Mannheim. Ein Unterschied ist auch, dass eine Vorlesung immer nur 60 Minuten dauert. Auf dem Campus selbst gibt es einen kleinen Supermarkt namens costcutter und eine Cafeteria im ersten Stock. Außerdem gibt es das JC's (eine coole Bar mit Karaoke Veranstaltungen) Die Dozenten und Professoren ware alle super hilfreich und freundlich. Ich habe mich daher sehr wohl gefühlt. Wichtig zu erwähnen ist, dass es in Swansea zwei Campi gibt und man je nach Studiengang auf dem Bay Campus (östlich) oder dem Singleton Campus (westlich) ist.</t>
-  </si>
-  <si>
-    <t>Die Kurswahl fand am 5. Juli statt. Die Registrierungsphase für die Kurse geht etwas über eine Woche lang, es ist aber zu empfehlen, dass man sich, wenn es los geht sofort für die Kurse anmeldet. Die Plätze sind sehr beschränkt und es gibt vor allem bei den englischsprachigen Kursen eine sehr hohe Nachfrage. Ich habe alle meine gewählten Kurse bekommen._x005F_x000D_
-_x005F_x000D_
-An der Uni sind die meisten Austauschschüler Deutsche und Franzosen, also landet man sehr schnell in Gruppen der eigenen Nationalität. Die lokalen Studenten suchen nicht wirklich Kontakt zu den Austauschstudierenden, meine Wahrnehmung liegt aber auch daran, dass in den Kursen die auf Englisch unterrichtet werden kaum Spanier sind. Wer also lokalere Bekanntschaften schließen will, sollte sich an die spanischen Kurse halten.</t>
-  </si>
-  <si>
-    <t>Die Universität an sich hat ein sehr breites Kursangebot in dem für jeden etwas dabei ist. Ursprünglich hatte ich mich für diese Universität entschieden, da es super Angebote für den klinischen und forensischen Bereich gab. Jedoch habe ich im Laufe des Jahres nach der Bewerbung angefangen mich immer mehr für den wirtschaftlichen Bereich zu interessieren, sodass ich im Endeffekt nur einen offiziellen Psychologiekurs und vier BWL Kurse belegt habe. Diese entsprachen aber teilweise dem Bereich der Arbeits  und Organisationspsychologie in Mannheim. Generell fande ich das Niveau ähnlich wie in Mannheim, aber es war deutlich mehr Arbeit. Vor allem für zwei meiner BWL Kurse hat sich die Note aus zum Teil 10 verschiedenen Sachen zusammengesetzt (Midterm, Final, Präsentationen, Mitarbeit und kleinere Assignments). Man sollte sich vor allem darauf einstellen bereits von Anfang des Semesters an durchgehend zu arbeiten. Vorgeschrieben ist ein Minimum von drei und ein Maximum von fünf Kursen, welches ich voll genutzt habe. Die Vorlesungszeiten beschränken sich auf 80 anstatt 90 Minuten und generell sind die Kurse interaktiver als in Mannheim (eher mit Seminaren zu vergleichen). Schön ist es auch, dass das Herbstsemester genau deckungsgleich mit dem HWS in Mannheim ist, sodass es keine große Umstellung war und man sogar noch eine Woche Anfang Oktober frei hatte. Da ich vier BWL Kurse belegt hatte, habe ich die meiste Zeit in der Odette School of Business verbracht, wo es genügend Lernmöglichkeiten und ein kleines Café gab. Die Atmosphäre war oft sehr entspannt und nach einiger Zeit habe ich festgestellt, dass man dort auch immer wieder die gleichen Leute trifft, wodurch auch Freundschaften zu Kanadiern entstanden sind, mit denen ich keinen Kurs gemeinsam hatte. Generell war es schon sehr praktisch auf dem Campus zu wohnen, da Laufwege sich 5 Minuten beschränkt haben und man sich auch immer mit Freunden zum Essen treffen konnte und es das Sozialleben sehr aufgewertet hat. Meine gesamten Kurse waren auf Englisch, was jedoch überhaupt kein Problem war, da ich sehr gut mitgekommen bin. Bei schriftlichen Abgaben gibt es auch auf dem Campus die Möglichkeit den Writing Support zu nutzen. Das sind ganz liebe Menschen, die Studenten in ihren Assignments unterstützen dort werden auch verschiedene Sprachkurse kostenlos angeboten, die ich jedoch nicht genutzt habe.</t>
-  </si>
-  <si>
-    <t>Das Semester in den Niederlanden ist in 2 Blöcke aufgeteilt. Pro Block ist es angestrebt, dass man 2 Kurse à 7,5 ECTS belegt. Dies scheint auf den ersten Blick gut machbar stellte sich aber etwas schwieriger heraus als man denken würde. Beispielsweise ist das Niveau der Uni sehr hoch und es ist auch verpflichtend viel Literatur zu lesen, da diese auch in Klausuren abgefragt wird. Anders als in Mannheim sind auch viel mehr wöchentliche Abgaben und Zwischenprüfungen vorhanden, was dazu führt, dass es nicht eine große Klausurenphase gibt, sondern konstant immer etwas anfällt. Der Mehrwert des Lernens ist dadurch zwar größer, jedoch finde ich es aber anstrengender konstant Leistung bringen zu müssen, wie als in einer Klausurenphase in Mannheim. Die Anerkennung der Kurse war gut machbar, sodass ich für jede Veranstaltung in Mannheim eine entsprechende Veranstaltung in Utrecht finden konnte. Das Notensystem in den Niederlanden reicht von 0 -10, wobei die Noten 10 und 9 so gut wie nicht vergeben werden. Zum Bestehen benötigt man eine 5,5. Leider ist dies nicht wirklich in der Notenumrechnung berücksichtigt, weshalb es schwer ist sehr gut zu sein, wenn man das Erasmus Leben voll auskosten möchte. Der Sozialwissenschaftliche Campus befindet sich im de Uithof, welcher wie eine eigne kleine Stadt aufgebaut ist. Neben Uni finden sich dort eine Pizzeria, ein Friseur, ein Supermarkt, eine Arztpraxis, mehrere Cafés und vieles mehr.</t>
-  </si>
-  <si>
-    <t>Das Studium und generell der Studienalltag unterscheiden sich stark von Mannheim, wobei ich persönlich die NHH bevorzuge. Die Unterteilung erfolgt auch in Sommer und Wintersemester, wobei das Wintersemester von August bis Dezember geht. Anzumerken ist hierbei, dass die Klausurenphase an der NHH sehr lang ist. Im Wintersemester ging diese von Mitte November bis vor Weihnachten. Die Vorlesungszeit endet Anfang November. Die Klausuren für Bacheloraustauschstudierenden fanden jedoch fast alle Mitte/Ende November statt, sodass man Ende November fertig war. Zweittermine gibt es nicht. Lernen kann man entweder in der Bibliothek oder in den Leseräumen, welche 24/7 mit dem Studierendenausweis zugänglich sind. Auch Hatleberg hat einen eigenen Studyroom. Für Gruppenarbeiten können Uni-räume online gebucht werden, was sehr praktisch und nützlich ist, da sehr viel wert auf Gruppenarbeit gelegt wird. Essen konnte man in der Mensa kaufen, aber ich musste relativ wenige Vorlesungen besuchen, weswegen ich immer Zuhause essen konnte. Es wird eine Kaffeeflatrate von der Mensa angeboten. Für 350 NOK (circa 40 Euro) konnte ein wiederverwendbarer Thermobecher erworben und das ganze Semester über kostenlos mit Kaffee und Tee aufgefüllt werden. Leider war der Kaffee ungenießbar, weshalb ich empfehlen würde, lieber die Kaffeeflatrate von der Tankstelle neben der Uni zu nutzen. 
-Nun zu den Kursen. Diese werden mir von der Uni Mannheim nach vorheriger Absprache anerkannt. Da jeder Kurs 7,5 ECTS Punkte gibt, müssen vier Kurse belegt werden um auf die geforderten 29ECTS zu kommen. Für jeden Kurs sind dabei zwei Blöcke in der Woche á 90 Minuten vorgesehen. Übungen und Tutorials gibt es nicht, diese sind in die Vorlesungen integriert. Anwesenheitspflicht bestand nur bei einem Kurs. Zusammenfassend kann ich sagen, dass die Vorlesungen deutlich interaktiver gestaltet sind indem viel Wert gelegt wird auf Diskussionen und Gastvorträge aus der Wirtschaft sowie praktische Anwendung durch Case Studies. Um für die Prüfung zugelassen zu werden, musste man im Laufe des Semesters kleine Aufsätze als Hausaufgabe schreiben oder Gruppenarbeiten und Präsentationen machen. Diese wurden aber sehr milde bewertet und haben mir sehr bei der Prüfungsvorbereitung geholfen. Die Prüfungsleistung unterscheidet sich von Kurs zu Kurs und kann ein Home Exam sein, ein Written School Exam, eine mündliche Prüfung oder ein Group Term paper sein. In den Kursen sind meistens nur 20-40 Studenten und die Beziehung zu den Professoren ist viel persönlicher. Wir haben uns gegenseitig mit dem Vornamen angeredet und bei Fragen waren sie immer sofort verfügbar, ob per Email, nach dem Unterricht oder in ihrem Büro. Die englischsprachigen Kurse werden hauptsächlich von Internationals belegt, wodurch man hier auch kaum Kontakte zu Norwegern knüpfen kann.</t>
-  </si>
-  <si>
-    <t>Das Kursangebot war für mich eher beschränkt. Dennoch habe ich für die IKW- Module etwas gefunden, was ich mir anrechnen lassen kann. Ich habe mich hierbei für Anglistik entschieden und habe die Kurse Focus on Sweden und Cultural Studies and Academic Writing belegt. Da man um einen Wohnheimplatz zu bekommen, mindestens 30 credit points belegen muss habe ich mich des Weiteren für English A Literature und Swedish Language for Beginners entschieden. In allen meinen Kursen, die auschießlich über das ganze Semester liefen und nicht wie normalerweise üblich in Schweden in verschiedene Abschnitte unterteilt sind, musste ich mehrere kurze Assignements, vergleichbar mit Essays, abgeben. In dem Schwedisch Sprachkurs wurde am Ende des Semesters eine Prüfung geschrieben und in dem Kurs Focus on Sweden wurde ein zusätzliches Referat gefordert. Das Sprachniveau in Englisch ist in Schweden sehr hoch. Die Lehrer waren zu großem Teil Muttersprachler englisch und auch die meisten Studenten in den Kursen kamen aus englischsprachigen Ländern.  Das Niveau der Seminare war angemessen. Es wurden viele Gruppenarbeiten gemacht und viel Vorbereitung zu Hause gefordert, weshalb das Engagement von der eigenen Person abhing. Die Englischkurse hatten Anwesenheitspflicht. Bei Nichterscheinen wurde eine Ausgleichsaufgabe gefordert. Focus on Sweden und der Schwedischkurs hatten keine Anwesenheitspflicht. Das Niveau des Schwedischkurses war einfach, weshalb es jederzeit möglich ist, ihn neben dem normalen Studium zu belegen und einen Einblick in die Landessprache zu erlangen.
-Zu den angebotenen Kursen ist zu sagen, dass die Umeå University vor allem eine wissenschaftliche Universität ist und ihr Schwerpunkt nicht auf den Geisteswissenschaften liegt. Somit ist die Kurswahl in diesem Feld sehr beschränkt.
-Die Kosten für Essen auf dem Campus sind im Vergleich zu den normalen Preisen in der Stadt in Ordnung. Eine günstige Mensa wie in Deutschland gibt es nicht. Es gibt zwei indische Restaurants mit Buffet für umgerechnet in etwa acht Euro und eine Mensa mit Buffet die für Studenten sieben Euro kostet. Kleinere Essensportionen wie beispielsweise ein Sandwich oder Gemüsepie kosten ungefähr fünf Euro. 
-Ein großes Problem für die Anerkennung von Kursen ist das Notensystem in Schweden, das nur aus den drei Noten VG, G, U besteht, was übersetzt pass with distinction, pass und fail heißt und eine Umrechnung in das deutsche Notensystem erschwert. Ohne eine Prozentangabe ist es somit nicht einfach für die Heimuniversität, eine Note festzulegen, die der Leistung des Studenten entspricht.</t>
-  </si>
-  <si>
-    <t>Das Kursangebot an der PolyU ist vielseitig, vor allem, weil man 50% (also 2 Kurse) auch von anderen Departments nehmen kann. Diese werden auch großzügig von der Uni Mannheim anerkannt. Beim Screenen der Kurse wird man aber auch schnell feststellen, auf was man Lust hat und auf was weniger, sodass die engere Auswahl später übersichtlich aber gut ist. 
-Wie an allen Unis im Ausland ist das Studium etwas aufwändiger als in Mannheim, da es fast überall Anwesenheitspflicht gibt und regelmäßig Abgaben, Quizze oder Mid-terms stattfinden. Ich hatte in zwei von fünf Kursen Mid-Terms, eines open-book online, das andere closed book in Präsenz. Diese machen 20-30% der Gesamtnote aus.   
-Austauschstudierende verbringen in Hong Kong das Semester von Ende August/Anfang September bis Mitte Dezember. Die ersten beiden Wochen sind die sogenannte Add-and-Drop-Phase, in der die ersten Vorlesungen und Übungen stattfinden, man aber noch verschiedene Kurse besuchen kann, um herauszufinden, welcher Kurs oder ProfessorIn/ÜbungsleiterIn einem gefällt. Zum Ende dieser zwei Wochen muss man dann online angeben, in welchen Kurs oder Kursblock man möchte. Der Stundenplan, den man nach der ersten Wahl zugeteilt bekommt, muss also nicht der finale sein, sodass man sich während der ersten zwei Wochen auch noch Kurse umlegen kann, um vielleicht einen Tag mehr frei zu haben. 
-Die Vorlesungen finden häufig mit integrierten Übungen statt. Die Blöcke sind meist über 1,5 bis 3 Stunden, was etwas anstrengend werden kann. Pausen werden von den Dozierenden sehr unterschiedlich eingerichtet. Aber nach einer Zeit gewöhnt man sich an alles. 
-Das Campusleben ist im Vergleich zu Mannheim unfassbar vielseitig. Ständig finden Festivals, Messen oder Kulturveranstaltungen statt. Manchmal bekommt man davon im Vorhinein gar nichts mit, sondern sieht dann nur die Stände auf dem Campus. Dabei gibt sich die PolyU größte Mühe und designt für jede Veranstaltung eigene Banner, Aufsteller und Stände. In meinem Semester gab es zum Beispiel einen Initiativenmarkt, ein Cultural Diversity-Festival und eine Karriere Messe. 
-Auch sonst ist auf dem Campus immer viel los und man trifft ständig Austauschstudierende auf dem Weg zur Vorlesung oder in der Mensa. Die PolyU hat insgesamt 16 verschieden Cafés und Mensen, die alle unterschiedlich gut und teuer sind. Mit der Zeit findet man heraus, was einem liegt. Das vegetarische oder gar vegane Angebot ist dabei aber leider sehr limitiert, was aber überall in Hong Kong der Fall ist. Außerdem gibt es auf dem Campus Sportstätten (Freibad, Tennis-Plätze, Sporthallen, Gym), einen 7Eleven (kleiner Supermarkt) und Bankfilialen.  
-Das Visum erlaubt nicht, in Hong Kong zu arbeiten. 
-Es mag am Anfang schwerfallen, manche DozentInnen zu verstehen, mit der Zeit gewöhnt man sich aber an das Englisch mit Akzent, sodass man das meiste versteht. Ab und zu kann es jedoch sein, dass Rückfragen nicht ganz richtig verstanden werden, da muss man einfach Geduld mitbringen und immer wieder nachhaken. Insgesamt ist das Sprachniveau aber bei den Lehrenden deutlich besser als bei den Studierenden, da die meisten Studierenden aus Hong Kong oder Mainland China kommen und dort weniger Wert auf die Kommunikation in Englisch als auf das Schriftliche gelegt wird. Dafür gibt es aber auch Studierende, die wirklich gutes Englisch sprechen. 
-Die Uni bietet sehr viele Sprachkurse und andere Angebote an, bei denen man seine Sprachkompetenzen verbessern kann. Meist ist es aber so, dass das Niveau der Deutschen Studierenden besser ist als das der Locals. So kann man zum Beispiel auch SprachpartnerIn für Locals werden und so auch in Kontakt mit ihnen kommen.</t>
-  </si>
-  <si>
-    <t>Das Studium in Großbritannien hat mir insgesamt gefallen. Die Qualität der Kurse war gut und die Lehrenden waren mehr als nur bemüht und auch auf einer persönlichen Ebene ansprechbar. Dennoch lag der Anspruch deutlich unter dem was ich aus meinem Master- und auch des Öfteren aus meinem Bachelorstudium in Mannheim gewöhnt war. Darüber hinaus könnte es für künftige Austauschstudierende der Universität von Interesse sein, dass es in den sozialwissenschaftlichen Fächern quasi immer möglich ist eine Hausarbeit statt einer Klausur zu Semesterende zu schreiben, was ich sehr empfehlen kann. Die sogenannten Essays allerdings sind sehr anders aufgebaut als die typische empirische Hausarbeit in Mannheim. Es lohnt sich durchaus zu den Dozentinnen und Dozenten in die Sprechstunde zu gehen und nachzufragen, was genau erwartet wird und dabei klarzumachen, dass man neu im System ist (Gleiches könnte für die Klausuren gelten). Letztendlich kommt es vor allem auf gute Literaturrecherche und arbeit an. Darüber hinaus ist es wichtig, sich über tagesaktuelle Politik zu informieren, schließlich heißt der Bachelor auch Politics und nicht Political Science. Für Großbritannien sind hier vor allem The Guardian und die BBC großartige Quellen, wobei man natürlich weniger linke Stimmen nicht vernachlässigen darf, ganz gleich ob Qualitätspresse oder Tabloids. Neben meinem Studium habe ich außerdem freiwillig Veranstaltungen für Graduate Students besucht, die Tipps zum systematischen forschen und Arbeiten verfassen gegeben haben, was mir auch für meine Masterarbeit etwas gebracht hat.</t>
-  </si>
-  <si>
-    <t>Die Informationen zum Studium waren ausreichend. Lediglich die Pass or Fail Option war uns im Vorhinein nicht bekannt, falls dies bestehen bleibt wäre eine Aufklärung hierüber wünschenswert.</t>
-  </si>
-  <si>
-    <t>Das Kursangebot an der SDSU ist sehr vielfältig und man hat oftmals mehrere Angebote desselben Kurses zu verschiedenen Uhrzeiten. Die Kursstruktur an der SDSU unterscheidet sich etwas von der einer deutschen Universität. Oft gib es wöchentliche Hausaufgaben (bei mir vor allem in den BWL-Veranstaltungen, Statistik-Veranstaltungen und in den Sprachkursen), mehrere quizze pro Kurse, ein midterm sowie ein final exam. Dass führt dazu, dass man während dem Semester etwas mehr Zeit in die Vorbereitung/Nachbereitung der Kurse stecken muss. Alles in allem ist mir das amerikanische Studium aber sehr leicht gefallen._x005F_x000D_
-Die Vorlesungszeiten ähneln sehr stark der Universität Mannheim, mit den folgenden Unterschieden. Das Herbst-/Wintersemester sowie das Frühjahrssemester fangen etwas früher an (ca. zwei Wochen) und das Frühjahrssemester endet etwas früher (ca. Anfang Mai)._x005F_x000D_
-Auf dem Campus selbst gibt es diverse Essensmöglichkeiten, jedoch keine klassische Mensa. In den drei food-courts findet man unterschiedliche fast-food-Ketten die entweder klassisch, fettiges Essen oder auch gesunde Optionen anbieten. Durchschnittliche zahlt man um die $10 für ein Essen auf dem Campus. Eine andere Option wäre ein sogenannter meal plan wobei man eine bestimmte Anzahl an Punkten für ein Semester kauft. Mit diesen Punkten kann man auf dem Campus in ausgewählten Ketten (z.b. Chipotle und die anderen Großen sind nicht enthalten) Essen kaufen. Da ich selbst keine meal plan hatte und auch fast keinen kannte, der diese Option gewählt hat, kann ich dazu nicht mehr sagen._x005F_x000D_
-Als letzter Punkt sind noch die zusätzlichen Kosten an der SDSU oder generell an amerikanischen Universitäten anzusprechen. An der SDSU muss man eine Krankenversicherung kaufen, da sie dort nur die Auslandskrankenversicherung vom DAAD anerkennen (meines Wissens nach kann dies von Uni zu Uni variieren). Diese Krankenversicherung kostete ca. $1400 für ein ganzes Jahr oder die Hälfte für ein Semester. Zusätzlich kommen noch die Kosten für die Lehrbücher dazu. Diese lagen bei mir ca. zwischen $20 bis zu $200 pro Buch, abhängig vom jeweiligen Kurs und Buch. Bei den BWL-Veranstaltungen brauchte ich immer eine bestimmte Nummer um auf einer Website einen Account für die Hausaufgaben zu aktivieren. Für diese Nummer musste man sich natürlich eine neue Version des Buches kaufen. Ich habe oftmals gehört, aber nie selbst erfahren, dass die Professoren manchmal eine bestimmte Anzahl an diesen Nummern herausgeben können. Daher empfiehlt es sich auf den Professor zuzugehen und diesen einfach einmal zu fragen.</t>
-  </si>
-  <si>
-    <t>Das System an der VU Amsterdam unterscheidet sich sowohl von den Semesterzeiten, als auch vom Workload während des Semesters. Da das Studium in drei Perioden unterteilt ist, konzentriert man sich auf 2 bis maximal 3 Fächer in 8 Wochen. Man hat die Möglichkeit das Semester in zwei Perioden, also vor Weihnachten schon zu beenden, wenn man in einer Periode 3 anstatt 2 Fächer belegt. Dadurch hat man in dieser Zeit etwas mehr zu tun, ist aber definitiv schaffbar.
-Je nach Fach, hat man im Vergleich zu Mannheim eine Endnote, die nicht nur aus Endklausur, sondern auch aus Assignments während der Vorlesungszeit besteht. Diese nehmen viel Aufwand in Anspruch, sind aber eine gute Möglichkeit, seine Endnote zu verbessern. Generell legt VU Amsterdam viel Wert auf Teamarbeit und Präsentationen, um eine ausgeglichene Bewertung zu erzielen.
-Der Campus befindet sich abseits der Innenstadt in Amsterdam Zuid, hat aber alles was es braucht. Eine Kantine mit sehr gutem Essen als auch zwei Cafés sind auf dem Campus zu finden. In der Bibliothek findet man immer einen Platz zum Lernen.</t>
-  </si>
-  <si>
-    <t>Das Kursangebot an der Maynooth University ist sehr breit gefächert und als Erasmus-Student darf man aus jeder Fakultät Kurse wählen. Es stehen allerdings nicht alle Kurse für International offen. Dies ist aber sehr eindeutig und übersichtlich in der Kursangebotsübersicht, die von der Maynooth University zur Verfügung gestellt wird, dargestellt. 
-Der Nordcampus, auf welchem der überwiegende Teil der Veranstaltungen stattfindet, ist in großen Teilen sehr modern und angenehm. Der Südcampus ist eher für großartige Fotos gedacht. Die Einrichtungen für studierende sind zahlreich. Die Qualität der Sitzplätze der Universität ist besonders im Vergleich mit der Schneckenhofbibliothek an der Universität Mannheim allerdings schlecht.
-Das Angebot der Mensa kann fast als unterirdisch beschrieben werden. Die Portionen sind klein, bestehen nur aus ungesunden Mahlzeiten und beginnen bei einem Preis von 7. Ich kannte keinen einzigen Erasmusstudenten der hier mehr als eine Mahlzeit eingenommen hat. Durch einen Aldi, der direkt neben dem Campus liegt und Mikrowellen in den Aufenthaltsräumen auf dem Campus ist dies aber kein Problem. Auch ein Sandwichcafé auf dem Campus wurde eher zur Anlaufstelle der Wahl in diesem Fall. 
-Vom Sprachniveau her muss man sich überhaupt keine Sorgen machen, das Englisch der Dozierenden ist sehr verständlich. Die Vorlesungen enden vor Weihnachten und als Erasmusstudent, der nur ein Semester in Maynooth verbringt, hat man auch zu diesem Zeitpunkt schon seine Prüfungen.</t>
-  </si>
-  <si>
-    <t>Das Studium an der Lingnan University variiert qualitativ sehr von Kurs zu Kurs. Als Liberal Arts Uni bietet sie eine allumfassende Grundbildung. Das heißt, manchen Bereichen fehlt es dafür vielleicht an Tiefe (so gibt es z.B. eine Vorlesung namens World History). Je nachdem, was man möchte, ist das nicht unbedingt schlecht. Umso interessanter sind an der Lingnan University die interdisziplinären Kurse. Außerdem werden alle Kurse in relativ kleinen Gruppen gehalten (bis zu 25 Studenten). Die Professoren werden meist beim Vornamen genannt und man geht auch mal zusammen einen Kaffee trinken. Dieses enge Studenten  Professoren Verhältnis hat mir besonders gut gefallen am Studium in Hongkong._x005F_x000D_
-_x005F_x000D_
-Um noch ein bisschen mehr mit Locals in Kontakt zu kommen, bin ich dem Ruderteam der Uni beigetreten  und das hat sich wirklich gelohnt. Hier wurden Freundschaften geschlossen und ein paar Pfunde weggerudert. Das Sportangebot ist wirklich vielfältig (Rugby, Basketball, Volleyball, Karate, ...). Die Teams werden zu Semesterbeginn überall beworben. Man muss sich nur für eins entscheiden. Training ist in der Regel zwei bis dreimal pro Woche, jeweils 2,5 Stunden.</t>
-  </si>
-  <si>
-    <t>Zunächst muss ich sagen, dass es die Summer School gibt, die zwei Wochen vor der Uni beginnt und eine prima Möglichkeit ist andere Leute kennenzulernen. Ich habe sie leider nicht besucht, weiß aber, dass sie einen guten Start in das Auslandssemester bietet. _x005F_x000D_
-Der universitäre Alltag beginnt Mitte August mit der Orientierungswoche, in denen sich die verschiedenen Departments vorstellen, darunter auch die Fachschaften oder der kirchliche Dienst. Sehr interessant waren auch die Tipps zum Kulturschock und der Umgang mit der Dunkelheit, versehen mit dem Hinweis das man Hilfe in Anspruch nehmen kann sobald man mit den Umständen nicht zurechtkommt. Auch hier sind die Möglichkeiten andere Studierende kennenzulernen sehr gut, weshalb ich jedem empfehlen würde die Veranstaltungen zu besuchen. Auch sehenswert ist die Eröffnungszeremonie, die in Finnland einen hohen Stellenwert genießt und sehr formell ist._x005F_x000D_
-Was die Kurswahl angeht, so gibt es ähnlich viele Kurse wie in Mannheim. Ich konnte mich zwischen acht Kursen in Politikwissenschaft entscheiden. Interessant hierbei ist, dass man im Zuge des s.g. Open-University Programms auch Kurse von ganz anderen Fakultäten belegen kann, wenn es die Anrechnung zulässt. Auch besteht die Möglichkeit, Kurse die offiziell nicht im Semester angeboten werden, zu belegen. Dafür macht man ein Book-exam, in denen man vom Dozenten eine Klausur oder Hausarbeit zu bestimmter Literatur erhält. So ist man ein wenig flexibler, auch wenn die Anrechnung scheinbar keine anderen Kurse hergibt. Insgesamt haben mir die Themen sehr gut gefallen, ich hatte das Gefühl das man sich intensiver mit Texten beschäftigt und die Dozenten viel Wert darauf gelegt haben, das man sie im Seminar auch verstanden hat. _x005F_x000D_
-Das Niveau war ähnlich wie in Mannheim, jedoch lag der Fokus weniger auf der Methodik, sondern auf dem Inhalt, was ein höheres Arbeitspensum zur Folge hatte. Pro Kurs bekommt man in der Regel 5 ECTS, falls man sich einen Kurs als Master anrechnen lassen möchte, sogar bis zu 10 Credits. Der Unterschied liegt dann darin das die Abschlussarbeit noch etwas umfangreicher ist, ansonsten jedoch der Stoff gleich ist._x005F_x000D_
-Bei den Prüfungen ist man in Finnland recht flexibel. Von der klassischen Klausur bis hin zum computergestütztem E-exam ist alles dabei. Ich musste sowohl bei meinen Kursen zwei Assignments abgeben als auch ein Learning Diary schreiben, was recht erfrischend war und wöchentliche Arbeit vorausgesetzt hat. Alles in allem waren die Prüfungsmöglichkeiten sehr vielseitig und man konnte schnell herausfinden, welche Form einem am besten lag. _x005F_x000D_
-Im Gegensatz zur Universität Mannheim ist dort jedes Semester in zwei Perioden aufgeteilt, in denen jeweils einzeln oder zusammen die Kurse stattgefunden haben. Bei Kursen die nur eine Periode andauerten, war der Arbeitsaufwand etwas höher um die verlorene Zeit wettzumachen. Zwischen den Kursen gibt es zwar offiziell keine Pausen, tatsächlich sind die ersten und letzten 15 Minuten aber als Pausen ausgelegt._x005F_x000D_
-In Tampere sind alle Universitätsgebäude auf dem Campus, sowie auch die vier Mensen und die Sporteinrichtungen. Die Mensen kann man uneingeschränkt empfehlen, die beste befindet sich jedoch neben der Bibliothek. Für kleines Geld bekommt man hier ein Hauptgericht, einen Salat, frisches Brot und ein Getränk. Ich war nahezu jeden Tag dort zum Mittagessen, das Preis-Leistungsverhältnis war einfach zu gut! Auch das Sportprogramm ist ausgezeichnet, man bezahlt einen halbjährlichen Beitrag und kann an jedem Kurs teilnehmen sowie das Fitnessstudio nutzen. Da alles so zentral gelegen ist, bietet sich ein kleines Workout am Ende des Unialltages regelrecht an. _x005F_x000D_
-Falls man Hilfe benötigt oder andere Fragen hat, kommt man in Finnland mit Englisch sehr weit. Nahezu jeder in der Stadt beherrscht es und man kann sehr gut damit zurechtkommen. Auf dem Land ist es teilweise schwieriger, aber falls nicht helfen andere auch gerne weiter. Zu den finnischen Sprachkursen kann ich leider nichts sagen, da bei uns das Interesse so hoch war das per Zufall entschieden wurde, wobei ich leider nicht zugelassen wurde. Einige Freunde heben mir aber mitgeteilt, dass es recht schwer sei dem Stoff zu folgen und der Lernerfolg sich nicht einstellen wollte, was aber auch am Charakter der Sprache liegt. Falls man eine andere Sprache lernen möchte, gibt es dort auch eine große Auswahl, egal ob für Neueinsteiger oder Fortgeschrittene.</t>
-  </si>
-  <si>
-    <t>Die Lehre an der HEC ist ausgezeichnet, und ich kann die Uni nur empfehlen. Das liegt zum einen daran, dass die Kurse generell interaktiv sind und näher an der Praxis als in Mannheim. Die Dozierenden sind meist sehr motiviert, ihren Stoff gut zu vermitteln, und gestalten die Vorlesungen abwechslungsreich und spannend. In (meines Wissens) jedem Kurs finden Gruppenarbeiten statt. Manchmal werden Midterms geschrieben, es gibt auch mündliche Noten. Dabei ist zu beachten, dass die Dozenten generell wohlgesonnen sind und gute Noten vergeben, sofern man sich anstrengt. Selbst wenn man sich deutlich mehr anstrengt als die meisten anderen Studierenden, hat man noch mehr als genug Freizeit für Reisen etc. Der Leistungsdruck ist nicht vergleichbar mit dem in Mannheim. Gleichzeitig machen die Kurse Spaß; ich bin immer gerne zu den Vorlesungen gegangen. Die Vorlesungen dauern 3 Stunden, wovon man sich jedoch nicht abschrecken lassen sollte. Es werden immer Pausen gemacht, und die Menge an Stoff übersteigt keinesfalls die einer Mannheimer Vorlesung._x005F_x000D_
-_x005F_x000D_
-Ein paar generelle Anmerkungen: Sucht euch für die Gruppenarbeiten bereits zu Beginn zuverlässige Partner und fragt, ob bei den anderen potenziellen Gruppenmitgliedern die Noten in den GPA zählen. Falls dies verneint wird, würde ich eher mit einheimischen Studenten eine Gruppe bilden. Versucht bereits in der ersten Stunde die Ambitionen eurer potenziellen Gruppenmitglieder zu erforschen, da die Gruppen meist sehr zeitnah gebildet werden müssen. Ich habe darauf geachtet und hatte keine Probleme in Gruppenarbeiten. Das Sprachniveau sollte für keinen Mannheimer ein Problem darstellen. In Montreal ist die Hauptsprache Französisch, auch an der Uni. Es ist jedoch überhaupt kein Problem, kein Französisch zu sprechen. Ich selbst spreche kein Französisch und hatte nie Probleme. Die Mensa ist weniger empfehlenswert; abgesehen von Espresso und Salaten kann ich sie nicht weiterempfehlen. Allerdings ist das weniger bedeutend, da man meistens vermeiden kann, in der Mensa zu essen. Im Zweifelsfall einfach das Mittagessen selbst mitbringen.</t>
-  </si>
-  <si>
-    <t>Zunächst muss ich sagen, dass es die Summer School gibt, die zwei Wochen vor der Uni beginnt und eine prima Möglichkeit ist andere Leute kennenzulernen. Ich habe sie leider nicht besucht, weiß aber, dass sie einen guten Start in das Auslandssemester bietet. 
-Der universitäre Alltag beginnt Mitte August mit der Orientierungswoche, in denen sich die verschiedenen Departments vorstellen, darunter auch die Fachschaften oder der kirchliche Dienst. Sehr interessant waren auch die Tipps zum Kulturschock und der Umgang mit der Dunkelheit, versehen mit dem Hinweis das man Hilfe in Anspruch nehmen kann sobald man mit den Umständen nicht zurechtkommt. Auch hier sind die Möglichkeiten andere Studierende kennenzulernen sehr gut, weshalb ich jedem empfehlen würde die Veranstaltungen zu besuchen. Auch sehenswert ist die Eröffnungszeremonie, die in Finnland einen hohen Stellenwert genießt und sehr formell ist.
-Was die Kurswahl angeht, so gibt es ähnlich viele Kurse wie in Mannheim. Ich konnte mich zwischen acht Kursen in Politikwissenschaft entscheiden. Interessant hierbei ist, dass man im Zuge des s.g. Open-University Programms auch Kurse von ganz anderen Fakultäten belegen kann, wenn es die Anrechnung zulässt. Auch besteht die Möglichkeit, Kurse die offiziell nicht im Semester angeboten werden, zu belegen. Dafür macht man ein Book-exam, in denen man vom Dozenten eine Klausur oder Hausarbeit zu bestimmter Literatur erhält. So ist man ein wenig flexibler, auch wenn die Anrechnung scheinbar keine anderen Kurse hergibt. Insgesamt haben mir die Themen sehr gut gefallen, ich hatte das Gefühl das man sich intensiver mit Texten beschäftigt und die Dozenten viel Wert darauf gelegt haben, das man sie im Seminar auch verstanden hat. 
-Das Niveau war ähnlich wie in Mannheim, jedoch lag der Fokus weniger auf der Methodik, sondern auf dem Inhalt, was ein höheres Arbeitspensum zur Folge hatte. Pro Kurs bekommt man in der Regel 5 ECTS, falls man sich einen Kurs als Master anrechnen lassen möchte, sogar bis zu 10 Credits. Der Unterschied liegt dann darin das die Abschlussarbeit noch etwas umfangreicher ist, ansonsten jedoch der Stoff gleich ist.
-Bei den Prüfungen ist man in Finnland recht flexibel. Von der klassischen Klausur bis hin zum computergestütztem E-exam ist alles dabei. Ich musste sowohl bei meinen Kursen zwei Assignments abgeben als auch ein Learning Diary schreiben, was recht erfrischend war und wöchentliche Arbeit vorausgesetzt hat. Alles in allem waren die Prüfungsmöglichkeiten sehr vielseitig und man konnte schnell herausfinden, welche Form einem am besten lag. 
-Im Gegensatz zur Universität Mannheim ist dort jedes Semester in zwei Perioden aufgeteilt, in denen jeweils einzeln oder zusammen die Kurse stattgefunden haben. Bei Kursen die nur eine Periode andauerten, war der Arbeitsaufwand etwas höher um die verlorene Zeit wettzumachen. Zwischen den Kursen gibt es zwar offiziell keine Pausen, tatsächlich sind die ersten und letzten 15 Minuten aber als Pausen ausgelegt.
-In Tampere sind alle Universitätsgebäude auf dem Campus, sowie auch die vier Mensen und die Sporteinrichtungen. Die Mensen kann man uneingeschränkt empfehlen, die beste befindet sich jedoch neben der Bibliothek. Für kleines Geld bekommt man hier ein Hauptgericht, einen Salat, frisches Brot und ein Getränk. Ich war nahezu jeden Tag dort zum Mittagessen, das Preis-Leistungsverhältnis war einfach zu gut! Auch das Sportprogramm ist ausgezeichnet, man bezahlt einen halbjährlichen Beitrag und kann an jedem Kurs teilnehmen sowie das Fitnessstudio nutzen. Da alles so zentral gelegen ist, bietet sich ein kleines Workout am Ende des Unialltages regelrecht an. 
-Falls man Hilfe benötigt oder andere Fragen hat, kommt man in Finnland mit Englisch sehr weit. Nahezu jeder in der Stadt beherrscht es und man kann sehr gut damit zurechtkommen. Auf dem Land ist es teilweise schwieriger, aber falls nicht helfen andere auch gerne weiter. Zu den finnischen Sprachkursen kann ich leider nichts sagen, da bei uns das Interesse so hoch war das per Zufall entschieden wurde, wobei ich leider nicht zugelassen wurde. Einige Freunde heben mir aber mitgeteilt, dass es recht schwer sei dem Stoff zu folgen und der Lernerfolg sich nicht einstellen wollte, was aber auch am Charakter der Sprache liegt. Falls man eine andere Sprache lernen möchte, gibt es dort auch eine große Auswahl, egal ob für Neueinsteiger oder Fortgeschrittene.</t>
-  </si>
-  <si>
-    <t>Mir hat das Studium an der NHH insgesamt sehr gefallen. Das Kursniveau ist ein wenig unterhalb von Mannheim, was mich erleichtert hat. So war ich weniger gestresst und konnte besser meinen Auslandssemester genießen. Die Kurse sind in kleineren Gruppen als in Mannheim unterrichtet, was einen größeren Austausch zwischen den Studenten und den Professoren ermöglicht. In vielen Kursen waren wir nicht mehr als 20 Studenten im Saal. So entstand eine Bindung zu den Professoren, die es in Mannheim schwieriger zu kriegen ist. _x005F_x000D_
-Die Kursauswahl ist relativ groß und viele Fächer werden auch von der Uni Mannheim anerkannt. Die Prüfungsarten sind unterschiedlich für die Verschiedene Kurse. In vielen Kurse muss man Gruppenarbeiten und Papers abgeben, um bei der Endprüfung zugelassen zu werden. Dies hat mir anfangs ein wenig Angst gemacht, da wir in Mannheim nicht gewohnt sind in Englisch Papers abzugeben. Doch ich war erleichtert zu sehen, dass es gar nicht so schwer war und habe Hilfe von anderen Austauschstudenten bekommen, die mir die formalen Sachen erklärt worauf man achten musste. Die Gruppenarbeiten sind relativ gut gelaufen. Es gibt natürlich immer Studenten die sich weniger in einer Arbeit investieren als andere, aber insgesamt war die Mehrheit der Studenten engagiert eine gute Arbeit in der Gruppe zu leisten. Es ist auch wichtig sich bei solchen Gruppenaktivitäten zu investieren, da es oft für die Endklausur relevanter Stoff ist. Allgemein, wenn man über das Semester im Unterricht gut mitgemacht hat, sind die Klausuren am Ende ohne Probleme zu schaffen. _x005F_x000D_
-Das Semester fängt schon Mitte August an und ist auch Mitte Dezember wieder zu Ende. Dies fand ich eine ganz gute Zeit, da man auch vor Weinachten wieder zu Hause ist und die Klausurenphase auch schon rum ist. Das Semester fängt mit einer Einführungswoche an, die ich sehr empfehle. Es war wirklich eine sehr schöne Zeit, wo ich viele nette Leute kennen gelernt habe. _x005F_x000D_
-Ein Punkt weshalb ich mich für Norwegen für mein Austauschsemester entschieden habe, war, dass alle Leute dort sehr gut Englisch reden. Überall wo man geht, kommt man mit Englisch sehr gut zurecht. Sogar in allen Supermärkten konnten die Kassierer Englisch und waren gegenüber Ausländer sehr freundlich.</t>
-  </si>
-  <si>
-    <t>Die Queen's University of Belfast ist eine wirklich gute Universität und ist dazu noch wunderschön. Die School of Law wurde erst neu gebaut und ist daher sehr modern. In der unteren Etage befindet sich das "Junction", das Uni Café. Das Studium an der Queen's hat mir sehr gut gefallen. Die Kurse sind sehr viel kleiner als in Mannheim und daher sind mehr Diskussionen möglich. Durch die Größe der Kurse ist es einem auch möglich locals kennenzulernen. Außerdem sind die Professoren und Dozenten ziemlich informell und man spricht jeden mit Vornamen an.</t>
-  </si>
-  <si>
-    <t>An der CBS sind pro Semester 4 Kurse á 7.5 ETCS zu belegen. Kurse werden entweder über das ganze Semester angeboten oder gehen nur ein Quartal lang (also entweder Quartal 1 von September bis zu den Ferien, oder Quartal 2 beginnend nach den Ferien bis Dezember). Bei Quartal 2 Kurse empfiehlt es sich darauf zu achten, dass man keine Prüfungen hat, wenn man die Semesterferien für ein Praktikum nutzen möchte. An der CBS gibt es keine separaten Übungen und Vorlesungen sondern normalerweise 3 Stunden Vorlesungen mit integrierten Übungen. Außerdem gibt es an der CBS viele verschiedene Prüfungsformen. Dominierend sind 4 Stunden sit-in Examen, home-assignments und Oral Exams. Ich selber hatte ein 4 Studen sit-in Examen, ein 7 Tage home-assignment, ein home-assignment mit darauf basierender mündlicher Prüfung und eine mündliche Prüfung. Generell ist zu sagen, dass die home-assignments und mündlichen Prüfungen einfacher sind als die sit-ins. Jedoch hängt die Schwierigkeit der Prüfung eher von der Kurswahl ab als von der Prüfungsform.</t>
-  </si>
-  <si>
-    <t>-schulischer, viele Abgaben (Aufsätze, Vorträge) während des Semesters_x005F_x000D_
--kommt aber auch darauf an welche Fächer man wählt (BWL eher Fokus auf Endklausuren, bei den sprachlichen Modulen Vortrag/Aufsatz und Endprojekt)_x005F_x000D_
+    <t>Die Javeriana gehrt zu den besten und teuersten Privatunis in Kolumbien. Dementsprechend ist sie auch ausgestattet mit allem, was man sich nur vorstellen kann. Das Sportangebot reicht von Schwimmen bis traditionellem Tanz, der Campus hat mehrere Cafs, ist wunderschn grn und so gro§, dass man sich dort am Anfang fter mal verluft. Das Studium an sich unterscheidet sich stark von dem, was man aus Mannheim gewohnt ist. Das Verhltnis zwischen Studierenden und Professoren und Professorinnen ist sehr viel persnlicher und die Kurse um einiges kleiner (Max. 30 Personen). Au§erdem gibt es eine Anwesenheitspflicht und man schreibt insgesamt drei mal Prfungen pro Semester. Zustzlich gibt es Hausaufgaben und unangekndigte Tests. Das hrt sich jedoch nach mehr Arbeitsaufwand an als es schlussendlich ist. Die Klausuren sind mit einer Woche Vorbereitung sehr gut zu schaffen, auch die Hausaufgaben nehmen meist nicht viel Zeit in Anspruch. Insgesamt wrde ich sagen, dass das Niveau niedriger ist als in Mannheim aber mit der fremden Sprache und der Hufigkeit der Leistungsabfrage kommt man in etwa auf den selben Arbeitsaufwand wie in Mannheim. Die Kurse, die man bei der Anmeldung angibt, sind auch die, die man belegen wird. Es sind allerdings in der ersten Woche noch Wechsel mglich und man kann sich auch von Kursen abmelden, wenn man sie nicht mag bzw. sie zu schwer sind. Man wird verpflichtet mindestens 9 Credits zu belegen. Meine Empfehlung ist daher, sich noch einen Kurs mehr auszusuchen, so dass man einen Kurs, der einem nicht gefllt, noch abbrechen kann. Desweiteren sind alle nicht Muttersprachler dazu verpflichtet, einen Spanischkurs dort zu belegen. Insgesamt muss ich sagen, dass ich anfangs etwas genervt war von der verschulten Lehrart. Das hat sich jedoch gendert und gegen Ende habe ich die familire Atmosphre sehr geschtzt. Gerade bei Problemen mit der Sprache bekam man immer Hilfe von den Professoren und sie gingen insgesamt total verstndnisvoll mit etwaigen Problemen um. Fr Probleme stehen einem ansonsten auch das ORI (Oficina de Relaciones Internacionales) immer zur Seite. Fr medizinische Probleme gibt es ein Gesundheitszentrum fr physiologische wie psychologische Hilfe.</t>
+  </si>
+  <si>
+    <t>Die Business Fakultt befindet sich mittlerweile am zentralen Campus der Aalto Universitt etwas au§erhalb von Helsinki, jedoch ausgezeichnet mit der Metro in 15 Minuten von der Innenstadt Helsinkis erreichbar. 
+Das Studienjahr ist in 5 Perioden eingeteilt (2 im HWS, 3 im FSS). Ein 6 ECTS-Kurs geht blicherweise ber eine Periode (es gibt wenige Ausnahmen). Jede Periode besteht aus 6 Wochen Vorlesung und einer anschlie§enden Prfungswoche. 
+Ich habe die Kombination 1:1:1 gewhlt, also in jeder Periode einen 6 ECTS-Kurs. Wenn man sich zu 100% auf die Uni konzentriert, kann man aber durchaus auch drei oder sogar mehr Kurse pro Periode whlen. Ich empfand die Abwechslung aus Uni, Freizeit und Reisen jedoch als u§erst angenehmen, insbesondere da mein letzter Kurs nur ber eine halbe Periode ging und ich deshalb die letzten 4 Wochen des Semesters frei hatte.
+Prfungen knnen an der Aalto University auch nach Bestehen wiederholt werden. Die jeweils bessere Note wird dann ausgewhlt. Grundstzlich wird an der Uni jedoch vielmehr Wert auf Leistungsnachweise whrend der Vorlesungszeit gelegt. Sowohl Case Studys (individuell, in Gruppen, In-Class), Prsentationen, Workshops oder Learning Diaries gehren zum Studienalltag. In jedem meiner Kurse war es erforderlich, Vorlesungen entweder vorzubereiten (Reading von Papern und reflektieren der wesentlichen Erkenntnisse) oder nachzubereiten (was hat man in der Vorlesung gelernt, wie kann man das auf sein Berufsleben anwendenÉ). So hatte ich in einem Kurs gar keine Klausur sondern nur die eben genannten Leistungsnachweise. Diese Art von Learning Diaries besteht pro Vorlesung aus etwas 1 bis 2 Seiten. 
+Es gibt keine Anwesenheitspflicht, jedoch ist die Anwesenheit und aktive Teilnahme ebenfalls Bestandteil der Gesamtnote.</t>
+  </si>
+  <si>
+    <t>Das Studium in Schweden ist in verschiedene Semesterzeiten eingeteilt. Manche Kurse laufen nur ber 6 Wochen, sind aber intensiver als manche Kurse die 15 Wochen gehen. Man wird online von der Linnaesuniversitt nochmal darber informiert, wie das Semester sich genau aufteilt. Die Dozenten werden dort mit dem Vornamen angesprochen und selber duzen sie die Studenten auch. Die Kurse sind etwas einfacher als in Deutschland, doch man muss dort in kurzer Zeit meist sehr viel lesen, um in den Kursen mitzukommen._x005F_x000D_
+Es werden im Semester zwei Schwedischkurse angeboten, einen A1 1 Kurs und einen darauf folgenden A1 2 Kurs.</t>
+  </si>
+  <si>
+    <t>Die Uni bietet viele Kursen fr Austauschstudenten an. Die Kurse werden in Level 1 bis Level 4 untergeteilt. Uni Glasgow bietet viele ntzliche Informationen bei Kursauswahl. Die Prfungsarten sind Arbeitschreiben, Prsentation, Klausuren. Es gibt 2 Semester in einem Jahr. Manche Lehrveranstaltungen gibt es nur in Semester 1 oder 2. Es gibt mehrere Mensen in der Uni. Die Preise sind teurer als in Mannheim. Mit short time study visa darf man nicht arbeiten. Die Vorlesungen sind auf Englisch. Ich denke, C1 fr Englisch ist ausreichend.</t>
+  </si>
+  <si>
+    <t>Man kann generell sagen, dass das Niveau niedriger als in Mannheim ist und man auch mit deutlich weniger Aufwand sehr gute Noten erzielen kann. VWL Studenten mssen bei der Kurswahl ein bisschen drauf achten, welche Kurse sie sich anrechnen lassen knnen, da bei manchen Kursen an der UNCG das technische Niveau zu niedrig. Generell hatte ich aber mit einem BWL-Fach, einem Politikwissenschafts-Fach und drei VWL-Fchern keine Probleme auf 30 ECTS zu kommen. Die Unterrichtsart unterscheidet sich stark von der Mannheimer. Es muss in nahezu jedem Fach ein wchentliches Assignment abgegeben werden, hinzu kommen meist 2-3 Midterms und ein Final am Ende des Semesters. Im Endeffekt hrt sich das aber stressiger an, als es tatschlich ist. Es bleibt genug Zeit fr andere Beschftigungen neben dem Studium. Auch die Kursgr§e ist eine angenehme Abwechslung zu den Mannheimern ãGro§veranstaltungenÒ im Grundlagenbereich. Ich hatte bspw. keinen Kurs mit mehr als 20 Teilnehmern.</t>
+  </si>
+  <si>
+    <t>Grundstzlich lsst sich sagen, dass das Studium an der SDSU wesentlich einfacher ist, als in Mannheim. Andererseits fordert es jedoch mehr Arbeitsaufwand whrend des Semesters und ist somit dem deutschen Schulsystem hnlicher als dem Universittsmodell. Dementsprechend setzt sich die Note meist aus mehreren Midterms, Gruppenarbeiten, Hausaufgaben, Mitarbeit und Endklausur zusammen. _x005F_x000D_
+Bezglich der Kurswahl macht es Sinn, sich vorher mit dem SDSU Portal vertraut zu machen und einen Stundenplan aufzustellen. Hierbei ist es oft mglich, die Anwesenheit auf nur 2 bis 3 Tage am Campus zu limitieren. Die Kursvergabe ffnet zu einem bestimmten Zeitpunkt und verluft nach dem first come, first serve Prinzip. In der Regel belegt man 5 Kurse mit jeweils 3 Units. Um sicherzustellen, dass mglichst viele Wunschkurse zugeteilt werden, macht es aber Sinn, sich anfangs fr 6 Kurse einzuschreiben und innerhalb der ersten 2 Vorlesungswochen einen zu droppen. Sobald man fr die Kurse zugelassen wird, hat man Zugriff auf den Syllabus, der den Inhalt des Kurses zusammenfasst und wichtige Deadlines fr Abgaben, als auch Termine fr die Klausuren enthlt. Au§erdem fordern fast alle Professoren den Kauf von Lektren. Hier kann man durch etwas Recherche nach Online, PDF oder Gebrauchtversionen viel Geld sparen. _x005F_x000D_
+_x005F_x000D_
+Bezglich des Essensangebots auf dem Campus, gibt es keine einheitliche Mensa, sondern viele einzelne Essen- und Fastfoodketten. Wenn man bereit ist etwa 8-10$ auszugeben ist eigentlich alles von vietnamesisch und Sushi, ber Hamburger bis hin zu Salat und Pizza zu finden.</t>
+  </si>
+  <si>
+    <t>Die Kurse sind in Blcken organisiert, dauern in der Regel nur 1-3 Wochen und enden mit einer Prfung oder Prsentation. Das macht es sehr leicht freie Zeit zum Reisen zu finden (es herrscht Anwesenheitspflicht). Die Kurse sind (offensichtlich) sehr Finanz lastig und werden meist von Gastprofessoren aus dem Ausland gehalten. Die Englischkenntnisse der Professoren ist sehr gut, dass Niveau ist leicht unter dem der Uni Mannheim, schwankt aber stark je nach Kurs. Man muss also schon etwas Zeit investieren und bekommt die Noten nicht geschenkt, ist aber dank der Blockstruktur mehr als machbar vom Workload. Au§erdem wird fr Austauschstudenten ein kostenloser Chinesischkurs angeboten (6 Stunden pro Woche) der auch sehr empfehlenswert ist. Die Mensa bietet 7 Tage die Woche 3 Mahlzeiten am Tag. Das Essen ist lecker und es gibt eine gro§e Auswahl, die sich allerdings hufig wiederholt. Ein Mittagessen kostet ca. 10 CNY.</t>
+  </si>
+  <si>
+    <t>-	Wenn man als Austauschstudent an der Uni Maastricht kommt, wird einem zur Zeit der Kurswahl angeboten das Programm der ãMinorsÒ zu belegen. Ich belegt den Minor ãEuropean StudiesÒ weil die Hauptveranstaltungen und Seminare mit meinen Aufbaumodulen IB und VR passten und ich die behandelten Themen interessant fand. Da ein Uni-Semester in Maastricht in drei Perioden aufgeteilt wird, hat man jede Periode eine VL und ein dazu gehriges Tutorium. Ich wrde behaupten dass die VL genau so anspruchsvoll sind wie die in Mannheim, wenn nicht sogar ein bisschen entspannter, da die Minor-Kurse max. 40 bis 50 Personen ausmachen und ein direkter Kontakt mit den Professoren: innen mglich ist. Wenn es zu den passenden Tutorien kommt, welche zwei Mal pro Woche stattfinden, kann man sagen, dass diese anspruchsvoller sind als Pro- oder sogar Hauptseminare an der Uni Mannheim sind. Durch das PBL-Prinzip (Problem-Based-Learning) ist eigenstndiges Arbeiten und das stndige Beteiligen innerhalb der Tutorien essenziel. Zwar gibt es Tutoren, welche oft Dozenten oder Professoren der Uni sind, jedoch stehen die nicht in der Mitte und sprechen ber ein Thema, sondern die Studierende sollen miteinander die Themen der VL besprechen und darber diskutieren. Der Vorbereitungsaufwand fr diese Tutorien ist auf sehr hoch. Vor jedem Tutorium muss man die entsprechende Literatur gelesen und bearbeitet haben (man muss fragen explizit beantworten). Durchschnittlich musste ich fr jedes Tutorium 70 bis 100 Seiten lesen, und das x2, da man zwei Tutorien pro Woche hat, bzw. x3 weil man auch noch Skill-Kurse belegen kann, welche einmal pro Woche stattfanden. Mit lesen von verbringt man viel Zeit in Maastricht_x005F_x000D_
+_x005F_x000D_
+Whrend meines Aufenthaltes hatte ich als Prfungsleistungen Hausarbeiten und Take-Home/Open-Book Exams/Essays. Da sich die Maastricht University auf Qualitative-Methoden spezialisiert musste ich fr die Hausarbeiten keine Statistik anwenden. Was wichtig ist, ist dass die Notenverteilung in Maastricht strenger ist als in Mannheim. Dort gibt es eine 10-Skaler fr Noten, 10 ist die beste Note und mit 5 hat man nicht mehr bestanden. Eine 10 zu erreichen ist sehr schwierig, also ist die nchstmgliche Note, die man realistisch erreichen kann durch sehr gutes Arbeite ein 9 bzw. 9.5. Die Uni legt sehr viel Wert auf das wissenschaftliche Arbeiten in den Prfungsleistungen sowie das richtige Formatieren der Dokumente und Zitieren ist auch sehr wichtig, wenn man eine gute Note erreichen will._x005F_x000D_
+_x005F_x000D_
+Die meisten Kursen, die in den verschiedenen Minors angeboten werden, knne in Mannheim sehr gut als IB-Leistungen anerkannt werden. Manche Kurse werden auch unter Absprache als VR-angerechnet.</t>
+  </si>
+  <si>
+    <t>Die UofT gilt als die beste Uni Kanadas und dementsprechend sollte man sich darauf einstellen, gut anpacken zu mssen. Das Kursniveau ist meiner Meinung nach vergleichbar zu Mannheim, jedoch muss man unter dem Semester sehr viel mehr machen, was dann aber auch eine deutlich entspanntere Klausurenphase mit sich bringt. Auch wenn die Uni einen ca. ab der dritten Woche viel beansprucht, ist in meinem Fall gengend Freizeit geblieben, um anderen Aktivitten nachzugehen. Trotzdem war es nicht einfach, Uni und Freizeit miteinander zu verbinden und das sollte einem bei der Bewerbung bewusst sein. Prfungsarten gibt es viele. Ich hatte Klausuren, Essays, Quizze und Prsentationen. Klausuren machen jedoch meistens hchstens 50% aus. Das Kursangebot ist sehr gro§, gerade was die fachfremden Kurse angeht. Im BWL-Bereich wrde ich empfehlen, einen Blick auf die Special Topics Kurse zu werfen, welche jedes Semester aktualisiert werden und viele interessante Themen bieten. _x005F_x000D_
+_x005F_x000D_
+Die Kurse, die ich belegt habe, hatte ich in der Modulrckmeldung eingereicht, worin mir besttigt wurde, dass diese den Anforderungen entsprechen._x005F_x000D_
+_x005F_x000D_
+Die Vorlesungen starten Anfang September und enden Anfang Dezember. Dann hat man noch etwas Zeit sich auf die Final Exams vorzubereiten, die dann den Fall Term abschlie§en. Im November ist noch die vorlesungsfreie Reading Week, die man gut zum Reisen nutzen kann._x005F_x000D_
+_x005F_x000D_
+Auf dem Campus gibt es einige Bibliotheken sowie Mglichkeiten was zu essen oder zu trinken, eine klassische Mensa gibt es jedoch nicht. Die Robarts Library ist beliebt und praktisch fr mich gewesen, da sie nah am Tartu College war. Ich wrde aber empfehlen, auch andere Bibliotheken mal aufzusuchen wie z.B. Gerstein._x005F_x000D_
+_x005F_x000D_
+Das Sprachniveau in den Kursen ist hoch, jedoch sollte das einen nicht abschrecken. Wenn man es bis hierhin geschafft hat, wird man sich schnell einfinden knnen.</t>
+  </si>
+  <si>
+    <t>Die erste Herausforderung des Auslandssemester war wohl fr alle das Erstellen des Stundenplans, da es an der UCA blich ist, dass alle Kurse zweimal zwei Stunden pro Woche stattfinden. Deswegen kommt es sehr hufig zu berschneidungen. Allerdings gewhrt die Uni jedem ca. zwei Wochen ÒBedenkzeitÓ, in denen man alle Kurse, die einen interessieren, besuchen kann und danach entscheiden darf, ob man diese auch wirklich belegen mchte. Das Studium an der UCA unterscheidet sich doch ziemlich von dem im Mannheim, da alles sehr verschult ist. So gibt es bei fast allen Kursen Anwesenheitspflicht und oft ist es auch so, dass man eine Note auf die Mitarbeit bekommt. Das spanische Pendant zu unserem Ilias in Mannheim ist der CampusVirtual, wo nicht nur Vorlesungsfolien, sondern auch kleine Aufgabenstellungen hochgeladen werden, welche man bearbeiten muss. Zustzlich zu den ÒnormalenÓ Kursen an der Uni habe ich einen C1-Sprachkurs des Centro Superior de Lenguas Modernas belegt, der von Montag bis Freitag jeweils zweistndig war. Dieser Kurs wird auch fr andere Sprachniveaus angeboten und ich empfehle ihn wirklich jedem!</t>
+  </si>
+  <si>
+    <t>An der LUISS Guido Carli luft alles ein bisschen anders, als man es von zu Hause gewohnt ist. Es gibt keine festen Zeitslots fr die Seminare und auch keine festgelegte Lnge, jeder Professor entscheidet mehr oder weniger selbst, wann und wie lange er oder sie lehren mchte und es ist nicht ungewhnlich, ein Seminar zwei mal in der Woche zu haben. Mein eines Seminar war am Freitagsmorgen von 8:45-11:45 Uhr, mein anderes am Dienstag von 16:00-18:30 Uhr und Mittwoch von 14:00-16:00. Das hei§t, dass man bei der Zusammenstellung seines Stundenplans sehr darauf achten muss, dass man keine sich berschneidenden Kurse whlt, obwohl die Auswahl sehr gro§ und vielfltig ist. Fr die Kurse (und die Prfungen) meldet man sich ber ein Onlineportal an und die ersten zwei Vorlesungswochen sind als Orientierungsphase konzipiert, whrend denen man alle Kurse besuchen kann, fr die man sich interessiert, bevor man sich endgltig entscheidet. Danach knnen Kurse nur noch abgegeben, aber keine neuen Kurse mehr gewhlt werden.
+Im Vergleich zu deutschen (und nordeuropischen) Universitten gibt es in Italien deutlich weniger Vorgaben fr Leistungsnachweise, was frustrierend sein kann, weil man einfach nicht wei§, was von einem erwartet wird. Damit muss man leben knnen, sonst ist Italien nicht das richtige Land fr einen Auslandsaufenthalt, aber mit den Noten sind im Allgemeinen alle zufrieden. Alle Kurse an der LUISS Guido Carli schlie§en mit einer mndlichen Prfung, die den meisten Erasmusstudenten ebenfalls sehr ungewhnlich erscheint: Alle Prflinge kommen zur gleichen Zeit und sitzen im Raum und der Professor (oder die Professoren) prfen einfach vorne im Raum, whrend alle zuhren. Offenbar soll durch die +ffentlichkeit der Prfungen die Fairness der Examen sichergestellt werden.
+Die LUISS Guido Carli hat mehrere Computerrume, in denen kostenlos gedruckt werden kann. Leider gibt es kaum Lernrume fr Studenten und insbesondere Gruppenarbeitsrume fehlen, aber zumindest im Sommer (der bis Ende Oktober geht) kann man den weitlufigen Au§enbereich der Universitt nutzen, wo es mehr als genug Platz gibt.
+Die Seminare an der LUISS Guido Carli sind deutlich praxisorientierter als man es von vielen deutschen Universitten gewohnt ist und der Fokus liegt mehr auf Faktenwissen und der Anwendung des Erlernten, als auf Theorie und kritischem Denken. Viele der Dozenten kommen aus der Praxis, z.B. ist der Professor fr Diplomacy ein aktiver Diplomat und der Professor fr Security Studies ein General, der als militrischer Berater der italienischen Regierung arbeitet. Das fhrt dazu, dass die Seminare manchmal etwas unstrukturiert erscheinen und didaktisch nicht perfekt sind, aber der Stoff sehr lebendig vermittelt wird. Beispielsweise haben wir in Diplomacy zwei Sessions  3 Stunden mit einer Simulation von Krisengesprchen ber die Situation in Lybien verbracht, bei der wir in "Delegationen" fr zwlf verschiedene Lnder eingeteilt wurden, um eine gemeinsame Resolution zu erarbeiten. Die Professoren haben das Ganze sehr realistisch gestaltet und die Leistung der einzelnen Delegationen ist in die Endnote eingegangen.
+Die LUISS Guido Carli bietet fr alle Austauschstudenten kostenlose Italienischkurse auf unterschiedlichen Niveaus an, die jedoch relativ gro§ sind und daher effektiver sein knnten. Fr alle, die "richtig" Italienisch lernen wollen, bieten sich private Italienischstunden an, die fr unter Û15 pro Stunde zu haben sind.</t>
+  </si>
+  <si>
+    <t>Das Kursangebot im Bereich Politikwissenschaft war nicht sehr gro§, aber es gab schon etwas Auswahl. Da ich bereits alle notwendigen Kurse in Mannheim abgeschlossen habe und mein Auslandsaufenthalt aufgrund von Corona auf das 7. Semester verschoben habe war ich in der Kurswahl sehr frei, da ich nicht vorhatte, mir etwas anrechnen zu lassen. Ich hatte nur eine Vorlesung (mit ber 100 Leuten und ohne Abstands- oder Maskenregeln) in Person an der Uni und die restlichen Kurse online. An sich ist das Niveau der Kurse mit dem in Mannheim vergleichbar, vielleicht sogar etwas niedriger. Es gibt zwar relativ viel Pflichtlektre die aber oftmals nur berflogen werden kann (nach Angaben der Dozierenden selbst). Die Kurse, auch die Vorlesungen, waren etwas interaktiver gestaltet und es gab in fast allen Kursen wechselnde Dozierende oder Gastredner*innen. Es war sehr erfrischend mal ein etwas anderes Vorlesungsformat als in Mannheim zu erleben.Die Kurse und Kursinhalte sind schon frh unter https://www.uio.no/english/studies/courses/ einzusehen und die Online-Plattformen auf denen Kursmaterialien zur Verfgung gestellt werden sind sehr bersichtlich gestaltet. Ich habe mich dagegen Entschieden irgendwelche Pflichtlektre zu kaufen obwohl dies empfohlen wurde, und letztendlich konnte ich dann auch alles online ber die Bibliothek der Uni Mannheim erhalten. Meiner Meinung nach ist es nicht notwendig noch zustzlich 100 Euro pro Kurs in Lektre zu stecken und ich wrde mich informieren ob man die Materialien auch anders erhalten kann bevor man auf Drngen der Dozierenden hin wirklich alle Materialien kauft.Die Orientierungswoche war super organisiert und ich wrde jedem empfehlen daran teilzunehmen. Hierbei wird man in Gruppen eingeteilt (die jedoch komplett aus Austauschstudis im Bereich der Sozialwissenschaften bestehen) und lernt die Stadt und andere Studis kennen. Dadurch habe ich ausnahmslos alle meine Freund*innen mit denen ich in Oslo Zeit verbracht habe kennengelernt. Au§erhalb der Orientierungswoche war es schwer in Leute kennenzulernen, da die meisten Veranstaltungen doch noch online stattfanden und die Prsenzveranstaltung eine Vorlesung war die wenig Kontakt unter Studierenden forderte. An der Uni Oslo gibt es einige Vereine und Initiativen ber die man sicherlich auch mehr Leute, vor allem mehr Norweger*innen, htte kennenlernen knnen, aber in den ersten Wochen gab es noch so viele Angebote der Orientierungswoche, dass ich keine dieser Vereine besucht habe. Es wre sicherlich schn gewesen mehr norwegische Studierende kennenzulernen und etwas aus der ERASMUS-Bubble rauszukommen.An sich war das Studium in Oslo perfekt organisiert und hat gro§en Spa§ gemacht. Die Prfungen fanden alle online und open book statt und wurden meiner Meinung nach sehr nett bewertet. Prsenz-Prfungen wren vermutlich etwas anspruchsvoller gewesen.</t>
+  </si>
+  <si>
+    <t>Wie bereits gesagt unterscheidet sich das Studium in Schweden stark von dem in Mannheim. Zum einen ist das Semester in vier Abschnitte unterteilt, in welchen man entweder je einen Vollzeitkurs oder zwei Teilzeitkurse belegt. Die meisten der Kurse haben deutlich weniger Vorlesungszeit als in Mannheim und verlangen eigenstndiges Auseinandersetzen mit der vorgegebenen Literatur. (was nicht gerade wenig ist und auf keinen Fall unterschtzt werden darf) Auch finden nicht immer am Ende Klausuren statt, sondern die Benotung erfolgt oft durch das Verfassen von einem Paper und Gruppenarbeiten. Fr Austauschstudenten wird eine bestimmte Anzahl an Kursen angeboten, welche vor allem im Bereich Marketing, Management und Finance angesiedelt sind und auch gro§teils von Mannheim anerkannt werden. Das Niveau der Kurse ist schwierig zu vergleichen, allerdings wrde ich sagen, dass es mit weniger Aufwand als in Mannheim leichter ist gute Noten zu erreichen. Alle Austauschkurse werden auf Englisch angeboten und es gibt keinerlei Kommunikationsprobleme, da das Englischniveau in Schweden allgemein deutlich hher ist als beispielsweise in Deutschland. 
+Der Campus der Handelshgskolan liegt direkt neben dem gemtlichen Haga-Viertel, wo es viele kleine Cafes gibt, in denen man eine Kaffeepause einlegen kann. Aber auch die Uni selbst verfgt ber eine gute Mensa, in der frisch gekocht wird (merkt man allerdings auch an den Preisen)</t>
+  </si>
+  <si>
+    <t>Das Studium ist etwas anders als in Mannheim Ð statt stressiger Klausurenphase am Ende des Semesters hat man viele Assignments/Midterms unter dem Semester. Ich empfand es als schulischer, die Professoren kannten einen meist beim Namen und die Kurse waren oft recht klein. Inhaltlich muss ich sagen habe ich mich schon fter gelangweilt, da die Kurse vieles aus Mannheim wiederholen und es in deutlich langsamerem Tempo unterrichtet wird als in Mannheim. Die Auswahl an Kursen ist auch recht begrenzt im Wahlbereich, meist gab es ca. 6 Wahlkurse die fr mich in Frage kamen. Der Arbeitsaufwand und Schwierigkeit hing sehr stark vom Professor ab, es gab 400 Kurse die einfacher waren als 200 Level Kurse.  Generell ist das Studium dort gut zu meistern, man muss halt unter dem Semester mehr Zeit investieren, dafr kann man die Klausurenphase sehr entspannt angehen, die Finals zhlen meist ca. 40% der Note und man kann vieles schon, da man darber schon mehrere Assignments schreiben musste.</t>
+  </si>
+  <si>
+    <t>Das Semester beginnt, genau wie in Mannheim, im September und geht bis Mitte Januar, die Zweittermine sind Anfang Februar. Viele der Klausuren finden bereits vor Weihnachten statt, das kann aber nicht in jedem Fach garantiert werden. Je nach Dozent besteht aber eventuell die Mglichkeit, das zu vereinbaren. 
+Die ãUniversidad de DeustoÒ und die Uni Mannheim unterscheiden sich sehr stark vom Lehrkonzept. Das System hier ist sehr verschult, in den Kursen sind meistens nur circa 40 Studierende. Die Unterscheidung zwischen Vorlesung, bung und Tutorium gibt es hier nicht. Generell werden die Studenten viel mehr in die ãVorlesungÒ mit einbezogen. Es wird auch hufig im Unterricht in kleinen Gruppen gearbeitet. Leider werden in vielen Veranstaltungen die Folien nicht vorher zur Verfgung gestellt.  
+Fast in jedem Fach setzt sich die Endnote hier aus mehreren Kleinteilen wie Abgaben, Prsentationen, Mid-Term Klausuren und Gruppenarbeiten zusammen. Dadurch zhlt die finale Klausur hufig nicht mehr als 40%. Es besteht Anwesenheitspflicht und es wird viel Wert auf Mitarbeit gelegt, diese zhlt teilweise bis zu 15% in die Endnote mit rein.
+Das Niveau wrde ich als geringer als in Mannheim einschtzen. Fr mich war es jedoch eine sehr gro§e Umstellung von unseren gro§en Vorlesungen zu dem verschulten System.
+Ich muss leider sagen, dass ich mit der Organisation, gerade am Anfang, absolut unzufrieden war. Mir sind die kulturellen Differenzen zwischen Spanien und Deutschland durchaus bewusst, was die Organisation und Planung angehen, jedoch ging das meiner Meinung nach drber hinaus. Bei Problemen wollte einem im ersten Moment niemand helfen und man wurde auf spter vertrstet. Bei uns kam die Umstellung von Online auf 100% Prsenzlehre dazu, wodurch alle Stundenplne gendert wurden, was bei fast allen Erasmus Studenten zu berschneidungen gefhrt hat, so dass in der dritten Woche noch nderungen vorgenommen werden mussten. Das war ein sehr stressiger und nervenaufreibender Prozess, wobei nur wenig Hilfestellung gegeben wurde. 
+Spter im Semester war es zumindest etwas strukturierter, jedoch konnte man sich nicht immer zu 100% auf vorgegebene Daten verlassen, so dass die Deadlines von Tests und Abgaben hufig noch kurzfristig gendert wurden. 
+Dadurch, dass viele Leistungen schon whrend des Semesters erbracht werden mussten, habe ich die Klausurenphase als entspannter wahrgenommen. Die Klausuren sind au§erdem auf vor und nach Weihnachten aufgeteilt.</t>
+  </si>
+  <si>
+    <t>Insgesamt musste man als Student der Uni Mannheim vor Ort 5 Kurse belegen, davon 50% zumindest BWL-nah. Durch Covid-19 fanden 2 meiner Kurse in einem Online-Format statt, der Rest mit Beschrnkungen in Prsenz auf dem Campus. Alle Kurse fanden im Commerce-Gebude, der Goodes-Hall statt, das zentral auf dem Campus liegt. Das Gebude selbst ist modern ausgestattet und bietet neben den Vorlesungsslen kleine Rume um in Gruppen zu arbeiten, hnlich den Gruppenarbeitsrumen in den Mannheimer Bibs. Der Unterricht verluft, zumindest in den Kursen die ich belegt habe, in Gruppen von max. 60 Studenten. Das Verhltnis zwischen Professor und Studenten ist meistens eher persnlich und alle Professoren bemhen sich, ihre Studenten beim Namen zu kennen. Zudem sind sie meist sehr zuvorkommend und lassen mit sich reden, sollten Arbeitsauftrge nicht ganz klar sein oder mehr Zeit bentigt werden.  Die Abschlussnote der meisten Kurse setzt sich, prozentual gewichtet, aus verschiedenen Assignments zusammen, die ber das Semester hinweg abgegeben werden mssen. Zudem mssen in manchen Kursen auch Midterms und Finals geschrieben werden. Der Aufwand kann je nach Assignment hoch sein, jedoch lsst sich trotzdem alles schaffen sofern man sich seine Zeit gut einteilt. Zeit fr Freizeitaktivitten am Abend und am Wochenende bleibt in der Regel immer.</t>
+  </si>
+  <si>
+    <t>Studieren in den USA ist eine wirklich schne Sache, die Professoren geben sich ausgesprochen viel Mhe und verweisen auch bei kritischen Fragen nicht auf irgendwelche Ansprechpunkte sondern sehen sich selbst in der Verantwortung, was insgesamt fr eine viel intensivere, offenere und interessantere Lernatmosphre sorgt. Es herrscht Anwesenheitspflicht bei praktisch allen Kursen, die aber gar nicht notwendig wre, denn ich habe ausgesprochen gerne an allen Kursen teilgenommen und allein durch aufmerksames Zuhren und Mitarbeit ist man bereits auf dem besten Weg gute Noten zu bekommen und Klausuren erfolgreich schreiben zu knnen. Dadurch dass man seine Note ber das gesamte Semester hinweg aufbaut und kaum ein Exam oder Paper mehr als 20% der Gesamtnote zhlt herrscht auch deutlich weniger Lerndruck, was sich allgemein positiv auf die Studienerfahrung auswirkt. Au§erdem kann man ber Erfahrungsberichte wie diesen hier und Rumfragen an der Uni sehr gut herausfinden, wie viel Workload in einem Kurs steckt und dementsprechend einen ausgeglichenen Stundenplan zusammenbauen. 
+Au§erdem kann ich nur empfehlen, einer Business Fraternity beizutreten - die sind, anders als regulre Fraternities und Sororities, nicht auf soziale Strukturen fokussiert sondern bieten eine gro§artige Mglichkeit, andere Business Students kennenzulernen, mit ambitionierten Studierenden aus verschiedenen Richtungen in Kontakt zu kommen und aufrichtige Beziehungen aufzubauen.</t>
+  </si>
+  <si>
+    <t>Die Drexel University ist wirklich eine tolle Austauschuniversitt. Das Business Gebude ist bestens ausgestattet, bietet kleine Kurse und die Uni hat eine zentrale Lage im University District, welcher direkt an Center City grenzt. Besonderes Highlight: als Exchange Student kann man das Fitnessstudio der Uni umsonst benutzen. Es ist neu, gut ausgestattet und wurde sogar als ãPhillyÕs Best GymÒ ausgezeichnet. Das Kursangebot in der Kategorie der fachfremden Kurse ist nicht allzu gro§, da es seitens der Drexel University einige Vorgaben gibt, welche Kurse man als Business Exchange Student belegen darf und welche eben nicht. Bei den BWL-Fchern ist Auswahl allerdings gro§ und du findest bestimmt Kurse, die dich interessieren. Alles in allem ist das Kursniveau an der Drexel University geringer als in Mannheim. Das Lernen ist ein anderes, aber meiner Meinung nach ist es einfacher gute Noten zu erhalten. Jede Woche finden kleine Quizzes statt oder es mssen von zuhause Online Tests erledigt werden. Es ist ein kontinuierliches Lernen (also direkt in der ersten Woche anfangen!), aber dafr zhlt das Final exam (wenn es berhaupt in dem Kurs eines gibt) nicht 100%. Die wchentlichen Tests und teilweise auch mndliche Mitarbeit werden ebenfalls in deiner Note bercksichtigt. An der Drexel University ist das Jahr in Quarter aufgeteilt, d.h. du wirst gerade einmal 10 Wochen Uni haben. Einerseits gut Ð es bleibt viel Zeit zum Reisen au§erhalb des Semesters Ð andererseits gibt es in den 10 Wochen auch immer etwas zu tun. Allerdings hlt sich das auch immer im Rahmen und es ist auch mglich whrend der Vorlesungszeit mal am Wochenende zu verreisen (besonders gut in Kombination mit der Montag bis Donnerstag-Woche :) ). _x005F_x000D_
+	_x005F_x000D_
+Auf dem Campus findest du zahlreiche Foodtrucks, an denen du zu fairen Preisen gutes Essen bekommen kannst. Im Business Gebude ist ein Starbucks und auch in der Umgebung sind einige Restaurants und Cafs. Um Essen musst du dir also definitiv keine Sorgen machen!</t>
+  </si>
+  <si>
+    <t>Drexel hat nur Quarter, das hei§t das Auslandsstudium ist mit 10 Wochen relativ kurz. Viele Kurse, die im Kurskatalog angezeigt wurde, wurden letztendlich gar nicht angeboten. Man hat aber immer noch eine gro§e Auswahl, vor allem an fachfremden Kursen. Der Lernstil ist dort anders als an der Uni Mannheim und gleicht mehr dem der Schulzeit. Die Klassen sind kleiner (20-30 Personen) und der persnliche Kontakt mit dem Dozenten ist vorhanden. Der Arbeitsaufwand ist whrend dem Semester gr§er. Es werden wchentlich Assignments, Tests, oder Presentations verlangt, die bereits einen erheblichen Teil der Gesamtnote ausmachen, sodass in der Finals Week wenn berhaupt, teilweise nur noch ein Paper oder eine Klausur ansteht, die 10-20% zhlt. Im Vergleich mit Mannheim ist der Schwierigkeitsgrad gering und die Dozenten sind sehr zuvorkommend, vor allem bei der Benotung. Insgesamt sind Studium und Campus-Leben sehr gut bewltigen. Der Campus bietet viele Freizeitmglichkeiten, wie ein gro§es Fitnessstudio, diverse Sportteams und Initiativen, jede Woche gibt es Veranstaltungen, meistens mit Free Food.</t>
+  </si>
+  <si>
+    <t>Das Studium an der Universitat Barcelona habe ich sehr positiv in Erinnerung. Die Facultat de Filologia, wo ich meine Kurse besucht habe, befindet sich im historischen und ltesten Gebude der Universitt und ist atemberaubend. Besonders der Garten, welcher die Uni umgibt, ist ein sehr ruhiger Ort der zum Lernen, zum Essen und Trinken oder auch zum Katzenstreicheln einldt. Die Bibliothek, die sich im Gebude finden lsst, ist ebenfalls sehr schn und ruhig und es gibt so gut wie immer einen Platz zum Arbeiten._x005F_x000D_
+Die Kursauswahl im Allgemeinen ist sehr vielfltig und ich durfte Kurse in verschiedenen Sprachen belegen, von denen manche sogar dreisprachig waren, da sowohl Spanisch als auch Katalanisch die Muttersprachen der meisten Professoren und Studenten sind und um die 60% der Kurse auf Katalanisch gehalten werden. Ich muss gestehen, dass ich anfangs etwas ãAngstÒ hatte, mit Katalanisch konfrontiert zu werden, aber berraschenderweise empfing ich dies eher als Bereicherung anstatt als Hindernis.  Aufgrund der hohen Vielfalt an Kursen, durfte ich sehr interessante und spannende Themen lernen, die fr mein weiterer Studienverlauf sicherlich ntzlich sein werden. Besonders gut empfand ich die Freiheit, die einem zur Verfgung stand, wenn man Hausarbeiten geschrieben hat, da es keine Formatrichtlinien gibt und man die Themen bzw. Fragestellungen selber auswhlen durfte. Auch das Ziel dieser Arbeiten, eine eigene Meinung zu verfassen anstatt nur runterzuzitieren, empfand ich als sehr erfrischend._x005F_x000D_
+Genauso wie in Mannheim fngt das HWS im September an und endet im Dezember, dennoch schreibt man die Prfungen erst im Januar. Im Februar beginnt dann das FSS, dass sich bis Ende Mai zieht. Man darf zwischen zwei Prfungsformen entscheiden (evaluacin contnua/ evaluacin nica), wobei ich persnlich die evaluacin contnua empfehlen wrde, da man hiermit das ganze Semester lang was zur Gesamtnote beitrgt. Die Noten gehen von 1 bis 10, wobei 10 die hchste Note und 1 die schlechteste darstellt und man mit einer 5 das jeweilige Prfungsfach oder Bewertungsform bestanden hat.</t>
+  </si>
+  <si>
+    <t>Die Uni Jyvskyl hat mir sehr gut gefallen. Das Semester war in zwei Hlften aufgeteilt, wovon man allerdings nicht so viel gemerkt hat, weil die Kurse alle mehr oder weniger willkrlich irgendwann angefangen haben und dann ein paar Wochen gingen. So hatte ich vor allem im Mrz sehr viel zu tun und war Anfang April fast fertig (bis auf einen online-Kurs). Das hngt natrlich davon ab, wie man seine Kurse whlt aber ich wollte mir gerne alles in Mannheim anrechnen lassen, deshalb war ich in meiner Kurswahl nicht ganz so frei. Gerade um zu Reisen war es so aber auch sehr praktisch. Es gibt auch Blockveranstaltungen, wo man einen Kurs dann eine Woche am Stck von morgens bis nachmittags hat. Das ist unpraktisch, wenn es zu viele berschneidungen gibt und man sich fr einen von zwei Kursen entscheiden muss. Allgemein hatte ich das Gefhl, dass die Kurse in Jyvskyl praxisorientierter sind als in Deutschland. Ich hatte viel Gruppenarbeit mit anderen Studierenden und man musste sich eben nicht ãnurÒ in eine Vorlesung setzen und danach eine Klausur schreiben. Andererseits hatte ich auch ein book exam, das hei§t einen Kurs, fr den ich ein Buch gelernt und dann eine Klausur geschrieben hab, ohne irgendeine Form von ãUnterrichtÒ. Ich hatte das Gefhl, dass meine Kurse aufwndiger waren als in Deutschland, aber es war nicht unbedingt schwer eine gute Note zu bekommen. _x005F_x000D_
+Die Atmosphre an der Uni und mit den Dozierenden fand ich sehr angenehm. Ein weiterer gro§er Pluspunkt der Uni sind die Cafeterien. Es gibt mindestens sechs in denen man Mittagessen kann und noch ein paar mehr, in denen es Kaffee und Snacks gab. Das Essen kostet fr Studierende 2,60Û und war immer wirklich gut. Wir sind manchmal nur in die Uni gegangen um zu essen, selbst wenn wir keine Kurse hatten. Au§erdem gab es ein gro§es Angebot an Sportkursen und man kann im Fitnessstudio der Uni kostenlos trainieren.</t>
+  </si>
+  <si>
+    <t>Ich habe in Oslo, wie bereits erwhnt, die drei IKW-Module belegt. In Oslo bekommt man pro Kurs meistens zehn ECTS, allerdings werden nur fnf bzw. sechs jeweils angerechnet in Mannheim, also man muss trotzdem alle drei IKW Kurse machen. Aber die zehn ECTS sind durchaus berechtigt, ich fand die Kurse anspruchsvoller und zeitaufwendiger als in Mannheim, gerade auch deswegen sollte man es bei drei Kursen belassen und nicht zu viele Kurse belegen. Man will ja auch noch Zeit fr Ausflge haben. 
+Das Kursangebot ist sehr breit gefchert. Es war auch kein Problem, Kurse aus anderen Fachbereichen zu whlen. Welche Kurse ich genau belegt habe, ist weiter unten aufgelistet. 
+Schon bei der Wahl der Seminare muss man aufpassen, dass sich die Prfungen nicht berschneiden. Die Prfungstermine stehen von Anfang an fest und knnen auf der Webseite eingesehen werden. Man muss also selbst darauf achten, dass sich die Prfungstermine nicht berschneiden. 
+Meine Kurse fingen Mitte August an und liefen bis Mitte November, Ende November waren schon die Prfungen. Ich fand die Semesterzeiten sehr angenehm, weil man so schon sehr frh mit den Prfungen fertig ist und zum Beispiel noch Zeit zum Reisen hat, die Zeit fr ein Praktikum nutzen kann oder die Weihnachtszeit auch mal genie§en kann.</t>
+  </si>
+  <si>
+    <t>Die Maynooth University hat ein vielfltiges Kursangebot, dass sehr viele Gebiete abdeckt. Es gibt auch einige themenspezifische Kurse zu Irland selbst, die man bei Interesse belegen kann, z.B. in der Literatur, Geschichte, Soziologie etc. Ich habe whrend meines Aufenthaltes den Kurs ãNorthern Irish SocietyÒ belegt, der mir sehr gut gefallen hat, da wir auch einen Ausflug nach Belfast unternommen haben. Allerdings knnte man etwas Verstndnisprobleme mit dem Akzent des Dozenten haben, doch ich habe mich relativ schnell daran gewhnt. Um unsere Kurse belegen zu knnen, mussten wir uns erst die Unterschriften von den jeweiligen Fachgebieten holen. Das Semester hatte zwei Studienwochen, in denen keine Vorlesungen stattfanden, und Osterferien. Dies ist eine gute Zeit das Land und die Leute besser kennenzulernen und ein bisschen zu reisen, wenn die Zeit reicht. Es gibt mehrere Mglichkeiten auf dem Campus zu essen, u.a. Subway und Starbucks. Jedoch hat mir die Phoenix Mensa am besten gefallen. Es werden Sprachkurse vor Ort angeboten und es gibt auch eine Language Society, in der man mit anderen Studenten zusammen seine gewnschte Sprache aufbessern kann.</t>
+  </si>
+  <si>
+    <t>Ich habe hauptschlich Kurse aus den ersten Semestern belegt, weshalb ich vieles davon bereits in Mannheim gehrt hatte, was es mir etwas erleichtert hat. Als Franzsisch-Studierende/r braucht man keine Sorge zu haben, dass man an der franzsischen Uni etwas nicht versteht. Die Dozenten waren alle mehrheitlich sehr nett und waren auch oft bereit, den Nicht-Muttersprachlern etwas genauer zu erklren. Die Klausuren waren allesamt recht einfach gestaltet und ohne gro§en Formalittsaufwand (ganz anders als in Mannheim). Die Prfungsanmeldung geschieht bereits zu Beginn des Semesters und jeder Dozent legt individuell die Prfungsmodalitten fest als auch die Zeiten, zu denen die Klausuren geschrieben werden. Meist durften wir sogar unser eigenes Papier mitbringen. Die Mensa war typisch franzsisch, es gab ein Hauptgericht mit der Mglichkeit, einen Salat oder eine Suppe als Vorspeise zu whlen. Das Dessert bestand meist aus Joghurt oder Cremes, kleinen Trtchen oder anderem S§gebck, wobei ein Men mit Fisch oder Fleisch 3,50 Û kostete. Die vegetarische Variante in Bioqualitt kostete ohne Dessert 4,50 Û, mit Dessert 1 Û mehr.</t>
+  </si>
+  <si>
+    <t>-	Uni (Kursangebot, Kursniveau, Prfungsarten, etc.):_x005F_x000D_
+Das Kursangebot, aus dem gewhlt werden darf in Ansprache mit der Uni Mannheim ist recht gro§. Mein Jahrgang konnte zwischen circa. 18 Kursen whlen. Es gab 2 Arten von Kursen aus denen gewhlt werden konnte. Manche der Kurse, die gewhlt werden konnten, sind verpflichtend fr alle Studenten, die ihren Abschluss an der Nova machen (zum Beispiel Management Accounting fr Management Students). Die anderen Kurse sind Electives, aus denen auch die normalen Nova-Studenten frei whlen knnen. Die Electives haben den Ruf einfacher zu sein als die fr Nova-Studenten verpflichtenden Kurse.  Allerdings hngt der Aufwand und die Schwierigkeit stark von weiteren Faktoren ab, die unten genauer erlutern werde. Die Kurse an der Nova betragen fast alle 7,5 ECTS._x005F_x000D_
+In den meisten Kurse werden verschiedene Prfungsformen gewhlt, um die finale Note zu berechnen. Ich habe jeweils in jedem Fach eine finale Klausur geschrieben, die circa. 55% der finalen Note fr das Modul ausmachte. Hinzu kamen dann je nach Fach eine Midterm-Klausur (EU-Law, Management Accounting) oder mehrere Gruppenarbeiten (OPM und International Management). Ausgehend von einem hohen Kursniveau in Mannheim wrde ich das Kursniveau an der Nova als normal einschtzen. _x005F_x000D_
+_x005F_x000D_
+-	Vorlesungszeiten, Aufbau des Studienjahres (Semester, Trimester, etc.):_x005F_x000D_
+Die Vorlesungen haben direkt Anfang September bekommen, grundstzlich sind es die gleichen Semesterzeiten wie in Mannheim. Die Klausurenphase ist zwar genauso stressig wie in Mannheim, jedoch ist der Arbeitsaufwand unterm Semester deutlich geringer, sodass deutlich mehr Zeit fr Freizeit brigbleibt. Die Vorlesungen enden Ende November, sodass je nach erstem Klausurtermin 2 bis 2,5 Wochen Zeit bleiben, um sich auf die Klausuren vorzubereiten. Alle unsere Vorlesungen waren in Prsenz. Das Tragen der Maske war verpflichtend auf dem ganzen Campus. ZU beachten sei, dass die Kurseder 1st year Module erst im Oktober beginnen und die finalen Klausuren erst im Januar stattfinden. Wenn ihr also nicht im Januar extra zurckkommen wollt, solltet ihr nur 2nd und 3rd year Kurse whlen, da deren Klausuren bereits vor Weihnachten stattfinden._x005F_x000D_
+_x005F_x000D_
+-	Leben auf dem Campus (Mensa, Arbeitsmglichkeiten etc.):_x005F_x000D_
+Auf dem Campus gibt es einen Supermarkt (Pingo Doce), bei dem ich fast tglich eingekauft habe. Die Mensa ist zwar nicht so gut wie in Mannheim, jedoch akzeptabel, vor allem fr einen Preis von 2,75Û pro Gericht (Suppe + Gericht + Nachtisch). Direkt neben der Mensa gibt es auch eine Burger-Kche und eine Pizzeria. W-Lan gibt es auf dem ganzen Campus (eduroam). Gearbeitet habe ich hufig auf dem Campus. Es gibt ein Bibliothek, fr die im Vorhinein ein Sitzplatz reserviert werden muss. Dort war ich nur einmal deswegen habe ich nicht mehr Infos dazu. ber den ganzen Campus verteilt gibt es ausreichend Tische und Sitzmglichkeiten, um zu essen oder zu arbeiten._x005F_x000D_
+Der Campus selbst ist ziemlich beeindruckend und vor ein paar Jahren erst errichtet. Alle rume sind licht durchflutet aufgrund der gro§en Glasfronten. Die Wege auf dem Campus sind auch deutlich krzer als in Mannheim (A3 bis zum Schneckenhof)._x005F_x000D_
+_x005F_x000D_
+-	Sprachniveau, Sprachkurse vor Ort:_x005F_x000D_
+Ich habe keine Sprachkurse in Lissabon oder an der Nova besucht. Die Nova bietet gegen eine Gebhr von circa. 250Û einen Portugiesisch-Sprachkurs an. Dieser kann meines Wissens fr 6 ECTS an der Uni Mannheim angerechnet werden. Da so gut wie alle Kurse der Nova 7,5 ECTS betragen und mindestens 29 ECTS im Ausland belegt werden mssen kam der Sprachkurs fr mich nicht infrage.</t>
+  </si>
+  <si>
+    <t>Uni ist komplett anders als in Deutschland: viel mehr Gruppenarbeit und Assignments. Dadurch musste man von Tag 1 schon einiges privat machen aber der Arbeitsaufwand wurde in der Klausurenphase auch nicht mehr, sondern eher weniger. Ich habe versucht mglichst weniger Kurse mit Gruppenarbeit zu whlen, da es oft schwer ist die amerikanischen Studenten zum Mitarbeiten zu bringen. Vielen ist es nicht wichtig ob sie den Kurs bestehen oder mit welcher Note sie ihn bestehenÉ Deshalb sind oft die Austauschstudenten die die am meisten fr die Gruppe machen. Kursniveau hngt ganz davon ab welche Kurse man whlt. Vorteil im Ausland: man kann auch fachfremde Kurse whlen, was ich super finde um andere Einblicke zu gewinnen. _x005F_x000D_
+Vorlesung hatte ich Dienstags und Donnerstags den ganzen Tag. Dadurch hatten wir immer ein langes Wochenende, was toll zum Reisen ist. _x005F_x000D_
+Am Campus gibt es einiges um sich in der Freizeit aufzuhalten: Initiativen, die auch coole Ausflge organisieren, Sportangebote, Caf und Essensmglichkeiten,É</t>
+  </si>
+  <si>
+    <t>Dazu kann ich nicht so viel sagen, da ich dieses Semester primr zur persnlichen Entwicklung genutzt habe und nur zwei Kurse auf Englisch besuchte. Die Kurse sind vom Inhalt her einfach und man knnte fast behaupten sinnlos. Ich besuchte entrepreneurship for small businesses und strategic alliances, mergers and acquisitions. Man immer in kleinen Gruppen und in diesen Kursen sind 80% Internationals. Oft besteht Anwesenheitspflicht, man hat Mid-terms und Gruppenarbeiten. Wchentliche Lesehausaufgaben sind vllig normal. Die Fcher in Spanisch sind deutlich anspruchsvoller und zeitraubender. Der Notenschnitt wird 100% schlechter sein nach Santiago. Zu Sprachkursen wei§ ich nicht, da der beste Sprachkurs ist mit Chilenen zu reden und sich nicht zu sehr mit deutschen und anderen internationalen Studenten zu umgeben. Es gibt eine Mensa in der FEN, die einigerma§en gnstig ist, jedoch ist die Qualitt der Speisen hchstens Durchschnitt. Anders als in anderen Erfahrungsberichten kann ich nicht behaupten, dass der Fitnessraum gut war. Er ist viel zu klein, oft berfllt und nur 5 Tage die Woche offen. Er wird jede eineinhalb Stunde sinnloserweise geputzt und ist dann 20 Minuten geschlossen, was sehr oft das Training unterbricht. Von den Gerten her gibt es nur das Grundlegendste, viel zu wenig Laufbnder, die immer besetzt sind, und viel zu viele Fahrrder, die niemand wirklich bentigt.</t>
+  </si>
+  <si>
+    <t>Im Gegensatz zu Mannheim, gibt es an der NHH keine Tutorien oder bungen. Pro Kurs hat man in der Regel lediglich zwei Vorlesungen pro Woche. Jede Vorlesung dauert insgesamt 105 Minuten, wobei  der immer 15 Minuten Pause innerhalb der Vorlesung eingeplant sind. Mein Stundenplan war nicht so voll wie es meist in Mannheim der Fall ist, und ich hatte daher nur ein drei Tagen in der Woche Uni. _x005F_x000D_
+Die Kurse beginnen Ende August und enden bereits wieder Ende Oktober/Anfang November (je nach Kurswahl). Vor den Prfungen Anfang/Mitte Dezember hatte man also noch gengend Zeit, um sich vorzubereiten und die Prfungsphase war an sich entspannter. _x005F_x000D_
+Im Allgemeinen lag das Niveau war unter dem von Mannheim. Der Workload whrend des Semesters war aber wesentlich hher, da man in den meisten Kursen Group Paper schreiben musste. Diese zhlten zwar in der Regel nicht zur Endnote, waren aber notwendig, um fr die Klausur zugelassen zu werden. _x005F_x000D_
+Die Kursmglichkeiten an der NHH fr Exchange Students ist recht berschaubar. Leider fanden viele angebotene Kurse noch dazu parallel statt, weswegen man in der Kurswahl letzten endlich sehr eingeschrnkt war. _x005F_x000D_
+Die NHH ist zwar sehr klein, aber modern ausgestattet. Jeder Student bekommt beispielsweise einen Chip und einen Code, mit dem er zu jeder Uhrzeit die Uni betreten kann (ab 16 Uhr ist die NHH geschlossen). _x005F_x000D_
+Die Uni verfgt ber sogenannte Lesesle, in denen man in einem abgetrennten Bereich arbeiten konnte. Fr Gruppenarbeiten konnte man sich ber das Portal einen extra Raum buchen. In der Klausurenphase war es auch mglich, in den Vorlesungsrumen zu lernen.</t>
+  </si>
+  <si>
+    <t>Fr smtliche Dinge wie die Eintragung in Kurse ist die Sekretrin zustndig, die dich auch schon im Mai ber Email bezglich der Bewerbung in Xiamen kontaktieren wird. Sie ist generell besser ber WeChat als ber Email erreichbar. Wenn du etwas wissen willst, solltest du immer sie fragen. Die Organisation an der Xiamen University ist sehr chaotisch. Du solltest deshalb immer Kontakt zur Sekretrin pflegen. Hier sind zwei von den vielen Dingen, die mir passiert sind: (A) Wenn bestimmte Kurse zu wenige Kursteilnehmer haben, wird dieser Kurs gestrichen, was hufig passiert und dir mglicherweise nicht mitgeteilt wird. Wenn du gengend ECTS erfllen willst, musst du dann sofort einen anderen Kurs whlen, weil Hausaufgaben und Zuteilungen fr Gruppenarbeiten in den ersten Wochen stattfinden und die Frist fr Kursanmeldungen frh ausluft. (B) Wenn du in den Semesterkalender der Xiamen University schaust, wirst du eine freie Woche im Oktober erkennen. Bevor du schon vorher Reiseplne fr diese Zeit anfertigst, solltest du bedenken, dass die Wochenenden und auch teilweise der Freitag und Donnerstag der ÒGoldenen WocheÓ dafr verwendet, ausgefallene Vorlesungen nachzuholen. Die gesamte Woche ist also nicht frei und Fehltage solltest du vorzeitig bei der Sekretrin anmelden. Bei mehr als zwei unangemeldeten oder (durch fehlende Krankschreiben) unentschuldigten Fehltagen fllt man in dem entsprechenden Kurs durch. Ich empfehle, aufgrund des Organisationschaos nur Kurse zu belegen, die von der Uni Mannheim bereits anerkannt wurden.</t>
+  </si>
+  <si>
+    <t>Das Studium an der City U ist verglichen mit Mannheim einfacher aber es besteht Anwesenheitspflicht zu jeder Zeit. Dennoch kann man sich die Vorlesungen so legen, dass man zum Beispiel nur Montag bis Mittwoch Uni hat und dann die restliche Zeit zum Reisen nutzen kann. Die einzelnen Kurse bestehen immer aus 30 - 50 Leuten und finden in verschiedenen Rumlichkeiten statt. Je nach Fach gibt es Assignments, Midterms, Gruppenarbeiten und Final Exams, die alle in die Gesamtnote zhlen</t>
+  </si>
+  <si>
+    <t>Die Semesterzeiten der QueenÕs University hneln dieser in Mannheim. In der zweiten Septemberwoche fanden Einfhrungsveranstaltungen fr die Internationals statt, in der darauffolgenden Woche waren die allgemeinen Einfhrungsveranstaltungen fr alle Erstsemester. Die Abgabefrist der Essays bzw. die Klausurenphase war Mitte Dezember._x005F_x000D_
+_x005F_x000D_
+Man hat eine ausreichende Auswahl an unterschiedlichen Kursen aus den Jahren 1-3. Als Prfungsleistung ist bei den meisten der Kurse ein Essay abzugeben. Insbesondere als Erasmusstudent hat man stets die Mglichkeit, die Prfungsleistung in Form eines Essays zu erbringen. Bezglich des Niveaus der Kurse muss man sich keine Sorgen machen, es ist geringer als in Mannheim und obwohl ich dann doch mit einem meiner Essaythemen Probleme hatte, lie§ sich eine gute Note erzielen. _x005F_x000D_
+_x005F_x000D_
+Ich belegte drei Kurse in Belfast und hatte somit dreimal zweistndige Vorlesungen und ein einstndiges Tutorium. Somit verbrachte ich sehr wenig Zeit in Veranstaltungen. Jedoch musste einiges selbststndig anhand von akademischen Texten (, die gerne mal um die 50 Seiten umfassten) erarbeitet werden.  Diese Texte wurden zu Semesterstart bekanntgegeben und waren zum Gro§teil online verfgbar._x005F_x000D_
+_x005F_x000D_
+Es werden diverse Englischkurse angeboten, fr die man je 40 Pfund zahlt. Dem gesprochenen Englisch der Professoren zu folgen, machte keine gro§en Probleme. _x005F_x000D_
+_x005F_x000D_
+Eine Mensa gibt es leider nicht, warmes Essen konnte man um die Mittagszeit aber in einer Art Cafeteria auf dem Campus bekommen. Zu empfehlen sind auch ãUmi FalafelÒ und ãBoojumÒ, die nahe der Uni gelegen sind.</t>
+  </si>
+  <si>
+    <t>Das Studium an der SJSU ist in vielen Belangen sehr verschieden vom System an der Uni Mannheim. Grundstzlich erinnert der Unterreicht eher an eine deutsche Schule als an eine Universitt. Die Klassen sind kleiner, es herrscht (manchmal) Anwesenheitspflicht, es gibt wchentliche Hausaufgaben und das Verhltnis zu Professoren ist ein Stckchen persnlicher. 
+Ich bezweifle, dass in Mannheim eine einzige Lehrkraft meinen Namen kennt, in San Jose wussten den aber schon zu Beginn des Semesters die meisten meiner Professoren.  
+Grundstzlich hat das verschultere System den Vorteil, dass der Unterrichtsstoff ber das Semester verteilt, aber trotzdem sehr gut zu bewltigen ist. Die Finals am Ende des Semesters sind dadurch nicht ansatzweise so stressig wie die Klausuren in Mannheim. Wer ber das Semester immer die Assignments abgibt, kann schon ordentlich Punkte sammeln und muss fr die Finals auch nicht mehr viel lernen. Das Lehrniveau ist je nach Kurs deutlich unter dem Niveau in Mannheim. Vor allem die volkswirtschaftlichen Kursen waren deutlich weniger mathematisch und daher kein besonders gro§es Problem. Es gab zwar auch Herausforderungen, die bestanden aber eher in Gruppenarbeiten oder Prsentationen.
+Ich bin trotz des geringeren Niveaus aber der Meinung, dass ich viel aus dem Semester mitgenommen habe. Die andere Art zu lernen war eine willkommene Abwechslung und es ist wirklich befriedigend jeden Tag ein Assignment von der Canvas abhaken zu knnen. 
+Der meiner Meinung nach gr§te Vorteil an der SJSU ist die umliegende Natur und die damit verbundenen Ausflugsziele. Kalifornien hat enorm viel zu bieten und ist wirklich unglaublich divers. Ich habe whrend des Semesters Trips nach San Fransisco, LA, Santa Cruz, Monterey und Big Sur gemacht. Jeden der Trips kann ich uneingeschrnkt empfehlen. Wenn man Hausaufgaben unter der Woche erledigt, bleibt an den Wochenenden immer genug Zeit fr Ausflge. Wer sich den Stundenplan geschickt legt oder unter Umstnden mal einen Kurs nicht besucht, kann auch lngere Ausflge whrend des Semesters machen. Mit dem J1 Visum ist es au§erdem mglich auch nach dem Semester noch einen Monat in den USA zu bleiben. Ich habe den Monat genutzt und mit zwei Freunden aus Mannheim einen Roadtrip an der Westkste mit einem abschlie§enden Aufenthalt in Las Vegas gemacht. Vor allem letztes kann ich ebenfalls nur empfehlen (vorausgesetzt man ist bereits 21). San Diego ist auch ein tolles Ausflugsziel. Die Lebensqualitt ist unheimlich hoch und im Vergleich zu San Jose sind die Kosten auch deutlich geringer. Wer es sich finanziell leisten kann, sollte also unbedingt so viele Stdte wie mglich besuchen. Ich habe wirklich nicht einen einzigen Trip bereut.</t>
+  </si>
+  <si>
+    <t>Kursstil und Inhalte sind viel mehr auf Praxis ausgelegt, sodass es viel angewandter war und mehr Spass gemacht hat als nur stumpf Vorlesungen anzuhren und fr eine Klausur zu lernen. Viel Gruppenarbeiten, Simulationen, Prsentationen, eher weniger Klausuren - was auch gut so ist. Definitiv ein Highlight im Master gewesen - davon kann sich Mannheim eine Scheibe abschneiden..</t>
+  </si>
+  <si>
+    <t>Das Autumn Semester beginnt Ende September. In der ersten Woche finden vor allem organisatorische Dinge statt. Ab der zweiten Woche beginnen dann die Vorlesungen bis Mitte Dezember. Insgesamt hat man elf Wochen Vorlesung und die meisten Fcher haben eine Vorlesung pro Woche, zwischen 60 und 120 Minuten lang. Es gibt keine bungen oder Tutorien. Stattdessen hat man meist zwei Seminare pro Fach, die jeweils in unterschiedlichen Wochen des Semesters stattfinden. In den Seminaren finden oft Gruppenarbeiten oder Diskussionen statt, oder man muss kurz etwas prsentieren. Generell besteht bei den Seminaren Anwesenheitspflicht, bei den Vorlesungen hingegen nicht. Manche Vorlesungen werden aufgezeichnet. Man hat relativ wenige Veranstaltungen pro Woche, dafr muss man mehr zuhause tun._x005F_x000D_
+Mitte Dezember bis Mitte Januar finden keine Veranstaltungen statt. Die zweite Hlfte vom Januar sind dann die Klausuren. Viele Essays waren gegen Mitte oder Ende November fllig. _x005F_x000D_
+_x005F_x000D_
+Online kann man im Modulkatalog der Universitt alle Kurse einsehen. Dort steht oft dran, ob Erasmus Studenten diese Kurse belegen drfen. Man kriegt allerdings auch Mitte Juni von der Uni eine Liste von Kursen geschickt, die man whlen darf. Die Kurse fr Semester 1 sind die Kurse, die im Herbst angeboten werden. Im Modulkatalog findet man auch alle Informationen ber die Credits, die Klausur, die Wochenstunden und allgemein den Aufbau des Moduls. Level 1 Kurse sind aus dem 1. und 2. Semester, Level 2 Kurse aus dem 3. und 4., usw. Als Austauschstudent darf man sich aussuchen welche Level man whlt. Bis Ende Juni konnte ich per E-Mail Kurse voranmelden. Dazu erhlt man rechtzeitig Informationen. In meinen ersten zwei Uniwochen musste ich allerdings noch einige Kurse wieder ndern lassen, weil sich die Veranstaltungen zeitlich berschnitten haben. ber âTeaching TimetablesÔ auf der Website der Universitt kann man die Zeiten der einzelnen Veranstaltungen einsehen. Dafr braucht man allerdings zunchst seine Kennung._x005F_x000D_
+_x005F_x000D_
+Prfungsleistungen bestehen oft aus Klausuren, aber es gibt auch einige Kurse mit Gruppenessays oder Einzelessays, die dann einen Teil der Note ausmachen. Die meisten Klausuren sind Essayklausuren, d.h. z.B. man muss in 90 Minuten zwei Essays schreiben zu zwei Themen, die man sich aus fnf Themen aussuchen kann. Insgesamt war das Niveau unter dem von Mannheim, aber der Zeitaufwand und das Stresslevel der Klausurenphase ist teilweise hnlich._x005F_x000D_
+Bei den meisten Fchern gibt es lange Reading Lists, die man auf Moodle findet. Je nach Fach sind diese Readings mehr oder minder wichtig. Studien und Artikel sind generell hilfreicher fr die Klausur als Buchkapitel. Buchkapitel helfen einem eher, wenn man etwas nicht gut verstanden hat. Man muss bedenken, die Klausuren sind nicht besonders lang und man kann die gelesenen Texte meist nur in wenigen Stzen zusammenfassend mit einbauen. Es ist hilfreich zu jedem Thema sich auf ein zwei Texte zu fokussieren. Denn alles kann man nicht lesen und das wird auch nicht erwartet. Viele der Artikel sind allerdings auch sehr interessant. Auf die meisten kann man online direkt zugreifen. _x005F_x000D_
+Generell muss man fr die Klausuren wenig wortwrtlich auswendig lernen. Es geht mehr um das Verstndnis und die Zusammenhnge. Auf Moodle findet man auch Altklausuren und ein Assessment der frheren Jahre.  _x005F_x000D_
+Auf dem Jubilee Campus gibt es das Learning Resource Center und die BWLer Bibliothek. Beide Bibliotheken sind nicht besonders gro§, aber man findet generell immer einen Platz. Man kann dort auch drucken und scannen. _x005F_x000D_
+_x005F_x000D_
+Man kann bis zu drei Non-Credit-Kurse belegen. Dies sind entweder Sprachkurse im Allgemeinen oder Kurse zum Thema Academic Writing, oder aber Beratungen fr Essays. Ich kann dies nur sehr empfehlen. Man lernt so sehr viel ber wissenschaftliches Schreiben im Englischen.</t>
+  </si>
+  <si>
+    <t>Die ESSEC unterscheidet sich in zwei Punkten von Mannheim: Zum einen ist das Kursangebot breiter aufgestellt und zum anderen ist der Lehransatz sprbar praxisbezogener. Zudem herrscht strikte Anwesenheitspflicht, maximal sind 2 Absenzen erlaubt. Die Kurse werden zu Beginn jedes Terms gewhlt, Exchange und DD Studenten genie§en hier eine Vorrangstellung und drfen auf FCFS-Basis Kurse vor den ESSEC-Fulltime Studenten whlen. Pro Term knnen max. 7 Kurse belegt werden (35 ECTS). Das Studium im Double Degree gestaltet sich zunchst einmal wenig aufregend, da die Grundkurse fr Mannheim Studenten meist nichts Neues beinhalten und einen sehr repetitiven Charakter haben (sehr viele Franzosen im Master haben keinen Business Background). Zudem werden die Grundkurse z.T. von Phd Studenten unterrichtet, die zum ersten Mal vor einer Klasse stehen. Die Wahlkurse dagegen sind sehr interessant und werden von z.T. hochkartigen Professoren unterrichtet, die herausragende Stellungen in Wirtschaft und Lehre bekleiden. Insgesamt wre es wnschenswert, wenn im DD die Anzahl an Pflichtkursen gesenkt werden wrde, was eine zustzliche Vertiefung durch interessante Kurse ermglicht. Das Kurskonzept an der ESSEC ist sehr Caselastig, was einen guten Austausch frdert. Klausuren finden im Midterm und am Ende jedes Terms statt. Es gibt zudem pro Term die Mglichkeit "Intensive Weeks" zu absolvieren, in denen man innerhalb einer Woche einen Kurs durchluft.</t>
+  </si>
+  <si>
+    <t>Der Unialltag an der NTU ist hnlich wie in Mannheim. Die Mathekurse sind in Vorlesung und bung aufgeteilt. Das Englisch einiger Dozenten war zwar nicht ganz so gut, doch man konnte alle verstehen. Ich musste zwar nicht wchentlich bungsbltter abgeben, jedoch gibt es an der NTU in der Mitte des Semesters eine vorlesungsfreie Woche. In dieser Zeit werden in den meisten Fchern Midterms geschrieben. Die Midterms haben bis zu 40% der Endnote ausgemacht, sodass der Druck vor den Finals etwas genommen wurde._x005F_x000D_
+Allgemein empfand ich das Niveau der Mathekurse an der NTU als deutlich niedriger im Vergleich zu Mannheim. Die Kurse waren wenig beweislastig und die Theorie stand nicht ganz so im Vordergrund wie die Anwendung. Oft wurden einfache Dinge, die eigentlich aus den ersten Semestern bekannt sein sollten, recht ausfhrlich erklrt, aber etwas schwierigere Beweise schnell und oberflchlich besprochen.</t>
+  </si>
+  <si>
+    <t>Insgesamt ist die Atmosphre am Trinity College sehr freundlich, kollegial und man fhlt sich direkt wohl. Die Lectures dauern formal eine Stunde, nach 45 Minuten wird allerdings schon Schluss gemacht, da man ja den Saal wechseln muss. Eine Anwesenheitspflicht gilt im Normalfall nicht. Die Professoren sind sehr freundlich und suchen auch gerne das persnliche Gesprch. vor allem, wenn man Hilfe braucht. Die erste Woche des Semesters verbringt man vorwiegend damit, sich fr die Kurse anzumelden, was ein bisschen nervenaufreibend sein kann, da es keine online-Bewerbungen gibt und man frmlich von Haus zu Haus gehen muss, um sich Unterschriften zu holen. Wenn dies aber erledigt ist, luft der Alltag reibungslos. _x005F_x000D_
+Da die Lectures eher kurz sind, geben sie eher Impulse, die darauf abzielen, das Thema in Eigenregie zu vertiefen. Selbststndigkeit wird am Trinity College gro§geschrieben. _x005F_x000D_
+Die Uni bietet eine Vielzahl an Initiativen und sportliche Aktivitten, die das Studium gut ergnzen. _x005F_x000D_
+Vom Niveau her ist das Trinity College hnlich wie die Universitt Mannheim. Allerdings habe ich, als BWL Student, in drei Monaten  nicht einmal einen Taschenrechner benutzen mssen, da so gut wie keine Rechnungen durchgefhrt wurden.</t>
+  </si>
+  <si>
+    <t>Das Kursangebot in Utrecht ist sehr vielfltig und bersichtlich gestaltet. Es gibt mehrere Fakultten und man hat die Wahl 25% seiner Kurse in einer fachfremden Fakultt zu belegen, was den Unialltag sehr spannend machen kann und ein bisschen Abwechslung reinbringt. Die Kurse sind unterteilt in Schwierigkeitslevel von 1-3 und bestehen meistens aus einer Vorlesung und einem Seminar. Die genauen Prfungsleistungen, Beschreibungen und Anforderungen stehen immer in der Beschreibung im Kurskatalog. _x005F_x000D_
+Die Semester gehen vom 01. Februar bis zum 30. Juni und dann vom 01. September bis zum 31. Januar. Jedes Semester ist nochmal in zwei Abschnitte eingeteilt, so dass man 2 Klausurenphasen hat und Kurse, die jeweils ein halbes Semester lang gehen. Fr jede Phase muss man als Austauschstudent min. 2 Kurse whlen. Man sollte sich fr gute Leistungen definitiv anstrengen, da die Anforderungen meist hoch sind. Noten werden in einem Punktesystem von 1-10 vergeben. Hierbei gelten 8 Punkte schon als sehr gut und 10 Punkte sind fast unmglich zu erreichen laut vielen Dozenten. Mchte man sich die Noten anrechnen lassen, sollte man auf jeden Fall bedenken, dass sich das beim Umrechnen negativ auswirken knnte. _x005F_x000D_
+Die Universitt hat keinen Campus. Es gibt viele Gebude, die verteilt in der Innenstadt liegen und dann nochmal etwas au§erhalb den sogenannten Science Park, dem gr§ten Teil der Universitt. Hier findet man auch eine Mensa und eine gro§e Bibliothek und viele sehr moderne Studienmglichkeiten. Man ist aber auch sehr schnell im historischen Stadtzentrum. Hier befinden sich auch die meisten Studentenwohnheime und ich wrde empfehlen nach einem Platz dort zu suchen, da man hier mitten im Studentenleben ist. _x005F_x000D_
+Alle meine Kurse in Utrecht fanden auf Englisch statt und eine aktive Teilnahme in den Seminaren wird erwartet. Die niederlndischen Studenten scheinen alle ein sehr hohes Niveau auf Englisch zu haben und auch in Hausarbeiten spielt die Qualitt der Sprache eine Rolle.  Im Alltag kommt man mit Englisch sehr gut zurecht, es gibt aber verschiedene Angebote fr Sprachkurse, falls man doch gerne Niederlndisch lernen mchte. Der billigste ist vom Erasmus Student Network (allgemein lohnt es sich in deren Programm mal reinzuschauen).</t>
+  </si>
+  <si>
+    <t>Obwohl ich keinen Bachelor of Education studiere kam ich an der Faculty of Education unter und konnte dies anschlie§end auch nicht mehr ndern, da die Philosophische Fakultt der Uni Mannheim nur mit der Faculty of Education Vertrge bezglich des Studentenaustausches geschlossen hat. Da man darber hinaus mindestens 51% seiner Kurse an der Faculty of Education belegen muss und alle anderen Fakultten bereits 1-2 Wochen frher beginnen und somit deren Kurse in der Regel sehr schnell belegt sind ist man berwiegend an das dortige Lehrprogramm gebunden, auch wenn man gerne etwas anderes belegt htte. Auch frher kommen bringt nichts, da man erst mit der Einfhrungsveranstaltung seine SiS-Daten zum Einloggen und Belegen der Kurse erhlt, selbst wenn man bereits eine Woche frher physisch im Bro der Studienberaterin prsent ist. Jedoch kann man den Dozenten der anderen Fakultten eine Mail schreiben oder noch besser einfach zur ersten Sitzung der Kurses erscheinen, in der Regel drcken die Kursleiter dann ein Auge zu und lassen einen trotzdem teilnehmen.
+Das Niveau der Veranstaltungen an der Faculty of Education ist in Ordnung, wird aber mitunter von den Dozenten nicht allzu ernst genommen. Generell kann ich empfehlen, auch ein paar Masterkurse oder Kurse an der Faculty of Social Science zu belegen, da dort das Niveau deutlich anspruchsvoller ist und man sich eventuell sogar etwas in Mannheim anrechnen lassen kann. Auch der Tschechisch-Kurs an der Faculty of Education ist sehr liebevoll gestaltet und man lernt recht schnell ein bisschen fundamentales Tschechisch, was in Prag nicht schaden kann.
+Das Sportprogramm der Karlsuniversitt ist sehr unbersichtlich und etwas seltsam gestaltet, da jede Fakultt ihr eigenes Sportprogramm publiziert und dabei den Studenten der jeweiligen Fakultt absolutes Vorrecht bezglich der Belegung einrumt. Da die Sportprogramme auch erst nach ein paar Wochen verffentlicht wurden und die Faculty of Education ein recht kleines Angebot hat, empfiehlt es sich auch hier verschiedene Kursleiter anzuschreiben oder einfach vor Ort aufzuschlagen. So konnte ich nach einigen Wochen immerhin einen Platz im Gym-Kurs der philosophischen Fakultt sowie einen Platz im Fu§ball-Kurs der 2. Medizinischen Fakultt ergattern. Oft sind diese Kurse sogar mit ECTS-Punkten belegbar, jedoch hat man hhere Chancen teilnehmen zu drfen, wenn man einfach nur flexibel und aus Spa§ den Kurs komplementieren mchte.</t>
+  </si>
+  <si>
+    <t>Die Juristische Fakultt befindet sich auf einem Berg in der Innenstadt und bietet einen schnen Ausblick auf Bergen. Das Kursangebot ist vielseitig und es ist fr jeden etwas dabei. Das Kursniveau ist okay und die Prfungen sind auf jeden Fall machbar, auch wenn alle Prfungen auf Englisch abzulegen sind. Die Prfungen an der Universitr in Bergen  werden alle am Computer durchgefhrt. Ich konnte mir alle Kurse in Mannheim anrechnen lassen. Die Vorlesungszeiten variieren je nach Kurs aber meistens sind sie jede Woche zur selben Zeit. Das Semester ist so aufgebaut, dass man zunchst Vorlesungen hat und meist am Ende einen Vortrag oder eine Klausur absolvieren muss. 
+Die Universitt verfgt ber eine Mensa aber die meisten Studenten nehmen sich immer etwas zu essen von Zuhause mit aufgrund der hohen Preise. Die Mensa verfgt zudem ber Mikrowellen, welche man umsonst benutzen kann. Es befindet sich auch eine Bibliothek und Lernrume am Campus. 
+Die Dozenten sprechen alle sehr gutes Englisch und man kann zu jeder Zeit Fragen stellen, falls man etwas nicht verstanden hat.</t>
+  </si>
+  <si>
+    <t>Das Studium an der AUT unterscheidet sich doch merklich von dem an der Uni Mannheim. Zum einen sind die Kursgruppen viel kleiner (in meinem Fall zwischen 5(!) und ca. 20 Studenten), der Kontakt zu den Dozenten ist dementsprechend enger und der Unterricht interaktiver. Zum anderen wird man viel weniger ber schriftliche Prfungen am Semesterende geprft (nur eines meiner vier Fcher hatte eine Prfung am Ende), sondern mehr ber Assignments whrend des Semesters. Das Kursangebot beschrnkt sich auf Kurse der Business-Fakultt. Hier gibt es jedoch Kurse aus jeder Spezialisierungsrichtung. Ich konnte bereits vor dem Auslandsaufenthalt fr alle meine Module Learning Agreements an der Uni Mannheim abschlie§en. Jedes Fach bedeutete 2h Vorlesung pro Woche plus die Zeit, die man fr Readings und Assignments bentigt. Auf dem Campus gibt es mehrere Essensmglichkeiten, die aber wie alles in Auckland nicht sehr preiswert sind. Zu Fu§ erreicht man aber auch schnell andere Alternativen oder ist im Wohnheim, wo man kochen kann.</t>
+  </si>
+  <si>
+    <t>SO kann Studium gehen! Und daran knnten sich die Universitten in Deutschland und besonders Mannheim eine Scheibe abschneiden._x005F_x000D_
+_x005F_x000D_
+Seid euch bitte sehr bewusst, dass Ihr an der besten Business-School im gesamten Osteuropa studiert. Die einheimischen und anderen Studenten aus aller Welt zahlen fr polnische Verhltnisse ein Vermgen, um dort studieren zu knnen._x005F_x000D_
+_x005F_x000D_
+Die Uni hat zwar deshalb auch einen leicht snobby Ruf, darber ist jedoch hinwegzusehen denn Ihr seid unter euch Erasmus Studenten und meiner Erfahrung nach sind hier wenig bis keine Kontaktpunkte zu den polnischen Studenten, die vorwiegend unter sich bleiben und ein ãnormalesÒ Leben fhren._x005F_x000D_
+_x005F_x000D_
+Die Professoren sind der Hammer und meistens selbst erfolgreiche Unternehmer, Manageger mit viel Know-How aus der Praxis Ð zugleich voll auf Augenhhe und ãeasy-goingÒ._x005F_x000D_
+_x005F_x000D_
+Die Lehre ist sehr interaktiv und von Gruppenarbeiten und Prsentationen, sowie Case-Studys sehr geprgt was mitunter der gr§te Kontrast zur Uni Mannheim ist. _x005F_x000D_
+Glaubt mir, Ihr werdet hier viel an Softskills aber auch Hardskills mitnehmen knnen, ohne 2 Monate in der Klausurenphase zu schwitzen Ð und darber hinweg bei guter Partizipation und guten Ergebnissen in den Assignments sehr gute Noten erreichen.</t>
+  </si>
+  <si>
+    <t>Es gibt sowohl im HWS als auch FSS ungefhr 10 verschiedene Kurse die Angeboten werden. Hierbei muss beachtet werden, dass manche ggf. nur fr Masterstudenten zugnglich sind und somit ohne Bachelor Abschluss nicht belegbar sind. Darauf wird aber auf der Seite der Fakultt deutlich hingewiesen sollte dies so sein. Die Vorlesungen sind nicht wie in Mannheim immer ein-/zweimal wchentlich zu bestimmten Zeiten, sondern willkrlich ber die Wochen verteilt, so kann es sein das ein Kurs erst nach 2 Monaten anfngt, dann aber fast tglich ist. Das Niveau der Kurse ist ungefhr auf den Level von Mannheim und die englische Literatur gut verstndlich. Die Vorlesungszeiten sind von August-Dezember und Mitte Januar-Mitte Juni. Die Klausurenphase ist hier schon eingeschlossen. Da ein Kurs nicht angeboten wurde konnte ich mir leider nur einen Kurs (voraussichtlich) als kleine bung im +ffR anrechnen lassen. Jede Fakultt hat eine Bibliothek in der man Arbeiten kann und Leserume. Es gibt zwar eine Mensa bei der sich manche Studenten Snacks holen, jedoch sind die Preise wenn man ein Mittagessen haben mchte verglichen zu Mannheim hoch und deswegen nehmen sich die meisten etwas von zu Hause mit und wrmen es ggf. dort auf. Die Uni bietet auch Sprachkurse in Norwegisch an, was ich sehr empfehlen kann um die Sprache zu verstehen und dies hilft ggf. auch um Kontakt zu Norwegern aufzubauen.</t>
+  </si>
+  <si>
+    <t>Ein paar Tage vor Semesterbeginn erhlt man per Mail eine Word-Datei mit den angebotenen Kursen. Man wird aufgefordert, Kreuze zur Kursanmeldung in der Word-Liste zu setzen und diese anschlie§end ausgefllt an den Verantwortlichen zurckzuschicken. Leider stellte ich an dieser Stelle fest, dass die zur Anrechnung vorgesehenen Kurse teilweise nicht angeboten wurden oder sich berschnitten. Auch gab es schon vor der Abreise bei der Erstellung des Learning Agreements Probleme. Ich wurde gezwungen, 10 Kurse  3 ECTS zu belegen. Letzten Endes diskutierte ich vor Ort erneut mit der fr Erasmus-Studenten zustndigen Verantwortlichen und setzte durch, dass ich ãnurÒ 6 Kurse belege. Bei einem Kurs, den ich mich anrechnen lassen mchte, musste ich gezwungenerma§en das ganze Modul bestehend aus 3 Kursen belegen. Au§erdem gab es vor Semesterbeginn eine Infoveranstaltung fr Erasmus Studenten der Facult des Lettres. Bei dieser wurden wir schreiend und sehr unfreundlich begr§t, unsere Stimmung sank erstmal auf den Nullpunkt._x005F_x000D_
+Mit einer Ausnahme gefielen mir meine belegten Kurse berhaupt nicht. Die Dozenten waren allesamt unfreundlich, die Kurse, obwohl sie laut Beschreibung oft hochspannend klangen, sehr langweilig. Wenn ich eine Frage stellte, wurde diese sogleich abgewiesen und die franzsischen Studenten waren oftmals nicht bereit, mir ihre Notizen zukommen zu lassen. Mit meinem C2-Niveau (laut Erasmus-Sprachtest) konnte ich den meisten Kursen ohne Probleme folgen, doch teilweise hatte ich Schwierigkeiten mit den Fachwrtern, sodass ich ergnzend die Notizen meiner franzsischen Kommilitonen bentigt htte. Letztendlich habe ich mich irgendwie durchgekmpft und die Kurse zuhause grndlich nachgearbeitet. Es gab in wenigen Fllen Power-Point-Prsentationen im Portal, jedoch musste meistens der gesamte Stoff selbst notiert werden._x005F_x000D_
+In Frankreich ist es blich, dass nach der ersten Semesterhlfte, in meinem Fall vor den Allerheiligen-Ferien, bereits eine Klausur stattfindet. Die 2. Klausuren wurden in meinen Kursen allesamt im Dezember geschrieben, sodass ich nach den Weihnachtsferien nicht nach Stra§burg zurckkommen musste._x005F_x000D_
+Des +fteren besuchte ich mittags die Mensa, in der ich das Essen im Vergleich zur Mensa in Mannheim sehr lecker fand. Fr nur 3,20 Euro gab es ein vollstndiges Men bestehend aus Vorspeise, Hauptgang und Nachtisch.</t>
+  </si>
+  <si>
+    <t>Das Studium in Fresno unterscheidet sich eigentlich (typisch fr eine amerikanische Universitt) in jeder erdenklichen Hinsicht zu dem gewohnten in Deutschland._x005F_x000D_
+Zunchst sollte man sich auf der Website der CSU Fresno ber das reichhaltige Kursangebot erkundigen, bei dem auch bis zu zwei fachfremde Kurse gewhlt werden knnen (mindestens mssen allerdings 15 Kredits erreicht werden)._x005F_x000D_
+Die meisten Kurse haben deutlich kleinere Teilnehmerzahlen und somit bietet sich die Mglichkeit einer mndlichen Beteiligung als Komponente fr die finale Note. Darber hinaus lernt man auch innerhalb der Kurse seine Kommilitonen relativ schnell kennen, was durch Gruppenarbeiten und hnliches weiter gefrdert wird._x005F_x000D_
+Zustzlich dazu muss man sich auf einen sehr kontinuierlichen Arbeitsaufwand einstellen. Dies bedeutet im Detail, dass neben dem gewohnten Final am Ende des Semesters fast tglich in einem der Kurse kleinere Quizze, Papers, Prsentationen oder Mid-terms anfallen._x005F_x000D_
+Zwar besteht dadurch die Notwendigkeit stets Vor- und Nachbereitungen fr die Kurse zu treffen, allerdings hat man so den gro§en Vorteil, dass man den Lernaufwand ber das Semester verteilt und somit nie eine wirkliche berforderungssituation entsteht und man im Gegenteil eher leichter gute bis sehr gute Leistungen erreichen kann._x005F_x000D_
+Insgesamt ist das Niveau somit definitiv leichter als das in Mannheim, was allerdings keinesfalls negativ zu verstehen ist. Durch die Verteilung und die Variation der Leistungsabfragen und die insgesamt geringere Belastung lsst sich das gelernte deutlich besser abspeichern und man verliert nie den Spa§ am Besuch der jeweiligen Kurse._x005F_x000D_
+Allgemein ist zu der Universitt zu sagen, dass das Gelnde deutlich gr§er ist, als von Mannheim gewohnt und man sich deswegen schnellstmglich eine Transportmglichkeit (Fahrrad, Longboard etc.) zulegen sollte, um ein pnktliches Erscheinen immer gewhrleisten zu knnen._x005F_x000D_
+Darber hinaus bietet der Campus eine Vielzahl an Lern, Essens- und Freizeitmglichkeiten und sobald man sich erstmal einen berblick verschafft hat, gestaltet sich der Uni-alltag ziemlich abwechslungsreich und spa§ig. _x005F_x000D_
+Auch hier wrde ich jedem raten sich so viel wie mglich mit den Kursmitgliedern auszutauschen und sich niemals von dem ungewohnten neuen Umfeld einschchtern zu lassen. Dadurch habe ich einige hilfreiche Informationen ber die typischen kursinternen Ablufe und Aktivitten au§erhalb des Unialltags sammeln knnen.</t>
+  </si>
+  <si>
+    <t>Direkt mit der ersten Mail wurde ein "Book of Modules" mitgeschickt. Darin waren alle Kurse aufgelistet, die wahrscheinlich im nchsten Semester angeboten werden. Fr noch ausfhrlichere Informationen zu den Kursen konnte man auf die Internetseite der Uni gehen, wo dann auch Emailadressen der Kurskoordinatoren angegeben waren. So war es sehr einfach, das Learning Agreement zusammenstellen. Einige Wochen vor Abflug kam eine weitere Mail der Uni, sodass man sich schon seinen Stundenplan zusammenstellen konnte. Das war super. Allerdings kam es dann vor Ort noch zu einigen nderungen, aber auch hier wurden allen Studenten verschiedene Ansprechpartner zugeteilt und alles war sehr organisiert. Auch alle Dozenten, bei denen ich Kurse belegt habe, waren sehr froh darber, Erasmusstudenten in ihren Kursen zu haben. 
+Allgemein ist es noch wichtig zu wissen, dass sich die Module hier aus verschiedenen Teilen zusammensetzen: Vorlesung, Tutorial und Lab. 
+Wenn ihr so wie ich, Literaturkurse belegen wollt, kann ich nur empfehlen, nur maximal zwei zu whlen. Der Anspruch ist hier sehr hoch und ich musste jede Woche pro Kurs ein Buch lesen. Das sollte man bei der Planung auf jeden Fall beachten.</t>
+  </si>
+  <si>
+    <t>Die KEDGE Business School ist eigentlich eine relativ renommierte Universitt, die auch gerne mit ihrem Ruf prahlt. Die Standards sind im Vergleich zu Mannheim jedoch schon sehr unterschiedlich. Dies spiegelt sich leider auch in der Motivation der anderen Studierenden wieder, was vor allem in Gruppenarbeiten sehr anstrengend werden kann. Trotz einer sehr strikten Anwesenheitspflicht kamen viele der franzsischen Studenten oft gar nicht in den Unterricht, was so weit ging, dass sogar der Leiter des Programms zu uns kam und mehr Respekt von den Studierenden einforderte. _x005F_x000D_
+Auch die Vorlesungsmaterialen haben ein deutlich geringeres Niveau als in Mannheim. Dies ist natrlich von Kurs zu Kurs unterschiedliche, jedoch waren die verwendeten Slide Decks in den meisten Kursen schon sehr grenzwertig. _x005F_x000D_
+_x005F_x000D_
+Alle Kurse, die ich an der KEDGE belegen wollte, wurden auch anerkannt. Man hat hier die Wahl zwischen einem Marketing, Finance und CSR Major, die alle auf englisch unterrichtet werden. Da dieser Major nur 20 ECTS gibt, kann man zustzlich aus zwei Blockkursen und einem Sprachkurs whlen. _x005F_x000D_
+Das Semester an der KEDGE ist in zwei Cycles eingeteilt. Dieses System wurde im HWS 2022 neu eingefhrt, ob es weiterhin beibehalten wird, wei§ ich leider nicht. Man hatte drei der fnf Kurse des Majors bis Ende Oktober, dann zwei Wochen Ferien und bis Mitte Dezember dann die restlichen zwei Kurse. Dieses System hat mir sehr gut gefallen, da man dadurch keine stressige Klausurenphase hatte.</t>
+  </si>
+  <si>
+    <t>Ich hatte leider etwas Pech bei meiner Kurswahl. Es lief nicht sonderlich gut, da ich aus welchen Grnden auch immer in der Faculty of Social Sciences eingeschrieben war und nicht of Law. Deswegen war es extrem schwer Kurse zu finden. Au§erdem hatte ich auch ein wenig Schwierigkeiten mit dem Kontakt mit der Uni dort, da sie sich sehr lange Zeit zum antworten gelassen hatten, ich mich dann aber immer beeilen sollte, weil irgendjemand in den Urlaub gefahren ist._x005F_x000D_
+_x005F_x000D_
+Meine Kurse waren leider auch immer spt Abends, was im Winter in Kanada nicht ganz so angenehm war. Zum Glck hat aber niemand attendance geprft. Ich habe dann einfach immer versucht meine Freunde mittags zum Essen zu treffen und bin dann danach mit denen in die Bib, bis ich dann um 19 Uhr endlich meine Vorlesungen hatte. Dadurch war ich dann abends leider nie dabei, da die Kurse immer bis mindestens 21:00 Uhr gingen.</t>
+  </si>
+  <si>
+    <t>Die UV hat ein umfangreiches englischsprachiges Kursangebot. Das Niveau ist etwas geringer als in Mannheim und in den meisten Kursen machen Abgaben whrend des Semesters sowie Mitarbeit einen Teil der Endnote aus. Das Englischniveau der Professoren variiert, ich habe dabei aber gute Erfahrungen gemacht. Die meisten Kurse werden mit 6 ECTS angerechnet. Ganz wichtig anzumerken ist, dass ein Spanischkurs hchstens mit 2 ECTS angerechnet wird, auch wenn das Learning Agreement mit 6 ECTS fr den Sprachkurs unterschrieben wird! Spanischkenntnisse sind von Vorteil aber kein muss. Es werden im Sommer von der UV Intensivkurse angeboten und whrend dem Semester kann man Sprachkurse jedes Niveaus belegen.
+Vorlesungen hatten wir von Mitte September bis Weihnachten, wobei die meisten Professoren in der Woche vor Weihnachten keinen Klausurrelevanten Stoff mehr besprochen haben. Ein Kurs bestand immer aus Einer Vorlesung und einer bung pro Woche. Generell gilt in vielen Kursen eine Anwesenheitspflicht, meist zumindest in der bung.</t>
+  </si>
+  <si>
+    <t>Zum Studium kann ich leider nur begrenzt berichten, da der Vorlesungsbetrieb whrend meines Aufenthalts durch die politische Situation permanent unterbrochen wurde und ca. 5 Wochen vor Semesterende dann komplett eingestellt wurde._x005F_x000D_
+Die Vorlesungen haben einen hnlichen Charakter wie in Mannheim, die Tutorien erforderten allerdings etwas mehr Einsatz als ich es aus Mannheim gewohnt war. So gab es zum Teil Punkte fr Anwesenheit und es mussten whrend des Tutoriums Aufgaben erledigt werden oder Projekte parallel bearbeitet werden. Insgesamt lag das Bewertungsgewicht weniger auf den Abschlussklausuren und hat sich mehr auf Mid-Term-Klausuren, Projekte und Hausaufgaben verteilt. Der Aufwand hielt sich trotzdem in Grenzen und ist meiner Meinung nach mit dem in Mannheim vergleichbar, auch wenn die zeitliche Verteilung ber das Semester etwas anders aussah. Anwesenheitspflicht o.. gab es in meinen Kursen nicht, manche Abgaben mussten allerdings in Person gemacht werden._x005F_x000D_
+Die Unterrichtssprache war an der ganzen CityU Englisch und auch sonst wurde durch die vielen Studenten aus dem Ausland und China (die Mandarin, nicht Kantonesisch sprachen) viel Englisch gesprochen. Man sollte sich aber darauf vorbereiten, dass mit hartem Akzent gesprochen wird, was u.U. das Zuhren zu Beginn etwas erschwert._x005F_x000D_
+Es gibt au§erdem einige Freizeitangebote, die sich allerdings auf Sportteams (mit Auswahl) und Clubs beschrnkten, die ich persnlich als eher speziell bezeichnen wrde. Es gab auch ein Fitnessstudio, das allerdings im Umbau war.</t>
+  </si>
+  <si>
+    <t>Die Art des Studiums unterscheidet sich stark von der Art wie wir es in Mannheim gewohnt sind._x005F_x000D_
+Die Lehre ist stark verschult und man hat meistens eine Zwischenleistung in Form einer Prsentation oder Essays zu erbringen.</t>
+  </si>
+  <si>
+    <t>Grundstzliche bietet die NTU viele verschiedene Kurse an, bei denen wir Austauschstudenten auch Kurse anderer Fakultten nehmen knnen. Leider ist es durch das Kursvergabesystem nicht sehr einfach in beliebte Kurse zu kommen, wenn man sie nicht direkt am Anfang bei der ersten Vergabe bekommen hat. Ich war sehr zufrieden mit meiner Kurswahl, obwohl ich nicht alle meiner gewnschten Kurse bekommen habe. _x005F_x000D_
+_x005F_x000D_
+Tendenziell ist es durch viele verschiedene Prfungsleistungen einfacher als in Mannheim gute Noten zu bekommen, jedoch sollte man den Arbeitsaufwand nicht unterschtzen, da man auch nichts geschenkt bekommt. In jedem Fach gibt es viele Prsentationen, Essays, Tests oder Gruppenarbeiten. Das Problem ist, dass Austauschstudenten nicht den allerbesten Ruf bei den Singapurern haben, da die meisten Austauschstudenten nur die Kurse bestehen mssen. Oftmals fhrt das dazu, dass sie ihre Aufgaben nur sehr minimalistisch machen. Jedoch ist es auch nicht sehr einfach, Gruppenarbeiten nur mit Singapurern zu machen, da sie sehr ehrgeizig sind und eine andere Arbeitsweise haben. Oftmals werden die Aufgaben nicht so klar verteilt, wie wir es in Deutschland gewohnt sind. Ich wrde euch empfehlen zu versuchen in eine gemischte Gruppe zukommen, um beiden Extremen zu entgehen. _x005F_x000D_
+Die Vorlesungen sind pro Kurs meistens nur einmal die Woche, gehen dafr aber meistens 4 Stunden. Viele Dozenten machen zwischendurch kurze Pause, da die 4 Stunden sehr lang sein knnen. Wenn man die Kurse geschickt whlt, kann man seine Vorlesungen sogar nur von Dienstag bis Donnerstag haben. _x005F_x000D_
+Anfang Oktober, ungefhr nach der ersten Hlfte des Semesters war die Recess Week. Die allermeisten Austauschstudenten reisen whrend dieser Woche. Man sollte jedoch beachten, dass nach der Recess Week oftmals einige Midterms geschrieben werden. _x005F_x000D_
+Die Vorlesungen gingen bis ungefhr Mitte November. Ende November bis Anfang Dezember werden die Finals geschrieben, die meistens zwei bis drei Stunden gehen. Ich hatte glcklicherweise nur ein offizielles Final. In den anderen Kursen mussten jedoch auch Finalprojects oder Finaltests geschrieben werden, die letztendlich den offiziellen Finals gehnelt haben. _x005F_x000D_
+Einer meiner vier Kurse war ein Chinesisch Sprachkurs LC9003, der mir brigens auch in Mannheim angerechnet wurde. Der Kurs war ungefhr inhaltlich auf dem Niveau des Fortgeschrittenenkurses in Mannheim, sodass ich in der Hinsicht sehr wenig neues gelernt habe. Nichtsdestotrotz empfand ich das Niveau der zwei Klausuren, insbesondere den Hrverstehensteil schwieriger als ich ihn gewohnt war. Am Ende des Semesters musste jeder der zehn Studenten eine Prsentation ber ein beliebiges Thema halten. _x005F_x000D_
+Das Leben auf dem Campus hat mir sehr gut gefallen, da es viele Mglichkeiten gibt seine Freizeit zu verbringen. In regelm§igen Abstnden gibt es unterschiedliche Veranstaltungen auf dem Campus, die z.B. von unterschiedlichen Kulturkreisen organisiert werden. So gibt es beispielsweise ffentliche Feste zum chinesischen Mid-Autumn Festival oder zum indischen Lichtfest Deepavali. Auf dem Campus gibt es neben viele Foodcourts mit asiatischen Essen auch die gewhnlichen Fast-Food-Ketten wie McDonalds, KFC, Subway etc. Lebensmittel und andere Alltagsprodukte kann man in einem der Lden im North Spine kaufen.</t>
+  </si>
+  <si>
+    <t>Das Studium in Palermo unterscheidet sich schon von dem in Deutschland. Die meisten Prfungen sind mndlich und die Kurse auch meist mehrmals die Woche und dann immer direkt 3 Stunden lang. Das ist aber nicht nur in Palermo so sondern generell in ganz Italien. Das Niveau der Kurse ist alles in allem relativ hoch und die sprachliche Barriere macht es einem auch nicht wirklich einfacher, da die meisten Kurse (zumindest an der Facolta fr Lettere und Filosofia) auf Italienisch sind. Jedoch habe ich die Erfahrungen machen knnen, dass die Kommilitonen aber auch die Profs sehr hilfsbereit sind. Wenn man etwas nicht versteht, kann man eigentlich Jeden fragen und es wird einem kaum einer nein sagen. Ich empfehle generell zu Beginn in den Whatsapp Gruppen beizutreten (auch wenn diese oft leichte Spam Gruppen sind). Dort kann man immer Fragen stellen und es werden generell sehr viele Materialien dort hineingeschickt. Allgemein bin ich in Palermo eigentlich nur auf sehr hilfsbereite Menschen gesto§en.</t>
+  </si>
+  <si>
+    <t>Das University College Dublin hat ein breites Kursangebot, das sich durchaus unterscheidet von dem, was man aus Mannheim gewohnt ist. Besonders Level 3 Kurse also Kurse, die von den Studenten im 3. Studienjahr belegt werden knnen gehen weit ber klassische Module hinaus und ermglichen einen spezialisierten Einblick in Themenfelder. Die Anrechnung der Kurse ist daher auch nicht besonders problematisch. Das Vergabesystem beruht auf first-come-first-serve, man muss also schnell sein, bereits wenige Minuten nach Freischaltung waren die meisten Kurse voll. Innerhalb der ersten Woche lassen sich aber die Module tauschen und man kann mit Glck doch noch Pltze in den zuvor belegten Kursen ergattern. Der Stundenplan schaut auf den ersten Blick sehr gut aus, da die meisten Veranstaltungen nur aus einer zwei-stndigen Vorlesung bestehen. Zudem ist das Kursniveau leichter, als wir es in Mannheim gewohnt sind, da sie oftmals nicht ganz so theoretisch und tiefgrndig sind.
+Durch kleinere Kursgr§en gibt es oftmals Punkte bereits schon fr Anwesenheit und Mitarbeit. 
+Auf eine strenge Bewertung, muss man sich jedoch bei Essays und Paper einstellen. Diese sind zusammen mit Gruppenarbeiten, einer Endklausur (meistens ca. 50%) oder Midterms hufige Prfungsformen. Der zustzliche Zeitaufwand, der fr das Schreiben von Berichten, Essays sowie Vorbereiten von Gruppenarbeiten bentigt wird ist nicht zu unterschtzen. Erschwerend bei Gruppenarbeiten ist, dass es fr viele Mitstudenten nur um das Bestehen oder Nichtbestehen geht und somit viel Arbeit hngenbleibt bei denen, die gute Noten anstreben.
+Gut zu wissen ist, dass ãreadingsÒ, also Artikel und Literatur, die im Unterricht behandelt wurden, oftmals wichtiger fr Endklausuren sind, als Unterrichtsfolien. 
+Fr die Vorbereitungen der Endklausuren bliebt die reading week. Whrend eine Woche in Mannheim unmglich zur Vorbereitung ausreicht, sind die Klausuren an der UCD in ungefhr 2 Wochen zu bewltigen. In der Regel knnen sich Studenten aus mehreren Fragen zwei oder drei Fragen auswhlen, die sie entweder im Essay style oder in einem Flie§text beantworten. 
+Wie zu erwarten ist es in Dublin aufgrund von Essays und Gruppenprsentationen extrem wichtig flssig in Wort und Schrift zu sein. Hilfe kann sich aber auch noch vor Ort gesucht werden.</t>
+  </si>
+  <si>
+    <t>Die Kurse in meinem Auslandssemester waren allesamt sehr gut machbar und interessant. Die Universitt hat zwei Wochen nach Beginn des Auslandssemesters zudem noch ein paar englischsprachige Kurse angeboten, sodass man auch genug ECTS sammeln kann, wenn es mit der Kurswahl im Vorfeld nicht funktioniert hat. Das Niveau war meiner Meinung nach unter dem in Mannheim, dennoch waren sie sehr interessant. Das Sprachniveau im Englischen der Dozenten war mittelm§ig bis gut, man hat sich aber immer irgendwie verstanden. Whrend des Semesters wurde auch von halb Online Ð halb Prsenz auf komplett Prsenz gewechselt, worber ich mich sehr gefreut habe. Ich habe auch einen Spanisch Kurs von der Universitt belegt, dieser hat dreimal die Woche stattgefunden. Der Kurs war sehr gut, ich habe dort viel gelernt.
+ber die Anerkennung kann ich noch nichts sagen.</t>
+  </si>
+  <si>
+    <t>Die Kelley School of Business sieht sich als eine der Top-Universitten fr Business in den USA und man sprt, dass auch die Studenten alle sehr ehrgeizig und engagiert sind. Das sollte euch jedoch keine Angst machen, da die meisten Kurse deutlich einfacher sind als an der Uni Mannheim. Das System ist generell eher mit Schule als mit Universitt zu vergleichen, da es fast immer Anwesenheitspflicht gibt, ihr aufgerufen werdet und es sehr viele Tests, Prsentationen und kleine Papers anstatt einer Endklausur gibt. Der Schwierigkeitsgrad von solchen Tests ist auch eher gering, da diese fast immer Multiple Choice sind und die Fragen oft in der Stunde zuvor mehr oder weniger angekndigt werden. Ich fand das Semester so sehr entspannt, da sich die Arbeit ungefhr gleichm§ig auf das ganze Semester verteilt hat und ich sagen wrde, dass ich im Endeffekt weniger machen musste als in Mannheim. Der wichtigste Tipp, den ich euch fr die Kurse geben kann, ist, in der ersten Woche in so viele Kurse wie mglich zu gehen, da der Schwierigkeitsgrad von jedem Kurs so gut wie immer vom Dozenten abhngt und ihr in der ersten Woche die Kurse noch wechseln knnt.</t>
+  </si>
+  <si>
+    <t>Studium an der Gasthochschule: 
+Die UDD bietet viele Kurse auf Spanisch aber auch viele Kurse auf Englisch an.  In den Kursen auf Englisch sind die meisten Leute Austauschstudenten. Einige wenige Chilenen aus hheren Semestern sind auch dort. Das Niveau ist insgesamt viel niedriger als in Mannheim. Die Professoren wissen, dass Austauschstudenten nicht nur fr die Universitt da sind und haben ein ziemlich lockeres Programm. Jeden Kurs hat man 3 Stunden pro Woche meistens in Klassen mit 15-40 Studenten. Dadurch kommt es zu viel mehr Kontakt zwischen Studenten und Professoren, diese sind meistens super nett und aufgeschlossen. Die Arbeitslast ist an der UDD ber das ganze Semester etwa gleich verteilt. Man arbeitet in allen Kursen an lang- oder kurzfristigen Gruppenprojekten und man hat oft kleine oder gr§ere Prsentationen ber die Ergebnisse oder den Ablauf der Projekte zu halten. In manchen Kursen muss man wchentlich kurze Hausaufgeben abgeben. In manchen Kursen gibt es auch eine schriftliche Mid-term Klausur, in manchen Kursen auch eine schriftliche Klausur am Ende des Semesters. Wie oft man Prsentationstermine hat, ob man Mid-terms und/oder Finals hat oder auch schriftliche Abgaben zu einer Gruppenarbeit hngt ganz vom Professor ab. Eine stressige Klausurenphase am Ende des Semesters wie in Mannheim fllt jedoch meistens an der UDD aus.                            Das Semester an der UDD fngt Anfang August an und geht bis Anfang/Mitte Dezember. Die Woche des 18. Septembers ist eine Ferienwoche, da der 18. September der wichtigste Nationalfeiertag in Chile ist. Der Campus der Universitt ist sehr modern und gut ausgestattet. Als Essensmglichkeiten gibt es eine Mensa, mehrere Kaffees und Snack-shops sowie einen Subway. Es gibt 2 Fu§ballfelder mit Kunstrasen die man pro Stunde online reservieren kann, ein Fitnessstudio und Tischtennisplatten, sowie Fernseher mit Playstation als Freizeitaktivitten. Die Bibliothek ist auch gut ausgestattet, hnelt denen in Mannheim. Dort kann man auch Gruppenrume reservieren.</t>
+  </si>
+  <si>
+    <t>Die Universitt in Mlaga hilft einem bei der Organisation leider nicht wirklich und man kriegt kaum Informationen seitens der Uni. Durch Kontakte zu anderen Studierenden ergibt sich aber alles und man lebt sich schnell ein. Die Uni hat ein sehr breites und interessantes Kursangebot und ich wurde schnell fndig. Die Vorlesungszeit hat bei mir Anfang Oktober angefangen, es gab eine Weihnachtspause und dann nochmal zwei Wochen im Januar. Danach hatte ich noch drei Wochen Klausuren. Das System in Spanien ist ganz anders als in Deutschland und erstmal etwas schwierig zu verstehen. Man hat 2-3 mal in der Woche die Grupo Grande (mit allen, eher wie eine Vorlesung) und noch einmal die Woche die Grupo Reducido (nur ein Teil der Studenten, eher praktisch wie ein Seminar). Die Klausur zhlt am Ende teilweise nur noch 50%. Mein Spanisch war auch schon vor dem Aufenthalt gut, ich habe dennoch einen C1-Kurs in Mlaga besucht, welcher auch viel Spa§ gemacht hat. Da ich vorher nicht an den spanischen Akzent gewhnt war und vor allem die Malagueos beim Sprechen die Wrter stark zusammenziehen oder das Ende weglassen, war es trotzdem manchmal etwas schwer alles zu verstehen. Ich konnte dem Unterricht trotzdem gut folgen und die Dozenten sind auch sehr hilfsbereit bei Nachfragen. Meine Kurse waren alles am Campus in Teatinos, welcher mir auch sehr gut gefallen hat. Die Cafeteria und der Au§enbereich bei der Tourismusfakultt sind besonders schn. Das Kursniveau war bei meinen Kursen geringer als ich es von Mannheim gewhnt war und der Arbeitsaufwand whrend des Semesters war bis auf die Klausurenphase auch sehr gering.</t>
+  </si>
+  <si>
+    <t>Das Studium ist deutlich weniger anspruchsvoll als das Studium in Mannheim. Die meisten Prfungen finden in Gruppenarbeiten statt, daher ist es wichtig schnell Anschluss zu den anderen Studierenden zu schlie§en, um eine Gruppe zu finden. Da die Vorlesungen quasi in einem Klassenformat stattfinden, kann man schnell andere Leute kennen lernen.</t>
+  </si>
+  <si>
+    <t>Die Universidad San Ignacio ist eine sehr international ausgerichtete private Universitt, in der man eine Bandbreite von Auswahlmglichkeiten von Kursen hat. Durch die starke internationale Ausrichtung der Universitt wurden zahlreiche Kurse auf Englisch angeboten. Da ich jedoch meine Kenntnisse in der spanischen Sprache verbessern wollte, habe ich ausschlie§lich Kurse auf Spanisch belegt. Vor der Begr§ungsveranstaltung fr internationale Studenten wird man aufgefordert an einem Sprachtest teilzunehmen. Trotz vorhandenem Sprachzertifikat (ausgestellt von Studium Generale), wurde ich gebeten mit den anderen Teilnehmern den Sprachtest zu absolvieren. Abhngig von dem jeweiligen Sprachniveau konnte man Kurse belegen, welche dem Sprachniveau entsprachen. Bei geringeren Spanischkenntnissen, hatte man die Mglichkeit an der USIL Spanischkurse zu besuchen. Da ich bereits vor Anreise ein fortgeschrittenes Sprachniveau in Spanisch hatte, hatte die Mglichkeit uneingeschrnkt Kurse zu whlen. Generell wrde ich empfehlen vor der Abreise zumindest das Sprachniveau A2 zu besitzen. Obwohl man auch mit Englisch sehr gut auf dem Campus auskommt, ist es einfacher sich auch mit peruanischen Studierenden zu unterhalten und eventuell Lerngruppen zu bilden. _x005F_x000D_
+_x005F_x000D_
+Das Kursniveau der verschiedenen Veranstaltungen variierte. Alles in allem werden die Inhalte der Kurse um einiges oberflchlicher und weniger forschungsorientiert behandelt. Wie unten aufgefhrt hneln die Kurse eher Haupt- oder Proseminaren. In allen fnf Veranstaltungen, die ich besucht habe wurden aktive Teilnahme und wchentliche Leistungsnachweise, sowie Zwischenprfung, Endprfung und Hausarbeiten gefordert. Da einige Leistungsnachweise und vorwiegend Hausarbeiten in Gruppen bearbeitet werden sollen, ist die Bearbeitung jedoch nicht sehr zeitintensiv. Nichtsdestotrotz, ist jeder Kurs um einiges arbeitsintensiver durch die konstante Evaluierung der Leistungen.  Die Vorlesungszeiten der Universidad San Ignacio de Loyola sind sehr unterschiedlich zu den Vorlesungszeiten an der Universitt Mannheim. Die frheste Veranstaltung beginnt bereits um 7:00 Uhr morgens bis 8:40 Uhr und die letzte Vorlesung beginnt um 21:00 Uhr bis 22:40 Uhr. Das Studienjahr ist in Semestern eingeteilt. In der Universidad San Ignacio de Loyola gibt es zwei Cafeterien, davon findet man jeweils eine auf Campus 1 und Campus 2. Die Preise fr ein Mittagessen liegen zwischen 3,00 Û und 4,00 Û. Man kann sagen, dass die Kosten generell auf dem Campus relativ niedrig sind. Besonders positiv ist die gro§e Dachterrasse, die man auf Campus 2 findet. Dort gibt es sehr viele Sitzmglichkeiten und man kann die Sonnentage dort verbringen und mit Kommilitonen lernen oder einfach nur Caf trinken und die Sonne genie§en.</t>
+  </si>
+  <si>
+    <t>Das Studium in Luxemburg war gut organisiert und auch das ESN-Netzwerk, dass sich um die verschiedenen Austauschstudierenden kmmert, haben ihre Sache gut gemacht. In der ersten Woche wurden an jedem Tag verschiedene Aktivitten angeboten: neben dem Besuch einer Mine, einem Volksfest in Dudelange und Karaoke Abenden hatten wir auch eine Stadtfhrung in Luxemburg City. In dieser ersten Woche habe ich auch meine feste Freundesgruppe kennen gelernt; also unbedingt versuchen in den ersten Tagen und Wochen alles mitzunehmen.</t>
+  </si>
+  <si>
+    <t>Im Bewerbungsprozess musste man sich entscheiden, ob man den English Track oder den Japanese Track whlen will. Im Vorfeld haben wir allerdings leider kaum Informationen zum spezifischen Kursangebot bekommen.
+Prinzipiell ist es aber so, dass man im English Track nur englischsprachige Vorlesungen belegt. Soweit ich es von anderen mitbekommen habe, gibt es dabei viele Vorlesungen in Richtung Politik und Wirtschaft, hufig mit internationaler Ausrichtung. Wenn man den English Track belegt, kann man gegen eine Gebhr auch zustzlich einen Japanischkurs belegen (45 Minuten Unterricht pro Woche).
+Ich selbst habe den Japanese Track belegt, wie fast alle anderen Austauschstudenten (die meisten studieren auch tatschlich Japanisch an ihrer Heimatuniversitt Ð insofern sind die Austauschstudenten von der Uni Mannheim in gewisser Weise eine Ausnahme). Im Japanese Track gibt es zunchst einen Placement Test, auf Basis dessen man in ein Level eingeordnet wird. Weil ich schon in Deutschland angefangen hatte, Japanisch zu lernen, wurde ich in Level 2 von 9 eingestuft. Der Japanischkurs war recht intensiv. Jeden Tag hatte man verpflichtend zwei Blcke (zu je 100 Minuten) Sprachunterricht in seinem Stammkurs. Jeden Tag gab es auch Hausaufgaben und fast jeden Tag Tests. Das war sehr zeitaufwendig, aber zum Sprachenlernen natrlich auch sinnvoll. Darber hinaus habe ich 5 freiwillige Wahlfcher belegt Ð zum einen zustzliche, spezifischere Sprachkurse und zum anderen Seminare ber japanische Kultur. Im Vergleich zur Uni Mannheim habe ich deshalb insgesamt mehr Zeit an der Uni verbracht. Das Niveau ist allerdings meiner Meinung nach niedriger als an der Uni Mannheim. 
+Der English Track scheint etwas entspannter als der Japanese Track zu sein: Die Austauschstudenten, die ich kannte, hatten ca. 6 Vorlesungen belegt und hatten somit deutlich mehr Freizeit als Studenten im Japanese Track. Auch hier war das Niveau wohl niedriger als an der Uni Mannheim. 
+An der KUFS gibt es ein Sprachcaf namens Ninja, in dem man sich mit anderen Studenten verabreden kann, um seine Fremdsprachenkenntnisse zu verbessern. Bei Ninja kann man als Austauschstudent auch einen kleinen Nebenjob annehmen, indem man sich als Gesprchspartner fr Englisch und/oder Deutsch zur Verfgung stellt.</t>
+  </si>
+  <si>
+    <t>Die HSG hat ein relativ breites Angebot an Kursen (Inhalt, Gr§e) fr Austauschstudierende. Angebot und Kursbeschreibungen gibt es online. Viele Kurse werden nur auf Deutsch angeboten. Die Kursvergabe luft strickt nach dem oben genannten Bidding System, welches sich in die ersten paar Wochen der Vorlesungzeit erstreckt. Vorlesungsbeginn ist fr das Frhjahrssemester Ende Februar. Vorlesungsende ist Ende Mai. 
+Fr die Kurse, die ich belegt habe (siehe unten), ist die Art der Kurse nicht mit der an der Universitt Mannheim vergleichbar. Die Kursgr§e ist sehr viel kleiner (20-30 Personen) und der Inhalt der Kurse sehr viel praxisorientierter. Es gibt zwei Arten von Leistungsnachweisen: zentral (nach Ende der Vorlesungszeit) und dezentral (whrend der Vorlesungszeit). Austauschstudierende knnen allerdings nur an dezentralen Prfungen teilnehmen. In meinen Kursen gab es jeweils mehrere Leistungsnachweise in Form von (vielen!) Gruppenarbeiten und Papern. Das bedeutet im Schnitt einen sehr viel hheren zeitlichen Aufwand als fr Kurse an der Universitt Mannheim. Oft werden auch innovative Lehrformen benutzt (z.B. Collaboratories), was es fr mich besonders spannend machte. Die Studierenden tragen bei der Kurswahl selbst die Verantwortung, dass sich weder Kurszeiten noch Zeiten der Leistungsnachweise berschneiden. Es ist ganz klar zu sagen, dass man an der HSG fr sehr gute Noten sehr viel Arbeit investieren muss; besonders auch, da die Umrechnung ins Notensystem der Universitt Mannheim nachteilhaft ist. 
+Es gibt viele Arbeitspltze an der HSG (Einzel- und Gruppenpltze), allerdings auch eine gro§e Nachfrage seitens der Studenten. Daher wurde dieses Semester beispielsweise ein neuer, sehr cooler Co-Working Space erffnet und weitere Arbeitspltze sollen bald folgen. Die Ausstattung der Rumlichkeiten ist von hoher Qualitt.
+Ansonsten stellt die Universitt ein enormes Spektrum an Angeboten rund um das Studium bereit. Das beginnt bei dem Campus mit Mensa (7-15 CHF pro Mahlzeit), zwei Cafs/Bars und einer Sporthalle mit riesiger Auswahl an Sportprogrammen und geht hin bis zu qualitativ sehr hochwertigen und weit gefcherten Sprachkursen. Beispielsweise besuchte ich den Konversationskurs Schweizerdeutsch A2 (sehr empfehlenswert!). Au§erdem sind die diversen studentischen Initiativen an der HSG sehr aktiv und engagiert. So werden unter anderem verschiedene Konferenzen auf einem sehr hohen Qualittslevel organisiert, die es sich beraus lohnt, zu besuchen (z.B. START Summit, EVOLVE).</t>
+  </si>
+  <si>
+    <t>Studium_x005F_x000D_
+Ich habe mich unteranderem fr Swansea entschieden, da es mir sehr gefallen hat wie viele Psychologiekurse zur Auswahl stehen und ich dort einiges whlen konnte, was mir fr Mannheim angerechnet wird. Meine Kurse waren inhaltlich nicht sonderlich schwer, eher etwas leichter als in Mannheim. Vom Umfang her vergleichbar. Allerdings gingen manche Module nur ein halbes Semester, sodass die zweite Semesterhlfte etwas leerer war. Ich habe in allen Psychologiekursen Essays geschrieben, die meist whrend des Semesters abgegeben werden mussten. Das kann aber auch an der pandemischen Lage liegen und daran, dass die meisten Veranstaltungen dann leider online stattgefunden haben. Mglicherweise gibt es in Prsenzsemestern dann mehr Klausuren. _x005F_x000D_
+Das Semester hat Ende September begonnen und wir hatten sogar noch eine Einfhrungswoche. Die meisten sind also Mitte September angereist. Ich hatte mein Zimmer bereits ab Anfang September und kam noch etwas frher, um ein bisschen alleine zu reisen. _x005F_x000D_
+Der Singleton Campus hat einige Pltze, in denen man sich verabreden kann um dort zu arbeiten (Fulton House, Library, Taliesin Building). Trotz online-Veranstaltungen konnte man dort also das Campus Leben genie§en. Es gab auch eine kleine Mensa, zwei kleine Supermrkte/Lden und Essenswagen drau§en. _x005F_x000D_
+Meine Kursanrechnung hat noch nicht stattgefunden, aber es gibt eine Tabelle, in denen man sich die Noten selbst umrechnen kann und bei mir fiel es vergleichbar zu den Noten in Mannheim aus.</t>
+  </si>
+  <si>
+    <t>nicht unbedingt bei dem Akademischen wie bei uns in Deutschland, sondern eher auf dem Gesamterlebnis und der persnlichen Entwicklung. Die Kurse haben mich recht stark an Schule erinnert. Es war durchgehend was zu tun mit Homework und Assignments. Dabei war das Niveau sowohl vom Kursinhalt als auch von den amerikanischen Studenten nicht sonderlich hoch. Das Arbeitspensum ist dabei aber auf keinen Fall zu unterschtzen, gerade weil wir auch der erste Jahrgang der Mannheimer waren, die 5 Kurse belegen mussten. Dazu herrscht auch Anwesenheitspflicht.
+Ein gro§er Unterschied ist auch, dass sich die Note nie nur aus einem Final zusammensetzt. Neben Homeworks und Assignments gibt es immer Midterms oder Gruppenprsentationen. Gerade die Gruppenprsentationen knnen einem dabei sehr viele Nerven und Punkte kosten.
+Es ist generell von Kurs zu Kurs sehr unterschiedlich wie viele Internationals und somit auch wie viele Deutsche im Kurs sitzen. 
+Besonders gro§ ist der Unterschied von zwischen Mannheimer und amerikanischen Studenten bei den Mathefhigkeiten und ich empfehle deswegen auch mglichst viele mathelastigen Fchern zu whlen. Generell sind aber bei guter Kurswahl in allen Fchern sehr gute Noten mglich.
+Etwas sehr besonderes ist au§erdem der School Spirit der an der SDSU wie an den meisten amerikanischen Universitten sehr ausgeprgt ist. Man trgt stolz die Schulfarben und feuert zusammen die Sportteams an. Die Universitt ist einfach ein viel gr§erer Teil der Identitt als hier in Deutschland.</t>
+  </si>
+  <si>
+    <t>Die UCA bietet sogenannte PEL Kurse fr Austauschstudenten an, die allerdings nichts mit Psychologie zu tun haben, daher bleiben nur die Fakulttskurse. Erstmal vorsicht! Wie in den meisten lateinamerikanischen Lndern ist die Psychologie durch die Psychoanalyse geprgt. Wer nicht bereit ist sich damit ein Semester lang in allen Kursen und als Grundlage alles Wissens auseinanderzusetzen, sollte die Wahl seines Studienorts fr das Auslandssemester nochmals berdenken!! Das Kursangebot ist auf der Website der UCA sehr gut einsehbar, mit Kursbeschreibungen etc. Im dortigen System dauert der Studiengang Psychologie 5 Jahre, die jeweils in 2 Semester eingeteilt sind, man muss also darauf achten, welche Kurse in dieser Jahreshlfte angeboten werden Das HWS geht von August bis November / Dezember, ist also ein wenig lnger als gewohnt. Es ist zu empfehlen Kurse des 3. Jahres zu belegen. Es ist auch mglich Kurse aus anderen Jahren zu whlen, es ist aber schwer sich aus den ersten beiden etwas anrechnen zu lassen, da das die Grundmodule sind, die wir schon abgeschlossen haben. Die letzten beiden Jahre entsprechen hier Masterniveau, sind aber gut mglich zu belegen, wenn auch mit etwas Mehraufwand, da einige Grundlagen, gerade im psychoanalitischen Bereich nachgeholt werden mssen. Die Anrechnung von Vertiefungsmodulen ist nach Absprache meist gut mglich, Methodenfcher sind eher kritisch. 
+Die Kurse werden mindestens zwei Mal angeboten, abends und morgens, teilweise auch zustzlich in verschiedenen Kommissionen. Die Wahl der Kommission ist egal, da die Kurse meist parallel stattfinden. Die morgens Kurse beginnen meist schon um 7:45, allerdings dauern die Abendkurse oft bis 22:30, auch wenn da schon mal frher Schluss gemacht wird. Es kann sich auch lohnen beide Kurse mal anzuschauen und dann je nach Professor und Anforderungen zu entscheiden welchen man belegen will.
+Die ersten zwei Semesterwochen sind fr die Austauschstudenten die "Add and Dropp" Phase, d.h. es besteht die Mglichkeit sich die verchiedenen Kurse anzuschauen. Am Ende dieser zwei Wochen muss dann die entgltige Auswahl abgegeben werden. Allerdings ist zu beachten dass in den Kursen Anwesenheitspflicht herrscht, mit weniger als 75% Anwesenheit am Ende des Semesters ist man durchgefallen. Das sind je nach Feiertagsverteilung und Stundelzahl 3-4 Fehltermine pro Kurs. Wer sich also nach zwei Wochen erst fr einen Kurs entscheidet hat bereits zwei Fehltermine. Es ist empfehlenswert mehr Kurse zu besuchen und dann zu droppen. Die Anwesenheiten knnen theoretisch online eingesehen werden, aber das ganze Onlinesystem funktioniert fr Austauschstudierende nicht richtig, es lohnt sich also im Kurs aufmerksam bei der Anwesenheitsberprfung zu sein. Weitere Prfungsvoraussetzungen sind 1-2 praktische Arbeiten pro Fach die in Gruppen erarbeitet werden und das bestehen der Zwischenprfung. Erst wenn diese 3 Kriterien erfllt sind ist man zur Anmeldung zur Abschlussprfung berechtigt. Die Gruppenarbeiten variieren im Umfang, zudem ist es sinnvoll mindestens einen Argentinier in der Gruppe zu haben, da die Anforderungen meist sehr ungenau forumliert sind und man sonst sehr viel Zeit braucht herauszufinden wie die genaue Durchfhrung am besten ist und was eigentlich erwartet wird. Die Zwischenprfungen sind mit ordentlicher Vorbereitung gut zu bestehen, sollte man doch durchfallen gibt es meist 2 Wochen spter einen Zweittermin. Die Abschlussprfungen sind mndlich, im Gegensatz zu den Zwischenprfungen muss man sich dafr online anmelden und sehr viel Arbeit. Es wird der ganze Stoff geprft, auch der, der bereits in den Zwischenprfungen aufkam. Je nach Fach darf man sich ein Thema aussuchen, dass man vorbereitet hat oder bekommt eines zugelost und 10min Vorbereitungszeit. In beiden Fllen hat man die mglichkeit Notizen mit in die Prfung zu nehmen, d.h. bei den vorbereiteten Themen knnen auch Plakate vorgestellt werden. Es werden danach allerdings Fragen gestellt die den Semesterinhalt abfragen knnen. Die Ankndigung zu Prfungsterminen und Formalia finden im Kurs statt und sind nirgens schriftlich einzusehen! Sollte man vor Zwischen/Abschlussprfung mal fehlen unbedingt nachhaken! Bei den Abschlussprfungen muss man diese Informationen eigenstndig in die Anmeldung eintragen, es wird zwar eine Liste mit allen Prfungen per email geschickt, diese sind aber nicht verbindlich fr die Profesoren, d.h. falls nderungen auftreten werden diese nur in der Klasse kommuniziert!Der Prfungsort wird am Tag selber am schwarzen Brett an Listen ausgehngt. Wie bei den Zwischenprfungen gibt es auch fr die Abschlussprfungen eine Zweittermin, teilweise auch einen Dritten, welcher aber meist im Februar stattfindet und somit eher unpraktikabel ist. 
+An der UCA ist ein Einstufungstest und ein damit verbundener Sprachkurs verpflichtend. Bei dieser Einstufung schafft es so gut wie keiner einem Sprachkurs zu entgehen! Die Sprachkurse sind in Ordnung kosten allerdings 300Û. 
+Am Campus gibt es einen Copyshop, und einige eher teurere Cafs, es lohnt sich Essen mitzubringen und in den Mikrowellen auf den Balkonen warmzumachen.</t>
+  </si>
+  <si>
+    <t>Eigentlich finden jedes Jahr vor dem Semester Einfhrungstage fr die internationalen Studenten statt, die dieses Jahr aufgrund der Pandemie jedoch durch Online-Videos ersetzt wurden. Das war ganz gut, um einen groben berblick zu bekommen und zu wissen, was man nun alles bezglich Registrierung als ãbergangsbrgerÒ, Busticket, Fahrrad ausleihen, etc. zu tun hat. Jeder Student hat einen ãBuddyÒ von der Universitt zugeteilt bekommen, an den man sich bei allen mglichen Fragen zu Stadt, Uni-Alltag, Amtsbesuchen usw. wenden konnte. 
+Die Unigebude sind in ganz Tartu verteilt. Glcklicherweise ist das Gebude fr die BWLer sehr zentrumsnah, wie bereits erwhnt. Zudem ist das sogenannte ãDelta CenterÒ sehr neu und modern, mit perfekter technischer Ausstattung, bequemen Sitzen in den Veranstaltungsrumen und einem ansprechenden Au§en- und Innendesign, sodass ich dort gerne Zeit verbracht habe. 
+Das Semester beginnt wie in Mannheim Anfang September und endet Ende Januar. Anders als in Mannheim ist jedoch die Prfungsphase. Es gibt keine stressige Klausurenphase Ende Dezember, sondern dadurch, dass man whrend dem Semester schon viele Abgaben und kleinere Tests hat, ist es am Ende alles etwas entspannter. Dafr kann es jedoch sein, dass man auch im Januar noch ein paar Klausuren hat, abhngig von den Kursen, die man gewhlt hat. Meine Kurse waren alle im Dezember abgeschlossen, ich hatte zwar noch eine Prfung im Januar, allerdings fand diese online statt und so konnte ich auch vor Weihnachten wieder zurckfliegen. Trotzdem kann ich empfehlen in Erwgung zu ziehen bis Ende Januar in Estland zu bleiben, da man seinen Platz im Wohnheim sowieso nicht vorher kndigen kann und das viele Studenten so machen, da es fr die meisten normal ist, dass die Kurse bis Ende Januar andauern. 
+Das Kursniveau ist im Vergleich zu Mannheim definitiv niedriger und Studenten als auch Dozenten sind viel entspannter und man sprt nicht diesen allgegenwrtigen Leistungsdruck wie in Mannheim. Ich fand es sehr angenehm in kleineren Kursen (im Schnitt 15 Studenten) unterrichtet zu werden und auch, dass wir whrend dem Semester mehr zu tun hatten, anstatt am Ende nicht mehr zu wissen wo einem der Kopf steht vor lauter Prfungsstress. Ein bisschen nervig fand ich persnlich, dass wir in fast jedem Kurs eine oder mehrere Gruppenarbeiten erledigen mussten. Im Nachhinein war das aber auch nur halb so anstrengend wie befrchtet. Mitarbeitsnoten gab es in meinen Kursen nicht und wir hatten in fast jedem Kurs die Mglichkeit (Corona bedingt) auch online teilzunehmen, weil jede Veranstaltung aufgezeichnet wurde. Mein Stundenplan war ebenfalls sehr entspannt, meistens hatte ich, trotz 30 ECTS, nur einen Kurs von zwei bis maximal vier Stunden am Tag. Die frhesten Veranstaltungen finden morgens um 8.30 Uhr statt und die sptesten beginnen um 16 Uhr. 
+Ich persnlich hatte zu Beginn Respekt davor, dass wirklich alles auf Englisch stattfindet, es war aber kein Problem, da das Sprachniveau und die Anforderungen der Dozenten meist nicht hoch waren. An den Akzent der Esten muss man sich erst mal gewhnen, da der sehr stark sein kann, aber die meisten versteht man trotzdem gut. 
+Im Delta Center gibt es auch eine Cafeteria bei der man preiswert Mittag- und Abendessen, sowie Kaffee, Softgetrnke und Gebck bekommen kann. Neben einer kleinen Bibliothek mit PCs, in die man sich setzen kann, wenn man Ruhe braucht, gibt es im Delta Center diverse andere Aufenthaltsmglichkeiten von Gruppenrumen, ber ãChillout-BereicheÒ, bis Einzelarbeitspltze. Da ich im Delta alle meine Veranstaltungen hatte, war ich meistens dort, es gibt aber noch eine Vielzahl anderer Bibliotheken in der Stadt, die man auch jederzeit nutzen kann.</t>
+  </si>
+  <si>
+    <t>Das Kursangebot der University of Ottawa ist gro§ und sehr vielseitig. Als PolitikstudentIn kann man Kurse der ganzen Fakultt fr Sozialwissenschaften belegen. Es lohnt sich daher, nicht nur im Bereich Politikwissenschaften nach Kursen zu schauen, sondern auch in den Bereichen Soziologie oder Peace and Conflict Studies (gerade im Hinblick auf PS und IB). Au§erdem hat man die Mglichkeit sich fr Kurse an einer weiteren Fakultt anzumelden, was fr das Nebenfach interessant sein kann. Gro§e Probleme bei der Anerkennung der Kurse gab es keine. Man sollte jedoch darauf achten, dass die Universitt viele Kurse im Bereich der politischen Theorie anbietet, die man sich in Mannheim leider nicht anrechnen lassen kann. Zudem bietet die Universitt mehr Kurse im Bereich Internationale Beziehungen und Vergleichende Regierungslehre an, als im Bereich Politische Soziologie.  Bei der Anmeldung fr die Kurse, ist es wichtig darauf zu achten, welche Vorkenntnisse man fr den jeweiligen Kurs haben muss. Die Bedingungen (Anzahl der schon erbrachten Leistungen oder bestimmte Einfhrungskurse) fr die jeweiligen Kurse stehen unterhalb der jeweiligen Kursbeschreibung auf der Webseite der Universitt. Was die Kurse betrifft, hat die Universitt ein eigenes System entwickelt, an dem man erkennen kann was fr ein Niveau oder Eigenschaften ein Kurs hat: z.B. POL 3133 Ð die drei Buchstaben zeigen die Fachrichtung an (POL=Political Science). Die erste Zahl zeigt an, in welchem Jahr man den Kurs am besten belegen sollte. 1 = first year, 2 = second year, 3 = third year, 4 = fourth year. Je hher die Zahl, desto anspruchsvoller auch der Kurs. Ich habe Kurse von second year bis fourth year belegt und kam mit allen gut zurecht. Das Niveau der Kurse ist vergleichbar mit dem in Mannheim, teilweise sogar niedriger. Trotzdem ist der zu erbringende Aufwand whrend dem Semester viel hher (viele Midterms und Abgaben). Dafr hat man am Ende des Semesters jedoch nicht so viel Stress wie in Mannheim. 
+Sollte man sich dazu entschieden haben, auf dem Campus zu wohnen, gibt es die Mglichkeit einen Meal-Plan zu erwerben, der die Eintrittskarte zur Mensa ist. Dieser Meal-Plan ist jedoch vergleichsweise teuer. Die Mensa ist wie ein all-you-can-eat Bereich aufgebaut und hat 24/7 geffnet. Hat man keinen Meal-Plan erworben, so muss man Eintritt fr die Mensa bezahlen. Das Frhstck ist am gnstigsten, je spter die Uhrzeit, desto teurer der Eintritt. Fr das Mittagsessen bezahlt man ohne Meal-Plan um die 13$. Ansonsten gibt es noch einen kleinen Campus-Laden, bei dem man wesentliche Lebensmittel und andere Kleinigkeiten einkaufen kann. Hier ist es jedoch teurer als im Supermarkt (Supermrkte sind ca 10. Minuten zu Fu§ von der Uni entfernt und haben generell 24/7 geffnet). 
+Natrlich gibt es auch viele Sportmglichkeiten auf dem Campus: Fitnessstudios und sogenannte Drop-in Aktivitten (Step-aerobic, Aqua-fit, Zumba, Tae Bo, Yoga) sind kostenlos. Wenn man mehr Auswahl haben mchte, muss man fr die einzelnen Kurse bezahlen. Es gibt auch eine ãintramural-leagueÒ bei der man sich anmelden kann um im Team eine Ballsportart zu spielen. Man wird in ein Team eingeteilt und spielt jede Woche gegen ein anderes Team der internen Uni-League. Die Teilnahme kostet ca. 45$ und man bekommt ein T-Shirt. Ich kann die Teilnahme sehr empfehlen, weil man viele Kontakte knpft, auch viele Kanadier kennenlernt und es richtig viel Spa§ macht.
+Dann gibt es noch die Gee-Gees Card mit der man kostenlos zu den Spielen der Uni-Sportmannschaften gehen kann (Ice-Hockey, Football, Rugby, Basketball, Volleyball,É). Wohnt man auf dem Campus bekommt man die Card kostenlos. Ansonsten kann man die Karte fr ca. 40$ erwerben. Ohne Karte kostet der Eintritt zu den Spielen 4-6$. Die Karte lohnt sich also sehr, wenn man fter zu Spielen der Uni-Mannschaft gehen mchte.</t>
+  </si>
+  <si>
+    <t>Zunchst einmal, sollte gesagt werden, dass der Campus in keiner Weise mit der Universitt Mannheim zu vergleichen ist. Die Standards, die man aus Mannheim gewohnt ist, wird man hier definitiv nicht finden. Der Campus Carlone ist sehr heruntergekommen. Die Ausstattung ist alt und zum gr§ten Teil kaputt. Die Organisation vor Ort ist unglaublich chaotisch und man fhlt sich als Austauschstudent nicht unbedingt willkommen. Auf E-Mails erhlt man meistens erst nach Wochen, auf Nachfrage oder gar keine Antwort. Deshalb sollte man sich zu Beginn nicht verunsichern lassen, das System ist sehr franzsisch und die Vorlesungen extrem verschult. Man muss sich daran gewhnen, zu warten, mehrmals nachzufragen und in den Kursen keine besondere Aufmerksamkeit geschenkt zu bekommen.
+Anfangs ist es nicht wirklich nicht leicht den Kursen zu folgen, da es weder PowerPoint Prsentationen, noch Handouts gab. Die franzsischen Studenten sitzen mit ihren Laptops da und tippen wirklich wortwrtlich alles mit. Ich habe zur Vorbereitung auf die Klausuren am Ende des Semesters versucht das Beste aus meinen Aufschrieben zu machen. Es ist auch hilfreich Studenten aus seinem Kurs zu fragen. Hufig gibt es intern noch eine Facebook Gruppe, in der manchmal Informationen zu Ausfllen oder Materialien geteilt werden, das hat mir manchmal sehr geholfen. Denn meistens wurden E-Mails mit Hinweisen zum Kurs nicht an mich weitergeleitet. Deshalb in jedem Fall auch immer den oder die Dozentin fragen.</t>
+  </si>
+  <si>
+    <t>In Australien ist das Studienjahr in zwei Semester eingeteilt. Das Herbstsemester (entspricht dem FSS in Deutschland) beginnt Ende Februar und endet im Juli, das Frhjahrssemester (entspricht dem HWS in Deutschland) beginnt im August und endet im November. _x005F_x000D_
+Das Studium an der University of Wollongong ist mit einem relativ hohen Arbeitsaufwand verbunden, da in jedem Fach whrend des Semesters mehrere Abgaben und Tests anstehen. Je nach Fach umfasst dies zwei bis drei Hausarbeiten mit Umfang von 1700 und 2500 Wrtern, aber auch Prsentationen und Tests. Vor Allem fr Essays sind gute Englischkenntnisse von Vorteil und es ist sinnvoll, am Anfang mehr Zeit als gewohnt zum Schreiben einzuplanen. Auch ist Emailkontakt mit Tutoren und Professoren bei spezifischen Fragen zu Essays oder Vorlesungen nicht unblich und sogar erwnscht. Zu jeder Prfungsform werden au§erdem sehr genaue Erwartungshorizonte auf der Lernplattform Moodle hochgeladen. Dadurch knnen Essays mit sehr guten Noten gemeistert werden. Mit jedem geschriebenen Essay verbessert sich das Englisch ungemein, was sowohl fr die Rckkehr an die Universitt Mannheim und dem Eintritt in die Arbeitswelt von gro§em Vorteil ist. _x005F_x000D_
+Das Kursangebot der UOW ist sehr breit mit einer Vielzahl an interessanten Kursen, die sich im IKW Modul oder auch Seminaren an der Universitt Mannheim anrechnen lassen. Man sollte jedoch mehrere Alternativen bereithalten, da einige Kurse manchmal nicht zustande kommen. _x005F_x000D_
+_x005F_x000D_
+Bereits drei Wochen nach Beginn des FSS fanden aufgrund der Coronavirus Pandemie Vorlesungen im Online Format statt. Deshalb ist es schwierig, das Leben auf dem Campus oder die Vorlesungen und Seminare im Prsenzformat gut einzuschtzen. In den drei Wochen auf dem Campus sind mir aber besonders die guten Arbeitsmglichkeiten in der Unibibliothek die 24/7 geffnet ist, die vielen Cafs und Angebote zum Mittagessen und die schne Atmosphre aufgefallen. Der Campus liegt inmitten von Bumen, Teichen und Wiesen mit Bnken und Tischen, an denen man bestens lernen, oder die Mittagspause verbringen kann. _x005F_x000D_
+Die Vorlesungen waren interessant und gut verstndlich und mit ca. 60 Minuten meist krzer als die zugehrigen Tutorien, die ca. 90 Minuten dauerten. Alle Kurse, die ich an der UOW belegte, hatten begleitende Tutorien mit ca. 15 Teilnehmern, in denen bungen zur Vorlesung durchgefhrt wurden und oft interessante und angeregte Diskussionen mit Professoren und Dozenten entstanden. Au§erdem muss an dieser Stelle erwhnt werden, dass die UOW den bergang zu den online Veranstaltungen sehr gut organisierte und die zwei online Semester fr alle Teilnehmenden so gut wie mglich erleichterte.</t>
+  </si>
+  <si>
+    <t>Das Kursangebot in Schweden hat mir sehr zugesagt, jedoch wrde ich aus eigener Erfahrung empfehlen, eher im 6. Semester ins Ausland zu gehen als im 5. aus Grnden der Anerkennung. Es ist zu gut wie unmglich, sich eine Vorlesung im Ausland an der Uni Mannheim anerkennen zu lassen, jedoch sind alle verbleibenden Kurse, die man im 6. Semester noch abarbeiten muss, kein Problem. 
+Ich persnlich habe folgende Kurse belegt:
+Aspects of Sweden (7,5 ECTS), voraussichtlich anerkannt als IKW VL
+Eventmanagement (7,5 ECTS), nicht anerkannt
+Intercultural Studies I: Film- and Audiovisual Media (7,5 ECTS) voraussichtlich anerkannt als AV Medien Seminar
+Ob meine Kurse jedoch wirklich so anerkannt werden bleibt abzuwarten. Auf jeden Fall ist es sinnvoll, sich vorher damit zu beschftigen - ansonsten muss man die Kurse in Deutschland nachholen. 
+Das Sommersemester in Schweden ist in 2 Terms aufgeteilt und geht von Mitte Januar bis Anfang Juni. Es gibt keine Osterferien und generell sind die Stundenplne in Schweden einzigartig. Es gibt keinen zusammengestellte Stundenplan, sondern einen fr jeden Kurs. Dort findet man die Kalenderwochen, an welchen Tagen der Kurs in den jeweiligen Wochen stattfindet, zu welcher Uhrzeit und in welchem Raum. Die Kurse sind nicht intern abgestimmt, weshalb es zu berschneidungen kommen kann. Bei mehr als 3 berschneidungen wird man gebeten, eine alternative Kurskombination zu whlen, die dann jedoch schlimmstenfalls nicht anerkannt wird. 
+Ich persnlich hatte in Schweden nur hchstens an 2 Tagen die Woche berhaupt Uni. Das wird aber durch Home Studies mehr als wieder ausgeglichen: fast wchentlich mussten Assignments eingereicht werden, Texte gelesen und erklrt werden oder Gruppenarbeiten gemacht werden. Generell kann ich die Universitt Karlstad an jeden weiterempfehlen, der gerne Aufstze schreibt. Ich habe in all den Monaten keine einzige Klausur geschrieben, nicht einmal mein Take Home Exam war eine richtige Klausur. Der erhhte Arbeitsaufwand wird durch eine weniger strenge Bewertung wieder gut gemacht. Es ist durchaus mglich in den Kursen mit "pass with distinction" zu bestehen, wenn man sich engagiert. 
+Die Mensa habe ich in Schweden nicht einmal genutzt. Als Mannheimer Student ist man schon verwhnt, wenn man gerade einmal 3,30Û fr sein Hacksteak mit Salat und Suppe bezahlt. In Karlstad selbst fr einfache Gerichte nahezu Restaurant Preise verlangt. Alternativ kann man die ffentlichen Khlschrnke und Mikrowellen nutzen.</t>
+  </si>
+  <si>
+    <t>Das HWS geht an der UniStra von Anfang September bis Mitte Januar. Die meisten hatten ihre letzten Klausuren im Dezember und konnten somit vor Weihnachten abreisen. Ich musste leider fr eine letzte Klausur im Januar zurckkehren, dennoch zog ich bereits im Dezember aus und konnte somit eine Monatsmiete sparen. blicherweise findet in der Mitte des Semesters eine erste Klausur statt und am Ende des Semesters eine weitere. Alle Kurse waren sehr frontal und beschrnkten sich fast ausschlie§lich darauf die Monologe der Dozenten in Form von Notizen zu verschriftlichen. Dennoch waren alle besuchten Kurse gut zu bewltigen.</t>
+  </si>
+  <si>
+    <t>Das Studium dort ist auf einem sehr hohen Niveau und man merkt auch direkt wieso Warwick eine der begehrtesten Unis in England ist. Die Lehrenden sind sehr nett, unterrichten gut und interessant und sind auch alle sehr hilfsbereit. Der Arbeitsaufwand (bzw. die Menge and Texten die zu lesen sind) ist um einiges hher als in Deutschland.</t>
+  </si>
+  <si>
+    <t>Als Studenten im fnften Bachelor Semester wird man dem ersten Master Jahr des Programms Grande cole zugeordnet, was ungefhr auf einem hnlichen Niveau sein soll. Tatschlich sind die Kurse jedoch etwas unter dem Niveau was man aus Mannheim gewhnt ist. Man hat die Mglichkeit ein Major (20 ECTS) zu whlen, zwei Elective Kurse zu Beginn des Semesters (je 5 ECTS) und einen Sprachkurs (5 ECTS). Whlt man ein Major dann muss man alle Kurse dieses Majors besuchen, was meist 5 Kurse mit jeweils 4 ECTS sind. Die zwei Elective Kurse sind je eine Woche lang und werden zu Beginn des Semesters abgehalten. Die Modulnote setzt sich eigentlich immer zu 60% aus einer Klausur und zu 40% aus Gruppenarbeiten in Form von Prsentationen/Case Studies  zusammen. Die Klausuren sind in der Regel relativ gut zu bewltigen und erfordern nicht das Ausma§ an Vorbereitung was man aus Mannheim gewohnt ist. Die Gruppenarbeiten sind hingegen teilweise etwas frustrierend da man teilweise zufllig in Gruppen eingeteilt wird und die Motivation innerhalb der Gruppe sehr stark variiert. Fr die wenigsten Austauschstudenten zhlen die Noten im Auslandssemester und den meisten franzsischen Studenten scheinen die Noten auch relativ egal zu sein. Die Folge ist, dass man teilweise ein Gro§teil der Arbeit alleine machen muss und die eigene Note durch die fehlende Leistung der Gruppenmitglieder in Mitleidenschaft gezogen wird. Hier ist es definitiv empfehlenswert sich ,dort wo es mglich ist, eine gute Gruppe zu suchen. 
+Das Semester an der KEDGE ist in zwei Cycles unterteilt die jeweils ca. sechs Wochen lang sind. Die Module werden zwischen den Cycles aufgeteilt und am Ende mit einer kleinen Klausurphase abgeschlossen, was es relativ entspannt macht da nicht alle Klausuren auf ein Mal geschrieben werden mssen. Wichtig zu erwhnen ist, dass an der KEDGE eine strenge Anwesenheitspflicht gilt die meist per QR-Code in der Stunde berprft wird. Man darf von insgesamt 8 Terminen pro Modul nur 2 Mal fehlen, fehlt man hufiger dann darf man die Klausur nicht mitschreiben. Die Kurse sind deutlich kleiner als in Mannheim und bedingt durch die reduzierte Gr§e auch etwas interaktiver gestaltet. Eine Veranstaltung ist immer drei Stunden lang. Was etwas verwirrend ist, dass der Stundenplan nicht gleich bleibt sondern sich wchentlich verndert und dadurch teilweise sehr lange Tage (von 8:30 Uhr bis 19:30 Uhr) zustande kommen.
+Der Campus der KEDGE ist deutlich kleiner als der Campus der Uni Mannheim und auch nicht zugnglich fr die +ffentlichkeit, es finden sogar Ausweis- und Taschenkontrollen am Einlass statt. Der Campus verfgt ber eine Mensa und einen Kiosk bei dem es relativ gnstigen Kaffee gibt. Das Essen was in der Mensa angeboten wird ist relativ teuer und qualitativ meistens auch eher durchwachsen, hier empfiehlt es sich eventuell Essen von daheim mitzunehmen. Es gibt eine Bibliothek die jedoch deutlich kleiner als in Mannheim ist und auch einen deutlich hheren Lrmpegel besitzt. Zum Lernen ist da ein leerer Kursraum besser, aber man muss auch Glck haben einen zu finden.</t>
+  </si>
+  <si>
+    <t>Das englische Kurstangebot an der NTU empfand ich als angemessen gro§, viele weitere gute Kurse werden aber ausschlie§lich in chinesischer Sprache gehalten. Ohne entsprechende Kenntnisse sind diese Kurse aber nicht zu empfehlen. Die Kursgr§en sind unterschiedlich, je nach Fach zwischen 15 bis 60 Studenten. Der Aufbau unterscheidet sich teilweise stark von den Vorlesungen in Mannheim, es wird oft ein starker Fokus auf Anwesenheit, Mitarbeit, Teamprojekte und Prsentationen gesetzt. Zwar gibt es auch Klausuren, diese machen jedoch oft nur einen Teil der Gesamtnote aus. Alles in allem hat man zwar unter dem Semester mehr Arbeit, dafr aber gegen Ende des Semesters keinen geballten Prfungszeitraum. Da die englischsprachigen Kurse zum gro§en Teil von Austauschstudenten besucht werden, sind die Arbeitsgruppen recht international. Die Anerkennung stellt eigentlich auch kein Problem dar, vorausgesetzt man erhlt den bentigten Kurssyllabus aus Taiwan rechtzeitig. Sehr zu empfehlen ist auch der fr Austauschstudenten angebotene Sprachkurs. Wahlweise kann der Kurs 2 bis 3 Mal wchentlich besucht werden. Es gibt wchentlich Hausaufgaben, Tests und Diktate Ð wer ernsthaftes Interesse an der Sprache hat, sollte das Angebot nutzen, whrend des Aufenthalts lassen sich so schnell gro§e Fortschritte erzielen.  
+Der Campus der NTU ist sehr gro§, es gibt diverse Mglichkeiten zum Arbeiten und Lernen. Mehrere Bereiche mit Essensmglichkeiten existieren ebenso wie ein reichhaltiges Sportangebot. Von Schwimmbad ber Tennisplatz bis Fitnessstudio bietet der Campus eigentlich fast alles, das Angebot an Sportkursen ist wirklich super.</t>
+  </si>
+  <si>
+    <t>Das Studium ist einfacher als in Mannheim. Dafr bekommt man aber ein sehr intuitives Verstndnis. Ich hatte das Gefhl besser ber die Themen im Nachhinein reden zu knnen. Es ist auch nicht so Mathematisch. Abseits vom Studieren bietet die Universitt sehr viele Mglichkeiten. Die Professoren fand ich persnlich alle sehr gut. Es gibt auch viele Mglichkeiten an der Universitt zu essen, aber diese sind auch alle nicht sehr gnstig.</t>
+  </si>
+  <si>
+    <t>Die Universit Laval ist im Vergleich zu Mannheim eine deutlich gr§ere Uni, man findet sich trotzdem ziemlich schnell zurecht. Die das Herbstsemester ist zeitlich identisch mit dem HWS in Mannheim und die Klausuren liegen ebenfalls vor Weihnachten. Das Wintersemester geht von Januar bis Ende April. Um die Vorteile des Studentenstatus zu genie§en, muss man fr mindestens vier Kurse eingeschrieben sein (z.B. um das Sportangebot zu nutzen). Das Kursangebot fr Austauschstudenten in Psychologie ist berschaubar, aber ich habe fr fast alle Aufbaumodule Kurse finden knnen (bis auf pdagogische Psychologie). Es lohnt sich, auch in anderen Studienprogrammen nach Modulen zu suchen, die man sich anrechnen lassen kann (z.B. BWL fr A&amp;O). Der Aufwand whrend des Semesters ist hoch, da zu jeder Vorlesung zustzlich Texte gelesen werden mssen. Au§erdem gibt es nicht eine Klausur am Ende, sondern auch Zwischenprfungen und/oder Hausarbeiten. Es ist also immer etwas zu tun, weswegen ich empfehle, vier und nicht fnf Kurse zu whlen.
+Ich wurde ungewhnlicher Weise vorab nicht aufgefordert, einen Online-Sprachtest zu absolvieren, um mein Franzsischniveau zu beurteilen, weswegen ich somit auch keinen belegt habe. Da Sprachkurse (bis auf Franzsisch) an der Uni kostenlos sind, habe ich die Chance genutzt und einen Spanisch-Kurs gewhlt.</t>
+  </si>
+  <si>
+    <t>Die McGill ist eine sehr gute und anerkannte Uni, mit einem super schnen Campus direkt downtown. Dort kann man sehr gut Zeit verbringen und drau§en Essen, sich entspannen oder mit Freunden treffen. Dennoch ist sie auch anspruchsvoll von dem Zeitaufwand her, inhaltlich anspruchsvoll jedoch hnlich zu Mannheim. Von den Kursen her gibt es eine gro§e Auswahl, da findet jeder was. Man muss jedoch beachten, dass man nur zwei Kurse pro Fachrichtung (z.B. Finance, Management etc) whlen kann. Mit der Anerkennung von Kursen hatte ich kein Problem. Die Vorlesungszeiten der McGill sind dieselben wie in Mannheim, was sehr entspannt ist, da man vorher und nachher Ferien hat. Passt aber auf, dass ihr bei Gruppenarbeiten am besten mit andern Exchange Students zusammenarbeitet, ich und Freunde hatten unabhngig voneinander die Erfahrung gemacht, dass die kanadischen Studenten weniger Motivation und Einsatz gezeigt hatten. Generell ist es aber trotz des Niveaus der McGill nicht schwierig, seinen Schnitt aus Mannheim zu halten oder zu verbessern. Man sollte bei den Professoren am Anfang aber einen guten Eindruck machen, was besonders fr die mndliche Note hilfreich wre. _x005F_x000D_
+Das Leben hat sich fr alle Leute, die ich kannte, viel auf dem Campus abgespielt, weil man auch viel zu tun hatte, aber auch dort seine Freunde getroffen hat oder in den Dining Halls Essen war. Die McGill hat keine richtige Mensa, sondern mehrere Residential Dining Halls (RVC liegt nur 5-10min zu Fu§ entfernt) und ãCafsÒ. Dort kann man nur mit dem Mealplan oder mit domestic debit cards zahlen. Arbeitsmglichkeiten gibt es sehr viele, sei es in den Bibs oder in den Unigebuden. Allerdings wird es dort um die Klausuren schon voll und es gibt nicht berall Steckdosen Ð gefunden haben wir allerdings immer einen guten Tisch. _x005F_x000D_
+Da die McGill eine englischsprachige Uni ist, wirkt sie generell sehr amerikanisch und wenig franzsisch. Alle Kurse waren auch auf Englisch und man braucht absolut kein Franzsisch, weder in der Uni noch au§erhalb. Allerdings kann man Franzsisch-Sprachkurse belegen. In Mannheim wird der allerdings nicht anerkannt, wenn man vorher schon den FSK Franzsisch-Kurs belegt hat.</t>
+  </si>
+  <si>
+    <t>Das Unisystem in Amerika ist sehr anders verglichen zu dem in Mannheim und deswegen zunchst eine gro§e Umstellung. Da so gut wie alle Kurse einen gro§en kontinuierlichen Arbeitsaufwand (Quizzes, Homework, Assignments) verlangen, hat man das komplette Semester einiges zu tun. Au§erdem werden in den meisten Fchern 2-3 Klausuren geschrieben, statt ausschlie§lich einem Final am Ende. Obwohl das Niveau der Kurse insgesamt unter dem in Mannheim liegt, hat man also viel zu tun. Was mich sehr positiv berrascht hat waren die engagierten Professoren, die ich in meinen jeweiligen Fchern hatte. Sie stehen einem mit Rat und Tat zur Seite und versuchen stets das Beste fr ihre Studenten rauszuholen, so dass man z.B. auch oft durch Extra Assignments die Mglichkeit geboten bekommt, schlechtere Prfungen auszugleichen. Au§erdem sind sie sehr bemht das Interesse der Studenten zu wecken. Mit Bezgen zu aktuellen Themen versuchen die Professoren ihre Kurse spannender zu gestalten, wodurch man auch etwas Abwechslung von den rein theoretischen Konzepten bekommt. In meinem Kurs ECON320 hat der Dozent beispielsweise immer aktuelle Wirtschaftsartikel mit uns besprochen, die mit unseren jeweiligen Themengebieten zusammenhingen.Die Sprache wird meiner Meinung nach fr kaum einen Studenten aus Mannheim ein gro§es Problem darstellen, da man bereits aus Mannheim gewohnt ist einige Fcher auf Englisch zu haben.Als Tipp fr die Kurswahl kann ich euch mit auf den Weg geben, dass ihr euch einige verschiedene Kurse berlegt die ihr belegen knntet. Also nicht nur 4-5, da es gut sein kann, dass die Kurse bereits schon voll sind, wenn ihr euch eintragen knnt, da die amerikanischen Studenten vor den Exchange Studenten ihre Kurse whlen knnen. Ich hatte mir sowohl den Kurskatalog angeschaut als auch ber Online-Portale versucht Informationen ber die jeweiligen Kurse und Professoren zu bekommen. Dabei hat mir besonders die Website http://www.ratemyprofessors.com geholfen. Ich fand es super im Auslandssemester auch mal Fcher aus einem anderen Fachbereich zu belegen und habe deswegen die Mglichkeit genutzt nicht alle ECTS im Fachbereich BWL zu belegen.</t>
+  </si>
+  <si>
+    <t>Die Universitt Trento verteilt sich mit ihren Gebuden ber das gesamte Stadtgebiet, einige Fakultten wie die Psychologische und die Naturwissenschaftliche sind nach Povo, bzw. Rovereto ausgelagert. Die Soziologische Fakultt befindet sich in direkter Nhe zum Dom. Leider gibt es keine englischsprachigen Bachelorkurse in Trento, sodass ich ausschlie§lich Masterkurse besuchen konnte. Fr mein Beifach Psychologie habe ich leider keine passenden Kurse finden knnen. Die Masterkurse waren nicht herausragend anspruchsvoll, allerdings muss man sich darauf einlassen als Mannheimer Student pltzlich sehr qualitativ zu arbeiten Ð gerade am Anfang war es nicht leicht, damit klar zu kommen, doch man gewhnt sich dran. Ebenfalls gewhnt man sich an den starken Akzent der Professoren: deren Englisch zu verstehen war zu Beginn die wohl gr§te Herausforderung fr mich._x005F_x000D_
+Obwohl meine Kurse als Vorlesungen dargestellt wurden glichen sie viel mehr einem Seminar oder bungskurs: wir waren nie mehr als 20 Studierende in einem Kurs und es verlief sehr interaktiv: Hausaufgaben, Gruppenarbeiten und Diskussionsrunden waren weit verbreitet. Als Prfungsleistungen musste ich ausschlie§lich Hausarbeiten schreiben und keine Klausuren im Januar. Besonders empfehlen kann ich den Language &amp; Society-Kurs bei G. Fele, sowie Communication, Science &amp; Technology bei M. Bucchi._x005F_x000D_
+Die Belegung der Kurse war nicht ganz unproblematisch, da aus der im Vorfeld verffentlichten Liste nicht ersichtlich wird, wann die Kurse stattfinden Ð so kam es zu berschneidungen in meinem ursprnglichen Plan und ich musste vor Ort mein Learning Agreement anpassen. Die Organisation des International Office in Trento ist in Ordnung, man muss aber mit langen Wartezeiten rechnen. _x005F_x000D_
+Meine Vorlesungen fanden alle nachmittags/abends statt. Das hatte leider zur Folge, dass ich in Trento keinen Italienisch-Sprachkurs machen konnte. Es werden zu Beginn Intensiv- und ber das Semester Extensiv-Kurse angeboten. Jedoch hatte ich bereits in Mannheim Italienischkurse besucht, sodass ich mich im Alltag gut verstndigen konnte. Englisch kann au§erhalb der Uni kaum jemand, es ist wahrscheinlicher jemanden zu treffen, der Deutsch spricht._x005F_x000D_
+Insgesamt fllt auf, dass man deutlich mehr Prsenzzeiten hat: jeder meiner Kurse fand 4Std./Woche statt. Au§erhalb der Kurse ist die Lage in der Historischen Altstadt von Vorteil Ð auch weil das Mensa-Angebot zu wnschen brig lsst. Allerdings gibt es viele Pizzerien, die Studentenangebote haben. In der Soziologischen Fakultt befinden sich leider nur im Keller Arbeitspltze. Die anderen Fakultten stellen zwar auch Pltze zur Verfgung, die richtige Bibliothek ist allerdings etwas au§erhalb gelegen. Dafr ist diese sehr modern, neu und man hat jede Menge Tageslicht. Alternativ kann ich im Stadtzentrum die kommunale Stadtbibliothek empfehlen. Dort hat man Uni-WLAN und reichlich Arbeitspltze.</t>
+  </si>
+  <si>
+    <t>Das Studium ist recht einfach. Auch wenn es ein Master-Studiengang ist, hatte man an der Uni Mannheim das meiste bereits in irgendeiner Form. Die Franzosen knnen meistens wirklich sehr schlecht englisch, was einem zustzliche Vorteile gewhrt und gerade fr diejenigen wie mich, die sich gegen das Studium auf Franzsisch und fr den Englisch-Track entscheiden, sollte das Studieren kein Problem sein. 
+Wichtig zu wissen:
+Es herrscht Anwesenheitspflicht. Dieses wird rigoros durchgesetzt und es werden hier keine Ausnahmen gemacht, au§er man kommt wirklich noch in den nchsten 48 Stunden mit einem Attest. Das ist am Anfang nervig, aber man gewhnt sich dran und wenn man mal eine eingetragene Abwesenheit hat, dann ist es jetzt auch nicht das Ende der Welt.
+Es gibt sehr, sehr, sehr viele Gruppenarbeiten. Gefhlt macht man das gesamte Semester nichts anderes als irgendwelche Projekte und diese machen auch einen Gro§teil der Endnoten aus. Das ist nett, um Leute kennenzulernen und prinzipiell interessant, kann aber auch schlecht sein, wenn man immer in unmotivierten Gruppen landet. 
+Da ich whrend der Corona-Pandemie ins Ausland gegangen bin, hierzu auch ein paar Punkte:
+Das gesamte Studium inklusive Klausuren fand in Prsenz statt. Ein Segen fr jeden, der keine Lust mehr auf Zoom hat, sollte das an der Uni Mannheim in Zukunft so weitergehen.
+Die Maskenpflicht gilt, es hlt sich jedoch fast niemand daran. Die Franzosen sind generell eher locker mit den Ma§nahmen (mit einer Ausnahme, zu der ich unter Freizeit komme).</t>
+  </si>
+  <si>
+    <t>Von dem Kursangebot war ich schon vor der Auswahl der Uni berzeugt. Enttuscht wurde ich vor Ort nur selten, die Kurse, die ich belegen durfte waren weitgehend interessant und anregend. Das Niveau der Kurse kann ich jedoch in den meisten Fllen nur als unterfordernd bezeichnen, vor allem, wenn man zuvor zwei Jahre den Drill der Uni Mannheim gewohnt war. Was als Austauschstudent schnell auffllt, ist, dass das Bildungsniveau der Kanadier dem deutschen stark hinterherhinkt. Zudem wird schnell bewusst, dass die Dozenten an den kanadischen Unis alles dafr tun, die Studierenden zufrieden zu stellen, da es dort letztendlich auf direktem Wege sie sind, die den Dozenten den Lebensunterhalt bezahlen. Versumte Abgabefristen oder kleine Fehler bei Abgaben werden so gerne mal berlesen und Prfungen sind in den meisten Fllen so gestellt, damit kaum jemand durchfallen kann. Selbstverstndlich gilt es diese Angaben jedoch mit einer Prise Subjektivitt zu betrachten, da ich abgesehen davon, dass ich meine Zeit dort in vollen Zgen genossen habe, viel Wert darauf gelegt habe, das Auslandsjahr erfolgreich abzuschlie§en und bei den Dozenten einen positiven Eindruck als Reprsentant meiner Heimatuniversitt zu hinterlassen.
+Das Studienjahr in Kanada ist dreigeteilt, in das Winter-, Frhjahrs- und Sommertrimester. Ein akademisches Studienjahr in Kanada besteht demnach aus dem Fall term von September bis Dezember, einer zweiwchigen Winterpause, dem Winter term von Januar bis April und der anschlie§enden Sommerpause von April bis September, sodass man im Anschluss an das abgeschlossene Auslandsjahr von April bis September Zeit hat um zu reisen o.. Mein Plan wre es nach den Prfungen nach Montral zu ziehen, dieser Plan wurde mich jedoch, sowie der weiterer Reisen in den Westen Kanadas, von der aktuellen Pandemie leider durchkreuzt. Ich hoffe euch geschieht so etwas nicht.
+Wie vorhin schon erwhnt, ist der kanadische Campus mit dem typischen deutschen kaum zu vergleichen. Solltest du in einem der Studentenwohnheime unterkommen, musst du den Campus nur selten verlassen, vor Ort gibt es jede Menge Mglichkeiten zu speisen, einzukaufen und sogar einige Bars. Am besten lernen konnte ich im CRX (Carrefour des apprentissages), ein Gebude, welches nur zu diesem Zweck erbaut wurde. ber Gruppen- und Einzelarbeitsrume hinweg gibt es dort auf 5 Stockwerken gengend Pltze um konzentriert zu arbeiten. Diese Arbeitspltze eignen sich besonders gut, da die Bibliothek Morisset sich eher fr den eigentlichen Zweck einer Bibliothek lohnt, um Lektren zu durchstbern oder um Kopien zu erstellen. Ebenfalls gut in der Gruppe arbeiten kann man im SITE-Gebude.
+Wer in Ottawa Kurse auf Franzsisch belegt, muss sich darauf gefasst machen, dass der kanadische Dialekt fr Europer zu Beginn erschreckend klingt. Leider (fr einige Franzsischdozentinnen an der Uni Mannheim) muss dir auch bewusst sein, dass es gut mglich ist, dass du den Dialekt teilweise adaptierst, sowohl auf lexikalischer als auch auf phonetischer Ebene. Nach wenigen Wochen jedoch hatte ich mich gut daran gewhnt und Gefallen daran gefunden den Akzent zu imitieren. Der Sprachkurs, den ich fr Italienisch belegt hatte, fiel mir sehr einfach, weil viele diesen Kurs scheinbar nur als Nebenfach oder elective belegten, sodass das Kursniveau allgemein nicht auf Romanisten-Stand war. hnlich ging es mir mit den Kursen auf Spanisch, bei denen, abgesehen von den Muttersprachlern, wenige Studenten mit unserer Mannheimer Niveau mithalten konnten. Zugegebenerma§en war es aber auch sehr erfrischend, zwei Semester in vollen Zgen genie§en zu knnen, ohne komplett im Unistress zu versinken.</t>
+  </si>
+  <si>
+    <t>Die Fakultt fr Politikwissenschaften befindet sich nicht auf dem Campus, sondern ca. 20 Minuten zu Fu§ entfernt im Stadtzentrum (per Bus betrgt die Anfahrt 10 Minuten). Die Kursauswahl ist ausreichend breit, das durchschnittliche Niveau unter dem in Mannheim. Auch in Lublin sind Prsentationen, Hausarbeiten und Klausuren blich, in vielen Kursen ist Anwesenheit und Mitarbeit aber ausreichend fr das Bestehen und eine gute Note. Das akademische Jahr ist in zwei Semester eingeteilt, das HWS geht von Anfang Oktober bis Anfang Februar mit einer Pause zwischen Weihnachten und Neujahr. Mensa und Arbeitspltze gibt es an der Fakultt nicht, bzw. so gut wie keine. Auch die Bibliothek ist sehr klein. Die Englischkenntnisse der Dozierenden sind sehr gut, die der Studierenden sehr gemischt.</t>
+  </si>
+  <si>
+    <t>Das Studium in Australien unterscheidet sich signifikant vom Studium in Mannheim. Das Visum gibt vor, dass man ein Vollzeitstudium belegen muss, was 3 oder 4 Kursen entspricht. Ich habe mich fr 3 Kurse entschieden, da ich ein etwas entspannteres Semester angehen wollte, und war sehr froh ber diese Entscheidung. Bei der Wahl der Kurse muss man sich viel mit sowohl der Uni in Mannheim als auch der Gastuniversitt absprechen. Ich konnte einige Kurse in Australien nicht belegen, da mir die Voraussetzungen gefehlt haben, und andere Kurse hingegen konnte ich mir nicht in Mannheim anrechnen lassen. Nach etwas Zeit habe ich dann jedoch 3 Kurse gefunden, die ich mir in Mannheim alle anrechnen lassen konnte. Man kann auch Kurse belegen, die man sich nicht anrechnen lassen kann, doch ich wollte zumindest versuchen, so viel es geht anrechnen zu lassen. Das Studium unterscheidet sich dahingehend, dass es viel kleinere Kurse sind und eher ein schulisches, viel familireres Flair entsteht. Ich hatte bei zwei meiner Kursen Vorlesung und Tutorium und bei einem Kurs einen Workshop. Die Vorlesungszeiten sind recht hnlich zu denen in Mannheim, jedoch luft das Semester etwas anders ab. Die meisten Prfungsleistungen (bei mir 3 Prfungsleistungen pro Kurs) gibt man schon unter dem Semester, hufig in Form von Essays oder Prsentationen ab. Ich hatte so zur Prfungsphase nur noch eine Klausur, die online war und somit nur 1/3 meiner Note zhlte. Daher wird der Druck etwas herausgenommen und die Note setzt sich nicht nur aus einer Abschlussprfung zusammen. Das ist etwas anders, jedoch auch einmal interessant in solch ein Prfungssystem hineinzuschnuppern. Was das Sprachniveau angeht, hatte ich berhaupt keine Probleme, dem Unterricht zu folgen. Auch meine Professor:innen waren sehr hilfsbereit und haben sich sehr gefreut internationalen Input zu bekommen. Generell empfand ich die Universitt und das Niveau deutlich einfacher als an der Uni Mannheim, was mir auch viele Freunde aus Deutschland besttigt haben. Eine Mensa gab es auf dem Campus nicht, jedoch eine Cafeteria und viele Restaurants und Cafs in der Nhe.</t>
+  </si>
+  <si>
+    <t>Die Kurswahl war eine ziemliche Katastrophe, da es kaum Informationen zu den Kursen oder Zeitplne gibt. Man kann theoretisch jeden Kurs aus den verschiedenen Masterstudiengngen whlen. Whlt man jedoch Kurse aus verschiedenen Studiengngen kann es zu berschneidungen kommen, was bei mir der Fall war. Die Masterstudiengnge sind dort jeweils in 1. und 2. Jahr eingeteilt. Es gibt die Studiengnge IM (Master Ingnierie Mathmatique) und MPA (Master Mathmatiques Pures et Appliques). Allgemein geben die Kurse meistens 6 ECTS und die Noten dort werden in Punkten angegeben, wobei die maximale Anzahl 20 ist und zum bestehen bentigt man 10/20.  Die Kurse sind normalerweise sehr aufwendig deswegen empfehle ich euch macht lieber nur wenige Kurse; ich hatte z.B. nur 3 Kurse und trotzdem sehr viel zu tun. Mein erster Kurs war Processus Stochastique aus dem Master IM. Diesen Kurs kann ich sehr empfehlen da man sehr viele Beispielaufgaben macht und wenig Beweise. Meine beiden anderen Kurse hatte ich mit dem Master "Aggregation", also den Lehrmtern. Diese Kurse waren reine Algebra, sehr theoretisch und deswegen fand ich sie sehr schwierig. Der Schnitt des einen Faches betrug 6/20 Punkten. Obwohl ich besser als der Schnitt war, bin ich durchgefallen und musste dann in die mndliche Nachprfung, was ich niemandem gnnen wrde. Alles in allem wrde ich empfehlen die Kurse des Masters IM zu machen, da diese angewandter und um einiges einfacher sind, obwohl sie sich vielleicht schwierig anhren. Dabei muss man jedoch darauf achten, dass man sie anrechnen lassen kann. Zustzlich ist vielleicht noch wichtig, dass die Kurse mit dem Studiengang "Aggregation" in Trisemestern stattfinden und der Studiengang IM nur zwei Semester pro Jahr besitzt. 
+Die franzsischen Studenten waren sehr nett und hilfsbereit und mittags konnte man fr wenig Geld in die Cafeteria gehen. Au§erdem gibt es fr ERASMUS-Studenten die Mglichkeit einen kostenlosen Sprachkurs zu absolvieren.
+Was mir au§erdem besonders gefallen hat, war der Universittssport. Dafr muss man beim Beantragen seines Studentenausweises fr 45Û pro Jahr Mitglied beim "SUAPS" werden. Dann kann man sich online fr zahllose Sportmglichkeiten anmelden. Fr mich persnlich war das "Futsal" eines meiner Highlights dabei.</t>
+  </si>
+  <si>
+    <t>Bevor das Semester beginnt, muss man eine Liste von 10 Kursen auf dem Portal der NTU angeben. Von diesen bekommt man dann 1-4 am Anfang des Semesters zugeteilt und in den ersten zwei Wochen beginnt die Add-and Drop-Period, in der man tagsber Prioritten fr Kurse angeben kann und dann abends welche zugeteilt bekommt. Ich hatte zum Glck schon am zweiten Tag meine 15 AU, die man braucht voll und habe am Ende der Add- and Drop Period noch einen Kurs bekommen, den ich haben wollte und konnte noch einen droppen. Es gab auch allerdings andere, die weniger Glck hatten, aber die Business School hilft einen auch dabei, wenn man ab einem bestimmten Zeitpunkt noch nicht gengend Kurse hatten. In den ersten Wochen kann es dann aber auch sein, dass man Kurse schon besuchen sollte, die man noch haben will, da es schon in den ersten Wochen z.B. Tests gibt. _x005F_x000D_
+Ich konnte mir meinen Stundenplan so legen, dass ich nur zwei Tage Uni hatte. Allerdings darf man den Arbeitsaufwand nicht unterschtzen, da man schon sehr viel mehr Zeit fr Gruppenarbeiten, Assignments und Prsentationen aufwenden muss. Allgemein basieren die meisten Kurse viel mehr auf aktiver Mitarbeit und sind in Gruppen von 30-40 Leuten. Es bleibt auch noch gengend Zeit um Singapur zu entdecken. Auch gibt es Mitte des Semesters die Recess Week, in der man eine Woche frei hat.</t>
+  </si>
+  <si>
+    <t>Insgesamt war das Studium in Kingston ziemlich entspannt. Sowohl der Stoffumfang als auch der Schwierigkeitsgrad liegen nach meinem Empfinden deutlich unter dem, was man aus Mannheim gewohnt ist. Es sind vier Veranstaltungen zu whlen, die alle ein ganzes Jahr dauern. Als ERASMUS-Student kann man sich seine Kurse vllig frei whlen. Allerdings kann man sich nur bestimmte Kurse anrechnen lassen, das sollte mit der Auslandskoordination Jura frhzeitig abgesprochen werden. Die Kurse teilen sich im Bachelor auf in Erst- (Level 4), Zweit- (Level 5) und Drittjahreskurse (Level 6). Ich selbst belegte jeweils zwei Kurse aus dem ersten (Vertragsrecht Ð Contract Law sowie +ffentliches Recht Ð Public Law) und zweiten Jahr (Strafrecht Ð Criminal Law sowie Europarecht Ð EU Law). Dabei hat man schon spren knnen, dass die Zweitjahreskurse ein hheres Niveau hatten.
+Die Kurse selbst waren als jeweils dreistndige interaktive Vorlesung gestaltet. Insgesamt waren die Dozenten stets ansprechbar und engagiert. Da die Dozenten auch mit Vornamen angesprochen wurden, wirkte die Vorlesung hufig persnlich, was ich als sehr angenehm empfunden habe, auch wenn ich mich zunchst daran gewhnen musste. Da keine Anwesenheitspflicht besteht, sitzen meistens nur recht wenig Studenten in der Vorlesung (in Level 4 ca. 30-40, in Level 5 10-30), weshalb das interaktive Lernen dort sehr gut gelingt und viel Spa§ macht.
+In allen von mir belegten Fchern war meistens whrend der Vorlesungszeit mindestens eine Hausarbeit zu schreiben, die meistens einen Umfang zwischen 2000 und 3000 Wrtern hat. Dazu habe ich einen freiwilligen Kurs zum juristischen Schreiben auf Englisch belegt, der dabei u§erst hilfreich war. Au§erdem habe ich noch einen allgemeinen Englischkurs belegt.
+Etwaige Klausuren werden erst zum Ende des zweiten Semesters im April und Mai geschrieben.</t>
+  </si>
+  <si>
+    <t>-schulischer, viele Abgaben (Aufstze, Vortrge) whrend des Semesters_x005F_x000D_
+-kommt aber auch darauf an welche Fcher man whlt (BWL eher Fokus auf Endklausuren, bei den sprachlichen Modulen Vortrag/Aufsatz und Endprojekt)_x005F_x000D_
 -bei manchen Modulen musste ich Portfolios erstellen, wo man den Inhalt des Semesters zusammenfassen und seine Analyse abgeben sollte_x005F_x000D_
 -Aufbau des Studienjahres: Semester_x005F_x000D_
--Leben auf dem Campus: Mensa, Cafés, ein tolles Sportzentrum mit Pool, Tanzstunden (Bsp. Bachata)_x005F_x000D_
--ich hatte alle Kurse auf Spanisch gewählt, B2/C1-Niveau_x005F_x000D_
--Vorlesungszeiten: Die Menschen in Bogotá stehen sehr früh auf. Die frühsten Kurse gingen um 6.30 Uhr los und die Kurse vom Master, die meistens nachmittags waren, gingen bis 19/20 Uhr</t>
-  </si>
-  <si>
-    <t>Das Studium an der SFU hat mir sehr viel Spaß gemacht. Das System ist dabei ganz anders als in Mannheim. Man hat zwar unter und vor allem zu Beginn des Semesters deutlich mehr zu tun, da wöchentlich Assignments anstehen und in den meisten Fächern auch eine Midterm Klausur geschrieben wird, dafür hat man es gegen Ende aber auch deutlich entspannter. Besonders gefallen haben mir die oftmals kleinen Kursgrößen. So hatte ich Kurse in denen wir nicht mehr als 20 Leute waren. Die SFU hat mehrere Campusse in und außerhalb von Vancouver. So ist es bei mir vorgekommen, dass ich zweimal pro Woche pendeln musste, was ich aber nicht weiter schlimm fand.</t>
-  </si>
-  <si>
-    <t>Das Studium an der UoE ist etwas anders als in Mannheim, aber nicht unbedingt schlechter. Auffällig ist vor allem, dass man sehr viele Midterm Klausuren in den einzelnen Fächern hat und nicht wie in Mannheim eine Klausur am Ende des Semesters, die 100% in die Note zählt. Das Niveau ist vergleichbar, wobei es auch hier große Differenzen in den Schwierigkeitsgraden der einzelnen Kurse gab. Mehr dazu im unteren Abschnitt. Neu für mich war, dass die Dozenten sehr viel eigene Arbeit und Recherche verlangen, die für eine sehr gute Note auch in der Endklausur eingebracht werden sollten. Dort werden dann zum Beispiel Fragen wie: Neben der in der VL behandelten Theorie über das Verhalten der Konsumenten, können Sie andere Theorien nennen und erklären, die sich mit dem Thema beschäftigen? gestellt. Das mag auf den ersten Blick etwas verwirrend wirken, allerdings finde ich rückblickend, dass es mir persönlich doch geholfen hat, da man sich auch nochmal aus einer anderen Perspektive mit dem in der Vorlesung behandelten Material beschäftigt. Bei vielen Kursen gibt es auch begleitende Tutorien, diese sind allerdings als Pflichtveranstaltungen zu sehen und die Anwesenheit wird vor jeder Stunde kontrolliert. Jedoch werden die Lösungen manchmal nicht hochgeladen, sodass ich persönlich kein Problem damit hatte in die Tutorien gehen zu müssen. Alles in allem hat man weniger Präsenzzeit in der Uni als in Mannheim, dies wird durch die häusliche Recherche jedoch wieder ausgeglichen. Manche Übungen sind nur 45-60 Minuten lang, daher werden dort auch meistens nur die wichtigsten Aufgaben besprochen und wenn man zu nicht besprochenen Aufgaben hat, kann man einfach auf die Dozenten zukommen. Vorlesungen dauern meistens zwei Stunden, jedoch machen viele Dozenten eine Pause in der Mitte, sodass man doch relativ gut und konzentriert dabeibleiben kann.</t>
-  </si>
-  <si>
-    <t>Die erste Herausforderung des Auslandssemester war wohl für alle das Erstellen des Stundenplans, da es an der UCA üblich ist, dass alle Kurse zweimal zwei Stunden pro Woche stattfinden. Deswegen kommt es sehr häufig zu Überschneidungen. Allerdings gewährt die Uni jedem ca. zwei Wochen Bedenkzeit, in denen man alle Kurse, die einen interessieren, besuchen kann und danach entscheiden darf, ob man diese auch wirklich belegen möchte. Das Studium an der UCA unterscheidet sich doch ziemlich von dem im Mannheim, da alles sehr verschult ist. So gibt es bei fast allen Kursen Anwesenheitspflicht und oft ist es auch so, dass man eine Note auf die Mitarbeit bekommt. Das spanische Pendant zu unserem Ilias in Mannheim ist der CampusVirtual, wo nicht nur Vorlesungsfolien, sondern auch kleine Aufgabenstellungen hochgeladen werden, welche man bearbeiten muss. Zusätzlich zu den normalen Kursen an der Uni habe ich einen C1-Sprachkurs des Centro Superior de Lenguas Modernas belegt, der von Montag bis Freitag jeweils zweistündig war. Dieser Kurs wird auch für andere Sprachniveaus angeboten und ich empfehle ihn wirklich jedem!</t>
-  </si>
-  <si>
-    <t>Für BWLer ist das Kursangebot groß. Es gibt viele BWL-Kurse die wir wählen können. Und da die HKUST im Gegensatz zu Mannheim eine Volluni ist, gibt viele fachfremde Kurse  von Marine Biology über Sprachkurse bis Geschichte  die ohne Vorkenntnisse gewählt werden können.
-Das Kursniveau ist wirklich überschaubar. Selbst Finance-Kurse wie Family Business haben ein geradezu lächerliches Niveau. Das heißt aber leider nicht das man sich an der HKUST locker einen 1,0er Schnitt holen kann. Es gibt eine Curve wie in Mannheim, und da das Niveau so niedrig ist hängt die Note schnell von Leichtsinnsfehlern ab, oder davon ob man mit seiner Antwort genau den Vorstellungen der Professors entspricht.
-Geprüft wird, wie das außerhalb von Deutschland ja oft ist, nicht nur mit einer Prüfung am Semesterende, sondern auch mit Midterms, Anwesenheits- und Mitarbeitspunkten, Hausaufgaben, Quizzes, usw. Ich finde das gar nicht schlecht, aber wer gerne mitten im Semester nach Südostasien reisen möchte etc. sollte das vielleicht beachten.
-Für VWLer ist Kursauswahl und Anrechnung in Mannheim wohl sehr ätzend.
-Mein Stundenplan war relativ entspannt, da es neben den Vorlesungen i.d.R. keine Tutorien oder Übungen gibt. Man hat durchaus Zeit auch unter dem Semester die Stadt erkunden. Meine Professoren und deren Teaching Assistants, sowie das Verwaltungspersonal konnten alle gutes Englisch. Das Personal in den Wohnheimen kann selten Englisch, was aber nie ein Problem war.
-Unser Semester war bis spätestens 19.12. beendet. Wer also zu Weihnachten wieder daheim sein will, oder die Semesterferien für Reisen, Praktika oder Prüfungen auf den HWS Zweittermin in Mannheim nutzen möchte, kann das erfahrungsgemäß machen.
-Das Campusleben war für mich eines der Highlights. Der Campus hat alles  neben den Wohnheimen, Vorlesungsräumen und Büros, gibt es kostenlos buchbare Sportanlagen, eine große Bibliothek, vier Kantinen die jeweils ähnliches, tendenziell chinesisches Essen zu fairen Preisen anbieten, ein etwas besseres kantonesisches Restaurant, McDonalds, Subway, einen Starbucks und zwei asiatische Starbucks-Konkurrenten, eine koreanische Fast-Food-Kette, einen Curry-Stand, ein indisch-arabischer Imbiss und ein amerikanisches Diner. Es gibt einen Supermarkt und einen convenience store.
-Es war super leicht Leute kennenzulernen. Es gibt hunderte Austauschstudenten, die genauso die Stadt erkunden wollen und man läuft sich auf dem Campus andauernd über den Weg. Vollzeitstudenten, insbesondere Festland-Chinese kennenzulernen ist relativ schwierig. Die haben alle schon einen Sozialkreis und überwinden daher selten von sich aus ihre Schüchternheit, um sich mit Austauschstudenten anzufreunden. Wenn man das will muss man hier selbst die Initiative ergreifen, insbesondere nach Vorlesungen oder man macht bei einem der Sportteams mit.</t>
-  </si>
-  <si>
-    <t>Grundsätzlich waren die belegten Kurse leichter als man es von der Uni Mannheim gewohnt ist. Zudem finden die Kurse meistens zweimal pro Woche für 75 min statt. Die Unterrichtsräume sind eher kleiner als in Mannheim und auch die Anzahl von Studenten pro Kurs ist geringer. Dadurch ist die Atmosphäre deutlich persönlicher und man kennt auch viele Professoren. Zudem wurde uns bei der Einführung erklärt, man solle sich möglichst bei den Professoren als Austauschstudierender vorstellen. Das habe ich in den meisten Kursen auch gemacht und kann es jedem empfehlen._x005F_x000D_
-Der Aufbau der Kurse hat sich stark von dem in Mannheim unterschieden. Es gab während des Semesters viele Assignments, Quizzes, Midterms und Gruppenprojekte. Das hat den Vorteil, dass sich der Arbeitsaufwand besser über das Semester verteilt hat und man im Endeffekt keine Klausurenphase am Ende hat, zumindest nicht vergleichbar mit der in Mannheim._x005F_x000D_
-Bei fast jedem Kurs hat man ein Buch gebraucht, bei denen die Leihgebühr im Bookstore sehr teuer war. Ich habe mir mit anderen Austauschstudenten viele Bücher geteilt und auch das Leihen über Amazon ist zu empfehlen, da es deutlich günstiger ist._x005F_x000D_
-Sprachlich konnte ich in meinen Kursen gut folgen, auch wenn teilweise der Fachwortschatz für einen Kurs wie Psychologie nicht vorhanden war. Meiner Meinung nach wird man an der Uni Mannheim, durch die Vielzahl an englischen Kursen, sehr gut auf ein Semester im englischsprachigen Raum vorbereitet.</t>
-  </si>
-  <si>
-    <t>Die Uni hat ein breit gefächertes Kursangebot, bei dem jeder problemlos etwas interessantes für sich finden sollte. Alle Kurse, die ich nahm, konnte man in Mannheim anrechnen lassen. Das Studienjahr ist in Semester aufgeteilt (31.08 - 05.12 mit anschließender Klausurenphase) und meine Vorlesungen dauerten entweder 1h20m oder 50m. Die meisten Vorlesungen werden an mehreren Tagen angeboten, sodass man sich bei frühzeitiger Planung wahrscheinlich einen (oder zwei) Wochentag(e) vorlesungsfrei halten kann. Grundsätzlich gibt es mehr Leistungsnachweise während des Semesters (zB Vorträge, Assignments, oder Quizzes) als in Mannheim. Dafür zählen die Finals, wenn es sie denn in dem Fach überhaupt gibt, dann nur 25-50% der Endnote. Der Workload ist somit am Anfang des Semesters höher als in Mannheim, bleibt dann aber auf das Semester gesehen recht konstant. Die Finals Season ist somit nicht ganz so stressig wie in Mannheim, da man ein Teil seiner Noten schon gesichert hat. Insgesamt fand ich es aber deutlich leichter in Montreal gute Noten zu schreiben im Vergleich zu Mannheim. Grundsätzlich waren die Lectures mit ca. 30-40 Leuten gestaltet sodass ein persönlicheres Gefühl als in Mannheim entsteht. Die Profs kennen in der Regel auch deinen Namen und duzen dich, sind aber auch aufgrund der Klassengröße deutlich nahbarer als Mannheimer Profs im Schnitt._x005F_x000D_
-Auf dem Campus gibt es mehrere Cafeterien sowie einige andere Imbisse/Restaurants/Cafés bei denen man auch seine Student Card benutzen kann. Gearbeitet habe ich vor Ort nicht deswegen kann ich keine Auskunft über Arbeitsmöglichkeiten dort geben._x005F_x000D_
-Englisch sollte man schon gut sprechen können, da auch alle Kurse auf Englisch unterrichtet werden. Französisch ist natürlich ein Plus, da in Montreal selbst mehr Französisch als Englisch gesprochen wird. Ich kam aber auch gut mit sehr limitiertem Französisch klar, jeder versteht einen auf Englisch aber viele freuen sich, wenn man es zumindest in Französisch versucht.</t>
-  </si>
-  <si>
-    <t>Das Studium an der Linéuniversitetet findet sehr verschult in kleinen Gruppen statt. Mir hat besonders der persönliche Kontakt zu den Dozenten gefallen, die sich tatsächlich für jeden einzelnen Studenten interessieren und sehr umgänglich sind.  _x005F_x000D_
-Allgemein wird in Schweden sehr viel Wert auf Gruppenarbeiten gelegt, wodurch man gerade als Austauschstudent schnell Kontakte herstellen kann. _x005F_x000D_
-Im Vergleich zu Mannheim ist der wöchentliche Stundenplan in Växjö überschaubar. Der Großteil der Arbeit für die Kurse findet daher zu Hause oder mit Referatspartnern in der Bibliothek statt. _x005F_x000D_
-Die Bibliothek ist dafür bestens geeignet, da sie zahlreiche Gruppenarbeitsräume anbietet. _x005F_x000D_
-Die grundlegende Struktur des Studiums in Schweden unterscheidet sich vom Studium in Deutschland. Es gibt Kurse, die zu einem sogenannten Programm gehören. Dies bedeutet, dass man jeweils einen Kurs pro Periode hat, den man mit einer Prüfung direkt am Ende der Periode abschließt. Neben den Kursen in einem Programm gibt es noch die freiständigen Kurse, bei denen man sich die Anzahl der gewünschten Kurse selbst zusammen stellen kann. Hierbei gilt es jedoch zu beachten, dass es zu keinen zeitlichen Überschneidungen kommt.</t>
-  </si>
-  <si>
-    <t>Das Studium an der UNCG und in den USA unterscheidet sich grundsätzlich vom deutschen Universitätssystem. Das Niveau liegt (wählt man nicht die fortgeschrittensten Kurse) im direkten Vergleich auf jeden Fall unter dem deutschen Standard, wobei das auch stark von den jeweiligen Professoren abhängt. Als fast schon UNERLÄSSLICH (gerade vor der Kurswahl) gilt es meiner Ansicht nach, sich über die Professoren und deren Anforderungen über die Seite Rate My Professor zu informieren. Viele der Internationals kennen diese Möglichkeit gar nicht erst bzw. hören davon erst, wenn es bereits zu spät ist. Recherchiert man dann erst einmal die verschiedenen Kursangebote und Professoren, bekommt man durch die vielen Rezensionen einstiger Studenten (nahezu immer Locals) einen guten Eindruck davon, was einen erwartet und kann so potenziell unangenehme Überraschungen vermeiden. Das amerikanische Uni-System ist generell viel verschulter und kleinschrittiger als das deutsche. Immer mal wieder fühlt man sich in die gymnasiale Oberstufe zurückversetzt. Das bedeutet im Umkehrschluss aber auch, dass in fast allen Kursen zahlreiche Hausaufgaben (Assignments), Gruppenprojekte, Präsentationen anstehen, die über die Woche erledigt werden müssen. Dazu gesellen sich dann noch 2 größere Exams (Midterm und Final) sowie ggf. essay-artige Aufsätze (sogenannte Paper). Ich hatte (mit Ausnahme der Fall- und Thanksgiving-Break) somit immer gut zu tun. Auf der anderen Seite sind die Aufgaben selbst sehr gut machbar und es wird nie langweilig. Tipp: Gerade am Anfang, aber auch im weiteren Verlauf des Semesters immer mal wieder in den Syllabus des jeweiligen Kurses gucken, darin stehen fast alle wichtigen Infos und Deadlines!_x005F_x000D_
-Wenn ihr einer derjenigen seid, die eventuell ein bisschen Bammel vor der Lehre auf Englisch haben, kann ich hier Entwarnung geben: Zwar braucht es ein bisschen, sich ins tägliche Hören und Sprechen einzufinden, auch weil so mancher Professor einen mal mehr mal weniger stark ausgeprägten Akzent oder Slang (Südstaaten) aufweist. Die sprachliche Lernkurve ist jedoch unglaublich steil und es macht wahnsinnig Spaß, wenn erste komplexere Konversationen entstehen!</t>
-  </si>
-  <si>
-    <t>Das Studium an der Chulalongkorn University hat meinen Erwartungen entsprochen. Kurz gefasst würde ich es als gute Bildung in einer entspannten und familiären Atmosphäre beschreiben. Ich habe während meines Auslandssemesters die folgenden Kurse belegt :  _x005F_x000D_
-_x005F_x000D_
-Economic Development _x005F_x000D_
-Labour Economics _x005F_x000D_
-Economics of Anti-Corruption_x005F_x000D_
-Urban Economics and Policy _x005F_x000D_
-_x005F_x000D_
-Während den ersten Wochen nach Semesterbeginn hat man die Möglichkeit in Kurse rein zu schnuppern und belegte Kurse abzuwählen und neue Kurse, falls Kapazitäten frei sind, zu belegen. Dies habe ich getan und somit den Kurs Economics of War and Peace nicht belegt, welches Rückblickend nach der Meinung von Kommilitonen eine gute Entscheidung war. Ich war mit allen meinen Kursen sehr zufrieden. Der Kurs Economics of Anti-Corruption wurde von einem einem thailändischen Professor unterrichtet und meinte drei andere Kurse von ausländischen Professoren. Allgemein hätte ich mir mehr gewünscht, dass Kurse von thailändischen Professoren unterrichtet werden, denn in Thailand von einem deutschen Professor unterrichtet zu werden fühlt sich irgendwie komisch an, dennoch sind alles gute und interessante Kurse. _x005F_x000D_
-_x005F_x000D_
-Vor allem, dass die Kurse etwa nur 20-30 Zuhörer hat ist sehr angenehm, davon ist meist etwa die Hälfte thailändisch und die andere Hälfte sind Austauschstudenten. Im Unterricht wird einem deutlich klar wie verschieden die Kulturen sind, während thailändische Studenten sich sehr selten melden und am Unterricht partizipieren wird die Beteiligung am Unterricht meist von internationalen Studenten geleitet. Dies liegt daran, dass Thais oft sehr schüchtern sind und obwohl sie sehr gutes Englisch sprechen, haben sie dennoch Angst komisch zu klingeln. Die Professoren versuchen dem entgegen zu wirken, dennoch meist ohne Erfolg. In allen meinen Fächern bis auf Urban Economics and Policy habe ich mit meinen Kommilitonen eine oder mehrere Präsentation als Leistungsnachweis gehalten. Dies hat mir persönlich sehr Spaß gemacht, bei der ersten Präsentation musste man sich erst wieder daran gewöhnen, ich habe jedoch sehr schnell Gefallen am präsentieren gefunden. _x005F_x000D_
-_x005F_x000D_
-Allgemein muss ich zugeben, dass im Vergleich zur Uni Mannheim deutlich weniger Aufwand nötig ist um gute Noten zu erreichen. Um einen Vergleich zu bieten würde ich sagen, dass eine Klausur an der Uni Mannheim etwa dem Leistungsaufwand von zwei Fächern an der Chulalongkorn entspricht. Dies mag aber vielleicht auch daran liegen, dass die Leistungen über das ganze Semester erbracht werden und es nicht eine finale Klausur am Ende des Semesters gibt. Somit haben wir midterms und finals geschrieben und zwischen den jeweiligen Prüfungswochen gab es weitere Leistungsnachweise wie z.B. Essays die wir schreiben mussten. Ich fand die Fächer allgemein sehr interessant und hatte das Gefühl zum ersten mal konnte ich anwenden was ich in meinem VWL Studium bereits gelernt habe und meine Meinung in diversen Themen äußern und an spannenden Diskussionen teilnehmen. Besonders hat mir das Fach Urban Economics and Policy gefallen, jedoch wird der Professor die Chula verlassen, weshalb dieses Fach nicht weiter angeboten wird.</t>
-  </si>
-  <si>
-    <t>Studium an der Gasthochschule: 
-Die UDD bietet viele Kurse auf Spanisch aber auch viele Kurse auf Englisch an.  In den Kursen auf Englisch sind die meisten Leute Austauschstudenten. Einige wenige Chilenen aus höheren Semestern sind auch dort. Das Niveau ist insgesamt viel niedriger als in Mannheim. Die Professoren wissen, dass Austauschstudenten nicht nur für die Universität da sind und haben ein ziemlich lockeres Programm. Jeden Kurs hat man 3 Stunden pro Woche meistens in Klassen mit 15-40 Studenten. Dadurch kommt es zu viel mehr Kontakt zwischen Studenten und Professoren, diese sind meistens super nett und aufgeschlossen. Die Arbeitslast ist an der UDD über das ganze Semester etwa gleich verteilt. Man arbeitet in allen Kursen an lang- oder kurzfristigen Gruppenprojekten und man hat oft kleine oder größere Präsentationen über die Ergebnisse oder den Ablauf der Projekte zu halten. In manchen Kursen muss man wöchentlich kurze Hausaufgeben abgeben. In manchen Kursen gibt es auch eine schriftliche Mid-term Klausur, in manchen Kursen auch eine schriftliche Klausur am Ende des Semesters. Wie oft man Präsentationstermine hat, ob man Mid-terms und/oder Finals hat oder auch schriftliche Abgaben zu einer Gruppenarbeit hängt ganz vom Professor ab. Eine stressige Klausurenphase am Ende des Semesters wie in Mannheim fällt jedoch meistens an der UDD aus.                            Das Semester an der UDD fängt Anfang August an und geht bis Anfang/Mitte Dezember. Die Woche des 18. Septembers ist eine Ferienwoche, da der 18. September der wichtigste Nationalfeiertag in Chile ist. Der Campus der Universität ist sehr modern und gut ausgestattet. Als Essensmöglichkeiten gibt es eine Mensa, mehrere Kaffees und Snack-shops sowie einen Subway. Es gibt 2 Fußballfelder mit Kunstrasen die man pro Stunde online reservieren kann, ein Fitnessstudio und Tischtennisplatten, sowie Fernseher mit Playstation als Freizeitaktivitäten. Die Bibliothek ist auch gut ausgestattet, ähnelt denen in Mannheim. Dort kann man auch Gruppenräume reservieren.</t>
-  </si>
-  <si>
-    <t>Zumindest was Politikwissenschaft angeht ist das Niveau eindeutig niedrig als in Mannheim, das kann allerdings natürlich auch an meiner Kurswahl liegen. Die Klausuren waren mit geringem Lernaufwand gut machbar. Der Schwerpunkt ist eindeutig qualitativ, quantitativ darf man nichts erwarten - mir hat die Abwechslung gefallen. Alle Kurse waren auf Englisch. Der größte Unterschied war die riesige Kursliteratur, pro Kurs sind pro Woche schon 3-6 Artikel bzw. Buchkapitel angefallen  man kommt aber gut durch ohne alles zu lesen, wichtiger ist der Besuch der Seminare. Allgemein ist alles in der Universität sehr gut erklärt und im Zweifelsfall wird einem freundlich geholfen. Es gibt pro Fakultät eine Bibliothek, die in der Klausurenphase früh voll waren, ab frühem Nachmittag hat man aber wieder einen Platz bekommen. Ausweichmöglichkeiten sind die Studierendencafes oder die Mensen. In manchen Wohnheimen gibt es auch study rooms. _x005F_x000D_
-Obwohl Norweger*innen sehr gut Englisch können hat der Sprachkurs viel Spaß gemacht und war auch nützlich, um im Alltag mehr verstehen zu können  kann ich empfehlen!_x005F_x000D_
-Das HWS hat bei mir schon im August begonnen, meine letzte Klausur habe ich Anfang Dezember geschrieben, die Prüfungstermine können aber auch kurz vor Weihnachten liegen.</t>
-  </si>
-  <si>
-    <t>Die FGV hat ein breites Angebot von Kursen, wobei es nur eingeschränkte Möglichkeiten gibt, fachfremde Kurse aus den Bereichen Sozialwissenschaften oder Recht zu wählen. Das Niveau der Kurse unterscheidet sich stark von den Dozierenden. Die Gruppengrößen sind sehr klein und die Kurse sind durch eine hohe Interaktivität sehr interessant gestaltet. Bei vorhandener Sprachkenntnis können Kurse auch auf Portugiesisch belegt werden._x005F_x000D_
-In der FGV gibt es einen Dresscode, und zwar müssen lange Hosen getragen werden, worauf beim Koffer-Packen geachtet werden sollte. Zudem sollte man immer einen Pullover dabei haben, da die Räume sehr stark klimatisiert sind._x005F_x000D_
+-Leben auf dem Campus: Mensa, Cafs, ein tolles Sportzentrum mit Pool, Tanzstunden (Bsp. Bachata)_x005F_x000D_
+-ich hatte alle Kurse auf Spanisch gewhlt, B2/C1-Niveau_x005F_x000D_
+-Vorlesungszeiten: Die Menschen in Bogot stehen sehr frh auf. Die frhsten Kurse gingen um 6.30 Uhr los und die Kurse vom Master, die meistens nachmittags waren, gingen bis 19/20 Uhr</t>
+  </si>
+  <si>
+    <t>Die Bocconi University ist eine renommierte Uni mit einem breiten Kursangebot. Wie in Mannheim ist das Jahr in zwei Semester unterteilt und das Kursniveau ist vergleichbar mit dem Level an der Universitt Mannheim. Anders als in Mannheim gliedern sich die Kurse allerdings nicht in Vorlesung, bung und Tutorium, sondern bestehen lediglich aus zwei Vorlesungen pro Woche mit integrierter bung.
+Zu kritisieren ist der Kurswahlprozess. Dieser findet nach dem FCFS-Prinzip statt, was zu einem vllig berlasteten Portal mit langen Wartezeiten fhrt. Daher ist es notwendig sich mehrere Alternativen zurecht zu legen.
+Das Prfungsformat ist abhngig davon, ob man als attending oder non-attending student kategorisiert wird. Um attending student zu sein, muss man bestimmte Voraussetzungen erfllen. Diese unterscheiden sich je nach Kurs, das hufigste Kriterium ist aber die Anwesenheit in 75% der Vorlesungen. Fr attending students setzt sich die Note in der Regel aus Gruppenprojekten whrend des Semesters oder einem Midterm und der finalen Klausur zusammen. Fr non-attending students zhlt die finale Klausur 100% der Note. Allerdings umfasst die Prfung in diesem Fall aber auch Fachbcher und wissenschaftliche Artikel und nicht nur den Vorlesungsinhalt.
+Die Anerkennung der zuvor abgestimmten Kurse  war problemlos.
+Der Campus ist relativ klein, wodurch die Wege zwischen den Vorlesungsrumen relativ kurz sind. Fr BachelorstudentInnen finden die meisten Vorlesungen ohnehin nur in zwei Gebuden statt (Via Sarfatti 25 und Via Sraffa 13) und nicht in dem modernen Gebude, das hufig auf Fotos zu sehen ist. Auf dem Campus befinden sich zwei Cafeterien rundherum gibt es eine Vielzahl an Mglichkeiten fr einen Snack oder Kaffee.
+Alle Dozenten der von mir belegten Kurse waren flie§end in Englisch. Im Allgemeinen sind Italienischsprachkenntnisse nicht notwendig um sich an der Bocconi zurecht zu finden. Trotzdem bietet die Universitt einen Crashkurs vor dem Semester und einen FollowUp-Kurs whrend des Semesters fr Austauschstudierende an, um Italienisch zu lernen.</t>
+  </si>
+  <si>
+    <t>Das Studienangebot ist fr Austauschstudierende nicht sehr umfangreich, ich war dennoch zufrieden mit meinen Belegungen. Allgemein ist es etwas einfacher, whrend der Arbeitsaufwand insgesamt hher ist und es nicht einfach ist, besonders gute Noten zu bekommen. Typischerweise setzt sich die Gesamtnote ungefhr folgenderma§en zusammen: 40% Endklausur, 30% Midterm und 30% sonstige Leistungen wie Prsentationen und Mitarbeit in den bungen. Damit verteilt sich die Arbeit ber das ganze Semester und man muss regelm§ig an kleineren Projekten arbeiten. Besonders lehrreich ist der Kurs International Finance, bei dem die Dozentin die Veranstaltungen engagiert gestaltete. Asean Economies gibt einen interessanten Einblick in die wirtschaftspolitischen Verhltnisse Sdostasiens. Dieser Kurs ist nicht sehr umfangreich und nicht kompliziert. Industrial Oranization greift insbesondere die Themen von Mikrokonomik B auf und vertieft diese, ohne dass dies besonders anspruchsvoll ist. Ich wrde diesen Kurs dennoch empfehlen. Von Money and Banking wrde ich am ehesten abraten, da der Kurs die Themen nur oberflchlich behandelt und man viele Abschnitte stur auswendig lernen muss._x005F_x000D_
+Es gab zwei Einfhrungswochen, was eine gute Mglichkeit ist, die Stadt und die Uni vor Studienbeginn kennenzulernen. Man muss jedoch nicht so frh anreisen, wenn man dies nicht mchte. In der Mitte des Semesters und direkt vor den Endklausuren gibt es je eine freie Woche, sodass das Semester insgesamt ungefhr vier Monate lang ist. Der Alltag spielte sich berwiegend auf dem gro§en Campusgelnde ab, auf dem es viele Arbeitspltze gibt und der somit viele Gelegenheiten zum Arbeiten und fr die Freizeitgestaltung bietet.</t>
+  </si>
+  <si>
+    <t>Das Kursangebot der University of Connecticut ist sehr umfangreich und es ist ohne Probleme mglich, genug interessante Kurse zu belegen, wobei das Kursniveau im Vergleich zu Mannheim eher einfach und langsam war. Auch die Prfungen unterscheiden sich substanziell von denen in Mannheim: es gibt viele Midterms und Essays und dafr zhlt die finale Klausur nicht so viel. Au§erdem kann es sogar sein, dass Anwesenheit und mndliche Mitarbeit sowie Quizzes whrend den Vorlesungen zur Notenbildung beitragen. Die Kurse sind trotzdem zeitintensiv, da man bereits im Semester viele Prfungen und Papers ablegen muss. Die Anrechnung von Kursen in Mannheim war kein gro§es Problem, solange die Kurse nicht fachfremd und vom Anspruch nicht komplett unterschiedlich im Vergleich zu Mannheim sind. Natrlich ist man anfnglich ein wenig limitiert und verunsichert, wenn man zuvor nicht regelm§ig auf Englisch gesprochen und diskutiert hat, aber man gewhnt sich daran und kann ohne Probleme mit dem Sprachniveau der heimischen Studenten mithalten.</t>
+  </si>
+  <si>
+    <t>Der vollstndige Name der Universitt lautet: Fundao Getlio Vargas Ð Escola Brasileira de Administrao Pblica e de Empresas. Das ÒBWL-GebudeÓ, die EBAPE, liegt in der Rua Jornalista Orlando Dantas und somit 2 Gehminuten vom Hauptgebude der FGV entfernt. Auf zwei Hochhusern verteilt sich der VWL-Campus (EPGE) und der Jura-Campus (Direito). Dadurch bot sich ein breites Spektrum an Kursen zur Auswahl an. Bedingung war, dass 75% davon EBAPE-Kurse sein mssten. Au§erdem durften maximal 50% fachfremd sein. Es liegt in der Betrachtung des Akademischen Auslandsamts welcher Kurs fachfremd oder fachbezogen ist. Als Muttersprachler durfte ich auch Kurse auf Portugiesisch belegen. Alle Kurse wurden zuvor mit dem AAA besprochen, sodass auch alle angerechnet wurden als Auslandsleistung. Wie bereits erwhnt waren die offiziellen Semesterzeiten 5. August bis 19. Dezember. Es gab eine Klausurenphase Ende September und eine Ende November. Die letzte Klausur schrieb ich bereits am 27. November und hatte in anderen Fchern lediglich Essays abzugeben. Die englischen Kurse, die man an der FGV-EBAPE belegt, sind praktisch nur fr Austauschstudenten, sodass man hier im Vergleich zu Mannheim weniger ãFrontalunterrichtÒ erwarten kann. Die kleinen Gruppen erinnern an Schulzeiten; es wird viel mehr diskutiert und mit dem Professor interagiert, man wird angeregt sich fr das Fach persnlich zu interessieren, sich eigenstndig zu informieren und zu recherchieren. Daraus ergibt sich eine meines Erachtens nach sehr positiv gestimmte Lernatmosphre. Die Benotung ist dementsprechend sehr kulant und eine aktive Prsenz im Unterricht flie§t immer in die Notengebung ein. Es gibt eine Mensa, namens ãSaporeÒ, am Hauptgebude der FGV. Das Tagesgericht kostete ca. 3,50 Euro, das Buffet ist etwas teurer; wobei das Essenangebot ausgesprochen gut ist. Wichtiger Denkzettel bezglich der FGV: kurze Hosen, Flip-Flops, usw. sind per Dresscode verboten. Die Klimatisierung in der FGV ist jedoch so stark, dass man in den Unigebuden sowieso lieber lange Hosen trgt.</t>
+  </si>
+  <si>
+    <t>Die Informationen zum Studium waren ausreichend. Lediglich die Pass or Fail Option war uns im Vorhinein nicht bekannt, falls dies bestehen bleibt wre eine Aufklrung hierber wnschenswert.</t>
+  </si>
+  <si>
+    <t>An der QueenÔs wird man dann automatisch fr die Pflichtfcher des MIB eingeschrieben. Einzig der Wahlkurs, der im November und Dezember stattfindet, muss aktiv gewhlt werden. Wann eure Rckkehr stattfindet, ist in Folge des MIBs ebenfalls mehr oder weniger euch berlassen. Ihr knnt euch fr ein weiteres Auslandssemester an einer der Partneruniversitten der Queen's bewerben (ohne Anrechung der Kurse in Mannheim), ein weiteres Semester an der Queen's verbringen (ohne Anrechnung der Kurse in Mannheim) oder fr die Masterarbeit nach Mannheim zurckkehren._x005F_x000D_
+_x005F_x000D_
+An der kanadischen Universitt hat mir besonders gut gefallen, dass man anders als bei einem normalen Auslandssemester nicht in eine seit lngerem bestehende Gemeinschaft eintritt, sondern Teil eines neuen Masterjahrgangs ist. Der MIB schreibt die Multikulturalitt wirklich besonders gro§. So kamen die 100 Studenten aus unserem Jahrgang aus circa 21 Nationen. Um den kulturellen Austausch zu frdern und den Klassenverband zu strken, gab es zu Beginn fr circa zwei Wochen Einfhrungsveranstaltungen. Hierbei wurden die Universitt, das Programm vorgestellt und auf kulturelle Unterschiede hingewiesen. Weiterhin hat man in dieser Zeit seine Teamkollegen, mit denen man jegliche Gruppenarbeiten in den Pflichtkursen anfertigt und mit denen man dementsprechend viel Zeit whrend des Semesters verbringt, durch zahlreiche Aktivitten kennengelernt. Auch bei der Zusammensetzung der Teams wurde auf die Internationalitt geachtet, sodass meine Teammitglieder aus Kanada, Portugal, China und Kambodscha kamen._x005F_x000D_
+_x005F_x000D_
+Generell unterscheidet sich das Studiensystem an der Smith School of Business deutlich von dem in Mannheim. Die Kurse wurden in Klassen von 50 Leuten gelehrt und die aktive Teilnahme wurde auch benotet. Zudem gab es, au§er in einem Wahlkurs, keine Klausuren. Die zu erbringenden Prfungsleistungen waren demnach unterschiedliche Assignments, die bis zu 40% der Gesamtnote ausmachten. Bis zu 40% der Gesamtnote waren zudem als Gruppe zu erbringen. Hierbei handelte es sich meistens um einen Gruppenreport mit abschlie§ender Prsentation. Bei den meisten Einzelaufgaben handelte es sich um Reflektionspaper, deren Bewertung meist etwas subjektiv erschien. Dadurch, dass es fast keine Endklausuren gab, verteilte sich der Arbeitsaufwand ber das ganze Semester. Jeden Tag gab es eine dreieinhalbstndige Vorlesung sowie zahlreiche Paper und ein bis zwei Cases, die bis zum nchsten Tag vorzubereiten waren. Wahrscheinlich haben viele Professoren selbst eingesehen, dass nicht alles im Detail vorbereitet werden konnte (sofern man sein soziales Leben nicht komplett aufgeben wollte), sodass der Inhalt der meisten Paper (wenn berhaupt) nur angeschnitten wurde. Dies hat dazu gefhrt, dass viele Themen nur oberflchlich besprochen wurden und die Studenten sich eher weniger Readings, dafr aber intensivere Diskussionen gewnscht htten. Weiterhin gab es in den meisten Gruppen erhebliche Unterschiede, u.a. hinsichtlich der Englisch- und Researchkenntnisse der einzelnen Gruppenmitglieder, sodass sich der Arbeitsaufwand teilweise deutlich auf ein bis zwei Gruppenmitglieder konzentrierte. Demnach sind sehr gute Noten zwar mit einigem Aufwand verbunden, allerdings kann man sich auch relativ sicher sein, dass man fr seinen Aufwand belohnt wird. Weiterhin unterscheidet sich das Verhltnis zu den Professoren deutlich. Auf E-Mails antworten Professoren meist binnen weniger Stunden und Fragen werden gerne sowohl nach dem Unterricht als auch in den persnlichen Sprechstunden beantwortet. Neben den Pflichtkursen und dem Wahlfach ist zudem ein Beratungsprojekt mit dem zu Beginn zugeteilten Team ber das ganze Jahr hinweg zu erledigen. Hierfr steht jedem Team ein Ansprechpartner aus der Wirtschaft zur Seite. Zudem wird das Team im Rahmen eines Pflichtkurses auf die virtuelle Zusammenarbeit, die meist nach der Rckkehr ber mehrere Zeitzonen stattfindet, vorbereitet. Grundstzlich ist dieser Kurs sicherlich eine gute Erfahrung, bei der Umsetzung (bspw. hinsichtlich der Koordination zwischen Prfern sowie Ansprechpartnern und den IT-Kenntnissen jener Ansprechpartner, die fr ein virtuelles Projekt hilfreich wren) gibt es allerdings noch deutlichen Verbesserungsbedarf und der Aufwand stand in keinem Verhltnis zu den erarbeiteten ECTS._x005F_x000D_
+_x005F_x000D_
+_x005F_x000D_
+Die Betreuung durch die Gasthochschule whrend des Semesters war sehr gut. E-Mails wurden schnell beantwortet und zahlreiche Sprechstunden angeboten. Au§erdem kann man als MIB-Student die Services des Careercenters kostenfrei nutzen. Zum Beispiel stehen Coaches fr verschiedene Industrien oder fr die Anfertigung des Lebenslaufs und des Anschreibens zur Verfgung.</t>
+  </si>
+  <si>
+    <t>Das UCD ist das gr§te College Irlands, was sich vor allem in seinem eindrucksvollen Campus widerspiegelt. Der Universittscampus befindet sich etwa 5 km vom Stadtzentrum entfernt und bietet mit seinen vielen Grnflchen und Seen ein traumhaftes Lernumfeld. Auf dem Campus befinden sich nicht nur zwei kostenlose Fitnessstudios, ein kleiner Supermarkt, riesige Sportpltze und ein 50m Schwimmbad, sondern auch kleine Cafs und ein Pub. Daneben gibt es auf dem Campus auch eine Apotheke und einen Arzt. _x005F_x000D_
+_x005F_x000D_
+Die Semesterzeiten des Wintersemesters decken sich mit denen von Mannheim. Man kann zwischen zahlreichen Business Kursen whlen, bei welchen vor allem auch Randbereiche der BWL vertieft angeboten werden. Die Module sind sehr praxisorientiert und weniger theorielastig. Aufgrund der kleinen Kursstrke (zwischen 30 und 100 Studenten) waren die Vorlesungen sehr interaktiv. Auch wenn sich manche Modulinhalte untereinander berschnitten haben, waren die Inhalte immer interessant und lehrreich. Das Vergabesystem basiert auf dem first-come-first-serve Prinzip, sodass bereits nach wenigen Minuten der Freischaltung alle beliebten Kurse voll waren. Folglich empfehle ich vorsichtshalber 6 Fcher und 3 Auswahlfcher auszuwhlen, um im Notfall auf diese zurckgreifen zu knnen. Ich habe schlie§lich in allen meinen Wunschkursen einen Platz erhalten. Daneben ist es auch mglich, innerhalb der ersten zwei Wochen Kurse ber SISWeb zu tauschen. Da nicht alle Kurse ihren Kursbeschreibungen entsprechen, ist es sinnvoll, so viele Kurse wie mglich in diesen Wochen zu besuchen. Alle meine Kurse bauten nur auf einer Vorlesung pro Woche auf, wobei bei mathematischen Kursen oftmals zustzlich noch ein Tutorium angeboten wurde. Demnach hatte ich nur an 3 Tagen Vorlesungen. Eine Vorlesungseinheit dauert 1:50h, welche in manchen Modulen durch eine 5mintige Pause unterbrochen wird. Das Kursniveau ist generell etwas niedriger als in Mannheim, wobei der Workload whrend des Semesters nicht zu unterschtzen ist. Im Gegensatz zu Mannheim ist ein Modul nicht nur auf einer Endklausur aufgebaut, sondern es mssen zahlreiche Assignments absolviert werden. Diese ãContinuous WorkÒ u§ert sich in Form von Prsentationen, Essays und Gruppenarbeiten ber das gesamte Semester. Die zahlreichen Prfungsleistungen und Gruppentreffen nahmen viel Zeit in Anspruch. Beispielsweise hatte ich nur eine Endklausur, musste dafr aber 6 Essays, 2 Prsentationen und 5 Gruppenreports absolvieren. Die Gruppenarbeiten waren leider oft aufgrund der Gruppenmitglieder ermdend und aufwendig, da sowohl manche Austauschstudenten als auch irische Studenten wenig Motivation, Grndlichkeit und Zuverlssigkeit in die Arbeit stecken. Die Klausuraufgaben sind im Essay-Style aufgebaut und liefen bei uns online ber Brightspace (= Ilias) ab. Anders als in Mannheim gibt es an der UCD eine Reading-Week vor der Klausurenphase, um sich auf die Abgaben vorzubereiten. Das Sprachniveau ist vergleichbar mit den englischsprachigen Kursen in Mannheim, sodass ich keine Probleme hatte.</t>
+  </si>
+  <si>
+    <t>Das Studienjahr an der NUS gliedert sich ebenfalls in Semester und fngt Mitte August bzw. Mitte Januar mit den Vorlesungszeiten an. In der Mitte der Vorlesungszeit gibt es eine Recess Week und zwischen Vorlesungszeit und Prfungen eine Reading Week. Die NUS hat ein sehr breitgefchertes Vorlesungsangebot aus welchem Kurse gewhlt werden knnen. Es ist darauf zu achten, dass man sich fr die Module entsprechend bewerben muss und dass es zu keinen Stundenplanberschneidungen kommen darf. Bei VWL- und v.a. BWL-Modulen ist es teilweise sehr schwierig, eine Zusage zu erhalten, bei den Mathemodulen ist das meist problemfrei. Falls man die Wunschmodule nicht erhlt, sollte man die Add-/Drop-Exercise zu Beginn des Semesters nutzen. Die Module setzen sich meist aus Vorlesungen und Tutorien zusammen. Es sind in den Mathematikveranstaltungen nicht wchentlich bungsbltter abzugeben, auch wenn es welche gibt und diese in den Tutorien besprochen werden. Dafr gibt es in vielen Modulen Assignments (meist 1-4), die entsprechend bewertet werden und in die Endnote mit einflie§en. Die Assignments knnen bungsblttern hneln oder auch eine kleine Projektarbeit sein. Weiterhin gibt es in den meisten Fchern Midterms, die jedoch nicht schwierig sind. Die Klausur am Ende des Semesters macht ca. 50% - 80 % der Endnote aus. Die Professoren bemhen sich die Materialen mglichst gut online bereitzustellen, teilweise werden Vorlesungen auch aufgezeichnet. Im Allgemeinen wird die Mathematik nicht ganz so formell sauber und streng prsentiert als in Mannheim und etwas mehr Wert auf Anwendung und Auswendiglernen gelegt. Unterrichtssprache ist ausschlie§lich Englisch. Im Gesprch mit den Locals lernt man mit der Zeit etwas Singlish, den lokalen Dialekt. Die Anerkennung der Mathematikmodule in Mannheim hat bei mir kein Problem dargestellt.</t>
+  </si>
+  <si>
+    <t>Das Studiensystem an der Universitt Rotterdam und generell in die Niederlande, ist sehr anders. Das komplette Psychologie Studium an der Uni wird mit der Arbeitsmethode ãPBLÒ (Problem-based-learning) gelehrt. Um es simple zu erklren: in 5 Wochen hat man einen einzigen Kurs. Jede Woche beschftigt man sich mit einem Thema des Kurses (z.B. in A&amp;O Psychologie eine Woche Leadership, eine Woche Emotions at work). In Jeder Woche hat man eine Vorlesung (diese behandelt das Thema grob, manchmal gibt es auch einen Gastvortrag) und ein PBL-Group-Meeting, welches 3 Stunden dauert. Die restliche Zeit der Woche soll man selbststndig arbeiten. Man erhlt eine Liste an Artikel, welche man lesen soll und dazu spezifische Learning-Goals beantworten soll. Was man sich in dieser Zeit erarbeitet, wird dann in dem PBL-Meeting besprochen/diskutiert. Im Internet findet man noch mehr zu PBL. Ich wrde mich vorab darber informieren, um zu sehen, ob diese Lehrmethode einen anspricht. Vor der ganzen selbststndigen Arbeit sollte man sich jedoch nicht eingeschchtert fhlen! In der Tat ist es viel zu lesen, aber es sind normale Artikel oder Buchkapitel. Ich empfehle, jeden Artikel zusammenzufassen und anschlie§end zu markieren, was fr ein Learning-goal relevant ist. Die Artikel an sich, sowie der Inhalt der Vorlesung bilden nmlich dann die Grundlage der Prfung, welche man am Ende der fnf Wochen schreibt. Vor Beginn des Studiums wurde ich oft darber informiert, dass es schwer ist, gute Noten zu schreiben. Ich wei§ nicht ob es spezifisch an meiner Kurswahl lag, aber ich kann es das nicht besttigen. Ich habe ein wenig mehr Arbeitsaufwand als in Mannheim betrieben, da die niederlndischen Universitten den Arbeitsaufwand bezglich der ECTS-Zahl sehr genau nehmen und habe keine schlechteren Noten geschrieben. _x005F_x000D_
+Der Studiengang der Psychologie ist, da es keine NC-Beschrnkung gibt, ein Studiengang, den sehr viele studieren und nichts Besonderes ist. Ich empfand das als sehr angenehm. Jedoch hatte ich teilweise das Gefhl, dass meine Kommiliton*innen etwas unmotiviert waren. _x005F_x000D_
+Der Campus der Universitt ist sehr gro§ und ich empfehle zur ersten Veranstaltung gengend Zeit mitzunehmen, um den richtigen Raum zu finden. Es gibt in jedem Gebude Arbeitsbereiche und es gibt eine gro§e Bibliothek. Da es an der Universitt ber 20.000 Studierende gibt, sind diese oft voll, aber wer vor 10 Uhr in die Bibliothek kommt, findet eigentlich immer einen Platz. Es lohnt sich alle Gebude zu erkunden, da man immer wieder neue Bereiche zum Lernen und Arbeiten finden kann. Ich kann die Arbeitsbereiche im Polak-Building empfehlen, diese sind am neusten und sehr modern. _x005F_x000D_
+Die Mensa der Universitt ist sehr klein und anscheinend auch sehr unbekannt. Das Angebot in der Mensa ist relativ klein. Sonst bietet die Universitt noch einen Food-Plaza mit verschiedenen Angeboten an, diese sind gr§tenteils jedoch sehr teuer, weswegen ich oft mein Essen von zuhause mitgenommen habe. _x005F_x000D_
+Da die Universitt sehr international ist, ist so gut wie alles zustzlich auf englisch ausgeschildert und so gut wie jeder, auch au§erhalb der Universitt, spricht einwandfrei englisch. Zu Beginn hatte ich gro§e Unsicherheiten bezglich meines Englisch-Niveaus, ich kann jedoch versichern, man muss sich nicht vor einem Studium auf englisch frchten. Auch mndliche Mitarbeit in der Uni, oder die Prfungen. Es ist nicht schlimm, dass man nicht perfekt englisch spricht.</t>
+  </si>
+  <si>
+    <t>Hier kommen wir jetzt zu den Nachteilen. Die Kursauswahl war katastrophal. Es gab im Prinzip keinen VWL Kurs den wir htten belegen knnen. Auch die ja bereits sehr kleine Auswahl auf der Internetseite der Uni Mannheim gab es quasi nicht. Wer also vor hat im Ausland viele Kurse zu belegen oder sich akademisch weiterzuentwickeln ist hier falsch. Ich habe zusammen mit den drei anderen MannheimerInnen dann quasi nur Finance Kurse belegt die ich mir anrechnen lassen konnte. Am Ende kann ich mir nun 15 Credit Points hier anrechnen lassen was fr mich genug, aber natrlich sehr wenig ist. Belegt habe ich Financial Institutions, Financial Management und Investment. Au§erdem habe ich noch Elementary Chinese und Management System Simulations belegt, diese beiden Fcher kann ich mir jedoch nicht anrechnen lassen. _x005F_x000D_
+Das Studium ist insgesamt erwartungsgem§ deutlich anders zu dem Mannheimer Studium. Man hat pro Woche und Fach eine Vorlesung, bungen oder Tutorien gibt es nicht. Die Vorlesungen sind deutlich lnger und haben dann einige fnf mintige Pausen. Aber insbesondere Financial Institutions, was die erste Semesterhlfte 3,5 Stunden lang geht, wird dann doch etwas langwierig. Meine ProfessorInnen haben alle recht gutes Englisch gesprochen, viele von ihnen haben auch eine Zeit lang in Amerika studiert. _x005F_x000D_
+Es ist schwer zu beurteilen in wie weit die Kurse leichter oder schwerer als daheim sind, da ich zuvor keine Finance Kurse belegt habe. Klar ist aber mathematisch ist das alles kein Problem fr einen VWLer. Leicht waren die Kurse jedoch auch nicht. Der Arbeitsaufwand ist jedoch deutlich hher als daheim, zumindest unter dem Semester, da es stndig Assignments, Gruppenarbeiten und meistens auch Midterms gibt. (Besonders Investment artet da ein wenig aus) Dafr hat man aber zum Ende etwas weniger zu tun und immerhin hngt dann auch nicht die gesamte Note von nur einer Klausur ab. _x005F_x000D_
+Auch wenn man als Mannheimer ja manchmal von ein wenig mehr angewandten Lehrmethoden trumt, ist dies im Auslandssemester eher nervig, da man dann auch viel reist und die Assignments eigentlich immer genau dann anfallen wenn man eigentlich gerade ber das Wochenende weg ist._x005F_x000D_
+Die Notenvergabe war zumindest in den Midterms etwas seltsam, Gruppenarbeiten und Assignments fallen aber eigentlich immer ganz gut aus._x005F_x000D_
+Ich hatte am Ende nur an drei Tagen Kurse und habe deshalb mit einer Kommilitonin noch eine private Chinesisch Nachhilfe besucht, was ich nur empfehlen kann.</t>
+  </si>
+  <si>
+    <t>Das Studium an der McGill kann man grundstzlich mit dem Aufwand von Mannheim vergleichen. Da es eine anerkannte und renommierte Uni in Kanada ist, muss man durchaus einiges tun, vor Allem in der Midterm Phase. Wenn man sich jedoch darauf einstellt, dann ist es gut machbar. 
+Allerdings ist das Semester sehr anders aufgebaut als in Mannheim. Man hat fast wchentliche Abgaben, Gruppenarbeiten, Quizzes, Midterms und Finals. Dadurch, dass man whrend des Semesters durchgngig etwas macht, hat man dann im Dezember mehr Zeit, da man weniger und nicht so gro§e Finals wie in Mannheim hat. Deshalb sollten einen die verschiedenen Abgaben nicht davon abhalten an die McGill zu gehen, man sollte sich allerdings bewusst sein, dass das Semester anders aufgebaut ist.</t>
+  </si>
+  <si>
+    <t>Die Queen's University of Belfast ist eine wirklich gute Universitt und ist dazu noch wunderschn. Die School of Law wurde erst neu gebaut und ist daher sehr modern. In der unteren Etage befindet sich das "Junction", das Uni Caf. Das Studium an der Queen's hat mir sehr gut gefallen. Die Kurse sind sehr viel kleiner als in Mannheim und daher sind mehr Diskussionen mglich. Durch die Gr§e der Kurse ist es einem auch mglich locals kennenzulernen. Au§erdem sind die Professoren und Dozenten ziemlich informell und man spricht jeden mit Vornamen an.</t>
+  </si>
+  <si>
+    <t>Kleine Kurse mit jeweils ca 40 Studenten. Das fhrt jedoch leider auch dazu, dass die Nachfrage nach manchen Kursen sehr viel gr§er ist als das Angebot - und die Zuteilung der Kurse sehr chaotisch abluft. Man muss vor Beginn des Semesters eine Vorauswahl treffen und kann dann vor Ort die Kurse nochmal wechseln - jedoch wird das nach einem 'First come first serve' System gehandhabt; hier der Tipp an dem Tag der Terminvergabe zum Kurswechseln ganz frh da zu sein (man stand da tatschlich schon um 6:00 Uhr morgens an - Einlass war um 8:30). Ansonsten hat man sehr geringe Chancen die Kurse noch zu wechseln._x005F_x000D_
+_x005F_x000D_
+Abgesehen davon war ich mit der Uni jedoch sehr zufrieden.</t>
+  </si>
+  <si>
+    <t>Da ich Englisch und Politikwissenschaften auf Lehramt studiere, hatte ich Module in beiden Fchern. Diese waren folgenderma§en aufgebaut: 2 mal Vorlesung + 1 mal Seminar die Woche. Man muss sich auch auf sehr viel Schreibarbeit und Essays einstellen aber dafr sind die Klausurenphasen 100 mal enstpannter als in Mannheim. Das Verhltnis zu den Professoren war fast schon freundschaftlich und sie standen einem immer fr jegliche Fragen zur Seite.</t>
+  </si>
+  <si>
+    <t>Das Semester fngt Mitte August an und die letzten Prfungen knnen theoretisch noch bis kurz vor Weihnachten geschrieben werden, was dann das Ende des Semesters ist. Das Kursangebot hat viele interessante Themen beinhaltet, in welchem ich schnell fndig wurde. Bis auf meinen Norwegischkurs waren alle Kurse auf Englisch, was aber fr mich kein Problem darstellte. Die Prfungen wurden dann ebenfalls auf Englisch absolviert. Es wre auch mglich gewesen Kurse auf Deutsch zu belegen, jedoch hatte ich mich dagegen entschieden, weil ich auch die Erfahrung eines englischsprachigen Studiums machen wollte und in Deutschland jederzeit deutsche Kurse belegen kann. Generell war die Universitt Oslo sehr gut organisiert und hilfsbereit.
+Wer gerne in Bibliotheken arbeitet, dem sollte bewusst sein, dass diese wie fast berall in der Prfungsphase schnell voll sind. Das Essen in der Mensa ist zwar gut, aber nicht mit den Preisen in der deutschen Mensa zu vergleichen. Schnell ist man bei einem Preis von umgerechnet 10Û, weswegen ein tgliches Essen in der Mensa eher nicht zu empfehlen ist. Es macht Sinn sich selbst etwas zu Essen einzupacken. Ansonsten gibt es auch ein Fitnessstudio, einen Supermarkt, Cafs und einen Bcherladen auf dem Campus. In dem Bcherladen kann man gut die bentigten Bcher kaufen, da sie meistens vor Ort sind. Es macht Sinn sich ein Buch mit einem Kommilitonen zu teilen, da diese auch teuer sind. Jedoch ist es nicht in jedem Kurs ntig Bcher zu kaufen.</t>
+  </si>
+  <si>
+    <t>Aktivitten an der USC
+Die Gr§e und Vielfltigkeit der USC ermglicht ein noch so gr§eres Angebot an Aktivitten au§erhalb des Hrsaals. Bei den unzhligen Sportarten, Initiativen, Gemeinschaften, politischen und kulturellen Clubs ist definitiv fr jeden etwas dabei. Es gibt zwei riesige Gebude, die Basketball-, Tennis-, Squash- und Fu§ballfelder, Fitnessstudio, Schwimmhalle und noch mehr beinhalten. Es finden in den ersten Wochen mehrere Initiativenmrkte statt wo sich alle Initiativen vorstellen und zum Mitmachen werben. Es lohnt sich auf jeden Fall sich zu engagieren, auch um das College-Leben und andere amerikanische Mitstudenten kennen zu lernen. 
+Ich selbst hab mich fr etwas Musikalisches entscheiden. Ich hatte die Chance gleich in mehreren Bands mitzuspielen. Eins meiner Highlights des Semesters war das Konzert und generell das Spielen mit der USC Jazz Big Band als Schlagzeuger. Informationen zu Bands, Orchestren, Unterricht etc.  bekommt man super einfach an der Fakultt fr Musik, die direkt neben der Business School liegt.
+In den USA, insbesondere an der USC wird Fankultur und Zugehrigkeit zu den eigenen Unimannschaften gro§geschrieben. Fu§ball, Basketball, Volleyball und natrlich Football Spiele sind unvergessliche Events. Mit Tausenden Kommilitonen, alle in USC-dunkelrot gekleidet im Stadion zu stehen und die Teams anzufeuern gehrt definitiv zur College Experience. 
+Lehre
+Das akademische System in den USA unterscheidet sich grundlegend von Mannheim. Whrend in Deutschland von einem Studenten die gr§tmgliche Selbststndigkeit erwartet wird und die Note zu 100% auf der Klausur lastet fgen sich in Amerika viele einzelne Noten am Ende zu einer Gesamtnote zusammen. Der deutschen Vorlesung in Hrslen fr 500+ Studenten, stehen kleine Gr§en von 20-30 Studenten pro Kurs in Amerika gegenber. Die Vorlesung hat Schulcharakter Ð es herrscht Anwesenheitspflicht, mndliche Mitarbeit wird gefordert, es gibt Hausaufgaben, Tests und Abfragen und meistens ein/zwei Klausuren und/oder Essays, die die Note beeinflussen. Kontinuierliche Mitarbeit und Auseinandersetzung mit den Themen zahlen sich hier aus. 
+Krankenversicherung
+Die USC setzt eine Krankenversicherung voraus Ð man hat die Option, die Versicherung der USC fr an die 1000 USD anzunehmen, oder aber diese durch eine eigene Auslandsversicherung zu ersetzen, zu waiven. Diese ist allerdings erstens sehr teuer und deckt zweitens nicht gut beziehungswiese in dubioser Weise ab. So sind zum Beispiel Sportunflle Ð mitunter eine der wenigen realistisch vorstellbaren Verletzungsmglichkeiten Ð ausgeschlossen. Einen Waiver-Request einzureichen wrde ich auf jeden Fall empfehlen, auch wenn das zu einer hchst interessanten Herausforderung werden kann. Die Bedingungen der USC sind hoch und entsprechen nicht den Kriterien nach denen deutsche Versicherungen unterteilen. Die ISO-Versicherung ist eine amerikanische Waive-Option, aber auch eigene deutsche Versicherung knnen in Frage kommen. Um die Kriterien zu besttigen gibt es ein Formular der USC auf dem die Kriterien aufgelistet sind und die eigene Versicherungsgesellschaft besttigt diese Bedingungen Im Falle zu gewhrleisten. Unterschrieben, Stempel drauf, abgeschickt, hat die USC nun ihr eigenes Dokument abgelehnt. Fr ein Nachprfen der Kriterien lie§ sich kein Ansprechpartner an der USC finden, dafr hat die USC einen externen Service-Dienstleister, der mit seinem Latein allerdings auch schnell an ein Ende kam. brig blieb schlussendlich nur, die eigene Versicherung wieder zu kndigen und mich wie viele andere fr die ISO-Versicherung einzuschreiben, nachdem dies die letzten Jahre relativ einwandfrei funktionierte und gewaived wurde. Dem Ziel so nahe, wurden unsere Waiver-Requests dann einmal durch die ganze Reihe abgelehnt. Die Bedingungen seien vor kurzer Zeit gendert worden. Gleichzeitig stellte sich heraus, dass das Geld fr die USC-Versicherung so oder so vorerst von allen bezahlt werden muss, da es zu Beginn des Semesters eine gro§e Rechnung gibt, in der Unterkunft, Gebhren, Mealplans und auch die Versicherung enthalten sind und durch das Waiven nur eine Rckerstattung mglich wird Ð also die strategische Mglichkeit des Weigerns zu Bezahlen entfiel. Nach dem sich bereits die Ersten mit ihrem Schicksal zurechtgefunden hatten, gaben Andere den Kampf nicht auf und etwa zur Mitte des Semesters erhielten wir wie durch Zauberhand einen Brief mit dem erfolgreichen Waive-Request und anbei einen Scheck fr die Rckerstattung.</t>
+  </si>
+  <si>
+    <t>Das Studium ist grundlegend anders als wir es aus Deutschland gewohnt sind. Mein gr§ter Kurs hatte 18 Studenten. Dadurch ist der Unterricht sehr viel interaktiver und es wird erwartet, dass man mitarbeitet. hnlich wie in der Schule. Au§erdem bekommt man in jedem Kurs fr jede Stunde bestimmte Reading Assignments, welche vorzubereiten sind. Je nach Professor werden die Inhalte auch mal ãabgefragtÒ. Generell kommt man aber auch im Unterricht nicht wirklich mit, ohne sich die entsprechenden Buchabschnitte angeschaut zu haben. Fr mich war das zu Beginn eine gro§e Umstellung vom freien Studieren dazu, dass man wieder gesagt bekommt, was man wann zu erledigen hat. Mit der Weile gewhnt man sich aber auch daran und merkt, dass es einem eigentlich etwas Druck nimmt, da man immer genau wei§ was man zu tun hat und wenn man das erledigt hat, ist man auch fertig. Der Umfang der Readings kann mitunter sehr umfangreich sein. Und obwohl ich das zuvor schon gehrt hatte, war ich doch erschrocken wie umfangreich. Mit der Zeit wird man aber schneller und alles ist durchaus machbar. Deshalb aber trotzdem der Hinweis sich von Anfang an beim Lesen und whrend der Kurse Notizen zu machen, ansonsten wei§ ich nicht genau wie man alles vor den Klausuren nacharbeiten soll. _x005F_x000D_
+Generell besteht Anwesenheitspflicht, weshalb es mit Sicherheit sinnvoll ist Freitag frei zu halten, falls man mal einen Wochenendausflug machen mchte. _x005F_x000D_
+Insgesamt habe ich den Schwierigkeitsgrad als geringer empfunden, als in Deutschland. Der Arbeitsumfang ist aber meiner Meinung nach nicht unbedingt viel geringer, bzw. kontinuierlich bers Semester vorhanden und dann in der Klausurenphase dafr geringer.</t>
+  </si>
+  <si>
+    <t>Das Studium and der SDSU ist sehr viel einfacher als das in Mannheim und der Unterricht ist oft sehr subjektiv gestaltet. Man konnte bis zu zwei Kurse online belegen und mit diesen viel Zeit sparen, da der Arbeitsaufwand eher niedrig war. Unter dem Semester gibt es Hausaufgaben, Abgaben und etwa 3 Exams pro Fach und in manchen Modulen kommen noch kleinere Paper dazu. Trotzdem bleibt viel Freizeit.</t>
+  </si>
+  <si>
+    <t>hnlich wie in Mannheim beginnt das Studium Anfang September (Die Einfhrungsveranstaltungen finden Ende August statt).
+Das Studieren an der STU unterscheidet sich jedoch sehr von dem in Mannheim. Das Semester ist in 4 Perioden aufgeteilt, die ca. 1 Monat lang sind (A-D) und pro Periode entscheidet man sich fr ein Modul. Am Ende der Periode schreibt man entweder eine Klausur oder z.B. ein Essay, wodurch das Modul abgeschlossen wird und das Nchste beginnt. Durch dieses Prinzip entfllt der Klausurenstress am Ende des Semesters, jedoch wird dadurch unter dem Semester ein hherer Lernaufwand gefordert. 
+Das Kursangebot ist sehr breit und bei den Finance, Marketing, Management und Accounting Kursen findet man leicht etwas Passendes. Viele, der fr Auslandsstudenten whlbaren Kurse, werden auch in Mannheim angerechnet.
+Der Fokus des Studiums an der STU liegt auf dem Selbststudium und der Eigenstndigkeit. Bei mir gab es zwar in allen Modulen auch Vorlesungen, die meistens zwei, bis dreimal pro Woche fr jeweils 2 Stunden stattfanden. Dennoch habe ich einen Gro§teil der Zeit damit verbracht, Artikel oder Begleitlektren zu lesen, die die Vorlesungen vervollstndigten. Zudem besteht ein sehr informelles Verhltnis zwischen den Studenten und den Dozenten. Es ist also nicht unblich geduzt zu werden. Au§erdem gab es in allen Modulen, die ich belegte, eine Gruppenarbeit, die unterschiedlich ausfhrlich war, aber immer mindestens 10% bis maximal 40% der Gesamtnote ausmachten.
+Es besteht die Mglichkeit als International Schwedisch Kurse zu belegen, die auch fr Anfnger geeignet sind. Das englische Sprachniveau an der STU ist sehr hoch und durch den hohen Anteil an Gruppenarbeiten und die vielen Essays verbessern sich die eigenen Englisch Kenntnisse. 
+Da die Business School wegen Covid-19 geschlossen wurde, habe ich frs Studieren keine Zeit auf dem Campus verbracht und kann dementsprechend nur bedingt Erfahrungen zum Leben auf dem Campus teilen.
+Bis auf den Schwedischkurs waren in allen belegten Kursen auch sehr viele Schweden vertreten, die regulr an der STU studieren. Durch den Kontakt zu unterschiedlichen Kulturen waren die Gruppenarbeiten sehr interessant. 
+Die STU hat ein sehr gutes online Konzept. Alle Vorlesungen wurden entweder bereits aufgezeichnet oder per Zoom gehalten. Unter Corona litt natrlich etwas das Prinzip der Gruppenarbeiten. Allerdings lie§en sich diese, trotz dem mglicherweise gestiegenen Zeitaufwand, auch gut ber Zoom bearbeiten. 
+Auch die Klausuren wurden online geschrieben und die Essays wurden auf der Lernplattform Athena (vergleichbar mit Ilias) abgegeben. Zudem gibt es noch die Plattform Ladok, auf der die Noten verffentlicht werden (vergleichbar mit Portal).</t>
+  </si>
+  <si>
+    <t>Das Studium an der NTU ist sehr vielfltig. Da es sich um eine sehr gro§e Universitt handelt, knnen viele Themenbereiche belegt werden. Im Gegensatz zur Universitt Mannheim, werden die Noten meist aus mehreren Prfungsleistungen zusammengesetzt. Dies bedeutet, dass viele Professoren auch Wert auf Mitarbeit und Anwesenheit legen. Au§erdem mssen in den meisten Kursen Prsentation gehalten werden. Die Kurse sind aber auch deutlich kleiner als in Mannheim, weshalb die vorher genannten Dinge kein Problem sind. 
+Die Kursauswahl kann besonders fr Austauschstudierende ein wenig stressig werden. Sie beginnt bereits vor Semesterbeginn und ist zunchst in zwei Onlinephasen eingeteilt. Die Gasthochschule bemht sich sehr, den Austauschstudierenden gengend Infos zu geben, allerdings gab es dennoch einige Verwirrungen. Eins kann ich jedoch auf jeden Fall sagen: auch wenn man in diesen zwei Onlinephasen nicht seine Wunschkurse (und generell auch zu wenig Kurse) zugeteilt bekommt, so besteht in den ersten zwei Wochen des Semesters noch die Mglichkeit, weitere Kurse zu besuchen und sich nachtrglich anzumelden. Im Endeffekt haben alle Studierenden gengend Kurse bekommen. 
+Das Niveau an der NTU wrde ich persnlich etwas unterhalb der Uni Mannheim einschtzen, es gab aber auch sehr schwere Kurse. Insgesamt ist der Aufwand whrend des Semesters hher, dafr kann man am Ende etwas mehr entspannen.</t>
+  </si>
+  <si>
+    <t>Die FGV hat ein breites Angebot von Kursen, wobei es nur eingeschrnkte Mglichkeiten gibt, fachfremde Kurse aus den Bereichen Sozialwissenschaften oder Recht zu whlen. Das Niveau der Kurse unterscheidet sich stark von den Dozierenden. Die Gruppengr§en sind sehr klein und die Kurse sind durch eine hohe Interaktivitt sehr interessant gestaltet. Bei vorhandener Sprachkenntnis knnen Kurse auch auf Portugiesisch belegt werden._x005F_x000D_
+In der FGV gibt es einen Dresscode, und zwar mssen lange Hosen getragen werden, worauf beim Koffer-Packen geachtet werden sollte. Zudem sollte man immer einen Pullover dabei haben, da die Rume sehr stark klimatisiert sind._x005F_x000D_
 Ich kann sehr empfehlen an SuperCopa teilzunehmen, ein Sportevent mit sehr vielen Unis aus Rio de Janeiro, das vergleichbar mit den Euromasters ist.</t>
   </si>
   <si>
-    <t>Das Kursangebot an der USYD ist außergewöhnlich groß und als Austauschstudent hat man die Wahl alle Kurse zu wählen, die durch die Uni Mannheim autorisiert werden. Das Kursniveau ist an der Kennnummer erkennbar, allerdings weichen die Lehrstühle in ihrem Anspruch deutlich voneinander ab._x005F_x000D_
-Des Weiteren ist die Anerkennung der unterschiedlichen Kurse durch die Uni Mannheim klar kommuniziert und schränkt die Wahl der Module kaum ein._x005F_x000D_
-Ferner ist das Studium in Semester aufgeteilt, die etwas früher beginnen als das Studium in Mannheim und Anwesenheitspflicht besteht für die meisten Fächer._x005F_x000D_
-Angesichts des modernen Campus sind die vielen Mensas und universitären Cafes zwar etwas deplatziert, allerdings gibt es in nahegelegenen Stadtteilen sehr gute, günstige Restaurants.</t>
-  </si>
-  <si>
-    <t>Das Studium an der Universität in Chico ist vom Niveau her auf jeden Fall einfacher als in Mannheim, aber es ist zeitaufwändig, da man in jedem Kurs viele Quizze, Aufgaben und Paper hat. Das Studium und den Aufbau der Kurse kann man eher mit der Oberstufe in der Schule vergleichen. Unter der Woche war ich viel mit der Uni beschäftigt, aber es war machbar und am Wochenende hatte man viel Zeit für Aktivitäten und Reisen. Es gibt auch sehr viele Gruppenprojekte, welche manchmal sehr stressig sein können, wenn nicht alle Gruppenmitglieder etwas beitragen. Der Campus ist wunderschön und sehr groß und es gibt auch ein großes Fitnessstudio, welches für Studenten umsonst ist.</t>
-  </si>
-  <si>
-    <t>Da die Charles University viele spannende Kurse in Richtung Medien angeboten hat, die ich mir zwar nicht anrechnen lassen konnte, die aber trotzdem in der Fakultät das Sozialwissenschaften liegen, habe ich mich vor allem auf diese Kurse beworben. Die Kurswahl lief nach dem ,,First come, first serve'' Prinzip. Was mir zum Nachteil gefallen ist, da ich zu dem Zeitpunkt, als das Portal geöffnet wurde, einen wichtigen Arzttermin hatte, der nicht zu verschieben war. Ca. 40 Minuten später war ich daheim und es waren ziemlich alle Kurse voll, die mich interessiert haben. Ich habe mich bei allen auf die Warteliste schreiben lassen. Bei einem Kurs mit Erfolg. Den Rest habe ich spontan belegt, nachdem ich total gestresst alle möglichen Module recherchiert habe, die noch infrage kämen, da auch meine ursprünglichen Plan B Kurse alle voll waren. Ich musste auch feststellen, dass einige Kurse dieses Jahr gar nicht mehr angeboten wurden. Das hatte ich vorher übersehen. Sogar ein Kurs den ich mir im Voraus schon auf das Learning Agreement geschrieben habe, der durch mehrere Hände der Universitäten ging, gab es gar nicht mehr und es ist niemandem aufgefallen. Schaut also vorher nach, was unter Kursdauer (oder so ähnlich) steht. Da stand nämlich bei manchen dann 2019-2022. Ich finde, das hätte die Charles University etwas deutlicher machen können. Die Kurse waren genauso aufgelistet wie alle Anderen und es war leicht zu übersehen, dass sie nicht mehr stattfinden. Letztendlich war ich für einige Medien und Filmkursen und einem Soziologe Kurs angemeldet. Die meisten haben im Hollar Gebäude in Prag 1 stattgefunden. Ich habe etwa drei Kurse aktiv besucht, aber nur in einem die Prüfung abgelegt, da ich mir die anderen Kurse nicht hätte anrechnen lassen können. Ich wollte sie dennoch für meine persönliche Bereicherung besuchen. Mehr dazu im Teil ,,Infos zu den belegten Kursen und geplanter Anerkennung''. Im Januar hatte ich dann eine Essay Abgabe, zu der ich bereits nach wenigen Tagen die Note bekommen habe. Allgemein waren die Kurse sehr angenehm, es gab viele kleine Präsentationen als Prüfungsleistung. Das Niveau war allgemein bemerkbar niedriger als in Mannheim. Ich musste wesentlich weniger Zeitaufwand in Vor- und Nachbereitung stecken. Allerdings waren Folien nicht immer gut zu finden und die Kommunikation mit manchen Professoren war schwierig. Ich habe einem Professor mehrfach geschrieben, da ich wichtige Fragen bzgl. meiner Präsentation als Prüfungsleistung hatte. Ich habe bis heute keine Antwort bekommen und habe unter anderem deswegen auch dort keine Prüfung ablegen können.</t>
-  </si>
-  <si>
-    <t>Da der Singapur Campus sehr klein ist, hat man alle Kurse mehr oder weniger mit denselben Menschen, nämlich anderen IBEA Studierenden und den ESSEC Studierenden von S8._x005F_x000D_
-Leider war das Niveau der Kurse oftmals sehr gering und trotz der eher trivialen Inhalte hat man einen hohen Arbeitsaufwand, da in jedem Kurs mindestens eine Gruppenarbeit ansteht._x005F_x000D_
-An der ESSEC gilt außerdem Anwesenheitspflicht  diese ist auch im Krankheitsfall recht streng. So darf man pro Kurs einmal unentschuldigt und einmal entschuldigt fehlen, bevor man den Kurs nicht besteht._x005F_x000D_
-In der Mitte des Semesters gibt es eine einwöchige Spring Break  durch meine Kurswahl hatte ich aber am Ende fast 2 Wochen am Stück frei.</t>
-  </si>
-  <si>
-    <t>Da ich wegen eines Praktikums zu spät kam habe ich statt eines Semesters einfach ein Quarter im MBA Programm belegt, das war problemlos möglich. Da das finale Kursangebot aber erst ca. eine Woche vor Kursbeginn feststand war ich mit meinen Learning-Agreements etwas spät dran, was manche Professoren an der Uni Mannheim nicht so gut fanden. Auch die Absprache ob ein Kurs angerechnet werden kann oder nicht war etwas kompliziert und hat sich über Wochen (bis zu meiner Rückkehr nach Mannheim) gezogen. Wenn man Leuten in Deutschland sagt, dass es eine Woche dauern kann oder auch einen Monat bis man eine Info bekommt (zum Beispiel was genau die Prüfungsleistungen sind) trifft man auf Verständnislosigkeit und die Leute denken man kümmert sich nicht darum aber es ist einfach alles anders in Indien vor allem die Einstellung zur Zeit. Ich habe auf halber Strecke viele Kurse gewechselt und dafür andere gewählt weil es einige Kurse gab bei denen ich das Gefühl hatte ich lerne überhaupt nichts Neues. Im Endeffekt habe ich dann ganz andere Kurse gewählt als ich eigentlich vorhatte. Ich habe folgende Kurse belegt:Predictive &amp; Prescriptive Data AnalyticsHier habe ich am meisten gelernt und es war einer der schwierigeren Kurse. Der Kurs war eigentlich eine Einführung in Machine Learning (supervised and unsupervised learning). Der Professor war spitze aber die Klausur ging 7 Stunden (Programmierung). Diesen Kurs würde ich aber jederzeit wieder machen, da großer Mehrwert.Computational FinanceHier habe ich am zweitmeisten gelernt. Leider war die Professorin erst gegen Ende anwesend. Vorher haben verschiedene Doktoranden und Wirtschaftsvertreter die Vorlesungen gehalten, sodass ein roter Faden gefehlt hat und es manchmal extrem verwirrend war. Das Exam war eine Katastrophe, weil es nicht am eigenen Laptop sondern am Uni Computer (in Eviews) absolviert werden musste und der PC dauernd abgestürzt ist, genauso wie die  Eviews Version die wir nutzen durften. Ich musste alles viermal machen und konnte nichts speichern. Das Thema war aber interessant: Verschiedene Zeitreihenmodelle: ARCH, GARCH etc.Global Corporate GovernanceDieser Kurs war Fallstudienbasiert und viele Fälle kannte ich schon. Die meißten Studenten hatten keinen BWL Hintergrund und noch nie eine Rechnungswesen Veranstaltung belegt. Deshalb hat der Professor alles 3 mal erklärt und auch mal Zinsenszins oder was Eigenkapital ist. Ich habe mich oft gelangweilt. Die Klausur war extrem einfach, die Hausarbeit war eine Herausforderung. Cross Cultural ManagementDer Kurs war sehr interessant und ein guter Ausgleich zu meinen anderen Kurse. Eine Teilleistung bestand darin einen Blog über kulturelle Unterschiede zu schreiben die wir erlebt haben. Dort habe ich auch noch viel mehr über Indien und das IIT und die Lehre geschrieben:https://tapindia.wordpress.com/ Es gab viele Gruppenarbeiten und eine Gruppenarbeit sollte man schon mal mitgemacht haben wenn man in Indien studiert.Generell fand ich das Studium am IIT stressing weil dauernd unangekündigt Tests geschrieben wurden oder kurzfristig Programmieraufgaben oder Essays zu erledigen war. Die Prüfungsleistung die am Anfang angekündigt wurde wurde nie eingehalten und es fielen dann Aufgaben spontan weg oder es kamen neue Aufgaben dazu. Auf einmal war ein Feiertag (der eigentlich keiner war ausserhalb des IITs) oder es wurde ein Feiertag für ungültig am IIT erklärt. Professoren tauchten einfach nicht auf (die ersten 2 Wochen fanden so gut wie keine Vorlesungen statt). Und dann kommt auf einmal alles an einem Tag und man arbeitet 3 Nächte lang durch. Freitag Nacht erhält man eine Nachricht, dass das ganze Wochenende ein Kurs ist weil der Professor keine Zeit mehr hat danach. Man weiss nie was Sache ist, wo Vorlesungen stattfinden, wann welche ausfallen oder wann es einen Feiertag gibt. Es wurden dauernd Deadlines verschoben, was ich nie mitbekommen habe weil es kein zentrales System gibt wo man solche Dinge nachschauen konnte. Es gibt jenachdem mal eine Whatsapp-Gruppe, eine GoogleDrive Gruppe oder überhaupt kein Medium of Exchange. Alles wird vom Professor an den Kurs-Repräsentanten (ein Student) persönlich übermittelt und dieser teilt es dann in der Whatsapp-Gruppe mit. Aber das sagt einem auch keiner am Anfang. Ich habe erst nach einem Monat erfahren dass es so eine Gruppe gibt. Für Data Analytics habe ich immer um 2 Uhr morgends eine Mail bekommen was für Pakete ich für den 8 Uhr morgends Kurs installieren soll. Den indischen Studenten scheint das alles egal zu sein und ich glaube diese Einstellung braucht man damit man es aushält ohne einen Nevernzusammenbruch zu bekommen. Einen Sprachkurs gab es nicht.</t>
-  </si>
-  <si>
-    <t>Die Lehre an der Universität Antwerpen ist auf einem mit der Universität Mannheim vergleichbaren Niveau, die Methodik unterscheidet sich in einigen Kursen aber stark. Oft sind die Kurse deutlich interaktiver und ein essentieller Teil der Note entspringt einer Gruppenarbeit die es während des Semesters zu lösen gilt. Auch wenn man vorerst den Aufwand scheuen mag, muss ich zugeben, dass mich dieses Konzept im Nachhinein überzeugt hat, da die Aufgaben zumeist eine unglaubliche Praxisnähe entstehen lassen. Das Zusammenarbeiten mit belgischen und internationalen Studenten ist, wie auch an der Uni Mannheim, immer eine spannende Herausforderung. Weitere Informationen findet ihr hier unter dem Punkt Kurse oder auf der gut sortierten Homepage der Universität Antwerpen.Meine Dozenten waren durchweg nett und die Betreuung durch diese sehr intensiv. Auch das Akademische Auslandsamt ist sehr gut organisiert und lässt keine Wünsche offen. Die wichtigsten Fragen werden mit den ersten Infoveranstaltungen geklärt, an denen man auch alle Kontaktdaten und Merkblätter erhält.Die Klausurenphase ist in Belgien deutlich länger gezogen (im FSS die ganzen 4 Wochen im Juni) und ca. zwei Wochen vor dieser laufen die Kurse langsam aus, sodass man sich komplett auf das Lernen konzentrieren kann. Hierbei kann ich euch vor allem das Angebot von Study360.be empfehlen, welches das Lernen in vielen Büroräumlichkeiten mit teilweise spektakulären Ausblicken ermöglicht (z.B. Theaterbuilding 19. Stock oder Havenhuis). Gleichzeitig gibt es in diesen Räumen auch kostenfrei Kaffee, Tee, Obst und Süßigkeiten, was beim Lernen eine große Hilfe darstellen kann.</t>
-  </si>
-  <si>
-    <t>Die Professoren an der Uni halte ich für sehr kompetent. Um Kurse zu wählen hat man nur 1-2 Tage Zeit und das System ist etwas kompliziert, weshalb man sich schon im Vorherein die Kurse suchen und seinen Stundenplan erstellen sollte. Im Nachhinein gibt es immer noch eine Woche Zeit, um Änderungen vorzunehmen, jedoch mit geringeren Chancen, angenommen zu werden. Nach diesem Zeitfenster ist es sehr schwer, weitere Änderungen vorzunehmen. Bis zur Halbzeit des Semesters ist es jedoch möglich, sich von Kursen abzumelden. Ich empfehle, die Anzahl von 4 bis 5 Kursen (Sportkurse ausgenommen), nicht zu überschreiten, da viele Hausaufgaben aufgegeben werden und auch die Sprachbarrieren nicht unterschätzt werden sollten.
-Ich habe beispielsweise sogenannte CBU-Kurse gewählt. Das sind Kurse für alle Studenten ungeachtet ihres Studiengangs. Normalerweise sollen sie einen kleineren Arbeitsaufwand beinhalten, auch wenn das nur teilweise stimmt. Aber es ist interessant, mit Leuten aus verschiedenen Studienbereichen zusammen zu studieren.
-Die Vorlesungszeit beträgt ca. 4 Monate und ist in drei Cortes geteilt. Das heißt, dass die Lehrer nach jedem Drittel Noten einreichen müssen und somit Arbeiten und/oder Prüfungen anstehen. Das heißt aber auch, dass die Prüfungsphase zum Ende des Semesters sehr viel entspannter ist als in Deutschland.
-Das tollste am Campus für mich ist das Sportzentrum. Gleich zu Beginn haben wir es mit allem, was es bietet, kennengelernt. Wöchentliche Sportkurse muss man wie normale Kurse über das System anmelden und es gibt eine Anwesenheitspflicht. Aber auch außerhalb dieser Kurse gibt es ein großes Angebot, von Schwimmhalle, über Fitnessstudio, Tennis- und Fußballplätzen bis hin zu einer Kletterwand und vielem mehr. Auch ansonsten bietet der Campus alles, was man braucht. Mensa, Cafeterien, Bibliotheken, Orte zum Ausruhen, zum Lernen und sogar Laptops zum Ausleihen. Und auch in der Nähe der Uni findet man viele Orte zum Mittagessen oder Kaffeetrinken.
-Bezüglich des Sprachniveaus glaube ich mich zu erinnern, dass ein B2-Niveau gefordert wird. Es gibt sehr gute Sprachkurse vor Ort. Ein einmonatiger Kurs wird vor dem Semester angeboten und während des Semesters gibt es Kurse, die 4x die Woche stattfinden. Ich finde, mein Kurs hat sich gelohnt, da ich neben der Verbesserung meiner Spanischkenntnisse auch viel über das Land gelernt habe, da die Inhalte sehr interessant gestaltet waren.</t>
-  </si>
-  <si>
-    <t>Ich habe von meiner Wohnung aus ca. 40 Minuten zur Uni gebraucht. Mit der Tarjeta de Transporte Público kommt man problemlos zur UAM. Um die Karte zu bekommen, muss man persönlich in einem Transportbüro erscheinen. Man sollte versuchen, schon vor der Ankunft einen Termin auszumachen, da diese sehr schnell weg sind. Die Karte hat für mich 10 im Monat gekostet und man konnte alle öffentlichen Verkehrsmittel nutzen. Das Kursangebot für spanische Kurse an der UAM ist sehr groß. Aber die BWL Fakultät bietet auch einige englische Kurse an. Da mein Spanisch nicht so gut ist, habe ich ausschließlich englische Kurse belegt. Die Kursanmeldung war meiner Meinung nach sehr kompliziert. Die Kursanmeldung findet an einem bestimmten Tag statt und beginnt zu einer festgelegten Uhrzeit. Gerade für die englischen Kurse solltet ihr schnell mit der Anmeldung sein, da die Kurse nach dem first come first serve-Prinzip vergeben werden und die Plätze schnell weg sind. Die Kursgruppen sind insgesamt viel kleiner (ca. 50 Personen pro Gruppe) und für mich war es eher wie in der Schule. Man muss während des Semesters viele kleinere Hausaufgaben und Abgaben machen, was dafür sorgt, dass es gegen Ende des Semesters nicht so stressig ist. In den meisten meiner Kurse gab es zwei Klausuren und ggf. Präsentationen. Es besteht in den meisten Kursen Anwesenheitspflicht und die Professoren legen wert auf Mitarbeit, was die Vorlesung jedoch viel persönlicher macht. Außerdem gibt es Gruppenarbeitsräume für Studenten oder die Bibliothek. Die Bibliothek ist leider nicht an Wochenenden geöffnet. Um den Kursen folgen zu können, wird mindestens ein B2 Sprachniveau empfohlen. Für die Bewerbung ist das Language Certificate der Uni Mannheim ausreichend.</t>
-  </si>
-  <si>
-    <t>Im Gegensatz zum Studium in Mannheim gibt es in Swansea durchgehend Anwesenheitspflicht. Diese wird aber nicht sehr streng durchgesetzt. Das Niveau bzw. die Anforderungen der Module unterscheidet sich deutlich je nachdem aus welchem Jahr des Bachelorstudiums in Swansea man Module belegt. Während die Module aus dem ersten Jahr ziemlich einfach zu bewältigen sind, sind die Module aus dem dritten Jahr durchaus anspruchsvoll, aber immer noch machbar. Der Vorteil von Modulen aus den letzten beiden Jahren ist, dass es Wahlfächer mit kleineren Gruppen und interessanteren Inhalten gibt. Die zeitliche Belastung während des Semesters hält sich in Grenzen, man hat pro Woche ca. 10 Zeitstunden an Veranstaltungen. Das Mensaessen ist gut, aber teurer als in Mannheim (4-5 Pfund pro Mahlzeit).</t>
-  </si>
-  <si>
-    <t>Das Semester an der SU ist in vier Study Periods á 5 Wochen aufgeteilt und angedacht ist, dass pro Periode ein Kurs mit 7,5 ECTS belegt wird. Ich würde jedoch empfehlen, in einer der ersten beiden Perioden zwei Kurse parallel zu belegen, um im Frühling mehr Zeit zu haben. Ich habe während meines Aufenthaltes nur Stockholm School of Entrepreneurship (SSES) Kurse belegt und kann daher nichts zu den regulären Business School Kursen an der SU sagen. Die SSES ist eine gemeinsame Initiative der fünf großen Unis in Stockholm (SU, KTH, SSE, Karolinska und Konstfack) und bietet Kurse rund um das Thema Entrepreneurship an. Die Vorlesungen finden jeweils am Campus einer der Partnerunis statt und stehen Studenten aller Partner zur Registrierung offen. Die Kurse finden zweimal die Woche (entweder Mo/Mi oder Di/Do) abends von 17-20 Uhr statt und sind meist mit Anwesenheitspflicht verbunden. Die Studentenanzahl in Stockholmer Kursen war meist geringer als in Mannheim und Vorlesungen waren deutlich interaktiver. Der Anspruch der SSES Kurse ist eine Stufe niedriger als in Mannheim und oft steht eher die praktische Anwendung im Vordergrund. Die Noten der Kurse setzen sich immer aus mehreren Prüfungsleistungen zusammen.</t>
-  </si>
-  <si>
-    <t>Die Semesterzeiten an der Luiss sind sehr ähnlich zu denen in Mannheim. Los ging es bei mir in der zweiten Septemberwoche und die letzten Prüfungen waren kurz vor Weihnachten. Es gibt auch an der Luiss die Möglichkeit Prüfungen am Zweit- und sogar manchmal an einem Dritttermin abzulegen. Die Prüfungen laufen allerdings ganz anders ab als in Mannheim, da es sich bei den meisten um mündliche Prüfungen handelt (es gibt auch schriftliche Prüfungen, ich hatte aber nur mündliche). Bei diesen Prüfungen sind alle zu Prüfenden in einem Raum und werden nacheinander oder parallel von den Dozierenden geprüft. Bei mir waren das immer um die drei Fragen. Wenn vorher ein Paper abgegeben wurde, wurden immer ein bis zwei Fragen zum Paper bzw. aufbauend auf dem Paper gestellt und danach Fragen zum Kurs. Je nach Dozierendem wusste man mehr oder weniger gut was einen erwartet. Da allerdings allen unterschiedliche Fragen zu unterschiedlichen Themenbereichen gestellt wurde, teilweise von unterschiedlichen Prüfenden, habe ich die Exams nicht als sehr gut vergleichbar wahrgenommen. Die Dozierenden sind aber sehr darauf bedacht den Studierenden gute Noten zu geben und Studierenden die einigermaßen gut vorbereitet waren, ist das auch gelungen. Ein kleines bisschen Glück bei den Fragen gehört aber wie immer auch dazu. Insgesamt war der Stoff durchaus umfangreich, da man jeden Kurs zweimal die Woche hatte (einmal online und einmal on campus) und die Art zu lernen ist auf jeden Fall anders als in Mannheim. Für mich (und die meisten) hieß es vor allem sehr viel auswendig lernen. Die Anwendung des Wissens sollte eher in Papern während des Semesters unter Beweis gestellt werden. _x005F_x000D_
-Ich hatte meine Kurse alle am Romania Campus, weshalb ich über die anderen Campi nicht viel sagen kann. Der Romania Campus ist aber wirklich super schön angelegt und das alte Gebäude sehr eindrucksvoll. Man merkt auf jeden Fall, dass man an einer Privatuni studiert, da alles gut in Stand gehalten wird und die Hybrid-Lehre in jedem Raum (je nach technischer Affinität der Dozierenden) problemlos möglich ist. Man kommt auch wie es sich in Italien gehört zu jeder Zeit an einen Kaffee, entweder im Luiss Café oder einem der Automaten die überall im Gebäude stehen. Das Einzige was auf dem Campus Verbesserungsbedarf hat ist, dass es nicht so viele Plätze zum Arbeiten gibt und man besonders in der Klausurenphase sehr früh kommen muss, um einen Platz zu ergattern. Die Constanza Bib ist aber ein guter Ausweg für alle die in der Nähe des Parenzo Campus wohnen. _x005F_x000D_
-Ich hatte nur Kurse auf Englisch und auch wenn man bei italienischen Dozierenden den Akzent natürlich gehört hat, konnten sie alle sehr gut Englisch.</t>
-  </si>
-  <si>
-    <t>Da an der Sciences Po nur Politikwissenschaft studiert wird und die Uni in Reims zudem sehr international ist, ist die Auswahl an (englischsprachigen) Kursen sehr groß und es gibt viele interessante Seminare. Der Ansatz ist in Reims allerdings grundlegend anders als in Mannheim. Traditionell sollte die Sciences Po die französische Elite auf eine Politikerkarriere vorbereiten, und das merkt man immer noch. Es wird sehr viel Wert auf Debatten und das Einbringen der eigenen Meinung gelegt, und man muss in jedem Kurs mindestens eine Präsentation halten, um das Sprechen vor Publikum zu trainieren. Insgesamt würde vieles dort in Mannheim als unwissenschaftlich bezeichnet werden, das Studium ist viel normativer ausgerichtet, und nach quantitativen Methoden braucht man gar nicht erst zu suchen.
-Der Arbeitsaufwand ist hoch, und zwar konstant, da viele Prüfungsleistungen erbracht werden müssen und diese (idealerweise) über das ganze Semester verteilt sind. Ich habe viel mehr für die Uni gemacht als in Mannheim, hatte aber nicht unbedingt das Gefühl, auch mehr gelernt zu haben. Der Vorteil in Reims ist, dass man keine Hausarbeiten in den Ferien schreiben muss  man ist Anfang Dezember mit dem Semester fertig, und hat dann komplett frei. Die Vorlesungszeiten sind exakt wie in Mannheim. Außer Präsentationen beinhalten die zu erbringenden Prüfungsleistungen Essays (meist zwischen 2000 und 4000 Wörtern), Klausuren, die aber auch eher Essay-artig sind (kein Multiple Choice), und auch Gruppenarbeiten.
-Es gibt die Möglichkeit, eins von 4 Zertifikaten anzustreben, dazu muss man bestimmte Kurse belegen und kann andere frei wählen. Ich habe das gemacht, bin mir aber im Nachhinein nicht sicher, ob das sinnvoll war, da ich einfach mehr Arbeit hatte, Kurse belegt habe, die mir in Mannheim gar nicht anerkannt werden, und eigentlich nicht glaube, dass mir dieses Zertifikat irgendetwas bringt.
+    <t>Da an der Sciences Po nur Politikwissenschaft studiert wird und die Uni in Reims zudem sehr international ist, ist die Auswahl an (englischsprachigen) Kursen sehr gro§ und es gibt viele interessante Seminare. Der Ansatz ist in Reims allerdings grundlegend anders als in Mannheim. Traditionell sollte die Sciences Po die franzsische Elite auf eine Politikerkarriere vorbereiten, und das merkt man immer noch. Es wird sehr viel Wert auf Debatten und das Einbringen der eigenen Meinung gelegt, und man muss in jedem Kurs mindestens eine Prsentation halten, um das Sprechen vor Publikum zu trainieren. Insgesamt wrde vieles dort in Mannheim als ãunwissenschaftlichÒ bezeichnet werden, das Studium ist viel normativer ausgerichtet, und nach quantitativen Methoden braucht man gar nicht erst zu suchen.
+Der Arbeitsaufwand ist hoch, und zwar konstant, da viele Prfungsleistungen erbracht werden mssen und diese (idealerweise) ber das ganze Semester verteilt sind. Ich habe viel mehr fr die Uni gemacht als in Mannheim, hatte aber nicht unbedingt das Gefhl, auch mehr gelernt zu haben. Der Vorteil in Reims ist, dass man keine Hausarbeiten in den Ferien schreiben muss Ð man ist Anfang Dezember mit dem Semester fertig, und hat dann komplett frei. Die Vorlesungszeiten sind exakt wie in Mannheim. Au§er Prsentationen beinhalten die zu erbringenden Prfungsleistungen Essays (meist zwischen 2000 und 4000 Wrtern), Klausuren, die aber auch eher Essay-artig sind (kein Multiple Choice), und auch Gruppenarbeiten.
+Es gibt die Mglichkeit, eins von 4 Zertifikaten anzustreben, dazu muss man bestimmte Kurse belegen und kann andere frei whlen. Ich habe das gemacht, bin mir aber im Nachhinein nicht sicher, ob das sinnvoll war, da ich einfach mehr Arbeit hatte, Kurse belegt habe, die mir in Mannheim gar nicht anerkannt werden, und eigentlich nicht glaube, dass mir dieses Zertifikat irgendetwas bringt.
 Insgesamt ist das System deutlich verschulter, man bekommt Hausaufgaben und es gibt in allen Kursen eine sehr strikte Anwesenheitspflicht.
-Auf dem kleinen Campus mit ca. 1200 Studierenden gibt es eine moderne Bibliothek, in der man gut arbeiten kann (allerdings nur Stillarbeit) und eine Mensa, deren Angebot aber sehr zu wünschen übrig lässt, besonders für Vegetarier*innen (die haben es in Frankreich aber sowieso schwer). Die Lehrräume sind sehr modern und gut ausgestattet und man hat überall WLAN. Fast alle Toiletten sind rollstuhlgerecht, es gibt sie auf jeder Etage, und genau wie die Lehrräume sind sie alle barrierefrei zu erreichen. Sehr viele Toiletten sind zudem nicht einem Geschlecht zugeschrieben, sondern für alle zugänglich.
-In der Uni können eigentlich alle Englisch, und das im Falle der Studierenden und Lehrenden auch meist sehr gut. Um in diesem internationalen Umfeld überhaupt mal Französisch zu sprechen, ist es sehr sinnvoll einen Sprachkurs der Uni zu belegen. Diese sind sehr fordern und haben ein mindestens so hohes Arbeitsniveau wie die anderen Kurse, bringen aber auch sehr viel.</t>
-  </si>
-  <si>
-    <t>Bereits in den Osterferien durfte ich meine Kurse für das HWS an der San Diego State University wählen. Obwohl ich als Major Englisch eingetragen hatte war es möglich Kurse in unterschiedlichen Bereichen zu wählen. Ich sprach mich mit den zuständigen Professoren der Universität Mannheim ab, ließ mein Learning Agreement ausfüllen und beschloss 5 Kurse zu belegen. _x005F_x000D_
-1)	ENGL 401 - Childhood's Literature, was ich mir in Mannheim als Hauptseminar in Englischer Literatur anrechnen lassen kann. Diesen Kurs hatte ich zweimal pro Woche jeweils 1:15h. Der Kurs war sehr interessant da auf die kulturellen Unterschiede von Kindheitsliteratur sehr eingegangen wurde und wir zunächst Märchen behandelt haben aber auch Der kleine Prinz, Der Zauberer von Oz, Tribute von Panem, Hobbit und Harry Potter gelesen haben._x005F_x000D_
-2)	LING 350 - Language and Politics, welches ich mir als Hauptseminar in Linguistik anrechnen lassen kann. Dieser Kurs fand auch zweimal die Woche jeweils 1:15h statt und hat sich sehr auf die Medien bezogen und wie diese über die Politik berichten. Aber auch wie Politiker über sich selbst oder über andere reden wurde untersucht. Dieser Kurs war wirklich sehr interessant da ich so auch einen Einblick in die amerikanische Politik bekommen habe._x005F_x000D_
-3)	CCS 355 - International Border between US and Mexico, welches ich mir als Landeskunde USA anrechnen lassen kann. Dieser Kurs fand nur einmal pro Woche statt, dafür aber 2:40h. Dieser Kurs war meiner Meinung nach neben Language and Politics der interessanteste Kurs da wir die aktuellen Probleme an der Grenze zwischen San Diego und Tijuana besprochen haben aber auch den historischen Hintergrund. Da unsere Professorin selbst aus Mexiko kam, konnte sie das Wissen auch sehr gut vermitteln und hat das Seminar sehr interessant gestaltet._x005F_x000D_
-4)	LING 100B - Compositional English for International Students and English Learners welches ich mir als Advanced Essay Writing anrechnen lassen kann. Diesen Kurs hatte ich dreimal die Woche jeweils 50min. Dieser Kurs war sehr schulisch da man immer viele Hausaufgaben bekommen hatte und viele Arbeitsblätter bearbeiten musste. _x005F_x000D_
-5)	ENS 146 - Surfing - Da surfen als Nationalsport in Kalifornien bezeichnet wird, beschloss ich außerdem, mich zu einem Surfkurs der Uni anzumelden. Dieser fand einmal die Woche 1 ½ h statt. Der Kurs hat wirklich sehr viel Spaß gemacht und war gerade für Anfänger sehr gut geeignet. _x005F_x000D_
-_x005F_x000D_
-Wenn man die Kurse mit den Kursen in Deutschland vergleicht, fällt auf, dass die meisten Kurse mehrmals die Woche stattfinden. In Mannheim finden meine Kurse meist nur einmal pro Woche statt und jeweils 90 Minuten. Des Weiteren hatte ich unter dem Semester sehr viel zu tun, da die Uni mehr mit der Schule in Deutschland vergleichbar ist, da man sehr viele Hausaufgaben bekommt und ich viele Assignments und Essays durchgehend einreichen musste. Jedoch war dafür die Prüfungsphase nicht so anstrengend wie in Mannheim, da man unter dem Semester schon so viel machen musste. Der Schwierigkeitsgrad hat sich auch sehr stark unterschieden da zum Beispiel bei Präsentationen Wikipedia Artikel als Quelle ausreichend waren und man oft nicht so tief auf Themen eingegangen ist, wie es sonst in Deutschland typisch ist. Auch unterscheidet sich die Studenten-Lehrperson Beziehung mehr, da es in den USA sehr viel persönlicher ist und man die Lehrperson auch meist mit Vornamen anspricht. _x005F_x000D_
-Die Unterstützung der SDSU war wirklich hervorragend, da man am Anfang zunächst eine Einführung hatte und dann auch stets, wenn es Fragen gab zum International Office gehen konnte. Des Weiteren bietet das International Office auch einmal die Woche eine Coffee Hour an, in der jeweils ein Land vorgestellt wird und man somit mit anderen Studenten in Kontakt kommt. Des Weiteren hat die SDSU auch viele Veranstaltungen für Studierende wie zum Beispiel die Aztecs Nights. Dies sind themenspezifische Abende an denen es zum Beispiel auch free food gibt und unterschiedliches Programm.</t>
-  </si>
-  <si>
-    <t>Der Unialltag ist sehr unterschiedlich zu Mannheim. Meist hatte ich nur 1-2 Veranstaltungen pro Woche, dafür aber deutlich mehr selbstständig zu tun. Immer nur einen Kurs zur selben Zeit zu haben ermöglicht ein deutlich tieferes Eindenken in die Themen, als es in Mannheim der Fall ist. Generell gibt es mehr Diskussion, die Inhalte in BWL sind praxisorientierter und deutlich weniger mathematisch als in Mannheim. Die Prüfungsarten sind vielfältiger und die Hausarbeiten haben mir viel Sorge vor der Bachelorarbeit genommen. Es war außerdem immer wieder möglich bzw. notwendig sich innerhalb der Kurse eigene Schwerpunkte zu setzen.
-Diese Uni ist mit Sicherheit die falsche Adresse, wenn man mit dem Auslandssemester seinen Schnitt aufpolieren möchte, aber die Benotung war bei mir immer fair und die Kurse ansprechend gestaltet. Das Kursangebot ist nicht riesig, meiner Meinung nach aber ausreichend, weil wir auch fachfremdes wählen durften.</t>
-  </si>
-  <si>
-    <t>Das inhaltliche Niveau habe ich insgesamt schon als niedriger als in Mannheim empfunden. Trotzdem hat man während des Semesters ab und zu mal etwas zu tun, weil man regelmäßig Aufgaben abgeben muss, öfter Gruppenarbeiten hat und das Studieren in Spanien relativ verschult ist. Die Kurse hatte ich auch jeweils zweimal pro Woche, was die Woche dann schon ganz gut gefüllt hat. Ich habe die meisten Kurse auf Spanisch gemacht, was überraschend gut geklappt hat und wenn man doch mal Schwierigkeiten mit der Sprache hat, nehmen die meisten Dozierenden auch Rücksicht darauf und kommen einem entgegen. Ich konnte zum Beispiel eine Abgabe auf Englisch schreiben und eine Prüfung mündlich statt schriftlich ablegen, da kann ich nur empfehlen, die Dozierenden anzusprechen. In Spanien ist das Verhältnis von Studierenden und Dozierenden sowieso etwas persönlicher. Am Centre d´Idiomes werden für Studierende der Universität übrigens auch günstige Sprachkurse für jedes Sprachniveau angeboten.</t>
-  </si>
-  <si>
-    <t>Chulalongkorn ist ein Träumchen. Das Kursangebot ist sehr divers und das Niveau entspannt. Es werden fast alle Kurse des BBA-Programms reibungslos anerkannt. Die Vorlesungszeit geht im Wintersemester von Anfang August bis Mitte Dezember. Einige Kurse machen Midterms, viele Gruppenarbeit und Präsentationen. Der Campus ist riesig und schön. Es gibt Tennisplätze, Schwimmbäder und Gyms. Wer thailändisches Essen mag, wird die Mensa vergöttern. Man trägt süße Schuluniformen und lebt ein gutes Leben. Gibt einige gute Youtubevideos von einer Dänin, hier kriegt man ein ziemlich gutes Bild sowohl vom Campus, als auch von Nonsi Residence.</t>
-  </si>
-  <si>
-    <t>Eigentlich finden jedes Jahr vor dem Semester Einführungstage für die internationalen Studenten statt, die dieses Jahr aufgrund der Pandemie jedoch durch Online-Videos ersetzt wurden. Das war ganz gut, um einen groben Überblick zu bekommen und zu wissen, was man nun alles bezüglich Registrierung als Übergangsbürger, Busticket, Fahrrad ausleihen, etc. zu tun hat. Jeder Student hat einen Buddy von der Universität zugeteilt bekommen, an den man sich bei allen möglichen Fragen zu Stadt, Uni-Alltag, Amtsbesuchen usw. wenden konnte. 
-Die Unigebäude sind in ganz Tartu verteilt. Glücklicherweise ist das Gebäude für die BWLer sehr zentrumsnah, wie bereits erwähnt. Zudem ist das sogenannte Delta Center sehr neu und modern, mit perfekter technischer Ausstattung, bequemen Sitzen in den Veranstaltungsräumen und einem ansprechenden Außen- und Innendesign, sodass ich dort gerne Zeit verbracht habe. 
-Das Semester beginnt wie in Mannheim Anfang September und endet Ende Januar. Anders als in Mannheim ist jedoch die Prüfungsphase. Es gibt keine stressige Klausurenphase Ende Dezember, sondern dadurch, dass man während dem Semester schon viele Abgaben und kleinere Tests hat, ist es am Ende alles etwas entspannter. Dafür kann es jedoch sein, dass man auch im Januar noch ein paar Klausuren hat, abhängig von den Kursen, die man gewählt hat. Meine Kurse waren alle im Dezember abgeschlossen, ich hatte zwar noch eine Prüfung im Januar, allerdings fand diese online statt und so konnte ich auch vor Weihnachten wieder zurückfliegen. Trotzdem kann ich empfehlen in Erwägung zu ziehen bis Ende Januar in Estland zu bleiben, da man seinen Platz im Wohnheim sowieso nicht vorher kündigen kann und das viele Studenten so machen, da es für die meisten normal ist, dass die Kurse bis Ende Januar andauern. 
-Das Kursniveau ist im Vergleich zu Mannheim definitiv niedriger und Studenten als auch Dozenten sind viel entspannter und man spürt nicht diesen allgegenwärtigen Leistungsdruck wie in Mannheim. Ich fand es sehr angenehm in kleineren Kursen (im Schnitt 15 Studenten) unterrichtet zu werden und auch, dass wir während dem Semester mehr zu tun hatten, anstatt am Ende nicht mehr zu wissen wo einem der Kopf steht vor lauter Prüfungsstress. Ein bisschen nervig fand ich persönlich, dass wir in fast jedem Kurs eine oder mehrere Gruppenarbeiten erledigen mussten. Im Nachhinein war das aber auch nur halb so anstrengend wie befürchtet. Mitarbeitsnoten gab es in meinen Kursen nicht und wir hatten in fast jedem Kurs die Möglichkeit (Corona bedingt) auch online teilzunehmen, weil jede Veranstaltung aufgezeichnet wurde. Mein Stundenplan war ebenfalls sehr entspannt, meistens hatte ich, trotz 30 ECTS, nur einen Kurs von zwei bis maximal vier Stunden am Tag. Die frühesten Veranstaltungen finden morgens um 8.30 Uhr statt und die spätesten beginnen um 16 Uhr. 
-Ich persönlich hatte zu Beginn Respekt davor, dass wirklich alles auf Englisch stattfindet, es war aber kein Problem, da das Sprachniveau und die Anforderungen der Dozenten meist nicht hoch waren. An den Akzent der Esten muss man sich erst mal gewöhnen, da der sehr stark sein kann, aber die meisten versteht man trotzdem gut. 
-Im Delta Center gibt es auch eine Cafeteria bei der man preiswert Mittag- und Abendessen, sowie Kaffee, Softgetränke und Gebäck bekommen kann. Neben einer kleinen Bibliothek mit PCs, in die man sich setzen kann, wenn man Ruhe braucht, gibt es im Delta Center diverse andere Aufenthaltsmöglichkeiten von Gruppenräumen, über Chillout-Bereiche, bis Einzelarbeitsplätze. Da ich im Delta alle meine Veranstaltungen hatte, war ich meistens dort, es gibt aber noch eine Vielzahl anderer Bibliotheken in der Stadt, die man auch jederzeit nutzen kann.</t>
-  </si>
-  <si>
-    <t>Die San Diego State University (SDSU) bietet ein breites Kursprogramm in vielen verschiedenen Disziplinen an, aus denen man als Austauschstudent frei wählen kann. Die Semesterzeiten sind sehr ähnlich wie in Mannheim. Die Auswahlmöglichkeiten an Kursen für Austauschstudenten sind wirklich kaum begrenzt und gerade für das IKW-Modul findet man sehr viel Passendes und Spannendes. Besonders hat mir ein Kurs im Bereich Sustainability gefallen, den ich mir im IKW Modul anrechnen lassen konnte. Außerdem habe ich einen der vielen Philosophie Kurse als IKW-Seminar belegt. Auch im Bereich Medien- und Kommunikationswissenschaft und BWL gibt es viele Kurse an der SDSU. In BWL habe ich Unternehmensethik belegen können. In MKW ist die Anrechnung deutlich schwieriger für mich gewesen. Ich konnte letztlich ein Hauptseminar im Bereich Audiovisuelle Medien belegen und generell wären Seminare wohl auch im Bereich Rezeption und Wirkung möglich gewesen, allerdings erkennt die MKW Fakultät keine Vorlesungen im Ausland an, was mir zu spät mitgeteilt wurde. Zudem habe ich nach meiner Wahl von Media und Journalism Studies eine Warnung der SDSU erhalten, dass es hier teilweise schwierig sein kann, als International Kurse zu belegen. Bei mir gab es aber überhaupt keine Probleme damit  man sollte nur darauf achten, dass man keine Kurse mit allzu spezifischen Vorleistungen (Requirements) wählt.
-In Amerika ist das Uni-System deutlich schulischer. Deshalb verbringt man die meiste Zeit seines Uni-Alltags damit, Hausaufgaben, Abgaben oder Referate vorzubereiten. Außerdem sind die meisten Kurse zwei bis drei Mal pro Woche, es zählt häufig mündliche Beteiligung oder es gibt Hausaufgaben Quizze und in den meisten Kursen schreibt man ein oder zwei Midterms plus Final. Ich würde deshalb sagen, dass es insgesamt zeitaufwendiger, aber leichter als in Mannheim ist. Man durfte zwar nie Wörterbücher benutzen, sprachlich hatte ich jedoch gar keine Probleme und wenn dann waren die Professoren sehr hilfsbereit und generell viel interessierter am persönlichen Austausch mit Studenten.
-Der Campus der SDSU ist wegen des schulischen Charakters weitläufig und sehr schön. Es gibt viele Ecken (wie zum Beispiel den mediterranen Garten oder einen Schildkrötenteich), die man zum Entspannen oder zum Arbeiten im Freien nutzen kann. Es gibt zwar keine Mensa, aber mehrere Foodcourts und Essenmöglichkeiten, für die man aber 6-10 Dollar pro Mahlzeit einrechnen sollte.
-Die SDSU hat auch neben dem Kursprogramm vieles zu bieten, mit dem man seine Freizeit füllen kann. Große Highlights sind natürlich die College Football und Basketball Spiele, bei denen man amerikanischen Uni-Spirit live erleben kann. Die Uni hat außerdem ein großes Fitnessstudio, das sogar über einen Schwimmkomplex verfügt. Außerdem gibt es eine Vielzahl von Clubs vom Running Team bis hin zu sozialen Projekten wie Green Love, die eine Lunch Series veranstalten, bei der man bei Pizza über nachhaltigen Hausbau oder andere Umweltprobleme und Lösungen diskutiert. Auf dem Campus arbeiten ist durch das Studentenvisum zwar möglich, aber gerade bei halbjährlichen Aufenthalten eher schwierig.</t>
-  </si>
-  <si>
-    <t>Das Studium in Frankreich war anders als in Mannheim. Die Kurse waren kleiner und interaktiver. Es gab viele Gruppenarbeiten. Auch andere Fächer, die man in Mannheim nicht hat. Z.B. hatten wir Sales&amp;Relations. Die Gruppenarbeiten waren allerdings echt nervig, weil wir echt große Gruppen hatten. Einmal auch zu acht und das treibt einen echt in den Wahnsinn und führt zu nichts. Bewertungen waren mehr oder weniger fair, abgesehen von den Gruppenarbeiten, da hing es sehr von den anderen ab, denen es teilweise egal war. _x005F_x000D_
-_x005F_x000D_
-Es herrschte auch Anwesenheitspflicht an der Uni, sodass man immer da sein musste und mit QR-Code einchecken musste. Dadurch waren längere Reisen unterhalb des Semesters schwierig.</t>
-  </si>
-  <si>
-    <t>Das UCD bietet mit seinem großflächigem Campusgelände eine diverse Atmosphäre: Dank Gyms, Mensen, sowie zahlreichen Vorlesungs- / Fakultätsgebäuden und Bibliotheken lässt sich der Tag abwechslungsreich gestalten. Es gibt sogar eine eigene on-campus Bar, das Club House, in dem sich nicht nur Drinks, sondern auch warme Mahlzeiten und lustige Abendprogramme auffinden lassen. Die dortige Business School, in der ich die meiste Zeit verbracht habe, ist äußerst modern ausgestattet und bietet zudem buchbare Gruppen-Arbeitsplätze an. Letzterer Punkt war besonders entscheidend, immerhin ist das Uni-Leben dort geprägt von Gruppenprojekten und Team-Assignments. Für mich war das eine wundervolle Abwechslung und wesentlich besser, als das ganze Semester nur für eine finale Prüfung zu ackern, obwohl viele Kurse zusätzlich zu (meist zwei) weiteren Assignments auch noch eine Klausur forderten.</t>
-  </si>
-  <si>
-    <t>Das Studiensystem in Sydney ist ganz anders als in Mannheim. Ihr werdet viele Assignments und Quizzes haben, weshalb ihr kontinuierlich etwas für die Uni zu tun habt. Letztendlich finde ich den Aufwand insgesamt etwas höher als in Mannheim, doch ihr habt am Ende des Semesters nicht mehr so viel Stress. Ich hatte z.B. nur zwei Endklausuren, die beide jeweils 50 % gezählt haben. Die Assignments sind teilweise sehr anspruchsvoll, doch eine sehr gute Übung, gerade im Hinblick auf die Bachelorarbeit. Die Uni in Sydney ist deutlich praxisrelevanter als die Uni Mannheim. Ich hatte beispielsweise SAP Seminare in meinem Accounting Kurs. Teilweise gibt es Anwesenheitspflicht, v.a. in Tutorien._x005F_x000D_
-_x005F_x000D_
-Die Uni bietet sehr viele Kurse an, es sollte also für jedes Interesse etwas dabei sein. Im Wirtschaftspädagogik Studium ist es schwierig, sich Kurse anrechnen zu lassen, doch ich konnte immerhin zwei Learning Agreements schließen. Genaueres dazu seht ihr unten._x005F_x000D_
-_x005F_x000D_
-Die Unizeiten in Sydney sind anders als in Mannheim, das Semester dauert von Ende Juli bis Mitte/Ende November. Ich hatte das Glück, dass ich nur drei Tage in der Woche Uni hatte und konnte mein langes Wochenende perfekt nutzen, um auch mal in eine andere Stadt Australiens zu fliegen. _x005F_x000D_
-_x005F_x000D_
-Der Campus ist sehr schön, es gibt keine Mensa wie bei uns, sondern mehrere kleine Cafés und Imbisse. Ansonsten gibt es ein großes Sportangebot an der Uni mit Pool, Fitnessstudio etc. (leider auch sehr teuer)</t>
-  </si>
-  <si>
-    <t>Vor Beginn des eigentlichen Trimesters (Anfang Oktober- Mitte Dezember), habe ich an der ESSEC die French Training Session besucht, die über 3 Wochen geht. Das würde ich auch jedem empfehlen, um Französisch zu lernen oder sein Französisch aufzubessern. Es ist eine super Gelegenheit, andere Studenten kennenzulernen, an Ausflügen teilzunehmen und Paris zu genießen, bevor die eigentliche Uni losgeht. 
-Das Kursangebot an der ESSEC ist relativ vielseitig, allerdings sind die Kurse, die im jeweiligen Trimester angeboten werden, oft begrenzt. Von der ESSEC haben wir ziemlich früh einen vorläufigen Kurskatalog erhalten mit Kursen aus dem letzten Jahr. Daraufhin habe ich meine Learning Agreements zur Anerkennung in Mannheim eingeholt. 1 Woche vor der offiziellen Kursanmeldung (first-come-first-serve), wurde uns dann der finale Kursplan für das Trimester zugeschickt und die meisten meiner vorher ausgewählten Kurse waren nicht vertreten. Das Angebot war generell ziemlich beschränkt. Somit musste ich dann in der einen Woche nochmal zusätzliche Learning Agreements abschließen, was etwas stressig war, weil viele Lehrstühle im Urlaub waren. Am Tag der Kursanmeldung hab ich mich direkt zu Beginn der Deadline für meine Kurse registriert und auch alle bekommen, da Austauschstudenten vor allen anderen ihre Kurse wählen dürfen. Ich habe 4 Kurse belegt, die alle in Mannheim angerechnet werden. Vor Beginn des Semesters gibt es eine Intensiv-Woche, in der man einen Kurs in 5 Tagen belegen kann und dann fertig ist. Dazu habe ich mich auch entschlossen, um im Semester mehr Zeit zur Erkundung von Paris zu haben. Die Woche war aber wirklich ziemlich intensiv, da man sehr viel Uni hat und wir nebenbei noch eine 90-minütige Unterrichtseinheit zu 10 Leuten halten mussten, und am Freitag eine Klausur hatten. Eine Woche danach mussten wir dann noch ein professionelles Wrap-up Video einreichen, was wir im Video-Raum der ESSEC erstellen konnten und anschließend schneiden und editieren mussten, etc. Das war alles sehr zeitintensiv und anstrengend. 
-Das Studium an der ESSEC ist komplett anders als in Mannheim. Die Kurse sind sehr klein (mein größter Kurs hatte maximal 50 Leute), man muss oft mündlich mitarbeiten, die Anwesenheit wird kontrolliert und es gibt Gruppenarbeiten, Gruppenarbeiten, Gruppenarbeiten und noch mehr Gruppenarbeiten. Es fühlt sich also etwas so an, als sei man zurück in der Schule. 
-Der Aufwand verteilt sich über das gesamte Semester, da man ständig Case Studies und Präsentationen hat und in einigen Kursen auch Midterm-Klausuren. Somit entfällt der Stress am Ende, da die finalen Klausuren nicht mehr allzu viel zählen. Die Gruppenarbeiten können aber mitunter ziemlich anstrengend sein, weil viele Studenten (besonders die Franzosen) nicht sehr motiviert sind, da sie nur bestehen wollen und sich nicht großartig für ihre Noten interessieren. Da die von uns belegten Kurse allerdings in Mannheim mit Punkten angerechnet werden, kann es also etwas anstrengend werden, wenn man einen Großteil der Arbeit allein macht, da die Gruppenmitglieder unzuverlässig sind und eher oberflächlich arbeiten. Wenn man allerdings darauf achtet, dass man eine gute Gruppe hat, kann es auch Spaß machen, gut funktionieren und man bekommt faire Noten. Generell würde ich das Kursniveau niedriger als in Mannheim einschätzen. Die Klausuren waren gut machbar und fair. 
-Organisatorisch ist die Uni Mannheim der ESSEC aber um einiges voraus. In vielen Dingen schien es an der ESSEC etwas unorganisiert und chaotisch. 
-Der Campus der ESSEC ist nicht sonderlich groß und auch nicht sonderlich schön. Es gibt eine überteuerte Cafeteria mit Fast-Food und einige Bistros etc. in der Nähe der Uni. Ansonsten bietet die Uni alles was man braucht: Learning Center, Gym, etc. Da ich meine Zeit aber lieber in Paris verbracht habe und nicht auf dem Campus, kann ich nicht viel dazu sagen.</t>
-  </si>
-  <si>
-    <t>Das Kurangebot an der Uni ist sehr vielfältig. Ich habe die meisten Kurse aus reinem Interesse besucht und nicht mit der Intention viele angerechnet bekommen zu wollen. Ich war sehr interessiert an weiteren medienwissenschaftlichen Kursen, da die Universität Mannheim ja eher stark auf der kommunikationswissenschaftlichen Seite beruht. Dazu ist die Cal State LA eine super Uni und hat viel Kursangebot. Es gibt aber auch mehrere Kommunikationsstudiengänge an der Uni und hat dementsprechend viele COMM Kurse im Angebot. Außerdem gibt es durch die TVFM Fakultät viele angewandte Medienwissenschaftskurse. Einige Kurse an der Uni können nur mit Permission des Department Chairs belegt werden. Darunter fallen auch alle TVFM Kurse. Uns wurde gesagt, dass wir diese Permits bekommen könnten, wenn wir eine E-Mail mit den betroffenen Kursen schicken würden und die Koordinatorin vor Ort würde sich mit den Zuständigen in Kontakt setzten, das ist dann auch so abgelaufen, aber zu dem Zeitpunkt, als wir diese Permits erhalten haben waren bereits alle Plätze in den begehren Kursen belegt. Im zweiten Semester wurde von uns erwartet, das selbst zu erledigen. Das hat auch besser geklappt und ich kann nur empfehlen dies auch im ersten Semester selbst zu organisieren. Die jeweiligen aktuellen Kurse können aber auch online im Kurskatalog der Uni gefunden werden. Das Kursniveau war im Großen und Ganzen im Vergleich zu Mannheim recht niedrig, allerdings gab es sehr häufig umfangreiche Hausaufgaben und kleine Paper, Gruppenarbeiten und Referate. In einem Kurs gab es jede Woche ein Quiz, daher würde ich nicht sagen, dass es weniger Aufwand war einen Kurs zu belegen als in Mannheim. Der Aufwand war womöglich noch höher, das Niveau allerdings niedriger und auch über das gesamte Semester verteilt. Die Noten bestanden aus der mündlichen Mitarbeit, Projekten wie Referaten und Paper etc. und der Midterm Klausur so wie der endgültigen Klausur. Die Vorlesungszeiten sind je nach Kurswahl recht flexibel. Ich hatte zum Beispiel auch mal einen Kurs bis kurz vor neun abends. Der Campus hat auch alles was man sich an so einem amerikanischen Campus so vorstellt. Einen Foodcourt mit Fast Food Läden, einen Buchladen mit Campusmerchandise, Cafés, eine Sportanlage und ein Pool mit sehr spezifischen Öffnungsstunden und sogar ein Fitnesscenter, dass man als Student kostenfrei benutzen kann. 
-Das geforderte Sprachniveau war nicht allzu hoch und man ist kaum in Kursen aufgefallen, wenn man ein eher gebrochenes Englisch gesprochen hat. Viele andere Studenten dort waren selbst keine Muttersprachler. Es gibt außerdem eine sehr große Latino/a Community auf dem Campus und es war sehr interessant an einem so multikulturellen Campus zu studieren.</t>
-  </si>
-  <si>
-    <t>Die ESSEC unterscheidet sich in zwei Punkten von Mannheim: Zum einen ist das Kursangebot breiter aufgestellt und zum anderen ist der Lehransatz spürbar praxisbezogener. Zudem herrscht strikte Anwesenheitspflicht, maximal sind 2 Absenzen erlaubt. Die Kurse werden zu Beginn jedes Terms gewählt, Exchange und DD Studenten genießen hier eine Vorrangstellung und dürfen auf FCFS-Basis Kurse vor den ESSEC-Fulltime Studenten wählen. Pro Term können max. 7 Kurse belegt werden (35 ECTS). Das Studium im Double Degree gestaltet sich zunächst einmal wenig aufregend, da die Grundkurse für Mannheim Studenten meist nichts Neues beinhalten und einen sehr repetitiven Charakter haben (sehr viele Franzosen im Master haben keinen Business Background). Zudem werden die Grundkurse z.T. von Phd Studenten unterrichtet, die zum ersten Mal vor einer Klasse stehen. Die Wahlkurse dagegen sind sehr interessant und werden von z.T. hochkarätigen Professoren unterrichtet, die herausragende Stellungen in Wirtschaft und Lehre bekleiden. Insgesamt wäre es wünschenswert, wenn im DD die Anzahl an Pflichtkursen gesenkt werden würde, was eine zusätzliche Vertiefung durch interessante Kurse ermöglicht. Das Kurskonzept an der ESSEC ist sehr Caselastig, was einen guten Austausch fördert. Klausuren finden im Midterm und am Ende jedes Terms statt. Es gibt zudem pro Term die Möglichkeit "Intensive Weeks" zu absolvieren, in denen man innerhalb einer Woche einen Kurs durchläuft.</t>
-  </si>
-  <si>
-    <t>Insgesamt müssen 5 Kurse belegt werden um ausreichend Credits für die Anerkennung in Mannheim zu belegen. 3 dieser Kurse müssen aus dem Bereich BWL stammen die anderen 2 sind frei wählbar diese können auch außerhalb der Business School beispielsweise in Bereichen wie Sportwissenschaft oder Fashion belegt werden.  _x005F_x000D_
-Die Kurswahl für Austauschstudenten wird erst vorort freigeschaltet, amerikanische Studenten dagegen wählen schon viel früher ihre Kurse was dazu führt, dass viele beliebte Kurse bereits komplett belegt sind. Für ausgewählte Kurse werden aber noch extra Plätze für Austauschstudenten freigeschaltet. Trotzdem gilt first-come first-serve. Diese Tatsache sollte aber nicht zu sehr verunsichern, da in der ersten Woche sehr viele Kurse gewechselt werden und dementsprechend auch wieder Plätze frei werden. Oftmals sind Professoren auch gewillt einen extra Platz zu öffenen wenn sie persönlich angesprochen werden. Gerade als internationaler Student ist es oftmals relativ einfach in bereits ausgebuchte Kurse zu kommen. _x005F_x000D_
-Die meisten Kurse sind wesentlich kleiner als in Mannheim. Das zeichnet sich auch dadurch aus, dass die Professoren viel wert auf persönlichen Kontakt mit ihren Studenten legen und somit meistens auch Anwesenheitspflicht besteht. Gruppenarbeiten spielen eine große Rolle in den meisten Kursen. _x005F_x000D_
-Der Arbeitsaufwand ist gleichmäßig über das Semester verteilt und dadurch ist es nicht unüblich, dass die letzte Klausur nur noch einen geringen Einfluss auf die Endnote.</t>
-  </si>
-  <si>
-    <t>Das Niveau an der HEC ist etwas niedriger als an der Uni Mannheim, allerdings muss man dennoch viel für die Uni machen. Ich würde sagen, dass es grundsätzlich mit viel Aufwand und Fleiß leichter ist sehr gute Noten zu bekommen, was auch daran liegt, dass die Konkurrenz nicht vergleichbar mit Mannheim ist. Fast alle anderen Internationals müssen ihre Kurse nur bestehen, was natürlich Auswirkungen auf den Durchschnitt in den verschiedenen Prüfungsleistungen hat. Durch die vielen Abgaben hat man aber während des Semesters recht viel zutun, dafür aber am Ende nicht so viel Stress. Ich hatte eine Midterm und 5 Finals und würde auf jeden Fall 1 bis maximal 3 Midterms empfehlen, es gibt sogar Kurse bei denen man dann kein Final schreibt, hierauf sollte man auf jeden Fall achten bei der Kurswahl. Meine Kurse waren alle 1/Woche für 3 Stunden, meist aufgeteilt in Vorlesung und Übung. Das Semester beginnt Ende August und endet vor Weihnachten und Ende Oktober, nach den Midterms hat man noch eine Woche Reading Week. Der Campus ist in Cote des Neiges, bestehend aus 2 Gebäuden, welche ca. 10 Minuten zu Fuß voneinander entfernt sind. Das Essen in der Mensa ist ok, etwas teurer als in Mannheim (ca. 10 CAD) aber meistens gut, ganz besonders die Schokocroissants sind sehr lecker.</t>
-  </si>
-  <si>
-    <t>Das Studienangebot an der University of Edinburgh ist generell sehr vielfältig, aus allen Spezialisierungsbereichen kann man Kurse finden, es lohnt sich ein Blick in das drps. Falls einige Kurse im Bewerbungsformular nicht auftauchen, lohnt es sich beim Visiting Office nachzufragen. Die Kurse in Edinburgh sind in first and second year courses und honours courses aufgeteilt, wobei die ersteren sich durch eine größere Präsenzstundenanzahl und die letzteren sich durch eine höhere Selbststudiendauer unterscheiden. Für den Austausch im 5. Semester sind in BWL eher die honours courses relevant, falls man an Kursen von anderen Fachbereichen interessiert ist, ist das in den first and second year courses auch möglich, im honours Bereich muss man einen zusätzlichen Sprachtest in der ersten Woche ablegen. Ebenfalls gibt es die Möglichkeit einen Sprachkurs zu belegen, allerdings muss man dazu eine bestimmte Punktzahl in einem Sprachtest ablegen, das Niveau davon ist B1-B2. Die meisten honours courses sind eher praktisch mit Gruppenarbeit, Präsentationen und Essays orientiert, was einen höheren Stundenaufwand im Semester für die Vorbereitung dieser Projekte fordert. Generell ist aber der Aufwand im Semester absolut machbar, da die 30 ETCs in Edinburgh nur 3 Kurse ausmachen. 
-Das akademische Jahr ist in Semester aufgeteilt, von denen das HWS vom 21.9 bis zum 21.12. geht. In Edinburgh gibt es keinen klassischen Campus, die Uni ist in unterschiedlichen Gebäuden, wobei der meiste Teil (Sozialwissenschaften) im George Square relativ zentral in der Stadt platziert ist, Naturwissenschaften sind etwas weiter weg im Kings Building. Es gibt auch keine Mensa sondern nur kleine Bistros, bei denen das Essensangebot bei etwa 4 Pfund pro warme Mahlzeit liegt.</t>
-  </si>
-  <si>
-    <t>Die Universität Bergen ist in der Stadt verteilt und hat teilweise sehr schöne Fakultäten. Die Psychologische Fakultät ist mit die zentralste und keine zwei Minuten von der Haltestelle der Straßenbahn entfernt. generell habe ich die Uni als sehr entgegenkommend und transparent erlebt. Es gibt etliche Ansprechparter*innen die gerne Fragen beantworten. 
-Die Liste der für Austauschstudierende zu verfügungstehenden Kurse kann man auf der internetseite der Universität finden und sich da ein bisschen durchklicken. Außerdem gibt es auf der Internetseite eine ausführliche Beschreibung zu jedem Kurs. 
-Die Aufteilung des Semesters war bei mir stark vergleichbar mit der in Mannheim. Vorlesungen ab Ende August und Prüfungen vor Weihnachten. Gut zu wissen ist wahrscheinlich, dass es in Norwegen so gut wie keine MC-Klausuren sind. Das meiste sind kürzere oder längere Essays. 
-Da die Uni in der ganzen Stadt verteilt ist, gibt es etliche Möglichkeiten in der Mensa zu essen oder zu lernen. So gut wie jhede Fakultät hat eine Bibliothek und mindestens ein Café von Sammen. In den Cafés an der Uni sind die Preise auf jeden Fall besser als in normalen Cafés. Sonst lässt es sich aber auch gut in Cafés außerhalb der Uni lernen, die sind meist gut Besucht von Lernenden.</t>
-  </si>
-  <si>
-    <t>Im Normalfall werden alle eure Vorlesungen am Süd- und Nordcampus der Bo?aziçi Universität stattfinden. Der Südcampus ist wirklich wunderschön und bietet sehr viel Natur und eine tolle Aussicht über Istanbul. Der Nordcampus ist weniger schön, dafür aber kompakter und bietet viele Arbeitsbereiche in der Bibliothek. Das Campus-Leben an der Bo?aziçi empfand ich nach fast vier Onlinesemestern sehr abwechslungsreich, da man fast immer am Campus Bekanntschaften getroffen hat und man nach den Vorlesungen fast immer noch auf einen Cay geblieben ist. In den Dining Halls am Campus kann man preiswert (Mittag/Abend 7,5TL, Frühstück 5TL) essen. _x005F_x000D_
-_x005F_x000D_
-Die Kurse waren generell verschulter als in Mannheim, weshalb viele Kurse auch eine Anwesenheitspflicht hatten. Generell wurde in kleineren Gruppen unterrichtet und die Professoren waren auch mehr bemüht, mit den Studenten zu interagieren. Jedoch waren die Vorlesungen oft schlechter strukturiert als in Mannheim. Während des Semesters war der Aufwand etwas höher als in Mannheim, da viele Kurse nicht nur eine Abschlussklausur, sondern noch Abgaben, Präsentationen oder Midterms haben. Zur Mitte des Semesters wurde es daher einmal etwas sehr stressig, da sich meine Zwischenprüfungen und Abgaben in einer Woche konzentriert haben. Da die Leistungen während des Semesters einen Großteil (50 % - 60 % der Note ausmachen) ist die finale Klausurenphase am Ende des Semesters etwas entspannter. Ein Großteil der Note steht bereits fest und die Professoren schließen oft  Themen, die vor den Midterms behandelt wurden, aus dem klausurrelevanten Stoff aus.</t>
-  </si>
-  <si>
-    <t>Ich habe 4 Kurse mit insgesamt 12 credit hours besucht, also die normale Work load an der Law School. Die Kurs werden vor dem Semester gewählt und es gibt eine große Auswahl. In der Regel wurden alle Austauschstudenten ihren Wünschen nach zugeteilt. Meine Kurse waren Business Associations, Income Taxation, Introduction to the Law of the US und RRWA (Research, Reasoning, Writing, and Advocacy)._x005F_x000D_
-Im Vergleich zu Deutschland ist das System sehr verschult. Man hat Anwesenheitspflicht und Hausaufgaben. Anfangs fällt es einem sehr schwer bei den Readings mitzuhalten. Jedoch gewöhnt man sich an das Lesen von englischer Fachliteratur und man bekommt ein Gefühl dafür, welche Readings man auch mal lassen kann. Generell empfehle ich Quimbee. Das ist eine Datenbank von Zusammenfassungen von Urteilen. Das nimmt einen sehr viel Arbeit ab und die 10 USD, die es im Monat kostet, ist es wert. Insgesamt ist die Work Load vergleichbar mit zu Hause, nur über das Semester verteilt. Entsprechend ist die Klausurenphase am Ende vom Semester weniger stressig. Der Mythos, dass es an US-Unis für Deutsche besonders leicht ist und man viel Freizeit hat stimmt nur bedingt. Freunde, die im Bachelor im Austausch waren, hatten es wirklich leichter als zu Hause. In der Law School als Graduate School jedoch ist das Niveau mit zu Hause vergleichbar_x005F_x000D_
-Business Associations und Income Tax enden beide mit einer 4-5 stündigen Klausur und waren, auch wenn man mit den US Studenten zusammen ist, auch als Ausländer gut machbar. Intro to US Law ist ein Pflichtkurs für Austauschstudenten und gibt ein groben Überblick über das Gerichts- und Rechtssystem. RRWA ist ein Kurs, der grundsätzlich für die Erstsemester angeboten wird und für Austauschstudenten nur auf Nachfrage wählbar ist. Thema ist das Erlernen des US-Gutachtenstils. Es müssen im Laufe des Semesters mehrere Paper eingereicht werden mit Feedback-Schleifen mit dem Professor und Einzelgesprächen über die Paper. Dieser Kurs hat mir persönlich am meisten gebracht, da man intensiv das Texteschreiben übt._x005F_x000D_
-Mit Rücksprache der Fakultät habe ich mir die Option offengelassen, dass ich nach meinem Examen an die UNC für einen LL.M. zurückkehren könnte und mir das Auslandssemester anrechnen lassen könnte. Wegen der genauen Kurswahl sollte deshalb Rücksprache mit der Fakultät gehalten werden._x005F_x000D_
-Zu der Anrechnung von Kursen in Mannheim kann ich nichts sagen, dass ich die Option nicht wahrgenommen hab und mich bei der Wahl der Kurse an den Anforderungen des LL.M. orientiert hab.</t>
-  </si>
-  <si>
-    <t>Die Uni ist sehr verschult. Die Semesterzeiten sind die gleichen wie in Mannheim. Man beginnt Anfang September und vor Weihnachten hat man alle Klausuren durch. Die Kurse wählt man über ein Online Portal, man kann die Kurse aber noch innerhalb der ersten zwei Wochen, während der Add and Drop Period problemlos tauschen. In den Kursen sitzen max. 40 Leute und man hat meist eine Veranstaltung pro Woche die drei Stunden dauert. Ich hatte überall Anwesenheitspflicht und in manchen Kursen fließt auch die Beteiligung mit in die Note ein. Jeder Kurs hat aber ein Syllabus in dem alles genau beschreiben ist, was in die Note eingeht und wie viel was gewichtet ist. Die meisten Locals beteiligen sich jedoch trotzdem nicht, sondern sitzen nur am Handy oder am Laptop und kommen auch meistens noch 30 min zu spät. Die Klassenräume sind sehr untergekühlt, sodass ihr euch auf jeden Fall hier einen Pulli mitnehmen solltet, sonst friert ihr, obwohl es draußen sehr warm ist._x005F_x000D_
-Ich konnte mir meine 5 Kurse so legen, dass ich nur 2 Tage Unterricht die Woche hatte. Die Zwei Tage waren zwar hart, aber dafür konnte ich sonst viel Reisen und viel unternehmen._x005F_x000D_
-Dass das Niveau unter dem von Mannheim liegt, kann ich so nicht sagen. Es ist anders: man muss viele Paper schreiben, Gruppenpräsentationen halten und am Ende dann ein Final Exam. Den Aufwand hierfür darf man nicht unterschätzen. Hier hatte ich leider sehr oft Pech mit meinen Gruppen, da bei anderen Austauschstudenten die Noten nicht zählen und man so letzten Endes die ganze Arbeit fast alleine gemacht hat, weil es die anderen nicht interessiert hat. Die Kurse sind alle auf Englisch. Zum guten Schluss fallen die Noten jedoch trotzdem sehr gut aus. _x005F_x000D_
-Auf dem Campus selber gibt es viele verschiedene Möglichkeiten für Essen in Mensen, auch Starbucks, Subway und 7 Eleven sind hier günstiger als Außerhalb._x005F_x000D_
-Gelernt habe ich meistens in der Bibliothek, da diese sehr schön und groß ist. Hier ist es kein Problem einen Platz auch in der Klausurenphase zu bekommen, da die Locals meistens erst gegen 12 Uhr erscheinen.</t>
-  </si>
-  <si>
-    <t>Anfangs viel es mir etwas schwer passende Kurse zu finden. Das Angebot für Psychologie schien nur sehr klein zu sein und es standen uns nur die Kurse für das Sommersemester zur Planung zur Verfügung. Die Website der KU auf der die Kurswahl stattgefunden hat war auch ziemlich verwirrend, ist immer wieder auf Koreanisch gesprungen und es war nicht so einfach sich einen Überblick zu verschaffen. Davon sollte man sich aber nicht direkt abschrecken lassen und es für die Bewerbung nur als erste Information nutzen. Ein paar Tage vor der wirklichen Kurswahl konnte man dann die aktuelle Kursauswahl einsehen und hat auch ein Department of Psychology angezeigt bekommen das vorher nicht zu sehen war. Die Auswahl war nicht riesig, da viele Kurse Basiskurse waren, die bei uns in den ersten zwei Semestern abgedeckt werden und somit für mich nicht in Frage kamen. Man findet aber genug Kurse für ein Semester. 
-Inhaltlich waren meine Kurse insgesamt auf jeden Fall einfacher als in Mannheim. Ich glaube man hätte mit sehr wenig Vorwissen gut folgen und gute Noten bekommen können. Der Aufwand unter dem Semester war sehr unterschiedlich. In einem Kurs musste man nur 70% der Zeit anwesend sein und die beiden Klausuren mitschreiben. In einem anderen gab es zusätzlich zu den Klausuren eine Participation Note, in die Anwesenheit und Teilnahme an den Diskussionen in den Sitzungen mit einfließt. Etwas vorbereiten musste man für diesen Kurs aber auch nie. Mein dritter Kurs war der aufwändigste während dem Semester, allerdings hielt sich auch das in Grenzen. Insgesamt gab es 5 Assignments, für die man jeweils ein Buchkapitel lesen musste und dann eine halbe bis eine Seite Text verfassen sollte mit seinen Gedanken und Anmerkungen zum Gelesenen. Außerdem gab es eine 20-minütige Gruppenpräsentation, die zum Ende des Semesters vorbereitet werden sollte. Die Klausuren waren auch alle sehr gut zu schaffen. In jedem Kurs gab es ein Mid-Term und ein Final Exam. Die Fragen waren größtenteils im Multiple Choice Format (bei uns haben alle Klausuren online stattgefunden) und meistens einfach gestellt. Dazu kamen ein paar Short Answer Fragen (Antwort mit einem Wort) und wenige Exam Questions, die aber meist schon mehr oder weniger vorher bekannt waren, da sie so bereits im Kurs diskutiert wurden.
-Anfang September hatten wir die erste Vorlesungswoche, wobei die jeweils ersten Stunden nur zur Vorstellung und Einleitung dienten und noch nichts Inhaltliches besprochen wurde. Die letzten Vorlesungen hatte ich wie auch meine Klausuren in der Woche vom 13.-17. Dezember, die Klausuren hätten aber auch noch in der Woche danach stattfinden können.
- Es gibt mehrere Möglichkeiten auf dem Campus zu arbeiten und ich habe immer einen Platz gefunden. Allerdings war ich insgesamt eher selten an der KU zum Lernen, da ich lieber im Café gearbeitet habe. In der KU gibt es mindestens ein Café und einen Burger King. Mehr habe ich selber nicht ausprobiert, aber es sollte ein großes Angebot vorhanden sein, sodass man problemlos einen Tag auf dem Campus verbringen kann. 
-Ich war einigermaßen negativ überrascht vom Sprachniveau an der Uni. Wenn man im Alltag versucht mit Koreanern Englisch zu sprechen ist es vielen oft unangenehm und sie trauen sich nicht zu antworten. Aber selbst an der KU, die zweitbeste Uni im Land, hatte ich das Gefühl, die meisten Studenten sprechen ungern Englisch und viele tun sich wirklich schwer damit. Selbst manche Dozenten hatten ihre Probleme damit, eine ganze Vorlesung auf Englisch zu halten. Eine meiner Professorinnen hat die ganze Zeit zwischen Englisch und Koreanisch gewechselt und alles was sie auf Englisch gesagt hat noch einmal auf Koreanisch erklärt und ausgeführt. Dass ich vom Sprachniveau überrascht war heißt aber nicht, dass das Studieren auf Englisch nicht gut klappt. All meine Dozenten und Mitstudierenden haben sich große Mühe gegeben uns Austauschstudierende (trotz Onlinelehre) zu inkludieren und alles verständlich zu machen. Außerdem habe ich mehrfach gehört, dass Studierende wohl oft schriftlich sehr gut im Englischen sind aber mündlich einfach weniger geübt.
-Es gibt einige Koreanisch Kurse an der Uni, allerdings sind gerade die Anfänger Kurse sehr beliebt und es bekommen nicht alle einen Platz. Ich habe den Korean Speaking 1 Kurs belegt, der inhaltlich auch bei null startet, aber voraussetzt, dass man das koreanische Alphabet bereits beherrscht. Da ich im Vorhinein bereits einen online Sprachkurs für die Basics gemacht habe war das kein Problem und der Kurs perfekt für mich. Ich kann auch jedem empfehlen sich entweder mit einem Kurs oder alleine das Alphabet anzueignen und den Speaking statt dem Anfänger Kurs zu belegen, da der Speakiung Kurs zweimal die Woche stattfindet und der Anfänger Kurs viermal die Woche. Mein Koreanisch Kurs war mit kleinen Hausaufgaben fast der aufwändigste all meiner Kurse und ich war froh ihn nur zweimal die Woche zu haben.</t>
-  </si>
-  <si>
-    <t>Wie bereits in anderen Erfahrungsberichten mehrfach erwähnt ist das Studium deutlich proaktiver (kleinere Kursgröße, mehr Interaktion und Gruppenarbeiten). Eine generelle Anwesenheitspflicht besteht nicht, in manchen Kursen fließt diese aber in die mündliche Mitarbeit ein (ca. 5% der Endnote). Das Niveau an der HKUST ist deutlich unter dem der Uni Mannheim anzusiedeln. So reichen für die Klausurvorbereitung häufig schon 3 Tage. Jedoch sollte man beachten, dass je nach Kurs teils viele Hausarbeiten oder Gruppenarbeiten anfallen, die zwar nicht sonderlich anspruchsvoll jedoch sehr zeitraubend sein können (v.a. wenn man während des Semesters reisen möchte sollte man dies bei der Kurswahl bedenken). Die Notenvergabe an der HKUST verläuft ausschließlich nach relativer Leistung (Die besten 20% 1,0-1,7, usw.), was es teilweise schwer macht die eigene Leistung ein zu ordnen.</t>
-  </si>
-  <si>
-    <t>Aktivitäten an der USC
-Die Größe und Vielfältigkeit der USC ermöglicht ein noch so größeres Angebot an Aktivitäten außerhalb des Hörsaals. Bei den unzähligen Sportarten, Initiativen, Gemeinschaften, politischen und kulturellen Clubs ist definitiv für jeden etwas dabei. Es gibt zwei riesige Gebäude, die Basketball-, Tennis-, Squash- und Fußballfelder, Fitnessstudio, Schwimmhalle und noch mehr beinhalten. Es finden in den ersten Wochen mehrere Initiativenmärkte statt wo sich alle Initiativen vorstellen und zum Mitmachen werben. Es lohnt sich auf jeden Fall sich zu engagieren, auch um das College-Leben und andere amerikanische Mitstudenten kennen zu lernen. 
-Ich selbst hab mich für etwas Musikalisches entscheiden. Ich hatte die Chance gleich in mehreren Bands mitzuspielen. Eins meiner Highlights des Semesters war das Konzert und generell das Spielen mit der USC Jazz Big Band als Schlagzeuger. Informationen zu Bands, Orchestren, Unterricht etc.  bekommt man super einfach an der Fakultät für Musik, die direkt neben der Business School liegt.
-In den USA, insbesondere an der USC wird Fankultur und Zugehörigkeit zu den eigenen Unimannschaften großgeschrieben. Fußball, Basketball, Volleyball und natürlich Football Spiele sind unvergessliche Events. Mit Tausenden Kommilitonen, alle in USC-dunkelrot gekleidet im Stadion zu stehen und die Teams anzufeuern gehört definitiv zur College Experience. 
-Lehre
-Das akademische System in den USA unterscheidet sich grundlegend von Mannheim. Während in Deutschland von einem Studenten die größtmögliche Selbstständigkeit erwartet wird und die Note zu 100% auf der Klausur lastet fügen sich in Amerika viele einzelne Noten am Ende zu einer Gesamtnote zusammen. Der deutschen Vorlesung in Hörsälen für 500+ Studenten, stehen kleine Größen von 20-30 Studenten pro Kurs in Amerika gegenüber. Die Vorlesung hat Schulcharakter  es herrscht Anwesenheitspflicht, mündliche Mitarbeit wird gefordert, es gibt Hausaufgaben, Tests und Abfragen und meistens ein/zwei Klausuren und/oder Essays, die die Note beeinflussen. Kontinuierliche Mitarbeit und Auseinandersetzung mit den Themen zahlen sich hier aus. 
-Krankenversicherung
-Die USC setzt eine Krankenversicherung voraus  man hat die Option, die Versicherung der USC für an die 1000 USD anzunehmen, oder aber diese durch eine eigene Auslandsversicherung zu ersetzen, zu waiven. Diese ist allerdings erstens sehr teuer und deckt zweitens nicht gut beziehungswiese in dubioser Weise ab. So sind zum Beispiel Sportunfälle  mitunter eine der wenigen realistisch vorstellbaren Verletzungsmöglichkeiten  ausgeschlossen. Einen Waiver-Request einzureichen würde ich auf jeden Fall empfehlen, auch wenn das zu einer höchst interessanten Herausforderung werden kann. Die Bedingungen der USC sind hoch und entsprechen nicht den Kriterien nach denen deutsche Versicherungen unterteilen. Die ISO-Versicherung ist eine amerikanische Waive-Option, aber auch eigene deutsche Versicherung können in Frage kommen. Um die Kriterien zu bestätigen gibt es ein Formular der USC auf dem die Kriterien aufgelistet sind und die eigene Versicherungsgesellschaft bestätigt diese Bedingungen Im Falle zu gewährleisten. Unterschrieben, Stempel drauf, abgeschickt, hat die USC nun ihr eigenes Dokument abgelehnt. Für ein Nachprüfen der Kriterien ließ sich kein Ansprechpartner an der USC finden, dafür hat die USC einen externen Service-Dienstleister, der mit seinem Latein allerdings auch schnell an ein Ende kam. Übrig blieb schlussendlich nur, die eigene Versicherung wieder zu kündigen und mich wie viele andere für die ISO-Versicherung einzuschreiben, nachdem dies die letzten Jahre relativ einwandfrei funktionierte und gewaived wurde. Dem Ziel so nahe, wurden unsere Waiver-Requests dann einmal durch die ganze Reihe abgelehnt. Die Bedingungen seien vor kurzer Zeit geändert worden. Gleichzeitig stellte sich heraus, dass das Geld für die USC-Versicherung so oder so vorerst von allen bezahlt werden muss, da es zu Beginn des Semesters eine große Rechnung gibt, in der Unterkunft, Gebühren, Mealplans und auch die Versicherung enthalten sind und durch das Waiven nur eine Rückerstattung möglich wird  also die strategische Möglichkeit des Weigerns zu Bezahlen entfiel. Nach dem sich bereits die Ersten mit ihrem Schicksal zurechtgefunden hatten, gaben Andere den Kampf nicht auf und etwa zur Mitte des Semesters erhielten wir wie durch Zauberhand einen Brief mit dem erfolgreichen Waive-Request und anbei einen Scheck für die Rückerstattung.</t>
-  </si>
-  <si>
-    <t>Die FGV in Rio ist sehr klein und familiär. Schnell kennt man alle Gesichter. Die Klassen sind dementsprechend auch klein und Mitarbeit wird benotet. Das führt nicht zu langen Gesichtern, sondern eher zu spannenden Diskussionen und einem engen Kontakt zu den Professoren. Innerhalb der Kurse wird viel auf Präsentationen und Paper gesetzt, eher als auf lange, schwierige Klausuren. Die Professoren sind sehr offen und beantworten auch nach den Vorlesungen noch Fragen und stehen jederzeit sehr hilfsbereit zur Verfügung. Die FGV hat auch ein paar Initiativen, jedoch ist es hier eher schwieriger reinzukommen, wenn man kein Portugiesisch spricht.</t>
-  </si>
-  <si>
-    <t>Das Kursangebot am University College Dublin war riesig. Sowohl wirtschaftsbezogene als auch fachfremde Kurse wurden angeboten. Die Kurse haben die Inhalte in Mannheim sowohl ergänzt, als auch in vielen Themen vertieft. Es muss gesagt werden, dass die Kurse nur eine begrenzte Anzahl an Teilnehmern ermöglichen. Man muss zum Zeitpunkt der Kursanmeldung daher schnell sein. Allerdings unterscheiden sich die Methoden der Vorlesungen im Vergleich zu Mannheim sehr. Die Kursgröße beschränkte sich oftmals auf nicht mehr als 50 Personen. Die Inhalte wurden praxisorientiert und mithilfe von Gruppenarbeiten, Gastvorlesungen und auch individuellen Referaten vermittelt. Ein weiterer Unterschied ist, dass es nur in den wenigsten Fällen am Ende des Semesters eine Klausur gab. Oftmals mussten Hausarbeiten oder auch Essays verfasst werden, sowohl individuell als auch in Gruppen. Auch Midterm Exams wurden in manchen Kursen geschrieben. Dies gefiel mir sehr gut, da so der Arbeitsaufwand auf das Semester verteilt wurde und nicht geballt am Ende war. Auch die Essay haben mir als Bewertungsmethode gut gefallen. _x005F_x000D_
-Der Campus selbst bietet alles, was man braucht. Sportangebote, Freizeitmöglichkeiten und sogar ein Supermarkt sowie diverse Essensangebote sind vorhanden. der Campus ist sehr groß und man hat das Gefühl, so zu studieren, wie es in vielen Filmen gezeigt wird.</t>
-  </si>
-  <si>
-    <t>Die Concordia University ist sowohl Downtown, als auch ein wenig außerhalb mit dem Loyola Campus vertreten. Die meisten Vorlesungen werden am Downtown Campus gehalten, wo sich auch die John Molson Business School befindet. Falls Ihr am Loyola Campus Kurse haben solltet, könnt ihr mit dem Concordia Shuttle Bus kostenlos (man muss nur den Studentenausweis vorhalten) zwischen beiden Geländen der Universität hin- und herfahren. Es gibt einige Sportangebote der Universität, deren Training hauptsächlich auch am Loyola Campus stattfindet. Downtown liegen alle der Universitätsgebäude nah beieinander, und sind durch ein Tunnelsystem verbunden  was besonders in den kälteren Monaten sehr angenehm ist  und die Universität hat eine eigene Metro-Haltestelle namens Guy Concordia. Die Bibliothek der Concordia am Downtown Campus ist sehr modern und bietet Platz für eine Vielzahl an Studenten  einen Platzkampf habe ich dort nie erlebt. _x005F_x000D_
-_x005F_x000D_
-Die Kurse, die ich an der Concordia University besucht habe, waren zahlenmäßig sehr unterschiedlich besucht; im Schnitt sind die Vorlesungen größer als man sie aus Deutschland kennt, sodass man weniger direkten Kontakt zu den Professoren hat. Allerdings hängt dies natürlich auch stark von der Kurswahl ab. Inhaltlich waren die Kurse nicht anspruchsvoller als an der Universität Mannheim, und auch vom Englischniveau war es meiner Meinung nach nicht schwer mitzukommen. Der Fokus der Kurse liegt allerdings mehr auf Assignments und Präsentationen als auf den Klausuren, was bedeutet, dass durch das ganze Semester hindurch kaum eine Woche ohne Abgaben blieb. Da man aber schon zu Beginn des Semesters eine Liste mit allen Abgaben kriegt, kann man theoretisch gut vorarbeiten und sich die Zeit so einteilen, dass man nicht zu viel auf einmal bewältigen muss. Ich konnte mir alle Kurse in Mannheim anrechnen lassen. _x005F_x000D_
-_x005F_x000D_
-Entgegen meiner Erwartungen war es auch nicht schwer über andere Austauschstudenten hinaus Studierende an der Concordia University kennenzulernen. Das mag aber auch von der Interaktivität der Kurse abhängig sein. Internationale Studierende kriegen ein großes Angebot an Aktivitäten durch das International Student Office (ISO) bereitgestellt, und auch sonst ist an der Concordia immer etwas los: Workshops, Vorträge, Studierendeninitiativen wie zum Beispiel der Concordia Outdoor Club, der Trips in die Natur plant, und vieles mehr.</t>
-  </si>
-  <si>
-    <t>Das Niveau des Studiums an der NTNU war vergleichbar mit dem an der Uni Mannheim. Ich hatte vier Kurse mit jeweils 7,5 ECTS belegt, eines davon war ein Masterseminar, was allerdings auch gut machbar war. Insgesamt gab es meiner Meinung nach allerdings mehr Eigenarbeit bzw. Selbststudium zu leisten als in Mannheim, d.h. mehr und längere Leselisten, was mir allerdings bei der Vorbereitung der Vorlesungen und dem Verständnis des Stoffs geholfen hat. Vier Tage in der Woche war ich an der Uni, die Vorlesungen dort gehen immer 1h 45 min (15 min Pause nach der ersten Hälfte). Durch meine Kursbelegung war ich sowohl am Campus Dragvoll als auch in Gløshaugen und Kalvskinnet, zwei weitere Campus der (sehr großen) Uni.</t>
-  </si>
-  <si>
-    <t>Ich hatte mir vor allem Kurse ausgesucht, die mir in Mannheim angerechnet werden konnten, um in meinem Studienverlauf voran zu kommen. Da an der Psychologiefakultät allerdings nur Grundlagenkurse angeboten wurde, die ich schon zuhause abgeschlossen hatte, besuchte ich Veranstaltungen anderer Fakultäten. Das ist in an der LU problemlos möglich. So belegte ich einige Kurse, die vor allem Studierende der Betriebswirtschaftslehre und Wirtschaftswissenschaften besuchten. Das stellte sich als ein interessanter und neuer Blickwinkel heraus. _x005F_x000D_
-Insgesamt ist das Niveau etwas niedriger als in Mannheim. Die Veranstaltungen sind zwischen 90 und 180 Minuten lang und oft in theoretische und praktische Blöcke eingeteilt. _x005F_x000D_
-Gerade in der Veranstaltung Management und International Organizational Behaviour konnte ich einige spannenden neue Perspektiven und Inhalte auf Themen kennen lernen, die wir in der Arbeits- und Organisationspsychologie bereits in Veranstaltungen in Mannheim angeschnitten haben. Trotzdem habe ich es als einschränkend empfunden, dass gängige Wirtschaftssysteme kaum hinterfragt wurden und Diskussionsanfänge oft nicht wirklich aufgegriffen wurden. Ob das allerdings an den meisten deutschen oder westeuropäischen Universitäten anders ist, wage ich zu bezweifeln und weiß ich nicht. Mir machet es Spaß mich aktiv in den Seminaren, die in kleinen Gruppen von 20-40 Studierenden durchgeführt wurden zu beteiligen. Wenn Menschen aus mehr als 10 verschiedenen Nationen und Kulturen zusammen unterrichtet werden, bereichert das die Lernerfahrung meiner Meinung nach sehr. _x005F_x000D_
-Der Kurs Consumer Psychology hat mir nicht sonderlich gefallen. Es wurden nicht nur Inhalte gelehrt, die wir hier in Mannheim schon als nicht mehr zeitgemäß beurteilen, auch war die Veranstaltungsgestaltung eher langweilig und oberflächlich. Trotzdem mussten aufwendige Hausaufgaben abgegeben werden, die dann immer vorgestellt wurden. Als Studienleistung musste ein 5-7-minütiger Werbefilm gedreht werden. _x005F_x000D_
-Des Weiteren besuchte ich einen Kurs der humanistischen Fakultät, der sich mit nachhaltiger Entwicklung auseinandersetzte. Besonders interessant war hier der Vergleich Lettlands mit anderen europäischen Ländern und die Beurteilung der deutschen oder westeuropäischen Nachhaltigkeitsstrategien aus der Perspektive der lettischen Professorin. Als Bachelorstudierende kann man auch Masterkurse wählen. Diese finden allerdings abends von 18:15 bis meist 21:30 statt, da die lokalen Studierenden oft tagsüber arbeiten (müssen), um ihr Studium finanzieren zu können. _x005F_x000D_
-Die Veranstaltungen sind anders als ich es gewohnt bin organisiert. Schon während des Semesters gibt es regelmäßige Abgaben und Fristen. Es mussten wöchentliche Hausaufgaben eingereicht werden, zahlreiche benotete Referate gehalten und Berichte geschrieben werden. In dem Kurs zur nachhaltigen Entwicklung sollten wir anhand von einer wissenschaftlichen Auseinandersetzung und selbst geschossenen Fotos ein selbst gewähltes Thema bearbeiten und am Ende des Semesters den Studierenden präsentieren. In Management analysierten wir ein Unternehmen unserer Wahl anhand in der Veranstaltung kennengelernten Methoden und Strategien. Auf der einen Seite ist das mehr Arbeit während des Semesters, dass viel verschulter wirkt, auf der anderen Seite entspannt das die Klausurenphase am Ende, die nicht vergleichbar mit der in Mannheim ist.  _x005F_x000D_
-Freiwillig belegte ich zusätzlich einen zweimal wöchentlich stattfindenden Sprachkurs zur lettischen Sprache. Es machte mir großen Spaß die Sprache kennen zulernen und erste Wörter und Sätze im Alltag anwenden und verstehen zu können. Es besteht auch die Möglichkeit Russisch zu lernen. In der Stadt Riga sind ca. die Hälfte mit russischer Sprache aufgewachsen und viele Einwohnerinnen und Einwohner sprechen Lettisch und Russisch. Besonders im Osten gibt es Gebiete, die fast zu 90% russischsprachig sind. _x005F_x000D_
-Die Fakultäten sind über sie Stadt verteilt und teilweise etwas außerhalb. Die Fahrten mit den öffentlichen Verkehrsmitteln sind für Studierende sehr günstig, dauern aber ihre Zeit. Daran gewöhnt man sich aber schnell. Da ich so zentral wohnen konnte, bin ich die meisten Strecken im Alltag zu Fuß gegangen, so lernt man eine neue Stadt am schnellsten kennen. _x005F_x000D_
-Das Sprachniveau der Dozierenden ist oft auf dem gleichen Level der Studierenden. Teilweise merkt man Unsicherheiten, die das Niveau der Lehre eventuell etwas einschränken, aber es schafft ein angenehmes Lernumfeld, in dem man bald nicht mehr zögert, einfach etwas zu sagen, egal ob man die perfekte englische Wortwahl dafür findet. _x005F_x000D_
-In den einzelnen Fakultäten gibt es kleine Cafeterien, in denen man sehr günstig Kaffee trinken oder etwas essen kann. Ich habe aber nie dort gegessen. In der Nähe sind unzählige nette Cafés und Restaurants.</t>
-  </si>
-  <si>
-    <t>Das Studium in Swansea ist fantastisch. In Swansea sind die Kurse kleiner als in Mannheim, im Schnitt befinden sich zwischen 30 und 40 Studenten in einem Kurs.
-Die Betreuung des Dozenten ist erstklassig. Durch die geringe Anzahl an Studenten, kann anders als in Mannheim, eine Diskussion stattfinden. Ich habe in Swansea zwei Kurse besucht. MN-2023 Economic History and Industrial Development und MN-3035 Applied Money and Banking Economics. Beide Kurse waren eine wirkliche Bereicherung und Verteilung in den in Mannheim bereits angesprochenen Themen im Grundlagenbereich.</t>
-  </si>
-  <si>
-    <t>Das Semester an der Queen's University beginnt und endet etwa gleichzeitig mit dem HWS der Universität Mannheim. Die letzten zwei Wochen des Semesters im Dezember sind für Klausuren vorbehalten. Deshalb hat man noch genügend Zeit sich auf alles vorzubereiten. Es gibt keine komplette Reading Week, jedoch hat man um das kanadische Thanksgiving und den 1. November ein paar Tage frei. _x005F_x000D_
-In der Woche vor dem Semesterstart gibt es noch eine Einführungswoche (NEWTS) bei der man die anderen Austauschstudenten kennenlernen kann, jedoch finde ich rechtfertigt der hohe Preis nicht das was geboten wird. _x005F_x000D_
-Die Kurse an der Business School setzen generell viel auf Mitarbeit, Gruppenarbeiten, Präsentationen und Assignments. Dafür hat man am Ende des Semesters meist keine Klausuren mehr, so habe ich z.B. nur in einem Fach eine Klausur geschrieben die nur noch 40 % zur Endnote beigetragen hat. Somit ist die Klausurenphase wesentlich entspannter als in Mannheim. Insgesamt würde ich sagen, dass die Kurse an der Business School vom Schwierigkeitsgrad etwas einfacher sind und wesentlich praxisorientierter als an der Universität Mannheim, jedoch der Aufwand während des Semesters konstant höher ist. Die Kurse an der Business School werden meistens ohne Probleme von der Universität Mannheim, bei fachfremden Kursen muss man manchmal eine Wissenschaftlichkeit des Kurses belegen. _x005F_x000D_
-Auf dem Campus gibt es viele Bibliotheken zum Lernen und Arbeiten, insbesondere die Stauffer Library gegenüber der Business School ist beliebt. Eine Mensa wie in Mannheim gibt es an der Queen's auch, zudem einige Foodcourts  mit zahlreichen Mikrowellen, wo man sich Mitgebrachtes aufwärmen kann. Auffällig ist das große fünfstöckige Gym der Universität, das Basketballplätze, Schwimmhalle und viele weitere Räumlichkeiten bietet. Auch kann man sich mit Freunden ein Team in einer universitätsinternen Liga anmelden, in der man dann gegen andere Teams antritt. Ansonsten bietet die Universität Clubs für alle Interessen an. Neben Sportaktivitäten gibt es viele verschiedene Clubs wo für jeden etwas dabei ist._x005F_x000D_
-Sprachlich sollte man nach einer kleinen Eingewöhnungszeit keine Probleme haben, wenn man die englischsprachigen Kurse in Mannheim gut bewältigen konnte. Kanadier sind generell sehr aufmerksam und freundlich und helfen einem gerne bei Verständnisproblemen. Ansonsten gibt es einige Kurse die von QUIC angeboten werden und einem beim Englisch helfen sollen.</t>
-  </si>
-  <si>
-    <t>Zum Studium:?Ich fand, dass die Queen Mary sehr gut organisiert und vor allem sehr engagiert war, um uns das Bürokratische zu erleichtern. Die Einführungswoche hingegen fand ich leider weniger gut. Es werden viele Studenteninitiativen angeboten, ich habe allerdings bei keiner mitgemacht. Die Initiativen, die mich angesprochen haben, waren leider nicht für Austauschstudenten gedacht. Es gibt aber für fast jede Nationalität oderSportart eine Studentengruppe, man kann sich da wirklich austoben, wenn man möchte._x005F_x000D_
-_x005F_x000D_
-Das Studium an sich fand ich vom Niveau her deutlich unter Mannheim. Wobei man erwähnen muss, dass gute Noten keines Falls einfach so geschenkt werden, die Dozenten sind anspruchsvoll sind. Der Kontakt zum Personal sowie den Dozenten ist sehr viel persönlicher und inniger, was mir sehr gut gefiel. Es herrschte immer eine freundschaftliche Atmosphäre. Die Studenten an der Queen Mary sprechen dich kaum an, aber wenn du sie anspricht, sind sie sofort dabei und sehr hilfsbreit. _x005F_x000D_
-Zudem kann ich sagen, dass man sich auch immer vorbereiten musste, da man viele kleine Abgaben oder Referate hatte. Die meisten Dozenten verlangen zwei Essays: einen Essay kurz nach der Reading week und einen längeren Essay nach der Vorlesungszeit. Einige Dozenten verlangen auch eine kleine Präsentation, was aber kein Problem für einen Mannheimer student sein sollte._x005F_x000D_
-_x005F_x000D_
-Ein Vorlesung an der Queen Mary geht theoretisch gesehen 120 Minuten und es gibt keine offiziellen Pausen zwischen diesen. Aus diesem Grund fangen die Vorlesungen immer 5-10 Minuten später an und hören auch in der Regel 10 Minuten früher auf, sodass man trotzdem auf 90-100 Minuten Unterricht kommt. Viele Dozenten haben auch eine kurze Pause nach der Halbzeit eingelegt. _x005F_x000D_
-_x005F_x000D_
-Die Universitätsbibliothek ist super ausgestattet und hat 24/7 geöffnet, man kann drin essen, trinken, an den PCs arbeiten, sein Smartphone aufladen, Tablets/Laptops ausleihen - sie ist sehr viel fortschrittlicher als in Mannheim. Ich wünschte, dass die Bibliothek in Mannheim auch so wäre. Was ich besonders gut fand, war, dass wir als Austauschstudenten 10 GBP zum Kopieren frei hatten, davon habe ich vielleicht die Hälfte ausgegeben. Also muss man sich wegen Kopien und Ausdrucken keine Sorgen machen._x005F_x000D_
-_x005F_x000D_
-Im Campus findet man auch einige Cafés, einen Supermarkt, eine Bank, eine Wäscherei und eine Mensa, falls man diese benötigen sollte._x005F_x000D_
-_x005F_x000D_
-Ich habe meine Kurse so gelegt, dass ich Montags drei und Mittwochs eine Veranstaltung hatte, so konnte ich montags und dienstags noch vor- bzw. nachbereiten und hatte dann von Donnerstag bis Sonntag frei. So hatte ich genug Freizeit, London kennenzulernen. Nach etwa sechs Wochen gab es eine sogenannte Reading Week, in der man frei hatte und wie der Name auch schon sagt zu Hause lesen sollte.</t>
-  </si>
-  <si>
-    <t>Das Studienangebot ist für Austauschstudierende nicht sehr umfangreich, ich war dennoch zufrieden mit meinen Belegungen. Allgemein ist es etwas einfacher, während der Arbeitsaufwand insgesamt höher ist und es nicht einfach ist, besonders gute Noten zu bekommen. Typischerweise setzt sich die Gesamtnote ungefähr folgendermaßen zusammen: 40% Endklausur, 30% Midterm und 30% sonstige Leistungen wie Präsentationen und Mitarbeit in den Übungen. Damit verteilt sich die Arbeit über das ganze Semester und man muss regelmäßig an kleineren Projekten arbeiten. Besonders lehrreich ist der Kurs International Finance, bei dem die Dozentin die Veranstaltungen engagiert gestaltete. Asean Economies gibt einen interessanten Einblick in die wirtschaftspolitischen Verhältnisse Südostasiens. Dieser Kurs ist nicht sehr umfangreich und nicht kompliziert. Industrial Oranization greift insbesondere die Themen von Mikroökonomik B auf und vertieft diese, ohne dass dies besonders anspruchsvoll ist. Ich würde diesen Kurs dennoch empfehlen. Von Money and Banking würde ich am ehesten abraten, da der Kurs die Themen nur oberflächlich behandelt und man viele Abschnitte stur auswendig lernen muss._x005F_x000D_
-Es gab zwei Einführungswochen, was eine gute Möglichkeit ist, die Stadt und die Uni vor Studienbeginn kennenzulernen. Man muss jedoch nicht so früh anreisen, wenn man dies nicht möchte. In der Mitte des Semesters und direkt vor den Endklausuren gibt es je eine freie Woche, sodass das Semester insgesamt ungefähr vier Monate lang ist. Der Alltag spielte sich überwiegend auf dem großen Campusgelände ab, auf dem es viele Arbeitsplätze gibt und der somit viele Gelegenheiten zum Arbeiten und für die Freizeitgestaltung bietet.</t>
-  </si>
-  <si>
-    <t>Das Studium an der EAFT unterscheidet sich grundsätzlich total vom Mannheimer System. Die 3 ECTS Kurse entsprechen den 6 ECTS Kurse der Uni Mannheim, sodass man nur 5 Kurse belegen muss. Darunter zählt auch der Sprachkurs, der wirklich geschenkt ist für die 6 ECTS und man wirklich einfach top Noten bekommt.  Die Kurse sind viel viel kleiner, maximal 30 Studenten pro Kurs und der Prof kennt seine Studenten namentlich persönlich. Das Niveau der Kurse hängt total von den Dozenten ab, da jeder seine eigene Art hat Leistungen abzufragen. Meistens schreibt man aber nicht wirklich große Klausuren, sondern hat 3-4 Gruppenprojekte, Essays, eine Midterm und dann ein Final (oft auch eine Präsentation/ Oral/ ..). Das Englisch-Niveau der Dozenten ist größtenteils sehr hoch, während das der Kolumbianer total unterschiedlich ist. Gruppenarbeiten empfehlen sich eher mit den Internationals, damit man am Ende des Tages nicht alleine Präsentationen machen muss. 
-Da ich nur Dienstag und Mittwoch Kurse hatte (der Spanisch-Intensiv Kurs ist nur in den ersten zwei Wochen und danach hat man nur noch 4 Kurse), kann man die ganzen Angebote super ausnutzen. Neben den Sportangeboten gibt es auch Tanzkurse, Orchester, Netflixraum, Rooftops, etc., die sich total lohnen  man muss sich allerdings rechtzeitig anmelden. Der Campus ist generell super grün, man hat super schöne Aussichten von den Rooftops und sie liegt echt zentral.</t>
-  </si>
-  <si>
-    <t>Mein Studium an der ESSEC war leider nur für einen Monat Präsenzunterricht, danach wurden die Kurse aufgrund von COVID 19 auf online classes verlegt. Das Kursangebot an der ESSEC ist deutlich geringer als in den USA, jedoch konnte überwiegend quantitative Kurse in Finance, Accounting und Statistik wählen, das ein guter Kontrast zu dem vorherigen Semester war. Die Kurse sind von der Teilnehmerzahl, wie bereits meistens in den USA, überschaubar, wodurch die Professoren Präsenz und Mitarbeit im Unterricht verlangen und benoten. Der Inhalt meiner Kurse hat mir sehr gut gefallen, jedoch war die Menge an Gruppenarbeiten überwältigend und unglaublich zeitintensiv, das vielleicht aber auch der Umstellung auf online Kurse geschuldet war.</t>
-  </si>
-  <si>
-    <t>Da die Juristische Fakultät an der Uni TRE viele Erasmusstudenten aufnimmt, gibt es auch eine große Auswahl an englischen Kursen. Die Kurse haben häufig eine Interdisziplinärischen Ansatz und sind sehr unterschiedlich aufgebaut. Alle Unterrichts Materialien wurden auf dem Moodle der Universität hochgeladen und die Anforderungen waren deutlich niedriger als in Deutschland. Die Professoren waren sehr Freundlich, bemüht und haben viel Verständnis darf gezeigt, dass man als Erasmusstudent eventuell nicht immer super vorbereitet ist. _x005F_x000D_
-_x005F_x000D_
-Das Universitätsgebäude ist relativ modern, allerdings gibt es häufig keine Steckdosen an den Plätzen der Studenten. Die Universitäts Bibliothek ist relativ klein und hat nur sehr begrenzte Öffnungszeiten.</t>
-  </si>
-  <si>
-    <t>Das Kursangebot in Rotterdam ist sehr groß und interessant. Unter anderem befasst sich ein Kurs mit Hafenmanagement  mit Rotterdam als größten Hafen Europas durchaus relevant. Leider ist dieser Kurs in Mannheim nicht anrechenbar. Ich entschied mich daher für den Minor Relational Economics, Values &amp; Leadership, welcher wohl einer der interessantesten Kurse war, die ich bisher in meinem Studentenleben belegt habe. Der Kurs fühlte sich an, als sei man zurück in der Schule. Neben einem kleinen Test gegen Ende des Kurses wurde die Mitarbeit sowie die Abgabe eines Logbuchs bewertet. Für extra ECTS wurde auch noch die Abgabe einer schriftlichen Arbeit bewertet.
-Als jemand, der sich in Mannheim noch nie in einer Vorlesung gemeldet hat, war dieser Kurs eine willkommene Abwechslung zu den großen Vorlesungsreihen, die wir in Mannheim besuchen dürfen.
-Mit ein wenig Zuhören und ein wenig Mitarbeit war es relativ einfach, hier eine gute Note zu erzielen.
-Weitere Kurse waren Collective Decisions and Voting Methods und Economics of Sustainability.
-Der erstgenannte Kurs wurde im klassischen Stil einer Vorlesung gehalten und befasste sich mit verschiedenen demokratischen Wahlmethoden. Der Kurs ging über das, was man in Mikro lernt hinaus, das Niveau war aber nicht sonderlich hoch und aus eigener Erfahrung lässt sich der Kurs auch ohne Mikro B gut bestehen. Eine schriftliche Klausur am Ende sowie die Abgabe eines zwei Seiten umfassenden Dokuments waren hier für die Note ausschlaggebend.
-Letzterer Kurs wurde von einem ehemaligen Parlamentsabgeordneten gehalten und befasste sich mit den SDGs. Neben einem Lobbyisten der Agrarproduzenten, dem Bürgermeister von Appeldorn lud der Dozent auch einen ehemaligen Ministerpräsidenten der Niederlande ein, die allesamt Gastvorlesungen gaben.
-Zusätzlich nahm der Dozent selbst wöchentlich Vorlesungen auf. Des Weiteren war ein großer Teil auch Selbststudium und der Dozent gab am Ende jeder aufgenommenen Vorlesung die Paper und Studien an, aus denen sich seine Vorlesung zusammengesetzt hatte.
-Die Prüfung, die am Ende die Note zu 100% ausmachte, war eine Multiple Choice Prüfung und mit ein wenig Vorbereitung gut zu bestehen.
-Alles in allem konnte ich meinen Schnitt in Rotterdam ein wenig verbessern. Ausschlaggebend war hier jedoch das gute Händchen bei der Auswahl der Kurse. So bekam ich auch von Kommilitonen mit, die von anderen Kursen stark herausgefordert wurden, meine Ausführungen sind also nicht repräsentativ.
-Die Anerkennung der Kurse war relativ unkompliziert, einzig der Kurs über Hafenmanagement hat nicht die gleiche Wertigkeit wie in Mannheim, wie angeführt konnte ich aber eine gute Alternative finden.
-Das Semester ist in zwei Abschnitte unterteilt, wobei der eine Block von Ende August bis Mitte Oktober geht, der andere schließt sich daran an und geht bis vor Weihnachten.
-Die Vorlesungen und Übungen gehen auch in Rotterdam anderthalb Stunden, allerdings mit einer zehnminütigen Pause zwischendrin, was das Verfolgen der Vorlesungen deutlich erleichtert.
-Der Campus in Rotterdam gefiel mir von Anfang an sehr gut und obgleich viele Teile der Universität sehr brutalistisch sind, sind vor allem die neueren Gebäude architektonisch ansprechend. 
-Auch die älteren Gebäude sind ansprechend renoviert, alle 30 bis 50 Meter lässt sich ein Kaffeeautomat finden, der für absolut unschlagbare 86 Cent einen durchaus passablen Kaffee herausgibt.
-Die Erasmus Universiteit mäandert irgendwo zwischen einer Privatuniversität und einer staatlichen Universität. Die Gebühren in Rotterdam sind hoch, von den Lebenshaltungskosten ganz abgesehen. Wer in Rotterdam Vollzeitstudent ist, muss sich das leisten können. Die Gebäude sind daher zwar gut ausgestattet und ansprechend gestaltet, die Dozenten geben sich Mühe und drei Dozenten auf einen Kurs von etwa 20 Studenten anzusetzen hat sehr viele Vorteile, auch die Forschung und die Lehre ist in vielen Bereichen exzellent. 
-Die Erasmus Universiteit erschien mir aber auf der anderen Seite nicht besonders inklusiv vor allem mit Blick auf die soziale Mobilität welche eher niedrig ist.
-Dennoch ist die Universität sehr international. Auf dem Campus wird vor allem Englisch gesprochen, aber auch die südamerikanische Gemeinschaft ist an der Universität vielerorts anzutreffen. Wie bereits erwähnt verschlägt es auch viele Deutsche nach Rdam.
-Sprachkurse sind nach meinen Erfahrungen leider sehr teuer, weswegen ich keinen Kurs belegte. Meine erlernten Sprachkenntnisse beschränken sich daher eher auf goedendag und dankjewel.</t>
-  </si>
-  <si>
-    <t>Ich habe mein Auslandssemester frühzeitig abbrechen müssen</t>
-  </si>
-  <si>
-    <t>Das Autumn Semester beginnt Ende September. In der ersten Woche finden vor allem organisatorische Dinge statt. Ab der zweiten Woche beginnen dann die Vorlesungen bis Mitte Dezember. Insgesamt hat man elf Wochen Vorlesung und die meisten Fächer haben eine Vorlesung pro Woche, zwischen 60 und 120 Minuten lang. Es gibt keine Übungen oder Tutorien. Stattdessen hat man meist zwei Seminare pro Fach, die jeweils in unterschiedlichen Wochen des Semesters stattfinden. In den Seminaren finden oft Gruppenarbeiten oder Diskussionen statt, oder man muss kurz etwas präsentieren. Generell besteht bei den Seminaren Anwesenheitspflicht, bei den Vorlesungen hingegen nicht. Manche Vorlesungen werden aufgezeichnet. Man hat relativ wenige Veranstaltungen pro Woche, dafür muss man mehr zuhause tun._x005F_x000D_
-Mitte Dezember bis Mitte Januar finden keine Veranstaltungen statt. Die zweite Hälfte vom Januar sind dann die Klausuren. Viele Essays waren gegen Mitte oder Ende November fällig. _x005F_x000D_
-_x005F_x000D_
-Online kann man im Modulkatalog der Universität alle Kurse einsehen. Dort steht oft dran, ob Erasmus Studenten diese Kurse belegen dürfen. Man kriegt allerdings auch Mitte Juni von der Uni eine Liste von Kursen geschickt, die man wählen darf. Die Kurse für Semester 1 sind die Kurse, die im Herbst angeboten werden. Im Modulkatalog findet man auch alle Informationen über die Credits, die Klausur, die Wochenstunden und allgemein den Aufbau des Moduls. Level 1 Kurse sind aus dem 1. und 2. Semester, Level 2 Kurse aus dem 3. und 4., usw. Als Austauschstudent darf man sich aussuchen welche Level man wählt. Bis Ende Juni konnte ich per E-Mail Kurse voranmelden. Dazu erhält man rechtzeitig Informationen. In meinen ersten zwei Uniwochen musste ich allerdings noch einige Kurse wieder ändern lassen, weil sich die Veranstaltungen zeitlich überschnitten haben. Über Teaching Timetables auf der Website der Universität kann man die Zeiten der einzelnen Veranstaltungen einsehen. Dafür braucht man allerdings zunächst seine Kennung._x005F_x000D_
-_x005F_x000D_
-Prüfungsleistungen bestehen oft aus Klausuren, aber es gibt auch einige Kurse mit Gruppenessays oder Einzelessays, die dann einen Teil der Note ausmachen. Die meisten Klausuren sind Essayklausuren, d.h. z.B. man muss in 90 Minuten zwei Essays schreiben zu zwei Themen, die man sich aus fünf Themen aussuchen kann. Insgesamt war das Niveau unter dem von Mannheim, aber der Zeitaufwand und das Stresslevel der Klausurenphase ist teilweise ähnlich._x005F_x000D_
-Bei den meisten Fächern gibt es lange Reading Lists, die man auf Moodle findet. Je nach Fach sind diese Readings mehr oder minder wichtig. Studien und Artikel sind generell hilfreicher für die Klausur als Buchkapitel. Buchkapitel helfen einem eher, wenn man etwas nicht gut verstanden hat. Man muss bedenken, die Klausuren sind nicht besonders lang und man kann die gelesenen Texte meist nur in wenigen Sätzen zusammenfassend mit einbauen. Es ist hilfreich zu jedem Thema sich auf ein zwei Texte zu fokussieren. Denn alles kann man nicht lesen und das wird auch nicht erwartet. Viele der Artikel sind allerdings auch sehr interessant. Auf die meisten kann man online direkt zugreifen. _x005F_x000D_
-Generell muss man für die Klausuren wenig wortwörtlich auswendig lernen. Es geht mehr um das Verständnis und die Zusammenhänge. Auf Moodle findet man auch Altklausuren und ein Assessment der früheren Jahre.  _x005F_x000D_
-Auf dem Jubilee Campus gibt es das Learning Resource Center und die BWLer Bibliothek. Beide Bibliotheken sind nicht besonders groß, aber man findet generell immer einen Platz. Man kann dort auch drucken und scannen. _x005F_x000D_
-_x005F_x000D_
-Man kann bis zu drei Non-Credit-Kurse belegen. Dies sind entweder Sprachkurse im Allgemeinen oder Kurse zum Thema Academic Writing, oder aber Beratungen für Essays. Ich kann dies nur sehr empfehlen. Man lernt so sehr viel über wissenschaftliches Schreiben im Englischen.</t>
-  </si>
-  <si>
-    <t>Es gelten die gleichen Semesterzeiten wie in Mannheim. Die Uhrzeit der Vorlesung ist jedoch aufgrund des Kurswahlsystems variabel. Freitags kann man den Unterricht vermeiden, sofern man keinen Sprachkurs belegt._x005F_x000D_
-_x005F_x000D_
-Der Campus ist klein, aber nett. Als International hat man jedoch die meisten Kurse meistens in der Calle de Castellón de la Plana 8 Unterricht. Auch der Campus ist eher klein. Es gibt jedoch einen Tischkicker, eine Tischtennisplatte und Sitzgelegenheiten draußen. Eine Mensa existiert im Hauptgebäude der IE._x005F_x000D_
-_x005F_x000D_
-An der Uni wird fast ausschließlich Englisch gesprochen. Die Sprache ist nur für den Alltag wichtig. Sprachniveau A1 ist dennoch mindestens zu empfehlen, jedoch auch das nicht obligatorisch.</t>
-  </si>
-  <si>
-    <t>Das Studium an der UOW ist in jeweils zwei Semester pro Studienjahr aufgeteilt. Dabei gibt es ein Frühlings- und ein Herbstsemester (Achtung, die Jahreszeiten sind dort nicht simultan mit denn in Deutschland). Zudem wird ein freiwilliges Sommersemester angeboten, in welchem Kurse nachgeholt oder wiederholt werden können. Wie bereits benannt, gibt es ein sehr umfangreiches Kursangebot. Dabei muss beachtet werden, dass sich Studierende ihre Kurse aus unterschiedlichen Fachbereichen zusammensuchen können/müssen. _x005F_x000D_
-Die Endnoten der einzelnen Kurse setzen sich im Vergleich zu denen in Mannheim nicht nur aus einer Prüfungsleistung zusammen, sondern aus einer Reihe an Leistungen, welche über das Semester hinweg erbracht werden müssen. In jedem Kurs werden einige/mehrere Hausarbeiten, Referate sowie Zwischenprüfungen und Endprüfungen abgelegt. Die Anforderungen sind schwer vergleichbar mit denen in Mannheim, da die Prüfungsleistungen schließlich auf solch unterschiedliche Weise erhoben werden. Alles in allem fand ich das Kursniveau jedoch etwas anspruchsvoller als das in Mannheim. Die Sprache war sehr gut verständlich. Ich hatte trotz einer Reihe an vorherigen Auslandsaufenthalten Bedenken, wie ich  insbesondere in Prüfungssituationen  mit der Fremdsprache klarkommen würde. Das erwies sich dennoch als problemlos! Es ist wirklich erstaunlich wie gut man an die Sprache  auch im akademischen Kontext  adaptiert (und das obwohl ich nicht einmal vor Ort war! Also keine Panik!)</t>
-  </si>
-  <si>
-    <t>Das Semester ist in zwei Perioden aufgeteilt, mit einer ca. 2 wöchigen Pause dazwischen. Die offiziellen Semesterzeiten waren bei mir für die 1. Periode vom 7. August bis zum 13. Oktober und für die 2. Periode vom 16. Oktober bis zum 7. Januar. Die letzten 2 Wochen sind jeweils vorlesungsfrei. Die Anerkennung der Kurse ist eigentlich kein Problem. Sprachkurse werden von der Universität selbst nicht angeboten, wer aber einen Vietnamesisch Kurs belegen will, der sollte keine Probleme haben entsprechende Anbieter zu finden. Tipp: Sucht euch einfach einen Sprachpartner. Bei den meisten Vietnamesen besteht deutlicher Verbesserungsbedarf was Englisch betrifft, die meisten sind daher aktiv auf der Suche nach Austausch und froh über jede Gelegenheit. So könnt ihr Geld sparen und gleichzeitig Locals kennen lernen.
-Allgemein sollte gesagt werden, dass wer nach Vietnam kommt, drauf eingestellt sein sollte, dass vieles (ja eigentlich alles) etwas anderes abläuft als man das aus Mannheim oder auch anderen westlichen Ländern gewöhnt ist. Die meisten Schwierigkeiten und Konflikte lassen sich schon dadurch vermeiden bzw. entspannen, dass man mit einer entsprechenden Einstellung und Offenheit Kommilitonen, Dozenten und Verantwortlichen begegnet. Vietnamesen haben ein anderes Verhältnis zur Zeit. Zeitangaben sind daher immer relativerer als in Deutschland zu verstehen. Die Kurse beginnen meistens 15 Minuten nach offiziellen Start, vor allen Dingen zu Beginn des Semesters kann es auch passieren, dass Stunden unangemeldet ausfallen. 
-Auf dem relativ überschaubaren Campus geht es immer lebhaft zu. Überall gehen Vietnamesen ihren Lieblingsbeschäftigungen (Singen, Tanzen, Sport aller Art) nach. Wer mitmachen möchte ist überall eingeladen. Als Exchange Student wird man auf dem Campus (genauso wie überall in Hanoi) interessiert beäugt und oftmals auch angesprochen. In diesen Situationen bekommt man erstmal das unglaubliche Interesse der Vietnamesen an Ausländern und ihre Gastfreundlichkeit zu spüren. 
-Das akademische Niveau ist nach Schwierigkeit und Lernaufwand unter dem von Mannheim. Natürlich hängt viel von den gewählten Kursen hab, aber generell müsst ihr euch auf keinen Fall Sorgen machen, nicht genügend Freizeit oder Zeit zum Reisen zu haben.
-Das Englisch-Niveau der Studenten auf dem Campus ist gut. Verlässt man jedoch denn Campus und begibt sich in das geschäftige Straßengewirr von Hanoi, merkt man schnell, dass man mit Englisch nicht immer weit kommt. Vor allen Dingen die älteren Generationen sprechen kaum englisch.  Ein unabdingbares Mittel der Kommunikation ist hier (vor allen Dingen in der Anfangszeit) Google Translator.</t>
-  </si>
-  <si>
-    <t>Das Studium an der NHH ist sehr angenehm. Man belegt vier Kurse die jeweils 7.5 ECTS Punkte geben. Die Kurse haben eher in seltenen Fällen eine finale Klausur. Ich habe zum Beispiel meine Kurse so gewählt, dass ich keine einzige Klausur geschrieben habe. Andere Prüfungsleistungen sind dann meist Paper oder Präsentationen. Diese alternativen Prüfungsleistungen werden häufig in Teams erstellt. Aber auch abgesehen von den alternativen Prüfungsleistungen ist die Klausurphase an der NHH deutlich stressfreier als in Mannheim. Das liegt hauptsächlich an der Dauer der Prüfungsphase. Während in Mannheim alle Klausuren meist innerhalb von zwei Wochen anstehen, dauert die Klausurphase an der NHH über einen Monat und wenn man die Kurse mit Vorsicht wählt, wird man nicht mehr als zwei Klausuren pro Woche haben._x005F_x000D_
-Neben anregenden Vorlesungen findet man eine Vielzahl von Studentenorganisationen an der NHH. Neben sportlichen Gruppen zu allerlei Sportarten, gibt es zahlreiche andere Interessengruppen wie den Case Club oder die Studentenzeitung. An und für sich sind alle Gruppen offen für internationale Studenten. Allerdings ist es nicht ganz einfach in Interessengruppen zu kommen, wenn man lediglich kurze Zeit an der NHH verbringt und/oder kein Norwegisch spricht. Ich habe mich während meines Jahrs an der NHH stark bei NHHS Energi beteiligt. Mit unserem Team haben wir zwei Energiekonferenzen an der NHH organisiert, was eine spannende Erfahrung für mich war. In meinem zweiten Semester habe ich mich außerdem dem Fussball Team der Internationals angeschlossen. Darüber hinaus habe ich von Events profitiert, die von anderen Interessensgruppen veranstaltet wurden, wie dem TED Event an der NHH.</t>
-  </si>
-  <si>
-    <t>Ich habe graduate Psychologie-Kurse belegt und hatte keine Probleme, gute Kurse zu finden. Über den Kurskatalog habe ich mir das Programm angeschaut und daraufhin die Professoren persönlich angeschrieben und nach sogenannten permission numbers gefragt, mit denen ich dann mich zum Kurs anmelden konnte. Ich habe Advanced Social Psychology, Experiemental Social Psychology und Health Psychology belegt. Ich habe insgesamt viel gelernt, vor allem mein Englisch-Niveau ist sehr viel besser geworden. Die Anforderungen in den Kursen waren sehr unterschiedlich. Bei allen musste ich viele Texte lesen. Manchmal waren midterm und final Klausur die Prüfungsleistung, manchmal Paper schreiben und präsentieren. Die Workload ist höher als in Deutschland, das Niveau vergleichbar mit dem Master, ich bin dementsprechend gut mitgekommen. Da ich nur drei Kurse belegt habe, hat die Zeit unter der Woche für Hausaufgaben und Prüfungsvorbereitung während des Semesters gut ausgereicht und es blieb noch Zeit für anderes. Die Anerkennung der Kurse wird vorab mittels learning agreement abgesprochen. Die Vorlesungszeiten waren von Mitte August bis Ende Dezember, also ganz ähnlich wie Mannheim. Sprachkurse gab es soweit ich weiß keine vor Ort, aber man konnte einen intercultural communication partner zugelost bekommen, der mit einem einmal die Woche mündliche Englischkenntnisse trainiert hat. Vom Sprachniveau her waren die deutschen Austauschstudenten ziemlich gut in Englisch. Die Mensa war richtig lecker. Mich hat der Gedanke, nicht selbst kochen zu können, erst abgeschreckt. Aber die dining hall hat von 07:00-22:00 Uhr offen und es hat immer geschmeckt. Wenn man will, kann man sogar gesund essen. Arbeitsmöglichkeiten waren gegeben  von Arbeiten in der Mensa über Forschungsprojekte konnte man sich auch als Austauschstudent bewerben.</t>
-  </si>
-  <si>
-    <t>Das System des Studiums an der Uni Corvinus ist ganz anders. Es gibt kleine Gruppen mit persönlichem Kontakt zu den Kursleitern, auch Mid-Terms, Präsentationen, Hausaufgaben und Case Studies. Alle Teile werden zu 100% berechnet. Die Klausurphasen sind ein bisschen entspannter, denn sie machen normalerweise weniger als 50% der gesamten Endnote aus. Die Kurse sind manchmal ein Mix aus Vorlesung und Übung.</t>
-  </si>
-  <si>
-    <t>An der SDSU werden generell sehr viele Kurse angeboten, von einem Wassersportzentrum über viele Sprachkurse bis hin zu künstlerischen Kursen. In meinem Feld, der Germanistik, war die Auswahl leider eher gering, da AmerikanerInnen zunächste die Sprache erlernen müssen und daher in ihrem Studium selten das Niveau eines deutschen Germanistik-Studiums erreichen. Ich konnte jedoch stattdessen auf das Angebot der Vergleichenden Literaturwissenschaften und in Teilen auch auf das der Anglistik zugreifen, wo es ausreichend Auswahl gab, sogar in Richtungen wie dem kreativen Schreiben. Das Spring Semester begann mit einer Orientierungswoche Mitte Januar, für alle anderen Ende Januar. Die Kurse wären bis Anfang Mai gelaufen, Mitte Mai wären alle Prüfungen geschrieben gewesen sowie Arbeiten abgegeben und Ende Mai erhalten die Studierenden die Noten. Ab Ende März wurde wegen des Coronavirus der Betrieb auf reine Online-Lehre umgestellt. Eigentlich hätte ich Essays und Prüfungen zu absolvieren gehabt. Während die Essays elektronisch abgegeben wurden, wurden die Prüfungen durch kleinere schriftliche Aufgaben ersetzt. Während des Semesters hatte ich auch kleinere Referate zu halten oder Blogeinträge für verschiedene Online-Formate zu verfassen. Einen Englisch-Sprachkurs habe ich vor Ort nicht besucht, da ich den Kursen auch so gut folgen konnte. Auch die meisten anderen Internationals belegten eher weitere Fremdsprachen, weniger Englisch. Es ist nur erlaubt, auf dem Campus zu arbeiten, ein Job außerhalb ist wegen des Visums nicht erlaubt. Ich habe nicht gearbeitet, da ich mich durch ein Stipendium finanzieren konnte. Grundsätzlich wäre es sicher möglich gewesen, Arbeit zu finden, ich habe aber wegen des doch nicht unbeträchtlichen Arbeitspensums und den vielen Reisen, die ich machen wollte, darauf verzichtet. Das Leben auf dem Campus der SDSU ist nicht mit einem Studium in Deutschland zu vergleichen. Es gibt dort Restaurants, einen Pub, ein Fitness-Studio, einen Pool und viele Veranstaltungen wie Theater oder Sport-Events, besonders Basketball-Spiele. Man verbringt so auch viel Freizeit dort, was ich sehr genossen habe.</t>
-  </si>
-  <si>
-    <t>Das PoWi Studium in Prag hat mir sehr gut gefallen. Themtatisch unterscheidet sich das Programm schon sehr von Mannheim, da es deutlich weniger Daten fokussiert ist. Es hat sich eher angefühlt als würde man sich spezifische Themen aussuchen über die man dann mehr lernt und disskutiert, also deutlich weniger Methoden fokussiert. Nebenbei kann man sich noch einen Sportkurs aussuchen.</t>
-  </si>
-  <si>
-    <t>Das Studium in Breslau ist im Vergleich zu Mannheimer Verhältnissen super einfach. Der Großteil meiner Kurse waren Masterkurse, da kaum Bachelor Kurse für Soziologie angeboten wurden. In den Kursen waren auch hauptsächlich Vollzeit Studierende und wenige Erasmusstudenten. Zudem sind die Kurse sehr klein und man fühlt sich nicht wie an der Uni, sondern eher als würde man sich gemütlich mit Bekannten austauschen. Mein größter Kurs hatte 8 Teilnehmer und mein kleinster 4. Die Professoren sind alle sehr engagiert und interessiert an der eigenen Meinung und machen es einem leicht mitzuarbeiten, denn Mitarbeit ist Pflicht. In den meisten Kursen sitzt man an einem größeren Esstisch und unterhält sich. Zuerst hat mich diese Art des Unterrichts erschreckt, da ich es nicht gewohnt war aber man gewöhnt sich sehr schnell und es macht dann auch sehr viel Spaß.</t>
-  </si>
-  <si>
-    <t>Zum Kursangebot kann ich in meinem Fall sagen, dass einige Kurse zwar spannend klangen, ich sie aber im HWS nicht belegen konnte. Trotzdem habe ich Kurse gefunden, die sich im Endeffekt als interessant herausgestellt haben und trotz verschiedener Jahrgangsstufen zeitlich vereinbar waren. Dementsprechend waren die Niveaus sehr unterschiedlich, während ich in einem Kurs aus dem dritten Jahr einige schriftliche Arbeiten abgeben musste, wurde in einem Kurs vom zweiten Jahr eine Videopräsentation und im Kurs aus dem ersten Jahr ein kleiner Erfahrungsbericht verlangt. Insgesamt war die Arbeitszeit für den Kurs aus dem dritten Jahr am umfassendsten, allerdings war auch einiger Zeitaufwand in den anderen beiden für die Prüfungen notwendig, die in beiden Fällen Multiple Choice waren. In allen Kursen stellten sich die Endnoten aus verschiedenen Teilen zusammen, im Kurs aus dem dritten Jahr nur aus verschiedenen schriftlichen Arbeiten, während in den anderen beiden Kursen auch Mitarbeitsnoten vergeben wurden. In diesen beiden Kursen wurden dazu jeweils zwei Ausflüge gemacht, zu denen eine kleine schriftliche Arbeit abgegeben werden musste. Das Sprachniveau war in dem Kurs des 1. Jahres relativ hoch, da die spanische Sprache mit Fachwörtern analysiert wurde und Radio- sowie TV-Sendungen Prüfungsbestandteil waren. Ähnlich war es im Kurs aus dem 2. Jahr, da es ein Geographiekurs ist, bei dem ein Fachvokabular für Verständnis notwendig ist. In beiden Fällen waren die Kurse trotzdem nicht zu schwer, da man die Prüfungsbestandteile von Radio und TV auch als schriftliche Arbeit zuhause erledigen konnte und man durch gelegentliches Nachschlagen dem Geographiekurs sehr gut folgen konnte. Da ich Kurse aus verschiedenen Jahren hatte, belegte ich zwei Kurse vormittags und einen Kurs abends. Die Vorlesungen fangen um 8 Uhr morgens an und gingen im meinem Fall bis 21 Uhr. 
-In den ersten Wochen in der Mittagspause der Universität (14-16 Uhr) hatte ich außerdem einen Sprachkurs auf Niveau B2, den ich schon vorher online gebucht hatte und der mit der ESN (Erasmus student network) Karte günstiger ist.  Nach dem ersten Sprachkurs wird noch ein zweiter Kurs während des Semesters angeboten. Manche Kommilitonen waren mit ihren Lehrern nicht sehr zufrieden, aber meine Lehrerin ging sehr auf die Fragen der Schüler ein und wiederholte Grammatik mit dem Ziel, sie in der mündlichen Kommunikation einzusetzen, was ich sehr hilfreich fand. Da wegen meines Studiengangs mit Sachfach VWL meine nächsten Spanischkurse einen Wirtschaftsfokus brauchen, konnte mir mein Sprachkurs nicht angerechnet werden, aber andere Studenten konnten sich je nach Studiengang 3 ECTS pro Kurs anrechnen lassen.</t>
-  </si>
-  <si>
-    <t>Und nun zum sehr enttäuschenden Teil des Auslandssemesters. Leider war die Erfahrung am singapurischen Campus der ESSEC sehr unterdurchschnittlich.
-Die Kursblöcke waren sehr lang mit 3 Stunden pro Block und man hatte eigentlich immer von Montag bis Freitag Uni. Zusätzlich hatte man ausschließlich 2-3 Blocks pro Tag, welches das Leben in Singapur oft auf den Campus beschränkte. Die Uni war sehr klein und in den Pausen blieb einem kaum etwas übrig, als in der kleinen Cafeteria etwas Zeit zu verbringen. Für die Projekte und Events bekamen wir die Ankündigungen erst kurz vorher und konnte somit Reisen nur spontan planen. Dazu kommt noch, dass die Anwesenheit in Singapur bei 90% liegen muss und es in der ESSEC auch strikt eingehalten wird. Die Vorlesungszeit war für mich sehr sehr langweilig.
-Die Professoren selbst sind auch nicht vergleichbar mit den Professoren in Mannheim oder anderen europäischen Hochschulen. Es geht strikt nach Lehrplan und es werden einem drei Stunden oft nur fundamentale Konstrukte beigebracht, die meist bereits in den ersten Semestern in Mannheim schon langweilig wurden. Oft hatte man das Gefühl, sie wollten ihren Lehrplan nicht anpassen, bzw. waren selber mit der Verwaltung der ESSEC uneinig ob dies möglich ist. Von manchen Professoren hatten wir gehört sie wussten erst kurz vorher, dass sie den Kurs halten werden und hatten keinen Kontext zu unserem Programm bekommen.
-Dies bringt mich zum größten Problem, die Betreuung der ESSEC. Obwohl man stets jemanden erreicht, hatte man sich am Campus stets als Gast gefühlt. Feedback wurde oft widerwillig angenommen, obwohl es eingefordert wurde. Die Projekte unserer Kohorte waren uninspiriert und haben kaum unsere Erwartungen erreicht.
-Die ESSEC ist eine tolle Institution und weltweit bekannt für herausragende Lehre. Leider war der Campus in Singapur neu und die Organisatoren nicht bereit für eine weitere Kohorte. Ich bin überzeugt in Zukunft wird es viel besser, aber möchte die Gelegenheit nutzen mein ungefiltertes Feedback zu geben.</t>
-  </si>
-  <si>
-    <t>Die Klassen in der Uni sind klein, mit ungefähr 20 Studenten in einem Kurs. Die Kurse waren nicht so schwierig und weniger stressig als in Mannheim, und ich hatte genug freie Zeit um Rio zu genießen. Wir haben im Unterricht viel diskutiert, viel gelesen und Präsentationen gemacht. Das war eine schöne Abwechslung von Mannheim. Der Unterricht hat in meinem Fall ausschließlich online stattgefunden, deswegen kann ich nichts über das Studentenleben auf dem Campus sagen.</t>
-  </si>
-  <si>
-    <t>Der Campus der HUFS ist sehr übersichtlich und das Raum- und Gebäudesystem sehr klar, weshalb ich nie Probleme hatte, einen Raum oder ein Gebäude zu finden. Die Gestaltung der Kurse unterscheidet sich stark von der Universität Mannheim, da die Note sich aus mehreren Komponenten zusammensetzt. Diese sind Anwesenheit, Mitarbeit, Midterm, Final und gegebenenfalls Assignments. Je nach Kurs machen diese Kriterien prozentual verschiedene Anteile aus. Für mich hat sich bei diesem System gezeigt, dass man zwar während des Semesters mehr arbeitet bzw. arbeiten msus, aber weniger Druck bei der finalen Klausur hat. Belegt habe ich drei Kurse für das IKW-Modul: 
-1. Korea History (2 Credits), 2 Wochenstunden: Infos über die koreanische Geschichte, sehr interessant, aber mit Abstand der anspruchsvollste Kurs, den ich belegt habe, der indische Dozent ist ein etwas speziellerer Charakter, aber ich kam gut mit ihm zurecht
-2. Culture &amp; Language (2 Credits), 2 Wochenstunden: intensive Betrachtung des Verhältnisses von Sprache und Kultur und dessen Phänomenen, große Empfehlung, wenn man gerne in der Gruppe arbeitet und diskutiert
-3. Understanding Culture (3 Credits), 3 Wochenstunden: jede Woche wurde ein anderer Aspekt von Kultur besprochen, ähnelte am ehesten einer klassischen Vorlesung</t>
-  </si>
-  <si>
-    <t>Im Gegensatz zur Uni Mannheim muss man an amerikanischen Unis ständig "am Ball bleiben", da es in vielen Kursen wöchentliche Quizzes, abzugebende Hausaufgaben, Anwesenheitspunkte u.Ä gibt. Nichtsdestotrotz ist der Zeitaufwand in fast allen Kursen deutlich geringer als an der Uni Mannheim und auch die Notenvergabe ist deutlich großzügiger als hier. Ein wesentlicher Unterschied ist, dass in den USA generell gerne Lehrbücher für den Unterricht verwendet werden und die Klausuren sowie Hausaufgaben sich auch sehr an diesen Lehrbüchern orientieren. Wenn man noch ein bisschen mehr Freizeit haben möchte, würde ich nicht empfehlen die vollen 30 ECTS-Punkte in dem Auslandsstudium zu machen, sondern zB einen Kurs weniger zu wählen, den man dann entweder in einem anderen Semester aufholt oder auf Zweittermin in Mannheim schreibt. Falls jemand die Sorge hat, dass das Niveau an der SDSU zu niedrig ist, kann ich das zwar auf der einen Seite nachvollziehen, allerdings kann man sich im Zweifel noch weitere Kapitel in den Lehrbüchern anschauen, in den der Stoff noch weiter vertieft wird. (Meistens schaffen die Dozenten es bei Weitem nicht, während des Semesters alle Kapitel im Detail zu behandeln.)</t>
-  </si>
-  <si>
-    <t>Aufgrund des Ausbruches von Corona war ich leider nur einen Monat vor Ort in Rom. Bereits Anfang März habe ich Rom aufgrund des Shutdowns verlassen und in Deutschland von zuhause aus weiterstudiert. Den ersten Monat in Rom an der Uni habe ich jedoch sehr genossen. Der Campus ist wirklich schön und man merkt, dass es sich um eine Privatuniversität handelt. An allen Eingängen der Universität steht Sicherheitspersonal, das wirklich nur Studenten auf den Campus lässt. Hierfür benötigt man die LUISS App auf seinem Handy, in der man anmeldet sein muss. Diese App ist auch gleichzeitig der Studentenausweis. Der Campus ist sehr gepflegt, modern und bietet viele Möglichkeiten, in der Sonne zu lernen oder einen Espresso zu trinken. _x005F_x000D_
-Das Studium an sich ist vergleichbar zu Mannheim, wobei besonders der Leseaufwand deutlich höher ist. Auch bei 6 ECTS Kursen wird jede Vorlesung mindestens zweimal die Woche gehalten. In den von mir belegten Kursen konnten während des Semesters durch die Abgabe von Casestudies Extrapunkte für die Klausur gesammelt werden. _x005F_x000D_
-Mit Beginn des Shutdowns wurde der Lehrbetrieb sofort auf digital umgestellt. Ich muss sagen, dass ich wirklich positiv überrascht war, wie gut dies funktioniert hat. Da die Infrastruktur schon gegeben war, musste nicht eine Vorlesung ausfallen. Die Professoren waren wirklich gut darauf vorbereitet und haben versucht, uns in dieser Situation zu unterstützen. Auch das internationale Office hat uns gut informiert und digitale Fragesessions abgehalten. Da relativ schnell klar war, dass kein normaler Lehrbetrieb dieses Semester mehr stattfinden würde, wurden alle Klausuren digital von zuhause durchgeführt. Natürlich ist es schade, dass mein richtiges Auslandssemester nur so kurz war, insgesamt hatte ich deswegen aber keine Nachteile.</t>
-  </si>
-  <si>
-    <t>Die Hanguk University of Foreign Studies (HUFS) hat ein relative breites Kursangebot. Ich habe beschlossen in Korea Kurse für das IKW-Modul zu belegen, sowie einen für Unternehmensethik und, nicht anrechenbar, Korean II, ein regulärer Kurs in Koreanisch an der Uni. Das Kursniveau war vergleichbar mit dem in Mannheim. Einzig bei dem Kurs Korean History hatte ich Mängel bezüglich des Unterrichts. Falls man hier einen anderen Kurs belegen kann, sollte man das meiner Meinung nach machen. Die Prüfungen in den Kursen waren gut vergleichbar wie die in Mannheim, jedoch kann ich hier nur das Online-Prüfungsformat beurteilen. Man hat auf e-class, dem ILIAS der HUFS, einen Tab für die Klausuren. Wie in anderen asiatischen Ländern ebenfalls üblich, setzt Korea auf Multiple-Choice-Fragen und vereinzelt auf offene Fragen und Essay-Fragen. Nur in Korean History war die Prüfung gänzlich auf Web-Ex, die Fragen wurden bei den Mid-Terms in den Chat gepostet und man hatte sie mit einer Mindestwortanzahl zu beantworten. In Business, Society, &amp; Ethics musste ich auch wöchentlich bewertete Assignments abgeben. In Korean Media Industry sollten wir ein großes Assignment machen, in Form einer SWOT-Analyse zu einem von uns gewählten Unternehmen. Korean II hatte wie die anderen Kurse eine Mid-Term Prüfung und eine Klausur in den Finals. Da es ein Sprachkurs ist, sollten wir in Partnerarbeit einen Text schreiben, den wir später auswendig vorsprechen mussten. Ich empfehle für diejenigen ohne Grundkenntnisse in Koreanisch, die sich jedoch für einen Sprachkurs interessieren, sich lieber das Angebot für einen der Einstiegskurse der Uni zu informieren._x005F_x000D_
-Korean II konnte mir, weil es ein Sprachkurs ist, nicht anerkannt werden._x005F_x000D_
-Bussiness, Society, &amp; Ethics wurde mir als VL Unternehmensethik in der Prädeutika der BWL, Introduction to Korean Media Industry als S ICS im IKW-Modul, und Korean History als VL ICS ebenfalls im IKW-Modul anerkannt._x005F_x000D_
-Das Studienjahr geht vom späten August bis in den Dezember. Man hat wie bereits erwähnt Mid-Term Klausuren und dann am Ende die Finals._x005F_x000D_
-An der HUFS sind die Vorlesungszeiten des Seouls Campus und Global Campus unterschiedlich. Austauschstudenten sind soweit ich weiß, immer am Seoul Campus, wo der Unterricht von 9 bis maximal 18 Uhr abends gehen kann. Ich hatte Unterricht meist morgens oder Mittags, jeweils 2 Periods, das heißt für 2 Stunden von beispielsweise 13 bis 15 Uhr. Die Professoren geben immer eine 10-minütige Pause._x005F_x000D_
-Auf dem Campus gibt es 2 Mensas. Einmal die Student Cafeterias und die Faculty Cafeteria. Ich bin meist mit Freunden in umliegende Cafés und Restaurants gegangen, aber ich habe gehört, dass die Mensa ganz respektables Essen haben soll._x005F_x000D_
-An der Uni gibt es die Möglichkeit einen Intensivsprachkurs zu machen, jedoch ist das ein 200-stündig langer Kurs, der Montag bis Freitag von 9 bis 13 Uhr geht, daher wird er für Studenten, die auch weitere Kurse belegen wollen nicht empfohlen. Am Seoul Campus gibt es einen 40-stündigen Kurs der einem die Basics beibringt (Survival Korean). Man kann sich für diesen Kurs über ein Google Forum anmelden, und vorher schon angeben, dass man ihn belegen möchte.</t>
-  </si>
-  <si>
-    <t>Die Uni hat ein breites Kursangebot und in den Sozialwissenschaften werden meist Assignments geschrieben. Das sind 2 Minihausarbeiten pro Semester pro Kurs die Mitte und Ende des Semesters abgegeben werden. Die Vorlesungen dauern immer 2h und finden 1-2 Mal pro Woche pro Kur statt. Generell wird in Studienjahren gerechnet, Kurse werden jedoch in Semestern besucht. Auf dem Campus gibt es viele Studyrooms und jeweils eine Bibliothek auf jedem Campus. Auch Supermärkte und Essensangebote gibt es. Diese sind jedoch eher teuer. Vorkochen ist daher empfehlenswert. Die Student Kitchen auf dem Campus hat auch eine Mikrowelle ??. Ein gutes Englisch ist empfehlenswert, da die walisischen Muttersprachler nicht auf den Mund gefallen sind und gerne auch sehr schnell sprechen. Generell ist der walisische Akzent aber kein Hindernis.</t>
-  </si>
-  <si>
-    <t>Das Studium an der HEC war ein komplett anderes, als wir es hier in Mannheim haben. Die Kurse sind viel kleiner (30-50) und Mitarbeit ist gefordert. Auch ist nicht alles auf eine Endklausur angelegt, sondern viel auch auf Assignments gesetzt. Dabei ist das Studium weniger anspruchsvoll, als in Mannheim, jedoch kann es durchaus zeitintensiv sein. Besonders Gruppenarbeiten können hier nervenaufreibend sein, da weder Austauschstudenten noch Locals sehr motiviert waren und somit schlussendlich die ganze Arbeit bei einem selbst blieb. Ich würde bei meiner Kurswahl eine gute Mischung zwischen Assignemnts und Examen setzen. Die Kurse sind dann zum Teil anwendungsbezogener als in Mannheim und nicht sehr Theorie-bezogen.</t>
-  </si>
-  <si>
-    <t>Bevor ihr nach San Diego geht, schaut euch im Kursportal an, welche Kurse für euch in Frage kommen. Ich habe mir damals alle Kurse, die mich interessieren, samt Beschreibung ausgedruckt und bin damit zu den Mannheimer Professoren gegangen, um zu besprechen, welche davon anerkannt werden. Dann bekommt ihr das Learning Agreement für die entsprechenden Kurse und könnt euch immer noch überlegen, welche davon ihr dann wirklich belegt. So geht ihr aber sicher, dass ihr nach eurem Aufenthalt wirklich alles anerkannt bekommt. Alle Kurse an der SDSU geben 3 Units (6 ECTS) und die meisten Internationals haben 5 Kurse belegt. Ich hatte nur 4, um mehr Freizeit zu haben, 5 wären aber auch gut machbar gewesen und in der Regel bekommt ihr bessere Noten als in Mannheim, also lohnt es sich aus Notenschnitt-Sicht mehr Kurse zu belegen. Bei meinen Kursen gab es jeweils 3 Midterms und ein Final, außerdem Homeworks, siehe unten. Die Kurse waren praxisorientierter und einfacher als in Mannheim, ihr solltet aber schon vernünftig Englisch sprechen, sonst wird es schwer. Tipp: Fragt die Professoren, ob ihr ein Wörterbuch zu den Klausuren mitnehmen dürft, war bei mir immer erlaubt und es ist einfach ärgerlich, wenn es gerade bei Multiple Choice Klausuren daran scheitert.
-Die Semesterzeiten sind fast identisch mit Mannheim, ihr habt bis Mitte Dezember Vorlesungen , dann ein paar Tage Klausurenphase und seid dann vor Weihnachten fertig.
-Der Campus der SDSU ist ein Traum, auch hier gibt es Pools und ein riesiges Gym (20 USD pro Monat), außerdem überall schöne Gärten und Palmen. Eine Mensa gibt es nicht, dafür ca 10 Fast-Food-Ketten und Shops, die Salate/ Sandwiche verkaufen. Plant hier pro Essen knapp 10 USD ein. Das amerikanische Fast Food fand ich super lecker, musste dann aber irgendwann anfangen, jeden Tag joggen zu gehen, um mich am Strand noch zeigen zu können. Gesunde Ernährung fällt hier schwer, vor allem da Lebensmittel relativ teuer sind. Ich habe fast nie gekocht und entweder an der Uni gegessen oder bei den zahlreichen Mexikanern um die Uni herum. Tipps: Probiert Orange Chicken bei Panda Express, In n Out Burger und möglichst viele Burritos von den kleinen mexikanischen Restaurants.</t>
-  </si>
-  <si>
-    <t>Die Universität Tartu hat im Sozialwissenschaftlichen Bereich einen echt guten Ruf. Während meines Auslandssemesters dort habe ich das bestätigen können. Nicht nur im akademischen, sondern auch im organisatorischen Bereich war alles bestens. So konnten alle anfänglichen Schwierigkeiten mit Kursbelegung sehr schnell geklärt werden._x005F_x000D_
-Die politikwissenschaftlichen Kurse sind sehr interessant- durch die geographische Nähe zu Russland, werden an der Universität Tartu viele Vorlesungen aus dem Bereich Internationale Beziehungen angeboten- insbesondere die Beziehung zwischen der Europäischen Union und Russland. Es werden aber auch Vorlesungen angeboten, die sich mit der Geschichte und politischen Situation der baltischen Staaten beschäftigen._x005F_x000D_
-Die Semesterzeiten an der Universität Tartu sind so, wie die Semesterzeiten in Mannheim. So beginnen die Vorlesungen, nach einer Einführungswoche Ende August, Anfang September und enden vor Weihnachten. Somit sind die meisten Klausuren vor Weihnachten, wobei es in Einzelfällen sein kann, dass Klausuren auch im Januar geschrieben werden müssen. In der Regel achten die Professoren und Dozenten aber darauf, dass Austauschstudenten ihre Klausuren vor Weihnachten schreiben können. Die Abgabe von Hausarbeiten war per Mail. Ich bin also vor Weihnachten wieder zurück nach Deutschland geflogen und habe im Januar dann von dort aus meine Hausarbeiten geschrieben._x005F_x000D_
-Meine Kurse kann man mit Vorlesungen hier in Mannheim vergleichen. Allerdings waren es von bis zu 30 bis zu 50 Studenten pro Vorlesung recht kleine Vorlesungen. Der Grpßteil der Kurse, die in Tartu angeboten werden, sind Masterkurse. Vom Niveau her war das aber auch als Bachelorstudent kein Problem. Die Sprache in den Kursen war Englisch. Unter dem Semester habe ich an der Universität Tartu noch einen weiteren Estnisch Kurs besucht, der an den zweiwöchigen Intensivsprachkurs im August angeknüpft hat. Auch der Sprachkurs hat mir viel Spaß gemacht, wobei ich den Intensivsprachkurs im August noch mehr empfehlen kann. Es ist super, zwei Wochen bevor alle anderen Erasmus Studenten nach Tartu kommen, schon dort zu sein und die Stadt zu erkunden. Außerdem haben wir in den zwei Wochen am Nachmittag mehrere Ausflüge mit unserer Sprachkursgruppe gemacht und schon echt einiges von Estland gesehen. Es war einen total gute Gruppengröße von circa 15 Leuten und ich habe mit einigen aus dem Sprachkurs das ganze Semester über viel gemacht. Unsere Sprachkurslehrerin war super nett und es hat echt richtig Spaß gemacht schon gleich zu Beginn vom Auslandssemester ein bisschen Estnisch zu lernen. _x005F_x000D_
-Eine Mensa gibt es an der Universität Tartu nicht, dafür gibt es in jedem Restaurant oder Café in der Stadt einen Mittagstisch päevapraad von 3-5.</t>
-  </si>
-  <si>
-    <t>Das Studium grundsätzlich war unter deutschen Niveau und vorallem unter Mannheim Niveau. Es gab während des Semester wesentlich mehr zu erledigen: Gruppenarbeiten, Essays oder andere Projekte. In manchen Kursen war es auch üblich jede Woche ein kurzes Quiz zu schreiben. Aber: Keine Panik! Auch ohne stundenlanges Lernen war das alles sehr, sehr gut machbar. Ähnlich machbar waren auch die Midterms und auch das final exam. Grundsätzlich waren alle Prüfungsformen vertreten von Gruppenarbeiten, über klassische Klausuren und Präsentationen. In erster Linie ging es darum den Überblick zu behalten, wann was abzugeben ist. Das stellt sich manchmal schwieriger dar, als den eigentlichen Prüfungsinhalt zu bewältigen._x005F_x000D_
-Ich habe im Voraus versucht meine Kurse clever zu wählen, sodass ich nur 3 Tage die Woche Uni hatte. Ich kann das nur jedem empfehlen!! Diese drei Tage habe ich viel gearbeitet, aber durch das lange Wochenende hatte ich viel Gelegenheit die Inseln zu erkunden. Grundsätzlich gibt es manche Kurse, die sich auf bis zu drei Blöcken an drei Tagen aufteilen. Diese würde ich eher nicht empfehlen, da man quasi dreimal Hausaufgaben zu erledigen hat. Ich würde eher empfehlen stattdessen einen Kurs zu wählen der drei Stunden geht. Aber wie es immer ist: Am Ende ist vorallem eine gesunde Balance wichtig. _x005F_x000D_
-Aufgrund meines Visums war es mir nicht möglich zu arbeiten._x005F_x000D_
-Der Campus befindet sich mitten in der Stadt und ist räumlich nicht von sonstigen Gebäuden deutlich abgetrennt. Deswegen sind wir oft in der Stadt essen gegangen, was einer der günstigen Möglichkeiten war.</t>
-  </si>
-  <si>
-    <t>Den ersten Stress im Semester stellt die eigentliche Kurswahl dar. Wie oben beschrieben, dient die vorläufige Kurswahl nur dazu, dass die EM sich ein Bild über die Nachfrage machen kann. Die eigentliche Wahl am Anfang des Semesters läuft dann nach dem First-come-first-serve-Prinzip ab, weshalb man sich schon in den Tagen zuvor überlegen sollte, welche Kurse man besuchen sollte. Wichtig ist hier zu erwähnen, dass an der EM Strasbourg grundsätzlich Anwesenheitspflicht gilt, weshalb Überschneidungen von Kursen nur in sehr geringem Maße erlaubt sind. Man kann daher unter Umständen nicht nur nach seinen Präferenzen wählen, sondern muss auch Überschneidungen berücksichtigen._x005F_x000D_
-Die eigentliche Wahl ist dann pures Chaos. Alle versuchen gleichzeitig ihre Kurse zu belegen, weshalb die Server gerne mal für mehrere Minuten (anfangs auch bis zu einer Stunde) zusammenbrechen. Hier muss also Geduld und Zeit mitgebracht werden. Generell gilt: Ruhig bleiben. Am Ende der Kurswahl hat meiner Erfahrung nach doch jeder einen für in funktionierenden Stundenplan gehabt, und falls es doch ein Problem gibt kann man sich an das International Office von Straßburg und Mannheim wenden. Hier wird einem dann auch wieder geholfen._x005F_x000D_
-Als Business School sind die meisten Kurse so gestaltet, das sie in Mannheim angerechnet werden können. Das Kursangebot geht in alle Richtungen, also kann man sich trotz Stress zur Kurswahl immer einen Semesterplan zusammenstellen, der die eigenen Interessen abdeckt. Das Niveau der Kurse liegt generell ein gutes Stück unter dem in Mannheim, allerdings haben sie eigene Tücken die man so nicht gewohnt ist. Die meisten Kurse bestehen aus vielen Teilleistung, verteilt über das ganze Semester (z.B. Gruppenarbeiten, Essays, -), weshalb man eigentlich immer etwas zu tun hat. Dafür ist die Klausurenphase natürlich deutlich weniger stressig als in Mannheim._x005F_x000D_
-Generell fühlt es sich oft so an, als hätte man nochmal ein Semester lang Oberstufe: Kleine Räume (vergleichbar mit den Seminarräumen in Mannheim), kleine Gruppen (durchschnittlich ~30-50 Studierende, Anwesenheitspflicht, die aber nicht überall streng kontrolliert wird, und in vielen Fächern mündliche Noten (was generell zu mehr Interaktion zwischen Studierenden und Dozenten führt). Ob diese Struktur positiv oder negativ bewertet wird, hängt natürlich vom eigenen Geschmack ab.</t>
-  </si>
-  <si>
-    <t>Das Studium insbesondere in den Informatik-Fächern ist zeitintensiv. Eure Note erhaltet ihr nicht nur durch eine Klausur, sondern durch wöchentliche Abgaben (z.B. Programmierprojekte) sowie durch Midtermklausuren. Außerdem gibt es keine Übungen und Tutorien, sondern nur Vorlesungen. Daher wird viel Selbststudium neben den regulären Vorlesungsterminen gefordert. Ich habe 2 Informatikkurse, 2 BWL-Kurse und einen Sportkurs belegt und war während des Semesters gut ausgelastet.</t>
-  </si>
-  <si>
-    <t>Studieren in Spanien ist seeeehr entspannt und ganz anders als in Deutschland. Es ähnelt eher der Schulzeit, nur meistens ohne Anwesenheitspflicht. Die Lehrer kamen bei uns häufig zu spät, Kurse sindd spontan ausgefallen und am Ende des Semesters war die Studierenden Anzahl halbiert. Es gab meistens eine (Gruppen)-Präsentation und am Ende eine Abschlussklausur. Der Campus der Uni ist echt schön und es gibt Mensa, Gym, Schwimmbad und Bib direkt vor Ort. Dafür ist der Weg nach Getafe (für uns immer min. 1h) sehr anstrengend.</t>
-  </si>
-  <si>
-    <t>Mit 60000 Studierenden ist die UBC um einiges größer als die Uni Mannheim und hat dementsprechend ein weitaus breiteres Angebot was Kurse angeht. Da ich in meinem Studiengang im Ausland ein International-Cultural-Studies Modul hatte hat mir das erlaubt, praktisch einmal Kurse außerhalb meines Studienfokus zu belegen, was eine tolle Erfahrung war. Außerdem ist die UBC eine sehr gute Universität und gehört zu den besten Unis an der Westküste Nordamerikas - dementsprechend ist das Niveau recht hoch, wobei ich das eigentlich mit dem von Mannheim etwa gleichsetzen würde - aber der Arbeitsaufwand für die Kurse ist unglaublich hoch. Seid euch also bewusst, dass ihr weitaus mehr Zeit für eure Kurse investieren werdet, als ihr von Mannheim gewohnt seid! Es ist normal, dass man während dem Semester viele benotete Quizze, Assignments, Präsentationen und Midterms hat - das Final Exam oder Paper zählt dann hingegen aber auch nur 30-40%. Diese Work Load war zum Teil recht stressig und mehr als meine Freunde an anderen kanadischen Unis oder in den USA machen mussten, vor allem auch weil man als exchange students viel unterwegs war, Reisen und auch abends oft weg - das hat man sich ja trotzdem nicht nehmen lassen- Trotz dieses hohen Arbeitsaufwandes würde ich mich aber immer wieder für ein Semester an der UBC entscheiden und sogar eher empfehlen, ein ganzes Jahr dort zu machen, da es eine unglaublich tolle und wertvolle Zeit ist und tatsächlich die meisten meiner Freunde auch für Term 2 geblieben sind. 
-Weiterhin bietet die UBC enorm viele Möglichkeiten, sich in das Uni Leben einzubringen. Es gibt sehr viele student clubs, denen man beitreten kann und Möglichkeiten zu volunteeren. Ich habe in einem volunteer-run student café namens Agora zwei Mal die Woche eine 2h-Schicht gearbeitet und somit auch Kontakt zu vielen Locals bekommen und hatte dort sehr viel Spaß und kann das definitiv nur weiterempfehlen. Nach jeder Schicht durften wir uns Essen mit nach Hause nehmen was super war, da das an der UBC sehr teuer war - dementsprechend habe ich entweder im Agora Café oder Sprouts - einem anderem student-run café mittags gegessen oder selbst gekocht. 
-Was ich außerdem toll fand am Campus-Leben ist, dass der Uni-Sport recht groß ist an der UBC. Als Studierende dort konnten wir kostenlos alle Football, Basketball, Ice Hockey und Volleyball-Spiele der Uni-Mannschaft ansehen wo auch immer eine tolle Stimmung war!</t>
-  </si>
-  <si>
-    <t>Die IE hat ein sehr großes Kursangebot, da ist eigentlich für jeden etwas dabei. Man musste sich am Anfang erst einmal daran gewöhnen, dass man das gesamte Semester über etwas machen muss aufgrund der vielen Assignments, Group Projects oder Zwischenprüfungen. Dafür ist das Kursniveau bei weitem nicht so hoch wie in Mannheim und wenn man etwas mehr Zeit bei den Gruppenarbeiten und Assignments reinsteckt, ist es relativ leicht sehr gute Noten zu erzielen. _x005F_x000D_
-Die Vorlesungszeiten sind leider immer unterschiedlich, das heißt man hat selten Kurse die immer zu festen Zeiten stattfinden. So kommt es auch oft zu Überschneidungen der Vorlesungen und das gilt sogar auch für die Prüfungstage._x005F_x000D_
-Bei der Anerkennung der Kurse gibt es keine Probleme, wenn vorher alle Kurse mit der Uni Mannheim abgeklärt wurden._x005F_x000D_
-An der IE spricht eigentlich jedes Englisch, so dass Kommunikation kein Problem darstellt. Wir waren die ersten, die im neuen IE Tower Vorlesungen hatten und das ist schon echt beeindruckend. Man hat in fast jedem Stockwerk sehr moderne Vorlesungsräume und Arbeitsplätze. Einziger Minuspunkt ist die Mensa, da diese sehr teuer ist und leider auch nicht viel sättigendes im Angebot hat.</t>
-  </si>
-  <si>
-    <t>Alle Kurse wurden hybrid angeboten und die technische Ausstattung ist Mannheim weit überlegen. Da die NHH nur wirtschaftlichen Fokus hat, ist sie auch dementsprechend klein.
-Die erste Woche ist eine Einführungswoche, wobei der Fokus auf Kennenlernen und Alkoholgenuss liegt. Kurse sind mit den Bachelorstudierenden der NHH gemischt, sodass man mit den Norwegern auch einfach in Kontakt kommen kann, wenn man das möchte. Der Vorlesungsstil unterscheidet sich von Mannheim in mehreren Punkten: kleine Klassen (max. 20-80 Personen), aktive Teilnahme gefordert und Prüfungsleistungen sind oft Paper.</t>
-  </si>
-  <si>
-    <t>Das HWS geht an der UniStra von Anfang September bis Mitte Januar. Die meisten hatten ihre letzten Klausuren im Dezember und konnten somit vor Weihnachten abreisen. Ich musste leider für eine letzte Klausur im Januar zurückkehren, dennoch zog ich bereits im Dezember aus und konnte somit eine Monatsmiete sparen. Üblicherweise findet in der Mitte des Semesters eine erste Klausur statt und am Ende des Semesters eine weitere. Alle Kurse waren sehr frontal und beschränkten sich fast ausschließlich darauf die Monologe der Dozenten in Form von Notizen zu verschriftlichen. Dennoch waren alle besuchten Kurse gut zu bewältigen.</t>
-  </si>
-  <si>
-    <t>Die Studienzeiten in England unterscheiden sich von denen in Deutschland. Der Rhythmus ist ein Trimester, bestehend aus  einem first term (erste Vorlesungszeit von Oktober bis Mitte Dezember) einem second term (zweite Vorlesungszeit von Ende Januar  bis April) und dem third term, in dem ein Großteil der Prüfungen aus den beiden terms absolviert wird. Der third term ist vergleichbar mit unserer Prüfungsphase. Erasmus Studenten können Ihre Prüfungen jedoch in der Woche vor Weihnachten schreiben. Das Niveau der Klausuren ist deutlich geringer als das Niveau in Mannheim. Zudem gibt es mehr Fächer, in denen man sowohl Prüfung als auch Hausarbeit schreiben muss oder nur die Hausarbeit bewertet wird. Zum Thema Anerkennung von Kursen gab es bei mir keinerlei Probleme. Es ist ebenfalls möglich einige Kurse der Business School im VWL Bereich anerkennen zu lassen. Ich würde Essex auf jeden Fall allen empfehlen, die sich im Bereich Finance spezialisieren wollen, da es sehr viele Finance Kurse von der Business School gibt und die EBS ein Bloomberg Trading Floor besitzt, in dem man sich mit der Bloomberg Software vertraut machen kann. Diese wird vermehrt in Master - aber auch einigen Undergraduatekursen in der Vorlesung verwendet.  Insgesamt machte dies die Vorlesung viel praxisorientierter. _x005F_x000D_
-Das Niveau in Vorlesungen und vor allem Übungen ist deutlich geringer als in Mannheim. Dennoch habe ich viel mitgenommen, da ich Kurse in Bereichen gewählt habe in denen Mannheim keinen Schwerpunkt hat.</t>
-  </si>
-  <si>
-    <t>Das Kursangebot in Utrecht ist sehr vielfältig und übersichtlich gestaltet. Es gibt mehrere Fakultäten und man hat die Wahl 25% seiner Kurse in einer fachfremden Fakultät zu belegen, was den Unialltag sehr spannend machen kann und ein bisschen Abwechslung reinbringt. Die Kurse sind unterteilt in Schwierigkeitslevel von 1-3 und bestehen meistens aus einer Vorlesung und einem Seminar. Die genauen Prüfungsleistungen, Beschreibungen und Anforderungen stehen immer in der Beschreibung im Kurskatalog. _x005F_x000D_
-Die Semester gehen vom 01. Februar bis zum 30. Juni und dann vom 01. September bis zum 31. Januar. Jedes Semester ist nochmal in zwei Abschnitte eingeteilt, so dass man 2 Klausurenphasen hat und Kurse, die jeweils ein halbes Semester lang gehen. Für jede Phase muss man als Austauschstudent min. 2 Kurse wählen. Man sollte sich für gute Leistungen definitiv anstrengen, da die Anforderungen meist hoch sind. Noten werden in einem Punktesystem von 1-10 vergeben. Hierbei gelten 8 Punkte schon als sehr gut und 10 Punkte sind fast unmöglich zu erreichen laut vielen Dozenten. Möchte man sich die Noten anrechnen lassen, sollte man auf jeden Fall bedenken, dass sich das beim Umrechnen negativ auswirken könnte. _x005F_x000D_
-Die Universität hat keinen Campus. Es gibt viele Gebäude, die verteilt in der Innenstadt liegen und dann nochmal etwas außerhalb den sogenannten Science Park, dem größten Teil der Universität. Hier findet man auch eine Mensa und eine große Bibliothek und viele sehr moderne Studienmöglichkeiten. Man ist aber auch sehr schnell im historischen Stadtzentrum. Hier befinden sich auch die meisten Studentenwohnheime und ich würde empfehlen nach einem Platz dort zu suchen, da man hier mitten im Studentenleben ist. _x005F_x000D_
-Alle meine Kurse in Utrecht fanden auf Englisch statt und eine aktive Teilnahme in den Seminaren wird erwartet. Die niederländischen Studenten scheinen alle ein sehr hohes Niveau auf Englisch zu haben und auch in Hausarbeiten spielt die Qualität der Sprache eine Rolle.  Im Alltag kommt man mit Englisch sehr gut zurecht, es gibt aber verschiedene Angebote für Sprachkurse, falls man doch gerne Niederländisch lernen möchte. Der billigste ist vom Erasmus Student Network (allgemein lohnt es sich in deren Programm mal reinzuschauen).</t>
-  </si>
-  <si>
-    <t>Die CityU hat viele Kurse angeboten, die sowohl BWL Kurse als auch fachfremde Kurse umfassen. Alle meine gewählten Kurse wurden auch problemlos von Mannheim anerkannt. Das Studienjahr ist in zwei Semester unterteilt. Um alle nötigen ECTS zu erbringen musste ich fünf Kurse belegen, die jedoch alle online durchgeführt wurden mit Klausur in Präsenz. Ausnahme davon war der Marketingkurs, der Hybrid angeboten wurde. Jedoch musste man immer vor Ort erscheinen, wenn man sich einmal dafür entschieden hatte. _x005F_x000D_
-Eine weitere Ausnahme war der AIS Kurs, bei dem die Klausur online durchgeführt wurde. _x005F_x000D_
-Allgemein ist die Lehre an der CityU sehr unterschiedlich zur Lehre in Mannheim, da Anwesenheitspflicht herrscht, es mündliche Mitarbeit gibt, Gruppenprojekte Bestandteil von jedem Kurs sind und auch der Inhalt praxisnaher als in Mannheim ist. Auf der anderen Seite wird in den CityU Kursen weniger Transferleistung, als in Mannheim erwartet. Der Arbeitsaufwand ist weiter über das Semester verteilt, wobei es gegen Ende doch etwas mehr durch die Finals und Gruppenprojektabgaben wird. Bei Gruppenprojekten gibt es sehr engagierte Gruppen aber auch sehr unmotivierte Gruppen. Durch den Onlineunterricht war es aber auch schwierig die Gruppe zu beeinflussen. _x005F_x000D_
-Auf dem Campus gibt es mehrere Mensen, eine große Bibliothek und direkt neben dem Campus eine große Shoppingmall. Da ich alle meine Kurse Online belegt habe kann ich nicht viel zum Campusleben sagen.</t>
-  </si>
-  <si>
-    <t>Bezüglich des Kursangebotes gibt es an der UOW eine sehr große Auswahl. Die Fakultäten reichen von Business über Ingenieurswissenschaften und Jura bis hin zur Schaffenden Kunst. Die Suche nach passenden Kursen für mein Anglistik-Studium fiel mir wirklich nicht schwer, aber ich denke auch für jeden anderen Studiengang ist mehr als genug im Angebot (hier der Link zu allen Kursen: http://coursefinder.uow.edu.au/index.html?ssSourceSiteId=UOW_Main). Wie genau das mit der Kurswahl funktioniert, wird euch ebenfalls von der UOW erklärt. Bevor es nach Wollongong geht, müsst ihr euch online für eure Kurse anmelden (am besten für mehr Kurse als eigentlich nötig, damit ihr im Nachhinein noch etwas abwählen könnt, falls euch der Kurs nicht zusagt). Die Anmeldung für die Tutorien findet dann ein paar Tage vor Semesterbeginn statt (findet ebenfalls online statt; das System hierfür ist allerdings ein bisschen seltsam, also lasst euch am besten von euren Student Leadern helfen). Das Kursniveau kann ich leider nur für meine eigenen Kurse beurteilen, wobei ich den Eindruck hatte, dass es meinen Freunden dort ähnlich ging wie mir. Während ich in Mannheim für Gewöhnlich etwa sechs Kurse im Semester belege, habe ich mich an der UOW nur für drei entschieden und nahm an, dass mir ein sehr entspanntest Semester bevorstehen würde. Allerdings habe ich schnell gemerkt, dass drei Kurse dort mindestens so viel Arbeitsaufwand sind wie sechs Kurse hier. Das liegt vor allem an den Prüfungsarten: In den meisten Kursen an der UOW setzt sich die Endnote aus vielen Einzelnoten zusammen, die für Aufgaben unter dem Semester vergeben werden. So musste ich zum Beispiel in meinem Kurs Locating Australia jede Woche eine Zusammenfassung des vorgegebenen Texts einreichen oder in International Media and Communication einen Blog führen. Das Gute ist jedoch, dass die Prüfung am Ende des Semesters nur noch zu einem gewissen Prozentsatz einrechnet wird (in International Media and Communication gab es nicht einmal eine Prüfung). All das steht allerdings auch schon in der jeweiligen Kursbeschreibung, also seht euch das am besten genau an, bevor ihr eure Wahl trefft. Mehr Details zu den Kursen, welche ich an der UOW belegt habe, gibt es in der Tabelle unten unter Besuchte Kurse.Die Vorlesungszeiten variieren ebenfalls je nach Kurs/Fakultät. In meinem Fall gab es zu jedem Kurs eine zweistündige Vorlesung sowie ein einstündiges Tutorium. Ich weiß aber von Freunden, dass sie zum Teil auch dreistündige Laborstunden hatten oder Ähnliches. Bezüglich der Semesterzeiten muss auch unterschieden werden: für die meisten besteht das akademische Jahr an der UOW aus zwei Semestern: der Spring Session (Juli  November) und der Autumn Session (Februar  Juni). Allerdings ist das Jahr für die Studenten an der Business Fakultät meines Wissens in Trimester eingeteilt. Nähere Informationen zu den genauen Daten gibt es hier: https://www.uow.edu.au/student/dates/index.html. Der Campus der UOW ist wunderschön, wenn auch zunächst ein wenig verwirrend. Eine Campus-Tour im Rahmen der O-week und die App Lost on Campus helfen allerdings dabei, sich recht schnell zurechtzufinden (außer du sucht einen Raum in Gebäude 19  ein einziges Labyrinth). Auf dem Campus gibt es jede Menge Wiesen, kleine Teiche und schöne Sitzgelegenheiten  manchmal kommt es einem so vor, als befände man sich im botanischen Garten, welcher sich übrigens direkt gegenüber der UOW befindet. An Cafés und Essensständen mangelt es ebenfalls nicht. Die UOW hat eine eigenen Food Hall (Sushi, Pizza, Nudeln, Döner, Indisch, Thai etc.), neuerdings einen Supermarkt und sogar eine eigene Bar. Und wenn man sich einmal an das Australische Preisniveau gewöhnt hat, tun einem die 10 Dollar für das Mittagessen auch nicht mehr so weh. Außerdem gibt es auf dem Campus auch Ärzte, Banken, Reisebüros, einen Friseur- und eigentlich alles, was zum Überleben notwendig ist.</t>
-  </si>
-  <si>
-    <t>Das Studium an der KAIST unterscheidet sich wesentlich vom Studium im Mannheim. Das Studentenleben erinnert oft mehr an eine deutsche Schule als eine deutsche Universität. So wird ein deutlich größerer Wert auf Anwesenheit und Mitarbeit gelegt, die in den meisten Kursen 10 bis 30 Prozent der Note ausmachen. Weiterhin sind zusätzlich zu den Klausuren auch Hausaufgaben, Gruppenarbeiten, Präsentationen und Quizzes häufig Bestandteile der angebotenen Kurse. Im Gegensatz zu Mannheim setzt sich die Note somit aus vielen verschiedenen Teilnoten und nicht nur der Note einer Klausur zusammen. Einige Kurse verzichten sogar komplett auf Klausuren._x005F_x000D_
-Die meisten Kurse bestehen aus 5 bis 40 Studenten und sind somit deutlich kleiner und persönlicher als in Mannheim. Auch das Verhältnis zu den Professoren ist entsprechend vertrauter. Als Austauschstudent kennt so ziemlich jeder Professor deinen Namen und es kann durchaus vorkommen, dass man auf dem Gang eine längere Unterhaltung führt oder auch zusammen mit Mitstudenten vom Professor zum Mittagessen eingeladen wird. _x005F_x000D_
-Das Semester an der KAIST ist in zwei Hälften von jeweils ca. 8 Wochen Länge aufgeteilt. In der jeweils letzten Woche werden die Klausuren geschrieben. Die meisten 3-Credit-Kurse (entspricht umgerechnet 6 ECTS) erfordern das Schreiben sowohl eines Midterm Exams als auch eines Final Exams. Allerdings ist der Lernaufwand für die Klausuren bei weitem nicht mit dem Aufwand in Mannheim zu vergleichen. Meist bauen die Klausuren auf dem Inhalt vorheriger Hausaufgaben und Gruppenarbeiten auf. Weiterhin ist die Zeit zur Bearbeitung der Klausuren in der Regel sehr großzügig bemessen, sodass man seine Antworten und Berechnungen problemlos überprüfen kann. Neben 3-Credit-Kursen gibt es auch einige 1,5-Credit-Kurse (3 ECTS), die sich nur über ein halbes Semester erstrecken. Der Arbeitsaufwand in diesen Kursen ist normalerweise etwas höher. Allerdings kann es sich trotzdem lohnen, viele 1,5-Credit-Kurse im ersten Abschnitt des Semesters zu absolvieren, wenn es in Seoul noch sehr kalt ist, um dafür im zweiten Semesterabschnitt bei besserem Wetter mehr Freizeit zu genießen. _x005F_x000D_
-Als Austauschstudent an der KAIST kann man englische Kurse aus allen MBA Programmen und dem Master in Financial Engineering belegen. Wir haben in meinem Semester die Erfahrung gemacht, dass Kurse aus den Programmen Finance MBA und Financial Engineering anspruchsvoller sind, man dort aber auch mehr lernt. Studenten mit Interesse an Finance kann ich die Teilnahme an den beiden Programmen sehr empfehlen, da im Gegensatz zu Mannheim ein großer Fokus auf der praktischen Anwendung der Theorien liegt, u.a. durch Programmieren oder die Bearbeitung von Case Studies._x005F_x000D_
-Im Vergleich zu Mannheim ist die Aufgabenlast an der KAIST deutlich gleichmäßiger über das Semester verteilt. Hausaufgaben und Gruppenarbeiten sorgen auch während des Semesters für einen relativ großen Workload. Auf der anderen Seite sind die Prüfungsphasen wesentlich weniger anspruchsvoll als in Mannheim. _x005F_x000D_
-Das allgemeine Niveau an der KAIST sehe ich etwas unterhalb des Niveaus in Mannheim, dafür wird ein deutlich größerer Fokus auf die praktische Anwendung der Theorien gelegt. Als Mannheimer Masterstudent hat man gegenüber den meisten koreanischen Studenten einen Wissensvorsprung, da diese als Teilnehmer an einem MBA in der Regel nicht über einen wirtschaftswissenschaftlichen Hintergrund verfügen. Viele koreanische Studenten sprechen zudem mehr schlecht als recht Englisch. Insofern ist es für Mannheimer Studenten relativ einfach, in den Kursen überdurchschnittlich gut abzuschneiden._x005F_x000D_
-Zu Beginn des Semesters erhält jeder Student einen eigenen Platz in einem Study Lab, welches man sich meist mit einem weiteren Austauschstudenten und einigen Koreanern teilt. Da die Koreaner das Study Lab quasi als eine Art Aufenthaltsraum betrachten, gab es zwar effektivere Plätze zum Lernen (die meist leere Bibliothek oder das eigene Zimmer), allerdings eignete es sich wunderbar dazu, koreanische Studenten kennenzulernen und gemeinsame Unternehmungen zu starten._x005F_x000D_
-Der Campus selbst ist relativ klein und verfügt zusätzlich über ein Fitnessstudio, einen Raum mit zwei Tischtennisplatten, ein Basketballfeld und drei Tennisfelder. Weiterhin gibt es einen Bücherladen, einen Convenience Store sowie zwei Kantinen. Beide sind allerdings nicht besonders zu empfehlen. Im Umfeld des Campus gibt es wesentlich bessere Restaurants mit vergleichbaren Preisen. Das Fitnessstudio ist zwar relativ klein, für Hobbysportler aber definitiv ausreichend.</t>
-  </si>
-  <si>
-    <t>Das Studium an der NUS hat mir großen Spaß gemacht und ich habe aus meinen Fächern sehr viel gelernt. Das liegt zum großen Teil an der Möglichkeit, sich selbst die Kurse aus einem großen Angebot auszusuchen._x005F_x000D_
-Das Studium an der NUS unterscheidet sich von dem Studium an der Uni Mannheim hauptsächlich dadurch, dass nicht 100% der Note durch eine Klausur am Ende des Semesters festgelegt werden. Die Kurse an der Business School haben sogar oft gar keine Klausur: Wer also die Klausurenphase vermeiden möchte und schon Anfang November das Semester beenden möchte, der kann sich auch nach diesem Kriterium die Kurse aussuchen._x005F_x000D_
-An der NUS machen Gruppenarbeiten, Tests und Midterms oft einen Großteil der Note aus. Für mich hatte dies den Vorteil, dass ich von meinen Fächern langfristig mehr mitgenommen habe als beim vielen auswendig lernen in Mannheim._x005F_x000D_
-An der NUS werden einige Vorlesungen an der Business School in kleineren Gruppen unterrichtet, wo dann auch Mitarbeit in die Note einfließt und grundsätzlich Anwesenheitspflicht besteht (ob kontrolliert wird ist eine andere Sache). Bei den Vorlesungen in großen Hörsälen besteht hingegen keine Anwesenheitspflicht und diese Vorlesungen werden auch aufgezeichnet._x005F_x000D_
-Der Arbeitsaufwand an der NUS ist vergleichbar mit dem Aufwand in Mannheim. Da sich der Aufwand über das gesamte Semester verteilt, ist er sogar eher ein bisschen weniger als in Mannheim._x005F_x000D_
-Das Niveau an der NUS ist nicht schwieriger als in Mannheim. Aufgrund der Notengebung gemäß der Normalverteilung ist es allerdings schwieriger extreme (gut oder schlecht) Noten zu bekommen. Da hilft auch die Anrechnungsweise der Uni Mannheim (A+ = 1.0, A = 1.3, ...), die meiner Meinung nach nicht korrekt ist, nicht.</t>
-  </si>
-  <si>
-    <t>Die Kurse an der Sozialwissenschaftlichen Fakultät in Ljubljana sind in der Politikwissenschaft, größtenteils auf Englisch und vom Inhalt her auf Internationale Beziehungen ausgerichtet., dementsprechend sind Kurse aus bspw. der Politischen Soziologie oft schwerer zu finden.  Inhaltlich sind die Kurse sehr interessant, da sie oft auch aktuelle Themen miteinbeziehen sowie die Lehrenden durch ihre Kontakte oft Gastvorträge organisieren oder Erfahrungen aus der eigenen Tätigkeit bspw. in internationalen Organisationen oder Staatlichen Institutionen in den Kurs einbringen. _x005F_x000D_
-Der Arbeitsaufwand für die Kurse war oftmals über das Semester aufgeteilt so zählt oftmals nicht eine Leistung in die Endnote, sondern mehrere Teilleistungen, die über das Semester hinweg erbracht werden. So war der Arbeitsaufwand in der Klausurenphase im Januar/Februar niedriger und mehr über das Semester verteilt. Manche Kurse hatten eine Anwesenheitspflicht, bspw. wenn Präsentationen gehalten wurden oder Diskussionen stattfinden sollten. Im Allgemeinen war der Aufwand während des Semesters teilweise deutlich höher als in Mannheim, durch viele Präsentationen, und Abgaben etc. jedoch ist dies oft auch kursabhängig. Die Dozenten sind sehr freundlich, kommunikativ und fair in der Bewertung und alles in allem schafft man es bei normalem Arbeitsaufwand zu einer guten Note zu kommen._x005F_x000D_
-Es bietet sich an vor Beginn des Semesters einen Slowenisch-Sprachkurs zu machen, da sich da oft die ersten Kontakte bilden und man Grundkenntnisse der Slowenischen Sprachen erlernen kann. Vom Leben auf dem Campus habe ich durch die Online-Lehre und den Lockdown nicht viel mitbekommen, jedoch ist die Fakultät ausgestattet mit vielen Cafés und einem schönen Park, sowie mit einer Bibliothek auf dem Gelände.</t>
-  </si>
-  <si>
-    <t>Der Unialltag an der NTU ist ähnlich wie in Mannheim. Die Mathekurse sind in Vorlesung und Übung aufgeteilt. Das Englisch einiger Dozenten war zwar nicht ganz so gut, doch man konnte alle verstehen. Ich musste zwar nicht wöchentlich Übungsblätter abgeben, jedoch gibt es an der NTU in der Mitte des Semesters eine vorlesungsfreie Woche. In dieser Zeit werden in den meisten Fächern Midterms geschrieben. Die Midterms haben bis zu 40% der Endnote ausgemacht, sodass der Druck vor den Finals etwas genommen wurde._x005F_x000D_
-Allgemein empfand ich das Niveau der Mathekurse an der NTU als deutlich niedriger im Vergleich zu Mannheim. Die Kurse waren wenig beweislastig und die Theorie stand nicht ganz so im Vordergrund wie die Anwendung. Oft wurden einfache Dinge, die eigentlich aus den ersten Semestern bekannt sein sollten, recht ausführlich erklärt, aber etwas schwierigere Beweise schnell und oberflächlich besprochen.</t>
-  </si>
-  <si>
-    <t>Das Studium an der USC läuft deutlich anders ab als in Mannheim und der Kurse kommen einem fast immer leichter vor. In fast allen Kursen besteht Anwesenheitspflicht und bei zu vielen Fehlzeiten (meist 2-3), kann dies negative Auswirkungen auf die Endnote haben. Zudem sind die Kurse meist deutlich kleiner und Mitarbeit ist erfordert, so wie man es von der Schule kennt. Generell ist der Arbeitsaufwand eher mit dem Alltag im Gymnasium zu vergleichen. In den meisten Fächern setzt sich die Kursnote aus vielen kleinen Teilnoten zusammen, die man für Assignments wie Essays, Gruppenarbeiten, Quizze, Midterms und Finals erhält. Somit ist der Arbeitsaufwand nahezu konstant über das Semester hinweg und man hat am Ende nicht den Klausurenphasendruck wie in Mannheim.  Für die Kurswahl ist es sinnvoll, sich im Vorhinein auf https://www.ratemyprofessors.com/school/1309 ein Bild von den jeweiligen Dozierenden und ihren Kursen zu machen. Die Kurszeiten kann man sich bei der Gestaltung des Stundenplans weitesgehend selbst aussuchen und eventuell auch bei der Wahl der Kurse im Hinterkopf behalten. So kann man sich zum Bespiel manche Tage fürs Reisen freihalten. Zum Thema Leben auf dem Campus: Es gibt dort viele unterschiedliche Dining Halls, in denen man den gesamten Tag über essen kann. Ein Meal Plan kann zu Beginn des Semesters gekauft werden und besteht aus einer bestimmten Anzahl von Meal Plan Dollars und Meal Swipes. Mit den Meal Plan Dollars kann man etwas vergünstigt und ohne Taxes auf dem Campus einzelne Snacks und Kaffee kaufen oder auch ganze Mahlzeiten bei Fastfoodketten oder Kaffees erwerben. Für Meal Swipes kann man im Wert von ca. $10 in den Dining Halls all you can eat Mahlzeiten zu sich nehmen. Zusätzlich hat man pro Tag mit einem Full-Access Meal Plan noch einen Retail Swipe mit dem man sich in Restaurants auf dem Campus für einen bestimmten Betrag je nach Mahlzeit Essen bestellen kann. Der Full-Access-Mealplan kostet $2,404. Grocery Shopping kann ohne Auto kompliziert sein, da es in Columbia leider so gut wie keine bzw. superschlechte öffentliche Verkehrsmittel gibt. Daher ist man stets auf einen Uber oder Auto angewiesen. Außerdem sind Lebensmittel in den USA sehr teuer, weswegen ein Mealplan nicht die schlechteste Lösung sein kann. Ich erzähle euch später bei Tipps für die Finanzierung wie man die teuren Verpflegungskosten aber fast vollständig umgehen kann.</t>
-  </si>
-  <si>
-    <t>Die noch sehr junge Privatuni ist extrem modern ausgestattet. Die Betreuung durch das dortige Auslandsamt ist exzellent und ihr müsst euch kaum um Administrative Arbeit kümmern. Das Studium als solches gestaltet sich an der RU also extrem einfach.
-Die Klassen haben etwa 30 Studenten und die Vorlesungen oft ein wenig interaktiver als in Mannheim.
-Zudem ist die Uni 24h am Tag geöffnet, hat einen kleinen (für Island!) günstigen Laden und eine sehr angenehme Bibliothek.
-Außerdem befindet sich ein Hottub keine zwei Minuten von der Universität entfernt am Strand.</t>
-  </si>
-  <si>
-    <t>Die FGV bietet eine Vielzahl spannender Kurse an. Es bietet sich insbesondere an Kurse aus dem Bereich der Politikwissenschaften zu nehmen, um Brasilien und Südamerika besser kennenzulernen.</t>
-  </si>
-  <si>
-    <t>Der Campus ist sehr schön und grün. Ich empfehle mal den Golfplatz auf dem Campus zu besuchen und ein paar Bälle zu schlagen. Das Essen war gut und günstig. Mittwochs gibt es über der Cafeteria ein super günstiges All-you-can-eat-Buffet mit anschließendem Getränk im Sora Café inklusive, sehr zu empfehlen!
-Das Studium an der NUCB unterscheidet sich stark von dem in Mannheim. Wie schon bei den Wohnheimen setzt die NUCB auch im universitärem Alltag auf strenge Regeln. Jeder Kurs findet einmal die Woche in einer 100-minütigen Unterrichtsstunde statt (Kurse übers halbe Semester zwei Stunden die Woche). Die Anwesenheit ist verpflichtend. Insgesamt fühlte ich mich eher wie in einer Schule als wie an einer Universität. Als Mannheimer musste ich das Maximum an 10 Kursen belegen. Pro Kurs und pro Semester darf man 3 mal abwesend sein, ab der vierten Abwesenheit hat man den Kurs automatisch nicht bestanden. Dabei ist es EGAL aus welchem Grund man abwesend ist. Nur eine hochansteckende Krankheit von einer Liste von ausgewählten, hochansteckenden Krankheiten bestätigt von einem Arzt ist ein anerkannter Grund eine Unterrichtsstunde zu verpassen. Ein gebrochenes Bein zum Beispiel zählt nicht dazu und selbst eine dringend notwendige Operation in einem Krankenhaus ist keine ausreichende Entschuldigung. Deshalb empfiehlt es sich seine Abwesenheiten sehr vorsichtig zu benutzen. Es kann sich lohnen für Reisen über dem Semester. Ich persönlich habe die meisten meiner Abwesenheiten gebraucht, um Aufgaben für andere Kurse rechtzeitig fertig zu bekommen. Außerdem habe ich zur Sicherheit jeweils meine dritte Abwesenheit für die letzte Woche aufgehoben. Es kann schließlich immer mal passieren, dass man sich verletzt oder auch einfach mal verschläft. Bei vielen Dozenten kann man ein oder zweimal bis zu 20 min zu spät kommen ohne als abwesend zu gelten, allerdings nicht bei allen (dazu später mehr). Zudem wird man manchmal auch einfach als abwesend eingetragen, obwohl man eigentlich da war. Checkt deshalb regelmäßig eure Abwesenheiten online und lasst es im Zweifelsfall korrigieren. 
-Das Kursniveau ist DEUTLICH unter dem von Mannheim. Umso frustrierender empfand ich den hohen Arbeitsaufwand und die nicht nachvollziehbare Notenvergabe. Über dem Semester gibt es immer wieder Präsentationen, Gruppenarbeiten und Aufsätze. Selbst bei geringem Niveau kommt da bei 10 Kursen eine Menge zusammen. Häufig steht der Arbeitsaufwand auch in keinem Verhältnis mehr zum Lerneffekt oder zu den 3 ECTS pro Kurs. (Startet ein soziales Projekt, um einer benachteiligten Gruppe der Gesellschaft nachhaltig zu helfen) Am Ende des Semesters habe ich dann 9 Klausuren in 3 Tagen schreiben müssen, die wahrscheinlich stressigsten Tage meines Lebens! Schon 3 Tage später gab es dann die Noten. Wenn man in einem Kurs durchfällt, dann bekommt man in der Regel die Option auf einen Zweit-Versuch. Dieser ist nur wenige Tage später und kostet 3000 Yen pro Kurs (über 20). Ist das Geld aber einmal gezahlt und man geht zum Retake hin und bringt dann sogar noch etwas zu Papier, dann besteht man automatisch mit der schlechtesten Note (C bzw. 4,0). Man kann nur noch die schlechteste Note bekommen.</t>
-  </si>
-  <si>
-    <t>Das Kursangebot der University of Exeter war für mich leider sehr eingeschränkt. Dadurch dass es keine Linguistik gibt und ich bereits alle Literaturwissenschaft-Kurse belegt habe, konnte ich nur einen Kurs im Bereich ICS und einen im Bereich Area Studies belegen. Dabei habe ich mich für first year Kurse entschieden. Die Kurse haben entweder 7,5 ECTS (15 Exeter credits) oder 15 ECTS (30 Exeter credits). Deshalb ist es normal, nur 2-3 Kurse zu belegen. Pro Kurs hat man meist mehrere Veranstaltungen pro Woche. Auch der Arbeitsaufwand pro Kurs ist höher als in Mannheim. _x005F_x000D_
-Der Campus ist sehr schön gelegen. Es gibt zahlreiche Societies, die man in der Freshers Week vorgestellt bekommt und es bietet sich, an 1-2 beizutreten. Besonders empfehlenswert ist die Erasmus Society, die wöchentlich socials und/oder Tagestrips organisiert. Leider gibt es in der Uni keine Mensa, sondern nur kleine Restaurants. Besonders zu empfehlen sind die curly fries im "RAM". Die Arbeitsmöglichkeiten sind leider auch recht begrenzt. Die Bibliothek verfügt im Vergleich zur Anzahl der Studenten über sehr wenige Plätze und nach 12 Uhr ist dort meist alles besetzt. Eine gute Alternative ist hier die Bibliothek im St Lukes Campus. _x005F_x000D_
-Die Uni Exeter erwartet ein C1 Sprachniveau. Ebenso gibt es die Möglichkeit vor Ort kostenlose Sprachkurse zu belegen.</t>
-  </si>
-  <si>
-    <t>Die Universidad de Chile zählt allgemein zu einer der besten Universitäten des Landes und besonders die BusinessSchool oder Facultad de Economia y Negocios besitzt in ganz Lateinamerika einen hervorragenden Ruf. Das Studienjahr besteht ähnlich wie in Deutschland aus 2 Semestern, die allerdings circa 1 - 1 1/2 Monate länger dauern als hierzulande. Somit bietet einem das Auslandssemester umfassend die Möglichkeit die chilenische Kultur und den lateinamerikanischen Kontinent besser kennenzulernen, da man allein für das Semester circa 5 Monate im Land verbringt. 
-Das Studium an der Gasthochschule war eine interessante Abwechslung zum Studium in Mannheim. Im Gegensatz zum Mannheimer Bewertungssystem bei dem man üblicherweise eine Klausur am Ende des Semesters schreibt, werden in Chile an der Universidad de Chile mehrere, kleinere Arbeiten bewertet. Somit gab es in nahezu jedem Fach eine Midterm, einen Report und ein Final Exam. Auch die Anwesenheitspflicht und Mitarbeitsnoten sind zu Beginn eine Umstellung von dem Mannheimer Studiensystem, man gewöhnt sich aber schnell an die neuen Bewertungsverfahren. Durch die anderen Evaluierungsmethoden verteilt sich der Workload gleichmäßiger auf das Semester. Die teilweise wöchentlich abzugebenden CaseStudies und Reports sorgen für einen ungewöhnlich arbeitsintensiven Start in das Semester, dafür ist die abschließende Klausurenphase deutlich entspannter als in Mannheim. 
-Die Kurse setzten sich in Chile meistens ausschließlich aus einer Vorlesungen zusammen, die allerdings 2x die Woche stattfinden. Einige Fächer werden um eine sogenannte Ayudante ergänzt, dieses Format gleicht einer Übung an der Uni Mannheim. Ein ähnliches Konzept zu den deutschen Tutorien gibt es in Chile nicht. Aufgrund des Wegfalls von Übungen und Tutorien in den meisten Fächern ist der Zeitaufwand für das Besuchen der Lehrveranstaltungen leicht geringer als in Mannheim.
-Die Kursgrößen unterscheiden sich ebenfalls von den in Mannheim üblichen Dimensionen. In den meisten Kursen arbeitet man in Gruppen um die 30 Personen. Der Charakter der Kurse ist eher vergleichbar mit einer deutschen Schulklasse. In einigen Kursen entwickelt man ein persönliches Verhältnis mit dem Professor oder der Professorin. Diese haben einen bei eventuellen Problemen oder Unklarheiten immer nett und hilfsbereit unterstützt. 
-Das englischsprachige Kursangebot ist für lateinamerikanische Verhältnisse vielfältig. Neben klassischen BWL-Modulen wie Marketing oder M&amp;A Kursen gibt es auch einige eher politisch orientierte Kurse, die einen interessanten und lehrreichen Einblick in das politische Umfeld Lateinamerikas liefern und dessen Stellung in der Weltpolitik reflektieren. In vielen englischsprachigen Kursen ist allerdings das Sprachniveau der Dozenten deutlich geringer als der Mannheimer Standard. Trotz internationaler Erfahrung der Dozenten ist das Verständnis der Dozenten teilweise schwer. 
-Das spanischsprachige Kursangebot ist deutlich umfangreicher. Falls man Spanisch ohne Vorkenntnisse in den Sprachmodulen im Mannheimer BWL Programm belegt hat, ist es durchaus möglich einen spanischen Kurs zu belegen, allerdings nur mit signifikant höherem Arbeitsaufwand besonders zu Beginn. Zusätzlich fällt die Notenvergabe in den spanischen Kursen normalerweise deutlich schlechter aus. Der zentrale Vorteil einer spanischen Kurswahl liegt in der signifikanten Verbesserung seines Sprachniveaus. Da die Universidad de Chile leider keine eigenen Sprachkurse anbietet, sind spanischsprachige Kurse die einzige Möglichkeit universitätsintern an der Sprache zu arbeiten. Private Spanischkurse gibt es genug in sämtlichen Preisklassen. Zu empfehlen ist das Goetheinstitut in Santiago, die Kurse sind teuer aber ihr Geld wert.</t>
-  </si>
-  <si>
-    <t>Das Semester in Valencia hat für mich ca. am 10. September angefangen, wobei die Einführungsveranstaltungen teilweise schon in der Woche davor stattfanden. Ich persönlich habe alle Kurse, die ich bereits in Deutschland gewählt hatte bekommen, kann aber jedem nur empfehlen, die Kurswahl so früh wie möglich zu machen, da es doch einige gab, die zu wenig oder die falschen Kurse bekommen haben. Nach zwei Wochen gab es allerdings eine add and drop session, wo nochmal umgewählt werden konnte. Diese verlief aber super chaotisch und ebenfalls nach dem first come first served Prinzip. _x005F_x000D_
-Das Verständnis von Uni in Spanien grenzt sich deutlich von dem deutschen ab. Die Kurse sind in aller Regel deutlich kleiner und man hat ein viel persönlicheres Verhältnis zu seinen Professoren. Dafür wird allerdings auch mehr Wert auf Anwesenheit gelegt und es wird ein kontinuierliches Engagement für die Kurse vorausgesetzt, was sich in andauernden Gruppenarbeiten, Klausuren, Rollenspielen, etc. widerspiegelte. Das bedeutet allerdings auch, dass weniger Gewichtung auf der Endklausuren im Januar gelegt wird. Das Niveau der Kurse und die Stoffmenge ist definitiv geringer als in Mannheim; dennoch ist es nicht super einfach gute Noten zu erzielen, da die Umrechnung etwas unvorteilhaft ist und ausgezeichnete Noten in manchen Kursen generell nicht zu oft verteilt werden. _x005F_x000D_
-Ich hatte alle meine Kurse auf Englisch, was in der Konsequenz auch bedeutete, dass die meisten meiner Kurse hauptsächlich aus anderen Austauschstudenten bestanden. Das Englisch der Professoren ist generell nicht absolut lupenrein aber in aller Regel gut zu verstehen. _x005F_x000D_
-Falls der Wunsch besteht, einen Spanisch Kurs zu belegen, gibt es gute Angebote von dem Sprachenzentrum der Universität, welches die Studenten nach einem Einstufungstest in verschiedene Kurse einteilt.</t>
-  </si>
-  <si>
-    <t>Die Université Laval ist im Vergleich zu Mannheim eine deutlich größere Uni, man findet sich trotzdem ziemlich schnell zurecht. Die das Herbstsemester ist zeitlich identisch mit dem HWS in Mannheim und die Klausuren liegen ebenfalls vor Weihnachten. Das Wintersemester geht von Januar bis Ende April. Um die Vorteile des Studentenstatus zu genießen, muss man für mindestens vier Kurse eingeschrieben sein (z.B. um das Sportangebot zu nutzen). Das Kursangebot für Austauschstudenten in Psychologie ist überschaubar, aber ich habe für fast alle Aufbaumodule Kurse finden können (bis auf pädagogische Psychologie). Es lohnt sich, auch in anderen Studienprogrammen nach Modulen zu suchen, die man sich anrechnen lassen kann (z.B. BWL für A&amp;O). Der Aufwand während des Semesters ist hoch, da zu jeder Vorlesung zusätzlich Texte gelesen werden müssen. Außerdem gibt es nicht eine Klausur am Ende, sondern auch Zwischenprüfungen und/oder Hausarbeiten. Es ist also immer etwas zu tun, weswegen ich empfehle, vier und nicht fünf Kurse zu wählen.
-Ich wurde ungewöhnlicher Weise vorab nicht aufgefordert, einen Online-Sprachtest zu absolvieren, um mein Französischniveau zu beurteilen, weswegen ich somit auch keinen belegt habe. Da Sprachkurse (bis auf Französisch) an der Uni kostenlos sind, habe ich die Chance genutzt und einen Spanisch-Kurs gewählt.</t>
-  </si>
-  <si>
-    <t>Das Studium hat mir sehr gut gefallen, die meisten Kurse waren klein und der Kontakt der Professoren mit den Studierenden war viel enger als man es aus Mannheim kennt. Fast alle Lehrenden sprachen exzellentes britisches Englisch und bemühen sich, die Theorie praktisch in der Arbeitswelt aufzuzeigen. Nichtsdestotrotz bleibt das Studium in Cardiff sehr research lastig, da fast ausschließlich auf Basis moderner und klassischer Journal Papers gearbeitet wird und man sehr viel lesen musste.  
-Leider gab es keine Mensa sondern nur ein Studierenden Kneipe namens Taf sowie ein weiteres Restaurant in einem anderen Gebäude. Das Mittagessensangebot war dort jedoch limitiert und sehr teuer. Viele sind deshalb zum Mittagessen nach Hause oder haben sich bei Subway/Costa/ Starbucks etwas zu Essen geholt. Allgemein ist die Business School relativ klein und ich hatte den Eindruck, dass er beliebteste Studiengang dort Modern Languages oder Journalism ist. Dementsprechend hatte die Business School nur wenige Austauschstudierende. 
-Das Semester ging von Ende September bis Ende Januar mit einer Reading Week und Weihnachtsferien.</t>
-  </si>
-  <si>
-    <t>Am IDC gibt es eine recht umfangreiche Auswahl an englischen Kursen. Hier haben Austauschstudierende auch relativ große Freiheiten. So könnt ihr die Kurse zu Anfang z.B. öfter wechseln als regulär Studierende und sie auch später noch für längere Zeit droppen.  _x005F_x000D_
-_x005F_x000D_
-Was ich als etwas störend empfand, war, dass es nur einen sehr begrenzten Zeitraum gab, um seine erste Kurswahl abzugeben. Danach musste man immer der Koordinatorin am IDC schreiben, um sich für einen neuen Kurs anzumelden oder sich von anderen Kursen, die doch nicht gepasst haben, abzumelden. _x005F_x000D_
-_x005F_x000D_
-Zu Anfang hatte ich persönlich auch Kurse, die mir zu stark von dem israelischen Narrativ geprägt waren. In einem Kurs ging es direkt um den Nah-Ost-Konflikt, ein anderer behandelte den Terror durch die Hisbollah und Hamas. Der Kurs, der sich direkt auf den Konflikt fokussierte, wurde von einem ehemaligen Politiker geleitet, welcher definitiv seine eigene Meinung miteinbrachte und nicht wirklich wissenschaftlich an das Thema heranging. Es war zwar sehr interessant, aber nicht das Richtige für mich im Kontext der Universität. Der andere Kurs war mir ebenfalls nicht wissenschaftlich fundiert genug. _x005F_x000D_
-_x005F_x000D_
-Nach ein paar Kurswechseln hatte ich dann aber doch sehr interessante Vorlesungen mit kompetenten Professoren und Professorinnen. Alle Kurse, die ich unten aufgelistet habe, würde ich auch weiterempfehlen. _x005F_x000D_
-_x005F_x000D_
-Was ganz interessant sein könnte, ist, dass es am IDC etliche Profs gibt, die eher aus praktischen Bereichen kommen, vor allem was Sicherheits- und Terrorismusforschung angeht. Natürlich kann das Lehrniveau darunter wie erwähnt auch leiden, ich hatte jedoch ebenfalls Kurse, die von persönlichen Anekdoten und Berichten aus der Praxis profitiert haben. _x005F_x000D_
-_x005F_x000D_
-Bevor das Semester beginnt, solltet ihr per Email dazu eingeladen werden, IDC Connect beizutreten. Das ist eine Art Buddy-Programm und ähnlich aufgebaut wie Visum hier in Mannheim. Leider startet das Programm eher spät, weshalb ihr am Anfang nicht schon direkt einen Ansprechpartner haben werdet, um euch bei organisatorischen Dingen weiterzuhelfen. Auch der Beitrag ist mit ca. 70 etwas hoch, was als Voraussetzung erst einmal abschreckend wirken kann. _x005F_x000D_
-_x005F_x000D_
-Dennoch kann ich nur jedem empfehlen, an dem Programm teilzunehmen. Euch werden einige lustige Veranstaltungen geboten und außerdem könnt ihr Freundschaften mit anderen Internationals und israelischen Studierenden knüpfen. Ich persönlich habe mich mit meinem Buddy gut verstanden und durch den vermehrten Kontakt zu Israelis einen besseren Einblick in die Kultur vor Ort bekommen._x005F_x000D_
-_x005F_x000D_
-Wenn ihr Zeit und Interesse habt, lohnt es sich an dem Hebräisch Kurs des IDCs teilzunehmen. Der Sprachkurs ist anspruchsvoll und eher darauf ausgelegt, dass die Studierenden mindestens ein Jahr daran teilnehmen. Ich persönlich habe den Kurs letztlich nicht beendet und keine Prüfung daran geschrieben, dennoch hat er mir geholfen das hebräische Alphabet und einige Vokabeln zu lernen. Alternativ kann man auch vorher einen Hebräisch Kurs vom Studium Generale belegen. Mir war es persönlich einfach wichtig zumindest ein Gefühl für die Landessprache zu bekommen, da man dort ja doch fast ein halbes Jahr verbringt.</t>
-  </si>
-  <si>
-    <t>Das Semester beginnt Anfang Oktober und endet Mitte Februar. Die Klausuren kann man entweder vor oder nach Weihnachten schreiben. In jedem Fach gibt es 3-4 Klausurtermine pro Semester, sodass man die Dauer der Klausurenzeit selbst festlegen kann. Das VWL-Gebäude in direkter Nähe zum Hauptbahnhof und zum Wenzelsplatz ist klein und übersichtlich. Die Bibliothek ist direkt im Gebäude, allerdings ist es mehr ein Lesesaal. Sehr empfehlenswert ist die Mensa, in der man für etwa 50 Kronen (also etwa 1 billiger im Vergleich zur Mannheimer Mensa) gut essen kann.
-Die Vorlesungen sind im Vergleich zu Mannheim insgesamt weniger quantitativ. Insbesondere der Kurs Insititutional Economics vermittelt ein anderes Bild auf die VWL, als man es vielleicht kennt. Interessant ist auch, wie sich die kommunistische Vergangenheit der Tschechischen Republik in der Lehre Beachtung findet. Bachelor- und auch Masterkurse sind problemlos zu meistern, allerdings sollte man sich auf einen höheren Arbeitsaufwand einstellen. Für den (sehr empfehlenswerten) Kurs Advanced Macroeconomics war es beispielsweise notwendig, 3 Assignments aus je 3 Teilen, ein Projekt zu ca. 25 Seiten, eine Midtermklausur und eine Finalklausur zu bearbeiten. Davon sollte man sich aber nicht abschrecken lassen. 
-Besonders bemerkenswert ist, dass hochrangige tschechische Volkswirte an der Karlsuniversität lehren. So hatte ich etwa Vorlesungen bei Mitgliedern des Zentralbankboards und dem Verantwortlichen für die Euro-Einführung in der Tschechischen Republik. 
-Ein Tschechisch Kurs wird für etwa 120 angeboten. Mit diesem Kurs sammelt man ECTS-Punkte, kann diese aber nicht in Mannheim anrechnen lassen. 
-Leider ist die Organisation des Studienbetriebs teilweise katastrophal. So wurden 3 der mir vorher im Learning Agreement bestätigten Kurse überhaupt nicht angeboten. Das Kursangebot wurde während der Orientierungswoche sehr stark ausgedünnt. Zudem ist bei der Registrierung in den Kursen Eile geboten, da diese schnell ausgebucht sind. Einige Komiliton*innen mussten bei Ihrem ersten Log-In feststellen, dass ihre Kurse bereits voll belegt waren.
-In der dritten Vorlesungswoche wurde ich zusammen mit anderen ordentlich registrierten Erasmus-Studierenden aus einem Kurs ausgetragen, da der Raum zu klein war. Der Besuch von alternativen Kursen gestaltete sich aufgrund teilweise schon erbrachter Prüfungsleistungen sehr schwierig. Nur nach intensivem Druck der Studierenden zusammen mit der Dozentin konnte die Institutsleitung überzeugt werden, einen Alternativtermin vorzuschlagen. 
-Wer Planungssicherheit bezüglich der Kurse haben möchte, sollte die Karlsuniversität nach meiner Erfahrung besser meiden.</t>
-  </si>
-  <si>
-    <t>Das Semester in Göteborg ist in vier Terms aufgeteilt, die jeweils 5 Wochen dauern. Alle Kurse geben daher 7.5 ECTS und finden entweder als Vollzeitkurs in einem der vier Terms oder als Teilzeitkurs über Terms 1-2 oder 3-4 statt. Die Vorlesungen selbst finden meist zwischen 9.00 und 18.00 statt.
-Die unterschiedlichen Fakultäten der Uni Göteborg sind alle über die ganze Stadt verteilt. Die Handelshögskolan (Handels) ist direkt neben Haga einem der schönsten Stadtteile von Göteborg in dem es viele Cafés gibt. Eine Mensa gibt es an der Handels zwar, mit 7 Euro pro Mittagessen bringen sich die meisten Studenten allerdings etwas zu Essen mit und wärmen es in den vielen Mikrowellen vor Ort auf oder kaufen sich etwas in den umliegenden Schnellimbissen. Allgemein sind die Lunchangebote in der Stadt sehr gut und man bekommt in den Restaurants oft für 10 Euro ein Hauptgericht plus Salatbüffet und Nachtisch.
-Für Masterstudenten gab es ca. 25 Kurse zur Auswahl wobei manche Kurse bzgl. Voraussetzungen oder begrenzter Plätze eingeschränkt waren. Die Kurswahl für das FSS fand Anfang Dezember statt. Die Bestätigung der Kurse haben wir allerdings erst recht kurzfristig vor Beginn des Semesters erhalten, daher sollte man ggf. zusätzliche Learning Agreements abschließen, wenn man kapazitätsbeschränkte Kurse wählt. Man konnte vor der Kurswahl online das Kursangebot für Austauschstudenten einsehen sowie den jeweiligen Schedule, Syllabus, Readings und die Prüfungsart. Hier war es wichtig die Kurse bzgl. Überschneidungen zu überprüfen, da es Veranstaltungen mit Anwesenheitspflicht gibt. Grundsätzlich gab es in meinen Kursen normale Vorlesungen, Seminare (oft mit Anwesenheitspflicht), Workshops sowie Exkursionen. Außerdem haben die Kurse hier nicht zwangsläufig eine Klausur am Ende des Terms sondern können auch über Assignments, Präsentation o.ä. benotet werden. Im Allgemeinen scheint man in Schweden mehr Wert auf die Readings als die Vorlesungen zu legen. Gruppenarbeiten gibt es außerdem recht häufig. Das Niveau liegt meines Erachtens nach etwas unter dem Mannheimer Niveau wobei dies auch stark vom Kurs abhängig ist. Erwähnenswert ist noch, dass es nur die Noten Pass with Distinction (über 75%), Pass (50-75%) und Fail (unter 50%) gibt.
-Zur Anerkennung der Kurse ging es teilweise sehr schnell und unkompliziert von den Mannheimer Lehrstühlen die Learning Agreements zu bekommen, teilweise war es etwas mehr Aufwand und mit längeren Wartezeiten verbunden. Zu beachten ist, dass man als Internationale Kurse in Mannheim insgesamt 18 ECTS anrechnen kann, d.h. nur zwei Kurse von Göteborg.
-Schwedisch-Kurse in mehreren Niveaus werden von der Uni Göteborg kostenlos angeboten. Die Kurse finden 10x abends statt und dauern jeweils ca. 2h. Hierzu konnte man sich zu Beginn des Semesters anmelden und das benötigte Buch in der Bib ausleihen.</t>
-  </si>
-  <si>
-    <t>Die Korea University ist eine der renommiertesten Universitäten in Korea. Gemeinsam mit der Seoul National Uni und der Yonsei Uni bilden sie SKY. Dieser Begriff steht für die oberste akademische Elite in Korea. Diesen Geist verspürt man auch an der Uni. Der Großteil der Studenten tragen KU Collegejacken und zeigen sich sehr stolz. Dieser Stolz findet zweimal im Jahr einen Höhepunkt, wenn die Universitäten Yonsei und Korea einen sportlichen Wettkampf austragen. Dieses Event ist in ganz Korea bekannt und belebt die Studentenviertel enorm. Egal wer der Gewinner ist, die Stimmung ist freundschaftlich und ausgelassen._x005F_x000D_
-Das hohe Ansehen der Uni wird auch an der Beliebtheit der Kurse ersichtlich. Kurse werden online in vergeben. Sollte man sich keinen Platz ergattert haben, so muss man damit leben. Das ist meiner Meinung nach gerade für Internationals sehr problematisch. Es führt auch dazu das Interessen nicht ausgelebt werden können._x005F_x000D_
-Ich hatte zu Anfang des Semesters fünf Kurse mit mathematischer Orientierung. Nach zwei Monaten habe ich einen dieser Kurse abgewählt, da die pädagogische Leistung des Lehrers so schlecht war wie seine Englischkenntnisse. Das war jedoch der einzige Kurse. Jeder Kurs beinhaltet entweder eine Präsentation, einen Report oder beides, was das Studium spannender macht. Die Professoren sind alle nah an der Forschung und binden die Studenten nett ein._x005F_x000D_
-Generell kann man sagen, dass das mathematische Niveau sehr hoch ist und die Motivation der Studenten ebenfalls. Dazu gibt es zu fast jedem Kurs ein in Englisch angebotenes Pendant._x005F_x000D_
-Auch das Buddy-System muss man sehr loben. Es wird eine gute und hilfreiche Einführung geboten.</t>
-  </si>
-  <si>
-    <t>An der LUISS Guido Carli läuft alles ein bisschen anders, als man es von zu Hause gewohnt ist. Es gibt keine festen Zeitslots für die Seminare und auch keine festgelegte Länge, jeder Professor entscheidet mehr oder weniger selbst, wann und wie lange er oder sie lehren möchte und es ist nicht ungewöhnlich, ein Seminar zwei mal in der Woche zu haben. Mein eines Seminar war am Freitagsmorgen von 8:45-11:45 Uhr, mein anderes am Dienstag von 16:00-18:30 Uhr und Mittwoch von 14:00-16:00. Das heißt, dass man bei der Zusammenstellung seines Stundenplans sehr darauf achten muss, dass man keine sich überschneidenden Kurse wählt, obwohl die Auswahl sehr groß und vielfältig ist. Für die Kurse (und die Prüfungen) meldet man sich über ein Onlineportal an und die ersten zwei Vorlesungswochen sind als Orientierungsphase konzipiert, während denen man alle Kurse besuchen kann, für die man sich interessiert, bevor man sich endgültig entscheidet. Danach können Kurse nur noch abgegeben, aber keine neuen Kurse mehr gewählt werden.
-Im Vergleich zu deutschen (und nordeuropäischen) Universitäten gibt es in Italien deutlich weniger Vorgaben für Leistungsnachweise, was frustrierend sein kann, weil man einfach nicht weiß, was von einem erwartet wird. Damit muss man leben können, sonst ist Italien nicht das richtige Land für einen Auslandsaufenthalt, aber mit den Noten sind im Allgemeinen alle zufrieden. Alle Kurse an der LUISS Guido Carli schließen mit einer mündlichen Prüfung, die den meisten Erasmusstudenten ebenfalls sehr ungewöhnlich erscheint: Alle Prüflinge kommen zur gleichen Zeit und sitzen im Raum und der Professor (oder die Professoren) prüfen einfach vorne im Raum, während alle zuhören. Offenbar soll durch die Öffentlichkeit der Prüfungen die Fairness der Examen sichergestellt werden.
-Die LUISS Guido Carli hat mehrere Computerräume, in denen kostenlos gedruckt werden kann. Leider gibt es kaum Lernräume für Studenten und insbesondere Gruppenarbeitsräume fehlen, aber zumindest im Sommer (der bis Ende Oktober geht) kann man den weitläufigen Außenbereich der Universität nutzen, wo es mehr als genug Platz gibt.
-Die Seminare an der LUISS Guido Carli sind deutlich praxisorientierter als man es von vielen deutschen Universitäten gewohnt ist und der Fokus liegt mehr auf Faktenwissen und der Anwendung des Erlernten, als auf Theorie und kritischem Denken. Viele der Dozenten kommen aus der Praxis, z.B. ist der Professor für Diplomacy ein aktiver Diplomat und der Professor für Security Studies ein General, der als militärischer Berater der italienischen Regierung arbeitet. Das führt dazu, dass die Seminare manchmal etwas unstrukturiert erscheinen und didaktisch nicht perfekt sind, aber der Stoff sehr lebendig vermittelt wird. Beispielsweise haben wir in Diplomacy zwei Sessions à 3 Stunden mit einer Simulation von Krisengesprächen über die Situation in Lybien verbracht, bei der wir in "Delegationen" für zwölf verschiedene Länder eingeteilt wurden, um eine gemeinsame Resolution zu erarbeiten. Die Professoren haben das Ganze sehr realistisch gestaltet und die Leistung der einzelnen Delegationen ist in die Endnote eingegangen.
-Die LUISS Guido Carli bietet für alle Austauschstudenten kostenlose Italienischkurse auf unterschiedlichen Niveaus an, die jedoch relativ groß sind und daher effektiver sein könnten. Für alle, die "richtig" Italienisch lernen wollen, bieten sich private Italienischstunden an, die für unter 15 pro Stunde zu haben sind.</t>
-  </si>
-  <si>
-    <t>Das Studium an der Sorbonne IV war anders als erwartet. Es war sehr unorganisiert und man sollte sich einfach generell bei allen Fragen an das Internationals Office wenden, auch wenn euch etwas anderes gesagt wird. Dort weiß man am besten Bescheid. Die Kurse im L3 sind sehr anspruchsvoll und ich habe leider meinen Kurs nicht bestanden, weil ich erstens dem Kurs nicht folgen konnte, da der Prof ohne PPP oder Skript oder Mikro sprach. Ich konnte in dem Französisch-Kurs keinen roten Faden erkennen. _x005F_x000D_
-Die L2 Kurse sind da schon viel angenehmer. Ich hatte zwei Anglistik-Kurse, die mir viel Spaß gemacht haben und denen ich sehr gut folgen konnte.</t>
-  </si>
-  <si>
-    <t>Hervorzuheben im Studium ist insbesondere der Unterschied in der Art und Weise der Notenzusammensetzung. Ich hatte in keinem meiner Fächer eine alles entscheidende Klausur oder Hausarbeit, von der die Note am Ende des Semesters zu 100 % abhing. _x005F_x000D_
-Die abzulegenden Prüfungsleistungen waren über das gesamte Semester verteilt und in Form von Essays, Klausuren, Präsentationen und mündlicher Mitarbeit im Klassenzimmer zu erbringen. Das erhöht den Arbeitsaufwand während des Semesters, senkt in gewisser Weise aber auch den Druck, da eine suboptimale Leistung in einer Prüfung nicht gleich das Aus bedeutet. Durch die gleichmäßige Verteilung der zu erbringenden Leistungen während des Semesters entfällt auch die typische Klausurenphase, bzw. findet sie in abgemilderter Form statt. _x005F_x000D_
-Was gibt es zum Schwierigkeitsgrad zu sagen?_x005F_x000D_
-Man kann, so zumindest mein subjektiver Eindruck, sagen, dass die Geschwindigkeit, mit welcher der Lehrstoff vermittelt wird, langsamer ist. Es wird länger bei einzelnen Themen verweilt und Erklärungen sind häufig sehr ausführlich. Verglichen mit Mannheim kann man sagen, dass Bewertungen großzügiger ausfallen und die zu erbringenden Leistungen vom Schwierigkeitsgrad her etwas einfacher sind.  _x005F_x000D_
-Da die Lingnan University eine relativ kleine Universität ist (~4500 Studenten), sind auch die Klassen gemessen an der Teilnehmerzahl eher klein. _x005F_x000D_
-Am Campus kennt jeder jeden, insbesondere die Internationals sind gut untereinander vernetzt. _x005F_x000D_
-Ein absoluter Pluspunkt der Universität ist die Mensa und das chinesische Restaurant am Campus. Die Mensa bietet von Montag bis Samstag sowohl Frühstück und Mittagessen, als auch Nachmittags-Snacks und Abendessen an, und das alles zu fairen Preisen. Das chinesische Restaurant ist über die Grenzen der Uni hinweg bekannt und bietet auch Vergünstigungen für Studenten an._x005F_x000D_
-Des Weiteren fördert die Uni das Engagement in Initiativen und sportliche Aktivitäten sehr. Zum Campus gehören ein Uni gym, Tennisplätze, Squash-Anlagen, ein Swimming-Pool, sowie Basketball und Fußball Plätze, Sporthallen, usw. Es gibt Tanz- und Kampfsport Kurse, Kurse in traditioneller chinesischer Kalligraphie und Malerei, Entrepreneurship und Gartenbau Initiativen. Ihr solltet euch also von Anfang an unbedingt engagieren, so kommt ihr auch einfacher mit den Locals in Kontakt!</t>
-  </si>
-  <si>
-    <t>Das Kursangebot in Exeter ist für Politiksstudenten relativ groß, aber dabei weniger empirisch und mehr philosophisch angelegt. In den meisten Kursen werdet ihr mehrere kleinere Essays à 1500-2000 Wörtern verteilt über das Semester schreiben müssen. Ergänzt wird das ganze meist mit Präsentationen. Die Leselisten sind in Exeter deutlich länger als in Mannheim. Insgesamt werdet ihr aber, wenn ihr in Mannheim akademisch einigermaßen mitkommt, auch in Exeter keine Probleme haben. Eine Besonderheit in Exeter ist, dass ihr einen Kurs auch außerhalb der politkwissenschaftlichen Fakultät belegen dürft. _x005F_x000D_
-Eine Mensa gibt es an der Uni Exeter leider nicht, allerdings bieten eine Reihe von Restaurants günstig Essen an. Es gibt mehrere kleine Supermärkte und Essenstände wo ihr immer günstig einen Sandwich-Deal ergattern könnt. Die Bibliothek ist zentral im Forum gelegen und sehr gut ausgestattet. Auch einen Arbeitsplatz werdet Ihr fast immer finden. Exeter wurde mehrfach zur Uni mit dem schönsten Campus in Großbritannien gewählt und diesem Titel macht die Uni alle Ehre. Das Campus ist übersäht mit wunderschönen Teichanlagen, Parks und bewaldeten Gebieten. Die Umgewöhnung von der atemberaubenden Schönheit des Mannheimer Schlosses wird euch also leicht gemacht.</t>
-  </si>
-  <si>
-    <t>Das Semester an der VU ist in drei Periods aufgeteilt. Die erste und zweite Period gehen jeweils ca. 8 Wochen (September bis Dezember). Die dritte Period beginnt dann im Januar und dauert ca. 4 Wochen. Man muss mindestens Kurse im Umfang von 24 ECTS belegen. D.h., wenn man möchte, kann man auf die dritte Period verzichten, indem man in den ersten beiden Periods jeweils 2 Kurse á 6 ECTS wählt. So habe ich es auch gemacht._x005F_x000D_
-Die Dozenten in den Kursen waren insgesamt sehr motiviert und hatten ein hohes Sprachniveau. Das Breite des Angebots an interessanten VWL-Kursen war im Vergleich zu Mannheim mMn geringer. Aufgrund der Tatsache, dass man in den meisten Kursen während des Semesters regelmäßig Assignments abgeben muss, ist das Stresslevel während des Semesters höher als in Mannheim. Die Vorbereitung auf die Klausuren war allerdings mit weniger Stress verbunden, da ich am Ende der beiden Periods jeweils nur zwei Klausuren schreiben musste und aufgrund der Assignments dazu gezwungen war, mich bereits während der Vorlesungen mit dem Stoff zu beschäftigen._x005F_x000D_
-In der Mittagspause bietet es sich an, in der Mensa zu essen. Die Essensqualität war aus meiner Sicht deutlich besser im Vergleich zur Uni Mannheim-Mensa, allerdings waren die Preise auch höher.</t>
-  </si>
-  <si>
-    <t>Die University of Technology Sydney ist sehr modern und multikulturell. Alle Gebäude befinden sich im Zentrum der Stadt und sind miteinander verbunden, sodass man nie länger als 5 Minuten vom Wohnheim Yura Mudang laufen muss. Gerade das Business-Gebäude oder das IT-Gebäude stechen hervor mit ihrer einzigartigen Architektur. Zudem gibt es eine Library und alle möglichen Freizeitangebote und Programme wie UTS Careers, was einem bei der Jobsuche in Sydney helfen kann._x005F_x000D_
-Alle Veranstaltungen werden auf Englisch gehalten, was sich jedoch mit den Englischkenntnissen aus Mannheim gut bewältigen lässt. Für das Auslandssemester werden 4 Module benötigt. Ein Modul hat i.d.R. 6 ECTS. Pro Modul gibt es meistens eine Vorlesung und ein Tutorium, wobei manchmal auch Labs o.ä. vorkommen können. Mein Stundenplan war relativ überschaubar, sodass ich nur dreimal die Woche Uni hatte. Eine Liste und Beschreibung der von mir belegten Module befindet sich weiter unten. _x005F_x000D_
-Das Semester begann Ende Juli und endete Anfang November._x005F_x000D_
-Was den Lernaufwand angeht, lässt sich die UTS schwer mit der Uni Mannheim vergleichen. Zwar ist das System definitiv verschulter, was sich darin zeigt, dass mehr Assignments, Gruppenarbeiten, Quizzes etc. während dem Semester benotet werden. Dafür sind die Klausuren wesentlich entspannter: Ich hatte nur in 2 meiner 4 Fächer eine Endklausur, die jeweils nur leicht ins Gewicht fallen und, nach meiner Erfahrung, spürbar leichter zu bewältigen waren als die Klausuren in Mannheim. Unterm Strich würde ich daher sagen, dass der Lernaufwand etwas geringer ist als in Mannheim. Dennoch muss einiges getan werden, um eine (sehr) gute Note, also (High) Distinction zu erhalten.</t>
-  </si>
-  <si>
-    <t>Das Kursangebot ist für ein Semester relativ groß. Von der RSM kann man aus Kursen vom Ersten bis zum Fünften Semester wählen. Hierbei handelt es sich größtenteils um Managerial Courses mit Ausnahme von ein paar wenigen quantitativen Kursen. Ich habe keine Kurse von anderen Fakultäten gewählt, daher kann ich darüber keine Aussage treffen. 
-Das Kursniveau ist ähnlich wie in Mannheim, jedoch meines Erachtens nach etwas einfacher. Der Workload ist aufgrund der Kursstruktur sehr stetig und gefühlt wesentlich geringer als in Mannheim. 
-Man kann zusätzlich zu normalen Kursen noch einen "Minor" wählen, welcher 15 ECTS-Punkte bringt. 
-Die Vorlesungszeiten sind genau gleich wie in Mannheim was das HWS betrifft. Wenn man Prüfungen schieben möchte sollte beachtet werden, dass diese Anfang Januar (z.B. direkt am 03.01.) geschrieben werden. 
-Das Semester ist in Rotterdam in 2 geteilt, sprich man schreibt die ersten Prüfungen schon Ende Oktober und fängt Anfang November mit weiteren Kursen ganz neu an. 
-Der Campus verfügt über 2 Bibliotheken, einen Supermarkt, ein (teures) Foodcourt (mit Dönerladen, Asiaten, Starbucks etc.) und das Sportzentrum sowie selbstverständlich mehrere Wohnheime. Da ich eher selten auf dem Campus war und primär zuhause gelernt habe, kann ich keine Aussage über die Qualität der Arbeitsmöglichkeiten treffen.</t>
-  </si>
-  <si>
-    <t>Kursangebot: _x005F_x000D_
-Da ich in Mannheim einen Finance Schwerpunkt habe, entschied ich mich gegen eine MBA Spezialisierung. Als MBA Spezialisierung sind an der University of Victoria für Austauschstudierende Entrepreneurship und Service Management möglich. Alternativ kann man Bachelorkurse belegen, allerdings nur die des vierten Bachelorjahres (400er Kurse). Für diesen Weg habe ich mich entschieden. Im Laufe des Bewerbungsprozesses bekommt man einen Katalog zugeschickt, aus dem man Kurse wählen kann. Generell gibt es ziemlich viele Kurse zur Auswahl, die man auch ohne Probleme als International Course in Mannheim anrechnen lassen kann. Wenn man mehr als drei Kurse belegen möchte, benötigt man ein Äquivalent zu einem Mannheimer Kurs. Bei mir wurde nur der Entrepreneurship-Kurs (siehe unten) als Äquivalent anerkannt, sonstige Anfragen wurden abgelehnt. _x005F_x000D_
-Kursniveau und Prüfungen:_x005F_x000D_
-Studieren an der University of Victoria ist deutlich verschulter als in Mannheim. Es gibt viele Assignments zwischendurch, Gruppenarbeiten, interaktive Vorlesungen und so weiter. Das Niveau der Kurse liegt unter dem Mannheimer Niveau. Die Inhalte sind weniger anspruchsvoll und weniger umfassend. Jedoch bedeutet dies nicht, dass man überall einfach eine 1,0 bekommt. Bei Gruppenarbeiten vergeben viele Professoren/Professorinnen kaum Bestnoten und so bekommt man schnell ohne einen Kritikpunkt 85%. Dennoch werden die exams ziemlich fair bewertet, wenn die Antworten richtig sind, gibt es die Punkte. _x005F_x000D_
-Vorlesung:_x005F_x000D_
-Es gibt eine Anwesenheitspflicht, die auch mittels Unterschriften kontrolliert wird. In den meisten Kursen machen die Anwesenheit und Mitarbeit 10% der Note aus. Manche Professoren/Professorinnen nehmen das ernster, andere lockerer. Am besten fragt man am Anfang nach oder schaut im Syllabus. Besonders in der Reading Break im November fehlen viele internationale Studierende ein bis zwei Tage, um eine größere Reise zu machen. Ich habe einen Tag gefehlt und hatte damit acht Tage frei, in denen ich nach Hawaii geflogen bin.</t>
-  </si>
-  <si>
-    <t>Das Studium an der Queens University ist, wie in so vielen anderen Ländern, ganz anders aufgebaut als in Mannheim. Unterricht hat man nie mit mehr als 50 Leuten und in nahezu jedem Fach gilt praktisch Anwesenheitspflicht. Diese herrscht dadurch, dass es Noten für Mitarbeit gibt. Trotzdem gibt es natürlich einige, die nicht jeder Veranstaltung beiwohnen, das muss dann wohl jeder selbst für sich entscheiden. Ab der dritten Woche fangen dann auch schon die ersten Assignments an, welche Präsentationen, Tests, Case studies oder ein Paper seien können. Somit hat man nie wirklich den Kopf frei, hat jedoch auch nie die hohe Belastung, die schon einmal in Mannheim anfallen kann, wenn es auf das Ende des Semesters zugeht. Am Anfang war es etwas schwierig herauszufinden was die Professoren erwarten bei den jeweiligen Prüfungsformen, jedoch findet man dies schnell raus nach den ersten Abgaben und kann sich somit darauf einstellen. Die Schwierigkeit der Aufgaben variierte doch stark von Fach zu Fach, sodass ich es schwer finde eine generelle Aussage zu treffen. Was man sagen kann ist, dass die Finance Kurse etwas anspruchsvoller waren als meine anderen Kurse, was ich als schöne Balance empfand, um inhaltlich einiges mitzunehmen aber auch um noch genug Zeit zu haben, die anderen  Vorzüge eines Auslandssemester mitzunehmen. Vergleichen mit Mannheim war jedoch eigentlich alles gut schaffbar, nur der kontinuierliche Zeitaufwand, der nötig war, war am Anfang etwas gewöhnungsbedürftig. Etwas woran ich mich auch erst gewöhnen musste, war dass es keine wirkliche Mensa gab an der Uni und man somit keine feste Anlaufstelle hatte wo man essen konnte auf dem Campus. Zahlreiche Möglichkeiten sind zwar vorhanden an der Uni, aber diese sind meistens Fast Food Alternativen und auch nicht ganz billig.</t>
-  </si>
-  <si>
-    <t>Als Studenten im fünften Bachelor Semester wird man dem ersten Master Jahr des Programms Grande École zugeordnet, was ungefähr auf einem ähnlichen Niveau sein soll. Tatsächlich sind die Kurse jedoch etwas unter dem Niveau was man aus Mannheim gewöhnt ist. Man hat die Möglichkeit ein Major (20 ECTS) zu wählen, zwei Elective Kurse zu Beginn des Semesters (je 5 ECTS) und einen Sprachkurs (5 ECTS). Wählt man ein Major dann muss man alle Kurse dieses Majors besuchen, was meist 5 Kurse mit jeweils 4 ECTS sind. Die zwei Elective Kurse sind je eine Woche lang und werden zu Beginn des Semesters abgehalten. Die Modulnote setzt sich eigentlich immer zu 60% aus einer Klausur und zu 40% aus Gruppenarbeiten in Form von Präsentationen/Case Studies  zusammen. Die Klausuren sind in der Regel relativ gut zu bewältigen und erfordern nicht das Ausmaß an Vorbereitung was man aus Mannheim gewohnt ist. Die Gruppenarbeiten sind hingegen teilweise etwas frustrierend da man teilweise zufällig in Gruppen eingeteilt wird und die Motivation innerhalb der Gruppe sehr stark variiert. Für die wenigsten Austauschstudenten zählen die Noten im Auslandssemester und den meisten französischen Studenten scheinen die Noten auch relativ egal zu sein. Die Folge ist, dass man teilweise ein Großteil der Arbeit alleine machen muss und die eigene Note durch die fehlende Leistung der Gruppenmitglieder in Mitleidenschaft gezogen wird. Hier ist es definitiv empfehlenswert sich ,dort wo es möglich ist, eine gute Gruppe zu suchen. 
-Das Semester an der KEDGE ist in zwei Cycles unterteilt die jeweils ca. sechs Wochen lang sind. Die Module werden zwischen den Cycles aufgeteilt und am Ende mit einer kleinen Klausurphase abgeschlossen, was es relativ entspannt macht da nicht alle Klausuren auf ein Mal geschrieben werden müssen. Wichtig zu erwähnen ist, dass an der KEDGE eine strenge Anwesenheitspflicht gilt die meist per QR-Code in der Stunde überprüft wird. Man darf von insgesamt 8 Terminen pro Modul nur 2 Mal fehlen, fehlt man häufiger dann darf man die Klausur nicht mitschreiben. Die Kurse sind deutlich kleiner als in Mannheim und bedingt durch die reduzierte Größe auch etwas interaktiver gestaltet. Eine Veranstaltung ist immer drei Stunden lang. Was etwas verwirrend ist, dass der Stundenplan nicht gleich bleibt sondern sich wöchentlich verändert und dadurch teilweise sehr lange Tage (von 8:30 Uhr bis 19:30 Uhr) zustande kommen.
-Der Campus der KEDGE ist deutlich kleiner als der Campus der Uni Mannheim und auch nicht zugänglich für die Öffentlichkeit, es finden sogar Ausweis- und Taschenkontrollen am Einlass statt. Der Campus verfügt über eine Mensa und einen Kiosk bei dem es relativ günstigen Kaffee gibt. Das Essen was in der Mensa angeboten wird ist relativ teuer und qualitativ meistens auch eher durchwachsen, hier empfiehlt es sich eventuell Essen von daheim mitzunehmen. Es gibt eine Bibliothek die jedoch deutlich kleiner als in Mannheim ist und auch einen deutlich höheren Lärmpegel besitzt. Zum Lernen ist da ein leerer Kursraum besser, aber man muss auch Glück haben einen zu finden.</t>
-  </si>
-  <si>
-    <t>Das Kursangebot der Uni ist im Allgemeinen überschaubar, aber sehr interessant. Es finden sich hier Kurse aus den Bereichen Finance, Management, Marketing und Law. Das Semester war hierbei in 2 Hälften a 6 Wochen unterteilt. In jeder Hälfte musste man einen oder 2 Kurse belegen. Oftmals wurden die Kurse in Form von 2 Vorlesungen die Woche a 3 Stunden abgehalten. Manchmal gab es aber auch 4 Vorlesungen a 1,5 Stunden. Allgemein hat man jedoch etwas mehr Freizeit als in Mannheim, was förderlich für das Reisen ist. Zudem wird hier sehr viel Wert auf Gruppenarbeit, Teamwork und Mitarbeit gelegt, weniger auf einzelne Klausuren. Das Niveau befindet sich doch etwas unter dem Mannheimer Niveau, jedoch wird hier der Aufwand viel gleichmäßiger auf das Semester verteilt. Man muss von Vorlesung 1 an am Ball bleibe, jedoch bleibt einem die stressige Klausurenphase gegen Ende erspart._x005F_x000D_
-Die Anerkennung der Kurse an der Uni Mannheim gestaltet sich sehr unproblematisch, alle meine Kurse wurden als International Course anerkannt. Das Sprachniveau sollte für Mannheimer Studierende kein Problem darstellen. Viele Studierende hier machen ein Double-Degree oder sind ebenfalls im Auslandssemester, weshalb für viele Englisch keine Muttersprache ist. Deshalb befinden sich viele auf einem ähnlichen Level._x005F_x000D_
-Der Campus der Uni ist sowohl sehr schön, als auch groß. Es befinden sich hier zahlreiche Cafes, Restaurants und auch eine Bar. Eine eigentliche Mensa gibt es hier nicht, jedoch findet man hier immer was für einen bezahlbaren Preis.</t>
-  </si>
-  <si>
-    <t>Das Studium an der SDSU ist sehr gut machbar. Der Fokus in San Diego liegt definitiv auf der Freizeit. Es sind sehr gute Noten zu erzielen, auch wenn man nicht immer seine volle Leistung abruft. Von der Schwierigkeit ist es nicht mit Mannheim vergleichbar. Es sollte eigentlich keiner die Uni mit einem Schnitt schlechter als 1,5 verlassen._x005F_x000D_
-_x005F_x000D_
-Es fallen jedoch recht viele wöchentliche Quizzes und Assignments an. Dieses "verschulte" haben die meisten Unis im Ausland, und hat mir persönlich sehr gut zugesagt. Im Gegenzug ist die Klausurenphase sehr entspannt. Auch, da man in allen Fächern im Oktober Midterms schreiben wird._x005F_x000D_
-_x005F_x000D_
-Die Kurse sind durchweg sehr nahbar unterrichtet. Man wird als International genau gleich behandelt, wie alle anderen. Die "Integration" fällt sehr leicht. Bei Fragen jeder Art hat man sowohl aus Mannheim, als auch an der SDSU sofort einen Ansprechpartner. _x005F_x000D_
-_x005F_x000D_
-Der Weg an die SDSU ist mit dem Auto 20-30 Min. Nachmittags ist zur Uni immer absolute Hölle, weshalb ich von Nachmittagskursen absehen würde. Der ÖPNV ist praktisch nonexistent. Ein Mietwagen ist ein absolutes Muss, wenn ihr in Pacific Beach wohnt. Dieses solltet ihr euch mit 1-2 anderen Studenten teilen.</t>
-  </si>
-  <si>
-    <t>Vor Beginn des Studiums konnte man sich online für die präferierten Kurse einschreiben, nachdem diese von der Uni Mannheim genehmigt wurden. Das war relativ unproblematisch und ich bin in alle meine Präferenzen reingekommen. Sollte man jedoch in den ersten beiden Wochen noch wechseln wollen oder sich vor Ort erst entscheiden wollen, dann meldet euch für mehr als 30 Ects an und entscheidet euch vor Ort. Denn oft sind die einige Kurse dann schon voll.  _x005F_x000D_
-In 6 Kursen hatte ich nur eine Klausur, das ist aber sehr abhängig von euren gewählten Kursen. Management oder Marketing hat prinzipiell keine Klausuren, Finance, Programming, Accounting etc. aber schon. _x005F_x000D_
-Statt Klausuren gibt es dann Essays und gelegentlich Hausarbeiten oder Quizze. Da müsst ihr für euch entscheiden, welche Art von Prüfung für euch passt. Ich persönlich habe die Hausarbeiten (ca. 2000 Wörter) präferiert. Aber die Gruppenarbeiten waren bei mir und jedem den ich kenne eine absolute Katastrophe. Wenn ihr diese mit weiteren Mannheimern oder bzw. Deutschen machen könnt, würde ich das empfehlen. Da kann man einfach auf die Mitarbeit und Qualität zählen und muss nicht alles alleine machen, vor allem wenn man noch weitere Abgaben hat.</t>
-  </si>
-  <si>
-    <t>Die Aufnahme zu den Kursen erfolgte per E-Mail den jeweiligen Dozenten. Es gab keinerlei Probleme und ich wurde in alle meinen Wunschkursen aufgenommen. Der Unterschied zu Mannheim ist extrem groß. Alles ist sehr familiär, jeder lässt mit sich reden und die Studierenden haben immer einen guten Draht zu den Dozenten. Anfangs merkt man schnell, dass hier viele Deutsche als NC-Flüchtlinge, wie deutsche Psychologie-Studenten hier so liebevoll genannt werden, hergekommen sind. Dies wird von den Österreichern oft belächelt und stößt manchen auch unangenehm auf, aber niemand lässt sich das wirklich anmerken.
-Die Universität ist um die Studenten sehr bemüht. Es gibt sehr viele Angebote von der ÖH (Essen für alle!), der Plus oder auch der katholischen Hochschulgemeinde. Die Bibliothek ist im Vergleich zu Mannheim überschaubar, aber immerhin 24 h mithilfe des Studierendenausweis geöffnet. Sonst befindet sich auf dem Campus noch das Como, das Studenten-Café schlechthin. Wann auch immer man eine Freistunde hat, dort findet man immer jemanden, der gerade einen Kaffee oder einen weißen Spritzer trinkt. Nachdem somit die Koffein-Frage geklärt ist, bleibt die Frage, nach dem Essen. Rund um den Campus gibt es viele Restaurants, über einen Asiaten, einen Kebab, eine Pizzeria, eine Mensa (Preis-Leistung eher schlecht) und den Uniwirt (top!).
-Das Kursangebot und die klinische Ausrichtung der AAU waren für mich mit der Hauptgrund für die Entscheidung, mich dort zu bewerben. Es ist sehr vielfältig und ich konnte alle Veranstaltungen aus Mannheim adäquat ersetzen. Außerdem werden hier Fächer unterrichtet, die ich so nicht kannte: Tiefenpsychologie, Psychoanalyse, Neuropsychologie, Genderforschung, Friedensforschung, Gruppendynamik-Besonders zu  empfehlen ist die Teilnahme an einer Trainingsgruppe beziehungsweise alle Veranstaltungen im Fach Gruppendynamik. Ich möchte nicht zu viel verraten, aber dieses Seminar ist äußert lehrreich und schult soziale Kompetenzen, auch wenn es eine Woche in einem Hotel stattfindet und demnach mit einem Kostenbeitrag verbunden ist. Auch die klinischen Seminare und das klinisch-psychologische Anamnesegespräch, sowie das Seminar über Erlebnispädagogik (als pädagogisches Aufbaumodul) haben mir sehr gut gefallen. Generell waren alle Seminare mit höherem Arbeitsaufwand verbunden als in Mannheim, aber durchweg interessant und machbar. Um ein Seminar zu bestehen, musste meist zusätzlich zu einem Referat und durchgehender Anwesenheit eine Seminararbeit verfasst werden. Die Klausuren hingehen empfand ich einfacher als in Mannheim, was aber auch an der langen Vorbereitungszeit gelegen haben kann. Als Student an der AAU kann man zu jeder Klausur dreimal antreten und sich den passenden Termin frei wählen, was enorm viel Stress aus dem Studium nimmt und gleichzeitig Raum und Zeit für individuelles Interesse schafft. Insgesamt war ich sehr zufrieden mit der Lehre und habe genau die Praxisnähe (Fallbeispiele, Klinikausflüge) in den Seminaren gefunden, die ich in Mannheim vergebens gesucht habe. Der einzige Kritikpunkt ist, dass in Klagenfurt vorwiegend Gastdozenten angestellt sind. Das bedeutet für die Studenten, dass Veranstaltungen oft im Block angeboten werden und sich deswegen auch überschneiden können. Zudem führt dies dazu, dass man sehr freie und sehr volle Wochen hat. Aber selbst die vollen Wochen waren gut zu bewältigen, da die Dozenten den Studierenden oft entgegenkommen. Ich selbst hatte Glück mit den Terminen der Blöcke, sodass ich wirklich viel Freizeit genießen, aber auch alle Veranstaltungen ohne Probleme besuchen konnte. Als Austauschstudent wird grundsätzlich viel Rücksicht genommen und bei Problemen von den Dozenten auch aktiv immer eine Lösung gesucht.</t>
-  </si>
-  <si>
-    <t>Das Studium an der SMU unterscheidet sich stark von dem an der Uni Mannheim. Zunächst sind die Vorlesungen wie wir sie in Mannheim kennen, an der SMU als 3-stündige Blöcke gebündelt welche Übungen, Tutorien und Vorlesungen vereinen. Eine Anwesenheitspflicht besteht bei allen Blöcken und wird meist durch eine Unterschriftenliste überprüft. Außerdem besteht eine Unterrichtseinheit aus maximal 45 Personen, wovon 5 Plätze im Kurs für International Students reserviert sind. Das bedeutet, sollte der Kurs voll belegt sein, ihr immer mindestens 4 andere Internationals im selben Kurs habt.
-Von der Uni Mannheim aus sind 4 Module verpflichtend zu belegen, von denen 2 fachfremd sein können. 
-Um eure Module wählen zu können gibt es an der SMU das sog. Boss-Bidding-Verfahren welches ebenfalls über das Uniportal Oasis abläuft. Hierbei werden jedem Studenten ca. 4 Wochen vor Unibeginn 100 E-Dollar auf das Bidding Konto übertragen und ihr werdet auf die Kurse, die ihr belegen möchtet, E-Dollar bieten müssen. (Über die genauen Deadlines werdet ihr ausreichend früh per E-Mail benachrichtigt) Dabei ist zu beachten, dass beliebtere Kurse durchschnittlich einen höheren Preis erfordern als unbeliebtere. Das gesamte System verläuft nach dem Prinzip des Höchstbietenden bis alle der 45 Plätze belegt sind. Die Durchschnittspreise desselben Kurses können sich aber auch, je nachdem ob dieser öfter angeboten wird, zwischen verschiedenen Time Slots unterscheiden. Hierbei ist es manchmal sinnvoll auf einen etwas früheren Time Slot zu bieten, da dieser meist etwas billiger ist. Das Durchschnittsgebot, Höchstgebot und niedrigste Gebot aus dem letzten Jahr könnt ihr anhand einer Übersicht, die für jeden Kurs erstellt wird, auf Oasis einsehen (Sehr zu empfehlen um ein Gefühl für den zu bietenden Preis für den jeweiligen Kurs zu bekommen). 
-Solltet ihr erfolgreich für einen Kurs geboten haben, so wird die Menge, die ihr geboten habt von eurem Konto abgezogen. Wenn ihr jedoch zu wenig geboten habt und ihr nicht in den Kurs kommt, so werden euch die gebotenen Dollar zurück gegeben und ihr müsst in der nächsten Bidding Runde auf die verbleibenden Kurse und Plätze bieten. Es gibt insgesamt 4 Bidding Runden. Erfahrungsgemäß bekommt man in der ersten Runde 3 von 4 Module zugesprochen und muss dann in den verbleibenden Runden den letzten Kurs wählen. Klingt alles etwas kompliziert, aber kein Grund zur Panik: Das Verfahren wird nochmal im Detail durch mehrere E-Mails der Gastuniversität erläutert. Unbedingt zu beachten ist jedoch, dass alle Deadlines zur Ortszeit Singapurs angegeben sind! Da kann es schon mal vorkommen dass man sich einen Wecker auf 4Uhr morgens stellen muss, um sein Gebot online abgeben zu können. 
-Seid ihr schließlich in die Kurse aufgenommen, so erwartet euch eine wirklich tolle Unterrichtsart. Es wird viel Wert auf Interaktion zwischen Professoren und Studenten, aber auch unter Studenten selbst gelegt. In den allermeisten Fällen wird die Mitarbeit zu ca. 10-20 Prozent in die Endnote eingehen. Des Weiteren sind in fast jedem Kurs Projekte und kleinere Quizzes gängig. Dies nimmt den Druck der Endklausuren, die meist nur noch zu 30-40 Prozent in die Endnote eingehen, bedeutet jedoch relativ viel Arbeit unter dem Semester. Tipp: Da die Recess-Week oft für die Bearbeitung der großen Projekte genutzt wird, solltet ihr euren Gruppenmitgliedern deshalb möglichst früh Bescheid geben, wenn ihr in diesem Zeitraum reisen wollt. Meistens zeigen diese dafür großes Verständnis. 
-Ansonsten würde ich auch unbedingt erwähnen, dass eure Noten zählen. Dies erweckt ein besseres Image von euch, welches gerade in der Gruppenarbeit dazu beiträgt, dass die Locals euch anspruchsvollere Aufgaben zutrauen. 
-Um zwischen den Blöcken oder nach dem Uni-Tag etwas abzuschalten, bietet der Campus der SMU viele Möglichkeiten. Es wird ein kostenfreies Gym, sowie ein Schwimmbecken angeboten und man kann mehreren Initiativen und Sportclubs beitreten. Auf dem Campus gibt es außerdem einen eigenen Foodcourt und mehrere Grünflächen zum entspannten Sitzen mit Freunden.</t>
-  </si>
-  <si>
-    <t>Ich hatte allgemein nur zwei Vorlesungen besucht, welche jedoch Corona bedingt beide nur online stattgefunden haben. Jedoch habe ich sehr viel Zeit in der Bibliothek auf dem Campus verbracht, was ich euch wirklich sehr empfehlen kann! Man fühlt sich hier deutlich mehr als ein Teil der Studierenden und es herrscht eine sehr schöne Lernatmosphäre.</t>
-  </si>
-  <si>
-    <t>Die ESSEC Business School vermarket sich als Excellenzuni - ist faktisch aber sehr einfach. Insgesamt wird mehr Mitarbeit während des Semesters in Form von mündlichen Beiträgen sowie Präsentationen als in Mannheim gefordert- das ist alles aber sehr machbar. Die Anwesenheit wird strikt kontrolliert und man darf jeden Kurs nur einmal verpasssen - plant also am Besten das Reisen so, dass jeder Kurs nur einmal verpasst wird. Es gibt einen Dress Code, welcher allerdings nicht umgesetzt wurde (zu mindest in unserem Jahr). Da der Campus in Singapur klein ist, kommt man auch gut mit anderen StudentInnen in Kontakt und wir waren zum Teil sehr gut befreundet mit unseren Kommiltionen (größtenteils Franzosen).</t>
-  </si>
-  <si>
-    <t>Das Studium an der IE ist nicht mit dem in Mannheim zu vergleichen. Die Größe der Vorlesungen entspricht ungefähr der von Schulklassen, wodurch ein ganz anderes Lernumfeld geschaffen wird. Es ist vollkommen normal in einer Vorlesung auch mehrere Fragen zu stellen und die Professoren setzen auf mündliche Mitarbeit, es gibt bei den meisten sogar mündliche Noten. Wenn man etwas nicht verstanden hat sind die Professoren immer ansprechbar und setzen sich dann auch mal  in der Mittagspause mit einzelnen Studenten zusammen um Unklarheiten zu bereinigen. Es ist auch ganz normal die Professoren mit deren Vornamen anzusprechen und E-Mails direkt an sie zu schreiben bei allen Arten von Problemen. Es gibt auch keine Übungen und Tutorien wie wir sie in Mannheim gewohnt sind. Stattdessen werden Übungen in die Vorlesung integriert und wer darüber hinaus das Gefühl hat noch mehr Hilfe zu brauchen kann die freiwilligen Office-Hours besuchen in denen sich die Professoren individuell auf die Fragen und Bedürfnisse der einzelnen Studenten einlassen und auf der Basis nochmals einzelne Vorlesungsabschnitte erklären oder zusätzliche Übungsaufgaben besprechen.  _x005F_x000D_
-_x005F_x000D_
-An der IE sind alle Vorlesungen auf Englisch, was für mich sehr angenehm war, da mein Spanisch nicht auf einem Niveau ist dass es mir möglich wäre einer spanischen Vorlesung zu folgen. Vor und nach den Vorlesungen waren die Professoren aber offen sich auch auf Spanisch mit den Studenten zu unterhalten, je nachdem mit was die Studenten sich wohler fühlten. Das Englisch-Niveau der Professoren variiert sehr stark. Es gibt einige bei denen es sehr angenehm ist zuzuhören da sie entweder Muttersprachler sind oder aber das Englisch so gut ist, dass kaum ein Akzent zu hören ist. Es gibt allerdings leider auch die Ausnahmen bei denen es sprachlich bedingt sehr schwer ist den Ausführungen zu folgen.  _x005F_x000D_
-_x005F_x000D_
-Die Semesterzeiten an der IE entsprechen denen in Mannheim. Das Semester beginnt Anfang September und endet Mitte Dezember sodass man problemlos zu Weihnachten wieder daheim ist.  _x005F_x000D_
-_x005F_x000D_
-Mit der Mensa an der IE habe ich keine persönliche Erfahrung gemacht da es um den Campus herum viele kleine Restaurants gibt in denen man für den gleichen Preis und laut der lokalen Studenten besser essen kann als in der Mensa.</t>
-  </si>
-  <si>
-    <t>Das Kursangebot an der UofSC ist unglaublich vielfältig. Neben mannigfaltigen Business-Kursen gibt es ein riesiges Angebot an BWL-fachfremden Modulen, die von Golfen, über Sports-Media zu Hochzeitsplannung reichen. Für die Anerkennung der Kurse ist indes eine gewisse Wissenschaftlichkeit geboten, welche in vielen Fällen de facto fehlt. Da allerdings ein Extra-Kurs gegen eine marginale Gebühr (ca. $60) gewählt werden kann, ist bspw. ein weiterer Sportkurs gerade vor dem Hintergrund geringerer Arbeitsbelastung im Vergleich zu Mannheim dringend zu empfehlen. Die fünf Kurse, welche für das Erreichen der ECTS gewählt werden müssen, sind vom Arbeitsaufwand geringer und auch vom Niveau mit Mannheim nicht vergleichbar. Klar ist dennoch, dass der kontinuierliche Aufwand unter dem Semester bedeutend größer ist als in Mannheim, wo sich der Aufwand gewöhnlich in den Klausurenphasen kumuliert. Hier gleichen Vorlesungen eher dem Unterricht aus dem Gymnasium, d.h. es gibt regelmäßig Hausaufgaben, Präsentationen, Anwesenheitspflicht sowie mündliche Mitarbeit. Die mündliche Mitarbeit ist je nach Kursgröße entweder in Form von Hausaufgaben-Abgaben, oder aber tatsächlicher Partizipation zu leisten (Großer Kurs = geringe mündliche Partizipation und viele kleinere Abgaben; kleiner Kurs entsprechend vice versa). _x005F_x000D_
-_x005F_x000D_
-Die Prüfungen waren durch Corona alle online und bestanden aus Multiple Choice oder schriftlichen Klausuren. Das Format sowie die Prüfungsart war stark kursabhängig. _x005F_x000D_
-Bezüglich der Bibliotheken verfügt das 650 Lincoln über eigene Study-Rooms auf jeder Etage, welche ich am häufigsten genutzt habe. Des Weiteren gibt es in der Business-School Arbeitsplätz. Die Haupt-Bibliothek, Thomas Cooper Library, ist sehr groß und 5 Minuten von der Business School entfernt. _x005F_x000D_
-Hinsichtlich Mensa gibt es drei Möglichkeiten. Entweder wird selbst eingekauft und gekocht, was jedoch entsprechende Koch-Voraussetzungen bedarf (abhängig vom Housing). Außerdem kann ein Mealplan abgeschlossen werden, der je nach Anzahl an Gerichten die Woche eine ganze Stange Geld kostet (günstigster Plan startet bei $800, mit etwa 5 Meals die Woche). Zuletzt kann auch mit Kreditkarte in jedem Restaurant auf dem Campus bezahlt werden, wobei sich die Kosten pro Gericht mit Kreditkarte auf etwa $11 Dollar belaufen. _x005F_x000D_
-Die generelle Restaurantsituation ist vielseitig, wobei das Essen in den Restaurants mehrheitlich all-you-can-eat oder fast-food lastig ist. Es gibt einige wenige gesunde Alternativen.</t>
-  </si>
-  <si>
-    <t>Das Studiensystem an der Universität Rotterdam und generell in die Niederlande, ist sehr anders. Das komplette Psychologie Studium an der Uni wird mit der Arbeitsmethode PBL (Problem-based-learning) gelehrt. Um es simple zu erklären: in 5 Wochen hat man einen einzigen Kurs. Jede Woche beschäftigt man sich mit einem Thema des Kurses (z.B. in A&amp;O Psychologie eine Woche Leadership, eine Woche Emotions at work). In Jeder Woche hat man eine Vorlesung (diese behandelt das Thema grob, manchmal gibt es auch einen Gastvortrag) und ein PBL-Group-Meeting, welches 3 Stunden dauert. Die restliche Zeit der Woche soll man selbstständig arbeiten. Man erhält eine Liste an Artikel, welche man lesen soll und dazu spezifische Learning-Goals beantworten soll. Was man sich in dieser Zeit erarbeitet, wird dann in dem PBL-Meeting besprochen/diskutiert. Im Internet findet man noch mehr zu PBL. Ich würde mich vorab darüber informieren, um zu sehen, ob diese Lehrmethode einen anspricht. Vor der ganzen selbstständigen Arbeit sollte man sich jedoch nicht eingeschüchtert fühlen! In der Tat ist es viel zu lesen, aber es sind normale Artikel oder Buchkapitel. Ich empfehle, jeden Artikel zusammenzufassen und anschließend zu markieren, was für ein Learning-goal relevant ist. Die Artikel an sich, sowie der Inhalt der Vorlesung bilden nämlich dann die Grundlage der Prüfung, welche man am Ende der fünf Wochen schreibt. Vor Beginn des Studiums wurde ich oft darüber informiert, dass es schwer ist, gute Noten zu schreiben. Ich weiß nicht ob es spezifisch an meiner Kurswahl lag, aber ich kann es das nicht bestätigen. Ich habe ein wenig mehr Arbeitsaufwand als in Mannheim betrieben, da die niederländischen Universitäten den Arbeitsaufwand bezüglich der ECTS-Zahl sehr genau nehmen und habe keine schlechteren Noten geschrieben. _x005F_x000D_
-Der Studiengang der Psychologie ist, da es keine NC-Beschränkung gibt, ein Studiengang, den sehr viele studieren und nichts Besonderes ist. Ich empfand das als sehr angenehm. Jedoch hatte ich teilweise das Gefühl, dass meine Kommiliton*innen etwas unmotiviert waren. _x005F_x000D_
-Der Campus der Universität ist sehr groß und ich empfehle zur ersten Veranstaltung genügend Zeit mitzunehmen, um den richtigen Raum zu finden. Es gibt in jedem Gebäude Arbeitsbereiche und es gibt eine große Bibliothek. Da es an der Universität über 20.000 Studierende gibt, sind diese oft voll, aber wer vor 10 Uhr in die Bibliothek kommt, findet eigentlich immer einen Platz. Es lohnt sich alle Gebäude zu erkunden, da man immer wieder neue Bereiche zum Lernen und Arbeiten finden kann. Ich kann die Arbeitsbereiche im Polak-Building empfehlen, diese sind am neusten und sehr modern. _x005F_x000D_
-Die Mensa der Universität ist sehr klein und anscheinend auch sehr unbekannt. Das Angebot in der Mensa ist relativ klein. Sonst bietet die Universität noch einen Food-Plaza mit verschiedenen Angeboten an, diese sind größtenteils jedoch sehr teuer, weswegen ich oft mein Essen von zuhause mitgenommen habe. _x005F_x000D_
-Da die Universität sehr international ist, ist so gut wie alles zusätzlich auf englisch ausgeschildert und so gut wie jeder, auch außerhalb der Universität, spricht einwandfrei englisch. Zu Beginn hatte ich große Unsicherheiten bezüglich meines Englisch-Niveaus, ich kann jedoch versichern, man muss sich nicht vor einem Studium auf englisch fürchten. Auch mündliche Mitarbeit in der Uni, oder die Prüfungen. Es ist nicht schlimm, dass man nicht perfekt englisch spricht.</t>
-  </si>
-  <si>
-    <t>Das Studium in Schweden unterscheidet sich zu Deutschland darin, dass es pro Semester vier Kurse à fünf Wochen gibt und man oftmals am Ende eine Klausur oder ein Assignment über mehrere Tage schreibt. Im Vergleich zu Mannheim ist es in Örebro einfacher und weniger anspruchsvoll aber auch teilweise schlechter organisiert und chaotisch, oftmals wegen der Dozenten. Auch ist der Workload eher geringer während des Kurses, da viel weniger Vorlesungen oder Seminare stattfinden, wir hatten teilweise 10 Tage am Stück keine Veranstaltung. Es wird jedoch ein großer Fokus auf Selbststudium gelegt, da man oftmals ein Begleitbuch zu den Vorlesungen hat von etwa 700 Seiten, das man selbstständig durcharbeiten muss. Fangt also am besten früh genug an die Bücher oder Paper durchzulesen. Es gibt in fast jedem Kurs Gruppenarbeiten mit anderen Austauschstudenten und Schweden. Das kann teilweise viel Spaß machen aber auch sehr anstrengend sein, je nach dem wer mit einem in der Gruppe ist. Man wird auch merken, dass nicht jeder diese Gruppenarbeiten so ernst nimmt und auch die Sprach- und Wissenskenntnisse sehr unterschiedlich sind. Ansonsten hat man im Vergleich zu Mannheim auf jeden Fall mehr Freizeit und weniger Stress, dennoch sollte man die Kurse nicht ganz vernachlässigen. Eine sehr gute bis gute Note zu bekommen, ist dort auf jeden Fall gut machbar.</t>
-  </si>
-  <si>
-    <t>Das Kursangebot für Jurastudenten ist in Liverpool sehr vielfältig. Teilweise ist zu beachten, dass einige Kurse als Voraussetzung den vorherigen Abschluss eines anderen Kurses haben. Mit dem Ausblick auf das Staatsexamen sind nur Kurse im Öffentlichen Recht und Strafrecht in Mannheim anrechenbar. Ich habe daher Public Law I und II und Criminal Law belegt. Damit die Anrechnung hier auch funktioniert, muss man sich die belegten Kurse zuvor in Mannheim genehmigen lassen.
-In der Regel dauern die Vorlesungen eine Stunde, es gibt aber auch Doppelstunden. Die Größe der Vorlesung ist abhängig vom Kurs. Gerade in den Kursen für das erste Jahr sind die Vorlesungen noch recht groß. Dadurch, dass man sich ab dem zweiten Jahr aber spezialisieren kann, sind die Vorlesungen gerade für das dritte Jahr meist kleiner. Zusätzlich zu den Vorlesungen finden alle zwei Wochen noch Seminare statt, die in der Regel vorbereitet werden müssen. Die Seminare habe ich als sehr interaktiv empfunden, aber das ist wohl abhängig vom Seminarleiter. Während die Vorlesungen aufgezeichnet werden und jederzeit abrufbar sind, ist es unbedingt ratsam zu den Seminaren zu gehen, weil man hier auf die Hausarbeiten und Klausuren vorbereitet wird. Mein Eindruck ist auch, dass der Kontakt zwischen dem Lehrpersonal und den Studenten enger ist. 
-Ende des Semesters stehen dann die Hausarbeiten bzw. Prüfungen an, wobei es in manchen Kursen auch Mid-Terms gibt. Die Klausuren dauern etwa 2 Stunden und es gibt eine Auswahl an Fragen, von denen man nicht alle beantworten muss. Hierbei gibt es in der Regel sowohl Essay-Fragen, als auch Problem-Fragen (Fallbearbeitung, wie in Deutschland). Auch in Hausarbeiten können beide Frageformen vorkommen. Meiner Erfahrung nach wird deutlich mehr Wert auf gute Argumentation gelegt, als in Deutschland. 
-Das Niveau der Kurse ist vergleichbar mit Deutschland. Ich hatte allerdings den Eindruck, dass man mehr lesen muss, als in Deutschland. Sprachlich bin ich weder in den Klausuren noch in den Kursen an meine Grenzen gestoßen. Allerdings muss man sich bewusst sein, dass die Sprache das wichtigste Instrument im Jurastudium ist, das gilt genauso für England. Wer die Sprachanforderungen für den Austausch erfüllt, sollte aber keine Probleme haben. 
-Die University of Liverpool ist eine Campus-Uni und alles ist recht zentral gelegen. In der Mitte gibt es die Student Guild, sozusagen das Studentenwerk. Im Gebäude der Student Guild befindet sich die Mensa, die allerdings nur aus einer ziemlich guten Burrito- und Salatbar besteht. Außerdem gibt es mit dem Sphinx einen Pub der auch gutes Essen anbietet. In der Mensa und dem Pub werden häufig Fußballspiele oder andere Sportevents gezeigt. Ein besonderer Tipp ist, dass ein Pint Freitags nur 1,60 Pfund kostet. Im Bereich der Student Guild gibt es mehrere Kaffeeketten und einen Buch-/Schreibwarenladen. Auch Supermärkte befinden sich direkt am Campus. 
-Es gibt zwei große Bibliotheken, die 24 Stunden geöffnet haben. In den Klausurenphasen kann der Andrang dennoch sehr groß sein, was wir aus Mannheim aber ja kennen. Die Bibliotheken sind sehr gut ausgestattet. Es gibt unzählige PC-Arbeitsplätze und sogar Laptops zum ausleihen. 
-Ebenfalls auf dem Campus steht das Sport- und Fitnesszentrum der Uni. Hier  finden die Hallensportarten statt. Es gibt ein Schwimmbad und das Fitnessstudio ist hier untergebracht. Zu Letzterem: Es ist vergleichsweise teuer, etwa so groß wie das D2 bei mehr Studenten und vergleichsweise schlechter ausgestattet. Es gibt Alternativen im Stadtzentrum, das zu Fuß erreichbar ist.  
-In der Einführungswoche gibt es die Welcome Fair, was in etwa wie der Mannheimer Initiativen Markt ist. Ich kann nur empfehlen dort hinzugehen. Es gibt unglaublich viele Societies mit absolut unterschiedlichen Inhalten. Hier stellen sich auch die Sport Societies vor. Sport spielt insgesamt eine viel größere Rolle an englischen Universitäten als in Deutschland. Die meisten Sportarten sind in einer Liga organisiert und es wird gegen andere Universitäten gespielt. An Sportarten gibt es von  Fußball, über Rugby, bis hin zu Tontaubenschießen, Bogenschießen und Quidditch alles, was man sich vorstellen kann. In der Regel lässt sich jeder Sport auch auf jedem Leistungsniveau betreiben, da es meistens mehrere Mannschaften gibt. Ich persönliche habe Handball und Rugby League gespielt. Die integrative Funktion der Sportteams ist nicht zu unterschätzen. Gerade hier  bietet sich eine einfache Möglichkeit in Kontakt mit englischen Studenten zu kommen. Die Initiations und wöchentliche Socials lassen das Team dabei sehr zusammenwachsen.  Die Partys der Athletic Union sind dabei ein Muss! Gegen Ende des Sommersemesters finden Varsity und der Christie Cup statt. Varsity  wird gegen die rivalisierenden Liverpool John Moores University ausgetragen. Der Christie Cup wird seit 132 Jahren unter der UoL, der University of Manchester und der University of Leeds austragen und ist nach den Oxford-Cambridge-Duellen der traditionsreichste Sportwettkampf in England. Selbst, wenn der Aufenthalt nur für ein Semester ist, lohnt es sich auf jeden Fall einem Sportteam beizutreten.</t>
-  </si>
-  <si>
-    <t>Obwohl ich keinen Bachelor of Education studiere kam ich an der Faculty of Education unter und konnte dies anschließend auch nicht mehr ändern, da die Philosophische Fakultät der Uni Mannheim nur mit der Faculty of Education Verträge bezüglich des Studentenaustausches geschlossen hat. Da man darüber hinaus mindestens 51% seiner Kurse an der Faculty of Education belegen muss und alle anderen Fakultäten bereits 1-2 Wochen früher beginnen und somit deren Kurse in der Regel sehr schnell belegt sind ist man überwiegend an das dortige Lehrprogramm gebunden, auch wenn man gerne etwas anderes belegt hätte. Auch früher kommen bringt nichts, da man erst mit der Einführungsveranstaltung seine SiS-Daten zum Einloggen und Belegen der Kurse erhält, selbst wenn man bereits eine Woche früher physisch im Büro der Studienberaterin präsent ist. Jedoch kann man den Dozenten der anderen Fakultäten eine Mail schreiben oder noch besser einfach zur ersten Sitzung der Kurses erscheinen, in der Regel drücken die Kursleiter dann ein Auge zu und lassen einen trotzdem teilnehmen.
-Das Niveau der Veranstaltungen an der Faculty of Education ist in Ordnung, wird aber mitunter von den Dozenten nicht allzu ernst genommen. Generell kann ich empfehlen, auch ein paar Masterkurse oder Kurse an der Faculty of Social Science zu belegen, da dort das Niveau deutlich anspruchsvoller ist und man sich eventuell sogar etwas in Mannheim anrechnen lassen kann. Auch der Tschechisch-Kurs an der Faculty of Education ist sehr liebevoll gestaltet und man lernt recht schnell ein bisschen fundamentales Tschechisch, was in Prag nicht schaden kann.
-Das Sportprogramm der Karlsuniversität ist sehr unübersichtlich und etwas seltsam gestaltet, da jede Fakultät ihr eigenes Sportprogramm publiziert und dabei den Studenten der jeweiligen Fakultät absolutes Vorrecht bezüglich der Belegung einräumt. Da die Sportprogramme auch erst nach ein paar Wochen veröffentlicht wurden und die Faculty of Education ein recht kleines Angebot hat, empfiehlt es sich auch hier verschiedene Kursleiter anzuschreiben oder einfach vor Ort aufzuschlagen. So konnte ich nach einigen Wochen immerhin einen Platz im Gym-Kurs der philosophischen Fakultät sowie einen Platz im Fußball-Kurs der 2. Medizinischen Fakultät ergattern. Oft sind diese Kurse sogar mit ECTS-Punkten belegbar, jedoch hat man höhere Chancen teilnehmen zu dürfen, wenn man einfach nur flexibel und aus Spaß den Kurs komplementieren möchte.</t>
-  </si>
-  <si>
-    <t>Die meisten Kurse an der FEN haben Anwesenheitspflicht. Teilweise geht die prozentuale Anwesenheit direkt in die Note ein oder man muss mindestens 80% der Zeit anwesend sein, um den Kurs zu bestehen. Die meisten Kurse haben Unterricht am Montag und Mittwoch oder Dienstag und Donnerstag. Dazu kommen meist noch TA-Sessions am Freitag. Diese sind vergleichbar mit Tutorien in Mannheim und haben teilweise Anwesenheitspflicht. Ich habe meine Kurse so gewählt, dass ich Dienstag und Donnerstag einen langen Tag von 8:00  16:50 Uhr hatte. Dafür hatte ich den Rest der Woche größtenteils frei mit nur einem Kurs am Mittwoch und einer TA-Session am Montag-Abend. Das hat mir viel Zeit für Freizeit und Wochenendtrips gegeben. Die Finalen Noten setzen sich meist aus einer Kombination von Midterm, Final, Präsentationen, Essays und Gruppenarbeiten zusammen. In der ersten Woche kann man einmal seine Kurswahl ändern, bzw. Kurse dazu- oder abwählen. Es lohnt sich, dort einmal mehrere Kurse zu besuchen, die einen interessieren und am Ende der Woche seine Kurswahl nochmal zu ändern.  Auf dem Campus gibt es verschiedene Möglichkeiten für das Mittagessen. Es gibt einen Food-truck, der Fast-food Optionen anbietet. Im Café werden kleinere Snacks verkauft und die Mensa bietet Mittagessen an. Ich habe mir meist selbst mein Essen mitgebracht und in einer der Mikrowellen aufgewärmt.</t>
-  </si>
-  <si>
-    <t>Die Universidad de Deusto ist eine anerkannte Privatuni und liegt sehr zentral in Bilbao, direkt gegenüber von dem berühmten Guggenheim Museum. Von außen und von innen sieht man eindeutig, dass es eine Privatuni ist, sie ist fast schöner als das Schloss Mannheim. In den ersten Tagen vor Ort wird der finale Stundenplan erstellt, was bei mir kein Problem war, bei anderen Austauschstudierenden überschnitten sich jedoch ein paar Kurse, weshalb noch gewechselt werden musste. Das Studium an sich ist sehr anders als in Mannheim. Meine Kurse waren alle wie Klassen organisiert, also eher wenig Studierende, mit Anwesenheitspflicht und Mitarbeitsbewertung. Außerdem ist der Aufwand während dem Semester nicht zu unterschätzen, da es viele Abgaben gibt und auch Mid-Term-Exams. Der Vorteil daran ist jedoch, dass dann die Klausuren am Ende des Semesters weniger zählen. Was mich etwas gestört hat, war, dass es keinen genauen Plan zu Beginn des Semesters gab. Das heißt, dass es passieren konnte, dass nächste Woche eine Klausur geschrieben wird, man aber das Wochenende schon mit Ausflügen verplant hat. Alles in Allem bin ich dennoch sehr zufrieden mit dem Studium dort. Die Semesterzeiten sind ähnlich wie in Mannheim, mein Semester hat Anfang Februar begonnen und ging bis Ende Mai, dann zwei Wochen Klausurenphase.</t>
-  </si>
-  <si>
-    <t>Das Studium ist deutlich interaktiver als in Mannheim und es ist Anwesenheitspflicht, was in den Zoomklassen sehr nervig war, da ich gerade Vorlesungen lieber alleine in doppelter Geschwindogkeit höre. Dafür hat man nur Vorlesungen und keine Tutorien oder Übungen, also generell viel weniger Uni. Die Sogang ist sehr verschult und man hat viele Abgaben, wie Essays, Gruppenarbeiten, Papers und andere Projekte, wodurch es aber au h Webster ich leichter ist die Note zu verbessern. Auch die Midterms erleichtern das, obwohl man natürlich unter dem Semester viel mehr zu tun hat, aber es sich eben einfacher aufteilen kann.</t>
-  </si>
-  <si>
-    <t>Das Studium ist deutlich weniger anspruchsvoll als das Studium in Mannheim. Die meisten Prüfungen finden in Gruppenarbeiten statt, daher ist es wichtig schnell Anschluss zu den anderen Studierenden zu schließen, um eine Gruppe zu finden. Da die Vorlesungen quasi in einem Klassenformat stattfinden, kann man schnell andere Leute kennen lernen.</t>
-  </si>
-  <si>
-    <t>Das Studieren an der NUS ist definitiv aufwendiger als mein Studium in Mannheim. Das ist, wegen zahlreicher Abgaben, Gruppen-Projekten und Hausaufgaben unterhalb des Semesters und der Tatsache, dass Mitarbeitsnoten in Tutorien teilweise zu 20% in die Note eingehen und man nur gut abschneiden kann, wenn man sich jede einzelne Sitzung beteiligt und die Texte dafür meistens gelesen haben muss. Man hat also nie wirklich frei, am Ende aber trotzdem eine Klausurenphase für die man lernen muss, auch wenn zumindest der Druck nicht ganz so hoch ist, weil man seine 60-70% der Gesamtnote schon erarbeitet hat und z.B. schon wissen könnte, dass man gar nicht mehr durchfallen kann. Sonst ist es meistens üblich, als Austauschstudent einen Stundenplan kreieren zu können, der einem 1-2 freie Tage die Woche erlaubt, wenn man nicht mehr als 4 Kurse belegen möchte. Jeder Kurs in Singapur hat ein Tutorium, für das ebenfalls Anwesenheitspflicht besteht, sodass 4 Kurse z.B. 8 Termine pro Woche bedeuten. Mir waren 4 Kurse zu viel, sodass ich einen auf Hör-Status gesetzt habe, sodass ich nur für 3 Kurse alle benoteten Abgaben und Klausuren mitgeschrieben habe. Sprachkurse habe ich leider keine belegt, ich habe aber gehört, dass diese sehr zeitintensiv aber auch effektiv sind.</t>
-  </si>
-  <si>
-    <t>Uni ist in Kanada anders als in Deutschland. Der Workload während des Semesters ist sehr hoch. Man hat durchgehend Deadlines für Hausarbeiten, es gibt mindestens einen Midterm exam pro Kurs und normalerweise auch ein Final exam (das kann ein Exam oder eine Hausarbeit oder eine Gruppenarbeit sein). Das Bewertungsniveau ist niedriger als in Mannheim, allerdings hat man auch so einen hohen Workload, dass man nicht genügend Zeit hätte um sich wie in Mannheim vorzubereiten. Ich hatte 5 Kurse, was relativ viel ist. Wenn möglich würde ich empfehlen 4 Kurse zu belegen, was um einiges entspannter ist als 5 Kurse und so mehr Zeit zum Reisen gibt. Ich habe 2 Kurse für mein Soziologie-Nebenfach belegt und 3 Kurse für mein Päda- und mein Klinisches Aufbaumodul. Theoretisch sind die Kurse mit Levels nach Schwierigkeit geordnet. Ich hatte 300er und 400er Kurse für meine Psychologiekurse und 200er Kurse für meine Soziologiekurse belegt. Ich habe allerdings gelernt, dass diese Levels nicht viel über Schwierigkeitsgrad aussagen, der ist mehr von dem Prof abhängig. So kann es sein, dass zwei Kurse mit gleicher Nummer und Beschreibung aber unterschiedlichen Profs unterschiedlich schwierig sind. Für die meisten Kurse muss man Lehrbücher lesen und kaufen, was meist ziemlich teuer ist. In der Bibliothek kann man sich zwar Exemplare ausleihen, aber meistens wird nur ein Exemplar bereitgestellt. Die Kurse finden je nach Fachbereich entweder Downtown oder am Loyola Campus statt. Zwischen den beiden Campi fahren regelmäßig kostenlose Shuttlebusse hin und her. Kurse können den ganzen Tag stattfinden. Einige fangen schon um 7.15 Uhr an und manche enden erst um 23.00 Uhr. Die meisten Kurse dauern 2h 45 min oder finden zweimal in der Woche statt für jeweils 1h 15min. Was mir am Studium in Kanada gut gefallen hat ist, dass alle Professoren Sprechstunden haben, in denen man Fragen stellen kann, wenn man Hilfe bei einer Hausarbeit oder einer Klausur braucht. Alle helfen wirklich gerne. Sprachkurse habe ich dort nicht belegt, es gibt aber die Möglichkeit Französisch an der Uni zu belegen. Der Kurs hat 6 Credits und kostet 600CAD. An der Uni findet man viele Essensmöglichkeiten, aber etwas vergleichbares mit Mensa habe ich nicht wirklich gefunden. Es gibt aber an beiden Campi die Möglichkeit kostenlos zu Mittag zu essen. Am Downtown Campus findet man das in der Peoples Potato (vegan), am Loyola Campus im Hive (vegetarisch). Die Portionen sind nicht riesig, aber es schmeckt meistens sehr gut. Zur Not findet man in Kanada an jeder Ecke einen Tim Hortons (eine Art kanadischer Starbucks), wo man günstig Kaffee, Donuts und Bagels kaufen kann.</t>
-  </si>
-  <si>
-    <t>Das Studium ist typisch amerikanisch und komplett Gegensätzlich zum Studium in Mannheim. Die Vorlesungen sind mehr im Unterrichtsformat und oft zählt Anwesenheit und mündliche Mitarbeit in die Note. Der Unterricht besteht meistens nur aus 7-20 anderen Studierenden. Zur Note zählt nicht nur die Final Klausur sondern Mitarbeit, wöchentliche Quizzes, Präsentationen, Hausaufgaben, Essays, Assignments und meist drei Midterm Klausuren. Man hat zwar während des Semesters immer etwas zu tun und muss am Ball bleiben, aber solange man das nicht schleifen lässt, ist das Niveau deutlich einfacher als in Mannheim. Um den J1-Visums Anforderungen zu entsprechen, darf man nur einen von fünf Kursen Online haben. Ich würde aber generell empfehlen alle 5 Kurse in Präsenz zu wählen.</t>
-  </si>
-  <si>
-    <t>Die Universidade liegt ca. 40-50 Minuten entfernt von der Stadt. Sie liegt auf einem Berg, fährt man mit dem Bus (U1, U2) dann dauert es mind. 30 Minuten von der Stadt aus. Wenn man andere Bus Linien nimmt, dann sogar 45-60 min. Gerade morgens vor 9 Uhr ist sehr viel Verkehr, weshalb man zu diesen Zeiten viel Zeit einplanen sollte. Die Fahrt ist zwar lang, jedoch hat man einen unbeschreiblichen Ausblick auf die gesamte Stadt und auf das tiefblaue, in der Sonne glitzernde Meer. Je näher man der Universität kommt, desto ruhiger und schöner wird es. Oben angekommen ist es sehr idyllisch. Es gibt mehr als 21 000 Studierende, aber davon bekommt man wenig mit, da die Campusse sehr verteilt sind. Selbst das Wetter ist oben auf dem Universitätsgelände anders als in der Stadt. Da ich einen betriebswirtschaftlichen Schwerpunkt auch im Ausland belegen musste, war ich überwiegen an der Facultad de CC. Económicas y Empresariales. Diese ist direkt mit den Bussen zu erreichen und liegt sehr zentral. An der Universidade de Vigo herrscht in den meisten Modulen Anwesenheitspflicht. Man muss mind. 80% der Zeit in den Vorlesungen/Übungen anwesend sein und dies wird auch kontrolliert. Es gibt jedoch keine Tutorien. Wenn man mehrmals fehlt, dann kommt es zu Abzügen in der Bewertung. Die Kurse sind im Vergleich zu Mannheim aber sehr klein. Da ich englische Kurse besucht habe, waren die meisten Studierenden aus dem Ausland und wenige spanische Studierenden. Die kleinen Gruppengrößen ermöglichen jedoch eine schöne Atmosphäre. Eine Vorlesung in Spanien dauert jedoch meistens 310 min (2h + ½ h). Dies ist natürlich sehr lang und anstrengend. Die Facultad de CC. Económicas y Empresariales besitzt eine eigene kleinere Mensa, und liegt sehr nah an der großen Hauptmensa der Universidade. Die Gerichte in der Hauptmensa sind preislich nicht günstig, jedoch gibt es eine große Auswahl und es sind sehr große Portionen. 
-Für alle Kurse muss man während des Semesters viel machen. Es gibt in einigen Fächern Midterms und Präsentationen, die vor der Klausurenphase gehalten werden müssen. Jedoch hat man genügend Zeit für Freizeitaktivitäten, da eher die Quantität in manchen Wochen viel war. 
-An der Universität endet die Vorlesungszeit Mitte Dezember. Die Klausuren werden im Dezember und im Januar geschrieben. Ich konnte alle meine Klausuren im Dezember schreiben, sodass ich im Januar keine mehr schreiben musste. Da einige Klausuren auch im Januar geschrieben werden, gibt es die Möglichkeit mit dem Professor zu sprechen und diese sind sehr entgegenkommend und ermöglichen einem die Klausuren auch im Dezember zu schreiben.</t>
-  </si>
-  <si>
-    <t>Die Kursauswahl ist auf dem Masterlevel nicht besonders groß. Man kann aus Kursen aus den Bereichen International Business, Marketing und Human Resources wählen. Aus diesem Grund ist es schwierig, genug passende Kurse zu finden, die in Mannheim anerkannt werden. Ein volles Semester mit 30 ECTS war in meinem Semester nicht möglich, sodass sich das Auslandssemester studiumsverlängernd auswirkt. Man hat pro Kurs eine Vorlesung (á 2 Stunden) und ein Seminar (á 1 Stunde) pro Woche, ähnlich zu dem System in Mannheim. Die Seminare sind allerdings anders aufgebaut, da viel in Gruppenarbeit vorbereitet und einige Präsentationen gehalten werden müssen, die aber meistens unbenotet sind. Es herrscht Anwesenheitspflicht, die in jeder Veranstaltung kontrolliert wird. Außerdem hat man viel zu lesen, vor allem wissenschaftliche Artikel und teilweise Bücherkapitel. Die notwendigen Bücher sind meistens in den Bibliotheken der University of Leeds zu finden, wissenschaftliche Artikel werden von den Professoren bereitgestellt. In jedem Kurs musste ich eine Abschlussklausur im Januar schreiben, manche Kurse haben auch eine Midterm-Klausur. Jede Prüfung war ähnlich aufgebaut: Man hat 3 Stunden Zeit um 3 Essays zu vorgegebenen Fragestellungen zu schreiben.
-Das Niveau mit Mannheim zu vergleichen ist schwierig, da andere Schwerpunkte gesetzt werden. Insgesamt muss man einen ähnlich großen Aufwand betreiben.
-Das Semester umfasst 11 Vorlesungswochen und geht von Ende September bis Mitte Dezember. Über Weihnachten hat man dann frei und kann sich auf die Klausuren vorzubereiten, die Mitte Januar stattfinden.
-Auf dem Campus gibt es viele Cafés, Bars und Clubs. Die Mensa ist viel teurer als in Mannheim, weshalb ich dort nicht essen war. Es gibt aber trotzdem Fast-Food und andere Restaurants in unmittelbarer Nähe zum Campus.</t>
-  </si>
-  <si>
-    <t>Die Kursauswahl an der University of Exeter ist groß und bietet bezüglich Anglistik besonders viele Literaturkurse. Die Kurswahl wird schon vor der Ankunft in Exeter getroffen, allerdings war es bei mir nötig während der Fresher's Week noch einige Änderungen vorzunehmen. Dies ist aber kein Problem und kann alles unkompliziert mit den dort zuständigen Auslandskoordinatoren abgesprochen werden. Außerdem ist es auch empfehlenswert, sich die Credit-rated modules des INTO-Centers anzusehen. Diese Kurse, bei denen es sich um Sprachkurse handelt (entweder Reading &amp; Writing oder Listening &amp; Speaking) können wie alle anderen ebenso angerechnet werden, da man dafür ECTS-Punkte erhält. Zu den anderen Kursen lässt sich sagen, dass sie in der Regel sehr zeitaufwändig sind. Zwar sah auch mein Stundenplan auf den ersten Blick recht leer aus, allerdings wird in Exeter großer Wert auf selbstständige Arbeit gelegt und so muss außerhalb der Uni viel vor- bzw. nachbereitet werden. Für viele Kurse werden im Laufe des Semesters verschiedene Leistungen wie Essays oder Präsentationen erwartet. So verteilt sich der Arbeitsaufwand gleichmäßig auf das Semester. Zudem die Vorlesungen und Seminare spannend gestaltet und auch die Dozent/-innen sind sehr freundlich und haben stets ein offenes Ohr bei möglichen Problemen oder Schwierigkeiten.</t>
-  </si>
-  <si>
-    <t>Studium
-Das Semester begann für unsere Kohorte recht früh gegen Ende Juli. Es ist an der FGV EBAPE in zwei Teile geteilt, in denen jeweils verschiedene Kurse belegt werden können. Außerdem kann man bis zu zwei Kurse an der ökonomischen, juristischen oder sozialwissenschaftlichen Fakultät der FGV besuchen, die jedoch leicht unterschiedlich organisiert sind und zum Teil andere Semesterzeiten haben. Daher belegte ich letztlich nur Kurse der FGV EBAPE, die ich hier kurz beschreibe. Die ersten vier waren als Kurse des IBEA-Programms für mich verpflichtend und standen gewöhnlichen Austauschstudierenden nicht offen. Darüber hinaus durfte ich mindestens vier, höchstens jedoch sechs weitere Kurse wählen. Die Auswahl englischsprachiger Kurse ist aufgrund der Größe der FGV EBAPE recht gering. Ich empfehle jedoch im ersten Halbsemester bereits so viele Kurse wie möglich zu belegen, um im zweiten Halbsemester bei der Planung von Reisen ein wenig freier zu sein. Im Herbst-/Wintersemester liegt der zweite Teil zudem im südamerikanischen Sommer. Die Kurse, die ich an der EBAPE belegte, sind weiter unten beschrieben.
-Das Studium an der FGV unterscheidet sich insgesamt stark von einer öffentlichen Universität in Deutschland, in denen in großen Kursen meist frontal Inhalte wiedergegeben werden. In den meist nicht mehr als 20 Studierende umfassenden Kursen an der FGV war das Verhältnis zu den Professoren deutlich persönlicher und die Lehrmethode interaktiver. Zudem wurde häufig nach Interessen gefragt, damit diese in den Kursinhalten berücksichtigt werden konnten; daher ist auch zu empfehlen, sich vorher zu den Erwartungen an den jeweiligen Kurs Gedanken zu machen und eigene Lernziele und Interessen zu formulieren.
-Mathematik- und theorielastige Grundlagenfächer werden im Curriculum der FGV in den ersten Bachelorsemestern auf Portugiesisch angeboten, wodurch für auf englischsprachige Kurse angewiesene Austauschstudierende vor allem weitergehende Kurse mit einem Fokus auf Diskussion und Interpretation übrigbleiben. Auch wenn ich manchmal die Inhalte zum sturen Auswendiglernen vermisst habe, erhielt ich durch die Wahl möglichst vieler Kurse mit einem Schwerpunkt auf Brasilien, Lateinamerika oder Schwellenländer allgemein einen einzigartigen Einblick, den mir kein Kurs an meiner Heimatuniversität oder auch den vorangegangenen Austauschuniversitäten hätte bieten können.
-Wie in mehreren Kursen von den Dozierenden moniert, existiert häufig kaum englischsprachige Literatur und Forschung zu Themen in den Bereichen Arbeitsmarkt, Finanzwesen, oder Nachhaltigkeit in Brasilien, Lateinamerika oder dem Globalen Süden allgemein. Sofern sich dann doch ein Paper damit beschäftigt, wird es den Gegebenheiten Brasiliens kaum gerecht oder offenbart gar ein hohes Maß an Vorurteilen und Unverständnis. Insbesondere in dem bereits erwähnten Amazons-Kurs zur Nachhaltigkeit wurde offensichtlich, welch geringen Stellenwert ausländische Medien und Forschung der Schaffung einer nachhaltigen wirtschaftlichen und infrastrukturellen Grundlage für die im Regenwald lebende Bevölkerung zuwiesen. Einige Quellen sparten die rund 30 Mio. Bewohner des Amazonas ganz aus. Auch im Banking-Kurs wurde klar, dass so manch eine Theorie des sogenannten Washington Consensus die brasilianischen Erfahrungen mit Geldpolitik außer Acht lässt. Die Möglichkeit, von brasilianischen Professoren mit Zugang zu heimischer Forschung zu lernen, hat sich daher sehr gelohnt, und es ist jedem Austauschstudierenden nahezulegen, solche, auf Brasilien und die Region fokussierte Kurse zu wählen.</t>
-  </si>
-  <si>
-    <t>Das Kursangebot in Exeter ist generell sehr groß. Wenn man allerdings wie ich im 5. Semester BWL studiert und keine Überschneidungen haben darf, wird es doch etwas kniffelig. Man kann zwar erst mal fröhlich drauf los wählen aber man wird in der ersten Woche schnell feststellen, dass sich viele Kurse zeitlich überschneiden und dann beginnt das große Umwählen und Schauen wo noch Plätze frei sind. Das war echt das nervigste am ganzen Auslandssemester, da man natürlich auch immer mit der Uni Mannheim Rücksprache halten musste. _x005F_x000D_
-Der Stundenplanaufbau in Exeter ist sehr anders als der in Mannheim. Die Vorlesungen und Seminare gehen immer 2 Stunden und liegen oft auch mal bis zu 5 Stunden auseinander. Generell hat man sehr wenig Uni, aber es wird erwartet, dass man viel selbständig lernt und viel liest. Da reicht es nicht nur die Vorlesung anzuhören. Dass der Stundenplan so komisch ist stört aber keineswegs, denn im Gegensatz zu Mannheim ist Exeter eine Campus Uni. Man verbringt also ohne Probleme gerne den ganzen Tag an der Uni. Zwischen den Kursen kann man in die Bibliothek gehen, was essen und trinken (es gibt sehr viel Auswahl: eine Kneipe in der es die legendären Curly fries gibt, einen Costa, einen Pret etc. und alles nicht vergleichbar mit der Mensa hier!), sich irgendwo draußen mit Freunden treffen oder Sport machen. Direkt auf dem Campus befindet sich ein großer Sportpark mit Fitnessstudio, Turnhalle, Rugbyfeld, mehreren Tennisplätzen uvm. Langeweile kommt auf jeden Fall nicht auf. _x005F_x000D_
-Was mir besonders gut gefallen hat ist der Uni Spirit in Exeter. Es gibt ein paar hundert Societies und jeder macht mit. Das Sportangebot ist der Wahnsinn und so habe ich das Fitnessstudio regelmäßig genutzt und war Teil der Dance Society. Jeder trägt entweder Pullover der jeweiligen Societies oder einfach den University of Exeter Hoodie und natürlich alles in der Uni Farbe Dunkelgrün.</t>
-  </si>
-  <si>
-    <t>Das englische Kurstangebot an der NTU empfand ich als angemessen groß, viele weitere gute Kurse werden aber ausschließlich in chinesischer Sprache gehalten. Ohne entsprechende Kenntnisse sind diese Kurse aber nicht zu empfehlen. Die Kursgrößen sind unterschiedlich, je nach Fach zwischen 15 bis 60 Studenten. Der Aufbau unterscheidet sich teilweise stark von den Vorlesungen in Mannheim, es wird oft ein starker Fokus auf Anwesenheit, Mitarbeit, Teamprojekte und Präsentationen gesetzt. Zwar gibt es auch Klausuren, diese machen jedoch oft nur einen Teil der Gesamtnote aus. Alles in allem hat man zwar unter dem Semester mehr Arbeit, dafür aber gegen Ende des Semesters keinen geballten Prüfungszeitraum. Da die englischsprachigen Kurse zum großen Teil von Austauschstudenten besucht werden, sind die Arbeitsgruppen recht international. Die Anerkennung stellt eigentlich auch kein Problem dar, vorausgesetzt man erhält den benötigten Kurssyllabus aus Taiwan rechtzeitig. Sehr zu empfehlen ist auch der für Austauschstudenten angebotene Sprachkurs. Wahlweise kann der Kurs 2 bis 3 Mal wöchentlich besucht werden. Es gibt wöchentlich Hausaufgaben, Tests und Diktate  wer ernsthaftes Interesse an der Sprache hat, sollte das Angebot nutzen, während des Aufenthalts lassen sich so schnell große Fortschritte erzielen.  
-Der Campus der NTU ist sehr groß, es gibt diverse Möglichkeiten zum Arbeiten und Lernen. Mehrere Bereiche mit Essensmöglichkeiten existieren ebenso wie ein reichhaltiges Sportangebot. Von Schwimmbad über Tennisplatz bis Fitnessstudio bietet der Campus eigentlich fast alles, das Angebot an Sportkursen ist wirklich super.</t>
-  </si>
-  <si>
-    <t>Das Studium an der FGV war sehr gut. Hier muss man beachten, dass ich selbst auch zwei portugiesische Kurse gewählt habe, welches bei entsprechenden Vorkenntnissen Zugriff auf sehr gute Professoren und Kurse gibt. Die Auswahl bei englischsprachigen Kursen ist grundsätzlich gut, jedoch sind vor allem die quantitativen Kurse auf Portugiesisch. Ansonsten gibt es dann auch die Möglichkeit sich in Initiativen oder in den Sportteams zu engagieren, welches von unserer Gruppe vereinzelt (vor allem Sport) gemacht wurde. Es ist eine tolle Möglichkeit, noch mehr Kontakt mit den brasilianischen Studenten der FGV zu haben und mehr von Kultur zu lernen. Der Workload und Anspruch kann sehr stark je nach Kurs variieren. Einige Studenten haben z.B. einen englischen Kurs in Game Theory gewählt, welcher sehr anspruchsvoll war. Andere Kurse sind dann wiederum deutlich einfacher und erfordern weniger Workload. Die FGV bietet einem hier bei Eigeninitiative auch die Möglichkeit vereinzelt Kurse aus dem PhD oder Master zu nehmen - ist keine Regel aber möglich (einfacher bei Portugiesisch Kenntnissen).</t>
-  </si>
-  <si>
-    <t>Mir persönlich hat der Stil der Schweden wesentlich besser gefallen als der vorlesungslastige Mannheimer Stil. Man hat über das Semester mehr zu tun, dafür muss man aber eben nicht kurz vor der Klausur den gesamten Stoff aufs Erbrechen auswendiglernen. Was dem ebenfalls entgegenwirkt ist die Tatsache, dass jedes schwedische Semester zweigeteilt ist. Ihr habt also die Hälfte eurer Kurse von September bis Oktober und die anderen von November bis Dezember/Januar. Das finde ich persönlich sehr angenehm, kann einen aber schnell dazu verleiten viel zu wenig zu machen._x005F_x000D_
-_x005F_x000D_
-Zudem ist die Kursauswahl in Lund riesig, da hier wesentlich interdisziplinärer gelehrt wird als in Mannheim. Zudem kann man übrigens auch Masterkurse wählen und in einigen Fällen wird man die auch bekommen. Natürlich muss man sich dann bewusst sein, dass das Niveau etwas höher sein wird, was aber sehr angenehm sein kann. Die Benotung in Schweden basiert auf einer A-E-Skala, wobei ein A ab 85% erreicht wird und in eine 1.0 umgerechnet wird in Mannheim. Vom Kursniveau lässt sich sagen, dass einige Kurse wirklich sehr simpel sind, andere dagegen wohl sehr fordernd, vor allem wenn man keine Vorkenntnisse hat. Die Benotung ist meiner Meinung nach aber immer fair gewesen._x005F_x000D_
-_x005F_x000D_
-Eine Eigenart gibt es noch, die ein paar von euch vielleicht aber kennen: Alle Kurse in Lund beginnen mit 15 Minuten Verspätung. Da Mannheim dieses sog. Akademische Viertel ja nicht hat ist es vielleicht interessant das zu wissen. Klausuren sind hiervon ausgenommen, aber da man für diese meist 4 oder 5 Stunden Zeit hat, obwohl sie meist für 2 Stunden ausgelegt sind, kann man sich theoretisch auch hier nochmal umdrehen.</t>
-  </si>
-  <si>
-    <t>Der Campus der PolyU liegt in Hung Hom, einem recht zentral gelegenen Stadtteil auf der Kowloon-Seite, also auf dem Festland. So gut wie alle Gebäude liegen direkt nebeneinander und man gelangt sehr schnell vom einen zum anderen Vorlesungsraum. Vor Ort gibt es praktischerweise noch zwei Banken und einen kleinen 7-11 Kiosk sowie verschiedene Kantinen, wo man vor allem asiatische Gerichte günstig essen kann. Die Bibliothek ist gut ausgebaut und bietet sogar einzelne Kabinen zum Lernen, die man im Vorfeld online buchen kann._x005F_x000D_
-Das Studium an der PolyU ist relativ verschult. Die Kurse finden in der Regel in Klassenverbänden mit bis zu 50 Studenten statt und erinnert stark an Schulunterricht. Konsequenterweise gibt es auch Anwesenheitspflicht und Noten für die Mitarbeit. Nach meiner Erfahrung beteiligen sich die Hongkonger so gut wie gar nicht am Unterricht, sondern nur ausländische Studenten aus Europa oder Nordamerika, daher ist es einfach dort eine gute Benotung zu erhalten. Einige Kurse haben zudem gar keine Abschlussklausur; dort setzt sich die Abschlussnote aus Gruppenarbeiten und Hausarbeiten zusammen, was ich als sehr angenehm empfunden habe. Das Englisch der chinesischen Professoren ist oft nicht gut, oder zumindest schwer zu verstehen, daher ist es ratsam Kurse zu wählen, die von Muttersprachlern gegeben werden. Die Kurse waren insgesamt einfacher als in Mannheim. _x005F_x000D_
-Die Kommilitonen kommen oft aus dem chinesischen Festland oder natürlich auch aus Hongkong. Alle haben gemeinsam, dass sie meist nur schlecht Englisch sprechen und eher unter sich bleiben.</t>
-  </si>
-  <si>
-    <t>Meine Eindrücke vom Studium an der University of Windsor waren weitestgehend positiv. Die Lehrveranstaltungen selbst waren etwas anders als in Mannheim. Erstens beträgt die Dauer der Einheiten jeweils nur 80 Minuten anstatt der gewohnten 90. Zweitens finden viele Veranstaltungen zweimal in der Woche statt. Dies macht einen großen Unterschied bezüglich der Menge an Lehrstoff, die man in einem Kurs behandelt, aus. Die Dozenten, die ich persönlich hatte, waren alle jederzeit für Fragen offen und hatten Verständnis dafür, dass man sich als Austauschstudent vielleicht auf anhieb nicht so gut zurechtfindet._x005F_x000D_
-Ähnlich wie Ilias wird auch in Windsor ein Onlineportal verwendet, welches Blackboard heißt. Es kann zwar auf den ersten Blick ein bisschen ungewohnt sein, aber die Funktionalität ist mit Ilias vergleichbar. _x005F_x000D_
-Die University of Windsor hat nur eine Bibliothek, die aber recht groß ist. Es gibt so wohl Plätze für Gruppenarbeit, so wie stilles Lernen. Im Erdgeschoss befindet sich außerdem ein Café, und einen Service, bei dem man einen Termin vereinbaren kann, um Hilfe beim Schreiben von Aufsätzen und Hausarbeiten zu bekommen. Man wird wirklich individuell beraten, und es lohnt sich eigentlich immer, diesen Dienst zu nutzen. Leider gibt es von der Bibliothek abgesehen nicht viele andere Orte, an denen man gut lernen kann, und gerade in der Prüfungsphase kann es schwer sein, überhaupt nicht einen Platz zu finden._x005F_x000D_
-Die Essensmöglichkeiten auf dem Campus lassen meiner Meinung nach etwas zu wünschen übrig. Wenn man keinen Essensplan hat, sind die Preise sehr teuer. Was die Auswahl betrifft, so gibt es größten Teils nur Fastfood. Gesunde, preiswerte Mahlzeiten sind eher die Ausnahme._x005F_x000D_
-Was Aussehen und Sauberkeit betrifft, ist der Campus wirklich sehr schön und voller Natur. Allerdings kann es sehr schwierig sein, rechtzeitig von einem Ende ans andere zu kommen, da man oft nur 10 min zwischen zwei Veranstaltungen Zeit hat. Neben dem Offensichtlichen gibt es auf dem Campus auch einen Arzt, einen Zahnarzt, eine Apotheke, einen Campus Shop mit Bücherladen, und ein großes Athletikcenter, das jeder Student kostenlos nutzen kann. Im Athletikcenter werden viele verschiedene Sportkurse angeboten, es gibt viele Trainingsmöglichkeiten, und ein großes Schwimmbecken. Es lohnt sich auf jeden Fall, die Möglichkeiten dort in Anspruch zu nehmen. Ich persönlich kann zum Beispiel die Yogakurse empfehlen.</t>
-  </si>
-  <si>
-    <t>Das Niveau ist definitiv nicht so wie in Mannheim. Auch die Art der Notenvergabe unterscheidet sich von der bekannten aus Mannheim. An der VSE hat man oft Midterm Klausuren ein Referat und ein Final in einem Kurs. Zudem ist wichtig zu erwähnen, dass es in den meisten Kursen Anwesenheitspflicht gibt, welche auch benotet wird.</t>
-  </si>
-  <si>
-    <t>Die Uni Maastricht ist sehr international (über 50% internationale Studierende). Alle Kurse sind daher auf Englisch. Ich war an der SBE (School of Business and Economics) und konnte dort neben den klassischen BWL Kursen auch Fächer wie Economic Psychology oder Business and Politics in Europe belegen. Das Kursangebot ist relativ breit gefächert, allerdings werden einige Kurse von der Uni Mannheim nicht als BWL oder BWL nahe Kurse gewertet. Das ist schade. _x005F_x000D_
-An der Uni gibt es kaum klassische Vorlesungen. Der Unterrichtsansatz dort ist das Problem Based Learning (PBL) wobei man in kleinen Tutoriengruppen gemeinsam den Stoff erarbeitet._x005F_x000D_
-Das Semester ist in 3 Perioden aufgeteilt. Man hat 8 Wochen lang 2 Kurse mit Klausuren/Abgaben am Ende, dann noch einmal einen 8 Wochen Block und in Periode 3, die 2 Wochen geht, hat man ein Skills Training. Die Uni Maastricht bietet einige tolle Skills Trainings an, von denen wiederum einige (Presentation Skills, Negotiation Skills,-) von Mannheim nicht als wissenschaftlich genug eingestuft werden. Das ist sehr bedauernswert. _x005F_x000D_
-Der Campus der Uni ist etwas verteilt, aber sehr schön. Es gibt auch eine Parkanlage, die besonders im Sommer sehr einladend ist. Es gibt eine große Bibliothek mit ruhiger Lernatmosphäre und moderne Learning Spaces für Gruppenarbeiten etc._x005F_x000D_
-Für ein Studium in Maastricht sind sehr gute Englischkenntnisse von Vorteil, da in den Kursen viel mit englischen wissenschaftlichen Texten gearbeitet wird.</t>
-  </si>
-  <si>
-    <t>Das Studium ist deutlich anders als in Mannheim. Die Lerngruppen sind kleiner und die Ausstattung moderner. Auch wird deutlich mehr Eigenarbeit in Form von Readings erwartet. Allerdings sind die qualitativen Ansprüche an die Studenten deutlich niedriger. Auf dem Campus findet man eine moderne Bibliothek sowie zwei Pubs und ein preiswertes Restaurant.</t>
-  </si>
-  <si>
-    <t>Das Studium in Stellenbosch unterscheidet sich in mehreren Punkten vom Studium in Mannheim. Die Kurse sind so aufgebaut, dass man in jedem Kurs eine Midterm und eine Final Klausur hat. Außerdem gibt es in jedem Kurs eine weitere bewertete Arbeit. Diese Arbeit wird meist entweder in Form einer schriftlichen Hausarbeit oder in Form von Tests während des Semesters durchgeführt._x005F_x000D_
-Außerdem sind die meisten Klausuren in Managementkursen in Form von Case Studies aufgebaut. Diese Prüfungsform hat mir persönlich besser gefallen, als nur auswendig Gelerntes wiederzugeben.</t>
-  </si>
-  <si>
-    <t>Die Business Fakultät befindet sich mittlerweile am zentralen Campus der Aalto Universität etwas außerhalb von Helsinki, jedoch ausgezeichnet mit der Metro in 15 Minuten von der Innenstadt Helsinkis erreichbar. 
-Das Studienjahr ist in 5 Perioden eingeteilt (2 im HWS, 3 im FSS). Ein 6 ECTS-Kurs geht üblicherweise über eine Periode (es gibt wenige Ausnahmen). Jede Periode besteht aus 6 Wochen Vorlesung und einer anschließenden Prüfungswoche. 
-Ich habe die Kombination 1:1:1 gewählt, also in jeder Periode einen 6 ECTS-Kurs. Wenn man sich zu 100% auf die Uni konzentriert, kann man aber durchaus auch drei oder sogar mehr Kurse pro Periode wählen. Ich empfand die Abwechslung aus Uni, Freizeit und Reisen jedoch als äußerst angenehmen, insbesondere da mein letzter Kurs nur über eine halbe Periode ging und ich deshalb die letzten 4 Wochen des Semesters frei hatte.
-Prüfungen können an der Aalto University auch nach Bestehen wiederholt werden. Die jeweils bessere Note wird dann ausgewählt. Grundsätzlich wird an der Uni jedoch vielmehr Wert auf Leistungsnachweise während der Vorlesungszeit gelegt. Sowohl Case Studys (individuell, in Gruppen, In-Class), Präsentationen, Workshops oder Learning Diaries gehören zum Studienalltag. In jedem meiner Kurse war es erforderlich, Vorlesungen entweder vorzubereiten (Reading von Papern und reflektieren der wesentlichen Erkenntnisse) oder nachzubereiten (was hat man in der Vorlesung gelernt, wie kann man das auf sein Berufsleben anwenden-). So hatte ich in einem Kurs gar keine Klausur sondern nur die eben genannten Leistungsnachweise. Diese Art von Learning Diaries besteht pro Vorlesung aus etwas 1 bis 2 Seiten. 
-Es gibt keine Anwesenheitspflicht, jedoch ist die Anwesenheit und aktive Teilnahme ebenfalls Bestandteil der Gesamtnote.</t>
-  </si>
-  <si>
-    <t>Die Uni in Bilbao ist auf verschiedene Fakultäten aufgeteilt, die in der ganzen Stadt verstreut sind. Das bedeutet, es gibt nicht einen großen Campus, sondern mehrere kleine, die sehr weit voneinander entfernt sind. Ich war auf dem Campus in Leioa, der der größte der Uni war und viele verschiedene Fakultäten dort lagen. Deshalb konnte man von einem richtigen Campusleben mit Mensa, Supermarkt etc. sprechen, was sehr entspannt war. Es gibt eine große Bibliothek in der Mitte des Campus, Tischtennis und -fußball zum Zeitvertreib und generell war dort immer eine Menge los!_x005F_x000D_
-Das Kursangebot an unserer Fakultät war sehr begrenzt. Man bekommt rechtzeitig per E-Mail alle angebotenen Kurse zugeschickt, muss sich aber bereits im Vorhinein für das erste Learning-Agreement über die Website der Uni über die Kurse informieren, was sehr mühsam war. Es werden sogar sogenannte english-friendly-Kurse angeboten, bei dem die Vorlesung auf Spanisch gehalten wird, und die abschließende Klausur auf Englisch ist. Auch kann man sich über die Uni bei einem Spanischkurs anmelden, der direkt um die Ecke stattfand. Der hat mir immer recht viel Spaß gemacht und man hat natürlich dort viele ERASMUS-Leute kennengelernt.</t>
-  </si>
-  <si>
-    <t>Die HEC Paris bezeichnet sich selbst als Elite-Hochschule und geniest in Frankreich ein hohes Ansehen. Leider muss man feststellen, dass die Hochschule diesem Ruf nicht immer gerecht wird.
-Die HEC Paris ist keine herkömmliche Universität mit Bachelor und Mastersystem, sondern eine für Frankreich spezifische Grande École. Nach zwei Jahren hoch-selektiven Vorbereitungsjahren, die nicht wirtschaftswissenschaftlich ausgerichtet sind, steigen die Studenten direkt im Masterstudiengang (M1) ein. Nach zwei bzw. drei Jahren (ein GAP-Year mit Praktika) erhalten die Studenten ihren Masterabschluss. Als Austauschstudent (egal ob Bachelor oder Master) kann man nur M1 Kurse (Kurse des ersten Masterjahres) wählen. Daher sind alle Austauschstudenten, Bachelor und Master, zusammen mit M1 Studenten. Dies wirkt sich leider auch auf die angeboten Kursinhalt aus. Für die meisten französischen Studenten ist dies das erste Jahr in denen sie wirtschaftswissenschaftliche Kurs belegen. Daher ist das Kursniveau meist deutlich unter vergleichbaren Masterkursen und eher im Bereich der ersten beiden Bachelorjahre. Daher sind grundsätzlich alle Kurse (mit Ausnahme von wenigen Finanzkursen, die nicht für M1 Studenten sondern für die spezialisierten Finance Master vorgesehen sind) Einführungskurse. Der Fokus liegt dabei auf der praktischen Anwendung, wissenschaftliches Arbeiten bzw. Forschung wird meist nicht thematisiert. Die Prüfungsleistung setzt sich aus Mitarbeit, Gruppenarbeiten, Fallstudien, Präsentationen und abschließender Prüfungen zusammen. Insbesondere Gruppenarbeiten können frustrierend seinen, da die Arbeitsmoral der meisten Studenten nicht unbedingt hoch ist. Dass viele Austauschstudenten darüber hinaus nur die Kurse bestehen müssen, hebt ebenfalls nicht den Arbeitseifer in Gruppenarbeiten. Im Kontrast dazu steht die Notenvergabe, die im Normalfall einer Gaus Verteilung folgt. Daher sind Prüfungen relativ kompetitiv. Häufig werden zudem alte Prüfungsaufgaben recycelt, es lohnt sich daher insbesondere bei einheimischen Studenten nachzufragen.</t>
-  </si>
-  <si>
-    <t>Das Studieren an der California State University Long Beach und ich glaube allgemein an den Universitäten in Amerika ist viel Zeitaufwendiger. Es erinnert mehr an Schulunterricht, den wir aus Deutschland kennen, mit Hausaufgaben, mehreren kleinen Tests und 2 großen Klausuren. Auf der einen Seite ist das anstrengender, weil man immer etwas zu tun hat, doch auf der anderen Seite kann man sich auch mal eine "schlechtere" Note erlauben und man kann dennoch ein A als Gesamtnote erhalten. Desweiteren ist die Benotung nicht so streng wie sie es in Mannheim ist, oder so erschien es mir zumindest. Grund hierfür könnte allerdings auch sein, dass man aufgrund der Hausaufgaben und vielen Tests stets vorbereitet ist und deshalb auch mit wenig Lernaufwand vor den großen Klausuren sehr gute Noten bekommen kann. Die Professoren sind meist sehr freundlich und helfen gerne, sobald sie wissen, dass man aus dem Ausland kommt. Es herrscht dort allgemein eine persönlichere und nähere Beziehung zwischen Studenten und ihren Dozenten. In den ersten 2 Wochen kann man Kurse fallen lassen und neue dazuwählen. Dies kann man online tun, oder aber man geht zu den Kursen und spricht direkt mit dem Dozenten, dessen Kurs man besuchen will, meistens ist das kein Problem. Das gleiche gilt, wenn man Anfangs in dem Austausch mit dem Study abroad office nur einige wenige Kurse angegeben hat und weitere hinzufügen will. Zuallerletzt lässt sich sagen, dass der CSULB Campus sehr groß und sehr schön ist. Mit einigen Cafés und viel Natur kann man dort auch in der Lernphase und auch sonst ein paar Stunden verbringen.</t>
-  </si>
-  <si>
-    <t>Im Gegensatz zu Mannheim, gibt es an der NHH keine Tutorien oder Übungen. Pro Kurs hat man in der Regel lediglich zwei Vorlesungen pro Woche. Jede Vorlesung dauert insgesamt 105 Minuten, wobei  der immer 15 Minuten Pause innerhalb der Vorlesung eingeplant sind. Mein Stundenplan war nicht so voll wie es meist in Mannheim der Fall ist, und ich hatte daher nur ein drei Tagen in der Woche Uni. _x005F_x000D_
-Die Kurse beginnen Ende August und enden bereits wieder Ende Oktober/Anfang November (je nach Kurswahl). Vor den Prüfungen Anfang/Mitte Dezember hatte man also noch genügend Zeit, um sich vorzubereiten und die Prüfungsphase war an sich entspannter. _x005F_x000D_
-Im Allgemeinen lag das Niveau war unter dem von Mannheim. Der Workload während des Semesters war aber wesentlich höher, da man in den meisten Kursen Group Paper schreiben musste. Diese zählten zwar in der Regel nicht zur Endnote, waren aber notwendig, um für die Klausur zugelassen zu werden. _x005F_x000D_
-Die Kursmöglichkeiten an der NHH für Exchange Students ist recht überschaubar. Leider fanden viele angebotene Kurse noch dazu parallel statt, weswegen man in der Kurswahl letzten endlich sehr eingeschränkt war. _x005F_x000D_
-Die NHH ist zwar sehr klein, aber modern ausgestattet. Jeder Student bekommt beispielsweise einen Chip und einen Code, mit dem er zu jeder Uhrzeit die Uni betreten kann (ab 16 Uhr ist die NHH geschlossen). _x005F_x000D_
-Die Uni verfügt über sogenannte Lesesäle, in denen man in einem abgetrennten Bereich arbeiten konnte. Für Gruppenarbeiten konnte man sich über das Portal einen extra Raum buchen. In der Klausurenphase war es auch möglich, in den Vorlesungsräumen zu lernen.</t>
-  </si>
-  <si>
-    <t>Die Kurswahl an der FGV war super verwirrend. Es gab Kurse, die in Trimestern angeboten wurden und welche in normalen Semestern und man muss extrem aufpassen dass die gewählten Kurse sich nicht überschneiden. Die meisten meiner Kurse haben nach dem halben Semester aufgehört und in der zweiten Hälfte hatte ich dann neue Kurse. Da ich nur englische Kurse wählen konnte war die Auswahl nicht sehr groß. Zusätzlich bestand die Möglichkeit eine gewisse ects Anzahl mit Kursen von dem Economics oder Law department zu füllen. Alle Kurse, die ich gewählt habe konnte ich in Mannheim anrechnen lassen. An sich ist der Schwierigkeitsgrad der Kurse deutlich unter dem Level von Uni Mannheim Kursen und man lernt nicht sehr viel neues. Die größten Unterschiede bestehen darin, dass deutlich mehr Wert auf Mitarbeit gelegt wird und sich die Note meistens aus unterschiedlichen Leistungen (z.B. papers) zusammensetzt und nicht nur einer Endklausur. 
-Zu dem Leben auf dem Campus kann ich leider wenig sagen, da unser gesamtes Semester online war.  Zusätzlich wurde aufgrund von Covid kein Sprachkurs von der Uni angeboten, was sehr schade war, aber man konnte natürlich privat einen solchen Kurs besuchen.</t>
-  </si>
-  <si>
-    <t>Die NHH Bergen hat ein breites Curriculum an Kursen. Ich hatte meinen Schwerpunkt auf Finance gelegt und konnte aus ca. 25 Kursen wählen. Die Kurse sind sehr praxis- und IT-orientiert, d.h. es stehen jede Woche 2-3 Cases/ Assignments an, oft mit Bezug zu statistischen Programmen wir R, Python, SAS und STATA. Das Kursniveau ist hoch. Prüfungen erfolgen durch Abgabe von Assign-ments/ Cases, mündlicher Mitarbeit oder klassischer Klausuren. Dabei ist anzumerken, dass die Klausuren oftmals mehrere Stunden dauern (klassische Klausuren oft 3 h, meine Empirical Finance Klausur 12 h). Anerkennung von Kursen ist bis jetzt kein Problem, da dies im Rahmen des Double-Degree-Learning-Agreements geschieht. Vorlesungszeiten sind vergleichbar mit der Uni Mann-heim, das Studienjahr ist nach Semestern unterteilt. Das Leben an der Gasthochschule war sehr schön, es gibt viele studentische Organisationen. Arbeitsmöglichkeiten gibt es auch, war jedoch für mich nicht relevant. Mensa ist sehr teuer. Das Sprachniveau an Englisch ist nicht nur an der NHH sondern in ganz Norwegen sehr hoch.</t>
-  </si>
-  <si>
-    <t>Das Studium an der NTU beginnt mit der Add/Drop Period. In diesem Zeitraum kann man die Kurswahl finalisieren und ggf. noch Kurse wechseln oder abwählen. Insbesondere wenn man im ersten Schritt der Kursauswahl nicht so viele Kurse zugeteilt bekommen hat, kann es hier stressig werden, die benötigten Credits (15 AU) zu erreichen. Dies liegt daran, dass einige Kurse nicht für Austauschstudierende generell oder bestimmter Fachrichtungen angeboten werden, viele Kurse eine begrenzte Teilnehmerzahl haben und manche Kurse nicht den Anforderungen der Uni Mannheim entsprechen. Insgesamt kann man hier aber aus einem großen Spektrum an Kursen auswählen._x005F_x000D_
-_x005F_x000D_
-Das Studium an der NTU unterscheidet sich recht stark von dem Studienalltag in Mannheim. Die meisten Module an der NTU beinhalten neben oder sogar anstatt einer Klausur verschiedene Elemente wie Quizze, Tests, Projektarbeiten oder Hausarbeiten. Dadurch verteilt sich der Arbeitsaufwand gleichmäßiger auf das Semester und der Lernprozess gestaltet sich deutlich interaktiver. Das liegt auch daran, dass die Kurse an der NTU selten mehr als 40 Personen umfassen. Außerdem gibt es in den meisten Kursen keine Trennung von Vorlesung und Übung, entsprechend bestehen die Veranstaltungen aus 3-4 Stunden Blöcken, die einmal pro Woche stattfinden._x005F_x000D_
-_x005F_x000D_
-Nach der ersten Hälfte des Semesters gibt es eine vorlesungsfreie Woche, die Recess Week. Obwohl in der Woche davor und danach Tests in einigen Modulen geschrieben werden, eignet sich diese Zeit sehr gut, um in eines der umliegenden Länder zu verreisen. Da ich in dieser Woche Blockseminare in einem Kurs hatte, musste ich jedoch leider zuhause bleiben und habe die Reispläne auf die Zeit nach dem Semester verschoben. Das Semester an der NTU endet bereits Ende November, gefolgt von der Klausurenphase, welche bis Anfang Dezember andauert.</t>
-  </si>
-  <si>
-    <t>Das Kursangebot ist für Bachelor studierende nicht ganz so ausgeprägt, da die meisten Bachelorkurse auf Norwegisch unterrichtet werden.
-Im Allgemeinen kann man sagen, dass das Kursniveau leichter ist als in Mannheim wobei die Lernmethoden ziemlich verschieden zu Mannheim sind. An der NTNU wird viel Wert auf Gruppenarbeit gelegt und die meisten Kurse bestehen nur aus 20-30 Studenten.
-Die meisten Vorlesungen haben etwa 3 Stunden gedauert wobei jede Stunde 5-10 Minuten Pause gemacht wird. 
-Der Haupt Campus ist in Gløshaugen wobei die Uni auf sehr vielen Campus verteilt ist und man je nach belegten Kursen öfters zwischen diesen bewegen muss. Auf jedem Campus gibt es aber mindestens eine Mensa und eine Cafeteria wobei die Preise wie alles andere deutlich höher liegen als in Deutschland. Zudem gibt es auf jedem Campus eine recht moderne Bibliothek die auch in der Klausuren Phase nicht an seine Grenzen kommt.
-An der Uni und generell in ganz Norwegen ist das Englisch Sprachniveau sehr hoch und nicht mit Deutschland vergleichbar. Dort spricht jeder perfektes Englisch.
-Trotzdem da einige Kurse auf Norwegisch gehalten werden, werden einige Norwegisch Sprachkurse von der Universität angeboten.</t>
-  </si>
-  <si>
-    <t>3. Studium_x005F_x000D_
-_x005F_x000D_
-Das eigentliche Studium an der Universität Tartu hat mir gut gefallen. Die Ausstattung der Universität ist modern und gut, und dabei mindestens mit Mannheimer Standards zu vergleichen. Als Manko wären die Bibliotheken zu nennen, in denen sich zwar trotz ihrer überschaubaren Größe immer ein Platz finden ließ, die aber dennoch das ganze Semester (auch in der Prüfungsphase) bereits um 20 Uhr ihre Pforten schlossen. Studenten, die während ihres Bachelors nach Tartu gehen wollen, sollten sich zudem auf ein paar organisatorische Hürden einstellen; in meinem Fall drückten sich diese dahingehend aus, als das ich zu Beginn meines Aufenthalts aus gut drei viertel meiner gewählten Kurse wieder ausgeschlossen wurde, da es sich bei diesen um Master Kurse handelte, ich mich aber noch im vierten Semester meines Bachelors befand. Allerdings wurden zumindest während meines Aufenthaltes gar keine englischen Kurse im Bereich Politikwissenschaft auf Bachelor-Level angeboten, weswegen ich, nach einigem Mail-verkehr, letztendlich doch an Master-Level Kursen teilnehmen konnte. Vom Niveau her sind die Kurse mit ihren Mannheimer Pendants vergleichbar, wobei der methologische Teil hier eine Ausnahme bildet, da in Tartu gewissermaßen keine Vorkenntnisse in dieser Hinsicht erwartet werden, und die quantitative Methodik eine ungleich geringere Rolle in Forschung und Lehre spielt. Auch sollte man nicht erwarten, viele Kurse aus dem Bereich der politischen Soziologie vorzufinden, sowohl die Vergleichende Regierungslehre als auch die internationalen Beziehungen sind aber sehr gut vertreten. Man sollte sich letztendlich darauf einstellen, im Vergleich zu Mannheim viel mehr mit qualitativer Arbeit beschäftigt zu sein, was aber an sich ganz neue Herausforderungen bietet, und für den ein oder anderen sicher auch eine willkommene Abwechslung darstellt.</t>
-  </si>
-  <si>
-    <t>Das Semester an der Sciences Po beginnt Ende August und endet Anfang Dezember mit der Prüfungsphase. Dabei gibt es Mitte des Semesters nach den Midterms eine Woche Ferien. Man hat typischerweise 6 Unterrichtsstunden à zwei Stunden. Da man durchgehend Anwesenheitspflicht hat und nur maximal zweimal fehlen darf, sollte man sich passende Zeiten für seine Kurse aussuchen. Außerdem kann es zeitlich knapp werden, wenn man zwei Kurse hintereinander hat, die nicht im selben Gebäude sind. Zwar sind alle Gebäude der Sciences Po schnell zu Fuß zu erreichen, wenn man jedoch nur 15 Minuten Zeit zum Wechseln hat, kann es schon eng werden. Deswegen sollte man den Professoren Bescheid geben, dass man eventuell zu spät kommt, da meistens am Anfang der Stunde die Anwesenheit überprüft wird und auch zu häufiges zu spät kommen dazu führen kann, dass man den Kurs nicht besteht. Jedoch sind die meisten Professoren sehr nett und lassen mit sich reden, wodurch es auch möglich ist, dass man dreimal fehlen kann ohne durchzufallen. _x005F_x000D_
-Insgesamt sind die Professoren sehr offen und achten weniger auf Titel. So durfte ich einen meiner Professoren sogar mit dem Vornamen anreden und bin jetzt mit ihm bei Facebook befreundet. Dadurch war auch die Unterrichtsatmosphäre sehr angenehm und man hatte durchweg das Gefühl, Fragen stellen und Kritik geben zu können. Viele haben sich auch nach dem Unterricht mit den Professoren über die Unterrichtsthemen ausgetauscht und diese waren immer sehr begeistert davon. Somit konnte man auch auf persönlicher Ebene mit den Professoren reden. Dazu beigetragen hat auch die kleine Kursgröße von maximal 30 Studenten in den Seminaren. Dadurch hatte der Unterricht eher Schulcharakter, wodurch mündliche Mitarbeit wichtiger wurde. _x005F_x000D_
-Die Sciences Po hat zwei Bibliotheken, eine im Hauptgebäude und eine im Gebäude gegenüber. Diese sind jedoch eher klein, wodurch es meistens schwer ist, einen Platz dort zu bekommen. Außerdem gibt es in beiden Bibliotheken keine gute Lüftung, weswegen es spätestens zum Nachmittag in allen Räumen sehr stickig und warm wird. Eine Klimaanlage gibt es auch nicht, was es vor allem im Sommer dort unerträglich macht. Deswegen habe ich meistens in der Cafeteria oder in anderen offenen Räumen gearbeitet. Es macht Sinn, sich frühzeitig nach einem Platz zum Arbeiten umzuschauen, da die Bibliothek nur selten ein guter Ort dafür ist und man auf sämtliche Materialien für Hausarbeiten online zugreifen kann._x005F_x000D_
-An der Uni gibt es mehrere Cafeterien, bei denen man belegte Baguettes und Paninis kaufen kann. Diese sind relativ günstig und schmecken auch gut. Des Weiteren hat das Studierendwerk in Paris mehrere Mensen, in denen man Mittag essen kann. Die nächste zur Sciences Po ist zehn Gehminuten entfernt. Jedoch ist die Mensa nur zwei Stunden zur Mittagszeit geöffnet, weswegen man sich diesen einen Block freihalten sollte. Das Essen dort ist günstig und man kann zwischen verschiedenen Vor-, Haupt- und Nachspeisen wählen. Letztendlich war ich aber nur zweimal dort, da ich meistens in der Cafeteria gegessen habe.</t>
-  </si>
-  <si>
-    <t>Das Studium an der Chula ist ganz anders als in Mannheim. Ihr werdet eine Schuluniform tragen müssen, an die man sich aber super schnell gewöhnt und es gilt in den meisten Modulen Anwesenheitspflicht. Übungen und Tutorien gibt es keine, stattdessen habt ihr nur Lectures die im Gegensatz zu Mannheim aber auch 3 Stunden dauern. Die Professoren machen jedoch immer eine Pause in der Mitte der Vorlesung und ihr habt die Möglichkeit euch einen Kaffee oder Snack zu holen. Die Vorlesungen finden in kleinen Klassen statt und es gibt oft Mitarbeitsnoten. Der Fokus liegt auch nicht darauf eine Klausur am Ende des Semesters zu schreiben, sondern viel mehr auf Papers, Groupwork und Presentations, dadurch hängt eure Note nicht von einem einzigen Tag ab und ihr versteht den Stoff auch viel besser. Das Niveau der Kurse ist sehr unterschiedlich, generell ist es aber viel einfacher als in Mannheim gute Noten zu bekommen. Wichtig ist das ihr die Assignments im Semester ernst nehmt und euch vor Augen führt das die meisten anderen Austauschstudenten nur bestehen müssen und deshalb wenig Lust haben, um Zeit in Gruppenarbeiten zu investieren. Wenn ihr eure Kurswahl geschickt anstellt ist es gut möglich eure erforderlichen fünf Kurse auf drei Tage zu legen, um mehr reisen zu können.</t>
-  </si>
-  <si>
-    <t>Genau wie die Universität Mannheim spezialisiert sich die Hitotsubashi University auf Wirtschafts- und Sozialwissenschaften und bietet seit mehreren Jahren in ihrem HGP-Programm viele ihrer Kurse auch auf Englisch an. Da man in fast jedem Fach (bei mir alle außer VWL und LAW-Kurse) Anwesenheitspflicht hat und die Kurse mit 5 bis 30 Studierenden relativ klein sind, ähnelt der Studentenalltag oft der Schule. In vielen Kursen gibt es nicht nur eine finale Klausur, sondern auch Mitarbeit, Anwesenheit und Hausarbeiten werden in die Note gerechnet. Durch die Diskussionen im Unterricht war dies jedoch eine entspannte Abwechslung zu Mannheim, da man so meiner Meinung nach interaktiver lernt. Man hat zwar das ganze Semester etwas zu tun, aber das Semesterende ist nicht so stressig. 
-Ich würde vor allem den Kurs Special Topics in Commerce and Management E bei Jesper Edmann empfehlen. In kleinen Gruppen erforscht man hier die Entwicklung der japanischen Wirtschaft seit dem Ende des zweiten Weltkrieges und analysiert interaktiv, wie Japan durch politische, ökonomische und soziologische Faktoren seine Wirtschaftskraft wiederherstellen könnte. 
-Meine Kurse waren nur auf Englisch. Ich habe mir zwar überlegt, auch Kurse auf Japanisch zu belegen, jedoch erschienen mir meine Japanischkenntnisse nicht ausreichend im akademischen Bereich und da die Anzahl der zu besuchenden Kurse sehr hoch war, dies mit sehr viel Aufwand verbunden gewesen wäre. Es gibt jedoch eine sehr hohe Anzahl an Sprachkursen. Während der ersten Woche wird man durch einen Placement-Test dem jeweiligen Sprachlevel (von Beginner bis Advanced) zugeteilt. Gerade diese Kurse fand ich sehr hilfreich und hatten bei mir auch Bezug zur BWL, was meine Sprachfähigkeiten erheblich verbessert hat. Da man während des Austauschstudiums die einmalige Möglichkeit hat, intensiv (und kostengünstig!) seine Japanischkenntnisse zu verbessern, würde ich dies auf jeden Fall empfehlen. Im Advanced-Level würde ich die Kurse Business Japanese (??????I) und Advanced Reading" (???????) empfehlen.</t>
-  </si>
-  <si>
-    <t>Das Semester in Santiago begann am 11.9., also eine Woche nach Semesterbeginn in Mannheim. Die ersten 4 Wochen hatte ich die Möglichkeit verschiedene Kurse zu besuchen und zu entscheiden, welche ich letztendlich belegen möchte. So hat man die Möglichkeit Dozenten, Inhalt und Niveau der Kurse kennenzulernen. Das Studium in Santiago ist generell anders als das in Mannheim. Alle Kurse geben 6 ECTS, fast alle Kurse gehen genau eine Stunde und zwischen den Kursen ist keine Pause eingeplant. Da man aber noch den Raum wechseln muss und da fast alle Dozenten sowieso zu spät kommen und dann erstmal noch den Computer hochfahren und vorbereiten müssen, dauern die meisten Sitzungen nur 45-50 Minuten. Fast alle Kurse haben einen ähnlichen Umfang mit ca. 40-60 Studenten. Ungewohnt ist, dass man die meisten Kurse drei Mal/Woche hat (2 Mal als Vorlesung/ expositiva und 1 Mal als Tutorium/ interactiva). Deshalb sind 3-5 Kurse auf jeden Fall ausreichend Arbeit. Insgesamt habe ich mich in der Uni eher wie in der Schule gefühlt, da wir über das ganze Semester verteilt immer wieder Hausaufgaben mit Benotung oder ohne Benotung hatten, es mündliche Noten gab und das Studium meiner Meinung nach sehr unselbstständig abläuft. Das hatte für mich negative und positive Seiten. Ich habe mich teilweise nicht wirklich ernstgenommen gefühlt, aber andererseits bleibt man durch die ständige Kontrolle das ganze Semester über am Stoff dran und hat am Ende weniger Stress alles zu lernen. Die Dozenten haben entweder PPPs oder Skripte zur Verfügung gestellt, mit denen man gut lernen konnte. Die Klausuren waren insgesamt sehr fair und machbar, wenn man sich mit dem Stoff befasst hatte. Sehr zu empfehlen ist die Cafeteria in der Facultad de Filoloxía, auch wenn es immer nach Bratenfett riecht. Das Essen ist sehr lecker und billig und die Bedienungen, trotz mancher Stimmungsschwankung, sehr lieb und herzlich. Die Bibliothek kann ich nicht wirklich empfehlen, da sie erstens nicht genügend Steckdosen zur Verfügung stellt und sie zweitens im Winter nicht immer geheizt wird. Lernen sollte man also eventuell eher zuhause oder in einer anderen Fakultät. Einen Sprachkurs habe ich nicht besucht, gibt es aber am Campus Sur (Centro de Lenguas Modernas). Stattdessen habe ich einen Galicischkurs gemacht, der als Landeskundeseminar in Mannheim angerechnet werden könnte.</t>
-  </si>
-  <si>
-    <t>Die UC3M lag etwa 30 min. mit dem Zug entfernt, südlich von Madrid. Ich nahm immer von Atocha aus die Linie C4 nach Las Margaritas. Die Züge fuhren recht häufig, abends jedoch weniger. Die Entfernung Campus-Bahnhof betrug etwa 10 min. zu Fuß.
-Das Uni-Gelände bestand aus einem kleineren und einem größeren Campus, die direkt nebeneinander lagen und ganz nett waren. Die Gebäude waren zwar nicht vergleichbar mit dem Mannheimer Schloss, aber zwischen ihnen befanden sich immer wieder Grünflächen, auf denen man sich zwischen den Vorlesungen gut entspannen konnte. Die meiste Zeit verbrachte man auf dem großen Campus, wo sich das Gebäude für BWLer-Vorlesungen befand.
-Insgesamt gab es auf dem Campus zwei Bibliotheken. Eine kleinere direkt auf dem großen Campus und eine größere etwas abseits, aber noch am Campus, die mir etwas Schneckenhof/ Ehrenhof Vibes gab. Die meiste Zeit verbrachte ich in der größeren Bib, da man sich hier besser in Gruppen zusammensetzen konnte. Für Gruppenarbeiten konnte man sich auch extra kleine Räume mieten. 
-Wichtig ist zu erwähnen, dass der Campus (und auch die Bib) samstags und sonntags immer geschlossen waren und auch die Bib bereits um 21 Uhr zu machte, wobei dann laute Musik aus den Lautsprechern ertönte. Man hatte das Gefühl, die Uni wollte, dass man sich bloß nicht überarbeitete.
-Um z.B. vor der Prüfungsphase auch am Wochenende zu lernen oder wenn man nicht extra zum Campus fahren wollte, konnte man auch La Casa Encendida in der Madrider Innenstadt aufsuchen. Oder man besuchte einfach einen der vielen Starbucks.
-Jeder Kurs hatte eine Vorlesungs- und eine Übungsstunde pro Woche, die, wie hier in Mannheim, 90 min. dauerte. Die Kurse hatte ich mir meistens so gelegt, dass ich von Montag bis Donnerstag von morgens bis abends gestreckt Vorlesungen bzw. Übungen hatte und zwischen den Unterrichtsstunden in der Bib lernte. Hin und wieder ging ich auch freitags zum Campus, um in der Bib zu lernen.
-Generell war das Studiensystem an der UC3M deutlich unterschiedlicher als das hier in Mannheim. Anstatt einem Final Exam am Ende des Semesters, hatten (fast) alle Fächer neben dem Final Exam noch Midterms sowie Präsentationen und Übungen, die benotet wurden. Insgesamt war der Workload an der UC3M etwas weniger als in Mannheim und wurde zudem deutlich besser über das Semester verteilt, was mir persönlich sehr gut lag. Man konnte mit angemessenem Aufwand gute bis sehr gute Noten erzielen und zusätzlich noch Zeit zum Ausgehen und Reisen haben.
-Für die Gruppenarbeiten ist es wichtig, mit motivierten Studenten zusammen zu arbeiten. Viele Internationals müssen ihre Kurse nur bestehen und leisten deswegen kaum bis keine Arbeit. So musste ich auch einmal mit einem Mannheimer Kommilitonen zusammen eine Gruppenpräsentation für vier Personen vorbereiten.
-Ferner kam es bei den Professoren/innen gut an, wenn man sich am Unterricht beteiligte. Zwar wurde die mündliche Mitarbeit oftmals nicht benotet, aber trotzdem bemerkt, was sich in der Regel bei der Notenvergabe auszahlte. Es war oftmals so, dass viele Studenten/innen (v.a. die, die nur den Kurs bestehen mussten) nicht wirklich motiviert waren, am Unterricht teilzunehmen, sodass sich der Professor freute, wenn man einen Beitrag leistete. Die Fragen ließen sich mit dem Mannheimer Vorwissen gut beantworten.
-Die Kurse waren kleiner als die in Mannheim (ca. 20-50 Teilnehmer) und die Vorlesungsräume eher wie Klassenräume aufgebaut. Dadurch war die Atmosphäre etwas entspannter und der Unterricht deutlich interaktiver. Man konnte gut Fragen stellen und viele Kurse bauten auch auf der Mitarbeit der Studenten/innen auf. Dadurch hatte ich mehr Spaß, in die Vorlesungen und Übungen zu kommen.
-Das Verhältnis zu den Professoren war stets sehr gut und nah. Sie hatten immer ein offenes Ohr für Fragen und Anliegen und boten sogar häufig an, sie mit ihren Vornamen anzusprechen.
-In meinen englischen Kursen waren v.a. Internationals und weniger Spanier, die aber sehr offen waren. Über die Kurse lernte ich auch ein paar nette Mitstudenten/innen kennen.
-Die stressigste Phase war vor den Final Exams, die ca. 50% ausmachten. Wenn man jedoch während des Semesters gut mitmacht, sollte man diese auch gut meistern können. Alle Internationals hatten die Möglichkeit, ihre Final Exams noch vor Weihnachten abzuschließen. Man hätte sie aber auch mit den Spaniern im Januar schreiben können. Bei Nichtbestehen einer Prüfung wäre dann der Nachschreibetermin in Präsenz im Juni danach gewesen.
-Die Essmöglichkeiten in und um den Campus waren begrenzt, aber ganz gut. Es gab die Möglichkeit, in der Cafeteria belegte Brote und warme Mahlzeiten einzunehmen. In der Cafeteria am großen Campus wurde im ersten Stock z.B. ein spanisches Mittagsmenü für 5,80 angeboten. Sehr empfehlen kann ich auch die Arroz Bar, die sich nah dem Campus befindet. Hier konnte man günstig für ca. 5 eine ordentliche Portion gutes chinesisches Essen bekommen. Leider hatten wir die Location erst relativ spät entdeckt, aber gegen Semesterende waren wir nur noch dort.</t>
-  </si>
-  <si>
-    <t>An der Hochschule ist jedes Semester noch mal in zwei Hälften unterteilt. In jeder Hälfte belegt man zwei Kurse mit jeweils 7,5 ECTS und nach der Hälfte des Semesters schreibt man zwei Klausuren und ganz am Ende des Semesters die anderen beiden. Mir gefällt dieses System sehr gut, da man sich so parallel nur auf zwei verschiedene Kurse konzentrieren muss und auch die Klausurenphasen entspannter sind.
-Alle Kurse beinhalten als Leistungsnachweis nicht nur eine Klausur, sondern immer auch Seminare, Gruppenarbeiten oder Essays, die bewertet werden. Somit hängt nicht die ganze Note von einer Prüfung ab und man verteilt den Studienaufwand automatisch mehr über das Semester.
-Allerding sind die Gruppenprojekte teilweise sehr zeitintensiv und laufen oft über mehrere Wochen. In manchen Kursen herrscht in den Vorlesungen Anwesenheitspflicht, in den meisten Kursen aber nur in Seminaren, Workshops oder Ähnlichem. 
-Die Präsenzzeit in der Uni ist geringer als in Mannheim, dafür muss man nebenher alleine und in Gruppen an benoteten Aufgaben arbeiten. Dennoch ist der Lernaufwand  auch im Hinblick auf die Klausuren  geringer als in Mannheim. Gute Noten bekommt man nicht geschenkt, aber sie sind auch neben einem abwechslungsreichen Studentenleben erreichbar.
-Die Jönköping University bietet alles wichtige auf einem Campus. Man hat keine weiten Wege zwischen seinen Kursen, studentischen Flair und verschiedene Cafés und Mensen. Der moderne Campus ist nur 10 Gehminuten von der Innenstadt entfernt und liegt direkt an einem See.
-Es werden schwedisch Sprachkurse angeboten, aber ich habe mich aufgrund des hohen Zeitaufwandes pro Woche dagegen entschieden. In Schweden kommt man aber auch überall mit Englisch zurecht, da das Sprachniveau in der Bevölkerung durchschnittlich sehr hoch ist.</t>
-  </si>
-  <si>
-    <t>Die Uni selbst hat relativ viele Kurse, aus denen man wählen kann. Allerdings kann es dabei zu Überschneidungen kommen, was das Angebot wieder eingrenzt. Man hat in den ersten zwei Wochen Zeit, sich alle Kurse, an denen man interessiert ist, anzuschauen und kann sich dann einschreiben. _x005F_x000D_
-Ich habe mich für vier Kurse entschieden und diese werden voraussichtlich alle angerechnet. _x005F_x000D_
-Die meisten Kurse hatte ich vormittags bis auf einen Kurs, den ich abends hatte. Zwei meiner Kurse fanden zweimal wöchentlich statt, die anderen zwei nur einmal wöchentlich. _x005F_x000D_
-Eine Mensa, wie wir sie in Mannheim kennen, gibt es in Salamanca nicht aber es gibt eine Cafeteria und auch viele relativ günstige Restaurants. Ich habe mir oft einfach Essen von zuhause mitgebracht und Picknick mit Freunden auf der Wiese vor der Bibliothek gemacht. Das Sprachniveau ist relativ hoch aber wenn man ein B2 Niveau hat, kommt man sehr gut damit zurecht. Einen Sprachkurs habe ich selbst nicht gemacht.</t>
-  </si>
-  <si>
-    <t>Alle Kurse in ESSEC dauern 3 Stunden lang. Es war für mich von Anfang an nicht gewöhnt. Normalerweise belegt man Vorlesungen den ganzen Tag. Man hat keine Übung und Tutorium. Die Vorlesung in ESSEC enthält weniger Teilnehmer als in Mannheim, normalerweise 40 bis 50 Studierende. Es gibt verschiedene Projekte und Gruppenarbeit für jeden Kurs, damit mehr Kommunikation zwichen Professoren und Studierenden besteht. Die Prüfungen wurden online geschrieben. Die Note von jeden Kurs besteht aus vielen Teilen, nämlich Quiz, Präsentation und schriftliche Klausuren.</t>
-  </si>
-  <si>
-    <t>Von der Lehre in meinen Jurafächern bin ich eher enttäuscht. Die Professoren nutzen keine PowerPoint-Präsentation, sondern lesen oder im besten Fall tragen ihr Skript vor. Ziel der französischen Studierenden ist es, möglichst wörtlich mitzuschreiben, um genau dies in den Prüfungen wiederzugeben. Während der Cours Magistraux (CM) wurden zumindest in meinen belegten Fächern keine mündliche Teilnahme der Studierenden erwartet oder gefördert. Als Nicht-Muttersprachler gestaltet sich das Mitschreiben insbesondere zu Beginn als schwierig. Sehr empfehlenswert ist es aus diesem Grund, möglichst viele französische Studierende anzusprechen und darauf zu hoffen, dass sie ihr Skript teilen. Nach ein paar Versuchen ist mir dies auch immer gelungen. Glücklicherweise müssen Erasmusstudenten in Jura keine schriftlichen Prüfungen mit den französischen Studierenden ablegen. Stattdessen hat man am dem Ende der Vorlesungszeit mündliche Prüfungen bei den jeweiligen Professoren. Bei anderen Erasmusstudenten, beispielsweise den Lehramtsstudenten, war dies nicht möglich. Ich habe die mündlichen Prüfungen als sehr unterschiedlich schwer wahrgenommen. Teilweise wollte der Professor nur wenige, kurze Ausführungen zu einzelnen Themen hören, teilweise musste zu einem speziellen Thema zu Beginn der Prüfung eine kurze Präsentation vorbereitet und anschließend vorgetragen werden. Im Anschluss wurden Fragen gestellt, deren Antwort auch Detailwissen voraussetzte. Dennoch empfand ich es im Vergleich zu Mannheimer Verhältnissen in Jura als leicht, gute Noten zu erzielen._x005F_x000D_
-Sehr empfehlenswert sind die Sprachkurse an der Université de Lorraine. Insbesondere Spanisch hat mir sehr gut gefallen, da es nicht nur von einem Muttersprachler unterrichtet wurde, sondern es auch darüber hinaus ein breites Angebot an Kleingruppenkursen auf dem Sprachcampus gab, die man über EDOlang buchen konnte und die auch Teil der Prüfungsleistung waren. Diese Kleingruppenkurse wurden von sehr motivierten und sympathischen Lehrern geleitet und wurden in vielen verschiedenen Sprachen angeboten. Es gibt auch Französischkurse speziell für Erasmusstudenten, die ich aber aufgrund von Stundenplankollisionen nicht besucht habe._x005F_x000D_
-Insgesamt empfand ich die Kurswahl als ausreichend groß und vom Niveau her zwar nicht als inhaltlich schwer, aber zumindest anfangs in den Jurakursen durch die Sprachbarriere als Herausforderung._x005F_x000D_
-Die Vorlesungszeit begann Anfang September und endete je nach Kurs Ende November/Anfang Dezember. In meinen Sprachkursen hatte ich die selben Prüfungen wie meine französischen Mitstudenten. Teilweise fand eine erste Prüfung bereits während der Vorlesungszeit statt, eine zweite Prüfung dann nach Ende der Vorlesungszeit im Dezember oder noch im Januar. Die mündlichen Prüfungen fanden alle nach Ende der Vorlesungszeit und noch vor Weihnachten statt. Leider wurden die Termine immer erst sehr kurz vor der Prüfung bekanntgegeben, was ich als großen Stressfaktor empfunden habe._x005F_x000D_
-In der Bibliothek gab es nur sehr vereinzelt Steckdosen, die zum größten Teil nicht funktionierten. Außerdem sind die Öffnungszeiten nur sehr kurz, Sonntags sind alle Bibliotheken beispielsweise geschlossen. Das WLAN funktioniert dagegen hervorragend._x005F_x000D_
-Direkt neben dem Juracampus befindet sich eine Mensa, in der man für 3,30 zu Mittag und zu Abend essen kann. Normalerweise kann man zwischen einigen Menüs auswählen. Insgesamt empfand ich das Essen als durchschnittlich gut für eine Mensa und relativ abwechslungsreich. Aufgrund der idealen Lage in der Innenstadt ist es aber auch ein Leichtes, eine Alternative zu finden.</t>
+Auf dem kleinen Campus mit ca. 1200 Studierenden gibt es eine moderne Bibliothek, in der man gut arbeiten kann (allerdings nur Stillarbeit) und eine Mensa, deren Angebot aber sehr zu wnschen brig lsst, besonders fr Vegetarier*innen (die haben es in Frankreich aber sowieso schwer). Die Lehrrume sind sehr modern und gut ausgestattet und man hat berall WLAN. Fast alle Toiletten sind rollstuhlgerecht, es gibt sie auf jeder Etage, und genau wie die Lehrrume sind sie alle barrierefrei zu erreichen. Sehr viele Toiletten sind zudem nicht einem Geschlecht zugeschrieben, sondern fr alle zugnglich.
+In der Uni knnen eigentlich alle Englisch, und das im Falle der Studierenden und Lehrenden auch meist sehr gut. Um in diesem internationalen Umfeld berhaupt mal Franzsisch zu sprechen, ist es sehr sinnvoll einen Sprachkurs der Uni zu belegen. Diese sind sehr fordern und haben ein mindestens so hohes Arbeitsniveau wie die anderen Kurse, bringen aber auch sehr viel.</t>
+  </si>
+  <si>
+    <t>Das Kursangebot fr Jurastudenten ist in Liverpool sehr vielfltig. Teilweise ist zu beachten, dass einige Kurse als Voraussetzung den vorherigen Abschluss eines anderen Kurses haben. Mit dem Ausblick auf das Staatsexamen sind nur Kurse im +ffentlichen Recht und Strafrecht in Mannheim anrechenbar. Ich habe daher Public Law I und II und Criminal Law belegt. Damit die Anrechnung hier auch funktioniert, muss man sich die belegten Kurse zuvor in Mannheim genehmigen lassen.
+In der Regel dauern die Vorlesungen eine Stunde, es gibt aber auch Doppelstunden. Die Gr§e der Vorlesung ist abhngig vom Kurs. Gerade in den Kursen fr das erste Jahr sind die Vorlesungen noch recht gro§. Dadurch, dass man sich ab dem zweiten Jahr aber spezialisieren kann, sind die Vorlesungen gerade fr das dritte Jahr meist kleiner. Zustzlich zu den Vorlesungen finden alle zwei Wochen noch Seminare statt, die in der Regel vorbereitet werden mssen. Die Seminare habe ich als sehr interaktiv empfunden, aber das ist wohl abhngig vom Seminarleiter. Whrend die Vorlesungen aufgezeichnet werden und jederzeit abrufbar sind, ist es unbedingt ratsam zu den Seminaren zu gehen, weil man hier auf die Hausarbeiten und Klausuren vorbereitet wird. Mein Eindruck ist auch, dass der Kontakt zwischen dem Lehrpersonal und den Studenten enger ist. 
+Ende des Semesters stehen dann die Hausarbeiten bzw. Prfungen an, wobei es in manchen Kursen auch Mid-Terms gibt. Die Klausuren dauern etwa 2 Stunden und es gibt eine Auswahl an Fragen, von denen man nicht alle beantworten muss. Hierbei gibt es in der Regel sowohl Essay-Fragen, als auch Problem-Fragen (Fallbearbeitung, wie in Deutschland). Auch in Hausarbeiten knnen beide Frageformen vorkommen. Meiner Erfahrung nach wird deutlich mehr Wert auf gute Argumentation gelegt, als in Deutschland. 
+Das Niveau der Kurse ist vergleichbar mit Deutschland. Ich hatte allerdings den Eindruck, dass man mehr lesen muss, als in Deutschland. Sprachlich bin ich weder in den Klausuren noch in den Kursen an meine Grenzen gesto§en. Allerdings muss man sich bewusst sein, dass die Sprache das wichtigste Instrument im Jurastudium ist, das gilt genauso fr England. Wer die Sprachanforderungen fr den Austausch erfllt, sollte aber keine Probleme haben. 
+Die University of Liverpool ist eine Campus-Uni und alles ist recht zentral gelegen. In der Mitte gibt es die Student Guild, sozusagen das Studentenwerk. Im Gebude der Student Guild befindet sich die Mensa, die allerdings nur aus einer ziemlich guten Burrito- und Salatbar besteht. Au§erdem gibt es mit dem âSphinxÔ einen Pub der auch gutes Essen anbietet. In der Mensa und dem Pub werden hufig Fu§ballspiele oder andere Sportevents gezeigt. Ein besonderer Tipp ist, dass ein Pint Freitags nur 1,60 Pfund kostet. Im Bereich der Student Guild gibt es mehrere Kaffeeketten und einen Buch-/Schreibwarenladen. Auch Supermrkte befinden sich direkt am Campus. 
+Es gibt zwei gro§e Bibliotheken, die 24 Stunden geffnet haben. In den Klausurenphasen kann der Andrang dennoch sehr gro§ sein, was wir aus Mannheim aber ja kennen. Die Bibliotheken sind sehr gut ausgestattet. Es gibt unzhlige PC-Arbeitspltze und sogar Laptops zum ausleihen. 
+Ebenfalls auf dem Campus steht das Sport- und Fitnesszentrum der Uni. Hier  finden die Hallensportarten statt. Es gibt ein Schwimmbad und das Fitnessstudio ist hier untergebracht. Zu Letzterem: Es ist vergleichsweise teuer, etwa so gro§ wie das D2 bei mehr Studenten und vergleichsweise schlechter ausgestattet. Es gibt Alternativen im Stadtzentrum, das zu Fu§ erreichbar ist.  
+In der Einfhrungswoche gibt es die ãWelcome FairÒ, was in etwa wie der Mannheimer Initiativen Markt ist. Ich kann nur empfehlen dort hinzugehen. Es gibt unglaublich viele Societies mit absolut unterschiedlichen Inhalten. Hier stellen sich auch die Sport Societies vor. Sport spielt insgesamt eine viel gr§ere Rolle an englischen Universitten als in Deutschland. Die meisten Sportarten sind in einer Liga organisiert und es wird gegen andere Universitten gespielt. An Sportarten gibt es von  Fu§ball, ber Rugby, bis hin zu Tontaubenschie§en, Bogenschie§en und Quidditch alles, was man sich vorstellen kann. In der Regel lsst sich jeder Sport auch auf jedem Leistungsniveau betreiben, da es meistens mehrere Mannschaften gibt. Ich persnliche habe Handball und Rugby League gespielt. Die integrative Funktion der Sportteams ist nicht zu unterschtzen. Gerade hier  bietet sich eine einfache Mglichkeit in Kontakt mit englischen Studenten zu kommen. Die ãInitiationsÒ und wchentliche ãSocialsÒ lassen das Team dabei sehr zusammenwachsen.  Die Partys der Athletic Union sind dabei ein Muss! Gegen Ende des Sommersemesters finden Varsity und der Christie Cup statt. Varsity  wird gegen die rivalisierenden Liverpool John Moores University ausgetragen. Der Christie Cup wird seit 132 Jahren unter der UoL, der University of Manchester und der University of Leeds austragen und ist nach den Oxford-Cambridge-Duellen der traditionsreichste Sportwettkampf in England. Selbst, wenn der Aufenthalt nur fr ein Semester ist, lohnt es sich auf jeden Fall einem Sportteam beizutreten.</t>
+  </si>
+  <si>
+    <t>Die ESEADE ist eine kleine private Universitt mit einem geringen Angebot und wenigen Studenten. In Frage kamen Kurse aus den drei angebotenen MBA-Tracks. Vor Allem jene aus dem Maestra en Administracon de Negocios. Das Studium an sich ist allerdings ein ganz anderes als das in Mannheim. Die Kurse fanden abends statt (19:00-21:30) und die Teilnehmerzahl beschrnkte sich auf hchstens 15-20 Studenten. Die meisten Kurse waren alle auf Spanisch und hatten einen Umfang von einem halben Semester mit direkt anschlie§ender Prfung, sodass in der Mitte vom Semester neue Kurse anfingen. Die Prfungen sind eher entspannterer Natur, sodass der Workload auf jeden Fall geringer ist als in Mannheim. Auch kann es sein, dass der Professor dir entgegenkommt und ein anderes Examen gestellt wird._x005F_x000D_
+Der Unterricht war stark von (unntigen) Diskussionen und Interaktionen geprgt. Als Internationaler Student konnte ich damit nicht so viel anfangen. Auch wenn die Kommilitonen und Professoren sehr nett waren konnte ich keinen wirklichen Zugang zu ihnen finden, zumal die Studenten in den Masterkursen z.T. viel lter und berufsttig waren und sich eher als eine in sich geschlossene Gruppe prsentierte. _x005F_x000D_
+Seitens der Universitt wurden ber dem regulren Kursangebot hinaus keine weiteren Mglichkeiten wie etwa Sport oder Sprachkurse angeboten.</t>
+  </si>
+  <si>
+    <t>Das Studium an der CityU besteht aus 2 Semestern, Vorlesungen dauern meist 2-3 Stunden. Das Semester fngt deutlich frher an als in Mannheim, was dazu fhren kann das es berschneidungen gibt. Die Uni ist relativ international, aber auch so kommt man mit Englisch sehr gut durch, alle Kurse sind in Englisch soweit ich wei§. 
+Prfungen waren bei uns etwas anders, allerdings auch Corona Semester (deswegen auch alle Vorlesungen Online), und deswegen mglicherweise nicht bertragbar. Bei mir gab es keine Abschlussprfung, sondern es wurde meist viel gestaffelt, also meistens eine Prsentation, Gruppenarbeiten, kurze schriftliche Open Book Klausur, sowie immer Hausarbeit zum Ende des Semesters. 
+Niveau war gut, allerdings auch sehr schwankend. Gab sehr arbeitsintensive Kurse und leichtere. Kursangebot fr Soziologie ist nicht besonders gro§. Wenn man berschneidungen mit Psychologie (also z.B. Sozialpsychologie als Vertiefungs-Modul belegt) oder Politikwissenschaft hat. Persnlich habe ich keine Sozialpsychologie, kann in diesem Feld also nichts ber die Anrechnung von Kursen sagen, denke aber das sollte einfach sein, da es wie gesagt ein gro§es Angebot gibt. Bei Politikwissenschaftlichen berschneidungen oder einfach auch nur Interesse, war es relativ einfach Kurse zu finden und sich diese auch anrechnen zu lassen. Ansonsten ist der soziologische Schwerpunkt an der Uni Kriminologie. 
+Leben an der Uni ist sehr komfortabel. Gute Bibliothek aber auch sonst viel Platz zum Lernen, auch drau§en. 3 Mensen an der Uni, mit unterschiedlichem Angebot, sowie ein Kebab laden und ein Subway.</t>
+  </si>
+  <si>
+    <t>Das Studium in Tilburg unterscheidet sich von dem in Mannheim vor allem dadurch, dass in den meisten Kursen deutlich mehr whrend des Semesters gearbeitet werden muss. Beispielsweise in Form von Essays oder Prsentationen. Die Kurse sind dabei meistens deutlich kleiner als im Mannheimer Grundlagenbereich und es wird mehr diskutiert. Etwas ungewhnlich fand ich zudem, dass es nur eine Bibliothek gab. Dafr konnte man in jedem Gebude einzelne Arbeitspltze oder kleinere Rume finden. Die Uni in Tilburg ist eine typische Campus-Uni und alle Gebude knnen problemlos zu Fu§ erreicht werden. Die Benotung habe ich als vergleichbar mit der Benotung in Mannheim wahrgenommen.</t>
+  </si>
+  <si>
+    <t>Das Studium unterscheidet sich stark von dem in Mannheim: Es gibt eine Anwesenheitspflicht und mndliche Noten, die bis zu 30% in die Note zhlen. Generell gibt es mehrere Prfungsformate innerhalb eines Kurses, sodass die Final am Ende nicht 100% zhlt. Man kann sich darauf einstellen, dass man jede Woche an mindestens einer Gruppenprsentation arbeitet. Das Niveau ist tendenziell etwas unter dem in Mannheim, allerdings ist der Arbeitsaufwand viel hher, da man ber das ganze Semester an Abgaben arbeitet und fr Midterms und Quizzes lernt. Da die meisten Full-time Studenten weniger Wert auf gute Noten legen und sich meist schon mit 80% zufrieden geben (Umrechnung zu 1,0 in Mannheim ab 97%), passiert es hufiger, dass man Gruppenarbeiten auch alleine erstellt. Ich kann daher empfehlen sich lieber mit den anderen Mannheimern zusammenzutun. Mein Stundenplan hat jede Woche variiert, aber da man den Plan am Anfang des Semesters bekommt, kann man sich doch recht gut organisieren. Ein Pluspunkt ist, dass man mit allen Finals vor Weihnachten durch ist und dann nicht noch einmal im Januar dafr zurckkommen muss. Das Englischlevel ist gr§tenteils sehr gut und mir persnlich ist es nicht passiert, dass man Professoren schlecht verstanden hat, ich habe aber von anderen von solchen Flle gehrt. Manchmal fangen Studenten an auf Spanisch Fragen zu stellen, die dann auch auf Spanisch beantwortet werden, daher sollte man zumindest ein gewisses Grundverstndnis mitbringen. Der Campus ist zu unserem Semesterstart neu erffnet worden und extrem modern ausgestattet. Es gibt keine zentrale Bibliothek, sondern Workrooms auf jeder Etage. Die Mensa ist leider vllig berteuert und auch nicht gut, daher bringen sich die meisten Leute Essen mit. Da die Uni sehr weit au§erhalb liegt, gibt es leider auch kaum Mglichkeiten im nahen Umkreis etwas zu kaufen.</t>
+  </si>
+  <si>
+    <t>Es gibt eine Vielzahl an Kursen und Angeboten an der Business School. Die Wahl wird vorab ber ein Portal getroffen. Das gr§te Problem ist die Abstimmung mit dem tatschlichen Kursangebot und der entsprechenden Wahl. Ich hatte vermehrt das Problem, dass im Kursregister vorab Kurse angezeigt wurden, ich diese dann bei der UniMa angefragt habe und sich spter herausstellte, dass diese Kurse in unserem Semester gar nicht angeboten wurden. Hier ist das System der Absprache und Information einfach noch nicht ausgereift genug. Daher kann die Kurswahl ein etwas lngerer Prozess mit viel Vor und Zurck sein. Fr einige Kurse mssen dann bei der USC auch noch Erlaubnisse eingeholt werden, da diese zum Beispiel au§erhalb des Business Bereich sind oder entsprechende Vorkenntnisse bescheinigt werden msst. Es lohnt sich in meinen Augen frhzeitig so viele Kurse wie mglich an der UniMa anzufragen, und gleichzeitig die Bewertungen auf RateMyProfessor und in den Erfahrungsberichten zu lesen. Zu Beachten ist immer die Mglichkeit der Kreditierung an der UniMa, also BWL-Bezug und Wissenschaftlichkeit. Gegen eine Gebhr knnen auch mehr Kurse als kostenlos erlaubt sind, belegt werden. Dies kann empfehlenswert sein, wenn ein Kurs spannend zu sein scheint, der aber nicht die Anforderungen der UniMa erfllt. 
+Grundstzlich lsst sich sagen, dass die Art der Kurse grundlegend anders von der in Mannheim ist. Die Kurse sind kleiner, interaktiver, persnlicher und es gibt mehr Abgaben, kleine Tests etc. Auch spielt die Mitarbeit und Anwesenheit eine gr§ere Rolle. Viele Kurse sind au§erdem praxisorientierter und weniger wissenschaftlich-forschend. Viele der Professor:innen kommen in erster Linie aus der Praxis und nicht aus der Wissenschaft. Daher sind diese hufig auch sehr persnlich interessiert und das Verhltnis ist oft deutlich freundschaftlicher. Das kann Vor- und Nachteile haben. Fr die meisten Kurse gilt in meinen Augen, dass das Niveau und der Aufwand deutlich geringer ist, als in Mannheim. Anwesenheit, Mitarbeit und das regelm§ige ausfllen von Multiple-Choice Tests macht einen gro§en Teil der Note aus. Allerdings ist der Leseaufwand deutlich gr§er und es mssen je nach Kurs regelm§ig auch Hausaufgaben eingereicht werden. Der Aufwand verteilt sich entsprechend mehr auf das Semester, sodass es zwar mehr innerhalb der Woche zu tun gibt, dafr aber keine gro§en, schwierigen End-Terms. Auch gibt es dadurch mehr Mglichkeiten seine Noten noch einmal zu beeinflussen.
+Je nach Stundenplan hat man 1 - 4 Kurse pro Tag, welche in Blcken von ungefhr 1,5 Stunden abgehalten werden. Je nach Auswahl kann man sich den Freitag freihalten und alle seine Kurse auf zwei oder drei Tage legen. 
+Die Business School bietet viele Mglichkeiten um sich eine Platz zu suchen, sowohl alleine, als auch fr Gruppenarbeiten. Sehr zu empfehlen ist es sich Rume zu buchen. Das geht ganz einfach am Empfangstresen der BS. So kann man Gruppenrume mit Bildschirm fr mehrer Stunden belegen und dort arbeiten. 
+Fr die Verpflegung gibt es mehrere Mglichkeiten. Es gibt verschiedene Meal-Plans die unterschiedliche Optionen beinhalten. Je nach Plan kann man da an verschiedenen Orten essen. Das wichtigste ist: es gibt sogenannte Meal-Swipes, Meal-Plan Dollar und Carolina Cash. Die Meal-Swipes garantieren den Eintritt in die Dining Halls zu mglichst gnstigsten Preis (ca. 9-11 USD). Dort gibt es dann All-You-Can-Eat Buffet. Au§erdem kann man fr die Dining Halls auch mit Meal-Plan Dollar bezahlen. Die Meal-Plans enthalten dann verschiedene Kombinationen aus Meal Swipes und Meal-Plan Dollar die dann zum Beispiel unterschiedliche Ablaufdaten haben. Mit den Meal-Plan Dollar kann an fast alle Essens- und Snackgelegenheiten bezahlt werden. Der Vorteil der Meal-Plans ist es, dass man zu Anfang des Semester direkt ein Budget fr Essen ausgibt/einplant und dadurch dann whrend des Semesters idealerweise keine Ausgaben mehr hat. Ich habe mich fr eine Option namens ÒBLOCK 50Ó entschieden. Diese beinhaltete 50 Meal Swipes und 375 Meal Plan Dollar. Diese werden dann auf eure Studierenden Card gebucht mit der ihr berall bezahlt. Das hat fr mich super funktioniert, da die Meal Swipes nicht ablaufen und auch wenn ihr in einer Woche keine nutzt, knnt ihr diese einfach in der nchsten verwenden. So sind wir ca. alle zwei Tage in die Dining Hall gegangen und haben ab und zu Kaffee oder Snacks mit den Meal Plan Dollar gekauft. Diese gelten dann zum Beispiel auch fr Ketten wir Chick-Fil-A, oder Starbucks, die es auch auf dem Campus gibt. Upgraden kann man immer, nur downgraden nicht. Daher empfiehlt es sich erst einmal konservativ zu buchen und im Zweifelsfall spter aufzustocken. 
+Gezahlt habe ich dafr 963 USD. 
+Dazu kommen dann noch Kosten falls man zu Hause frhstckt und kocht, und dafr einkauft.</t>
+  </si>
+  <si>
+    <t>In Bergen gibt es zwei Semester, die zeitlich hnlich zu den Mannheimer Semestern liegen. Das FSS begann Mitte Januar und endete Ende Mai. Allerdings ist der Aufbau des Semesters anders als in Mannheim Ð die meisten Kurse laufen nicht von Anfang bis Ende des Semesters, sondern beginnen z.B. erst im Mrz oder enden schon zur Mitte des Semesters. In meinem konkreten Fall haben beide klinischen Kurse (Medical Health Psychology und Culture and Psychopathology) sehr frh im Semester begonnen und waren dann Ð als intensive Blockkurse Ð nach wenigen Wochen schon abgeschlossen. Das Kursangebot fr Psychologie ist an der Uni Bergen leider nicht allzu gro§. Allerdings ist es doch mglich, sich z.B. zwei Aufbaumodule anerkennen zu lassen (Anerkennung s. unten). Das Niveau ist gut machbar und auch das Sprachniveau war nicht zu hoch, jedoch empfand ich die Prfungsformate als recht anspruchsvoll, da sie nicht den von Mannheim gewohnten Formaten entsprochen haben. Insgesamt waren meine Prfungen eher auf Argumentieren ausgelegt als auf Faktenlernen. Fr die von mir gewhlten Kurse wurde eine oder mehrere Essay-Abgaben verlangt, bei denen man aus unterschiedlichen Fragestellungen whlen konnte. Somit hat man sich eher in einzelne Themengebiete vertieft, anstatt einer breiten Abfrage. Das empfand ich als ein besseres, tiefergehendes Lernen, denn es war auch verlangt, eigene berlegungen und Argumente miteinzubringen. Aber damit ging auch einige Prfungsliteratur einher, an der man sich beim Schreiben orientieren sollte. Die Vorlesung selbst war dagegen meist nur ein kleiner Abriss des Themas. Lesen und lernen war zu den meisten Zeiten auf dem Campus in den Bibliotheken mglich, sofern die Corona-Situation es zugelassen hat. Zustzlich habe ich einen Norwegisch-Sprachkurs belegt (NOR-INTRO), den ich sehr empfehlen kann. Der Kurs war entspannt aufgebaut und es hat Spa§ gemacht, sich einige Formulierungen und Wrter anzueignen. Da Norwegisch keine schwere Sprache ist, besonders nicht fr Deutsch-Sprechende, war es durch den Kurs mglich, norwegische Texte sinngem§ zu verstehen oder sich auf Norwegisch zu verstndigen. Hierfr gab es am Ende eine kurze mndliche Prfung (Pass/Fail), in der man sich mit anderen Studierenden unterhalten sollte. Das war nach dem Kurs nicht anspruchsvoll. Alternativ ist es aber auch mglich, Sprachkurse mit hherem Zielniveau zu belegen, z.B. NOR-U1 oder NOR-U2.</t>
+  </si>
+  <si>
+    <t>Im Gegensatz zum Studium in Mannheim gibt es in Swansea durchgehend Anwesenheitspflicht. Diese wird aber nicht sehr streng durchgesetzt. Das Niveau bzw. die Anforderungen der Module unterscheidet sich deutlich je nachdem aus welchem Jahr des Bachelorstudiums in Swansea man Module belegt. Whrend die Module aus dem ersten Jahr ziemlich einfach zu bewltigen sind, sind die Module aus dem dritten Jahr durchaus anspruchsvoll, aber immer noch machbar. Der Vorteil von Modulen aus den letzten beiden Jahren ist, dass es Wahlfcher mit kleineren Gruppen und interessanteren Inhalten gibt. Die zeitliche Belastung whrend des Semesters hlt sich in Grenzen, man hat pro Woche ca. 10 Zeitstunden an Veranstaltungen. Das Mensaessen ist gut, aber teurer als in Mannheim (4-5 Pfund pro Mahlzeit).</t>
+  </si>
+  <si>
+    <t>Als eine der renommiertesten Universitt des Landes greift die KAIST natrlich auch auf einen Pool von exzellenten Professoren und Dozenten zurck, von denen die meisten an einer der Top-Universitten in den USA promoviert haben und dementsprechend auch perfektes Englisch sprechen Ð was man von den meisten Studenten der Universitt nicht behaupten kann. Generell sind die Kurse ganz ordentlich, aber doch auch sehr anders als man aus Mannheim gewhnt ist. So herrscht generell immer Anwesenheitspflicht, Mitarbeit wird zumeist erwartet und es gibt zahlreiche Assignments, Gruppenarbeiten, Mid-Terms und Prsentationen. Das Semester ist an der KAIST aufgeteilt nach Wochen. So gibt es drei verschiedene_x005F_x000D_
+Kursformate:  _x005F_x000D_
+ 1. Hlfte: Finden von Woche 1 Ð 8 statt und geben 1.5 lokale Credits, sprich 3 ECTS_x005F_x000D_
+2. Hlfte: Finden von Woche 9 Ð 16 statt und geben 1.5 lokale Credits, sprich 3 ECTS _x005F_x000D_
+Ganzsemester: Finden von Woche 1 Ð 16 statt und geben 3 lokale Credits, sprich 6 ECTS._x005F_x000D_
+Ganz generell ist es eigentlich unmglich in einem Kurs eine schlechte Note zu erzielen (&lt;2.0). Gerade fr Austauschstudenten, deren gr§ter Vorteil ihr gutes Englisch ist war es berhaupt kein Problem alle belegten Kurse mit einem A abzuschlie§en. Leider rechnet die Uni Mannheim derzeit nur ein A+ als 1.0 an, fr das man dann allerdings schon auch echt einiges tun muss und dass nur an 1-2 Studenten pro Kurs vergeben wird. Die Gr§e der Kurse war recht unterschiedlich und reichte von 3-50 Studenten. Da sich die Note der Kurse aus sehr vielen einzelnen Teilnoten (wie oben erwhnt) zusammensetzt, hat man wirklich whrend des gesamten Semesters zu tun. Das kann man etwa damit vergleichen wie eine Klausurenphase in Mannheim nur ber das Semester verteilt. Sprich, man hat nicht wirklich riesen Druck und sitzt auch mal mehr als 6 Stunden am Schreibtisch, allerdings vergeht kaum eine Woche in der man nichts abgeben muss (dies war zumindest mein Eindruck mit 4 belegten 6-ECTS Kursen). Wirklich schwer oder anspruchsvoll war das Studium also nicht, mit einem gewissen Aufwand verbrunden allerdings schon. _x005F_x000D_
+Ganz cool war, dass man als Austauschstudent Kurse aus jeglichem Studiengang der KAIST whlen kann und man so auf ein ganz interessantes Kursangebot aus den Bereichen Finance, Marketing, Management, IT, Green Business und mehr hoffen darf. Aus den Erzhlungen der anderen Studenten sind hierbei die Finance und IT Kurse die anspruchsvollsten Ð man lernt hier wohl aber auch am meisten. _x005F_x000D_
+Sehr angenehm ist, dass jedem Studenten ein eigener Platz in einem so genannten Study Lab zugewiesen wird. Man muss sich also nie Sorgen um einen Bib-Platz machen, die Labs haben 24h 7 Tage die Woche geffnet und sind gro§zgig ausgestattet. Auch kommt man hier mit vielen Koreanern und anderen Studenten in Kontakt die das Lab mit einem Teilen (etwa 15 Studenten pro Lab). Es gibt auch eine kleine Bibliothek, die eigentlich immer leer ist und in der auch angenehme Lern-Atmosphre herrscht (vor allem da hier immer geheizt/ klimatisiert wird).</t>
+  </si>
+  <si>
+    <t>Insgesamt mssen 5 Kurse belegt werden um ausreichend Credits fr die Anerkennung in Mannheim zu belegen. 3 dieser Kurse mssen aus dem Bereich BWL stammen die anderen 2 sind frei whlbar diese knnen auch au§erhalb der Business School beispielsweise in Bereichen wie Sportwissenschaft oder Fashion belegt werden.  _x005F_x000D_
+Die Kurswahl fr Austauschstudenten wird erst vorort freigeschaltet, amerikanische Studenten dagegen whlen schon viel frher ihre Kurse was dazu fhrt, dass viele beliebte Kurse bereits komplett belegt sind. Fr ausgewhlte Kurse werden aber noch extra Pltze fr Austauschstudenten freigeschaltet. Trotzdem gilt first-come first-serve. Diese Tatsache sollte aber nicht zu sehr verunsichern, da in der ersten Woche sehr viele Kurse gewechselt werden und dementsprechend auch wieder Pltze frei werden. Oftmals sind Professoren auch gewillt einen extra Platz zu ffenen wenn sie persnlich angesprochen werden. Gerade als internationaler Student ist es oftmals relativ einfach in bereits ausgebuchte Kurse zu kommen. _x005F_x000D_
+Die meisten Kurse sind wesentlich kleiner als in Mannheim. Das zeichnet sich auch dadurch aus, dass die Professoren viel wert auf persnlichen Kontakt mit ihren Studenten legen und somit meistens auch Anwesenheitspflicht besteht. Gruppenarbeiten spielen eine gro§e Rolle in den meisten Kursen. _x005F_x000D_
+Der Arbeitsaufwand ist gleichm§ig ber das Semester verteilt und dadurch ist es nicht unblich, dass die letzte Klausur nur noch einen geringen Einfluss auf die Endnote.</t>
+  </si>
+  <si>
+    <t>Das Kursangebot der Uni ist im Allgemeinen berschaubar, aber sehr interessant. Es finden sich hier Kurse aus den Bereichen Finance, Management, Marketing und Law. Das Semester war hierbei in 2 Hlften a 6 Wochen unterteilt. In jeder Hlfte musste man einen oder 2 Kurse belegen. Oftmals wurden die Kurse in Form von 2 Vorlesungen die Woche a 3 Stunden abgehalten. Manchmal gab es aber auch 4 Vorlesungen a 1,5 Stunden. Allgemein hat man jedoch etwas mehr Freizeit als in Mannheim, was frderlich fr das Reisen ist. Zudem wird hier sehr viel Wert auf Gruppenarbeit, Teamwork und Mitarbeit gelegt, weniger auf einzelne Klausuren. Das Niveau befindet sich doch etwas unter dem Mannheimer Niveau, jedoch wird hier der Aufwand viel gleichm§iger auf das Semester verteilt. Man muss von Vorlesung 1 an am Ball bleibe, jedoch bleibt einem die stressige Klausurenphase gegen Ende erspart._x005F_x000D_
+Die Anerkennung der Kurse an der Uni Mannheim gestaltet sich sehr unproblematisch, alle meine Kurse wurden als International Course anerkannt. Das Sprachniveau sollte fr Mannheimer Studierende kein Problem darstellen. Viele Studierende hier machen ein Double-Degree oder sind ebenfalls im Auslandssemester, weshalb fr viele Englisch keine Muttersprache ist. Deshalb befinden sich viele auf einem hnlichen Level._x005F_x000D_
+Der Campus der Uni ist sowohl sehr schn, als auch gro§. Es befinden sich hier zahlreiche Cafes, Restaurants und auch eine Bar. Eine eigentliche Mensa gibt es hier nicht, jedoch findet man hier immer was fr einen bezahlbaren Preis.</t>
+  </si>
+  <si>
+    <t>Infos zum Studium an der Gasthochschule
+Man kann an der Nova IMS als Austauschstudent  im Bachelor aus drei verschieden Bachelor Studiengngen Kurse whlen, weshalb das Kursangebot ziemlich gro§ ist. Dabei ist die Unterrichtssprache immer auf Englisch, sobald Erasmusstudenten in den Kursen vertreten sind. Hierbei ist aber noch wichtig anzumerken, dass man hier keine BWL-Fcher belegen kann, da der BWL Campus der Nova au§erhalb von Lissabon liegt. 
+In der Universitt selbst habe ich mich wieder ein bisschen an meine Schulzeit zurckerinnert, da meistens nicht mehr als 30 Studenten im Raum sind und der Unterricht interaktiver gestaltet ist als in Deutschland. Es gab aber keine Anwesenheitspflicht oder gar eine Mitarbeitsnote. Ein Vorlesungsblock geht hier nur 75min wobei man dazu sagen muss, dass es meistens 5 Minuten spter losgeht, da die Portugiesen nicht immer pnktlich sind. In den meisten Fchern ist das Niveau niedriger als in Mannheim. Die Noten setzen sich eigentlich in allen Kursen aus ein bis zwei Gruppenarbeiten oder individuellen Assignments unter dem Semester und einer Klausur am Ende des Semester zusammen. So hatte ich am Ende keine Klausur gehabt die mehr als 40% in die Endnote einging. Es gibt auch Kurse in denen auch Midterm-Klausuren geschrieben werden, aber das sollte meines Wissens nur Kurse aus Masterstudiengngen betreffen. Ich hatte 4 Kurse belegt und kam mit dem Workload ziemlich gut zurecht. Das Sprachniveau der Professoren war gut bis sehr gut, es wird aber kein ausgezeichnetes Englisch gefordert. Ebenso gibt es einen Sprachkurs, den man sich anrechnen lassen kann, welchen ich aber nicht belegt habe.
+Die Vorlesungszeit im Herbst-/Wintersemester beginnt Anfang September und endet vor Weihnachten, die Klausuren werden dann im Januar geschrieben. 
+Auf dem Campus gibt es zwei Mensen, zwei Cafs und viele Mglichkeiten zum Lernen/Arbeiten oder fr Gruppenarbeiten (drau§en und drinnen).</t>
+  </si>
+  <si>
+    <t>Allgemein ist der Aufbau des Studiums in Kanada sehr unterschiedlich zu dem in Deutschland. Viele meiner Kurse waren deutlich kleiner und eher wie Schulunterricht. Oft gab es schon whrend des Semesters Abgaben, Paper oder Midterm Klausuren. Dafr zhlen die Prfungen am Ende nicht mehr so viel zur Gesamtnote. Das Niveau eines Economics Studiums an der University of Ottawa wrde ich als etwas einfacher einschtzen als in Mannheim, gelernt habe ich aber wegen der vielen Abgaben und Zwischenprfungen etwa genau so viel. Dieser Aufwand zahlt sich aber aus, da mir fast alle meine Kurse an der Uni Mannheim angerechnet werden.
+An der University of Ottawa kann man sowohl auf Englisch als auf Franzsisch studieren und auf dem Campus werden gleicherma§en beide Sprachen gesprochen. Man kann auch, wenn die eigenen Sprachkenntnisse gut genug sind, Kurse aus dem franzsischen Bereich belegen. Die Kurswahl findet vor dem Semesteranfang statt, wobei man in den ersten Wochen noch die Mglichkeit hat seine Kurse zu wechseln. Ich wrde einem Raten sich zuerst fr mehr Kurse anzumelden als man am Ende belegen will, da das Abmelden aus einem Kurs weniger aufwendig ist als sich bei einem neuen Anzumelden.
+Die University of Ottawa ist eine Campus Uni und bietet einem sehr viel an. Neben den kostenlosen Angeboten im Sport, gibt es zu Allem eine Initiative oder Klub und man hat viele Mglichkeiten sich zu engagieren. Auch kann man auf dem Campus arbeiten, wobei es eher schwierig ist als Austauschstudent an einer Fakultt und bei einem Professor zu arbeiten.</t>
+  </si>
+  <si>
+    <t>Der Unialltag ist sehr unterschiedlich zu Mannheim. Meist hatte ich nur 1-2 Veranstaltungen pro Woche, dafr aber deutlich mehr selbststndig zu tun. Immer nur einen Kurs zur selben Zeit zu haben ermglicht ein deutlich tieferes Eindenken in die Themen, als es in Mannheim der Fall ist. Generell gibt es mehr Diskussion, die Inhalte in BWL sind praxisorientierter und deutlich weniger mathematisch als in Mannheim. Die Prfungsarten sind vielfltiger und die Hausarbeiten haben mir viel Sorge vor der Bachelorarbeit genommen. Es war au§erdem immer wieder mglich bzw. notwendig sich innerhalb der Kurse eigene Schwerpunkte zu setzen.
+Diese Uni ist mit Sicherheit die falsche Adresse, wenn man mit dem Auslandssemester seinen Schnitt aufpolieren mchte, aber die Benotung war bei mir immer fair und die Kurse ansprechend gestaltet. Das Kursangebot ist nicht riesig, meiner Meinung nach aber ausreichend, weil wir auch fachfremdes whlen durften.</t>
+  </si>
+  <si>
+    <t>Das Kursangebot der UF ist gigantisch und ihr werdet sicherlich etwas finden, was euch interessiert und/oder an der Uni Mannheim anerkannt wird. Fr viele Kurse msst ihr ein Buch erwerben. Dafr solltet ihr das Internet durchforsten nach alten Ausgaben und Leihangeboten, da dies sonst sehr teuer sein kann. Beim alltglichen Studium msst ihr euch allerdings ein wenig umstellen. An der UF msst ihr in den meisten Fchern regelm§ig Hausaufgaben abgeben, Quizze schreiben oder auch Klausuren whrend des Semesters schreiben. Die klassische Klausurenphase, die ihr aus Mannheim kennt, verteilt sich mehr auf das ganze Semester. Da allerdings alle Aktivitten in die Gesamtnote mit eingehen, nimmt das den Druck von den finalen Klausuren und ihr habt am Ende des Semesters nicht mehr so viel zu tun.
+Zum Schwierigkeitsgrad kann ich sagen, dass dieser unter dem Niveau der Universitt Mannheim liegt. Wer flei§ig ist, erhlt meist sehr gute Noten.
+Beim Essen habt ihr im Wesentlichen zwei Mglichkeiten. Die erste ist der Meal Plan (1975$). Mit dem Meal Plan knnt ihr so oft und so viel ihr wollt in der Dining Hall, 100 Meter von der Weaver Hall entfernt, essen und trinken. Das Essen ist in Ordnung, wird jedoch mit der Zeit etwas einseitig. Wenn ihr nach Abwechslung sucht, knnt ihr fr 250$ (im Meal Plan enthalten) in den verschiedenen Restaurants on Campus wie Wendy's, Subway, Papa John's und vielen mehr essen gehen. Der Meal Plan spart vor allem Zeit, weswegen ich die Entscheidung pro Meal Plan nicht bereue. Die zweite Mglichkeit ist das eigene Kochen in den Kchen von Weaver und/oder die eben genannten Restaurants aufzusuchen. Supermrkte (Walmart, Publix) befinden sich nicht auf dem Campus und sind mit Bus oder Uber innerhalb von ca. 10-15 Minuten zu erreichen.</t>
+  </si>
+  <si>
+    <t>Das Studium an der NSYSU ist nicht mit dem an der Uni Mannheim zu vergleichen. Nach einer unbersichtlichen Kurswahl aus dem begrenzten Angebot an englischsprachigen Kursen, hat dann doch alles irgendwie geklappt und ich hatte Dienstag-Donnerstag Uni und vier Tage Wochenende. Alle Kurse die ich belegen wollte, konnte ich auch belegen und wurden mir von der Uni Mannheim angerechnet. _x005F_x000D_
+Die Vorlesungen beginnen im September, etwas spter als in Mannheim, und enden Anfang Januar. Wenn man clever whlt und mit den Professoren redet, ist es auch mglich schon vor Weihnachten fertig zu sein, einige haben dies genutzt um zu Weihnachten schon wieder zu Hause zu sein, ich habe den Januar noch zum reisen genutzt und mir somit auch keinen Stress mit den Kursen gemacht. _x005F_x000D_
+In den meisten Kursen stehen vor allem Gruppenarbeiten in Form von Prsentationen und Papers im Vordergrund, Klausuren gibt es kaum, hchstens Take-Home Exams, generell sind diese Aufgaben relativ aufwendig und zeitintensiv, aber gut zu bewltigen. Die Kommunikation und Arbeitsmoral der Gruppenpartner ist oft schwierig und meistens macht man am Ende die ganze Arbeit alleine, aber zum Glck sind die Aufgaben nicht sehr schwierig, wobei man den Unterscheid zwischen Bachelor und Master Kursen deutlich merkt. _x005F_x000D_
+Der Chinesisch Kurs war zwar mit der anspruchsvollste Kurs den ich gewhlt habe, jedoch wrde ich ihn auf jeden Fall weiterempfehlen, da es sehr hilfreich ist, sich zumindest ein bisschen verstndigen zu knnen. Viele Taiwanesen sprechen aber, im Vergleich zu den Chinesen, sehr gutes Englisch. Ich habe bereits in Mannheim FSK Chinesisch belegt und konnte nach einem Einstufungstest auch ziemlich genau da weiter lernen, wo wir in Mannheim aufgehrt haben, was ich als sehr gut empfand. _x005F_x000D_
+Das Angebot an Mensen auf dem Campus ist relativ gro§ und gnstig (1-3Û pro Mahlzeit), au§er Bagels gibt es jedoch nichts westliches zu essen. Au§erhalb des Campus, fu§lufig zu erreichen, gibt es einige andere Optionen, die nicht viel teurer sind.</t>
+  </si>
+  <si>
+    <t>Das Studium ist sehr anders als in Mannheim.  Es hat sich in jedem Kurs eher wie in einem Klassenraum angefhlt, da wir auch immer hchstens 30 Studierende in einem Raum waren und die Vorlesungen deutlich interaktiver gestaltet wurden. In den meisten Kursen zhlt nmlich die mndliche Mitarbeit zur Note hinzu, bei mir waren es meistens so 25% der Note. Zustzlich hat man auch in (fast) jedem Kurs sogenannte ãReadingsÒ, welche meistens aus Artikeln oder Essays bestanden, welche man vor der nchsten Vorlesung lesen sollte Ð ob man dies nun macht oder nicht, ist jedem selbst berlassen, da sie manchmal schon zeitaufwendig sein knnen, jedoch wrde ich es empfehlen in die Readings vor der Vorlesung reinzugucken aber ausfhrlich habe ich diese eigentlich nie wirklich gelesen._x005F_x000D_
+Ich hatte auch keine Klausuren, sondern nur Assignments whrend dem Semester, welche von Prsentationen bis zu Hausarbeiten reichen knnen. Persnlich fand ich jedoch dieses Konzept mal eine gute Abwechslung, vor allem zu Mannheim. Dadurch dass die Assignments whrend dem Semester auch gut verteilt sind, ist der Stress auch lange nicht so gro§ wie in Mannheim in der Klausurenphase, sodass man auch noch genug Zeit hat, Kanada zu erkunden trotz Abgaben.</t>
+  </si>
+  <si>
+    <t>An der Hochschule ist jedes Semester noch mal in zwei Hlften unterteilt. In jeder Hlfte belegt man zwei Kurse mit jeweils 7,5 ECTS und nach der Hlfte des Semesters schreibt man zwei Klausuren und ganz am Ende des Semesters die anderen beiden. Mir gefllt dieses System sehr gut, da man sich so parallel nur auf zwei verschiedene Kurse konzentrieren muss und auch die Klausurenphasen entspannter sind.
+Alle Kurse beinhalten als Leistungsnachweis nicht nur eine Klausur, sondern immer auch Seminare, Gruppenarbeiten oder Essays, die bewertet werden. Somit hngt nicht die ganze Note von einer Prfung ab und man verteilt den Studienaufwand automatisch mehr ber das Semester.
+Allerding sind die Gruppenprojekte teilweise sehr zeitintensiv und laufen oft ber mehrere Wochen. In manchen Kursen herrscht in den Vorlesungen Anwesenheitspflicht, in den meisten Kursen aber nur in Seminaren, Workshops oder hnlichem. 
+Die Prsenzzeit in der Uni ist geringer als in Mannheim, dafr muss man nebenher alleine und in Gruppen an benoteten Aufgaben arbeiten. Dennoch ist der Lernaufwand Ð auch im Hinblick auf die Klausuren Ð geringer als in Mannheim. Gute Noten bekommt man nicht geschenkt, aber sie sind auch neben einem abwechslungsreichen Studentenleben erreichbar.
+Die Jnkping University bietet alles wichtige auf einem Campus. Man hat keine weiten Wege zwischen seinen Kursen, studentischen Flair und verschiedene Cafs und Mensen. Der moderne Campus ist nur 10 Gehminuten von der Innenstadt entfernt und liegt direkt an einem See.
+Es werden schwedisch Sprachkurse angeboten, aber ich habe mich aufgrund des hohen Zeitaufwandes pro Woche dagegen entschieden. In Schweden kommt man aber auch berall mit Englisch zurecht, da das Sprachniveau in der Bevlkerung durchschnittlich sehr hoch ist.</t>
+  </si>
+  <si>
+    <t>Wer es gewohnt ist, in Mannheim zu studieren, wird sich am Anfang etwas umstellen mssen. Aber fr mich war dieser Aspekt gerade der Besondere an meinem Auslandssemester. Die Kurse sind alle vergleichsweise klein, etwa 40 bis 60 Studenten je nach Kurs. Demnach ist die Atmosphre eher familir und der Unterricht sehr interaktiv. In den meisten Fchern macht die Prfung am Ende des Semesters nur 40 bis 60 Prozent der Endnote aus, der Arbeitsaufwand verteilt sich also eher gleichm§ig ber das gesamte Semester. Es gibt sehr viele Gruppenarbeiten, Case Studies und Prsentationen, ca. eine Prsentation pro Woche, je nach gewhlten Kursen. Bei der Wahl der Gruppen sollte man beachten, mglichst keine Gruppe mit Franzosen zu bilden, da es bei ihnen meist nur um das Bestehen geht, sodass sie nur sehr wenig Zeit investieren. In manchen Fchern gibt es Mid-Term Klausuren, etwa gegen Ende Oktober. Anschlie§end gibt es zwei Wochen Herbstferien. Die richtige Klausurenphase fngt dann Anfang Dezember an und endet vor Weihnachten. Da viele andere Leistungen, ãcontinuous assessmentÒ, whrend des Semesters gebracht werden mssen, kann es sogar sein, dass man am Ende keine Prfung mehr schreiben muss, zwischen zwei und fnf Prfungen sind eher die Regel. 
+Es gibt Kurse, die speziell fr exchange students angeboten werden, wie beispielsweise French Civilization, European oder International Economics. Auch die franzsischen Sprachkurse werden nur fr Austauschstudenten angeboten. Dafr muss man zu Beginn des Semesters eine kurze mndliche Prfung ablegen und wird dann je nach Sprachniveau in Gruppen eingeteilt. Ich fand es sehr hilfreich einen Sprachkurs zu machen, da ich meine Freizeit eher mit Internationals verbracht habe und so nicht sehr viel Franzisch gesprochen habe. Der Sprachkurs war auf sehr hohem Niveau, eher praktisch und sehr hilfreich. Auch war der Kurs im Vergleich zu den Wirtschaftskursen sehr locker und persnlich.
+Im Allgemeinen gilt an der ESSEC die Faustregel, dass die Finance und Accounting Kurse vom Niveau her eher schwierig sind im Vergleich zu den Marketing und Management Kursen. Trotz allem wrde ich das Niveau an der ESSEC als niedriger als in Mannheim einstufen, sodass man mit weniger Aufwand sehr gute Noten erreichen kann. 
+Da alle Kurse nur 4 ECTS wert sind, einige sogar nur 2 ECTS, muss man um die Mannheimer Vorgabe von 30 ECTS acht Kurse belegen, was etwas anstrengend ist. Allerdings ist alles gut machbar, die Kurse sind nicht so umfangreich und die Prfungen sind um einiges leichter als in Mannheim. Bei manchen Prfungen handelt es sich um reine Multiple Choice Fragen. 
+Besonders gut fand ich ãInternational MarketingÒ und ãSalesforce ManagementÒ. Die Dozenten waren sehr engagiert mit viel Erfahrung in der Wirtschaft, sodass die Kurse sehr praxisorientiert waren. 
+Es gibt eine Cafeteria, in der man Kaffee, Tee etc. und Snacks kaufen kann. Auch gibt es eine Mensa, wo man etwa 5 Euro fr ein Mittagessen bezahlt.</t>
+  </si>
+  <si>
+    <t>Auf dem ersten Blick finde ich das Studium sehr anders als das Studium hier in Mannheim, weil sie innerhalb Wintersemester noch zwei Blocksemester haben. Im ersten Blocksemester hat man die Wahl, entweder einen Kurs von 15 ECTs oder zwei Kurse von 4 ECTs und 8 ECTs. Im zweiten Blocksemester kann man Kurse von 4 ECTs oder 8 ECTs belegen._x005F_x000D_
+_x005F_x000D_
+Die Themen zu der Lehrveranstaltung sind mir relative innovativ, was ich sehr gut finde, weil es eine sehr gute Ergnzung zu meinem Mannheimer Studium war. _x005F_x000D_
+_x005F_x000D_
+Das Niveau ist nicht schwieriger als das Studium in Mannheim, aber man muss sehr viel dafr machen. Innerhalb vom ersten Monat habe ich aller zwei Wochen eine Aufgabe/Essay/Group Project/Online Test bekommen.</t>
+  </si>
+  <si>
+    <t>Generell gibt es in den Mathe fchern keine Anwesenheitspflicht, anders als ich es z.B. von Business-Kursen mitbekommen habe, wo es Partizipation-Noten gibt. Manche Kurse haben Hausaufgaben die man Online oder persnlich abgeben muss und die dann auch teilweise zu 15 oder 20% in die Endnote mit einflie§en. Material ist (mit Ausnahme von Zahlentheorie) online verfgbar und die meisten Vorlesungen werden zudem aufgezeichnet und knnen online angeschaut werden. Bei drei Mathekursen war mein Zeitaufwand sehr berschaubar mit 12 Wochenstunden (Zwei Einheiten je 2 Stunden pro Kurs). Der Stoffumfang ist grundstzlich geringer als in Mannheim, dafr gibt es ãMidtermsÒ (manchmal sogar zwei) die in die Endnote mit einflie§en, sodass man sich immer wieder mit dem Stoff beschftigen muss. Die Midterms und Hausaufgaben sind dafr aber auch recht angenehm, sodass man mit etwas lernen mit 80% - 90% Notendurchschnitten in die Endklausuren gehen kann.</t>
+  </si>
+  <si>
+    <t>Das Kursangebot an der Universitt Tampere ist vielfltig. Ebenso das Format der Kurse. So gibt es neben klassischen Vorlesungen und Seminaren auch online Kurse, die im Zuge des Open University Programms stattfinden. So kann man auch Kurse von anderen Fakultten und Universitten belegen. 
+Auf jeden Fall empfehlenswert sind finnische Sprachkurse, die neben grundlegender sprachlicher Kompetenz auch viel ber Kultur und Geschichte von Finnland vermitteln. Am begehrtesten ist dabei der Finnish Survival Course, der sehr schnell voll ist weshalb eine wirklich schnelle Anmeldung ratsam ist. Auch ich bin leider fr diesen Kurs nicht mehr genommen worden, jedoch sind klassische Finnisch A1 Kurse hnlich aufgebaut und vermitteln wie bereits erwhnt neben sprachlichen Kompetenzen auch andere ntzliche und interessante Sachen. Der Unterricht findet je nach Kurs drei bis viermal pro Woche statt. Der Aufwand ist somit verhltnism§ig hoch. Jedoch war mein Eindruck, dass es sich lohnt, da erkennbarer Fortschritt schnell eintritt. An dieser Stelle lohnt es sich nochmal auf die au§erordentliche Qualitt der Lehrkrfte in der Sprachabteilung hinzuweisen. Auch festzuhalten ist, dass fr alltgliche Kommunikation kein Finnisch notwendig ist. Die Finnen beherrschen Englisch au§erordentlich gut, auch einfache Verkuferinnen im Supermarkt. Jedoch tun Sie es sehr wertschtzen, wenn hufige aber einfache Alltagsworte wie ãDankeÒ in Finnisch gesagt werden. Daher sollte das Einschreiben in die Sprachkurse nicht aus Notwendigkeit, sondern eher aus Interesse am Austauschland und seiner Sprache erfolgen. 
+So gut die Finnisch Kurse sind, so schwach war meines Erachtens die Einfhrungswoche wo der Gro§teil der Veranstaltungen inhaltsarm und schlecht organisiert war. Jedoch muss erwhnt werden das meine Einfhrungswoche die erste nach dem Zusammenschluss der University of Tampere und der Tampere University of Technology war, die offiziell zum ersten Januar 2019 erfolgte. Das nach so einem riesen Zusammenschluss alles noch etwas chaotisch ist, auch fr die Mitarbeiter, ist mehr als verstndlich. 
+Die Anmeldung zu den Kursen erfolgt entweder ber eine Mail an den Dozenten oder ber ein online Anmeldeseite, vergleichbar mit dem Portal 2. Zu beachten ist, dass das Semester in Tampere in zwei Perioden aufgeteilt ist. Die meisten Kurse gehen ber eine Periode, haben somit unterschiedliche Start -und Endtermine. Daher sind auch die Anmeldezeitrume fr die einzelnen Kurse unterschiedlich obwohl im selben Semester. Hier sollte man aufpassen alles im Blick zu behalten auch wenn man oft bei verpassten Fristen den Dozent oder die Dozentin noch kontaktieren kann und um nachtrgliche Aufnahme bitten kann. Die hufige Angabe bei Kursen, dass diese 5-10 ETCS geben sollte nicht verwirren. Hintergrund ist das die Kurse oft sowohl fr Bachelor als auch Masterstudenten besuchbar sind und somit je nach Person unterschiedliche Prfungsleistungen erbracht werden mssen, die in unterschiedlichen ECTS resultieren. Bachelorstudenten kriegen in der Regel die 5 ECTS. 
+In den Kursen selbst herrscht eine viel informellere Atmosphre als in Mannheim, der Aufwand ist auch deutlich geringer, da kaum Literatur gefragt ist und die Prfungsleistung in meinem Fall oft nur ein kurzer Essay war. Eine eins oder zwei ist ohne berm§igen Aufwand problemlos zu erreichen. Der Lerneffekt hngt daher massiv von der persnlichen Motivation ab und dem Engagement der Lehrkrfte. Generell ist aber zu Sagen, dass man in dem halben Jahr in Tampere wohl schon ein kleines Defizit fr den Mannheimer Lehrplan aufbaut, vor allem da mehr oder weniger alle Kurse rein qualitative bzw. normative Lehre beinhalten. In meinem Fall war das aber auch so gewnscht um andere akademische Perspektiven zu erhalten. Wre allerdings in Tampere nochmal die Arbeit mit einem neuen Statistikprogramm erlernen mchte wird es eher schwerer haben. 
+Die Einrichtung der Universitt ist berdurchschnittlich gut und auf dem neusten Stand. Vor allem die Bibliothek ist sehr modern und architektonisch ansprechend gestaltet. Allein auf dem Campus im Stadtzentrum gibt es mehrere Mensen mit tglich wechselnden Mens. Von Fisch, Fleisch bis zu vegan ist alles dabei. Au§erdem werden die Mahlzeiten subventioniert, sodass sie nur 2,60Û pro Mittagsessen kosten. Vor allem im Vergleich zu den Lebenshaltungskosten in Finnland ist das extrem billig. Das Essen ist zudem au§erordentlich gut. Zudem gibt es noch mehrere kleine Cafs die sich hervorragend zum Freunde treffen aber auch entspannten Lernen eignen.</t>
+  </si>
+  <si>
+    <t>Die Universitt befindet sich in der Nhe der blauen und gelben U-Bahn-Linie, und es fahren mehrere Busse dorthin. Der Campus ist schn und modern, und die Klassen sind in der Regel recht interaktiv, mit etwa 20 Studenten oder weniger pro Klasse. Der Unterricht ist obligatorisch, was hart sein kann, wenn man sehr frh aufstehen muss, aber er macht Spa§ und ist sehr lehrreich.   _x005F_x000D_
+Der Unterricht ist auf Englisch, manche leichter, manche schwerer als in Mannheim._x005F_x000D_
+Die Noten werden auf der Grundlage von Anwesenheit, Hausaufgaben, Midterm 1, Midterm 2 und mglicherweise einer Abschlussprfung vergeben, wenn man seine Note verbessern mchte (nur fr Bachelor). Fr jede dieser Prfungsarten gibt es nur einen Versuch und keine Wiederholungsprfungen.</t>
+  </si>
+  <si>
+    <t>Die HEC ist eine Business School, wodurch es nicht wirklich mglich ist fachfremde Kurse zu besuchen. Vor der Kurswahl wird eine Liste zur Verfgung gestellt, welche die Kurse auflistet, die fr internationale Studenten belegbar sind. Auch die Universitt Mannheim schickt eine Liste mit anerkannten Kursen. Anschlie§end kann man weitere Kurse beantragen. Die Vorlesungszeit im HWS erstreckt sich von Ende August bis Ende Dezember, hnlich wie in Mannheim. Man belegt 5 Kurse, die je ein dreistndiges Modul pro Woche enthalten. An der HEC gibt es 2 Gebude, welche ca. 1 km voneinander entfernt sind. In beiden Gebuden befindet sich eine Mensa, in einem eine Bibliothek. Ich habe zustzlich zu 4 Business Kursen einen Sprachkurs belegt. Diese werden auf Englisch und Franzsich angeboten.</t>
+  </si>
+  <si>
+    <t>Das Studium an der NUS hat mir gro§en Spa§ gemacht und ich habe aus meinen Fchern sehr viel gelernt. Das liegt zum gro§en Teil an der Mglichkeit, sich selbst die Kurse aus einem gro§en Angebot auszusuchen._x005F_x000D_
+Das Studium an der NUS unterscheidet sich von dem Studium an der Uni Mannheim hauptschlich dadurch, dass nicht 100% der Note durch eine Klausur am Ende des Semesters festgelegt werden. Die Kurse an der Business School haben sogar oft gar keine Klausur: Wer also die Klausurenphase vermeiden mchte und schon Anfang November das Semester beenden mchte, der kann sich auch nach diesem Kriterium die Kurse aussuchen._x005F_x000D_
+An der NUS machen Gruppenarbeiten, Tests und Midterms oft einen Gro§teil der Note aus. Fr mich hatte dies den Vorteil, dass ich von meinen Fchern langfristig mehr mitgenommen habe als beim vielen auswendig lernen in Mannheim._x005F_x000D_
+An der NUS werden einige Vorlesungen an der Business School in kleineren Gruppen unterrichtet, wo dann auch Mitarbeit in die Note einflie§t und grundstzlich Anwesenheitspflicht besteht (ob kontrolliert wird ist eine andere Sache). Bei den Vorlesungen in gro§en Hrslen besteht hingegen keine Anwesenheitspflicht und diese Vorlesungen werden auch aufgezeichnet._x005F_x000D_
+Der Arbeitsaufwand an der NUS ist vergleichbar mit dem Aufwand in Mannheim. Da sich der Aufwand ber das gesamte Semester verteilt, ist er sogar eher ein bisschen weniger als in Mannheim._x005F_x000D_
+Das Niveau an der NUS ist nicht schwieriger als in Mannheim. Aufgrund der Notengebung gem§ der Normalverteilung ist es allerdings schwieriger extreme (gut oder schlecht) Noten zu bekommen. Da hilft auch die Anrechnungsweise der Uni Mannheim (A+ = 1.0, A = 1.3, ...), die meiner Meinung nach nicht korrekt ist, nicht.</t>
+  </si>
+  <si>
+    <t>Das Studium grundstzlich war unter deutschen Niveau und vorallem unter Mannheim Niveau. Es gab whrend des Semester wesentlich mehr zu erledigen: Gruppenarbeiten, Essays oder andere Projekte. In manchen Kursen war es auch blich jede Woche ein kurzes Quiz zu schreiben. Aber: Keine Panik! Auch ohne stundenlanges Lernen war das alles sehr, sehr gut machbar. hnlich machbar waren auch die Midterms und auch das final exam. Grundstzlich waren alle Prfungsformen vertreten von Gruppenarbeiten, ber klassische Klausuren und Prsentationen. In erster Linie ging es darum den berblick zu behalten, wann was abzugeben ist. Das stellt sich manchmal schwieriger dar, als den eigentlichen Prfungsinhalt zu bewltigen._x005F_x000D_
+Ich habe im Voraus versucht meine Kurse clever zu whlen, sodass ich nur 3 Tage die Woche Uni hatte. Ich kann das nur jedem empfehlen!! Diese drei Tage habe ich viel gearbeitet, aber durch das lange Wochenende hatte ich viel Gelegenheit die Inseln zu erkunden. Grundstzlich gibt es manche Kurse, die sich auf bis zu drei Blcken an drei Tagen aufteilen. Diese wrde ich eher nicht empfehlen, da man quasi dreimal ãHausaufgabenÒ zu erledigen hat. Ich wrde eher empfehlen stattdessen einen Kurs zu whlen der drei Stunden geht. Aber wie es immer ist: Am Ende ist vorallem eine gesunde Balance wichtig. _x005F_x000D_
+Aufgrund meines Visums war es mir nicht mglich zu arbeiten._x005F_x000D_
+Der Campus befindet sich mitten in der Stadt und ist rumlich nicht von sonstigen Gebuden deutlich abgetrennt. Deswegen sind wir oft in der Stadt essen gegangen, was einer der gnstigen Mglichkeiten war.</t>
+  </si>
+  <si>
+    <t>Das Studium an der University of Hull ist deutlich entspannter wie in Mannheim. Dies ist zum einen auf die geringere Kursanzahl zurckzufhren (man muss nur 3 Kurse belegen) und auf die Verteilung des Arbeitsaufwands ber das Semester hinweg. Ein weiterer Punkt, der das Lernen in Hull sicher leichter und auch interessanter gestaltet, ist natrlich, dass du dir die Kurse selbst aussuchen kannst (Kurskatalog: https://www.courses.hull.ac.uk/ ; Hinweis: im HWS drfen nur Kurse mit Kurscode "S1" belegt werden)Die Anzahl der Studenten die man pro Woche in der Uni verbringt ist auch deutlich geringer, so kann man pro Kurs mit max. 3*45min Prsenszeit rechnen. Fr die meisten Kurse sollte man die Begleitlektre lesen es geht aber auch ohne. Der Campus ist schn und berschaulich. Neben den typischen red-brick Gebuden findet man ebenfalls modernere Gebude, wie z.B. das erst letztes Jahr erffnete 7-stckige Bibliothek mit Panorama 360-Grad Sicht auf Hull City, Humber Bridge und Humber River. Die Aussicht ldt frmlich zum Verweilen ein, vor allem im 7.OG wo man bequeme Sessel vorfindet und gerade in den Wintermonaten bereits um 15 Uhr den Sonnenuntergang bewundern kann. So macht "lib-ben" sogar Spa§ :-)Des Weiteren findet man auf dem Campus zahlreiche Starbucks- und Costa Coffee Cafes eine Pub (Sanctuary) und Bistro ("eats"; beide im Student Union Building).</t>
+  </si>
+  <si>
+    <t>Fr Erasmus-Studenten gibt es auf der Homepage der Uni eine Auflistung der Kurse, die belegt werden knnen. Die Auswahl ist nicht riesig, aber es sollte fr jeden etwas dabei sein. Man kann auch aus Interesse Kurse anderer Studienrichtungen besuchen. Sucht euch mehr Kurse aus als ihr belegen wollt, da man nicht immer jeden Kurs besuchen kann. Somit seid ihr flexibler. Das Kursniveau wrde ich als etwas niedriger als in Mannheim einstufen. Mir hat gefallen, dass meine Kurse nicht berzogen mit Theorien waren, sondern eher praxisnah. In der Regel erwartet einen continuous assessment, das hei§t, man muss whrend des Semesters essays schreiben oder hat auch mal eine Zwischenklausur. Wenn man sich aber von Anfang organisiert und nicht alles auf den letzten Drcker macht, ist das gut zu schaffen. _x005F_x000D_
+Die Vorlesungszeiten sind im HWS / Semester 1 von September bis Januar, im FSS / Semester 2 von Februar bis Mai. Bei der Kurswahl ist darauf zu achten, in welchem Semester der jeweilige Kurs angeboten wird. _x005F_x000D_
+Das Leben auf dem Campus hnelt dem amerikanischen System, das hei§t, das Studentenleben findet auf dem Campus statt. Man geht nicht nach der Vorlesung nach Hause, sondern trifft sich dort mit andern Leuten und besucht gemeinsam Societies und Clubs. Es gibt ein sehr gro§es Angebot (alle mglichen Sportarten, action/religious societies, artistic and performance societies, debating and political societies, social and gaming societies,É)  und es lohnt sich, an vielen Aktivitten teilzunehmen, da man so auch irische Studenten kennen lernt. _x005F_x000D_
+Lernen kann man in der Bibliothek, die eine angenehme Atmosphre aufweist. Dort ist das Personal auch nicht so streng und man darf seine Tasche mitnehmen. Trinken und Essen ist zwar offiziell verboten, jedoch sagt keiner etwas, wenn man mal einen Schluck trinkt. PCs sind auch vorhanden, jedoch oft besetzt. Besser ist es, wenn man seinen eigenen Laptop mitbringt oder sich einen vor Ort ausleiht. In der Bibliothek sowie an weiteren Orten auf dem Campus (z.B. Arts Building) kann man drucken, kopieren und scannen. Drucken und kopieren sind relativ teuer, das Scannen ist kostenlos. _x005F_x000D_
+Essen kann man in der Mensa, in der StudentsÔ Union Bar, bei Subway und Starbucks, im Chill oder in der Pugin Hall. Das alles befindet sich auf dem Campus. Da es jedoch teuer wird, wenn man dort jeden Tag etwas zu essen kauft, wrde ich eher etwas von zu Hause mitbringen. Es gibt Sofas im Arts Building und Sitzmglichkeiten in andere Gebuden, wo man seine Mittagspause verbringen kann. Des Weiteren befindet sich ein Aldi unweit vom Campus._x005F_x000D_
+Da Irland ein englischsprachiges Land ist, sollte man dort auch nur studieren, wenn man ausreichend Englischkenntnisse hat. Es gibt auch Sprachkurse vor Ort und die Iren sind sehr hilfsbereit und offen und erwarten nicht, dass du die Sprache perfekt beherrschst.</t>
+  </si>
+  <si>
+    <t>Das Studium an der Foster School of Business ist komplett anders aufgebaut als in Mannheim. Die Kurse finden meistens im Rahmen von 30-50 Studierenden statt, was interessante Diskussionen und intensiven Kontakt mit den Dozenten mit sich bringt. Mitarbeit ist in den meisten Kursen ebenso Bestandteil der Endnote wie kleinere Tests, Gruppenarbeiten und Case Studies, sodass einige Kurse gar kein Final Exam haben oder das Final am Ende nur einen geringen Teil der Endnote ausmacht. Wichtig zu erwhnen ist, dass eigentlich kein Kurs ohne ein teures Lehrbuch auskommt. Mein Accounting Buch hat 170$ gekostet und konnte wegen des benutzen elektronischen Zugangscodes fr ein Hausaufgabenportal auch nicht, wie andere Bcher, an den University Bookstore zurckverkauft werden. _x005F_x000D_
+Die Dozenten sind sehr interessiert an den Meinungen und Perspektiven von Austauschstudenten und man wird meistens automatisch in die Diskussionen eingebunden. _x005F_x000D_
+Der Schwierigkeitsgrad ist in vielen Kursen unter dem von Mannheim, aber der Arbeitsaufwand whrend des Semesters ist immens, da jede Woche irgendein Quiz, eine Prsentation oder eine Hausarbeit anfllt.</t>
+  </si>
+  <si>
+    <t>Das Semester am FGV ist in zwei Quartale unterteilt, in denen unterschiedliche Kurse belegt werden. In der Regel nimmt man an drei bis vier Kursen pro Quartal teil, diese finden dann einmal die Woche in einem Block von drei Stunden statt. _x005F_x000D_
+Das FGV EBAPE, also die Business School, ist relativ klein und bietet nur ein paar englische Kurse an, aber diese decken verschiedene Themenbereiche ab und sind sehr interessant. _x005F_x000D_
+Die Benotung erfolgt aufgrund verschiedener Kriterien, zum Beispiel Mitarbeit, Gruppenprojekte, oder Klausuren. _x005F_x000D_
+Besonders empfehlen wrde ich den Kurs Strategic Human Resource Management bei Professor Sami und Political Economy of Latin America bei Daniela. Man spricht seine Professoren hier tatschlich beim Vornamen an! _x005F_x000D_
+Das EBAPE ist wie erwhnt sehr klein und befindet sich einen Block von Rest der Uni entfernt. Auf dem Campus gibt es dann aber eine Mensa und eine Bibliothek, die man gut benutzen kann.</t>
+  </si>
+  <si>
+    <t>Die TSE ist eine super toll organisierte Fakultt mit interessanten Kursen und absolut zu empfehlen. Die VWL-Kurse finden alle in der Manufacture de Tabac statt. Die alte Tabakfabrik ist sehr toll hergerichtet und verfgt sogar ber eine eigene Bib, in der man meist besser einen Platz findet als in der Hauptbibliothek Arsenal. Das International Office der UT1 hingegen ist eher m§ig gut organisiert und bei Fragen geht man besser direkt in das Bro als eine E-Mail zu schreiben, auf deren Antwort man oft vergeblich wartet. Die franzsisch Kurse wurden auch von dem International Office organisiert, allerdings gab es in meinem Semester nur Kurse ab Niveau B2. Trotz eingerostetem Franzsisch habe ich mich fr den Kurs angemeldet und ihn besucht. Letztendlich hat sich die Lehrerin etwas am allgemein eher schwcheren Niveau des Kurses gestrt aber ich denke es hat dennoch geholfen diesen zu besuchen.</t>
+  </si>
+  <si>
+    <t>Das Kursangebot der University of Exeter war fr mich leider sehr eingeschrnkt. Dadurch dass es keine Linguistik gibt und ich bereits alle Literaturwissenschaft-Kurse belegt habe, konnte ich nur einen Kurs im Bereich ICS und einen im Bereich Area Studies belegen. Dabei habe ich mich fr first year Kurse entschieden. Die Kurse haben entweder 7,5 ECTS (15 Exeter credits) oder 15 ECTS (30 Exeter credits). Deshalb ist es normal, nur 2-3 Kurse zu belegen. Pro Kurs hat man meist mehrere Veranstaltungen pro Woche. Auch der Arbeitsaufwand pro Kurs ist hher als in Mannheim. _x005F_x000D_
+Der Campus ist sehr schn gelegen. Es gibt zahlreiche Societies, die man in der FresherÕs Week vorgestellt bekommt und es bietet sich, an 1-2 beizutreten. Besonders empfehlenswert ist die Erasmus Society, die wchentlich socials und/oder Tagestrips organisiert. Leider gibt es in der Uni keine Mensa, sondern nur kleine Restaurants. Besonders zu empfehlen sind die curly fries im "RAM". Die Arbeitsmglichkeiten sind leider auch recht begrenzt. Die Bibliothek verfgt im Vergleich zur Anzahl der Studenten ber sehr wenige Pltze und nach 12 Uhr ist dort meist alles besetzt. Eine gute Alternative ist hier die Bibliothek im St LukeÕs Campus. _x005F_x000D_
+Die Uni Exeter erwartet ein C1 Sprachniveau. Ebenso gibt es die Mglichkeit vor Ort kostenlose Sprachkurse zu belegen.</t>
+  </si>
+  <si>
+    <t>Alles auf Englisch, viele Interessante Kurse, sehr nette Professoren, viele Kurse fr Anrechnung in Mannheim</t>
+  </si>
+  <si>
+    <t>Die Cardiff University sieht sich selbst als research focused, was sich auch in der Gestaltung der Kurse und der Prfungsformen zeigt. Generell herrscht in allen Kursen Anwesenheitspflicht, die mit der Student-ID Card dokumentiert werden muss. Allerdings dauert ein ãBlockÒ in Cardiff nur 50 Minuten und die meisten Kurse haben eine Doppelblock Vorlesung und eine bung pro Woche. Vorlesungen beginnen frhestens um 9 Uhr morgens und enden sptestes um 18.30 Uhr._x005F_x000D_
+Der Fokus liegt auf dem Selbststudium, dementsprechend werden die Studienleistungen berwiegend in Essays, Assignments und idividual Cousework, die in 4-6 Wochen geschrieben werden, geprft. In diesen Prfungen die meistens 2000-2500 Worte umfassen versuchen die Prfer durch die Vernetzung des Stoffs mit praxisbezogenen Fllen und bestehender Literatur, ein tieferes Verstndnis und einen nachhaltigeren Lernprozess zu starten. Gerade mit Blick auf die Bachelor Thesis und im Vergleich zu klassischen Prfungsformen, sind die Prfungen in Cardiff eine sehr gute Abwechslung und sehr gute bung. Generell hat die Cardiff University sehr hohe Ansprche an korrektes wissenschaftliches Arbeiten, sowie an ein przises, quellenbasiertes erarbeiten der Hausarbeiten. Aber dieses Arbeiten wird sowohl von den Lecturern, dem persnlichen Tutor oder Kursen in wissenschaftlichem Arbeiten der Students Union gefrdert. Generell sind die Gruppen in denen Vorlesungen und bungen gehalten werden kleiner und der Kontakt zu Professoren und Lehrpersonal deutlich enger, ich hatte das Gefhl, dass jeder vor Ort an meinem persnlichen Erfolg interessiert war und mich dahingehend untersttzt hat.</t>
+  </si>
+  <si>
+    <t>Die Kursauswahl an der University of Exeter ist gro§ und bietet bezglich Anglistik besonders viele Literaturkurse. Die Kurswahl wird schon vor der Ankunft in Exeter getroffen, allerdings war es bei mir ntig whrend der Fresher's Week noch einige nderungen vorzunehmen. Dies ist aber kein Problem und kann alles unkompliziert mit den dort zustndigen Auslandskoordinatoren abgesprochen werden. Au§erdem ist es auch empfehlenswert, sich die Credit-rated modules des INTO-Centers anzusehen. Diese Kurse, bei denen es sich um Sprachkurse handelt (entweder Reading &amp; Writing oder Listening &amp; Speaking) knnen wie alle anderen ebenso angerechnet werden, da man dafr ECTS-Punkte erhlt. Zu den anderen Kursen lsst sich sagen, dass sie in der Regel sehr zeitaufwndig sind. Zwar sah auch mein Stundenplan auf den ersten Blick recht leer aus, allerdings wird in Exeter gro§er Wert auf selbststndige Arbeit gelegt und so muss au§erhalb der Uni viel vor- bzw. nachbereitet werden. Fr viele Kurse werden im Laufe des Semesters verschiedene Leistungen wie Essays oder Prsentationen erwartet. So verteilt sich der Arbeitsaufwand gleichm§ig auf das Semester. Zudem die Vorlesungen und Seminare spannend gestaltet und auch die Dozent/-innen sind sehr freundlich und haben stets ein offenes Ohr bei mglichen Problemen oder Schwierigkeiten.</t>
+  </si>
+  <si>
+    <t>Die Veranstaltungen, die ich besucht habe, waren im System alle als Vorlesungen mit Klausur gelabelt. Allerdings wurde schon in der ersten Woche (Anfang September) klar, dass es sich wesentlich anders abspielen wird als in Mannheim. Es gab jeweils jede Woche eine Power Point, die klausurrelevant war, und ein Buch, das wir uns kaufen sollten. Die gab es aber fast alle auch in einer online Version, eine Professorin lieh mir sogar ihr Buch, um Kosten zu sparen. Alles luft ber den Vornamen, auch die Dozenten, und es wird am Ende auch nicht geklopft. Das fhrt zu einer wesentlich weniger distanzierten Lernatmosphre. Ich wrde sagen, ich habe zu allen vier Professoren ein engeres Verhltnis geschaffen als zu allen Dozenten in Mannheim. Statt nur einer Klausur wurde Mitarbeit benotet, und da die meisten chinesischen Studenten alle stumm sind wie ein Muschen haben wir als internationale Studenten einen riesigen Vorteil. Bei vielen Veranstaltungen gibt es auch midterms (etwa Mitte bis Ende Oktober) und Prsentationen ber ein Projekt (bis Ende November), dass man in fnf bis siebener Gruppen ber das Jahr erarbeiten muss. In Training and Develoment mussten wir die gelernten Theorien anwenden und die anderen Mitschler eine Stunde lang in irgendeinem wirtschaftlich orientierten Thema unterrichten. In Marketing Management mussten wir einen Expansion-Plan fr eine Hong Kong Firma erstellen und einen Marketing Pitch vorbereiten, um unsere ãInvestorenÒ von der Idee zu berzeugen, sowie einen 20 Seiten Marketing Plan schreiben. Natrlich ist das mehr Aufwand als sich in eine Vorlesung (mehr oder weniger hufig) zu setzen und dann 30 MC zu beantworten, aber fr mich war es sehr spannend mit den Chinesen gemeinsam zu arbeiten und meine eigenen Strken und Schwchen neu zu beleuchten. Die Projekte haben Spa§ gemacht und man konnte seiner Kreativitt freien Lauf lassen mit Promotion Videos und anderem Zusatzmaterial. Die Klausuren zu Semesterende sind typischerweise im Dezember und offiziell bis zum 23.12., ich hatte Glck und schrieb die letzte schon am 14.12., wodurch ich noch eine Woche nach Taiwan reisen konnte bevor es an Weihnachten nach Hause ging. _x005F_x000D_
+_x005F_x000D_
+Auf dem Campus gibt es zahlreiche Bibliotheken, die aber teilweise von den Chinesen bewohnt werden (ja, bewohnt- mit Decke und Kissen). In den meisten Colleges gibt es auch extra Study-Rooms. Es gibt zahlreiche Essmglichkeiten und jedes Stockwerk hat eine Kche Ð allerdings ohne Herd oder Zubehr. Falls du also gerne kochst (so wie ich), es gibt manchmal Flohmrkte wo man Besteck und sowas kaufen kann und neben dem Supermarkt gibt es einen Second Hand Laden mit Tpfen und Schneidebrett und allem drum und dran. Fr Frhstck habe ich immer selbst gesorgt, da das Essen in der Cafeteria eher nach Nudelsuppe und Baked Beans ausgerichtet ist. Im Lee Woo Sing College haben die Studenten einen eigenen Khlschrank im Zimmer (was kein anderes College hat). Und eine Bahnhaltestelle neben der Uni gibt es einen gro§en Markt mit frischen Zutaten. _x005F_x000D_
+Das Essen generell ist sehr teuer in Hong Kong, darauf sollte man sich gefasst machen. Auf Kse, Milch und Jogurt muss man gezwungener Ma§en verzichten oder es sich als besondere Belohnung gnnen, dafr ist Sushi und Reis preiswert. Reis gibt es auf dem Campus brigens tatschlich nur in 5kg oder 8kg Scken! Worauf man in der ersten Uniwoche schon nicht verzichten sollte ist ein ãRestaurantÒ namens Mr. WongÕs im Stadtteil Mong Kok. All you can eat and all you can drink verleiten Studenten dazu, in Scharen auf der Stra§e zu sitzen und beim lieben Herr Wong zu dinieren, besonders bevor es dann ins Nachtleben geht. _x005F_x000D_
+Da Hong Kong neben Cantonesisch auch Englisch als Landessprache hat kommt man soweit gut durch ohne gro§e Probleme. Ansonsten gibt es immer noch chinesisch Apps, die etwas bersetzen. Die Uni bietet aber auch Sprachkurse fr Mandarin und Cantonesisch an, wobei man in 6 Monaten nicht wirklich viel erreichen kann.</t>
+  </si>
+  <si>
+    <t>Hier gibt es doch einige Unterschiede zum System wie wir es aus Mannheim kennen. Der gr§te Unterschied liegt darin, dass man an der LiU immer nur einen Kurs pro Block (ungefhr einen Monat) belegt und diesen Kurs dann full-time hat. Man hat also whrend dieses Monats nur dieses eine Fach und schreibt dann auch am Ende des Monats direkt eine Klausur in diesem Fach. Neben den full-time Kursen kann man auch noch part-time Kurse belegen die dann ber das gesamte Semester gehen. Dann hat man aber immer nur eine Veranstaltung in dem Fach pro Woche. Die genauen Zeiten und Blcke kann man einfach auf der website der LiU nachschauen und dort findet man auch direkt die ECTS (credit) Anzahl die einem die Kurse geben. Die Kurse an sich sind auch komplett anders aufgebaut als die Kurse hier in Mannheim. Whrend man hier in Mannheim Vorlesungen mit vielen hundert Studierenden gleichzeitig hatte ich in Schweden nie Vorlesungen mit mehr als +- 50 Studierenden. Das hat zur Folge, dass man sowohl die Komolitonen besser kennen lernt und auch die Professoren besser kennenlernt. Das war eine sehr angenehme Abwechslung zu dem Alltag hier in Mannheim. Au§erdem waren die Kurse deutlich praktischer orientiert. Ich hatte eigentlich in jedem Kurs eine Art Prsentation, Gruppenarbeit oder Diskussionsrunden. Au§erdem hatte ich anstelle von finalen Prfungen hufig Hausarbeiten mit vorgegebenen Themen. Auch das war eine angenehme Abwechslung zu Mannheim, da man so auch mal an das akademische Schreiben herangefhrt wird. Hinzu kommt natrlich auch noch, dass es zu meiner Zeit in Schweden so gut wie keine Corona Beschrnkungen gab, sodass ich nach fast zwei Jahren auch endlich mal wieder auf einem Campus sein konnte.</t>
+  </si>
+  <si>
+    <t>Die Anerkennung von Kursen (s. unten) haben wir vor dem Semester abgeklrt, sodass damit keine Schwierigkeiten bestanden. Das Semester ging von Anfang August bis Ende November. In der Mitte gab es eine Woche ãRecess WeekÒ, auf welche die Midterm-Woche folgte. Sofern man auf dem Campus lebt, spielt sich fast das komplette Leben auf dem Campus ab (Schlafen, Essen, Lernen, Gro§teil der Freizeit, ...). Mit Englisch kommt man logischerweise sehr gut klar, auch wenn teilweise Professoren nicht ganz flssig sprechen knnen oder einen starken Akzent haben. Im Vergleich zu Mannheim ist die NUS recht qualitativ im Bereich VWL. So wurde weniger wert auf Mathematik gelegt.</t>
+  </si>
+  <si>
+    <t>Das Studium am UCD war sehr interessant und sehr anders als das Studium in Mannheim. Whrend in Mannheim fast in jedem Modul die Note zu 100% die Klausurnote ist, ist jedes Modul in Dublin in min. 2 Komponenten aufgeteilt. So setzt sich die Note aus bspw. Essay, Mitbeteiligung und Final Exam, oder aus Gruppenprojekt, eigenes Assignment und Peer Review zusammen. Diese Art benotet zu werden finde ich persnlich sehr wirksam, da man a) gezwungen ist das gesamte Semester dranzubleiben und b), da deine gesamte Note nicht von einem potenziellen schlechten Tag abhngt. 
+Am UCD gibt es Trimester, allerdings ist das Herbst/Winter-Trimester genau so lang wie das WiSe in Mannheim und das Frhling/Sommer-Trimester gleicht unserem SoSe. Es scheint ein Sommertrimester zu geben, aber das nutzen die Studenten fr Praktika oder Jobs.
+Das Kursangebot in Dublin fand ich sehr spannend und ausgiebig. Es gab eine lange Liste von Marketing, Finance, Economics, Human Resources, Information Systems, Business Management und Accounting Kursen. Diese Liste ist fr das SoSe sogar noch lnger. Auch die Anerkennung seitens Mannheim verlief relativ einfach ber das Formular. Die meisten Kurse werden genehmigt, mit Ausnahme von einer Handvoll Kursen, da diese zu viel berlappung mit dem heimischen Angebot aufweisen. Im Endeffekt konnte ich mir aber einen Stundenplan mit Kursen zusammenstellen, die ich sehr interessant fand und die ich auch belegen wollte. 
+Auch der Aufbau des Stundenplans war mehr als entspannt. Man hatte im Regelfall je Modul nur eine VL/Woche und kaum/keine Tutorien oder bungen. An einem Tag hatte ich nicht mehr als zwei Vorlesungen und Freitag war fast bei allen komplett frei. Wenn man strategisch plant, kann man auch zwei Tage komplett vorlesungsfrei sein. In einigen Kursen wird Attendance gecheckt und die Mitarbeit wird auch benotet, weshalb ich empfehlen wrde, sich seinen Stundenplan gut zu berlegen.
+Das Leben auf dem Campus war eine unglaublich coole Erfahrung, die man so in Deutschland nicht wirklich hat. Die Uni hei§t nicht umsonst College, denn diesem hnelt es sehr. Nicht nur ist der Campus riesig, mit vielen Fakultten und Gebuden, er ist auch sehr schn gemacht und bietet viele Mglichkeiten sich zu treffen, zu lernen oder etwas zu essen. Wie bereits erwhnt kann man im VIllage bei den Wohnheimen gut arbeiten, allerdings ist dieses whrend der Klausurenphase sehr voll, und blderweise erlaubt die Uni genau dann, wenn Studenten einen Rckzugsort brauchen, externe Events welche die Meetingrume und Sitzmglichkeiten besetzen. Es gibt sonst auch die Bib, welche mehrere Etage hat. Allerdings ist diese wie in Mannheim auch schnell sehr voll. Ich bin am hufigsten in die Quinn Business School gegangen, denn da gab es fast immer Platz und auch das Gebude an sich ist sehr schn und modern.
+Eine richtige Mensa gibt es nicht, allerdings gibt es Foodstalls auf dem Campus verteilt und eine ÒRestaurantsÓ. Das Essen ist tendenziell eher teuer im Vergleich zu Mannheim. So kann man 12EUR fr ein paar Gyoza von einem Truck bezahlen, 10EUR fr eine schlecht gemachte Burrito Bowl oder 6-10EUR fr ein ordentliches Essen aus einem kantineartigen Restaurant. In den meisten Fllen habe ich zu Hause gegessen, oder, mein Geheimtipp: die Chicken Roll aus dem Centra. Es gibt auch Kaffee an jeder Ecke, allerdings ist auch dieser auf Dauer sehr teuer. Ein Cappuccino kostet hier 4EUR. 
+Sprachlich hatte ich persnlich gar keine Probleme, man sollte allerdings ein gewisses Sprachniveau mitbringen, um dem Unterrichtsstoff gut folgen zu knnen.</t>
+  </si>
+  <si>
+    <t>Das PoWi Studium in Prag hat mir sehr gut gefallen. Themtatisch unterscheidet sich das Programm schon sehr von Mannheim, da es deutlich weniger Daten fokussiert ist. Es hat sich eher angefhlt als wrde man sich spezifische Themen aussuchen ber die man dann mehr lernt und disskutiert, also deutlich weniger Methoden fokussiert. Nebenbei kann man sich noch einen Sportkurs aussuchen.</t>
+  </si>
+  <si>
+    <t>Die SU bleibt mein einziges Manko und war tatschlich der einzige Punkt whrend meines Auslandssemesters an dem ein bisschen so etwas wie Enttuschung aufkam. Andererseits hat es wirklich dazu gefhrt, dass ich die Uni Mannheim nun nochmal mehr zu schtzen gelernt habe. Im Grunde ist es das Campusleben, das ich am meisten an Mannheim vermisst habe. Im Gegensatz zu unserem Ehrenhof oder der Mensa hat die SU nicht den klassischen Spot, an dem man sich ber den Weg luft und auch mal nach Ende der Veranstaltungen etwas mehr Zeit verbringt. Erschwerend hinzu kommt, dass man an der SU berhaupt weitaus weniger Zeit an der Universitt verbringt. Im Gegensatz zu anderem Universitten wie Ume oder Lund gibt es daher an der SU auch wenige studentische Initiativen. Einige Schweden haben mir das damit begrndet, dass viele Studenten der SU ursprnglich aus Stockholm kommen und daher ihre Freundeskreise eher nicht in der Universitt haben, au§erdem mssen viele aufgrund der hohen Lebenskosten in Stockholm neben dem Studium arbeiten und daher sind die meisten auch wirklich ausschlie§lich zum studieren an der Universitt anders als in Mannheim, wo viel ber das Studium hinaus angeboten wird (Initiativen, Vortrge, Sport etc.). 
+Ich werde das System der SU nicht nochmal in aller Ausfhrlichkeit erlutern und verweise dabei auf vorherige Berichte. Es sei gesagt, dass beim Department of Economics alle Kurse 7.5 ECTS geben und eine Periode (ein halbes Semester) dauern, an deren Ende eine dreistndige Klausur geschrieben wird. Die erste Klausurenphase ist damit Ende Oktober, anschlie§end startet direkt die zweite Periode, deren Klausurenphase nach den Ferien Anfang Januar stattfindet. Dieses System entlastet die Klausurenphase damit ungemein und ermglicht es einem sich noch intensiver mit den jeweiligen Themen auseinanderzusetzen, da man nicht parallel drei weitere Kurse vor-/nachbereiten muss. In dieser Hinsicht war es sehr angenehm. Was ich jedoch nicht nachvollziehen kann, warum man eine Vorlesung ber drei Stunden hinausdehnen muss, anstatt aus ihr zwei 1,5-stndige zu machen. Noch unverstndlicher wird das, wenn man bedenkt, dass es an der SU in den meisten Fllen keine bungen oder Tutorien gibt und daher Zeit genug dafr da wre. Das Niveau der Kurse liegt dabei deutlich unter dem gewohnten Niveau, was allerdings nicht negativ zur Geltung kam, da die Themen meist doch recht gut ausgewhlt waren und mit interessanter Empirie gesttzt wurde. Zu den Klausuren sei gesagt, dass man fr jede Klausur drei Stunden Zeit bekommt, diese nicht unbedingt bentigt, aber aufgrund des stark qualitativen (fast ohne quantitativen) Fokus gut fllen kann. Dieser fehlende Zeitdruck und die Mglichkeit in einigen Kursen Assignments oder Prsentationen im Voraus bewertet zu bekommen, die einem Bonuspunkte geben bzw. eine Aufgabe in der Klausur ersetzen, macht die Klausur um einiges entspannter. Da man diese Methode ja aus Mannheim eher nicht gewohnt ist mchte ich ergnzen, dass insbesondere die Assignments sehr dankbar sind, nicht zu viel Zeit beanspruchen und teilweise auch wirklich weiterhelfen, also unbedingt in Anspruch genommen werden sollten. 
+Ein letzter Punkt sollte nicht vergessen werden Ð der Sprachkurs. Das eigentlich lohnenswerte am Sprachkurs ist es, die verzweifelten Versuche einiger Kommilitonen (insbesondere romanische Muttersprachler) zu erleben, die schwedische Sprache zu lernen. Der Kurs ist eine Massenveranstaltung fr Internationals und damit die Veranstaltung, bei der es am einfachsten ist andere Internationals kennenzulernen. Ich kann es nur jedem empfehlen, auch wenn man dafr keine ECTS angerechnet bekommt. Darber hinaus ist Schwedisch eine wunderschne Sprache und fr deutschsprachige sehr leicht zu lernen und so gern die Schweden Englisch reden, so sehr freuen sie sich aber auch, wenn man versucht ihnen auf Schwedisch zu antworten.</t>
+  </si>
+  <si>
+    <t>Die Lehrweise an der UofT ist anders aufgebaut als in Mannheim. Hufig sind es weniger als 50 Studierende pro belegtes Fach, was den Unterricht deutlich persnlicher macht. Es gibt in vielen Fchern Mid-term Klausuren sowie mehrere Assignements, wodurch ber das gesamte Semester gearbeitet werden muss. Auch Teilnahme-Noten sind blich und flie§en in die Endnote ein. Professoren nehmen sich viel Zeit, um auf persnliche Fragen einzugehen und bieten viele Sprechstunden an, bei denen man Fragen zu Noten oder Lehrinhalten stellen kann. Allgemein ist meine Erfahrung, dass man fr die meisten Abgaben und Klausuren ein Review fordern sollte, also Feedback verlangen sollte. Das ist auch eine Chance an der Note noch etwas zu ndern, was durchaus mglich ist. Im Gesamten ist das Studium meiner Erfahrung nach aufwendiger als ein typisches Semester in Mannheim. Die vielen Abgaben und Noten ermglichen einem jedoch eine weniger stressige Klausurenphase zu haben, und auch (sehr) gute Noten sind auf jeden Fall mglich!_x005F_x000D_
+Die meisten Fcher haben keine Tutorien oder bungen, wodurch man wenig Zeit an der Uni verbringt. Dadurch arbeitet man recht flexible und von der Bib oder von zu Hause aus.</t>
+  </si>
+  <si>
+    <t>Das Studium an der Gasthochschule unterscheidet sich massiv von dem Studium an der Universitt Mannheim. Zunchst ist anzumerken, dass in den meisten Veranstaltungen Anwesenheitspflicht herrscht, obwohl der Trend offenbar die Abschaffung/Reduzierung dieser Pflicht zu sein schien. Zwar fanden die Vorlesungen in gr§eren Veranstaltungsrumen statt, jedoch lag der Fokus auf kleineren Veranstaltungen, welche in Kleingruppen von etwa 10-20 Leuten abliefen. 
+Dabei lag der Fokus deutlich mehr auf Partizipation und Eigeninitiative, welche jedoch nicht in die Benotung einflie§en. Das Kursmaterial wurde vor jeder Sitzung online zur Verfgung gestellt und war in den meisten Fllen interessant und hilfreich. Das Lehrpersonal war sichtlich am allgemeinen Lernerfolg interessiert und in jeder einzelnen Veranstaltung motiviert und sehr offen im Umgang mit den Studierenden. 
+Im Gegensatz zum deutschen System erfolgt die Benotung an der University of Sussex tendenziell eher ber Essays, wovon einige whrend des Semesters einzureichen sind, andere hingegen erst im Januar.</t>
+  </si>
+  <si>
+    <t>Um ehrlich zu sein, ich bin extrem zufrieden mit dem Semester an der Sogang-Universitt. Ich habe mich gefreut, dass man die Kurse selber auswhlen knnte und alle die ich hatte waren meiner Meinung nach viel interessanter und auf jeden Fall viel entspannter als in Mannheim. Alle Klausuren waren zumindest teilweise Multiple-Choice und zeitlich hat es auch total gereicht, alle Aufgaben zu lsen. Am Anfang des Semesters musste man ein paar Bcher kaufen, aber manche Bcher habe ich online als PDF-Datei gekauft und habe mir so Geld gespart. Ein Tipp meinerseits wre, versuchen Koreanische Freunde im Kurs zu finden, weil sie weitere Freunde haben, die den Kurs in den vorherigen Jahren belegt haben und sehr viele Tipps zum Beispiel bezglich der Klausur haben und auch Altklausuren von den letzten Jahren, die sonst nicht verffentlicht wurden. An der Sogang Uni gibt es keine bungen und keine Tutorien, nur die Vorlesungen, die 75 Minuten dauern. 
+Sogang-Universitt hat ein Online-Portal, welches fr alle Fcher au§er Koreanisch genutzt wurde.</t>
+  </si>
+  <si>
+    <t>Das Studium ist deutlich interaktiver als in Mannheim und es ist Anwesenheitspflicht, was in den Zoomklassen sehr nervig war, da ich gerade Vorlesungen lieber alleine in doppelter Geschwindogkeit hre. Dafr hat man nur Vorlesungen und keine Tutorien oder bungen, also generell viel weniger Uni. Die Sogang ist sehr verschult und man hat viele Abgaben, wie Essays, Gruppenarbeiten, Papers und andere Projekte, wodurch es aber au h Webster ich leichter ist die Note zu verbessern. Auch die Midterms erleichtern das, obwohl man natrlich unter dem Semester viel mehr zu tun hat, aber es sich eben einfacher aufteilen kann.</t>
+  </si>
+  <si>
+    <t>Der CBS-Campus ist mit mehreren Gebuden ber Frederiksberg verteilt, aber alle Gebude liegen nur wenige Minuten voneinander entfernt und sind daher gut und schnell zu erreichen. Fast alle Gebude sind zudem mit Bibliotheken, Study Rooms und Mensen ausgestattet. Vor allem in der Prfungsphase ist es von Vorteil, dass man sich im Vorhinein einen Study Seat buchen und sich so einen Sitzplatz in der Bib fr maximal 40 Stunden pro Woche reservieren kann. 
+Im Gegensatz zur Uni Mannheim muss man sich pro Semester auf nur 4 Kurse  7,5 ECTS konzentrieren. Dabei kann man sowohl ganz- als auch nur halbsemestrige Kurse belegen. Die Unterrichtssprache ist Englisch und alle Studierenden, Professoren und Mitarbeiter beherrschen diese, sodass eine einfache Kommunikation immer mglich ist. Das Verhltnis zu den Professoren ist recht locker, man spricht die Dozenten mit dem Vornamen an und man kann sich bei Fragen oder Problemen immer an sie wenden. Alle Kurse werden durch Diskussionen und hufige Wortbeitrge interaktiv gestaltet. Allerdings beschrnken sich die Lehrveranstaltungen nur auf Vorlesungen, Tutorien oder bungen gibt es, je nach Kurs, nur sehr wenige. Zudem erfordert das Studium an der CBS das Lesen zahlreicher Papers. Daher ist von Anfang an kontinuierliches und genaues Mitlesen gefragt. Dies erleichtert zum einen die Vorbereitung in der Klausurphase, zum anderen werden nicht alle Texte in der Vorlesung besprochen, gelten aber trotzdem als klausurrelevant. 
+Im Gegensatz zu Mannheim gibt es verschiedene Prfungsarten. Mndliche Prfungen, zeitlich begrenzte Home Assignments, die teils anschlie§end noch in einem Oral Exam prsentiert bzw. verteidigt werden mssen, und schriftliche Klausuren. Letztere dauern in der Regel vier Stunden und werden am Computer geschrieben. Je nach Kurs drfen die eigenen Unterlagen sogar mit in die Prfung genommen werden. Nicht nur die Prfungsarten sind anders, auch das Notensystem in Dnemark unterscheidet sich von dem deutschen insofern, als dass die Noten durch Punkte dargestellt werden und dem Schema 12 = 1,0; 10 = 1,7; 07 = 2,3; 04 = 3,3; 02 = 4,0; 00/-03 = 5,0 entsprechen. 
+Mitte Oktober gibt es fr etwa eine Woche eine ãAutumn BreakÒ, in der (meist) keine Vorlesungen oder Lehrveranstaltungen stattfinden und die sich gut zum Reisen oder aber auch zum Aufarbeiten von Readings eignet.</t>
+  </si>
+  <si>
+    <t>Ich belegte aufgrund nur einer Aufteilung meiner Kurse an der Universitt Mannheim sowie in Sydney nur einen Kurs online an der USYD. Hieran war nichts auszusetzen, auch ein virtuelles Angebot zum Semesterstart gab es, welches ich aufgrund der gro§en Zeitverschiebung jedoch nicht wahrgenommen habe. Generell habe ich bis auf die Klausuren ausschlie§lich mit aufgezeichneten Materialien gearbeitetet, was aber sehr gut funktionierte.</t>
+  </si>
+  <si>
+    <t>Ich persnliche habe in Valladolid ãnurÒ zwei Kurse an der Uni belegt und whrend des Semesters an zwei Sprachkursen fr Erasmusstudenten (Stufe B 2.2 und C1) am Centro de Idiomas (nahe der Uni Fakultten) teilgenommen und bin auch sehr froh, dass ich das so gehandhabt habe. Meine Unikurse fanden anders als in Deutschland gewohnt jeweils 4 Mal (ein Kurs 3-4 Stunden) in der Woche statt, sodass sich unter dem Semester sehr viel Stoff angesammelt hat und ich in der Prfungszeit genug zu tun hatte. Die Unterrichtssprache in meinen Kursen war Spanisch. Der Unterrichtsstil und die Prfungsleistungen variieren stark abhngig vom Professor und dem Kurs an sich. Whrend des Semesters musste ich jeweils eine kleinere schriftliche Arbeit (6 Seiten) abgeben und am Ende des Semesters Klausuren schreiben. 
+Leider muss ich an dieser Stelle sagen, dass mir die von mir gewhlten und belegten Kurse nicht gut gefallen haben. Ich wrde sie euch nicht weiterempfehlen. Die Kurse waren unheimlich eintnig, da die Lehrpersonen die Inhalte vorgelesen (wirklich Wort fr Wort vorgelesen, nicht vorgetragen) und die Studenten jedes einzelne Wort mitgeschrieben haben. Mit dieser Art zu lehren und lernen bin ich persnlich nicht zurechtgekommen. Ich hatte mir mehr Interaktion, Diskussion und eine kritische Analyse der Inhalte gewnscht.</t>
+  </si>
+  <si>
+    <t>Die Uni Essex ist in Trimester eingeteilt, wenn ich das richtig verstanden habe. Der erste Term geht von Anfang Oktober bis Mitte Dezember. Der zweite Term von Mitte Januar bis Mitte/Ende Mrz und der dritte Term ist dann im Sommer, in dem aber lediglich Prfungen geschrieben werden. Zum Frhlings- und Sommer Term kann ich nicht so viel sagen, da ich im Herbst/Winter da war. _x005F_x000D_
+Ich hatte auch schon whrend des Semesters Abgaben von Essays oder Assignments. Die Prfungswoche war dann wie gesagt vom 18.-22.12. ACHTUNG! Manche Module gehen ein ganzes Jahr, aber ihr habt bei manchen die Mglichkeit es nur fr ein Semester zu belegen. Wenn dies bei euch der Fall ist und zu dem Modul eine Prfung gehrt, wird die Prfung, obwohl im Syllabus vielleicht steht, dass sie im Sommer geschrieben wird, in den Winter-Term vorgezogen (eben fr alle, die das Modul nur ein Semester belegen). Das habe ich glorreich verbaselt, aber da war die Uni Essex und die Uni Mannheim echt entgegenkommend, und ich konnte die Prfung dann zur vorgesehenen Zeit in Mannheim schreiben. _x005F_x000D_
+Das Kursangebot an der Uni Essex gefllt mir sehr gut, es war auch letztendlich mit ein ausschlaggebender Punkt, weshalb ich mich fr die Uni entschieden habe. Man wird bei den Assignments eher an die Hand genommen und man muss auch keine quantitative Hausarbeit schreiben, wie wir das gr§tenteils aus Mannheim kennen, aber dennoch habe ich mich zu keinem Zeitpunkt unterfordert gefhlt und die Kurse als sehr bereichernd wahrgenommen. Ich hatte auch eine angenehme Diversitt an Prfungsleistungen: Ich musste z.B. eine Prsentation halten, zwei Essays und eine Literature Review schreiben. In meinem Game-Theory Kurs hatte ich zwei Problem Sets und eine Prfung und in meinem Soziologie Kurs noch eine weitere Prfung. Das war alles gut zu bewltigen, manchmal mit Phasen in denen man mehr tun musste und dann gab es auch wieder entspanntere Phasen._x005F_x000D_
+Der Campus ist eigentlich wie eine kleine Stadt fr sich: Es gibt mehrere Clubs, Restaurants, Einkaufslden, Bars, zwei Banken, Cafs, ein Kino etc. Ich habe ganz viel gekocht und mir fast immer Essen mitgenommen, da das Essen auf dem Campus recht teuer ist (meistens mehr als 5 Pounds pro Gericht). Jeden Donnerstag gibt es einen Markt auf dem Campus, auf dem ich immer mein Gemse gekauft habe. Es gibt auch mehrere Essensstnde, vegane Kstlichkeiten und einen gro§en Bckersstand, wo es auch echt gutes Brot gibt! _x005F_x000D_
+Die Uni bietet fr Studierende, deren Muttersprache nicht Englisch ist untersttzende Kurse an. Dazu gibt es einen English Language Assessment Test in der Woche bevor die Uni anfngt. Es wird zwar gesagt, dass dieser verpflichtend ist, aber tatschlich ist er nur verpflichtend, wenn ihr auch an dem Untersttzungsangebot teilnehmen mchtet. Da gibt die Uni sich auch echt Mhe. Ich bin zwar letztendlich nicht so oft zu meinem Speaking Skills Kurs gegangen, aber bin dennoch sehr dankbar, dass so etwas angeboten wird.</t>
+  </si>
+  <si>
+    <t>Die Universitt bietet einen vielfltigen Kurskatalog an. Ich empfehle sich fr CEMS Kurse einzuschreiben. Diese bentigen meistens eine zustzliche Bewerbung, sind aber besser organisiert, haben ein anspruchsvolles Kursniveau und sind sehr praxisorientiert. Die Prfungsart ist bei den Kursen sehr unterschiedlich, bei manchen gibt es eine Abschlussprfung, bei anderen nur Prsentationen bzw. Reports. Bei Abschlussprfungen werden oft zu den normalen Prfungsterminen, Zero Terms angeboten, die man freiwillig in der letzten Vorlesung schreiben kann. Grundstzlich sollte man bei der Kursorganisation etwas mehr Geduld mitbringen, Angaben zu den Abschlussprfungen bzw. dem Prfungsumfang werden meist erst kurz vor dem Prfungstermin bekannt gegeben. Da die Kurswahl aus mehreren Runden besteht, habe ich mich am Anfang fr mehrere Kurse eingeschrieben und auch mehrere Learning Agreements erstellt, um mgliche Komplikationen zu verhindern. 
+Das Leben auf dem Campus ist sehr entspannt und kulinarisch ist fr jeden etwas dabei. An der Universitt selbst gibt es zwei Mensas, ein Kaffee und einen Kiosk. Um den Campus herum gibt es zahlreiche weitere Restaurants und Imbisse, alles fr wenig Geld, sodass es sich fast nicht lohnt zu kochen! Verglichen zur Universitt Mannheim ist die SGH und auch die Bibliothek sehr klein, man findet aber immer einen Platz zum Arbeiten. 
+Whrend dem Semester habe ich freiwillig einen Polnischkurs fr Fortgeschrittene belegt, da ich bereits gute Grundkenntnisse habe. Es werden aber auch zahlreiche Anfngerkurse angeboten, die man sich auch anrechnen kann. Auch wenn man in Warschau problemlos mit Englisch durchkommt, lohnt es sich immer ein paar Wrter in der Landesprache zu knnen.</t>
+  </si>
+  <si>
+    <t>Die Semesterzeiten sind hnlich zu denen in Mannheim, wobei die Vorlesungen im HWS 2019 schon im August begannen. Die letzten Klausuren waren dann vor Weihnachten vorbei.  Ich habe vor dem Semesterstart noch den Intensive Norwegian Summer Course belegt, einen dreiwchiger Norwegisch Kurs mit sozialem Programm. Den Kurs kann ich wirklich jedem empfehlen, da man nicht nur Norwegisch lernt, sondern auch tolle Ausflge macht.  Au§erdem kann man ber die drei Wochen hinweg entspannter Leute kennenlernen als in den drei Orientierungstagen fr die anderen Austauschstudierenden die dann im August kommen.
+Was fr mich problematisch war ist, dass anders als an der Universitt Mannheim an der NTNU keine berschneidungsfreiheit der Klausuren bei rechtzeitiger Anmeldung gewhrleistet wird, sodass ich und viele andere spontan neue Kurse suchen mussten oder auf Kurse verzichten mussten. Man whlt insgesamt deutlich weniger Kurse als an der Uni Mannheim, da ein Kurs mindestens 7,5 ECTS hatte. Die Kurse die ich belegt hatte, waren vom Workload allerdings nicht entsprechend hher als in Mannheim, eher sogar weniger anspruchsvoll.</t>
+  </si>
+  <si>
+    <t>Das Studium an der EAFIT ist nicht mit Mannheim zu vergleichen. Hier gibt es keine Klausurenphase am Ende des Semesters wie wir sie aus Mannheim kennen, sondern es gibt unter dem Semester zahlreiche Prsentationen, Midterms, Quizzes, Case Studies, und andere Abgaben. Dementsprechend muss man whrend des Semesters die ganze Zeit mitarbeiten, aber die Schwierigkeit ist geringer als in Mannheim. Es gibt an der EAFIT keine Anwesenheitspflicht, jedoch gibt es vereinzelnd Professoren, die die Anwesenheit berprfen und dafr zum Beispiel Extrapunkte geben. Da in den meisten Stunden Prfungsleistungen erbracht werden mssen, ist ein allzu hufiges Fehlen nicht mglich, jedoch haben wir die Erfahrung gemacht, dass die Professoren fr einzelnes Fehlen bei Veranstaltungen durchaus Verstndnis haben. Au§erdem kann man sich die Kurse so legen, dass man nur an einzelnen Tagen die Woche in die Uni muss. Ich zum Beispiel hatte nur am Montag, Mittwoch und Donnerstag Kurse. Aufgrund von Corona finden die Veranstaltungen au§erdem alle Hybrid statt, das hei§t man muss sich beim Professor melden, wenn man vor Ort anwesend sein will und kann sich sonst online ber Teams dazu schalten. Hier war die Qualitt der bertragung leider oft sehr schlecht, weswegen man den Vorlesungen nicht so gut folgen konnte. Jedoch wurden fast alle Veranstaltungen, die ich besucht habe, auch aufgenommen, sodass man sie sich im Nachhinein (nochmal) anschauen konnte.</t>
+  </si>
+  <si>
+    <t>Das Studium an der Drexel University ist in Quarter unterteilt. Das hei§t, dass das Semester nur 11 Wochen geht und damit relativ schnell vorbei ist. Dadurch hat man mehr Zeit, um davor und danach zu reisen (jeweils 30 Tage mit dem Visum). Allerdings fhrt das auch zu einem vollbepacktem Studium und vielen Abgaben. Man hat bereits in Woche 4-5 die ersten Mid-Terms und das Semester ist generell sehr schnell vorbei. Daher solltet ihr euch vorher Gedanken machen, ob ein so kurzes Semester fr euch in Frage kommt. Trotz der vielen Abgaben hat man noch ausreichend Zeit, um am Wochenende zu verreisen oder Freizeit zu haben. Dennoch bentigt man ein gewisses Zeitmanagement fr die zahlreichen Abgaben und muss die Zeit einplanen, um diese zu erledigen. Quantitativ hat man meiner Meinung mehr zu tun als in Mannheim, jedoch erwarten die Professoren nicht allzu viel und die Aufgaben sind meist innerhalb kurzer Zeit erledigt.
+Das Kursangebot der Drexel Universitt ist wirklich gut. Es gibt eine sehr gro§e Auswahl an BWL, aber auch Nicht-BWL Kursen. Die Prfungsarten sind sehr individuell und Professor-abhngig. Von Hausarbeiten, Klausuren, Prsentationen und sonstigen Aufgaben ist alles dabei. 
+Grundstzlich gefiel mir jeder meiner Kurse und die Lehre an der Universitt. Wie eigentlich berall in den USA gibt es sehr kleine Kursgr§en von 15-40 Personen. Dadurch erinnert der Unterricht sehr an die Schule, inklusive Anwesenheitspflicht und bewerteter Mitarbeit. Ich finde das System sehr positiv und lehrreich, wodurch ich einiges Neues lernen und viel Wissen mitnehmen konnte. Man hat au§erdem einen viel persnlicheren Kontakt zu dem Professoren als in Mannheim und bekommt auch einiges an Wissen aus der Praxis. 
+An der Drexel Universitt gibt es nicht das ãtypisch amerikanischeÒ Studentenleben. Es gibt zwar Studentenverbindungen und Partys auf dem Campus, die sind allerdings eher weniger empfehlenswert. Auch gibt es an der Drexel University nicht der gro§e Spirit in Bezug auf Sport. Trotzdem lohnt es sich eines oder mehrere Spiele der Drexel Basketballmannschaft zu besuchen (kostenlos), hier bekommt man ein wenig des Unispirits mit. Die Drexel Universitt hat eine Vielzahl an Studentengruppen und Initiativen. Ich persnlich war in keinem der Gruppen, hatte aber Freunde die beispielsweise beim Segeln, Fotoclub oder anderen Sportclubs waren und nur positives erzhlt haben. Zudem kann man kostenlos in das Gym der Drexel Universitt oder verschiedene Angebote wahrnehmen. Die Drexel Universitt hat au§erdem mehrere All-you-can-eat Mensen, in denen ihr 7x whrend des Semesters kostenlos essen knnt (Welcome Week Angebot) und mehrere Bibliotheken/Lernmglichkeiten.
+Der Campus selbst ist wirklich modern und bietet alles, was man fr ein Studium bentigt. Auch wenn man vielleicht nicht das typische amerikanische Erlebnis aus den Filmen hat (Drexel ist keine abgeschottete Campusuni) hat man andere Vorteile und lebt in einer amerikanischen Gro§stadt mit zahlreichen Mglichkeiten.</t>
+  </si>
+  <si>
+    <t>Das Studium am EUC unterscheidet sich nicht nur von dem an der Uni Mannheim, sondern auch von dem an der Erasmus Universitt. Der Unterschied zu letzterer wird schon in der Lage sichtlich, das EUC befindet sich mitten im Stadtzentrum, 300m von der Markthalle und den Kubushusern entfernt, whren der normale Campus au§erhalb der Stadt gelegen ist. Auch wenn man als Mannheimer Student gewohnt ist, wie Karl Theodor im Schloss zu residieren, ist das EUC Gebude nochmal eine Klasse fr sich. Das College wurde in eines der wenigen vom deutschen Bombenterror verschont gebliebenen Gebude, welches zuvor als Bibliothek diente, angesiedelt. Der Backsteinbau wurde vollstndig renoviert, restauriert und technologisiert. Betritt man das nur durch einen Chip zugngliche Gebude, befindet man sich in einer Welt aus glnzendem Marmor. Die Eingangshalle ist mit einem Flgel ausgestattet, der oft von Studenten in den Pausen bespielt wird. Jedes Zimmer ist mit riesigen Bildschirmen ausgestattet und die Einrichtung wirkt insgesamt sehr ãfancyÒ (so haben wir den Eindruck meist beschrieben). Ein kleines Bistro versorgt Studenten wie Lehrer mit Kaffee, hausgemachten Suppen und Baguettes. In der kleinen aber feinen Bibliothek fhlt man sich wie in einem Lesesaal der vorletzten Jahrhundertwende. Alle Zimmer sind recht klein, aber die Kursteilnehmerzahlen sind auch auf maximal 12 begrenzt. Damit kommen wir zum eigentlichen Studium. University Colleges unterscheiden sich stark von normalen Universitten. Das erste Jahr kommt dem Begriff Studium Generale ziemlich nahe, alle Studenten belegen Grundkurse wie z.B. Big History, in welchem die Geschichte der Erde seit dem Big Bang vermittelt wird. Erst im Laufe des Studiums entscheidet man, welche Richtung man einschlagen will (super System). Fr mich als Geschichtsstudenten gab es keine reinen Geschichtskurse. Interdisziplinaritt wird gro§geschrieben. Der Kurs ãModernityÒ z.B. weist den geschichtlichen Weg in die Moderne anhand gro§er Denker, deren Ideen in die Kontexte der Zeit eingeordnet wurden. Die Kurse sind rein technisch nach hnlichem Schema aufgebaut. Es gibt jede Woche unverbindliche Vorlesungen, sowie verbindliche Tutorien. Letztere werden nach dem sogenannten Problem Based Learning System abgehalten, welches die Studenten zu eigenstndiger Arbeit antreibt. In diesem System werden alle Studenten eingebunden, entwickeln zu erarbeitende Fragestellungen selbst und beantworten diese Fragen bis zur nchsten Woche. Der Tutor ist somit eher da, um die Struktur zu erhalten, oder ab und zu die Diskussionen wieder in die richtige Bahn zu fhren. Das klingt wild, ist es aber in Realitt nicht. Alles in allem sind die Anforderungen dennoch hoch, wobei die englische Sprache einen Teil dessen ausmacht. Es ist z.T. sehr viel zu lesen und regelm§ig mssen Assignments eingereicht werden, meist in Form kleiner Essays. Da alle meine vier gewhlten Kurse in Mannheim angerechnet werden sollten, war ich in Relation zu anderen eher gefordert. Trotzdem waren meine Noten schlechter als in Mannheim, allerdings ist das gr§tenteils der Sprachbarriere anzulasten. Gefhlt ist die Benotung dennoch etwas strenger, das ist aber tatschlich schwierig objektiv zu beurteilen.</t>
+  </si>
+  <si>
+    <t>Im Vergleich zu Mannheim ist das Niveau auf jeden Fall niedriger. Besonders wer schon Grundkenntnisse in den gewhlten Fchern hat, wird kaum ernsthaft herausgefordert. Im Gegensatz zu Mannheim ist die ãich-entspanne-am-Anfang des-Semesters-und-lerne-am-Ende-umso-mehrÒ-Taktik in England nicht mglich, da man in den meisten Fchern immer wieder Gruppenarbeiten oder Essays einzureichen hat. Fr die Finals reicht dann allerdings eine Klausurvorbereitung, die im Regelfall deutlich krzer ausfllt als in Mannheim.</t>
+  </si>
+  <si>
+    <t>Die Universitten in Frankreich sind nicht zu vergleichen mit denen in Deutschland denn sie sind meist etwas unorganisiert. Nach der Einfhrungsveranstaltung ist man ganz auf sich gestellt. _x005F_x000D_
+Ansonsten hatte man eine sehr interessante Auwald and Kursen und hat auch sehr viele verschiedene "dpartements" von denen man auswhlen kann.</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>neutral</t>
-  </si>
-  <si>
-    <t>positive</t>
   </si>
   <si>
     <t>negative</t>
@@ -1533,7 +1787,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E206"/>
+  <dimension ref="A1:E258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1558,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>624</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1575,16 +1829,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>156</v>
+        <v>511</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="E3" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1592,16 +1846,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>487</v>
+        <v>260</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E4" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1609,16 +1863,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>310</v>
+        <v>694</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E5" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1626,16 +1880,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>793</v>
+        <v>731</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E6" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1643,16 +1897,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>692</v>
+        <v>651</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="E7" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1660,16 +1914,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>136</v>
+        <v>922</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="E8" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1677,16 +1931,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>186</v>
+        <v>875</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E9" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1694,16 +1948,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>222</v>
+        <v>149</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="E10" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1711,16 +1965,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>479</v>
+        <v>722</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E11" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1728,16 +1982,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>255</v>
+        <v>392</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="E12" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1745,16 +1999,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>64</v>
+        <v>890</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="E13" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1762,16 +2016,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1050</v>
+        <v>556</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E14" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1779,16 +2033,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="E15" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1796,16 +2050,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>566</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E16" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1813,16 +2067,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1056</v>
+        <v>160</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="E17" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1830,16 +2084,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1151</v>
+        <v>157</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="E18" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1847,16 +2101,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1024</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="E19" t="s">
-        <v>210</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1864,16 +2118,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>698</v>
+        <v>222</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="E20" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1881,16 +2135,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>962</v>
+        <v>768</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E21" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1898,16 +2152,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1148</v>
+        <v>442</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="E22" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1915,16 +2169,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>50</v>
+        <v>969</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="E23" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1932,16 +2186,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1044</v>
+        <v>1067</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="E24" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1949,16 +2203,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1121</v>
+        <v>362</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="E25" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1966,16 +2220,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>884</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E26" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1983,16 +2237,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>952</v>
+        <v>688</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E27" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2000,16 +2254,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>751</v>
+        <v>1011</v>
       </c>
       <c r="C28" t="s">
         <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E28" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2017,16 +2271,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>457</v>
+        <v>1071</v>
       </c>
       <c r="C29" t="s">
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E29" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2034,16 +2288,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>976</v>
+        <v>117</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E30" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2051,16 +2305,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>287</v>
+        <v>691</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E31" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2068,16 +2322,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1137</v>
+        <v>148</v>
       </c>
       <c r="C32" t="s">
         <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="E32" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2085,16 +2339,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1129</v>
+        <v>994</v>
       </c>
       <c r="C33" t="s">
         <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="E33" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2102,16 +2356,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1035</v>
+        <v>175</v>
       </c>
       <c r="C34" t="s">
         <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E34" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2119,16 +2373,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>386</v>
+        <v>626</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="E35" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2136,16 +2390,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>531</v>
+        <v>1000</v>
       </c>
       <c r="C36" t="s">
         <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="E36" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2153,16 +2407,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>583</v>
+        <v>457</v>
       </c>
       <c r="C37" t="s">
         <v>39</v>
       </c>
       <c r="D37" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="E37" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2170,16 +2424,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1066</v>
+        <v>1036</v>
       </c>
       <c r="C38" t="s">
         <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E38" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2187,16 +2441,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>671</v>
+        <v>1128</v>
       </c>
       <c r="C39" t="s">
         <v>41</v>
       </c>
       <c r="D39" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="E39" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2204,16 +2458,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>681</v>
+        <v>620</v>
       </c>
       <c r="C40" t="s">
         <v>42</v>
       </c>
       <c r="D40" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="E40" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2221,16 +2475,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>771</v>
+        <v>209</v>
       </c>
       <c r="C41" t="s">
         <v>43</v>
       </c>
       <c r="D41" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="E41" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2238,16 +2492,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>428</v>
+        <v>167</v>
       </c>
       <c r="C42" t="s">
         <v>44</v>
       </c>
       <c r="D42" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E42" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2255,16 +2509,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="C43" t="s">
         <v>45</v>
       </c>
       <c r="D43" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E43" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2272,16 +2526,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>743</v>
+        <v>1118</v>
       </c>
       <c r="C44" t="s">
         <v>46</v>
       </c>
       <c r="D44" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E44" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2289,16 +2543,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>150</v>
+        <v>929</v>
       </c>
       <c r="C45" t="s">
         <v>47</v>
       </c>
       <c r="D45" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E45" t="s">
-        <v>210</v>
+        <v>263</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2306,16 +2560,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>790</v>
+        <v>54</v>
       </c>
       <c r="C46" t="s">
         <v>48</v>
       </c>
       <c r="D46" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E46" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2323,16 +2577,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1094</v>
+        <v>46</v>
       </c>
       <c r="C47" t="s">
         <v>49</v>
       </c>
       <c r="D47" t="s">
-        <v>210</v>
+        <v>263</v>
       </c>
       <c r="E47" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2340,16 +2594,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>948</v>
+        <v>816</v>
       </c>
       <c r="C48" t="s">
         <v>50</v>
       </c>
       <c r="D48" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="E48" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2357,16 +2611,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>783</v>
+        <v>502</v>
       </c>
       <c r="C49" t="s">
         <v>51</v>
       </c>
       <c r="D49" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="E49" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2374,16 +2628,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1187</v>
+        <v>1137</v>
       </c>
       <c r="C50" t="s">
         <v>52</v>
       </c>
       <c r="D50" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="E50" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2391,16 +2645,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>493</v>
+        <v>518</v>
       </c>
       <c r="C51" t="s">
         <v>53</v>
       </c>
       <c r="D51" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E51" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2408,16 +2662,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>477</v>
+        <v>928</v>
       </c>
       <c r="C52" t="s">
         <v>54</v>
       </c>
       <c r="D52" t="s">
-        <v>210</v>
+        <v>263</v>
       </c>
       <c r="E52" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2425,16 +2679,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>237</v>
+        <v>364</v>
       </c>
       <c r="C53" t="s">
         <v>55</v>
       </c>
       <c r="D53" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="E53" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2442,16 +2696,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>43</v>
+        <v>1008</v>
       </c>
       <c r="C54" t="s">
         <v>56</v>
       </c>
       <c r="D54" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="E54" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2459,16 +2713,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>678</v>
+        <v>192</v>
       </c>
       <c r="C55" t="s">
         <v>57</v>
       </c>
       <c r="D55" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="E55" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2476,16 +2730,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="C56" t="s">
         <v>58</v>
       </c>
       <c r="D56" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="E56" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2493,16 +2747,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>229</v>
+        <v>1145</v>
       </c>
       <c r="C57" t="s">
         <v>59</v>
       </c>
       <c r="D57" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="E57" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2510,16 +2764,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>788</v>
+        <v>145</v>
       </c>
       <c r="C58" t="s">
         <v>60</v>
       </c>
       <c r="D58" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E58" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2527,16 +2781,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>542</v>
+        <v>276</v>
       </c>
       <c r="C59" t="s">
         <v>61</v>
       </c>
       <c r="D59" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="E59" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2544,16 +2798,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>288</v>
+        <v>1026</v>
       </c>
       <c r="C60" t="s">
         <v>62</v>
       </c>
       <c r="D60" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E60" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2561,16 +2815,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>511</v>
+        <v>751</v>
       </c>
       <c r="C61" t="s">
         <v>63</v>
       </c>
       <c r="D61" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E61" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2578,16 +2832,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>858</v>
+        <v>1070</v>
       </c>
       <c r="C62" t="s">
         <v>64</v>
       </c>
       <c r="D62" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E62" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2595,16 +2849,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>502</v>
+        <v>1005</v>
       </c>
       <c r="C63" t="s">
         <v>65</v>
       </c>
       <c r="D63" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E63" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2612,16 +2866,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>439</v>
+        <v>499</v>
       </c>
       <c r="C64" t="s">
         <v>66</v>
       </c>
       <c r="D64" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="E64" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2629,16 +2883,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>812</v>
+        <v>543</v>
       </c>
       <c r="C65" t="s">
         <v>67</v>
       </c>
       <c r="D65" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E65" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2646,16 +2900,16 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>149</v>
+        <v>433</v>
       </c>
       <c r="C66" t="s">
         <v>68</v>
       </c>
       <c r="D66" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="E66" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2663,16 +2917,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>713</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
         <v>69</v>
       </c>
       <c r="D67" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="E67" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2680,16 +2934,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1015</v>
+        <v>208</v>
       </c>
       <c r="C68" t="s">
         <v>70</v>
       </c>
       <c r="D68" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E68" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2697,16 +2951,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>761</v>
+        <v>119</v>
       </c>
       <c r="C69" t="s">
         <v>71</v>
       </c>
       <c r="D69" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E69" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2714,16 +2968,16 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>792</v>
+        <v>520</v>
       </c>
       <c r="C70" t="s">
         <v>72</v>
       </c>
       <c r="D70" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E70" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2731,16 +2985,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>721</v>
+        <v>387</v>
       </c>
       <c r="C71" t="s">
         <v>73</v>
       </c>
       <c r="D71" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="E71" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2748,16 +3002,16 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1005</v>
+        <v>836</v>
       </c>
       <c r="C72" t="s">
         <v>74</v>
       </c>
       <c r="D72" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="E72" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2765,16 +3019,16 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>661</v>
+        <v>445</v>
       </c>
       <c r="C73" t="s">
         <v>75</v>
       </c>
       <c r="D73" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="E73" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2782,16 +3036,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>853</v>
+        <v>64</v>
       </c>
       <c r="C74" t="s">
         <v>76</v>
       </c>
       <c r="D74" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E74" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2799,16 +3053,16 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>959</v>
+        <v>826</v>
       </c>
       <c r="C75" t="s">
         <v>77</v>
       </c>
       <c r="D75" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E75" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2816,16 +3070,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>863</v>
+        <v>73</v>
       </c>
       <c r="C76" t="s">
         <v>78</v>
       </c>
       <c r="D76" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E76" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2833,16 +3087,16 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>878</v>
+        <v>294</v>
       </c>
       <c r="C77" t="s">
         <v>79</v>
       </c>
       <c r="D77" t="s">
-        <v>211</v>
+        <v>263</v>
       </c>
       <c r="E77" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2850,16 +3104,16 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>422</v>
+        <v>920</v>
       </c>
       <c r="C78" t="s">
         <v>80</v>
       </c>
       <c r="D78" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="E78" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2867,16 +3121,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>719</v>
+        <v>738</v>
       </c>
       <c r="C79" t="s">
         <v>81</v>
       </c>
       <c r="D79" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="E79" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2884,16 +3138,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>977</v>
+        <v>417</v>
       </c>
       <c r="C80" t="s">
         <v>82</v>
       </c>
       <c r="D80" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E80" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2901,16 +3155,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>13</v>
+        <v>465</v>
       </c>
       <c r="C81" t="s">
         <v>83</v>
       </c>
       <c r="D81" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E81" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2918,16 +3172,16 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>344</v>
+        <v>177</v>
       </c>
       <c r="C82" t="s">
         <v>84</v>
       </c>
       <c r="D82" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E82" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2935,16 +3189,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1185</v>
+        <v>197</v>
       </c>
       <c r="C83" t="s">
         <v>85</v>
       </c>
       <c r="D83" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="E83" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2952,16 +3206,16 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>42</v>
+        <v>774</v>
       </c>
       <c r="C84" t="s">
         <v>86</v>
       </c>
       <c r="D84" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="E84" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2969,16 +3223,16 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>491</v>
+        <v>1171</v>
       </c>
       <c r="C85" t="s">
         <v>87</v>
       </c>
       <c r="D85" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E85" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2986,16 +3240,16 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1004</v>
+        <v>1029</v>
       </c>
       <c r="C86" t="s">
         <v>88</v>
       </c>
       <c r="D86" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="E86" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3003,16 +3257,16 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>670</v>
+        <v>910</v>
       </c>
       <c r="C87" t="s">
         <v>89</v>
       </c>
       <c r="D87" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E87" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3020,16 +3274,16 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>835</v>
+        <v>878</v>
       </c>
       <c r="C88" t="s">
         <v>90</v>
       </c>
       <c r="D88" t="s">
-        <v>210</v>
+        <v>263</v>
       </c>
       <c r="E88" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3037,16 +3291,16 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>873</v>
+        <v>1047</v>
       </c>
       <c r="C89" t="s">
         <v>91</v>
       </c>
       <c r="D89" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E89" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3054,16 +3308,16 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>450</v>
+        <v>171</v>
       </c>
       <c r="C90" t="s">
         <v>92</v>
       </c>
       <c r="D90" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="E90" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3071,16 +3325,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="C91" t="s">
         <v>93</v>
       </c>
       <c r="D91" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="E91" t="s">
-        <v>210</v>
+        <v>263</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3088,16 +3342,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1122</v>
+        <v>255</v>
       </c>
       <c r="C92" t="s">
         <v>94</v>
       </c>
       <c r="D92" t="s">
-        <v>210</v>
+        <v>263</v>
       </c>
       <c r="E92" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3105,16 +3359,16 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>15</v>
+        <v>314</v>
       </c>
       <c r="C93" t="s">
         <v>95</v>
       </c>
       <c r="D93" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="E93" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3122,16 +3376,16 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>834</v>
+        <v>1167</v>
       </c>
       <c r="C94" t="s">
         <v>96</v>
       </c>
       <c r="D94" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="E94" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3139,16 +3393,16 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1210</v>
+        <v>402</v>
       </c>
       <c r="C95" t="s">
         <v>97</v>
       </c>
       <c r="D95" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="E95" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3156,16 +3410,16 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>789</v>
+        <v>136</v>
       </c>
       <c r="C96" t="s">
         <v>98</v>
       </c>
       <c r="D96" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E96" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3173,16 +3427,16 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>482</v>
+        <v>546</v>
       </c>
       <c r="C97" t="s">
         <v>99</v>
       </c>
       <c r="D97" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E97" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3190,16 +3444,16 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>745</v>
+        <v>918</v>
       </c>
       <c r="C98" t="s">
         <v>100</v>
       </c>
       <c r="D98" t="s">
-        <v>210</v>
+        <v>263</v>
       </c>
       <c r="E98" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3207,16 +3461,16 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>882</v>
+        <v>467</v>
       </c>
       <c r="C99" t="s">
         <v>101</v>
       </c>
       <c r="D99" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E99" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3224,16 +3478,16 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1027</v>
+        <v>290</v>
       </c>
       <c r="C100" t="s">
         <v>102</v>
       </c>
       <c r="D100" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="E100" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3241,16 +3495,16 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>633</v>
+        <v>100</v>
       </c>
       <c r="C101" t="s">
         <v>103</v>
       </c>
       <c r="D101" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E101" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3258,16 +3512,16 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>135</v>
+        <v>531</v>
       </c>
       <c r="C102" t="s">
         <v>104</v>
       </c>
       <c r="D102" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E102" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3275,16 +3529,16 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>1174</v>
+        <v>368</v>
       </c>
       <c r="C103" t="s">
         <v>105</v>
       </c>
       <c r="D103" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E103" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3292,16 +3546,16 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>1118</v>
+        <v>414</v>
       </c>
       <c r="C104" t="s">
         <v>106</v>
       </c>
       <c r="D104" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E104" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3309,16 +3563,16 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>3577</v>
+        <v>1116</v>
       </c>
       <c r="C105" t="s">
         <v>107</v>
       </c>
       <c r="D105" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="E105" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3326,16 +3580,16 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>302</v>
+        <v>646</v>
       </c>
       <c r="C106" t="s">
         <v>108</v>
       </c>
       <c r="D106" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3343,16 +3597,16 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>178</v>
+        <v>490</v>
       </c>
       <c r="C107" t="s">
         <v>109</v>
       </c>
       <c r="D107" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="E107" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3360,16 +3614,16 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>83</v>
+        <v>573</v>
       </c>
       <c r="C108" t="s">
         <v>110</v>
       </c>
       <c r="D108" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E108" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3377,16 +3631,16 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>1033</v>
+        <v>669</v>
       </c>
       <c r="C109" t="s">
         <v>111</v>
       </c>
       <c r="D109" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E109" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3394,16 +3648,16 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>1093</v>
+        <v>916</v>
       </c>
       <c r="C110" t="s">
         <v>112</v>
       </c>
       <c r="D110" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E110" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3411,16 +3665,16 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>864</v>
+        <v>330</v>
       </c>
       <c r="C111" t="s">
         <v>113</v>
       </c>
       <c r="D111" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E111" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3428,16 +3682,16 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>599</v>
+        <v>776</v>
       </c>
       <c r="C112" t="s">
         <v>114</v>
       </c>
       <c r="D112" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="E112" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3445,16 +3699,16 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>350</v>
+        <v>851</v>
       </c>
       <c r="C113" t="s">
         <v>115</v>
       </c>
       <c r="D113" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E113" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3462,16 +3716,16 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>289</v>
+        <v>519</v>
       </c>
       <c r="C114" t="s">
         <v>116</v>
       </c>
       <c r="D114" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E114" t="s">
-        <v>210</v>
+        <v>263</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3479,16 +3733,16 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>668</v>
+        <v>1201</v>
       </c>
       <c r="C115" t="s">
         <v>117</v>
       </c>
       <c r="D115" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="E115" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3496,16 +3750,16 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>728</v>
+        <v>643</v>
       </c>
       <c r="C116" t="s">
         <v>118</v>
       </c>
       <c r="D116" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="E116" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3513,16 +3767,16 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C117" t="s">
         <v>119</v>
       </c>
       <c r="D117" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="E117" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3530,16 +3784,16 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>548</v>
+        <v>927</v>
       </c>
       <c r="C118" t="s">
         <v>120</v>
       </c>
       <c r="D118" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="E118" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3547,16 +3801,16 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>549</v>
+        <v>320</v>
       </c>
       <c r="C119" t="s">
         <v>121</v>
       </c>
       <c r="D119" t="s">
-        <v>210</v>
+        <v>263</v>
       </c>
       <c r="E119" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3564,16 +3818,16 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>767</v>
+        <v>56</v>
       </c>
       <c r="C120" t="s">
         <v>122</v>
       </c>
       <c r="D120" t="s">
-        <v>210</v>
+        <v>263</v>
       </c>
       <c r="E120" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3581,16 +3835,16 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>576</v>
+        <v>871</v>
       </c>
       <c r="C121" t="s">
         <v>123</v>
       </c>
       <c r="D121" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="E121" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3598,16 +3852,16 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>38</v>
+        <v>895</v>
       </c>
       <c r="C122" t="s">
         <v>124</v>
       </c>
       <c r="D122" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="E122" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3615,16 +3869,16 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>359</v>
+        <v>755</v>
       </c>
       <c r="C123" t="s">
         <v>125</v>
       </c>
       <c r="D123" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="E123" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3632,16 +3886,16 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>1057</v>
+        <v>690</v>
       </c>
       <c r="C124" t="s">
         <v>126</v>
       </c>
       <c r="D124" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="E124" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3649,16 +3903,16 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>1064</v>
+        <v>371</v>
       </c>
       <c r="C125" t="s">
         <v>127</v>
       </c>
       <c r="D125" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="E125" t="s">
-        <v>210</v>
+        <v>263</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3666,16 +3920,16 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>452</v>
+        <v>834</v>
       </c>
       <c r="C126" t="s">
         <v>128</v>
       </c>
       <c r="D126" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="E126" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3683,16 +3937,16 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="C127" t="s">
         <v>129</v>
       </c>
       <c r="D127" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E127" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3700,16 +3954,16 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6</v>
+        <v>441</v>
       </c>
       <c r="C128" t="s">
         <v>130</v>
       </c>
       <c r="D128" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E128" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3717,16 +3971,16 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>53</v>
+        <v>986</v>
       </c>
       <c r="C129" t="s">
         <v>131</v>
       </c>
       <c r="D129" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E129" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3734,16 +3988,16 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>441</v>
+        <v>1057</v>
       </c>
       <c r="C130" t="s">
         <v>132</v>
       </c>
       <c r="D130" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="E130" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3751,16 +4005,16 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>296</v>
+        <v>381</v>
       </c>
       <c r="C131" t="s">
         <v>133</v>
       </c>
       <c r="D131" t="s">
-        <v>210</v>
+        <v>263</v>
       </c>
       <c r="E131" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3768,16 +4022,16 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>1211</v>
+        <v>644</v>
       </c>
       <c r="C132" t="s">
         <v>134</v>
       </c>
       <c r="D132" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="E132" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3785,16 +4039,16 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>108</v>
+        <v>567</v>
       </c>
       <c r="C133" t="s">
         <v>135</v>
       </c>
       <c r="D133" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E133" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3802,16 +4056,16 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>376</v>
+        <v>271</v>
       </c>
       <c r="C134" t="s">
         <v>136</v>
       </c>
       <c r="D134" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="E134" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3819,16 +4073,16 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>784</v>
+        <v>44</v>
       </c>
       <c r="C135" t="s">
         <v>137</v>
       </c>
       <c r="D135" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="E135" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3836,16 +4090,16 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>1096</v>
+        <v>674</v>
       </c>
       <c r="C136" t="s">
         <v>138</v>
       </c>
       <c r="D136" t="s">
-        <v>210</v>
+        <v>263</v>
       </c>
       <c r="E136" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3853,16 +4107,16 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>922</v>
+        <v>456</v>
       </c>
       <c r="C137" t="s">
         <v>139</v>
       </c>
       <c r="D137" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="E137" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3870,16 +4124,16 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>533</v>
+        <v>558</v>
       </c>
       <c r="C138" t="s">
         <v>140</v>
       </c>
       <c r="D138" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="E138" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3887,16 +4141,16 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>667</v>
+        <v>1076</v>
       </c>
       <c r="C139" t="s">
         <v>141</v>
       </c>
       <c r="D139" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="E139" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3904,16 +4158,16 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>753</v>
+        <v>166</v>
       </c>
       <c r="C140" t="s">
         <v>142</v>
       </c>
       <c r="D140" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="E140" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3921,16 +4175,16 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>220</v>
+        <v>1103</v>
       </c>
       <c r="C141" t="s">
         <v>143</v>
       </c>
       <c r="D141" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="E141" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3938,16 +4192,16 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>1101</v>
+        <v>3896</v>
       </c>
       <c r="C142" t="s">
         <v>144</v>
       </c>
       <c r="D142" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="E142" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3955,16 +4209,16 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>838</v>
+        <v>856</v>
       </c>
       <c r="C143" t="s">
         <v>145</v>
       </c>
       <c r="D143" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E143" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3972,16 +4226,16 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>368</v>
+        <v>817</v>
       </c>
       <c r="C144" t="s">
         <v>146</v>
       </c>
       <c r="D144" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="E144" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3989,16 +4243,16 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>35</v>
+        <v>285</v>
       </c>
       <c r="C145" t="s">
         <v>147</v>
       </c>
       <c r="D145" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="E145" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4006,16 +4260,16 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>781</v>
+        <v>601</v>
       </c>
       <c r="C146" t="s">
         <v>148</v>
       </c>
       <c r="D146" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E146" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4023,16 +4277,16 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>408</v>
+        <v>176</v>
       </c>
       <c r="C147" t="s">
         <v>149</v>
       </c>
       <c r="D147" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E147" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4040,16 +4294,16 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>990</v>
+        <v>383</v>
       </c>
       <c r="C148" t="s">
         <v>150</v>
       </c>
       <c r="D148" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E148" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4057,16 +4311,16 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>336</v>
+        <v>577</v>
       </c>
       <c r="C149" t="s">
         <v>151</v>
       </c>
       <c r="D149" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E149" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4074,16 +4328,16 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>447</v>
+        <v>115</v>
       </c>
       <c r="C150" t="s">
         <v>152</v>
       </c>
       <c r="D150" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E150" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4091,16 +4345,16 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>1067</v>
+        <v>95</v>
       </c>
       <c r="C151" t="s">
         <v>153</v>
       </c>
       <c r="D151" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="E151" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4108,16 +4362,16 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>665</v>
+        <v>279</v>
       </c>
       <c r="C152" t="s">
         <v>154</v>
       </c>
       <c r="D152" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="E152" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4125,16 +4379,16 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>1034</v>
+        <v>782</v>
       </c>
       <c r="C153" t="s">
         <v>155</v>
       </c>
       <c r="D153" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="E153" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4142,16 +4396,16 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>104</v>
+        <v>1111</v>
       </c>
       <c r="C154" t="s">
         <v>156</v>
       </c>
       <c r="D154" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E154" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4159,16 +4413,16 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>802</v>
+        <v>1090</v>
       </c>
       <c r="C155" t="s">
         <v>157</v>
       </c>
       <c r="D155" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E155" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4176,16 +4430,16 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>1145</v>
+        <v>866</v>
       </c>
       <c r="C156" t="s">
         <v>158</v>
       </c>
       <c r="D156" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="E156" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4193,16 +4447,16 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>448</v>
+        <v>1199</v>
       </c>
       <c r="C157" t="s">
         <v>159</v>
       </c>
       <c r="D157" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E157" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4210,16 +4464,16 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>1008</v>
+        <v>1060</v>
       </c>
       <c r="C158" t="s">
         <v>160</v>
       </c>
       <c r="D158" t="s">
-        <v>210</v>
+        <v>263</v>
       </c>
       <c r="E158" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4227,16 +4481,16 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>395</v>
+        <v>858</v>
       </c>
       <c r="C159" t="s">
         <v>161</v>
       </c>
       <c r="D159" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E159" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4244,16 +4498,16 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>1156</v>
+        <v>221</v>
       </c>
       <c r="C160" t="s">
         <v>162</v>
       </c>
       <c r="D160" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="E160" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4261,16 +4515,16 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>844</v>
+        <v>1213</v>
       </c>
       <c r="C161" t="s">
         <v>163</v>
       </c>
       <c r="D161" t="s">
-        <v>210</v>
+        <v>263</v>
       </c>
       <c r="E161" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4278,16 +4532,16 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="C162" t="s">
         <v>164</v>
       </c>
       <c r="D162" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E162" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4295,16 +4549,16 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>525</v>
+        <v>268</v>
       </c>
       <c r="C163" t="s">
         <v>165</v>
       </c>
       <c r="D163" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="E163" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4312,16 +4566,16 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="C164" t="s">
         <v>166</v>
       </c>
       <c r="D164" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E164" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4329,16 +4583,16 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>26</v>
+        <v>897</v>
       </c>
       <c r="C165" t="s">
         <v>167</v>
       </c>
       <c r="D165" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E165" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4346,16 +4600,16 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>381</v>
+        <v>1034</v>
       </c>
       <c r="C166" t="s">
         <v>168</v>
       </c>
       <c r="D166" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="E166" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4363,16 +4617,16 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>934</v>
+        <v>1113</v>
       </c>
       <c r="C167" t="s">
         <v>169</v>
       </c>
       <c r="D167" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E167" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4380,16 +4634,16 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>341</v>
+        <v>509</v>
       </c>
       <c r="C168" t="s">
         <v>170</v>
       </c>
       <c r="D168" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E168" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4397,16 +4651,16 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>12</v>
+        <v>533</v>
       </c>
       <c r="C169" t="s">
         <v>171</v>
       </c>
       <c r="D169" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="E169" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4414,16 +4668,16 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>95</v>
+        <v>837</v>
       </c>
       <c r="C170" t="s">
         <v>172</v>
       </c>
       <c r="D170" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E170" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4431,16 +4685,16 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>1162</v>
+        <v>530</v>
       </c>
       <c r="C171" t="s">
         <v>173</v>
       </c>
       <c r="D171" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="E171" t="s">
-        <v>210</v>
+        <v>263</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4448,16 +4702,16 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>703</v>
+        <v>940</v>
       </c>
       <c r="C172" t="s">
         <v>174</v>
       </c>
       <c r="D172" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="E172" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4465,16 +4719,16 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>410</v>
+        <v>471</v>
       </c>
       <c r="C173" t="s">
         <v>175</v>
       </c>
       <c r="D173" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="E173" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4482,16 +4736,16 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>746</v>
+        <v>1196</v>
       </c>
       <c r="C174" t="s">
         <v>176</v>
       </c>
       <c r="D174" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="E174" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4499,16 +4753,16 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>585</v>
+        <v>334</v>
       </c>
       <c r="C175" t="s">
         <v>177</v>
       </c>
       <c r="D175" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="E175" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4516,16 +4770,16 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>436</v>
+        <v>340</v>
       </c>
       <c r="C176" t="s">
         <v>178</v>
       </c>
       <c r="D176" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E176" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4533,16 +4787,16 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>387</v>
+        <v>4685</v>
       </c>
       <c r="C177" t="s">
         <v>179</v>
       </c>
       <c r="D177" t="s">
-        <v>210</v>
+        <v>263</v>
       </c>
       <c r="E177" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4550,16 +4804,16 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>1003</v>
+        <v>744</v>
       </c>
       <c r="C178" t="s">
         <v>180</v>
       </c>
       <c r="D178" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E178" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4567,16 +4821,16 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>1113</v>
+        <v>234</v>
       </c>
       <c r="C179" t="s">
         <v>181</v>
       </c>
       <c r="D179" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E179" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4584,16 +4838,16 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>1177</v>
+        <v>1129</v>
       </c>
       <c r="C180" t="s">
         <v>182</v>
       </c>
       <c r="D180" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="E180" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4601,16 +4855,16 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>375</v>
+        <v>1160</v>
       </c>
       <c r="C181" t="s">
         <v>183</v>
       </c>
       <c r="D181" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E181" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4618,16 +4872,16 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>657</v>
+        <v>835</v>
       </c>
       <c r="C182" t="s">
         <v>184</v>
       </c>
       <c r="D182" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="E182" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4635,16 +4889,16 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>905</v>
+        <v>972</v>
       </c>
       <c r="C183" t="s">
         <v>185</v>
       </c>
       <c r="D183" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E183" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4652,16 +4906,16 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>975</v>
+        <v>562</v>
       </c>
       <c r="C184" t="s">
         <v>186</v>
       </c>
       <c r="D184" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="E184" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4669,16 +4923,16 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>124</v>
+        <v>1148</v>
       </c>
       <c r="C185" t="s">
         <v>187</v>
       </c>
       <c r="D185" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E185" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4686,16 +4940,16 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>1189</v>
+        <v>78</v>
       </c>
       <c r="C186" t="s">
         <v>188</v>
       </c>
       <c r="D186" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="E186" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4703,16 +4957,16 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>1140</v>
+        <v>932</v>
       </c>
       <c r="C187" t="s">
         <v>189</v>
       </c>
       <c r="D187" t="s">
-        <v>210</v>
+        <v>263</v>
       </c>
       <c r="E187" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4720,16 +4974,16 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>1167</v>
+        <v>1110</v>
       </c>
       <c r="C188" t="s">
         <v>190</v>
       </c>
       <c r="D188" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="E188" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4737,16 +4991,16 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>901</v>
+        <v>525</v>
       </c>
       <c r="C189" t="s">
         <v>191</v>
       </c>
       <c r="D189" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E189" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4754,16 +5008,16 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>1081</v>
+        <v>5840</v>
       </c>
       <c r="C190" t="s">
         <v>192</v>
       </c>
       <c r="D190" t="s">
-        <v>211</v>
+        <v>263</v>
       </c>
       <c r="E190" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4771,16 +5025,16 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>925</v>
+        <v>411</v>
       </c>
       <c r="C191" t="s">
         <v>193</v>
       </c>
       <c r="D191" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E191" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4788,16 +5042,16 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>56</v>
+        <v>287</v>
       </c>
       <c r="C192" t="s">
         <v>194</v>
       </c>
       <c r="D192" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="E192" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4805,16 +5059,16 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>462</v>
+        <v>988</v>
       </c>
       <c r="C193" t="s">
         <v>195</v>
       </c>
       <c r="D193" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="E193" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4822,16 +5076,16 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>860</v>
+        <v>725</v>
       </c>
       <c r="C194" t="s">
         <v>196</v>
       </c>
       <c r="D194" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E194" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4839,16 +5093,16 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>822</v>
+        <v>1032</v>
       </c>
       <c r="C195" t="s">
         <v>197</v>
       </c>
       <c r="D195" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E195" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4856,16 +5110,16 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>196</v>
+        <v>719</v>
       </c>
       <c r="C196" t="s">
         <v>198</v>
       </c>
       <c r="D196" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="E196" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4873,16 +5127,16 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>799</v>
+        <v>397</v>
       </c>
       <c r="C197" t="s">
         <v>199</v>
       </c>
       <c r="D197" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E197" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4890,16 +5144,16 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>388</v>
+        <v>842</v>
       </c>
       <c r="C198" t="s">
         <v>200</v>
       </c>
       <c r="D198" t="s">
-        <v>210</v>
+        <v>263</v>
       </c>
       <c r="E198" t="s">
-        <v>210</v>
+        <v>263</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4907,16 +5161,16 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>1043</v>
+        <v>405</v>
       </c>
       <c r="C199" t="s">
         <v>201</v>
       </c>
       <c r="D199" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="E199" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4924,16 +5178,16 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>219</v>
+        <v>1083</v>
       </c>
       <c r="C200" t="s">
         <v>202</v>
       </c>
       <c r="D200" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="E200" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4941,16 +5195,16 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>1209</v>
+        <v>150</v>
       </c>
       <c r="C201" t="s">
         <v>203</v>
       </c>
       <c r="D201" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="E201" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4958,16 +5212,16 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="C202" t="s">
         <v>204</v>
       </c>
       <c r="D202" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E202" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4975,16 +5229,16 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>739</v>
+        <v>26</v>
       </c>
       <c r="C203" t="s">
         <v>205</v>
       </c>
       <c r="D203" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="E203" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4992,16 +5246,16 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>113</v>
+        <v>303</v>
       </c>
       <c r="C204" t="s">
         <v>206</v>
       </c>
       <c r="D204" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="E204" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5009,16 +5263,16 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>241</v>
+        <v>1149</v>
       </c>
       <c r="C205" t="s">
         <v>207</v>
       </c>
       <c r="D205" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="E205" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5026,16 +5280,900 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>929</v>
+        <v>1159</v>
       </c>
       <c r="C206" t="s">
         <v>208</v>
       </c>
       <c r="D206" t="s">
+        <v>262</v>
+      </c>
+      <c r="E206" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>1021</v>
+      </c>
+      <c r="C207" t="s">
         <v>209</v>
       </c>
-      <c r="E206" t="s">
+      <c r="D207" t="s">
+        <v>263</v>
+      </c>
+      <c r="E207" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>151</v>
+      </c>
+      <c r="C208" t="s">
         <v>210</v>
+      </c>
+      <c r="D208" t="s">
+        <v>262</v>
+      </c>
+      <c r="E208" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>682</v>
+      </c>
+      <c r="C209" t="s">
+        <v>211</v>
+      </c>
+      <c r="D209" t="s">
+        <v>262</v>
+      </c>
+      <c r="E209" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>43</v>
+      </c>
+      <c r="C210" t="s">
+        <v>212</v>
+      </c>
+      <c r="D210" t="s">
+        <v>262</v>
+      </c>
+      <c r="E210" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>1017</v>
+      </c>
+      <c r="C211" t="s">
+        <v>213</v>
+      </c>
+      <c r="D211" t="s">
+        <v>261</v>
+      </c>
+      <c r="E211" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>792</v>
+      </c>
+      <c r="C212" t="s">
+        <v>214</v>
+      </c>
+      <c r="D212" t="s">
+        <v>261</v>
+      </c>
+      <c r="E212" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>104</v>
+      </c>
+      <c r="C213" t="s">
+        <v>215</v>
+      </c>
+      <c r="D213" t="s">
+        <v>261</v>
+      </c>
+      <c r="E213" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>170</v>
+      </c>
+      <c r="C214" t="s">
+        <v>216</v>
+      </c>
+      <c r="D214" t="s">
+        <v>262</v>
+      </c>
+      <c r="E214" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>1115</v>
+      </c>
+      <c r="C215" t="s">
+        <v>217</v>
+      </c>
+      <c r="D215" t="s">
+        <v>262</v>
+      </c>
+      <c r="E215" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>542</v>
+      </c>
+      <c r="C216" t="s">
+        <v>218</v>
+      </c>
+      <c r="D216" t="s">
+        <v>262</v>
+      </c>
+      <c r="E216" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>280</v>
+      </c>
+      <c r="C217" t="s">
+        <v>219</v>
+      </c>
+      <c r="D217" t="s">
+        <v>262</v>
+      </c>
+      <c r="E217" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>663</v>
+      </c>
+      <c r="C218" t="s">
+        <v>220</v>
+      </c>
+      <c r="D218" t="s">
+        <v>261</v>
+      </c>
+      <c r="E218" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>954</v>
+      </c>
+      <c r="C219" t="s">
+        <v>221</v>
+      </c>
+      <c r="D219" t="s">
+        <v>261</v>
+      </c>
+      <c r="E219" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>739</v>
+      </c>
+      <c r="C220" t="s">
+        <v>222</v>
+      </c>
+      <c r="D220" t="s">
+        <v>261</v>
+      </c>
+      <c r="E220" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>370</v>
+      </c>
+      <c r="C221" t="s">
+        <v>223</v>
+      </c>
+      <c r="D221" t="s">
+        <v>261</v>
+      </c>
+      <c r="E221" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>107</v>
+      </c>
+      <c r="C222" t="s">
+        <v>224</v>
+      </c>
+      <c r="D222" t="s">
+        <v>261</v>
+      </c>
+      <c r="E222" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>773</v>
+      </c>
+      <c r="C223" t="s">
+        <v>225</v>
+      </c>
+      <c r="D223" t="s">
+        <v>262</v>
+      </c>
+      <c r="E223" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>1102</v>
+      </c>
+      <c r="C224" t="s">
+        <v>226</v>
+      </c>
+      <c r="D224" t="s">
+        <v>261</v>
+      </c>
+      <c r="E224" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>806</v>
+      </c>
+      <c r="C225" t="s">
+        <v>227</v>
+      </c>
+      <c r="D225" t="s">
+        <v>261</v>
+      </c>
+      <c r="E225" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>292</v>
+      </c>
+      <c r="C226" t="s">
+        <v>228</v>
+      </c>
+      <c r="D226" t="s">
+        <v>262</v>
+      </c>
+      <c r="E226" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>6</v>
+      </c>
+      <c r="C227" t="s">
+        <v>229</v>
+      </c>
+      <c r="D227" t="s">
+        <v>261</v>
+      </c>
+      <c r="E227" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>668</v>
+      </c>
+      <c r="C228" t="s">
+        <v>230</v>
+      </c>
+      <c r="D228" t="s">
+        <v>262</v>
+      </c>
+      <c r="E228" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>1119</v>
+      </c>
+      <c r="C229" t="s">
+        <v>231</v>
+      </c>
+      <c r="D229" t="s">
+        <v>261</v>
+      </c>
+      <c r="E229" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>226</v>
+      </c>
+      <c r="C230" t="s">
+        <v>232</v>
+      </c>
+      <c r="D230" t="s">
+        <v>262</v>
+      </c>
+      <c r="E230" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>964</v>
+      </c>
+      <c r="C231" t="s">
+        <v>233</v>
+      </c>
+      <c r="D231" t="s">
+        <v>263</v>
+      </c>
+      <c r="E231" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>14</v>
+      </c>
+      <c r="C232" t="s">
+        <v>234</v>
+      </c>
+      <c r="D232" t="s">
+        <v>262</v>
+      </c>
+      <c r="E232" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>1125</v>
+      </c>
+      <c r="C233" t="s">
+        <v>235</v>
+      </c>
+      <c r="D233" t="s">
+        <v>262</v>
+      </c>
+      <c r="E233" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>784</v>
+      </c>
+      <c r="C234" t="s">
+        <v>236</v>
+      </c>
+      <c r="D234" t="s">
+        <v>263</v>
+      </c>
+      <c r="E234" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>534</v>
+      </c>
+      <c r="C235" t="s">
+        <v>237</v>
+      </c>
+      <c r="D235" t="s">
+        <v>261</v>
+      </c>
+      <c r="E235" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>355</v>
+      </c>
+      <c r="C236" t="s">
+        <v>238</v>
+      </c>
+      <c r="D236" t="s">
+        <v>261</v>
+      </c>
+      <c r="E236" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>436</v>
+      </c>
+      <c r="C237" t="s">
+        <v>239</v>
+      </c>
+      <c r="D237" t="s">
+        <v>261</v>
+      </c>
+      <c r="E237" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>295</v>
+      </c>
+      <c r="C238" t="s">
+        <v>240</v>
+      </c>
+      <c r="D238" t="s">
+        <v>261</v>
+      </c>
+      <c r="E238" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>912</v>
+      </c>
+      <c r="C239" t="s">
+        <v>241</v>
+      </c>
+      <c r="D239" t="s">
+        <v>261</v>
+      </c>
+      <c r="E239" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>697</v>
+      </c>
+      <c r="C240" t="s">
+        <v>242</v>
+      </c>
+      <c r="D240" t="s">
+        <v>262</v>
+      </c>
+      <c r="E240" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>140</v>
+      </c>
+      <c r="C241" t="s">
+        <v>243</v>
+      </c>
+      <c r="D241" t="s">
+        <v>261</v>
+      </c>
+      <c r="E241" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>135</v>
+      </c>
+      <c r="C242" t="s">
+        <v>244</v>
+      </c>
+      <c r="D242" t="s">
+        <v>261</v>
+      </c>
+      <c r="E242" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>37</v>
+      </c>
+      <c r="C243" t="s">
+        <v>245</v>
+      </c>
+      <c r="D243" t="s">
+        <v>263</v>
+      </c>
+      <c r="E243" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>750</v>
+      </c>
+      <c r="C244" t="s">
+        <v>246</v>
+      </c>
+      <c r="D244" t="s">
+        <v>261</v>
+      </c>
+      <c r="E244" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>425</v>
+      </c>
+      <c r="C245" t="s">
+        <v>247</v>
+      </c>
+      <c r="D245" t="s">
+        <v>262</v>
+      </c>
+      <c r="E245" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>239</v>
+      </c>
+      <c r="C246" t="s">
+        <v>248</v>
+      </c>
+      <c r="D246" t="s">
+        <v>261</v>
+      </c>
+      <c r="E246" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>12</v>
+      </c>
+      <c r="C247" t="s">
+        <v>249</v>
+      </c>
+      <c r="D247" t="s">
+        <v>262</v>
+      </c>
+      <c r="E247" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>1031</v>
+      </c>
+      <c r="C248" t="s">
+        <v>250</v>
+      </c>
+      <c r="D248" t="s">
+        <v>261</v>
+      </c>
+      <c r="E248" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>214</v>
+      </c>
+      <c r="C249" t="s">
+        <v>251</v>
+      </c>
+      <c r="D249" t="s">
+        <v>262</v>
+      </c>
+      <c r="E249" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>565</v>
+      </c>
+      <c r="C250" t="s">
+        <v>252</v>
+      </c>
+      <c r="D250" t="s">
+        <v>263</v>
+      </c>
+      <c r="E250" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>110</v>
+      </c>
+      <c r="C251" t="s">
+        <v>253</v>
+      </c>
+      <c r="D251" t="s">
+        <v>261</v>
+      </c>
+      <c r="E251" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>579</v>
+      </c>
+      <c r="C252" t="s">
+        <v>254</v>
+      </c>
+      <c r="D252" t="s">
+        <v>261</v>
+      </c>
+      <c r="E252" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>581</v>
+      </c>
+      <c r="C253" t="s">
+        <v>255</v>
+      </c>
+      <c r="D253" t="s">
+        <v>262</v>
+      </c>
+      <c r="E253" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>624</v>
+      </c>
+      <c r="C254" t="s">
+        <v>256</v>
+      </c>
+      <c r="D254" t="s">
+        <v>262</v>
+      </c>
+      <c r="E254" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>262</v>
+      </c>
+      <c r="C255" t="s">
+        <v>257</v>
+      </c>
+      <c r="D255" t="s">
+        <v>261</v>
+      </c>
+      <c r="E255" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>179</v>
+      </c>
+      <c r="C256" t="s">
+        <v>258</v>
+      </c>
+      <c r="D256" t="s">
+        <v>262</v>
+      </c>
+      <c r="E256" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>147</v>
+      </c>
+      <c r="C257" t="s">
+        <v>259</v>
+      </c>
+      <c r="D257" t="s">
+        <v>262</v>
+      </c>
+      <c r="E257" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>810</v>
+      </c>
+      <c r="C258" t="s">
+        <v>260</v>
+      </c>
+      <c r="D258" t="s">
+        <v>262</v>
+      </c>
+      <c r="E258" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
